--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="光大" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">国泰君安!$A$1:$H$207</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -15300,7 +15299,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15364,6 +15363,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15664,7 +15669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -16058,9 +16063,6 @@
     <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16068,6 +16070,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16142,22 +16147,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16168,6 +16164,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16184,6 +16189,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16681,8 +16687,8 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16708,10 +16714,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="171" t="s">
+      <c r="B2" s="174" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="78" t="s">
@@ -16722,8 +16728,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="174"/>
+      <c r="B3" s="174"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -16732,8 +16738,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="174"/>
+      <c r="B4" s="174"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -16742,8 +16748,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="174"/>
+      <c r="B5" s="174"/>
       <c r="C5" s="78" t="s">
         <v>9</v>
       </c>
@@ -16752,8 +16758,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -16762,8 +16768,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="171"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="174"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -16772,8 +16778,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
-      <c r="B8" s="171"/>
+      <c r="A8" s="174"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="78" t="s">
         <v>12</v>
       </c>
@@ -16782,8 +16788,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="171"/>
-      <c r="B9" s="171"/>
+      <c r="A9" s="174"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -16792,8 +16798,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="171"/>
-      <c r="B10" s="171"/>
+      <c r="A10" s="174"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="78" t="s">
         <v>14</v>
       </c>
@@ -16802,8 +16808,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="174"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -16812,8 +16818,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="171"/>
-      <c r="B12" s="171"/>
+      <c r="A12" s="174"/>
+      <c r="B12" s="174"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -16822,8 +16828,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="171"/>
-      <c r="B13" s="171"/>
+      <c r="A13" s="174"/>
+      <c r="B13" s="174"/>
       <c r="C13" s="78" t="s">
         <v>17</v>
       </c>
@@ -16832,14 +16838,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="171"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="173"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="171"/>
-      <c r="B15" s="171" t="s">
+      <c r="A15" s="174"/>
+      <c r="B15" s="174" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -16850,8 +16856,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="174"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -16860,8 +16866,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="171"/>
+      <c r="A17" s="174"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -16870,8 +16876,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="171"/>
-      <c r="B18" s="171"/>
+      <c r="A18" s="174"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -16880,8 +16886,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="171"/>
-      <c r="B19" s="171"/>
+      <c r="A19" s="174"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -16890,8 +16896,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
-      <c r="B20" s="171"/>
+      <c r="A20" s="174"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -16900,8 +16906,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="171"/>
-      <c r="B21" s="171"/>
+      <c r="A21" s="174"/>
+      <c r="B21" s="174"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -16910,14 +16916,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="171"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
+      <c r="A22" s="174"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="173"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="171"/>
-      <c r="B23" s="171" t="s">
+      <c r="A23" s="174"/>
+      <c r="B23" s="174" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -16928,8 +16934,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="171"/>
-      <c r="B24" s="171"/>
+      <c r="A24" s="174"/>
+      <c r="B24" s="174"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -16938,8 +16944,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="171"/>
-      <c r="B25" s="171"/>
+      <c r="A25" s="174"/>
+      <c r="B25" s="174"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -16948,8 +16954,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="171"/>
-      <c r="B26" s="171"/>
+      <c r="A26" s="174"/>
+      <c r="B26" s="174"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -16958,8 +16964,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="171"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="174"/>
+      <c r="B27" s="174"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -16968,8 +16974,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="171"/>
-      <c r="B28" s="171"/>
+      <c r="A28" s="174"/>
+      <c r="B28" s="174"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -16978,8 +16984,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="171"/>
-      <c r="B29" s="171"/>
+      <c r="A29" s="174"/>
+      <c r="B29" s="174"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -16988,8 +16994,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="171"/>
-      <c r="B30" s="171"/>
+      <c r="A30" s="174"/>
+      <c r="B30" s="174"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -16998,8 +17004,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="171"/>
-      <c r="B31" s="171"/>
+      <c r="A31" s="174"/>
+      <c r="B31" s="174"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17008,8 +17014,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="171"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="174"/>
+      <c r="B32" s="174"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17018,8 +17024,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="171"/>
-      <c r="B33" s="171"/>
+      <c r="A33" s="174"/>
+      <c r="B33" s="174"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17028,8 +17034,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="171"/>
-      <c r="B34" s="171"/>
+      <c r="A34" s="174"/>
+      <c r="B34" s="174"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17038,14 +17044,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="171"/>
-      <c r="B35" s="172"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="174"/>
+      <c r="A35" s="174"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="173"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="171"/>
-      <c r="B36" s="171" t="s">
+      <c r="A36" s="174"/>
+      <c r="B36" s="174" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17056,8 +17062,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="171"/>
-      <c r="B37" s="171"/>
+      <c r="A37" s="174"/>
+      <c r="B37" s="174"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17066,8 +17072,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="171"/>
-      <c r="B38" s="171"/>
+      <c r="A38" s="174"/>
+      <c r="B38" s="174"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17076,8 +17082,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="171"/>
-      <c r="B39" s="171"/>
+      <c r="A39" s="174"/>
+      <c r="B39" s="174"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17086,8 +17092,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="171"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="174"/>
+      <c r="B40" s="174"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17096,8 +17102,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="171"/>
-      <c r="B41" s="171"/>
+      <c r="A41" s="174"/>
+      <c r="B41" s="174"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17106,8 +17112,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="171"/>
-      <c r="B42" s="171"/>
+      <c r="A42" s="174"/>
+      <c r="B42" s="174"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17116,8 +17122,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="171"/>
-      <c r="B43" s="171"/>
+      <c r="A43" s="174"/>
+      <c r="B43" s="174"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17126,8 +17132,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="171"/>
-      <c r="B44" s="171"/>
+      <c r="A44" s="174"/>
+      <c r="B44" s="174"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17136,8 +17142,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="171"/>
-      <c r="B45" s="171"/>
+      <c r="A45" s="174"/>
+      <c r="B45" s="174"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17146,8 +17152,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="171"/>
-      <c r="B46" s="171"/>
+      <c r="A46" s="174"/>
+      <c r="B46" s="174"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17156,8 +17162,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="171"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="174"/>
+      <c r="B47" s="174"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17166,8 +17172,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="171"/>
-      <c r="B48" s="171"/>
+      <c r="A48" s="174"/>
+      <c r="B48" s="174"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17176,8 +17182,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="171"/>
-      <c r="B49" s="171"/>
+      <c r="A49" s="174"/>
+      <c r="B49" s="174"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17186,8 +17192,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="171"/>
-      <c r="B50" s="171"/>
+      <c r="A50" s="174"/>
+      <c r="B50" s="174"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17196,8 +17202,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="171"/>
-      <c r="B51" s="171"/>
+      <c r="A51" s="174"/>
+      <c r="B51" s="174"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17206,14 +17212,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="171"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="174"/>
+      <c r="A52" s="174"/>
+      <c r="B52" s="171"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="173"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="171"/>
-      <c r="B53" s="171" t="s">
+      <c r="A53" s="174"/>
+      <c r="B53" s="174" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17224,8 +17230,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="171"/>
-      <c r="B54" s="171"/>
+      <c r="A54" s="174"/>
+      <c r="B54" s="174"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17234,8 +17240,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="171"/>
-      <c r="B55" s="171"/>
+      <c r="A55" s="174"/>
+      <c r="B55" s="174"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17244,8 +17250,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="171"/>
-      <c r="B56" s="171"/>
+      <c r="A56" s="174"/>
+      <c r="B56" s="174"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17254,8 +17260,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="171"/>
-      <c r="B57" s="171"/>
+      <c r="A57" s="174"/>
+      <c r="B57" s="174"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17264,8 +17270,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="171"/>
-      <c r="B58" s="171"/>
+      <c r="A58" s="174"/>
+      <c r="B58" s="174"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17274,8 +17280,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="171"/>
-      <c r="B59" s="171"/>
+      <c r="A59" s="174"/>
+      <c r="B59" s="174"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17284,16 +17290,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="172"/>
-      <c r="B60" s="173"/>
-      <c r="C60" s="173"/>
-      <c r="D60" s="174"/>
+      <c r="A60" s="171"/>
+      <c r="B60" s="172"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="173"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="171" t="s">
+      <c r="A61" s="174" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="171" t="s">
+      <c r="B61" s="174" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17304,8 +17310,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="171"/>
-      <c r="B62" s="171"/>
+      <c r="A62" s="174"/>
+      <c r="B62" s="174"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17314,8 +17320,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="171"/>
-      <c r="B63" s="171"/>
+      <c r="A63" s="174"/>
+      <c r="B63" s="174"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17324,8 +17330,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="171"/>
-      <c r="B64" s="171"/>
+      <c r="A64" s="174"/>
+      <c r="B64" s="174"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17334,8 +17340,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="171"/>
-      <c r="B65" s="171"/>
+      <c r="A65" s="174"/>
+      <c r="B65" s="174"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17344,8 +17350,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="171"/>
-      <c r="B66" s="171"/>
+      <c r="A66" s="174"/>
+      <c r="B66" s="174"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17354,14 +17360,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="171"/>
-      <c r="B67" s="172"/>
-      <c r="C67" s="173"/>
-      <c r="D67" s="174"/>
+      <c r="A67" s="174"/>
+      <c r="B67" s="171"/>
+      <c r="C67" s="172"/>
+      <c r="D67" s="173"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="171"/>
-      <c r="B68" s="171" t="s">
+      <c r="A68" s="174"/>
+      <c r="B68" s="174" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17372,8 +17378,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="171"/>
-      <c r="B69" s="171"/>
+      <c r="A69" s="174"/>
+      <c r="B69" s="174"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17382,8 +17388,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="171"/>
-      <c r="B70" s="171"/>
+      <c r="A70" s="174"/>
+      <c r="B70" s="174"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17392,8 +17398,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="171"/>
-      <c r="B71" s="171"/>
+      <c r="A71" s="174"/>
+      <c r="B71" s="174"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17402,8 +17408,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="171"/>
-      <c r="B72" s="171"/>
+      <c r="A72" s="174"/>
+      <c r="B72" s="174"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17412,8 +17418,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="171"/>
-      <c r="B73" s="171"/>
+      <c r="A73" s="174"/>
+      <c r="B73" s="174"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17422,8 +17428,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="171"/>
-      <c r="B74" s="171"/>
+      <c r="A74" s="174"/>
+      <c r="B74" s="174"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17432,8 +17438,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="171"/>
-      <c r="B75" s="171"/>
+      <c r="A75" s="174"/>
+      <c r="B75" s="174"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17442,8 +17448,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="171"/>
-      <c r="B76" s="171"/>
+      <c r="A76" s="174"/>
+      <c r="B76" s="174"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17452,8 +17458,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="171"/>
-      <c r="B77" s="171"/>
+      <c r="A77" s="174"/>
+      <c r="B77" s="174"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17462,14 +17468,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="171"/>
-      <c r="B78" s="172"/>
-      <c r="C78" s="173"/>
-      <c r="D78" s="174"/>
+      <c r="A78" s="174"/>
+      <c r="B78" s="171"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="173"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="171"/>
-      <c r="B79" s="171" t="s">
+      <c r="A79" s="174"/>
+      <c r="B79" s="174" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17480,8 +17486,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="171"/>
-      <c r="B80" s="171"/>
+      <c r="A80" s="174"/>
+      <c r="B80" s="174"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17490,8 +17496,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="171"/>
-      <c r="B81" s="171"/>
+      <c r="A81" s="174"/>
+      <c r="B81" s="174"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17500,8 +17506,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="171"/>
-      <c r="B82" s="171"/>
+      <c r="A82" s="174"/>
+      <c r="B82" s="174"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17510,8 +17516,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="171"/>
-      <c r="B83" s="171"/>
+      <c r="A83" s="174"/>
+      <c r="B83" s="174"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17520,8 +17526,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="171"/>
-      <c r="B84" s="171"/>
+      <c r="A84" s="174"/>
+      <c r="B84" s="174"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17530,14 +17536,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="171"/>
-      <c r="B85" s="172"/>
-      <c r="C85" s="173"/>
-      <c r="D85" s="174"/>
+      <c r="A85" s="174"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="173"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="171"/>
-      <c r="B86" s="171" t="s">
+      <c r="A86" s="174"/>
+      <c r="B86" s="174" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17548,8 +17554,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="171"/>
-      <c r="B87" s="171"/>
+      <c r="A87" s="174"/>
+      <c r="B87" s="174"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17558,8 +17564,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="171"/>
-      <c r="B88" s="171"/>
+      <c r="A88" s="174"/>
+      <c r="B88" s="174"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17568,8 +17574,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="171"/>
-      <c r="B89" s="171"/>
+      <c r="A89" s="174"/>
+      <c r="B89" s="174"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17578,16 +17584,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="172"/>
-      <c r="B90" s="173"/>
-      <c r="C90" s="173"/>
-      <c r="D90" s="174"/>
+      <c r="A90" s="171"/>
+      <c r="B90" s="172"/>
+      <c r="C90" s="172"/>
+      <c r="D90" s="173"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="171" t="s">
+      <c r="A91" s="174" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="171" t="s">
+      <c r="B91" s="174" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17598,8 +17604,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="171"/>
-      <c r="B92" s="171"/>
+      <c r="A92" s="174"/>
+      <c r="B92" s="174"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17608,8 +17614,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="171"/>
-      <c r="B93" s="171"/>
+      <c r="A93" s="174"/>
+      <c r="B93" s="174"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17618,8 +17624,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="171"/>
-      <c r="B94" s="171"/>
+      <c r="A94" s="174"/>
+      <c r="B94" s="174"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17628,8 +17634,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="171"/>
-      <c r="B95" s="171"/>
+      <c r="A95" s="174"/>
+      <c r="B95" s="174"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17638,8 +17644,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="171"/>
-      <c r="B96" s="171"/>
+      <c r="A96" s="174"/>
+      <c r="B96" s="174"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17648,8 +17654,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="171"/>
-      <c r="B97" s="171"/>
+      <c r="A97" s="174"/>
+      <c r="B97" s="174"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17658,8 +17664,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="171"/>
-      <c r="B98" s="171"/>
+      <c r="A98" s="174"/>
+      <c r="B98" s="174"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17668,8 +17674,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="171"/>
-      <c r="B99" s="171"/>
+      <c r="A99" s="174"/>
+      <c r="B99" s="174"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17678,8 +17684,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="171"/>
-      <c r="B100" s="171"/>
+      <c r="A100" s="174"/>
+      <c r="B100" s="174"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17688,8 +17694,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="171"/>
-      <c r="B101" s="171"/>
+      <c r="A101" s="174"/>
+      <c r="B101" s="174"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17698,8 +17704,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="171"/>
-      <c r="B102" s="171"/>
+      <c r="A102" s="174"/>
+      <c r="B102" s="174"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17708,8 +17714,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="171"/>
-      <c r="B103" s="171"/>
+      <c r="A103" s="174"/>
+      <c r="B103" s="174"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17718,8 +17724,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="171"/>
-      <c r="B104" s="171"/>
+      <c r="A104" s="174"/>
+      <c r="B104" s="174"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17728,8 +17734,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="171"/>
-      <c r="B105" s="171"/>
+      <c r="A105" s="174"/>
+      <c r="B105" s="174"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17738,8 +17744,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="171"/>
-      <c r="B106" s="171"/>
+      <c r="A106" s="174"/>
+      <c r="B106" s="174"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17748,8 +17754,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="171"/>
-      <c r="B107" s="171"/>
+      <c r="A107" s="174"/>
+      <c r="B107" s="174"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17758,8 +17764,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="171"/>
-      <c r="B108" s="171"/>
+      <c r="A108" s="174"/>
+      <c r="B108" s="174"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17768,8 +17774,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="171"/>
-      <c r="B109" s="171"/>
+      <c r="A109" s="174"/>
+      <c r="B109" s="174"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17778,8 +17784,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="171"/>
-      <c r="B110" s="171"/>
+      <c r="A110" s="174"/>
+      <c r="B110" s="174"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17788,16 +17794,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="172"/>
-      <c r="B111" s="173"/>
-      <c r="C111" s="173"/>
-      <c r="D111" s="174"/>
+      <c r="A111" s="171"/>
+      <c r="B111" s="172"/>
+      <c r="C111" s="172"/>
+      <c r="D111" s="173"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="171" t="s">
+      <c r="A112" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="171" t="s">
+      <c r="B112" s="174" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -17808,8 +17814,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="171"/>
-      <c r="B113" s="171"/>
+      <c r="A113" s="174"/>
+      <c r="B113" s="174"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -17818,8 +17824,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="171"/>
-      <c r="B114" s="171"/>
+      <c r="A114" s="174"/>
+      <c r="B114" s="174"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -17828,8 +17834,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="171"/>
-      <c r="B115" s="171"/>
+      <c r="A115" s="174"/>
+      <c r="B115" s="174"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -17838,8 +17844,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="171"/>
-      <c r="B116" s="171"/>
+      <c r="A116" s="174"/>
+      <c r="B116" s="174"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -17848,8 +17854,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="171"/>
-      <c r="B117" s="171"/>
+      <c r="A117" s="174"/>
+      <c r="B117" s="174"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -17859,6 +17865,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -17872,18 +17890,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19427,7 +19433,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="202" t="s">
+      <c r="A33" s="199" t="s">
         <v>1040</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19441,7 +19447,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="203"/>
+      <c r="A34" s="201"/>
       <c r="B34" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19449,7 +19455,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="203"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19457,7 +19463,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="203"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="19" t="s">
         <v>1028</v>
       </c>
@@ -19465,7 +19471,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="203"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="19" t="s">
         <v>998</v>
       </c>
@@ -19473,7 +19479,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="204"/>
+      <c r="A38" s="200"/>
       <c r="B38" s="54" t="s">
         <v>1028</v>
       </c>
@@ -19481,7 +19487,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="202" t="s">
+      <c r="A40" s="199" t="s">
         <v>1042</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19493,7 +19499,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="204"/>
+      <c r="A41" s="200"/>
       <c r="B41" s="54" t="s">
         <v>1030</v>
       </c>
@@ -19506,7 +19512,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="199" t="s">
         <v>1044</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19520,7 +19526,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="203"/>
+      <c r="A45" s="201"/>
       <c r="B45" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19528,7 +19534,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="203"/>
+      <c r="A46" s="201"/>
       <c r="B46" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19536,7 +19542,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="203"/>
+      <c r="A47" s="201"/>
       <c r="B47" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19544,7 +19550,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="203"/>
+      <c r="A48" s="201"/>
       <c r="B48" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19552,7 +19558,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="203"/>
+      <c r="A49" s="201"/>
       <c r="B49" s="19" t="s">
         <v>1036</v>
       </c>
@@ -19560,7 +19566,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="204"/>
+      <c r="A50" s="200"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19621,7 +19627,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="205" t="s">
+      <c r="A59" s="202" t="s">
         <v>419</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19635,7 +19641,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="206"/>
+      <c r="A60" s="203"/>
       <c r="B60" s="19" t="s">
         <v>1055</v>
       </c>
@@ -19643,7 +19649,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="207"/>
+      <c r="A61" s="204"/>
       <c r="B61" s="54" t="s">
         <v>1056</v>
       </c>
@@ -19815,7 +19821,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="199" t="s">
+      <c r="A82" s="205" t="s">
         <v>1091</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -19829,7 +19835,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="200"/>
+      <c r="A83" s="206"/>
       <c r="B83" s="19" t="s">
         <v>1093</v>
       </c>
@@ -19837,7 +19843,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="200"/>
+      <c r="A84" s="206"/>
       <c r="B84" s="19" t="s">
         <v>1094</v>
       </c>
@@ -19845,7 +19851,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="201"/>
+      <c r="A85" s="207"/>
       <c r="B85" s="54" t="s">
         <v>1095</v>
       </c>
@@ -19853,7 +19859,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="199" t="s">
+      <c r="A87" s="205" t="s">
         <v>1101</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -19867,7 +19873,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="200"/>
+      <c r="A88" s="206"/>
       <c r="B88" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19879,7 +19885,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="200"/>
+      <c r="A89" s="206"/>
       <c r="B89" s="19" t="s">
         <v>1104</v>
       </c>
@@ -19891,7 +19897,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="200"/>
+      <c r="A90" s="206"/>
       <c r="B90" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19903,7 +19909,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="200"/>
+      <c r="A91" s="206"/>
       <c r="B91" s="19" t="s">
         <v>1105</v>
       </c>
@@ -19913,7 +19919,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="200"/>
+      <c r="A92" s="206"/>
       <c r="B92" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19921,7 +19927,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="200"/>
+      <c r="A93" s="206"/>
       <c r="B93" s="19" t="s">
         <v>536</v>
       </c>
@@ -19929,7 +19935,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="200"/>
+      <c r="A94" s="206"/>
       <c r="B94" s="19" t="s">
         <v>1106</v>
       </c>
@@ -19937,7 +19943,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="201"/>
+      <c r="A95" s="207"/>
       <c r="B95" s="54" t="s">
         <v>1107</v>
       </c>
@@ -19945,7 +19951,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="202" t="s">
+      <c r="A97" s="199" t="s">
         <v>1114</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -19957,7 +19963,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="203"/>
+      <c r="A98" s="201"/>
       <c r="B98" s="67" t="s">
         <v>1115</v>
       </c>
@@ -19967,7 +19973,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="203"/>
+      <c r="A99" s="201"/>
       <c r="B99" s="67" t="s">
         <v>1104</v>
       </c>
@@ -19977,7 +19983,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="203"/>
+      <c r="A100" s="201"/>
       <c r="B100" s="67" t="s">
         <v>1115</v>
       </c>
@@ -19987,7 +19993,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="203"/>
+      <c r="A101" s="201"/>
       <c r="B101" s="67" t="s">
         <v>1105</v>
       </c>
@@ -19997,7 +20003,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="204"/>
+      <c r="A102" s="200"/>
       <c r="B102" s="69" t="s">
         <v>1115</v>
       </c>
@@ -20057,22 +20063,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20315,8 +20321,8 @@
   <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21261,7 +21267,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="202" t="s">
+      <c r="A125" s="199" t="s">
         <v>1312</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21272,21 +21278,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="203"/>
+      <c r="A126" s="201"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="203"/>
+      <c r="A127" s="201"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="203"/>
+      <c r="A128" s="201"/>
       <c r="B128" s="19" t="s">
         <v>1127</v>
       </c>
@@ -21295,7 +21301,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="203"/>
+      <c r="A129" s="201"/>
       <c r="B129" s="48" t="s">
         <v>717</v>
       </c>
@@ -21304,14 +21310,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="203"/>
+      <c r="A130" s="201"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="203"/>
+      <c r="A131" s="201"/>
       <c r="B131" s="48" t="s">
         <v>809</v>
       </c>
@@ -21320,14 +21326,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="203"/>
+      <c r="A132" s="201"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="204"/>
+      <c r="A133" s="200"/>
       <c r="B133" s="54" t="s">
         <v>1322</v>
       </c>
@@ -32497,7 +32503,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33193,11 +33199,11 @@
   <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D71" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -39875,9 +39881,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39906,7 +39912,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="174" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -39926,11 +39932,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="171"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="174"/>
+      <c r="B3" s="213" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="213" t="s">
         <v>273</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -39944,11 +39950,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="171"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="174"/>
+      <c r="B4" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="213" t="s">
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -39959,7 +39965,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="171"/>
+      <c r="A5" s="174"/>
       <c r="B5" s="2" t="s">
         <v>276</v>
       </c>
@@ -39974,7 +39980,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="171"/>
+      <c r="A6" s="174"/>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -39989,11 +39995,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="171"/>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="174"/>
+      <c r="B7" s="213" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="213" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -40004,11 +40010,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="174"/>
+      <c r="B8" s="213" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="213" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -40019,7 +40025,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="171"/>
+      <c r="A9" s="174"/>
       <c r="B9" s="2" t="s">
         <v>282</v>
       </c>
@@ -40034,11 +40040,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="172"/>
-      <c r="B10" s="173"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="174"/>
+      <c r="A10" s="171"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="173"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="178" t="s">
@@ -40148,14 +40154,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="172"/>
-      <c r="B18" s="173"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="174"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="173"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="171" t="s">
+      <c r="A19" s="174" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -40172,7 +40178,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
+      <c r="A20" s="174"/>
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
@@ -40187,7 +40193,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="171"/>
+      <c r="A21" s="174"/>
       <c r="B21" s="2" t="s">
         <v>309</v>
       </c>
@@ -40202,7 +40208,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="171"/>
+      <c r="A22" s="174"/>
       <c r="B22" s="2" t="s">
         <v>311</v>
       </c>
@@ -40217,7 +40223,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="171"/>
+      <c r="A23" s="174"/>
       <c r="B23" s="2" t="s">
         <v>313</v>
       </c>
@@ -40232,7 +40238,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="171"/>
+      <c r="A24" s="174"/>
       <c r="B24" s="2" t="s">
         <v>315</v>
       </c>
@@ -40247,7 +40253,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="171"/>
+      <c r="A25" s="174"/>
       <c r="B25" s="2" t="s">
         <v>317</v>
       </c>
@@ -40262,7 +40268,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="171"/>
+      <c r="A26" s="174"/>
       <c r="B26" s="2" t="s">
         <v>319</v>
       </c>
@@ -40277,7 +40283,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="171"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="2" t="s">
         <v>320</v>
       </c>
@@ -40292,11 +40298,11 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="172"/>
-      <c r="B28" s="173"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="174"/>
+      <c r="A28" s="171"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="172"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="173"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="178" t="s">
@@ -40361,11 +40367,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="172"/>
-      <c r="B33" s="173"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="173"/>
-      <c r="E33" s="174"/>
+      <c r="A33" s="171"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="172"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="173"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="178" t="s">
@@ -40490,11 +40496,11 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="172"/>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="174"/>
+      <c r="A42" s="171"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="173"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="178" t="s">
@@ -40635,17 +40641,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40660,7 +40666,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -41236,11 +41242,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41249,6 +41250,11 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41262,7 +41268,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -41853,7 +41859,7 @@
   <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -42149,9 +42155,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="179"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="173"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="179"/>
@@ -42197,9 +42203,9 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="179"/>
-      <c r="B34" s="172"/>
-      <c r="C34" s="173"/>
-      <c r="D34" s="174"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="172"/>
+      <c r="D34" s="173"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="179"/>
@@ -42295,9 +42301,9 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="179"/>
-      <c r="B44" s="172"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="174"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="172"/>
+      <c r="D44" s="173"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="179"/>
@@ -42343,9 +42349,9 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="179"/>
-      <c r="B49" s="172"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="174"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="172"/>
+      <c r="D49" s="173"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="179"/>
@@ -42451,14 +42457,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42469,6 +42467,14 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42481,7 +42487,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="13" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="光大" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6254" uniqueCount="3969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6278" uniqueCount="3986">
   <si>
     <t>大类因子</t>
   </si>
@@ -15027,6 +15027,74 @@
     <t>orgCapital</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>net_profit_excl_min_int_inc</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_incl_min_int_inc</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>oper_rev</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_operatecashflow_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_non_cur_liab</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>monetary_cap</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>oper_profit</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>net_profit_incl_min_int_inc</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_cost_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_expense_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>tot_liab</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_op_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_or_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_operateexpensetogr_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_adminexpensetogr_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_fa_finaexpensetogr_ttm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>流动资产/流动负债</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -15036,7 +15104,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15298,8 +15366,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15369,6 +15444,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15669,7 +15750,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="220">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -16063,6 +16144,10 @@
     <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16070,9 +16155,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16147,13 +16229,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16164,15 +16255,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16189,7 +16271,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16687,8 +16774,8 @@
   <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16714,10 +16801,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="172" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="78" t="s">
@@ -16728,8 +16815,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="174"/>
-      <c r="B3" s="174"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -16738,8 +16825,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="174"/>
-      <c r="B4" s="174"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -16748,8 +16835,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="78" t="s">
         <v>9</v>
       </c>
@@ -16758,8 +16845,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -16768,8 +16855,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="174"/>
-      <c r="B7" s="174"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -16778,8 +16865,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
-      <c r="B8" s="174"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="78" t="s">
         <v>12</v>
       </c>
@@ -16788,8 +16875,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
-      <c r="B9" s="174"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -16798,8 +16885,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="174"/>
-      <c r="B10" s="174"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="78" t="s">
         <v>14</v>
       </c>
@@ -16808,8 +16895,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="174"/>
-      <c r="B11" s="174"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -16818,8 +16905,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="174"/>
-      <c r="B12" s="174"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -16828,8 +16915,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="174"/>
-      <c r="B13" s="174"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="78" t="s">
         <v>17</v>
       </c>
@@ -16838,14 +16925,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="174"/>
-      <c r="B14" s="171"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="173"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="175"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="174"/>
-      <c r="B15" s="174" t="s">
+      <c r="A15" s="172"/>
+      <c r="B15" s="172" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -16856,8 +16943,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="174"/>
-      <c r="B16" s="174"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -16866,8 +16953,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="174"/>
-      <c r="B17" s="174"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -16876,8 +16963,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="174"/>
-      <c r="B18" s="174"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -16886,8 +16973,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="174"/>
-      <c r="B19" s="174"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -16896,8 +16983,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
-      <c r="B20" s="174"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -16906,8 +16993,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="174"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -16916,14 +17003,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="174"/>
-      <c r="B22" s="171"/>
-      <c r="C22" s="172"/>
-      <c r="D22" s="173"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="173"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="175"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
-      <c r="B23" s="174" t="s">
+      <c r="A23" s="172"/>
+      <c r="B23" s="172" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -16934,8 +17021,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="174"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="172"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -16944,8 +17031,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
-      <c r="B25" s="174"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -16954,8 +17041,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="174"/>
-      <c r="B26" s="174"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -16964,8 +17051,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="174"/>
-      <c r="B27" s="174"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -16974,8 +17061,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="174"/>
-      <c r="B28" s="174"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -16984,8 +17071,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="174"/>
-      <c r="B29" s="174"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -16994,8 +17081,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="174"/>
-      <c r="B30" s="174"/>
+      <c r="A30" s="172"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17004,8 +17091,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="174"/>
-      <c r="B31" s="174"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17014,8 +17101,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="174"/>
-      <c r="B32" s="174"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17024,8 +17111,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="174"/>
-      <c r="B33" s="174"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17034,8 +17121,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="174"/>
-      <c r="B34" s="174"/>
+      <c r="A34" s="172"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17044,14 +17131,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="174"/>
-      <c r="B35" s="171"/>
-      <c r="C35" s="172"/>
-      <c r="D35" s="173"/>
+      <c r="A35" s="172"/>
+      <c r="B35" s="173"/>
+      <c r="C35" s="174"/>
+      <c r="D35" s="175"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="174"/>
-      <c r="B36" s="174" t="s">
+      <c r="A36" s="172"/>
+      <c r="B36" s="172" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17062,8 +17149,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="174"/>
-      <c r="B37" s="174"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="172"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17072,8 +17159,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="174"/>
-      <c r="B38" s="174"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17082,8 +17169,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="174"/>
-      <c r="B39" s="174"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17092,8 +17179,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="174"/>
-      <c r="B40" s="174"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17102,8 +17189,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="174"/>
-      <c r="B41" s="174"/>
+      <c r="A41" s="172"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17112,8 +17199,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="174"/>
-      <c r="B42" s="174"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17122,8 +17209,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="174"/>
-      <c r="B43" s="174"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17132,8 +17219,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="174"/>
-      <c r="B44" s="174"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17142,8 +17229,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="174"/>
-      <c r="B45" s="174"/>
+      <c r="A45" s="172"/>
+      <c r="B45" s="172"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17152,8 +17239,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="174"/>
-      <c r="B46" s="174"/>
+      <c r="A46" s="172"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17162,8 +17249,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="174"/>
-      <c r="B47" s="174"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17172,8 +17259,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="174"/>
-      <c r="B48" s="174"/>
+      <c r="A48" s="172"/>
+      <c r="B48" s="172"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17182,8 +17269,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="174"/>
-      <c r="B49" s="174"/>
+      <c r="A49" s="172"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17192,8 +17279,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="174"/>
-      <c r="B50" s="174"/>
+      <c r="A50" s="172"/>
+      <c r="B50" s="172"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17202,8 +17289,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="174"/>
-      <c r="B51" s="174"/>
+      <c r="A51" s="172"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17212,14 +17299,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="174"/>
-      <c r="B52" s="171"/>
-      <c r="C52" s="172"/>
-      <c r="D52" s="173"/>
+      <c r="A52" s="172"/>
+      <c r="B52" s="173"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="175"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="174"/>
-      <c r="B53" s="174" t="s">
+      <c r="A53" s="172"/>
+      <c r="B53" s="172" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17230,8 +17317,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="174"/>
-      <c r="B54" s="174"/>
+      <c r="A54" s="172"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17240,8 +17327,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="174"/>
-      <c r="B55" s="174"/>
+      <c r="A55" s="172"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17250,8 +17337,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="174"/>
-      <c r="B56" s="174"/>
+      <c r="A56" s="172"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17260,8 +17347,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="174"/>
-      <c r="B57" s="174"/>
+      <c r="A57" s="172"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17270,8 +17357,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="174"/>
-      <c r="B58" s="174"/>
+      <c r="A58" s="172"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17280,8 +17367,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="174"/>
-      <c r="B59" s="174"/>
+      <c r="A59" s="172"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17290,16 +17377,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="171"/>
-      <c r="B60" s="172"/>
-      <c r="C60" s="172"/>
-      <c r="D60" s="173"/>
+      <c r="A60" s="173"/>
+      <c r="B60" s="174"/>
+      <c r="C60" s="174"/>
+      <c r="D60" s="175"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="174" t="s">
+      <c r="A61" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="174" t="s">
+      <c r="B61" s="172" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17310,8 +17397,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="174"/>
-      <c r="B62" s="174"/>
+      <c r="A62" s="172"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17320,8 +17407,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="174"/>
-      <c r="B63" s="174"/>
+      <c r="A63" s="172"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17330,8 +17417,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="174"/>
-      <c r="B64" s="174"/>
+      <c r="A64" s="172"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17340,8 +17427,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="174"/>
-      <c r="B65" s="174"/>
+      <c r="A65" s="172"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17350,8 +17437,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="174"/>
-      <c r="B66" s="174"/>
+      <c r="A66" s="172"/>
+      <c r="B66" s="172"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17360,14 +17447,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="174"/>
-      <c r="B67" s="171"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="173"/>
+      <c r="A67" s="172"/>
+      <c r="B67" s="173"/>
+      <c r="C67" s="174"/>
+      <c r="D67" s="175"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="174"/>
-      <c r="B68" s="174" t="s">
+      <c r="A68" s="172"/>
+      <c r="B68" s="172" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17378,8 +17465,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="174"/>
-      <c r="B69" s="174"/>
+      <c r="A69" s="172"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17388,8 +17475,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="174"/>
-      <c r="B70" s="174"/>
+      <c r="A70" s="172"/>
+      <c r="B70" s="172"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17398,8 +17485,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="174"/>
-      <c r="B71" s="174"/>
+      <c r="A71" s="172"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17408,8 +17495,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="174"/>
-      <c r="B72" s="174"/>
+      <c r="A72" s="172"/>
+      <c r="B72" s="172"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17418,8 +17505,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="174"/>
-      <c r="B73" s="174"/>
+      <c r="A73" s="172"/>
+      <c r="B73" s="172"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17428,8 +17515,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="174"/>
-      <c r="B74" s="174"/>
+      <c r="A74" s="172"/>
+      <c r="B74" s="172"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17438,8 +17525,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="174"/>
-      <c r="B75" s="174"/>
+      <c r="A75" s="172"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17448,8 +17535,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="174"/>
-      <c r="B76" s="174"/>
+      <c r="A76" s="172"/>
+      <c r="B76" s="172"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17458,8 +17545,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="174"/>
-      <c r="B77" s="174"/>
+      <c r="A77" s="172"/>
+      <c r="B77" s="172"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17468,14 +17555,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="174"/>
-      <c r="B78" s="171"/>
-      <c r="C78" s="172"/>
-      <c r="D78" s="173"/>
+      <c r="A78" s="172"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="174"/>
+      <c r="D78" s="175"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="174"/>
-      <c r="B79" s="174" t="s">
+      <c r="A79" s="172"/>
+      <c r="B79" s="172" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17486,8 +17573,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="174"/>
-      <c r="B80" s="174"/>
+      <c r="A80" s="172"/>
+      <c r="B80" s="172"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17496,8 +17583,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="174"/>
-      <c r="B81" s="174"/>
+      <c r="A81" s="172"/>
+      <c r="B81" s="172"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17506,8 +17593,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="174"/>
-      <c r="B82" s="174"/>
+      <c r="A82" s="172"/>
+      <c r="B82" s="172"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17516,8 +17603,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="174"/>
-      <c r="B83" s="174"/>
+      <c r="A83" s="172"/>
+      <c r="B83" s="172"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17526,8 +17613,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="174"/>
-      <c r="B84" s="174"/>
+      <c r="A84" s="172"/>
+      <c r="B84" s="172"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17536,14 +17623,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="174"/>
-      <c r="B85" s="171"/>
-      <c r="C85" s="172"/>
-      <c r="D85" s="173"/>
+      <c r="A85" s="172"/>
+      <c r="B85" s="173"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="175"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="174"/>
-      <c r="B86" s="174" t="s">
+      <c r="A86" s="172"/>
+      <c r="B86" s="172" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17554,8 +17641,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="174"/>
-      <c r="B87" s="174"/>
+      <c r="A87" s="172"/>
+      <c r="B87" s="172"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17564,8 +17651,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="174"/>
-      <c r="B88" s="174"/>
+      <c r="A88" s="172"/>
+      <c r="B88" s="172"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17574,8 +17661,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="174"/>
-      <c r="B89" s="174"/>
+      <c r="A89" s="172"/>
+      <c r="B89" s="172"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17584,16 +17671,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="171"/>
-      <c r="B90" s="172"/>
-      <c r="C90" s="172"/>
-      <c r="D90" s="173"/>
+      <c r="A90" s="173"/>
+      <c r="B90" s="174"/>
+      <c r="C90" s="174"/>
+      <c r="D90" s="175"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="174" t="s">
+      <c r="A91" s="172" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="174" t="s">
+      <c r="B91" s="172" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17604,8 +17691,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="174"/>
-      <c r="B92" s="174"/>
+      <c r="A92" s="172"/>
+      <c r="B92" s="172"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17614,8 +17701,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="174"/>
-      <c r="B93" s="174"/>
+      <c r="A93" s="172"/>
+      <c r="B93" s="172"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17624,8 +17711,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="174"/>
-      <c r="B94" s="174"/>
+      <c r="A94" s="172"/>
+      <c r="B94" s="172"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17634,8 +17721,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="174"/>
-      <c r="B95" s="174"/>
+      <c r="A95" s="172"/>
+      <c r="B95" s="172"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17644,8 +17731,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="174"/>
-      <c r="B96" s="174"/>
+      <c r="A96" s="172"/>
+      <c r="B96" s="172"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17654,8 +17741,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="174"/>
-      <c r="B97" s="174"/>
+      <c r="A97" s="172"/>
+      <c r="B97" s="172"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17664,8 +17751,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="174"/>
-      <c r="B98" s="174"/>
+      <c r="A98" s="172"/>
+      <c r="B98" s="172"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17674,8 +17761,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="174"/>
-      <c r="B99" s="174"/>
+      <c r="A99" s="172"/>
+      <c r="B99" s="172"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17684,8 +17771,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="174"/>
-      <c r="B100" s="174"/>
+      <c r="A100" s="172"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17694,8 +17781,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="174"/>
-      <c r="B101" s="174"/>
+      <c r="A101" s="172"/>
+      <c r="B101" s="172"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17704,8 +17791,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="174"/>
-      <c r="B102" s="174"/>
+      <c r="A102" s="172"/>
+      <c r="B102" s="172"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17714,8 +17801,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="174"/>
-      <c r="B103" s="174"/>
+      <c r="A103" s="172"/>
+      <c r="B103" s="172"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17724,8 +17811,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="174"/>
-      <c r="B104" s="174"/>
+      <c r="A104" s="172"/>
+      <c r="B104" s="172"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17734,8 +17821,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="174"/>
-      <c r="B105" s="174"/>
+      <c r="A105" s="172"/>
+      <c r="B105" s="172"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17744,8 +17831,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="174"/>
-      <c r="B106" s="174"/>
+      <c r="A106" s="172"/>
+      <c r="B106" s="172"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17754,8 +17841,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="174"/>
-      <c r="B107" s="174"/>
+      <c r="A107" s="172"/>
+      <c r="B107" s="172"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17764,8 +17851,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="174"/>
-      <c r="B108" s="174"/>
+      <c r="A108" s="172"/>
+      <c r="B108" s="172"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17774,8 +17861,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="174"/>
-      <c r="B109" s="174"/>
+      <c r="A109" s="172"/>
+      <c r="B109" s="172"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17784,8 +17871,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="174"/>
-      <c r="B110" s="174"/>
+      <c r="A110" s="172"/>
+      <c r="B110" s="172"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17794,16 +17881,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="171"/>
-      <c r="B111" s="172"/>
-      <c r="C111" s="172"/>
-      <c r="D111" s="173"/>
+      <c r="A111" s="173"/>
+      <c r="B111" s="174"/>
+      <c r="C111" s="174"/>
+      <c r="D111" s="175"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="174" t="s">
+      <c r="A112" s="172" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="174" t="s">
+      <c r="B112" s="172" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -17814,8 +17901,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="174"/>
-      <c r="B113" s="174"/>
+      <c r="A113" s="172"/>
+      <c r="B113" s="172"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -17824,8 +17911,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="174"/>
-      <c r="B114" s="174"/>
+      <c r="A114" s="172"/>
+      <c r="B114" s="172"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -17834,8 +17921,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="174"/>
-      <c r="B115" s="174"/>
+      <c r="A115" s="172"/>
+      <c r="B115" s="172"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -17844,8 +17931,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="174"/>
-      <c r="B116" s="174"/>
+      <c r="A116" s="172"/>
+      <c r="B116" s="172"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -17854,8 +17941,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="174"/>
-      <c r="B117" s="174"/>
+      <c r="A117" s="172"/>
+      <c r="B117" s="172"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -17865,18 +17952,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -17890,6 +17965,18 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17903,7 +17990,7 @@
   <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -17926,7 +18013,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="194" t="s">
         <v>916</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -17937,7 +18024,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="195"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="19" t="s">
         <v>836</v>
       </c>
@@ -17946,7 +18033,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="19" t="s">
         <v>837</v>
       </c>
@@ -17955,7 +18042,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="19" t="s">
         <v>839</v>
       </c>
@@ -17964,7 +18051,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="195"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="19" t="s">
         <v>840</v>
       </c>
@@ -17973,7 +18060,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="195"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="19" t="s">
         <v>841</v>
       </c>
@@ -17982,7 +18069,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="195"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="19" t="s">
         <v>842</v>
       </c>
@@ -17991,7 +18078,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="19" t="s">
         <v>843</v>
       </c>
@@ -18000,7 +18087,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="195"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="19" t="s">
         <v>844</v>
       </c>
@@ -18009,7 +18096,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="195"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="19" t="s">
         <v>845</v>
       </c>
@@ -18018,7 +18105,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="195"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="19" t="s">
         <v>846</v>
       </c>
@@ -18027,7 +18114,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="195"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="19" t="s">
         <v>847</v>
       </c>
@@ -18036,7 +18123,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="195"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="19" t="s">
         <v>848</v>
       </c>
@@ -18045,7 +18132,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="195"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="19" t="s">
         <v>849</v>
       </c>
@@ -18054,7 +18141,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="19" t="s">
         <v>850</v>
       </c>
@@ -18063,7 +18150,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="194"/>
+      <c r="A18" s="195"/>
       <c r="B18" s="54" t="s">
         <v>851</v>
       </c>
@@ -18072,7 +18159,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="193" t="s">
+      <c r="A20" s="194" t="s">
         <v>829</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -18083,7 +18170,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="195"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="19" t="s">
         <v>853</v>
       </c>
@@ -18092,7 +18179,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="195"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="19" t="s">
         <v>854</v>
       </c>
@@ -18101,7 +18188,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="195"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="19" t="s">
         <v>855</v>
       </c>
@@ -18110,7 +18197,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="195"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="19" t="s">
         <v>856</v>
       </c>
@@ -18119,7 +18206,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="195"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="19" t="s">
         <v>857</v>
       </c>
@@ -18128,7 +18215,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="195"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="19" t="s">
         <v>858</v>
       </c>
@@ -18137,7 +18224,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="195"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="19" t="s">
         <v>859</v>
       </c>
@@ -18146,7 +18233,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="195"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="19" t="s">
         <v>860</v>
       </c>
@@ -18155,7 +18242,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="194"/>
+      <c r="A29" s="195"/>
       <c r="B29" s="54" t="s">
         <v>861</v>
       </c>
@@ -18164,7 +18251,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="193" t="s">
+      <c r="A31" s="194" t="s">
         <v>830</v>
       </c>
       <c r="B31" s="49" t="s">
@@ -18175,7 +18262,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="195"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="19" t="s">
         <v>863</v>
       </c>
@@ -18184,7 +18271,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="195"/>
+      <c r="A33" s="196"/>
       <c r="B33" s="19" t="s">
         <v>864</v>
       </c>
@@ -18193,7 +18280,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="195"/>
+      <c r="A34" s="196"/>
       <c r="B34" s="19" t="s">
         <v>865</v>
       </c>
@@ -18202,7 +18289,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="195"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="19" t="s">
         <v>866</v>
       </c>
@@ -18211,7 +18298,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="195"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="19" t="s">
         <v>867</v>
       </c>
@@ -18220,7 +18307,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="195"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="19" t="s">
         <v>868</v>
       </c>
@@ -18229,7 +18316,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="194"/>
+      <c r="A38" s="195"/>
       <c r="B38" s="54" t="s">
         <v>869</v>
       </c>
@@ -18238,7 +18325,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="193" t="s">
+      <c r="A40" s="194" t="s">
         <v>831</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -18249,7 +18336,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="195"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="19" t="s">
         <v>871</v>
       </c>
@@ -18258,7 +18345,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="195"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="19" t="s">
         <v>872</v>
       </c>
@@ -18267,7 +18354,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="195"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="19" t="s">
         <v>873</v>
       </c>
@@ -18276,7 +18363,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="195"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="19" t="s">
         <v>874</v>
       </c>
@@ -18285,7 +18372,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="195"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="19" t="s">
         <v>875</v>
       </c>
@@ -18294,7 +18381,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="195"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="19" t="s">
         <v>876</v>
       </c>
@@ -18303,7 +18390,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="195"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="19" t="s">
         <v>877</v>
       </c>
@@ -18312,7 +18399,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="195"/>
+      <c r="A48" s="196"/>
       <c r="B48" s="19" t="s">
         <v>878</v>
       </c>
@@ -18321,7 +18408,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="195"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="19" t="s">
         <v>879</v>
       </c>
@@ -18330,7 +18417,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="195"/>
+      <c r="A50" s="196"/>
       <c r="B50" s="19" t="s">
         <v>880</v>
       </c>
@@ -18339,7 +18426,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="195"/>
+      <c r="A51" s="196"/>
       <c r="B51" s="19" t="s">
         <v>881</v>
       </c>
@@ -18348,7 +18435,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="194"/>
+      <c r="A52" s="195"/>
       <c r="B52" s="54" t="s">
         <v>882</v>
       </c>
@@ -18357,7 +18444,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="193" t="s">
+      <c r="A54" s="194" t="s">
         <v>832</v>
       </c>
       <c r="B54" s="49" t="s">
@@ -18368,7 +18455,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="195"/>
+      <c r="A55" s="196"/>
       <c r="B55" s="19" t="s">
         <v>884</v>
       </c>
@@ -18377,7 +18464,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="195"/>
+      <c r="A56" s="196"/>
       <c r="B56" s="19" t="s">
         <v>885</v>
       </c>
@@ -18386,7 +18473,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="195"/>
+      <c r="A57" s="196"/>
       <c r="B57" s="19" t="s">
         <v>886</v>
       </c>
@@ -18395,7 +18482,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="195"/>
+      <c r="A58" s="196"/>
       <c r="B58" s="19" t="s">
         <v>887</v>
       </c>
@@ -18404,7 +18491,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="195"/>
+      <c r="A59" s="196"/>
       <c r="B59" s="19" t="s">
         <v>888</v>
       </c>
@@ -18413,7 +18500,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="195"/>
+      <c r="A60" s="196"/>
       <c r="B60" s="19" t="s">
         <v>889</v>
       </c>
@@ -18422,7 +18509,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="195"/>
+      <c r="A61" s="196"/>
       <c r="B61" s="19" t="s">
         <v>890</v>
       </c>
@@ -18431,7 +18518,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="195"/>
+      <c r="A62" s="196"/>
       <c r="B62" s="19" t="s">
         <v>891</v>
       </c>
@@ -18440,7 +18527,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="195"/>
+      <c r="A63" s="196"/>
       <c r="B63" s="19" t="s">
         <v>892</v>
       </c>
@@ -18449,7 +18536,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="195"/>
+      <c r="A64" s="196"/>
       <c r="B64" s="19" t="s">
         <v>893</v>
       </c>
@@ -18458,7 +18545,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="195"/>
+      <c r="A65" s="196"/>
       <c r="B65" s="19" t="s">
         <v>894</v>
       </c>
@@ -18467,7 +18554,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="195"/>
+      <c r="A66" s="196"/>
       <c r="B66" s="19" t="s">
         <v>895</v>
       </c>
@@ -18476,7 +18563,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="195"/>
+      <c r="A67" s="196"/>
       <c r="B67" s="19" t="s">
         <v>896</v>
       </c>
@@ -18485,7 +18572,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="195"/>
+      <c r="A68" s="196"/>
       <c r="B68" s="19" t="s">
         <v>897</v>
       </c>
@@ -18494,7 +18581,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="195"/>
+      <c r="A69" s="196"/>
       <c r="B69" s="19" t="s">
         <v>898</v>
       </c>
@@ -18503,7 +18590,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="195"/>
+      <c r="A70" s="196"/>
       <c r="B70" s="19" t="s">
         <v>899</v>
       </c>
@@ -18512,7 +18599,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="195"/>
+      <c r="A71" s="196"/>
       <c r="B71" s="19" t="s">
         <v>900</v>
       </c>
@@ -18521,7 +18608,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="195"/>
+      <c r="A72" s="196"/>
       <c r="B72" s="19" t="s">
         <v>901</v>
       </c>
@@ -18530,7 +18617,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="194"/>
+      <c r="A73" s="195"/>
       <c r="B73" s="54" t="s">
         <v>902</v>
       </c>
@@ -18539,7 +18626,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="193" t="s">
+      <c r="A75" s="194" t="s">
         <v>833</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -18550,7 +18637,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="195"/>
+      <c r="A76" s="196"/>
       <c r="B76" s="19" t="s">
         <v>904</v>
       </c>
@@ -18559,7 +18646,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="195"/>
+      <c r="A77" s="196"/>
       <c r="B77" s="19" t="s">
         <v>905</v>
       </c>
@@ -18568,7 +18655,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="195"/>
+      <c r="A78" s="196"/>
       <c r="B78" s="19" t="s">
         <v>906</v>
       </c>
@@ -18577,7 +18664,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="195"/>
+      <c r="A79" s="196"/>
       <c r="B79" s="19" t="s">
         <v>907</v>
       </c>
@@ -18586,7 +18673,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="195"/>
+      <c r="A80" s="196"/>
       <c r="B80" s="19" t="s">
         <v>908</v>
       </c>
@@ -18595,7 +18682,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="195"/>
+      <c r="A81" s="196"/>
       <c r="B81" s="19" t="s">
         <v>909</v>
       </c>
@@ -18604,7 +18691,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="195"/>
+      <c r="A82" s="196"/>
       <c r="B82" s="19" t="s">
         <v>910</v>
       </c>
@@ -18613,7 +18700,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="195"/>
+      <c r="A83" s="196"/>
       <c r="B83" s="19" t="s">
         <v>911</v>
       </c>
@@ -18622,7 +18709,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="195"/>
+      <c r="A84" s="196"/>
       <c r="B84" s="19" t="s">
         <v>912</v>
       </c>
@@ -18631,7 +18718,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="195"/>
+      <c r="A85" s="196"/>
       <c r="B85" s="19" t="s">
         <v>913</v>
       </c>
@@ -18640,7 +18727,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="195"/>
+      <c r="A86" s="196"/>
       <c r="B86" s="19" t="s">
         <v>914</v>
       </c>
@@ -18649,7 +18736,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="194"/>
+      <c r="A87" s="195"/>
       <c r="B87" s="54" t="s">
         <v>915</v>
       </c>
@@ -18696,7 +18783,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="194" t="s">
         <v>919</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -18704,38 +18791,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="195"/>
+      <c r="A3" s="196"/>
       <c r="B3" s="52" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="195"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="52" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="52" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="52" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="194"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="55" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="194" t="s">
         <v>378</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -18743,98 +18830,98 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="52" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="195"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="52" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="195"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="52" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="195"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="52" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="195"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="52" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="195"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="52" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="195"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="52" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="52" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="195"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="52" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="195"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="52" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="195"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="52" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="195"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="52" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="195"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="52" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="195"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="52" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="194"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="55" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="194" t="s">
         <v>797</v>
       </c>
       <c r="B26" s="56" t="s">
@@ -18842,86 +18929,86 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="195"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="58" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="195"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="58" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="195"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="58" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="195"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="58" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="195"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="58" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="195"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="58" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="195"/>
+      <c r="A33" s="196"/>
       <c r="B33" s="58" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="195"/>
+      <c r="A34" s="196"/>
       <c r="B34" s="58" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="195"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="58" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="195"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="58" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="195"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="58" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="195"/>
+      <c r="A38" s="196"/>
       <c r="B38" s="58" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="194"/>
+      <c r="A39" s="195"/>
       <c r="B39" s="57" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="193" t="s">
+      <c r="A41" s="194" t="s">
         <v>809</v>
       </c>
       <c r="B41" s="50" t="s">
@@ -18929,110 +19016,110 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="195"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="52" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="195"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="52" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="195"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="52" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="195"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="52" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="195"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="52" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="195"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="52" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="195"/>
+      <c r="A48" s="196"/>
       <c r="B48" s="52" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="195"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="52" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="195"/>
+      <c r="A50" s="196"/>
       <c r="B50" s="52" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="195"/>
+      <c r="A51" s="196"/>
       <c r="B51" s="52" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="195"/>
+      <c r="A52" s="196"/>
       <c r="B52" s="52" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="195"/>
+      <c r="A53" s="196"/>
       <c r="B53" s="52" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="195"/>
+      <c r="A54" s="196"/>
       <c r="B54" s="52" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="195"/>
+      <c r="A55" s="196"/>
       <c r="B55" s="52" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="195"/>
+      <c r="A56" s="196"/>
       <c r="B56" s="52" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="195"/>
+      <c r="A57" s="196"/>
       <c r="B57" s="52" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="194"/>
+      <c r="A58" s="195"/>
       <c r="B58" s="55" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="196" t="s">
+      <c r="A60" s="197" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="50" t="s">
@@ -19040,67 +19127,67 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="197"/>
+      <c r="A61" s="198"/>
       <c r="B61" s="52" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="197"/>
+      <c r="A62" s="198"/>
       <c r="B62" s="52" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="197"/>
+      <c r="A63" s="198"/>
       <c r="B63" s="52" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="197"/>
+      <c r="A64" s="198"/>
       <c r="B64" s="52" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="197"/>
+      <c r="A65" s="198"/>
       <c r="B65" s="52" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="197"/>
+      <c r="A66" s="198"/>
       <c r="B66" s="52" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="197"/>
+      <c r="A67" s="198"/>
       <c r="B67" s="52" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="197"/>
+      <c r="A68" s="198"/>
       <c r="B68" s="52" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="197"/>
+      <c r="A69" s="198"/>
       <c r="B69" s="52" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="197"/>
+      <c r="A70" s="198"/>
       <c r="B70" s="52" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="198"/>
+      <c r="A71" s="199"/>
       <c r="B71" s="55" t="s">
         <v>983</v>
       </c>
@@ -19116,7 +19203,7 @@
     </row>
     <row r="74" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="193" t="s">
+      <c r="A75" s="194" t="s">
         <v>986</v>
       </c>
       <c r="B75" s="50" t="s">
@@ -19124,19 +19211,19 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="195"/>
+      <c r="A76" s="196"/>
       <c r="B76" s="52" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="195"/>
+      <c r="A77" s="196"/>
       <c r="B77" s="52" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="194"/>
+      <c r="A78" s="195"/>
       <c r="B78" s="55" t="s">
         <v>990</v>
       </c>
@@ -19193,7 +19280,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="194" t="s">
         <v>1006</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -19207,7 +19294,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="195"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="19" t="s">
         <v>998</v>
       </c>
@@ -19217,7 +19304,7 @@
       <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="19" t="s">
         <v>999</v>
       </c>
@@ -19227,7 +19314,7 @@
       <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="19" t="s">
         <v>998</v>
       </c>
@@ -19235,7 +19322,7 @@
       <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="195"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="19" t="s">
         <v>1000</v>
       </c>
@@ -19243,7 +19330,7 @@
       <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="195"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="19" t="s">
         <v>998</v>
       </c>
@@ -19251,7 +19338,7 @@
       <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="195"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="19" t="s">
         <v>1001</v>
       </c>
@@ -19259,7 +19346,7 @@
       <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="19" t="s">
         <v>998</v>
       </c>
@@ -19267,7 +19354,7 @@
       <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="195"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="19" t="s">
         <v>1002</v>
       </c>
@@ -19275,7 +19362,7 @@
       <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="194"/>
+      <c r="A12" s="195"/>
       <c r="B12" s="54" t="s">
         <v>998</v>
       </c>
@@ -19283,7 +19370,7 @@
       <c r="D12" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="194" t="s">
         <v>1007</v>
       </c>
       <c r="B14" s="49" t="s">
@@ -19295,7 +19382,7 @@
       <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="195"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="19" t="s">
         <v>1009</v>
       </c>
@@ -19305,7 +19392,7 @@
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="195"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="19" t="s">
         <v>1010</v>
       </c>
@@ -19315,7 +19402,7 @@
       <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="19" t="s">
         <v>1011</v>
       </c>
@@ -19325,7 +19412,7 @@
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="195"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="19" t="s">
         <v>1012</v>
       </c>
@@ -19333,7 +19420,7 @@
       <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="194"/>
+      <c r="A19" s="195"/>
       <c r="B19" s="54" t="s">
         <v>998</v>
       </c>
@@ -19346,7 +19433,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="193" t="s">
+      <c r="A22" s="194" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="49" t="s">
@@ -19360,7 +19447,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="195"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="19" t="s">
         <v>1018</v>
       </c>
@@ -19370,7 +19457,7 @@
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="195"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="19" t="s">
         <v>1019</v>
       </c>
@@ -19380,7 +19467,7 @@
       <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="194"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="54" t="s">
         <v>1018</v>
       </c>
@@ -19395,7 +19482,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="61" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="193" t="s">
+      <c r="A28" s="194" t="s">
         <v>1037</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -19409,7 +19496,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="195"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="19" t="s">
         <v>1022</v>
       </c>
@@ -19417,7 +19504,7 @@
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="195"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="19" t="s">
         <v>1023</v>
       </c>
@@ -19425,7 +19512,7 @@
       <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="194"/>
+      <c r="A31" s="195"/>
       <c r="B31" s="54" t="s">
         <v>1024</v>
       </c>
@@ -19433,7 +19520,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="199" t="s">
+      <c r="A33" s="203" t="s">
         <v>1040</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19447,7 +19534,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="201"/>
+      <c r="A34" s="204"/>
       <c r="B34" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19455,7 +19542,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="201"/>
+      <c r="A35" s="204"/>
       <c r="B35" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19463,7 +19550,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="201"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="19" t="s">
         <v>1028</v>
       </c>
@@ -19471,7 +19558,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="201"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="19" t="s">
         <v>998</v>
       </c>
@@ -19479,7 +19566,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="200"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="54" t="s">
         <v>1028</v>
       </c>
@@ -19487,7 +19574,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="199" t="s">
+      <c r="A40" s="203" t="s">
         <v>1042</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19499,7 +19586,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="200"/>
+      <c r="A41" s="205"/>
       <c r="B41" s="54" t="s">
         <v>1030</v>
       </c>
@@ -19512,7 +19599,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="199" t="s">
+      <c r="A44" s="203" t="s">
         <v>1044</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19526,7 +19613,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="201"/>
+      <c r="A45" s="204"/>
       <c r="B45" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19534,7 +19621,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="201"/>
+      <c r="A46" s="204"/>
       <c r="B46" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19542,7 +19629,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="201"/>
+      <c r="A47" s="204"/>
       <c r="B47" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19550,7 +19637,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="201"/>
+      <c r="A48" s="204"/>
       <c r="B48" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19558,7 +19645,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="201"/>
+      <c r="A49" s="204"/>
       <c r="B49" s="19" t="s">
         <v>1036</v>
       </c>
@@ -19566,7 +19653,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="200"/>
+      <c r="A50" s="205"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19578,7 +19665,7 @@
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A52" s="193" t="s">
+      <c r="A52" s="194" t="s">
         <v>1047</v>
       </c>
       <c r="B52" s="49" t="s">
@@ -19590,7 +19677,7 @@
       <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="195"/>
+      <c r="A53" s="196"/>
       <c r="B53" s="19" t="s">
         <v>1049</v>
       </c>
@@ -19598,7 +19685,7 @@
       <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="195"/>
+      <c r="A54" s="196"/>
       <c r="B54" s="19" t="s">
         <v>1050</v>
       </c>
@@ -19606,7 +19693,7 @@
       <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="195"/>
+      <c r="A55" s="196"/>
       <c r="B55" s="19" t="s">
         <v>1051</v>
       </c>
@@ -19614,7 +19701,7 @@
       <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="194"/>
+      <c r="A56" s="195"/>
       <c r="B56" s="54" t="s">
         <v>1052</v>
       </c>
@@ -19627,7 +19714,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="202" t="s">
+      <c r="A59" s="206" t="s">
         <v>419</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19641,7 +19728,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="203"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="19" t="s">
         <v>1055</v>
       </c>
@@ -19649,7 +19736,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="204"/>
+      <c r="A61" s="208"/>
       <c r="B61" s="54" t="s">
         <v>1056</v>
       </c>
@@ -19662,7 +19749,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="193" t="s">
+      <c r="A64" s="194" t="s">
         <v>490</v>
       </c>
       <c r="B64" s="49" t="s">
@@ -19676,7 +19763,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="195"/>
+      <c r="A65" s="196"/>
       <c r="B65" s="19" t="s">
         <v>1060</v>
       </c>
@@ -19688,7 +19775,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="195"/>
+      <c r="A66" s="196"/>
       <c r="B66" s="19" t="s">
         <v>1061</v>
       </c>
@@ -19700,7 +19787,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="195"/>
+      <c r="A67" s="196"/>
       <c r="B67" s="19" t="s">
         <v>1062</v>
       </c>
@@ -19710,7 +19797,7 @@
       <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="194"/>
+      <c r="A68" s="195"/>
       <c r="B68" s="54" t="s">
         <v>1063</v>
       </c>
@@ -19718,7 +19805,7 @@
       <c r="D68" s="55"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="193" t="s">
+      <c r="A70" s="194" t="s">
         <v>1071</v>
       </c>
       <c r="B70" s="49" t="s">
@@ -19732,7 +19819,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="195"/>
+      <c r="A71" s="196"/>
       <c r="B71" s="19" t="s">
         <v>1073</v>
       </c>
@@ -19744,7 +19831,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="195"/>
+      <c r="A72" s="196"/>
       <c r="B72" s="19" t="s">
         <v>1074</v>
       </c>
@@ -19752,7 +19839,7 @@
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="194"/>
+      <c r="A73" s="195"/>
       <c r="B73" s="54" t="s">
         <v>1075</v>
       </c>
@@ -19760,7 +19847,7 @@
       <c r="D73" s="55"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="193" t="s">
+      <c r="A75" s="194" t="s">
         <v>809</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -19774,7 +19861,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="195"/>
+      <c r="A76" s="196"/>
       <c r="B76" s="19" t="s">
         <v>540</v>
       </c>
@@ -19786,7 +19873,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="195"/>
+      <c r="A77" s="196"/>
       <c r="B77" s="19" t="s">
         <v>1081</v>
       </c>
@@ -19798,7 +19885,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="195"/>
+      <c r="A78" s="196"/>
       <c r="B78" s="19" t="s">
         <v>1082</v>
       </c>
@@ -19808,7 +19895,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="194"/>
+      <c r="A79" s="195"/>
       <c r="B79" s="54" t="s">
         <v>1083</v>
       </c>
@@ -19821,7 +19908,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="205" t="s">
+      <c r="A82" s="200" t="s">
         <v>1091</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -19835,7 +19922,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="206"/>
+      <c r="A83" s="201"/>
       <c r="B83" s="19" t="s">
         <v>1093</v>
       </c>
@@ -19843,7 +19930,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="206"/>
+      <c r="A84" s="201"/>
       <c r="B84" s="19" t="s">
         <v>1094</v>
       </c>
@@ -19851,7 +19938,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="207"/>
+      <c r="A85" s="202"/>
       <c r="B85" s="54" t="s">
         <v>1095</v>
       </c>
@@ -19859,7 +19946,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="205" t="s">
+      <c r="A87" s="200" t="s">
         <v>1101</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -19873,7 +19960,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="206"/>
+      <c r="A88" s="201"/>
       <c r="B88" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19885,7 +19972,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="206"/>
+      <c r="A89" s="201"/>
       <c r="B89" s="19" t="s">
         <v>1104</v>
       </c>
@@ -19897,7 +19984,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="206"/>
+      <c r="A90" s="201"/>
       <c r="B90" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19909,7 +19996,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="206"/>
+      <c r="A91" s="201"/>
       <c r="B91" s="19" t="s">
         <v>1105</v>
       </c>
@@ -19919,7 +20006,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="206"/>
+      <c r="A92" s="201"/>
       <c r="B92" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19927,7 +20014,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="206"/>
+      <c r="A93" s="201"/>
       <c r="B93" s="19" t="s">
         <v>536</v>
       </c>
@@ -19935,7 +20022,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="206"/>
+      <c r="A94" s="201"/>
       <c r="B94" s="19" t="s">
         <v>1106</v>
       </c>
@@ -19943,7 +20030,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="207"/>
+      <c r="A95" s="202"/>
       <c r="B95" s="54" t="s">
         <v>1107</v>
       </c>
@@ -19951,7 +20038,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="199" t="s">
+      <c r="A97" s="203" t="s">
         <v>1114</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -19963,7 +20050,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="201"/>
+      <c r="A98" s="204"/>
       <c r="B98" s="67" t="s">
         <v>1115</v>
       </c>
@@ -19973,7 +20060,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="201"/>
+      <c r="A99" s="204"/>
       <c r="B99" s="67" t="s">
         <v>1104</v>
       </c>
@@ -19983,7 +20070,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="201"/>
+      <c r="A100" s="204"/>
       <c r="B100" s="67" t="s">
         <v>1115</v>
       </c>
@@ -19993,7 +20080,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="201"/>
+      <c r="A101" s="204"/>
       <c r="B101" s="67" t="s">
         <v>1105</v>
       </c>
@@ -20003,7 +20090,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="200"/>
+      <c r="A102" s="205"/>
       <c r="B102" s="69" t="s">
         <v>1115</v>
       </c>
@@ -20016,7 +20103,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="135" x14ac:dyDescent="0.15">
-      <c r="A105" s="193" t="s">
+      <c r="A105" s="194" t="s">
         <v>1118</v>
       </c>
       <c r="B105" s="49" t="s">
@@ -20030,7 +20117,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="195"/>
+      <c r="A106" s="196"/>
       <c r="B106" s="19" t="s">
         <v>1120</v>
       </c>
@@ -20038,7 +20125,7 @@
       <c r="D106" s="52"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="195"/>
+      <c r="A107" s="196"/>
       <c r="B107" s="19" t="s">
         <v>1121</v>
       </c>
@@ -20046,7 +20133,7 @@
       <c r="D107" s="52"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="195"/>
+      <c r="A108" s="196"/>
       <c r="B108" s="19" t="s">
         <v>1122</v>
       </c>
@@ -20054,7 +20141,7 @@
       <c r="D108" s="52"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="194"/>
+      <c r="A109" s="195"/>
       <c r="B109" s="54" t="s">
         <v>1123</v>
       </c>
@@ -20063,22 +20150,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20110,7 +20197,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="194" t="s">
         <v>1127</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -20118,31 +20205,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="195"/>
+      <c r="A3" s="196"/>
       <c r="B3" s="52" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="195"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="52" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="52" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="194"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="55" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="194" t="s">
         <v>797</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -20150,19 +20237,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="195"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="52" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="194"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="55" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="193" t="s">
+      <c r="A12" s="194" t="s">
         <v>809</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -20170,13 +20257,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="195"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="52" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="194"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="55"/>
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -20195,7 +20282,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="193" t="s">
+      <c r="A18" s="194" t="s">
         <v>1139</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -20203,25 +20290,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="195"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="52" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="195"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="52" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="194"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="55" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="194" t="s">
         <v>986</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -20229,19 +20316,19 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="195"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="72" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="194"/>
+      <c r="A25" s="195"/>
       <c r="B25" s="73" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="193" t="s">
+      <c r="A27" s="194" t="s">
         <v>1147</v>
       </c>
       <c r="B27" s="50" t="s">
@@ -20249,19 +20336,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="195"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="52" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="195"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="52" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="194"/>
+      <c r="A30" s="195"/>
       <c r="B30" s="55" t="s">
         <v>1151</v>
       </c>
@@ -20287,7 +20374,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="194" t="s">
         <v>1156</v>
       </c>
       <c r="B36" s="50" t="s">
@@ -20295,7 +20382,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="194"/>
+      <c r="A37" s="195"/>
       <c r="B37" s="55" t="s">
         <v>1158</v>
       </c>
@@ -20344,7 +20431,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="194" t="s">
         <v>1159</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -20355,28 +20442,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="195"/>
+      <c r="A3" s="196"/>
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="195"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="53"/>
       <c r="C5" s="55" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="48" t="s">
         <v>1189</v>
       </c>
@@ -20385,14 +20472,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="195"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="53"/>
       <c r="C7" s="55" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="195"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="48" t="s">
         <v>1166</v>
       </c>
@@ -20401,21 +20488,21 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="195"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="51"/>
       <c r="C9" s="52" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="53"/>
       <c r="C10" s="55" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="195"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="48" t="s">
         <v>1170</v>
       </c>
@@ -20424,21 +20511,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="195"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="51"/>
       <c r="C12" s="52" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="195"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="53"/>
       <c r="C13" s="55" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="195"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="48" t="s">
         <v>1174</v>
       </c>
@@ -20447,21 +20534,21 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="195"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="51"/>
       <c r="C15" s="52" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="195"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="53"/>
       <c r="C16" s="55" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="48" t="s">
         <v>1178</v>
       </c>
@@ -20470,21 +20557,21 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="195"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="51"/>
       <c r="C18" s="52" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="195"/>
+      <c r="A19" s="196"/>
       <c r="B19" s="53"/>
       <c r="C19" s="55" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="195"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="48" t="s">
         <v>1182</v>
       </c>
@@ -20493,14 +20580,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="195"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="53"/>
       <c r="C21" s="55" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="195"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="19" t="s">
         <v>1185</v>
       </c>
@@ -20509,14 +20596,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="194"/>
+      <c r="A23" s="195"/>
       <c r="B23" s="54"/>
       <c r="C23" s="55" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="193" t="s">
+      <c r="A25" s="194" t="s">
         <v>1190</v>
       </c>
       <c r="B25" s="48" t="s">
@@ -20528,7 +20615,7 @@
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="195"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="51"/>
       <c r="C26" s="52" t="s">
         <v>1193</v>
@@ -20536,7 +20623,7 @@
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="195"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="51"/>
       <c r="C27" s="52" t="s">
         <v>1194</v>
@@ -20544,7 +20631,7 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="195"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="51"/>
       <c r="C28" s="52" t="s">
         <v>1195</v>
@@ -20552,7 +20639,7 @@
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="195"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="53"/>
       <c r="C29" s="55" t="s">
         <v>1196</v>
@@ -20560,7 +20647,7 @@
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="195"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="48" t="s">
         <v>1197</v>
       </c>
@@ -20570,7 +20657,7 @@
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="195"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="51"/>
       <c r="C31" s="52" t="s">
         <v>1199</v>
@@ -20578,7 +20665,7 @@
       <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="195"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="51"/>
       <c r="C32" s="52" t="s">
         <v>1200</v>
@@ -20586,7 +20673,7 @@
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="195"/>
+      <c r="A33" s="196"/>
       <c r="B33" s="51"/>
       <c r="C33" s="52" t="s">
         <v>1201</v>
@@ -20594,7 +20681,7 @@
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="195"/>
+      <c r="A34" s="196"/>
       <c r="B34" s="53"/>
       <c r="C34" s="55" t="s">
         <v>1202</v>
@@ -20602,7 +20689,7 @@
       <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="195"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="19" t="s">
         <v>1203</v>
       </c>
@@ -20612,7 +20699,7 @@
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="195"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="19"/>
       <c r="C36" s="52" t="s">
         <v>1205</v>
@@ -20620,7 +20707,7 @@
       <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="195"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="19"/>
       <c r="C37" s="52" t="s">
         <v>1206</v>
@@ -20628,7 +20715,7 @@
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="195"/>
+      <c r="A38" s="196"/>
       <c r="B38" s="19"/>
       <c r="C38" s="52" t="s">
         <v>1207</v>
@@ -20636,7 +20723,7 @@
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="194"/>
+      <c r="A39" s="195"/>
       <c r="B39" s="54"/>
       <c r="C39" s="55" t="s">
         <v>1202</v>
@@ -20644,7 +20731,7 @@
       <c r="D39" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="193" t="s">
+      <c r="A41" s="194" t="s">
         <v>1208</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -20655,14 +20742,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="195"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="53"/>
       <c r="C42" s="55" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="195"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="48" t="s">
         <v>1212</v>
       </c>
@@ -20671,14 +20758,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="195"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="53"/>
       <c r="C44" s="55" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="195"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="48" t="s">
         <v>1246</v>
       </c>
@@ -20687,21 +20774,21 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="195"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="51"/>
       <c r="C46" s="52" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="195"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="53"/>
       <c r="C47" s="55" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="195"/>
+      <c r="A48" s="196"/>
       <c r="B48" s="48" t="s">
         <v>1217</v>
       </c>
@@ -20710,14 +20797,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="195"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="53"/>
       <c r="C49" s="55" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="195"/>
+      <c r="A50" s="196"/>
       <c r="B50" s="48" t="s">
         <v>1220</v>
       </c>
@@ -20726,14 +20813,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="195"/>
+      <c r="A51" s="196"/>
       <c r="B51" s="53"/>
       <c r="C51" s="55" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="195"/>
+      <c r="A52" s="196"/>
       <c r="B52" s="48" t="s">
         <v>1223</v>
       </c>
@@ -20742,21 +20829,21 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="195"/>
+      <c r="A53" s="196"/>
       <c r="B53" s="51"/>
       <c r="C53" s="52" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="195"/>
+      <c r="A54" s="196"/>
       <c r="B54" s="53"/>
       <c r="C54" s="55" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="195"/>
+      <c r="A55" s="196"/>
       <c r="B55" s="48" t="s">
         <v>1227</v>
       </c>
@@ -20765,28 +20852,28 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="195"/>
+      <c r="A56" s="196"/>
       <c r="B56" s="51"/>
       <c r="C56" s="52" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="195"/>
+      <c r="A57" s="196"/>
       <c r="B57" s="51"/>
       <c r="C57" s="52" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="195"/>
+      <c r="A58" s="196"/>
       <c r="B58" s="53"/>
       <c r="C58" s="55" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="195"/>
+      <c r="A59" s="196"/>
       <c r="B59" s="48" t="s">
         <v>1232</v>
       </c>
@@ -20795,28 +20882,28 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="195"/>
+      <c r="A60" s="196"/>
       <c r="B60" s="51"/>
       <c r="C60" s="52" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="195"/>
+      <c r="A61" s="196"/>
       <c r="B61" s="51"/>
       <c r="C61" s="52" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="195"/>
+      <c r="A62" s="196"/>
       <c r="B62" s="53"/>
       <c r="C62" s="55" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="195"/>
+      <c r="A63" s="196"/>
       <c r="B63" s="48" t="s">
         <v>1235</v>
       </c>
@@ -20825,28 +20912,28 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="195"/>
+      <c r="A64" s="196"/>
       <c r="B64" s="51"/>
       <c r="C64" s="52" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="195"/>
+      <c r="A65" s="196"/>
       <c r="B65" s="51"/>
       <c r="C65" s="52" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="195"/>
+      <c r="A66" s="196"/>
       <c r="B66" s="53"/>
       <c r="C66" s="55" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="195"/>
+      <c r="A67" s="196"/>
       <c r="B67" s="51" t="s">
         <v>1240</v>
       </c>
@@ -20855,7 +20942,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="194"/>
+      <c r="A68" s="195"/>
       <c r="B68" s="53" t="s">
         <v>1242</v>
       </c>
@@ -20869,7 +20956,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="193" t="s">
+      <c r="A70" s="194" t="s">
         <v>1247</v>
       </c>
       <c r="B70" s="48" t="s">
@@ -20880,28 +20967,28 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="195"/>
+      <c r="A71" s="196"/>
       <c r="B71" s="51"/>
       <c r="C71" s="52" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="195"/>
+      <c r="A72" s="196"/>
       <c r="B72" s="51"/>
       <c r="C72" s="52" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="195"/>
+      <c r="A73" s="196"/>
       <c r="B73" s="53"/>
       <c r="C73" s="55" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="195"/>
+      <c r="A74" s="196"/>
       <c r="B74" s="48" t="s">
         <v>1253</v>
       </c>
@@ -20910,21 +20997,21 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="195"/>
+      <c r="A75" s="196"/>
       <c r="B75" s="51"/>
       <c r="C75" s="52" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="195"/>
+      <c r="A76" s="196"/>
       <c r="B76" s="53"/>
       <c r="C76" s="55" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="195"/>
+      <c r="A77" s="196"/>
       <c r="B77" s="48" t="s">
         <v>1257</v>
       </c>
@@ -20933,28 +21020,28 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="195"/>
+      <c r="A78" s="196"/>
       <c r="B78" s="51"/>
       <c r="C78" s="52" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="195"/>
+      <c r="A79" s="196"/>
       <c r="B79" s="51"/>
       <c r="C79" s="52" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="195"/>
+      <c r="A80" s="196"/>
       <c r="B80" s="53"/>
       <c r="C80" s="55" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="195"/>
+      <c r="A81" s="196"/>
       <c r="B81" s="48" t="s">
         <v>1262</v>
       </c>
@@ -20963,28 +21050,28 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="195"/>
+      <c r="A82" s="196"/>
       <c r="B82" s="51"/>
       <c r="C82" s="52" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="195"/>
+      <c r="A83" s="196"/>
       <c r="B83" s="51"/>
       <c r="C83" s="52" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="195"/>
+      <c r="A84" s="196"/>
       <c r="B84" s="53"/>
       <c r="C84" s="55" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="195"/>
+      <c r="A85" s="196"/>
       <c r="B85" s="48" t="s">
         <v>1267</v>
       </c>
@@ -20993,42 +21080,42 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="195"/>
+      <c r="A86" s="196"/>
       <c r="B86" s="51"/>
       <c r="C86" s="52" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="195"/>
+      <c r="A87" s="196"/>
       <c r="B87" s="51"/>
       <c r="C87" s="52" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="195"/>
+      <c r="A88" s="196"/>
       <c r="B88" s="51"/>
       <c r="C88" s="52" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="195"/>
+      <c r="A89" s="196"/>
       <c r="B89" s="51"/>
       <c r="C89" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="195"/>
+      <c r="A90" s="196"/>
       <c r="B90" s="53"/>
       <c r="C90" s="55" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="195"/>
+      <c r="A91" s="196"/>
       <c r="B91" s="48" t="s">
         <v>1273</v>
       </c>
@@ -21037,21 +21124,21 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="195"/>
+      <c r="A92" s="196"/>
       <c r="B92" s="51"/>
       <c r="C92" s="52" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="195"/>
+      <c r="A93" s="196"/>
       <c r="B93" s="53"/>
       <c r="C93" s="55" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="195"/>
+      <c r="A94" s="196"/>
       <c r="B94" s="48" t="s">
         <v>1277</v>
       </c>
@@ -21060,28 +21147,28 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="195"/>
+      <c r="A95" s="196"/>
       <c r="B95" s="51"/>
       <c r="C95" s="52" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="195"/>
+      <c r="A96" s="196"/>
       <c r="B96" s="51"/>
       <c r="C96" s="52" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="195"/>
+      <c r="A97" s="196"/>
       <c r="B97" s="53"/>
       <c r="C97" s="55" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="195"/>
+      <c r="A98" s="196"/>
       <c r="B98" s="19" t="s">
         <v>1282</v>
       </c>
@@ -21090,28 +21177,28 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="195"/>
+      <c r="A99" s="196"/>
       <c r="B99" s="19"/>
       <c r="C99" s="52" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="195"/>
+      <c r="A100" s="196"/>
       <c r="B100" s="19"/>
       <c r="C100" s="52" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="194"/>
+      <c r="A101" s="195"/>
       <c r="B101" s="54"/>
       <c r="C101" s="55" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="193" t="s">
+      <c r="A103" s="194" t="s">
         <v>1284</v>
       </c>
       <c r="B103" s="48" t="s">
@@ -21122,28 +21209,28 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="195"/>
+      <c r="A104" s="196"/>
       <c r="B104" s="51"/>
       <c r="C104" s="52" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="195"/>
+      <c r="A105" s="196"/>
       <c r="B105" s="51"/>
       <c r="C105" s="52" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="195"/>
+      <c r="A106" s="196"/>
       <c r="B106" s="53"/>
       <c r="C106" s="55" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="195"/>
+      <c r="A107" s="196"/>
       <c r="B107" s="48" t="s">
         <v>1290</v>
       </c>
@@ -21152,35 +21239,35 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="195"/>
+      <c r="A108" s="196"/>
       <c r="B108" s="51"/>
       <c r="C108" s="52" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="195"/>
+      <c r="A109" s="196"/>
       <c r="B109" s="51"/>
       <c r="C109" s="52" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="195"/>
+      <c r="A110" s="196"/>
       <c r="B110" s="51"/>
       <c r="C110" s="52" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="195"/>
+      <c r="A111" s="196"/>
       <c r="B111" s="53"/>
       <c r="C111" s="55" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="195"/>
+      <c r="A112" s="196"/>
       <c r="B112" s="48" t="s">
         <v>1296</v>
       </c>
@@ -21189,28 +21276,28 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="195"/>
+      <c r="A113" s="196"/>
       <c r="B113" s="51"/>
       <c r="C113" s="52" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="195"/>
+      <c r="A114" s="196"/>
       <c r="B114" s="51"/>
       <c r="C114" s="52" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="195"/>
+      <c r="A115" s="196"/>
       <c r="B115" s="53"/>
       <c r="C115" s="55" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="195"/>
+      <c r="A116" s="196"/>
       <c r="B116" s="48" t="s">
         <v>1301</v>
       </c>
@@ -21219,21 +21306,21 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="195"/>
+      <c r="A117" s="196"/>
       <c r="B117" s="51"/>
       <c r="C117" s="52" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="195"/>
+      <c r="A118" s="196"/>
       <c r="B118" s="53"/>
       <c r="C118" s="55" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="195"/>
+      <c r="A119" s="196"/>
       <c r="B119" s="19" t="s">
         <v>1305</v>
       </c>
@@ -21242,14 +21329,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="194"/>
+      <c r="A120" s="195"/>
       <c r="B120" s="54"/>
       <c r="C120" s="55" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="193" t="s">
+      <c r="A122" s="194" t="s">
         <v>1308</v>
       </c>
       <c r="B122" s="49" t="s">
@@ -21260,14 +21347,14 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="194"/>
+      <c r="A123" s="195"/>
       <c r="B123" s="54"/>
       <c r="C123" s="55" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="199" t="s">
+      <c r="A125" s="203" t="s">
         <v>1312</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21278,21 +21365,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="201"/>
+      <c r="A126" s="204"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="201"/>
+      <c r="A127" s="204"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="201"/>
+      <c r="A128" s="204"/>
       <c r="B128" s="19" t="s">
         <v>1127</v>
       </c>
@@ -21301,7 +21388,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="201"/>
+      <c r="A129" s="204"/>
       <c r="B129" s="48" t="s">
         <v>717</v>
       </c>
@@ -21310,14 +21397,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="201"/>
+      <c r="A130" s="204"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="201"/>
+      <c r="A131" s="204"/>
       <c r="B131" s="48" t="s">
         <v>809</v>
       </c>
@@ -21326,14 +21413,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="201"/>
+      <c r="A132" s="204"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="200"/>
+      <c r="A133" s="205"/>
       <c r="B133" s="54" t="s">
         <v>1322</v>
       </c>
@@ -30091,16 +30178,16 @@
       <c r="E582" s="83"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A583" s="208" t="s">
+      <c r="A583" s="209" t="s">
         <v>2730</v>
       </c>
-      <c r="B583" s="208" t="s">
+      <c r="B583" s="209" t="s">
         <v>2731</v>
       </c>
-      <c r="C583" s="208" t="s">
+      <c r="C583" s="209" t="s">
         <v>2625</v>
       </c>
-      <c r="D583" s="208" t="s">
+      <c r="D583" s="209" t="s">
         <v>2732</v>
       </c>
       <c r="E583" s="82" t="s">
@@ -30108,91 +30195,91 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A584" s="208"/>
-      <c r="B584" s="208"/>
-      <c r="C584" s="208"/>
-      <c r="D584" s="208"/>
+      <c r="A584" s="209"/>
+      <c r="B584" s="209"/>
+      <c r="C584" s="209"/>
+      <c r="D584" s="209"/>
       <c r="E584" s="82" t="s">
         <v>2734</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A585" s="208"/>
-      <c r="B585" s="208"/>
-      <c r="C585" s="208"/>
-      <c r="D585" s="208"/>
+      <c r="A585" s="209"/>
+      <c r="B585" s="209"/>
+      <c r="C585" s="209"/>
+      <c r="D585" s="209"/>
       <c r="E585" s="82" t="s">
         <v>2735</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A586" s="208"/>
-      <c r="B586" s="208"/>
-      <c r="C586" s="208"/>
-      <c r="D586" s="208"/>
+      <c r="A586" s="209"/>
+      <c r="B586" s="209"/>
+      <c r="C586" s="209"/>
+      <c r="D586" s="209"/>
       <c r="E586" s="82" t="s">
         <v>2736</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A587" s="208"/>
-      <c r="B587" s="208"/>
-      <c r="C587" s="208"/>
-      <c r="D587" s="208"/>
+      <c r="A587" s="209"/>
+      <c r="B587" s="209"/>
+      <c r="C587" s="209"/>
+      <c r="D587" s="209"/>
       <c r="E587" s="82" t="s">
         <v>2737</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A588" s="208"/>
-      <c r="B588" s="208"/>
-      <c r="C588" s="208"/>
-      <c r="D588" s="208"/>
+      <c r="A588" s="209"/>
+      <c r="B588" s="209"/>
+      <c r="C588" s="209"/>
+      <c r="D588" s="209"/>
       <c r="E588" s="82" t="s">
         <v>2738</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A589" s="208"/>
-      <c r="B589" s="208"/>
-      <c r="C589" s="208"/>
-      <c r="D589" s="208"/>
+      <c r="A589" s="209"/>
+      <c r="B589" s="209"/>
+      <c r="C589" s="209"/>
+      <c r="D589" s="209"/>
       <c r="E589" s="82" t="s">
         <v>2739</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A590" s="208"/>
-      <c r="B590" s="208"/>
-      <c r="C590" s="208"/>
-      <c r="D590" s="208"/>
+      <c r="A590" s="209"/>
+      <c r="B590" s="209"/>
+      <c r="C590" s="209"/>
+      <c r="D590" s="209"/>
       <c r="E590" s="82" t="s">
         <v>2740</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A591" s="208"/>
-      <c r="B591" s="208"/>
-      <c r="C591" s="208"/>
-      <c r="D591" s="208"/>
+      <c r="A591" s="209"/>
+      <c r="B591" s="209"/>
+      <c r="C591" s="209"/>
+      <c r="D591" s="209"/>
       <c r="E591" s="82" t="s">
         <v>2741</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A592" s="208"/>
-      <c r="B592" s="208"/>
-      <c r="C592" s="208"/>
-      <c r="D592" s="208"/>
+      <c r="A592" s="209"/>
+      <c r="B592" s="209"/>
+      <c r="C592" s="209"/>
+      <c r="D592" s="209"/>
       <c r="E592" s="82" t="s">
         <v>2742</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A593" s="208"/>
-      <c r="B593" s="208"/>
-      <c r="C593" s="208"/>
-      <c r="D593" s="208"/>
+      <c r="A593" s="209"/>
+      <c r="B593" s="209"/>
+      <c r="C593" s="209"/>
+      <c r="D593" s="209"/>
       <c r="E593" s="82" t="s">
         <v>2743</v>
       </c>
@@ -32676,7 +32763,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -32695,7 +32782,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="210" t="s">
         <v>3347</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -32703,73 +32790,73 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="209"/>
+      <c r="A3" s="210"/>
       <c r="B3" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="209"/>
+      <c r="A4" s="210"/>
       <c r="B4" s="3" t="s">
         <v>3350</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="209"/>
+      <c r="A5" s="210"/>
       <c r="B5" s="3" t="s">
         <v>3351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="209"/>
+      <c r="A6" s="210"/>
       <c r="B6" s="3" t="s">
         <v>3352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="209"/>
+      <c r="A7" s="210"/>
       <c r="B7" s="3" t="s">
         <v>3353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="209"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="3" t="s">
         <v>3354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="209"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="3" t="s">
         <v>3355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="209"/>
+      <c r="A10" s="210"/>
       <c r="B10" s="3" t="s">
         <v>3356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="209"/>
+      <c r="A11" s="210"/>
       <c r="B11" s="3" t="s">
         <v>3357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="209"/>
+      <c r="A12" s="210"/>
       <c r="B12" s="3" t="s">
         <v>3358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="209"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="3" t="s">
         <v>3359</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="209" t="s">
+      <c r="A14" s="210" t="s">
         <v>3360</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -32777,85 +32864,85 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="209"/>
+      <c r="A15" s="210"/>
       <c r="B15" s="3" t="s">
         <v>3362</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="209"/>
+      <c r="A16" s="210"/>
       <c r="B16" s="3" t="s">
         <v>3363</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="209"/>
+      <c r="A17" s="210"/>
       <c r="B17" s="3" t="s">
         <v>3364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="209"/>
+      <c r="A18" s="210"/>
       <c r="B18" s="3" t="s">
         <v>3365</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="209"/>
+      <c r="A19" s="210"/>
       <c r="B19" s="3" t="s">
         <v>3366</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="209"/>
+      <c r="A20" s="210"/>
       <c r="B20" s="3" t="s">
         <v>3367</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="209"/>
+      <c r="A21" s="210"/>
       <c r="B21" s="3" t="s">
         <v>3368</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="209"/>
+      <c r="A22" s="210"/>
       <c r="B22" s="3" t="s">
         <v>3369</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="209"/>
+      <c r="A23" s="210"/>
       <c r="B23" s="3" t="s">
         <v>3370</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="209"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="3" t="s">
         <v>3371</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="209"/>
+      <c r="A25" s="210"/>
       <c r="B25" s="3" t="s">
         <v>3372</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="209"/>
+      <c r="A26" s="210"/>
       <c r="B26" s="3" t="s">
         <v>3373</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="209"/>
+      <c r="A27" s="210"/>
       <c r="B27" s="3" t="s">
         <v>3374</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="209" t="s">
+      <c r="A28" s="210" t="s">
         <v>3375</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -32863,25 +32950,25 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="209"/>
+      <c r="A29" s="210"/>
       <c r="B29" s="3" t="s">
         <v>3377</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="209"/>
+      <c r="A30" s="210"/>
       <c r="B30" s="3" t="s">
         <v>3378</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="209"/>
+      <c r="A31" s="210"/>
       <c r="B31" s="3" t="s">
         <v>3379</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="209" t="s">
+      <c r="A32" s="210" t="s">
         <v>3380</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -32889,49 +32976,49 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="209"/>
+      <c r="A33" s="210"/>
       <c r="B33" s="3" t="s">
         <v>3382</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="209"/>
+      <c r="A34" s="210"/>
       <c r="B34" s="3" t="s">
         <v>3383</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="209"/>
+      <c r="A35" s="210"/>
       <c r="B35" s="3" t="s">
         <v>3384</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="209"/>
+      <c r="A36" s="210"/>
       <c r="B36" s="3" t="s">
         <v>3385</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="209"/>
+      <c r="A37" s="210"/>
       <c r="B37" s="3" t="s">
         <v>3386</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="209"/>
+      <c r="A38" s="210"/>
       <c r="B38" s="3" t="s">
         <v>3387</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="209"/>
+      <c r="A39" s="210"/>
       <c r="B39" s="3" t="s">
         <v>3388</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="209" t="s">
+      <c r="A40" s="210" t="s">
         <v>3389</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -32939,73 +33026,73 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="209"/>
+      <c r="A41" s="210"/>
       <c r="B41" s="3" t="s">
         <v>3391</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="209"/>
+      <c r="A42" s="210"/>
       <c r="B42" s="3" t="s">
         <v>3392</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="209"/>
+      <c r="A43" s="210"/>
       <c r="B43" s="3" t="s">
         <v>3393</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="209"/>
+      <c r="A44" s="210"/>
       <c r="B44" s="3" t="s">
         <v>3394</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="209"/>
+      <c r="A45" s="210"/>
       <c r="B45" s="3" t="s">
         <v>3395</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="209"/>
+      <c r="A46" s="210"/>
       <c r="B46" s="3" t="s">
         <v>3396</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="209"/>
+      <c r="A47" s="210"/>
       <c r="B47" s="3" t="s">
         <v>3397</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="209"/>
+      <c r="A48" s="210"/>
       <c r="B48" s="3" t="s">
         <v>3398</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="209"/>
+      <c r="A49" s="210"/>
       <c r="B49" s="3" t="s">
         <v>3399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="209"/>
+      <c r="A50" s="210"/>
       <c r="B50" s="3" t="s">
         <v>3400</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="209"/>
+      <c r="A51" s="210"/>
       <c r="B51" s="3" t="s">
         <v>3401</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="209" t="s">
+      <c r="A52" s="210" t="s">
         <v>3402</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -33013,31 +33100,31 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="209"/>
+      <c r="A53" s="210"/>
       <c r="B53" s="3" t="s">
         <v>3404</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="209"/>
+      <c r="A54" s="210"/>
       <c r="B54" s="3" t="s">
         <v>3405</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="209"/>
+      <c r="A55" s="210"/>
       <c r="B55" s="3" t="s">
         <v>3406</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="209"/>
+      <c r="A56" s="210"/>
       <c r="B56" s="3" t="s">
         <v>3407</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="209" t="s">
+      <c r="A57" s="210" t="s">
         <v>3408</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -33045,61 +33132,61 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="209"/>
+      <c r="A58" s="210"/>
       <c r="B58" s="3" t="s">
         <v>3410</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="209"/>
+      <c r="A59" s="210"/>
       <c r="B59" s="3" t="s">
         <v>3411</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="209"/>
+      <c r="A60" s="210"/>
       <c r="B60" s="3" t="s">
         <v>3412</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="209"/>
+      <c r="A61" s="210"/>
       <c r="B61" s="3" t="s">
         <v>3413</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="209"/>
+      <c r="A62" s="210"/>
       <c r="B62" s="3" t="s">
         <v>3414</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="209"/>
+      <c r="A63" s="210"/>
       <c r="B63" s="3" t="s">
         <v>3415</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="209"/>
+      <c r="A64" s="210"/>
       <c r="B64" s="3" t="s">
         <v>3416</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="209"/>
+      <c r="A65" s="210"/>
       <c r="B65" s="3" t="s">
         <v>3417</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="209"/>
+      <c r="A66" s="210"/>
       <c r="B66" s="3" t="s">
         <v>3418</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="209" t="s">
+      <c r="A67" s="210" t="s">
         <v>3419</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -33107,73 +33194,73 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="209"/>
+      <c r="A68" s="210"/>
       <c r="B68" s="3" t="s">
         <v>3421</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="209"/>
+      <c r="A69" s="210"/>
       <c r="B69" s="3" t="s">
         <v>3422</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="209"/>
+      <c r="A70" s="210"/>
       <c r="B70" s="3" t="s">
         <v>3423</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="209"/>
+      <c r="A71" s="210"/>
       <c r="B71" s="3" t="s">
         <v>3424</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="209"/>
+      <c r="A72" s="210"/>
       <c r="B72" s="3" t="s">
         <v>3425</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="209"/>
+      <c r="A73" s="210"/>
       <c r="B73" s="3" t="s">
         <v>3426</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="209"/>
+      <c r="A74" s="210"/>
       <c r="B74" s="3" t="s">
         <v>3427</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="209"/>
+      <c r="A75" s="210"/>
       <c r="B75" s="3" t="s">
         <v>3428</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="209"/>
+      <c r="A76" s="210"/>
       <c r="B76" s="3" t="s">
         <v>3429</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="209"/>
+      <c r="A77" s="210"/>
       <c r="B77" s="3" t="s">
         <v>3430</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="209"/>
+      <c r="A78" s="210"/>
       <c r="B78" s="3" t="s">
         <v>3431</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="209"/>
+      <c r="A79" s="210"/>
       <c r="B79" s="3" t="s">
         <v>3432</v>
       </c>
@@ -33200,10 +33287,10 @@
   <dimension ref="A1:H214"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -35381,7 +35468,7 @@
       <c r="F94" s="101" t="s">
         <v>3147</v>
       </c>
-      <c r="G94" s="210" t="s">
+      <c r="G94" s="211" t="s">
         <v>3855</v>
       </c>
       <c r="H94" s="113"/>
@@ -35403,7 +35490,7 @@
       <c r="F95" s="101" t="s">
         <v>3147</v>
       </c>
-      <c r="G95" s="210"/>
+      <c r="G95" s="211"/>
       <c r="H95" s="113"/>
     </row>
     <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35423,7 +35510,7 @@
       <c r="F96" s="101" t="s">
         <v>3147</v>
       </c>
-      <c r="G96" s="210"/>
+      <c r="G96" s="211"/>
       <c r="H96" s="113"/>
     </row>
     <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35443,7 +35530,7 @@
       <c r="F97" s="101" t="s">
         <v>3862</v>
       </c>
-      <c r="G97" s="210"/>
+      <c r="G97" s="211"/>
       <c r="H97" s="113"/>
     </row>
     <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35463,7 +35550,7 @@
       <c r="F98" s="101" t="s">
         <v>3862</v>
       </c>
-      <c r="G98" s="210"/>
+      <c r="G98" s="211"/>
       <c r="H98" s="113"/>
     </row>
     <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35483,7 +35570,7 @@
       <c r="F99" s="101" t="s">
         <v>3862</v>
       </c>
-      <c r="G99" s="210"/>
+      <c r="G99" s="211"/>
       <c r="H99" s="113"/>
     </row>
     <row r="100" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35502,10 +35589,10 @@
       <c r="E100" s="101" t="s">
         <v>3836</v>
       </c>
-      <c r="F100" s="211" t="s">
+      <c r="F100" s="212" t="s">
         <v>3817</v>
       </c>
-      <c r="G100" s="212" t="s">
+      <c r="G100" s="213" t="s">
         <v>3715</v>
       </c>
       <c r="H100" s="113"/>
@@ -35524,8 +35611,8 @@
       <c r="E101" s="101" t="s">
         <v>3838</v>
       </c>
-      <c r="F101" s="211"/>
-      <c r="G101" s="212"/>
+      <c r="F101" s="212"/>
+      <c r="G101" s="213"/>
       <c r="H101" s="113"/>
     </row>
     <row r="102" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35542,8 +35629,8 @@
       <c r="E102" s="101" t="s">
         <v>3839</v>
       </c>
-      <c r="F102" s="211"/>
-      <c r="G102" s="212"/>
+      <c r="F102" s="212"/>
+      <c r="G102" s="213"/>
       <c r="H102" s="113"/>
     </row>
     <row r="103" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35560,8 +35647,8 @@
       <c r="E103" s="101" t="s">
         <v>3840</v>
       </c>
-      <c r="F103" s="211"/>
-      <c r="G103" s="212"/>
+      <c r="F103" s="212"/>
+      <c r="G103" s="213"/>
       <c r="H103" s="113"/>
     </row>
     <row r="104" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35580,10 +35667,10 @@
       <c r="E104" s="101" t="s">
         <v>3841</v>
       </c>
-      <c r="F104" s="211" t="s">
+      <c r="F104" s="212" t="s">
         <v>3842</v>
       </c>
-      <c r="G104" s="212"/>
+      <c r="G104" s="213"/>
       <c r="H104" s="113"/>
     </row>
     <row r="105" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35600,8 +35687,8 @@
       <c r="E105" s="101" t="s">
         <v>3843</v>
       </c>
-      <c r="F105" s="211"/>
-      <c r="G105" s="212"/>
+      <c r="F105" s="212"/>
+      <c r="G105" s="213"/>
       <c r="H105" s="113"/>
     </row>
     <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35618,8 +35705,8 @@
       <c r="E106" s="101" t="s">
         <v>3844</v>
       </c>
-      <c r="F106" s="211"/>
-      <c r="G106" s="212"/>
+      <c r="F106" s="212"/>
+      <c r="G106" s="213"/>
       <c r="H106" s="113"/>
     </row>
     <row r="107" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35636,8 +35723,8 @@
       <c r="E107" s="101" t="s">
         <v>3845</v>
       </c>
-      <c r="F107" s="211"/>
-      <c r="G107" s="212"/>
+      <c r="F107" s="212"/>
+      <c r="G107" s="213"/>
       <c r="H107" s="113"/>
     </row>
     <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -38040,7 +38127,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -38112,9 +38199,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="175"/>
-      <c r="B7" s="176"/>
-      <c r="C7" s="177"/>
+      <c r="A7" s="176"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="178"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -38173,9 +38260,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="175"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
+      <c r="A14" s="176"/>
+      <c r="B14" s="177"/>
+      <c r="C14" s="178"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -38225,9 +38312,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="177"/>
+      <c r="A20" s="176"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="178"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -38280,9 +38367,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="175"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="177"/>
+      <c r="A25" s="176"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="178"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -38376,7 +38463,7 @@
   <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39879,22 +39966,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.875" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>265</v>
       </c>
@@ -39911,8 +39998,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="172" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -39928,15 +40015,15 @@
         <v>272</v>
       </c>
       <c r="F2" s="111" t="s">
-        <v>3656</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="174"/>
-      <c r="B3" s="213" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="172"/>
+      <c r="B3" s="215" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="213" t="s">
+      <c r="C3" s="215" t="s">
         <v>273</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -39945,16 +40032,14 @@
       <c r="E3" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="111" t="s">
-        <v>3656</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="174"/>
-      <c r="B4" s="213" t="s">
+      <c r="F3" s="111"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="172"/>
+      <c r="B4" s="171" t="s">
         <v>274</v>
       </c>
-      <c r="C4" s="213" t="s">
+      <c r="C4" s="171" t="s">
         <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -39964,12 +40049,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="172"/>
+      <c r="B5" s="214" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="214" t="s">
         <v>277</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -39978,13 +40063,16 @@
       <c r="E5" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="174"/>
-      <c r="B6" s="2" t="s">
+      <c r="F5" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="172"/>
+      <c r="B6" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="215" t="s">
         <v>278</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -39993,13 +40081,16 @@
       <c r="E6" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="174"/>
-      <c r="B7" s="213" t="s">
+      <c r="F6" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="172"/>
+      <c r="B7" s="215" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="213" t="s">
+      <c r="C7" s="215" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -40008,13 +40099,16 @@
       <c r="E7" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
-      <c r="B8" s="213" t="s">
+      <c r="F7" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="172"/>
+      <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="213" t="s">
+      <c r="C8" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -40024,12 +40118,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="172"/>
+      <c r="B9" s="215" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="215" t="s">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -40038,22 +40132,31 @@
       <c r="E9" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="171"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="172"/>
-      <c r="D10" s="172"/>
-      <c r="E10" s="173"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="178" t="s">
+      <c r="F9" s="15" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3973</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="173"/>
+      <c r="B10" s="174"/>
+      <c r="C10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="175"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="179" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="214" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="214" t="s">
         <v>297</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -40062,13 +40165,16 @@
       <c r="E11" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="2" t="s">
+      <c r="F11" t="s">
+        <v>3975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="180"/>
+      <c r="B12" s="214" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="214" t="s">
         <v>284</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -40077,13 +40183,16 @@
       <c r="E12" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="2" t="s">
+      <c r="F12" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="180"/>
+      <c r="B13" s="214" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="214" t="s">
         <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -40092,9 +40201,12 @@
       <c r="E13" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
+      <c r="F13" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="180"/>
       <c r="B14" s="2" t="s">
         <v>301</v>
       </c>
@@ -40107,9 +40219,12 @@
       <c r="E14" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="179"/>
+      <c r="F14" s="15" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="180"/>
       <c r="B15" s="2" t="s">
         <v>302</v>
       </c>
@@ -40122,13 +40237,16 @@
       <c r="E15" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="2" t="s">
+      <c r="F15" s="15" t="s">
+        <v>3971</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="180"/>
+      <c r="B16" s="171" t="s">
         <v>304</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="171" t="s">
         <v>305</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -40138,12 +40256,12 @@
         <v>272</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="180"/>
-      <c r="B17" s="2" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="181"/>
+      <c r="B17" s="171" t="s">
         <v>306</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="171" t="s">
         <v>286</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -40153,21 +40271,21 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="171"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="174" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="173"/>
+      <c r="B18" s="174"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="175"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="172" t="s">
         <v>287</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="215" t="s">
         <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -40176,13 +40294,16 @@
       <c r="E19" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="174"/>
-      <c r="B20" s="2" t="s">
+      <c r="F19" s="111" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="172"/>
+      <c r="B20" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="215" t="s">
         <v>308</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -40191,13 +40312,16 @@
       <c r="E20" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="174"/>
-      <c r="B21" s="2" t="s">
+      <c r="F20" s="111" t="s">
+        <v>3969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="172"/>
+      <c r="B21" s="215" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="215" t="s">
         <v>310</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -40206,9 +40330,18 @@
       <c r="E21" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="174"/>
+      <c r="F21" s="15" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3977</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="172"/>
       <c r="B22" s="2" t="s">
         <v>311</v>
       </c>
@@ -40221,13 +40354,16 @@
       <c r="E22" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="174"/>
-      <c r="B23" s="2" t="s">
+      <c r="F22" s="216" t="s">
+        <v>3979</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="172"/>
+      <c r="B23" s="215" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="215" t="s">
         <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -40236,13 +40372,19 @@
       <c r="E23" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="174"/>
-      <c r="B24" s="2" t="s">
+      <c r="F23" s="15" t="s">
+        <v>3980</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="172"/>
+      <c r="B24" s="215" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="215" t="s">
         <v>316</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -40251,14 +40393,17 @@
       <c r="E24" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="174"/>
-      <c r="B25" s="2" t="s">
+      <c r="F24" s="15" t="s">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="172"/>
+      <c r="B25" s="218" t="s">
         <v>317</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>318</v>
+      <c r="C25" s="219" t="s">
+        <v>3985</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>271</v>
@@ -40266,13 +40411,14 @@
       <c r="E25" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="174"/>
-      <c r="B26" s="2" t="s">
+      <c r="F25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="172"/>
+      <c r="B26" s="215" t="s">
         <v>319</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="215" t="s">
         <v>318</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -40281,13 +40427,19 @@
       <c r="E26" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="174"/>
-      <c r="B27" s="2" t="s">
+      <c r="F26" s="15" t="s">
+        <v>3980</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="172"/>
+      <c r="B27" s="215" t="s">
         <v>320</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="215" t="s">
         <v>321</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -40296,16 +40448,25 @@
       <c r="E27" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="172"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="178" t="s">
+      <c r="F27" s="217" t="s">
+        <v>3982</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3983</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="173"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="175"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="179" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -40321,8 +40482,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="179"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="180"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -40336,8 +40497,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="180"/>
       <c r="B31" s="2" t="s">
         <v>324</v>
       </c>
@@ -40351,8 +40512,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="180"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="181"/>
       <c r="B32" s="2" t="s">
         <v>326</v>
       </c>
@@ -40367,14 +40528,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="172"/>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173"/>
+      <c r="A33" s="173"/>
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="175"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="179" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -40391,7 +40552,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
+      <c r="A35" s="180"/>
       <c r="B35" s="2" t="s">
         <v>329</v>
       </c>
@@ -40406,7 +40567,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
+      <c r="A36" s="180"/>
       <c r="B36" s="2" t="s">
         <v>331</v>
       </c>
@@ -40421,7 +40582,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="179"/>
+      <c r="A37" s="180"/>
       <c r="B37" s="2" t="s">
         <v>333</v>
       </c>
@@ -40436,7 +40597,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="179"/>
+      <c r="A38" s="180"/>
       <c r="B38" s="2" t="s">
         <v>97</v>
       </c>
@@ -40451,7 +40612,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="179"/>
+      <c r="A39" s="180"/>
       <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
@@ -40466,7 +40627,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="179"/>
+      <c r="A40" s="180"/>
       <c r="B40" s="2" t="s">
         <v>335</v>
       </c>
@@ -40481,7 +40642,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="180"/>
+      <c r="A41" s="181"/>
       <c r="B41" s="2" t="s">
         <v>107</v>
       </c>
@@ -40496,14 +40657,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="171"/>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="173"/>
+      <c r="A42" s="173"/>
+      <c r="B42" s="174"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="174"/>
+      <c r="E42" s="175"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="179" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -40520,7 +40681,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="179"/>
+      <c r="A44" s="180"/>
       <c r="B44" s="2" t="s">
         <v>340</v>
       </c>
@@ -40535,7 +40696,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="179"/>
+      <c r="A45" s="180"/>
       <c r="B45" s="2" t="s">
         <v>342</v>
       </c>
@@ -40550,7 +40711,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="179"/>
+      <c r="A46" s="180"/>
       <c r="B46" s="2" t="s">
         <v>344</v>
       </c>
@@ -40565,7 +40726,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="179"/>
+      <c r="A47" s="180"/>
       <c r="B47" s="2" t="s">
         <v>346</v>
       </c>
@@ -40580,7 +40741,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="179"/>
+      <c r="A48" s="180"/>
       <c r="B48" s="2" t="s">
         <v>348</v>
       </c>
@@ -40595,7 +40756,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="179"/>
+      <c r="A49" s="180"/>
       <c r="B49" s="2" t="s">
         <v>350</v>
       </c>
@@ -40610,7 +40771,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="179"/>
+      <c r="A50" s="180"/>
       <c r="B50" s="2" t="s">
         <v>351</v>
       </c>
@@ -40625,7 +40786,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="180"/>
+      <c r="A51" s="181"/>
       <c r="B51" s="2" t="s">
         <v>353</v>
       </c>
@@ -40641,17 +40802,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40665,7 +40826,7 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -40690,7 +40851,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>358</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -40704,7 +40865,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="179"/>
+      <c r="A3" s="180"/>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
@@ -40714,7 +40875,7 @@
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="179"/>
+      <c r="A4" s="180"/>
       <c r="B4" s="17" t="s">
         <v>362</v>
       </c>
@@ -40726,7 +40887,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
+      <c r="A5" s="180"/>
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
@@ -40736,7 +40897,7 @@
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="17" t="s">
         <v>365</v>
       </c>
@@ -40746,7 +40907,7 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="17" t="s">
         <v>366</v>
       </c>
@@ -40756,7 +40917,7 @@
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="17" t="s">
         <v>282</v>
       </c>
@@ -40766,13 +40927,13 @@
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="175"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
+      <c r="A9" s="176"/>
+      <c r="B9" s="177"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="179" t="s">
         <v>384</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -40784,7 +40945,7 @@
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="179"/>
+      <c r="A11" s="180"/>
       <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
@@ -40794,7 +40955,7 @@
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
+      <c r="A12" s="180"/>
       <c r="B12" s="17" t="s">
         <v>367</v>
       </c>
@@ -40804,7 +40965,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="17" t="s">
         <v>368</v>
       </c>
@@ -40814,7 +40975,7 @@
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
+      <c r="A14" s="180"/>
       <c r="B14" s="17" t="s">
         <v>377</v>
       </c>
@@ -40824,7 +40985,7 @@
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="180"/>
+      <c r="A15" s="181"/>
       <c r="B15" s="17" t="s">
         <v>369</v>
       </c>
@@ -40834,13 +40995,13 @@
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="175"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="177"/>
+      <c r="A16" s="176"/>
+      <c r="B16" s="177"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="178"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="179" t="s">
         <v>283</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -40852,7 +41013,7 @@
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="179"/>
+      <c r="A18" s="180"/>
       <c r="B18" s="17" t="s">
         <v>387</v>
       </c>
@@ -40862,7 +41023,7 @@
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="179"/>
+      <c r="A19" s="180"/>
       <c r="B19" s="17" t="s">
         <v>389</v>
       </c>
@@ -40872,7 +41033,7 @@
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="179"/>
+      <c r="A20" s="180"/>
       <c r="B20" s="17" t="s">
         <v>391</v>
       </c>
@@ -40882,7 +41043,7 @@
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="180"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="17" t="s">
         <v>393</v>
       </c>
@@ -40892,13 +41053,13 @@
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="175"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="177"/>
+      <c r="A22" s="176"/>
+      <c r="B22" s="177"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="178"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="178" t="s">
+      <c r="A23" s="179" t="s">
         <v>428</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -40910,7 +41071,7 @@
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="179"/>
+      <c r="A24" s="180"/>
       <c r="B24" s="17" t="s">
         <v>426</v>
       </c>
@@ -40920,7 +41081,7 @@
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
+      <c r="A25" s="180"/>
       <c r="B25" s="17" t="s">
         <v>396</v>
       </c>
@@ -40930,7 +41091,7 @@
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="180"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="17" t="s">
         <v>397</v>
       </c>
@@ -40940,13 +41101,13 @@
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="175"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="177"/>
+      <c r="A27" s="176"/>
+      <c r="B27" s="177"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="178"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="178" t="s">
+      <c r="A28" s="179" t="s">
         <v>429</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -40958,7 +41119,7 @@
       <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="179"/>
+      <c r="A29" s="180"/>
       <c r="B29" s="17" t="s">
         <v>87</v>
       </c>
@@ -40968,7 +41129,7 @@
       <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="179"/>
+      <c r="A30" s="180"/>
       <c r="B30" s="17" t="s">
         <v>402</v>
       </c>
@@ -40978,7 +41139,7 @@
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
+      <c r="A31" s="181"/>
       <c r="B31" s="17" t="s">
         <v>404</v>
       </c>
@@ -40988,13 +41149,13 @@
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="175"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="177"/>
+      <c r="A32" s="176"/>
+      <c r="B32" s="177"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="178"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="178" t="s">
+      <c r="A33" s="179" t="s">
         <v>430</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -41006,7 +41167,7 @@
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="179"/>
+      <c r="A34" s="180"/>
       <c r="B34" s="17" t="s">
         <v>408</v>
       </c>
@@ -41016,7 +41177,7 @@
       <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
+      <c r="A35" s="180"/>
       <c r="B35" s="17" t="s">
         <v>410</v>
       </c>
@@ -41026,7 +41187,7 @@
       <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
+      <c r="A36" s="180"/>
       <c r="B36" s="17" t="s">
         <v>412</v>
       </c>
@@ -41036,7 +41197,7 @@
       <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="179"/>
+      <c r="A37" s="180"/>
       <c r="B37" s="17" t="s">
         <v>414</v>
       </c>
@@ -41046,7 +41207,7 @@
       <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="179"/>
+      <c r="A38" s="180"/>
       <c r="B38" s="17" t="s">
         <v>416</v>
       </c>
@@ -41056,7 +41217,7 @@
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="179"/>
+      <c r="A39" s="180"/>
       <c r="B39" s="17" t="s">
         <v>418</v>
       </c>
@@ -41069,7 +41230,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="180"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="17" t="s">
         <v>432</v>
       </c>
@@ -41079,13 +41240,13 @@
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="175"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="177"/>
+      <c r="A41" s="176"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="178"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="178" t="s">
+      <c r="A42" s="179" t="s">
         <v>431</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -41097,7 +41258,7 @@
       <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="179"/>
+      <c r="A43" s="180"/>
       <c r="B43" s="17" t="s">
         <v>434</v>
       </c>
@@ -41107,7 +41268,7 @@
       <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="179"/>
+      <c r="A44" s="180"/>
       <c r="B44" s="17" t="s">
         <v>435</v>
       </c>
@@ -41117,7 +41278,7 @@
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="180"/>
+      <c r="A45" s="181"/>
       <c r="B45" s="17" t="s">
         <v>424</v>
       </c>
@@ -41242,6 +41403,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41250,11 +41416,6 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41268,7 +41429,7 @@
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
@@ -41291,7 +41452,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>549</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -41302,7 +41463,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="179"/>
+      <c r="A3" s="180"/>
       <c r="B3" s="5" t="s">
         <v>552</v>
       </c>
@@ -41311,7 +41472,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="179"/>
+      <c r="A4" s="180"/>
       <c r="B4" s="5" t="s">
         <v>554</v>
       </c>
@@ -41320,7 +41481,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
+      <c r="A5" s="180"/>
       <c r="B5" s="5" t="s">
         <v>556</v>
       </c>
@@ -41329,7 +41490,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="5" t="s">
         <v>558</v>
       </c>
@@ -41338,7 +41499,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="5" t="s">
         <v>560</v>
       </c>
@@ -41347,7 +41508,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="5" t="s">
         <v>562</v>
       </c>
@@ -41356,7 +41517,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
+      <c r="A9" s="180"/>
       <c r="B9" s="5" t="s">
         <v>564</v>
       </c>
@@ -41365,7 +41526,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
+      <c r="A10" s="180"/>
       <c r="B10" s="5" t="s">
         <v>566</v>
       </c>
@@ -41374,7 +41535,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
+      <c r="A11" s="181"/>
       <c r="B11" s="30" t="s">
         <v>568</v>
       </c>
@@ -41383,7 +41544,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="182" t="s">
         <v>594</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -41394,7 +41555,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="5" t="s">
         <v>574</v>
       </c>
@@ -41403,7 +41564,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="182"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="5" t="s">
         <v>576</v>
       </c>
@@ -41412,7 +41573,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="5" t="s">
         <v>578</v>
       </c>
@@ -41421,7 +41582,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="5" t="s">
         <v>579</v>
       </c>
@@ -41430,7 +41591,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="5" t="s">
         <v>581</v>
       </c>
@@ -41439,7 +41600,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="5" t="s">
         <v>583</v>
       </c>
@@ -41448,7 +41609,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
+      <c r="A20" s="183"/>
       <c r="B20" s="5" t="s">
         <v>584</v>
       </c>
@@ -41457,7 +41618,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="5" t="s">
         <v>586</v>
       </c>
@@ -41466,7 +41627,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="5" t="s">
         <v>588</v>
       </c>
@@ -41475,7 +41636,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
+      <c r="A23" s="183"/>
       <c r="B23" s="5" t="s">
         <v>590</v>
       </c>
@@ -41484,7 +41645,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="183"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="30" t="s">
         <v>592</v>
       </c>
@@ -41493,7 +41654,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="182" t="s">
         <v>595</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -41504,7 +41665,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="5" t="s">
         <v>598</v>
       </c>
@@ -41513,7 +41674,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
+      <c r="A28" s="183"/>
       <c r="B28" s="5" t="s">
         <v>600</v>
       </c>
@@ -41522,21 +41683,21 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="5" t="s">
         <v>602</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="182"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="22" t="s">
         <v>603</v>
       </c>
       <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="5" t="s">
         <v>604</v>
       </c>
@@ -41545,7 +41706,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="182"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="5" t="s">
         <v>606</v>
       </c>
@@ -41554,21 +41715,21 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="182"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="5" t="s">
         <v>608</v>
       </c>
       <c r="C33" s="27"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="182"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="22" t="s">
         <v>609</v>
       </c>
       <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="5" t="s">
         <v>610</v>
       </c>
@@ -41577,7 +41738,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="182"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="5" t="s">
         <v>612</v>
       </c>
@@ -41586,7 +41747,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="5" t="s">
         <v>614</v>
       </c>
@@ -41595,7 +41756,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="183"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="5" t="s">
         <v>616</v>
       </c>
@@ -41609,7 +41770,7 @@
       <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="181" t="s">
+      <c r="A40" s="182" t="s">
         <v>617</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -41620,7 +41781,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="182"/>
+      <c r="A41" s="183"/>
       <c r="B41" s="16" t="s">
         <v>620</v>
       </c>
@@ -41629,14 +41790,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="182"/>
+      <c r="A42" s="183"/>
       <c r="B42" s="22" t="s">
         <v>618</v>
       </c>
       <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
+      <c r="A43" s="183"/>
       <c r="B43" s="16" t="s">
         <v>623</v>
       </c>
@@ -41645,7 +41806,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="182"/>
+      <c r="A44" s="183"/>
       <c r="B44" s="16" t="s">
         <v>624</v>
       </c>
@@ -41654,14 +41815,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="182"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="22" t="s">
         <v>625</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="182"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="16" t="s">
         <v>627</v>
       </c>
@@ -41670,7 +41831,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="182"/>
+      <c r="A47" s="183"/>
       <c r="B47" s="16" t="s">
         <v>628</v>
       </c>
@@ -41679,14 +41840,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="182"/>
+      <c r="A48" s="183"/>
       <c r="B48" s="22" t="s">
         <v>629</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="16" t="s">
         <v>631</v>
       </c>
@@ -41695,7 +41856,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="182"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="16" t="s">
         <v>633</v>
       </c>
@@ -41704,7 +41865,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="183"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="22" t="s">
         <v>634</v>
       </c>
@@ -41886,10 +42047,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="179" t="s">
         <v>438</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -41900,8 +42061,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
+      <c r="A3" s="180"/>
+      <c r="B3" s="180"/>
       <c r="C3" s="17" t="s">
         <v>443</v>
       </c>
@@ -41910,8 +42071,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="179"/>
-      <c r="B4" s="179"/>
+      <c r="A4" s="180"/>
+      <c r="B4" s="180"/>
       <c r="C4" s="17" t="s">
         <v>445</v>
       </c>
@@ -41920,8 +42081,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
+      <c r="A5" s="180"/>
+      <c r="B5" s="180"/>
       <c r="C5" s="17" t="s">
         <v>447</v>
       </c>
@@ -41930,8 +42091,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="17" t="s">
         <v>449</v>
       </c>
@@ -41940,8 +42101,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
-      <c r="B7" s="179"/>
+      <c r="A7" s="180"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="17" t="s">
         <v>451</v>
       </c>
@@ -41950,8 +42111,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
-      <c r="B8" s="180"/>
+      <c r="A8" s="180"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="17" t="s">
         <v>452</v>
       </c>
@@ -41960,14 +42121,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="179"/>
-      <c r="B9" s="175"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="177"/>
+      <c r="A9" s="180"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="178"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="179"/>
-      <c r="B10" s="178" t="s">
+      <c r="A10" s="180"/>
+      <c r="B10" s="179" t="s">
         <v>454</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -41978,8 +42139,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="179"/>
-      <c r="B11" s="179"/>
+      <c r="A11" s="180"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="17" t="s">
         <v>456</v>
       </c>
@@ -41988,8 +42149,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="179"/>
-      <c r="B12" s="180"/>
+      <c r="A12" s="180"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="17" t="s">
         <v>457</v>
       </c>
@@ -41998,14 +42159,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="179"/>
-      <c r="B13" s="175"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="177"/>
+      <c r="A13" s="180"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="178"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="179"/>
-      <c r="B14" s="178" t="s">
+      <c r="A14" s="180"/>
+      <c r="B14" s="179" t="s">
         <v>459</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -42016,8 +42177,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="179"/>
-      <c r="B15" s="179"/>
+      <c r="A15" s="180"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="17" t="s">
         <v>462</v>
       </c>
@@ -42026,8 +42187,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="179"/>
-      <c r="B16" s="179"/>
+      <c r="A16" s="180"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="17" t="s">
         <v>464</v>
       </c>
@@ -42036,8 +42197,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="179"/>
-      <c r="B17" s="179"/>
+      <c r="A17" s="180"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="17" t="s">
         <v>466</v>
       </c>
@@ -42046,8 +42207,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="179"/>
-      <c r="B18" s="180"/>
+      <c r="A18" s="180"/>
+      <c r="B18" s="181"/>
       <c r="C18" s="17" t="s">
         <v>468</v>
       </c>
@@ -42056,14 +42217,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="179"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="177"/>
+      <c r="A19" s="180"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="179"/>
-      <c r="B20" s="178" t="s">
+      <c r="A20" s="180"/>
+      <c r="B20" s="179" t="s">
         <v>470</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -42074,8 +42235,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="179"/>
-      <c r="B21" s="179"/>
+      <c r="A21" s="180"/>
+      <c r="B21" s="180"/>
       <c r="C21" s="17" t="s">
         <v>121</v>
       </c>
@@ -42084,8 +42245,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="179"/>
-      <c r="B22" s="180"/>
+      <c r="A22" s="180"/>
+      <c r="B22" s="181"/>
       <c r="C22" s="17" t="s">
         <v>473</v>
       </c>
@@ -42094,16 +42255,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="180"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="179" t="s">
         <v>547</v>
       </c>
-      <c r="B24" s="178" t="s">
+      <c r="B24" s="179" t="s">
         <v>476</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -42114,8 +42275,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="179"/>
-      <c r="B25" s="179"/>
+      <c r="A25" s="180"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="17" t="s">
         <v>481</v>
       </c>
@@ -42124,8 +42285,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="179"/>
-      <c r="B26" s="179"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="180"/>
       <c r="C26" s="17" t="s">
         <v>483</v>
       </c>
@@ -42134,8 +42295,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="179"/>
-      <c r="B27" s="179"/>
+      <c r="A27" s="180"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="17" t="s">
         <v>485</v>
       </c>
@@ -42144,8 +42305,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="179"/>
-      <c r="B28" s="180"/>
+      <c r="A28" s="180"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="17" t="s">
         <v>486</v>
       </c>
@@ -42154,14 +42315,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="179"/>
-      <c r="B29" s="171"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="173"/>
+      <c r="A29" s="180"/>
+      <c r="B29" s="173"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="175"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="179"/>
-      <c r="B30" s="178" t="s">
+      <c r="A30" s="180"/>
+      <c r="B30" s="179" t="s">
         <v>478</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -42172,8 +42333,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="179"/>
-      <c r="B31" s="179"/>
+      <c r="A31" s="180"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="17" t="s">
         <v>490</v>
       </c>
@@ -42182,8 +42343,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="179"/>
-      <c r="B32" s="179"/>
+      <c r="A32" s="180"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="17" t="s">
         <v>492</v>
       </c>
@@ -42192,8 +42353,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="179"/>
-      <c r="B33" s="180"/>
+      <c r="A33" s="180"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="21" t="s">
         <v>494</v>
       </c>
@@ -42202,14 +42363,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="179"/>
-      <c r="B34" s="171"/>
-      <c r="C34" s="172"/>
-      <c r="D34" s="173"/>
+      <c r="A34" s="180"/>
+      <c r="B34" s="173"/>
+      <c r="C34" s="174"/>
+      <c r="D34" s="175"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="179"/>
-      <c r="B35" s="178" t="s">
+      <c r="A35" s="180"/>
+      <c r="B35" s="179" t="s">
         <v>496</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -42220,8 +42381,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="179"/>
-      <c r="B36" s="179"/>
+      <c r="A36" s="180"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="17" t="s">
         <v>499</v>
       </c>
@@ -42230,8 +42391,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="179"/>
-      <c r="B37" s="179"/>
+      <c r="A37" s="180"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="17" t="s">
         <v>501</v>
       </c>
@@ -42240,8 +42401,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="179"/>
-      <c r="B38" s="179"/>
+      <c r="A38" s="180"/>
+      <c r="B38" s="180"/>
       <c r="C38" s="17" t="s">
         <v>503</v>
       </c>
@@ -42250,8 +42411,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="179"/>
-      <c r="B39" s="179"/>
+      <c r="A39" s="180"/>
+      <c r="B39" s="180"/>
       <c r="C39" s="17" t="s">
         <v>504</v>
       </c>
@@ -42260,8 +42421,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="179"/>
-      <c r="B40" s="179"/>
+      <c r="A40" s="180"/>
+      <c r="B40" s="180"/>
       <c r="C40" s="21" t="s">
         <v>506</v>
       </c>
@@ -42270,8 +42431,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="179"/>
-      <c r="B41" s="179"/>
+      <c r="A41" s="180"/>
+      <c r="B41" s="180"/>
       <c r="C41" s="17" t="s">
         <v>508</v>
       </c>
@@ -42280,8 +42441,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="179"/>
-      <c r="B42" s="179"/>
+      <c r="A42" s="180"/>
+      <c r="B42" s="180"/>
       <c r="C42" s="17" t="s">
         <v>510</v>
       </c>
@@ -42290,8 +42451,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="179"/>
-      <c r="B43" s="180"/>
+      <c r="A43" s="180"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="17" t="s">
         <v>512</v>
       </c>
@@ -42300,14 +42461,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="179"/>
-      <c r="B44" s="171"/>
-      <c r="C44" s="172"/>
-      <c r="D44" s="173"/>
+      <c r="A44" s="180"/>
+      <c r="B44" s="173"/>
+      <c r="C44" s="174"/>
+      <c r="D44" s="175"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="179"/>
-      <c r="B45" s="178" t="s">
+      <c r="A45" s="180"/>
+      <c r="B45" s="179" t="s">
         <v>515</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -42318,8 +42479,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="179"/>
-      <c r="B46" s="179"/>
+      <c r="A46" s="180"/>
+      <c r="B46" s="180"/>
       <c r="C46" s="17" t="s">
         <v>518</v>
       </c>
@@ -42328,8 +42489,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="179"/>
-      <c r="B47" s="179"/>
+      <c r="A47" s="180"/>
+      <c r="B47" s="180"/>
       <c r="C47" s="17" t="s">
         <v>520</v>
       </c>
@@ -42338,8 +42499,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="179"/>
-      <c r="B48" s="180"/>
+      <c r="A48" s="180"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="17" t="s">
         <v>522</v>
       </c>
@@ -42348,14 +42509,14 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="179"/>
-      <c r="B49" s="171"/>
-      <c r="C49" s="172"/>
-      <c r="D49" s="173"/>
+      <c r="A49" s="180"/>
+      <c r="B49" s="173"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="175"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="179"/>
-      <c r="B50" s="178" t="s">
+      <c r="A50" s="180"/>
+      <c r="B50" s="179" t="s">
         <v>524</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -42366,8 +42527,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="179"/>
-      <c r="B51" s="179"/>
+      <c r="A51" s="180"/>
+      <c r="B51" s="180"/>
       <c r="C51" s="17" t="s">
         <v>527</v>
       </c>
@@ -42376,8 +42537,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="179"/>
-      <c r="B52" s="179"/>
+      <c r="A52" s="180"/>
+      <c r="B52" s="180"/>
       <c r="C52" s="17" t="s">
         <v>529</v>
       </c>
@@ -42386,8 +42547,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="179"/>
-      <c r="B53" s="179"/>
+      <c r="A53" s="180"/>
+      <c r="B53" s="180"/>
       <c r="C53" s="17" t="s">
         <v>531</v>
       </c>
@@ -42396,8 +42557,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="179"/>
-      <c r="B54" s="179"/>
+      <c r="A54" s="180"/>
+      <c r="B54" s="180"/>
       <c r="C54" s="17" t="s">
         <v>532</v>
       </c>
@@ -42406,8 +42567,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="179"/>
-      <c r="B55" s="179"/>
+      <c r="A55" s="180"/>
+      <c r="B55" s="180"/>
       <c r="C55" s="17" t="s">
         <v>534</v>
       </c>
@@ -42416,8 +42577,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="179"/>
-      <c r="B56" s="179"/>
+      <c r="A56" s="180"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="17" t="s">
         <v>536</v>
       </c>
@@ -42426,8 +42587,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="179"/>
-      <c r="B57" s="179"/>
+      <c r="A57" s="180"/>
+      <c r="B57" s="180"/>
       <c r="C57" s="17" t="s">
         <v>538</v>
       </c>
@@ -42436,8 +42597,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="179"/>
-      <c r="B58" s="179"/>
+      <c r="A58" s="180"/>
+      <c r="B58" s="180"/>
       <c r="C58" s="17" t="s">
         <v>540</v>
       </c>
@@ -42446,8 +42607,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="180"/>
-      <c r="B59" s="180"/>
+      <c r="A59" s="181"/>
+      <c r="B59" s="181"/>
       <c r="C59" s="17" t="s">
         <v>542</v>
       </c>
@@ -42457,6 +42618,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42467,14 +42636,6 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42513,7 +42674,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="179" t="s">
         <v>549</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -42524,7 +42685,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="179"/>
+      <c r="A3" s="180"/>
       <c r="B3" s="5" t="s">
         <v>552</v>
       </c>
@@ -42540,7 +42701,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="179"/>
+      <c r="A4" s="180"/>
       <c r="B4" s="5" t="s">
         <v>554</v>
       </c>
@@ -42552,7 +42713,7 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="179"/>
+      <c r="A5" s="180"/>
       <c r="B5" s="5" t="s">
         <v>556</v>
       </c>
@@ -42568,7 +42729,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
+      <c r="A6" s="180"/>
       <c r="B6" s="5" t="s">
         <v>558</v>
       </c>
@@ -42580,7 +42741,7 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="179"/>
+      <c r="A7" s="180"/>
       <c r="B7" s="5" t="s">
         <v>560</v>
       </c>
@@ -42592,7 +42753,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
+      <c r="A8" s="180"/>
       <c r="B8" s="5" t="s">
         <v>562</v>
       </c>
@@ -42608,7 +42769,7 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
+      <c r="A9" s="181"/>
       <c r="B9" s="30" t="s">
         <v>564</v>
       </c>
@@ -42620,7 +42781,7 @@
       <c r="F9" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="182" t="s">
         <v>594</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -42631,7 +42792,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="5" t="s">
         <v>1334</v>
       </c>
@@ -42640,7 +42801,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="5" t="s">
         <v>1336</v>
       </c>
@@ -42649,7 +42810,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="5" t="s">
         <v>1338</v>
       </c>
@@ -42658,7 +42819,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="182"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="5" t="s">
         <v>1341</v>
       </c>
@@ -42667,7 +42828,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="5" t="s">
         <v>1342</v>
       </c>
@@ -42676,7 +42837,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="183"/>
       <c r="B17" s="5" t="s">
         <v>1344</v>
       </c>
@@ -42685,7 +42846,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="5" t="s">
         <v>1346</v>
       </c>
@@ -42694,7 +42855,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="5" t="s">
         <v>1348</v>
       </c>
@@ -42703,7 +42864,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
+      <c r="A20" s="183"/>
       <c r="B20" s="5" t="s">
         <v>588</v>
       </c>
@@ -42712,7 +42873,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="5" t="s">
         <v>590</v>
       </c>
@@ -42721,7 +42882,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="30" t="s">
         <v>592</v>
       </c>
@@ -42735,7 +42896,7 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="182" t="s">
         <v>1350</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -42746,7 +42907,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="5" t="s">
         <v>1353</v>
       </c>
@@ -42755,7 +42916,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="182"/>
+      <c r="A26" s="183"/>
       <c r="B26" s="5" t="s">
         <v>1354</v>
       </c>
@@ -42764,7 +42925,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
+      <c r="A27" s="183"/>
       <c r="B27" s="5" t="s">
         <v>1355</v>
       </c>
@@ -42773,7 +42934,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
+      <c r="A28" s="183"/>
       <c r="B28" s="5" t="s">
         <v>1357</v>
       </c>
@@ -42782,7 +42943,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="5" t="s">
         <v>1358</v>
       </c>
@@ -42791,7 +42952,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="5" t="s">
         <v>1361</v>
       </c>
@@ -42800,7 +42961,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="5" t="s">
         <v>1360</v>
       </c>
@@ -42809,7 +42970,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="182"/>
+      <c r="A32" s="183"/>
       <c r="B32" s="5" t="s">
         <v>1364</v>
       </c>
@@ -42818,7 +42979,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="182"/>
+      <c r="A33" s="183"/>
       <c r="B33" s="5" t="s">
         <v>1366</v>
       </c>
@@ -42827,7 +42988,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="182"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="5" t="s">
         <v>1370</v>
       </c>
@@ -42836,7 +42997,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="183"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="30" t="s">
         <v>1369</v>
       </c>
@@ -42845,7 +43006,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="187" t="s">
+      <c r="A37" s="188" t="s">
         <v>1372</v>
       </c>
       <c r="B37" s="32" t="s">
@@ -42856,7 +43017,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="188"/>
+      <c r="A38" s="189"/>
       <c r="B38" s="5" t="s">
         <v>1375</v>
       </c>
@@ -42865,7 +43026,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="188"/>
+      <c r="A39" s="189"/>
       <c r="B39" s="5" t="s">
         <v>1377</v>
       </c>
@@ -42874,7 +43035,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="188"/>
+      <c r="A40" s="189"/>
       <c r="B40" s="5" t="s">
         <v>1379</v>
       </c>
@@ -42883,7 +43044,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="189"/>
+      <c r="A41" s="190"/>
       <c r="B41" s="30" t="s">
         <v>1381</v>
       </c>
@@ -42908,7 +43069,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="181" t="s">
+      <c r="A45" s="182" t="s">
         <v>1386</v>
       </c>
       <c r="B45" s="32" t="s">
@@ -42919,7 +43080,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="182"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="5" t="s">
         <v>1390</v>
       </c>
@@ -42928,7 +43089,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="182"/>
+      <c r="A47" s="183"/>
       <c r="B47" s="5" t="s">
         <v>1387</v>
       </c>
@@ -42937,7 +43098,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="182"/>
+      <c r="A48" s="183"/>
       <c r="B48" s="5" t="s">
         <v>1393</v>
       </c>
@@ -42946,7 +43107,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="5" t="s">
         <v>1395</v>
       </c>
@@ -42955,7 +43116,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="183"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="30" t="s">
         <v>1397</v>
       </c>
@@ -42969,7 +43130,7 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="181" t="s">
+      <c r="A52" s="182" t="s">
         <v>1399</v>
       </c>
       <c r="B52" s="32" t="s">
@@ -42980,7 +43141,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="182"/>
+      <c r="A53" s="183"/>
       <c r="B53" s="5" t="s">
         <v>1402</v>
       </c>
@@ -42989,7 +43150,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="182"/>
+      <c r="A54" s="183"/>
       <c r="B54" s="5" t="s">
         <v>1404</v>
       </c>
@@ -42998,7 +43159,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="182"/>
+      <c r="A55" s="183"/>
       <c r="B55" s="5" t="s">
         <v>1406</v>
       </c>
@@ -43007,7 +43168,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="182"/>
+      <c r="A56" s="183"/>
       <c r="B56" s="5" t="s">
         <v>1407</v>
       </c>
@@ -43016,7 +43177,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="182"/>
+      <c r="A57" s="183"/>
       <c r="B57" s="5" t="s">
         <v>1410</v>
       </c>
@@ -43025,7 +43186,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="182"/>
+      <c r="A58" s="183"/>
       <c r="B58" s="5" t="s">
         <v>1412</v>
       </c>
@@ -43034,7 +43195,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="182"/>
+      <c r="A59" s="183"/>
       <c r="B59" s="5" t="s">
         <v>1413</v>
       </c>
@@ -43043,7 +43204,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="182"/>
+      <c r="A60" s="183"/>
       <c r="B60" s="5" t="s">
         <v>1414</v>
       </c>
@@ -43052,7 +43213,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="182"/>
+      <c r="A61" s="183"/>
       <c r="B61" s="5" t="s">
         <v>1415</v>
       </c>
@@ -43061,7 +43222,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="182"/>
+      <c r="A62" s="183"/>
       <c r="B62" s="5" t="s">
         <v>1420</v>
       </c>
@@ -43070,7 +43231,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="183"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="30" t="s">
         <v>1422</v>
       </c>
@@ -43079,7 +43240,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="181" t="s">
+      <c r="A65" s="182" t="s">
         <v>1424</v>
       </c>
       <c r="B65" s="32" t="s">
@@ -43090,7 +43251,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="182"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="5" t="s">
         <v>1426</v>
       </c>
@@ -43099,7 +43260,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="182"/>
+      <c r="A67" s="183"/>
       <c r="B67" s="5" t="s">
         <v>91</v>
       </c>
@@ -43108,7 +43269,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="182"/>
+      <c r="A68" s="183"/>
       <c r="B68" s="5" t="s">
         <v>92</v>
       </c>
@@ -43117,7 +43278,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="183"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="30" t="s">
         <v>1430</v>
       </c>
@@ -43126,7 +43287,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="178" t="s">
+      <c r="A71" s="179" t="s">
         <v>1432</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -43137,7 +43298,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="179"/>
+      <c r="A72" s="180"/>
       <c r="B72" s="5" t="s">
         <v>1435</v>
       </c>
@@ -43146,7 +43307,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="179"/>
+      <c r="A73" s="180"/>
       <c r="B73" s="5" t="s">
         <v>1436</v>
       </c>
@@ -43155,7 +43316,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="179"/>
+      <c r="A74" s="180"/>
       <c r="B74" s="5" t="s">
         <v>1437</v>
       </c>
@@ -43164,7 +43325,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="180"/>
+      <c r="A75" s="181"/>
       <c r="B75" s="30" t="s">
         <v>1438</v>
       </c>
@@ -43173,7 +43334,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="181" t="s">
+      <c r="A77" s="182" t="s">
         <v>1449</v>
       </c>
       <c r="B77" s="32" t="s">
@@ -43184,7 +43345,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="182"/>
+      <c r="A78" s="183"/>
       <c r="B78" s="5" t="s">
         <v>1445</v>
       </c>
@@ -43193,7 +43354,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="183"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="30" t="s">
         <v>1447</v>
       </c>
@@ -43202,7 +43363,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="187" t="s">
+      <c r="A81" s="188" t="s">
         <v>1450</v>
       </c>
       <c r="B81" s="32" t="s">
@@ -43213,7 +43374,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="188"/>
+      <c r="A82" s="189"/>
       <c r="B82" s="5" t="s">
         <v>1453</v>
       </c>
@@ -43222,7 +43383,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="189"/>
+      <c r="A83" s="190"/>
       <c r="B83" s="30" t="s">
         <v>1455</v>
       </c>
@@ -43231,7 +43392,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="184" t="s">
+      <c r="A85" s="185" t="s">
         <v>1458</v>
       </c>
       <c r="B85" s="32" t="s">
@@ -43242,7 +43403,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="185"/>
+      <c r="A86" s="186"/>
       <c r="B86" s="5" t="s">
         <v>1459</v>
       </c>
@@ -43251,7 +43412,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="186"/>
+      <c r="A87" s="187"/>
       <c r="B87" s="30" t="s">
         <v>1460</v>
       </c>
@@ -43319,7 +43480,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="191" t="s">
         <v>748</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -43337,7 +43498,7 @@
       <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="192"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="38" t="s">
         <v>747</v>
       </c>
@@ -43353,7 +43514,7 @@
       <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="192"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="38" t="s">
         <v>749</v>
       </c>
@@ -43369,7 +43530,7 @@
       <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="192"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="38" t="s">
         <v>750</v>
       </c>
@@ -43385,7 +43546,7 @@
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="191"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="40" t="s">
         <v>751</v>
       </c>
@@ -43410,7 +43571,7 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="190" t="s">
+      <c r="A8" s="191" t="s">
         <v>758</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -43429,7 +43590,7 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="192"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="38" t="s">
         <v>665</v>
       </c>
@@ -43448,7 +43609,7 @@
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="192"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="38" t="s">
         <v>666</v>
       </c>
@@ -43467,7 +43628,7 @@
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="191"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
         <v>694</v>
@@ -43485,7 +43646,7 @@
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="190" t="s">
+      <c r="A13" s="191" t="s">
         <v>760</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -43504,7 +43665,7 @@
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="192"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="38" t="s">
         <v>668</v>
       </c>
@@ -43521,7 +43682,7 @@
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="192"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="38" t="s">
         <v>761</v>
       </c>
@@ -43538,7 +43699,7 @@
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="192"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="38" t="s">
         <v>669</v>
       </c>
@@ -43555,7 +43716,7 @@
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="191"/>
+      <c r="A17" s="192"/>
       <c r="B17" s="40" t="s">
         <v>670</v>
       </c>
@@ -43581,7 +43742,7 @@
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="191" t="s">
         <v>765</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -43600,7 +43761,7 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="192"/>
+      <c r="A20" s="193"/>
       <c r="B20" s="38" t="s">
         <v>762</v>
       </c>
@@ -43617,7 +43778,7 @@
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="192"/>
+      <c r="A21" s="193"/>
       <c r="B21" s="38" t="s">
         <v>672</v>
       </c>
@@ -43634,7 +43795,7 @@
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="191"/>
+      <c r="A22" s="192"/>
       <c r="B22" s="40" t="s">
         <v>673</v>
       </c>
@@ -43654,7 +43815,7 @@
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="190" t="s">
+      <c r="A24" s="191" t="s">
         <v>766</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -43672,7 +43833,7 @@
       <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="192"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="38" t="s">
         <v>675</v>
       </c>
@@ -43688,7 +43849,7 @@
       <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="192"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="38" t="s">
         <v>676</v>
       </c>
@@ -43704,7 +43865,7 @@
       <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="192"/>
+      <c r="A27" s="193"/>
       <c r="B27" s="38" t="s">
         <v>767</v>
       </c>
@@ -43720,7 +43881,7 @@
       <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="192"/>
+      <c r="A28" s="193"/>
       <c r="B28" s="38" t="s">
         <v>677</v>
       </c>
@@ -43736,7 +43897,7 @@
       <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="192"/>
+      <c r="A29" s="193"/>
       <c r="B29" s="38" t="s">
         <v>678</v>
       </c>
@@ -43752,7 +43913,7 @@
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="191"/>
+      <c r="A30" s="192"/>
       <c r="B30" s="40" t="s">
         <v>679</v>
       </c>
@@ -43768,7 +43929,7 @@
       <c r="F30" s="41"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="191" t="s">
         <v>768</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -43786,7 +43947,7 @@
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="192"/>
+      <c r="A33" s="193"/>
       <c r="B33" s="38" t="s">
         <v>769</v>
       </c>
@@ -43802,7 +43963,7 @@
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="191"/>
+      <c r="A34" s="192"/>
       <c r="B34" s="40" t="s">
         <v>681</v>
       </c>
@@ -43818,7 +43979,7 @@
       <c r="F34" s="41"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="190" t="s">
+      <c r="A36" s="191" t="s">
         <v>770</v>
       </c>
       <c r="B36" s="36" t="s">
@@ -43836,7 +43997,7 @@
       <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="191"/>
+      <c r="A37" s="192"/>
       <c r="B37" s="40" t="s">
         <v>682</v>
       </c>
@@ -43870,7 +44031,7 @@
       <c r="F39" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="190" t="s">
+      <c r="A41" s="191" t="s">
         <v>774</v>
       </c>
       <c r="B41" s="36" t="s">
@@ -43888,7 +44049,7 @@
       <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="192"/>
+      <c r="A42" s="193"/>
       <c r="B42" s="38" t="s">
         <v>775</v>
       </c>
@@ -43904,7 +44065,7 @@
       <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="192"/>
+      <c r="A43" s="193"/>
       <c r="B43" s="38" t="s">
         <v>684</v>
       </c>
@@ -43920,7 +44081,7 @@
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="192"/>
+      <c r="A44" s="193"/>
       <c r="B44" s="38" t="s">
         <v>685</v>
       </c>
@@ -43936,7 +44097,7 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="192"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="38" t="s">
         <v>777</v>
       </c>
@@ -43952,7 +44113,7 @@
       <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="192"/>
+      <c r="A46" s="193"/>
       <c r="B46" s="38" t="s">
         <v>778</v>
       </c>
@@ -43968,7 +44129,7 @@
       <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="191"/>
+      <c r="A47" s="192"/>
       <c r="B47" s="40" t="s">
         <v>779</v>
       </c>
@@ -44006,7 +44167,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -44037,7 +44198,7 @@
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="194" t="s">
         <v>378</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -44048,7 +44209,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="19" t="s">
         <v>791</v>
       </c>
@@ -44057,7 +44218,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="19" t="s">
         <v>793</v>
       </c>
@@ -44066,7 +44227,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="194"/>
+      <c r="A7" s="195"/>
       <c r="B7" s="54" t="s">
         <v>795</v>
       </c>
@@ -44076,7 +44237,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="194" t="s">
         <v>797</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -44087,7 +44248,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="19" t="s">
         <v>800</v>
       </c>
@@ -44096,7 +44257,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="194"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="54" t="s">
         <v>802</v>
       </c>
@@ -44106,7 +44267,7 @@
     </row>
     <row r="12" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="194" t="s">
         <v>804</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -44117,7 +44278,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="194"/>
+      <c r="A14" s="195"/>
       <c r="B14" s="54" t="s">
         <v>807</v>
       </c>
@@ -44127,7 +44288,7 @@
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="193" t="s">
+      <c r="A16" s="194" t="s">
         <v>809</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -44138,7 +44299,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="195"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="19" t="s">
         <v>812</v>
       </c>
@@ -44147,7 +44308,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="194"/>
+      <c r="A18" s="195"/>
       <c r="B18" s="54" t="s">
         <v>814</v>
       </c>
@@ -44157,7 +44318,7 @@
     </row>
     <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="193" t="s">
+      <c r="A20" s="194" t="s">
         <v>816</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -44168,7 +44329,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="194"/>
+      <c r="A21" s="195"/>
       <c r="B21" s="54" t="s">
         <v>787</v>
       </c>
@@ -44176,7 +44337,7 @@
     </row>
     <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="193" t="s">
+      <c r="A23" s="194" t="s">
         <v>819</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -44187,7 +44348,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="194"/>
+      <c r="A24" s="195"/>
       <c r="B24" s="54" t="s">
         <v>822</v>
       </c>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" firstSheet="13" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="光大" sheetId="1" r:id="rId1"/>
@@ -16145,6 +16145,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16271,12 +16277,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16801,10 +16801,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="178" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="78" t="s">
@@ -16815,8 +16815,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="172"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -16825,8 +16825,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="172"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -16835,8 +16835,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="78" t="s">
         <v>9</v>
       </c>
@@ -16845,8 +16845,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
-      <c r="B6" s="172"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -16855,8 +16855,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="172"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -16865,8 +16865,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
-      <c r="B8" s="172"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="78" t="s">
         <v>12</v>
       </c>
@@ -16875,8 +16875,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -16885,8 +16885,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="172"/>
-      <c r="B10" s="172"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="78" t="s">
         <v>14</v>
       </c>
@@ -16895,8 +16895,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="172"/>
-      <c r="B11" s="172"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -16905,8 +16905,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="172"/>
-      <c r="B12" s="172"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -16915,8 +16915,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="172"/>
-      <c r="B13" s="172"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="78" t="s">
         <v>17</v>
       </c>
@@ -16925,14 +16925,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="172"/>
-      <c r="B14" s="173"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="179"/>
+      <c r="C14" s="180"/>
+      <c r="D14" s="181"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="172"/>
-      <c r="B15" s="172" t="s">
+      <c r="A15" s="178"/>
+      <c r="B15" s="178" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -16943,8 +16943,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="172"/>
-      <c r="B16" s="172"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -16953,8 +16953,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="172"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -16963,8 +16963,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="172"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -16973,8 +16973,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="172"/>
-      <c r="B19" s="172"/>
+      <c r="A19" s="178"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -16983,8 +16983,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
-      <c r="B20" s="172"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -16993,8 +16993,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
-      <c r="B21" s="172"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="178"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17003,14 +17003,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="172"/>
-      <c r="B22" s="173"/>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="179"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="172"/>
-      <c r="B23" s="172" t="s">
+      <c r="A23" s="178"/>
+      <c r="B23" s="178" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17021,8 +17021,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
-      <c r="B24" s="172"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17031,8 +17031,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="172"/>
-      <c r="B25" s="172"/>
+      <c r="A25" s="178"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17041,8 +17041,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="172"/>
-      <c r="B26" s="172"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="178"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17051,8 +17051,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="172"/>
-      <c r="B27" s="172"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="178"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17061,8 +17061,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="172"/>
-      <c r="B28" s="172"/>
+      <c r="A28" s="178"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17071,8 +17071,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="172"/>
-      <c r="B29" s="172"/>
+      <c r="A29" s="178"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17081,8 +17081,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="172"/>
-      <c r="B30" s="172"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17091,8 +17091,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="172"/>
-      <c r="B31" s="172"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17101,8 +17101,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="172"/>
-      <c r="B32" s="172"/>
+      <c r="A32" s="178"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17111,8 +17111,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="172"/>
-      <c r="B33" s="172"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17121,8 +17121,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="172"/>
-      <c r="B34" s="172"/>
+      <c r="A34" s="178"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17131,14 +17131,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="172"/>
-      <c r="B35" s="173"/>
-      <c r="C35" s="174"/>
-      <c r="D35" s="175"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="179"/>
+      <c r="C35" s="180"/>
+      <c r="D35" s="181"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="172"/>
-      <c r="B36" s="172" t="s">
+      <c r="A36" s="178"/>
+      <c r="B36" s="178" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17149,8 +17149,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="172"/>
-      <c r="B37" s="172"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17159,8 +17159,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="172"/>
-      <c r="B38" s="172"/>
+      <c r="A38" s="178"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17169,8 +17169,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="172"/>
-      <c r="B39" s="172"/>
+      <c r="A39" s="178"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17179,8 +17179,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="172"/>
-      <c r="B40" s="172"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17189,8 +17189,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="172"/>
-      <c r="B41" s="172"/>
+      <c r="A41" s="178"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17199,8 +17199,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="172"/>
-      <c r="B42" s="172"/>
+      <c r="A42" s="178"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17209,8 +17209,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="172"/>
-      <c r="B43" s="172"/>
+      <c r="A43" s="178"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17219,8 +17219,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="172"/>
-      <c r="B44" s="172"/>
+      <c r="A44" s="178"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17229,8 +17229,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="172"/>
-      <c r="B45" s="172"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17239,8 +17239,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="172"/>
-      <c r="B46" s="172"/>
+      <c r="A46" s="178"/>
+      <c r="B46" s="178"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17249,8 +17249,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="172"/>
-      <c r="B47" s="172"/>
+      <c r="A47" s="178"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17259,8 +17259,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="172"/>
-      <c r="B48" s="172"/>
+      <c r="A48" s="178"/>
+      <c r="B48" s="178"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17269,8 +17269,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="172"/>
-      <c r="B49" s="172"/>
+      <c r="A49" s="178"/>
+      <c r="B49" s="178"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17279,8 +17279,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="172"/>
-      <c r="B50" s="172"/>
+      <c r="A50" s="178"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17289,8 +17289,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="172"/>
-      <c r="B51" s="172"/>
+      <c r="A51" s="178"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17299,14 +17299,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="172"/>
-      <c r="B52" s="173"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="175"/>
+      <c r="A52" s="178"/>
+      <c r="B52" s="179"/>
+      <c r="C52" s="180"/>
+      <c r="D52" s="181"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="172"/>
-      <c r="B53" s="172" t="s">
+      <c r="A53" s="178"/>
+      <c r="B53" s="178" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17317,8 +17317,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="172"/>
-      <c r="B54" s="172"/>
+      <c r="A54" s="178"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17327,8 +17327,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="172"/>
-      <c r="B55" s="172"/>
+      <c r="A55" s="178"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17337,8 +17337,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="172"/>
-      <c r="B56" s="172"/>
+      <c r="A56" s="178"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17347,8 +17347,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="172"/>
-      <c r="B57" s="172"/>
+      <c r="A57" s="178"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17357,8 +17357,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="172"/>
-      <c r="B58" s="172"/>
+      <c r="A58" s="178"/>
+      <c r="B58" s="178"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17367,8 +17367,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="172"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="178"/>
+      <c r="B59" s="178"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17377,16 +17377,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="173"/>
-      <c r="B60" s="174"/>
-      <c r="C60" s="174"/>
-      <c r="D60" s="175"/>
+      <c r="A60" s="179"/>
+      <c r="B60" s="180"/>
+      <c r="C60" s="180"/>
+      <c r="D60" s="181"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="172" t="s">
+      <c r="A61" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="172" t="s">
+      <c r="B61" s="178" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17397,8 +17397,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="172"/>
-      <c r="B62" s="172"/>
+      <c r="A62" s="178"/>
+      <c r="B62" s="178"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17407,8 +17407,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="172"/>
-      <c r="B63" s="172"/>
+      <c r="A63" s="178"/>
+      <c r="B63" s="178"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17417,8 +17417,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="172"/>
-      <c r="B64" s="172"/>
+      <c r="A64" s="178"/>
+      <c r="B64" s="178"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17427,8 +17427,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="172"/>
-      <c r="B65" s="172"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="178"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17437,8 +17437,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="172"/>
-      <c r="B66" s="172"/>
+      <c r="A66" s="178"/>
+      <c r="B66" s="178"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17447,14 +17447,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="172"/>
-      <c r="B67" s="173"/>
-      <c r="C67" s="174"/>
-      <c r="D67" s="175"/>
+      <c r="A67" s="178"/>
+      <c r="B67" s="179"/>
+      <c r="C67" s="180"/>
+      <c r="D67" s="181"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="172"/>
-      <c r="B68" s="172" t="s">
+      <c r="A68" s="178"/>
+      <c r="B68" s="178" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17465,8 +17465,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="172"/>
-      <c r="B69" s="172"/>
+      <c r="A69" s="178"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17475,8 +17475,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="172"/>
-      <c r="B70" s="172"/>
+      <c r="A70" s="178"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17485,8 +17485,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="172"/>
-      <c r="B71" s="172"/>
+      <c r="A71" s="178"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17495,8 +17495,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="172"/>
-      <c r="B72" s="172"/>
+      <c r="A72" s="178"/>
+      <c r="B72" s="178"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17505,8 +17505,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="172"/>
-      <c r="B73" s="172"/>
+      <c r="A73" s="178"/>
+      <c r="B73" s="178"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17515,8 +17515,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="172"/>
-      <c r="B74" s="172"/>
+      <c r="A74" s="178"/>
+      <c r="B74" s="178"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17525,8 +17525,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="172"/>
-      <c r="B75" s="172"/>
+      <c r="A75" s="178"/>
+      <c r="B75" s="178"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17535,8 +17535,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="172"/>
-      <c r="B76" s="172"/>
+      <c r="A76" s="178"/>
+      <c r="B76" s="178"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17545,8 +17545,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="172"/>
-      <c r="B77" s="172"/>
+      <c r="A77" s="178"/>
+      <c r="B77" s="178"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17555,14 +17555,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="172"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="175"/>
+      <c r="A78" s="178"/>
+      <c r="B78" s="179"/>
+      <c r="C78" s="180"/>
+      <c r="D78" s="181"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="172"/>
-      <c r="B79" s="172" t="s">
+      <c r="A79" s="178"/>
+      <c r="B79" s="178" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17573,8 +17573,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="172"/>
-      <c r="B80" s="172"/>
+      <c r="A80" s="178"/>
+      <c r="B80" s="178"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17583,8 +17583,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="172"/>
-      <c r="B81" s="172"/>
+      <c r="A81" s="178"/>
+      <c r="B81" s="178"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17593,8 +17593,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="172"/>
-      <c r="B82" s="172"/>
+      <c r="A82" s="178"/>
+      <c r="B82" s="178"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17603,8 +17603,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="172"/>
-      <c r="B83" s="172"/>
+      <c r="A83" s="178"/>
+      <c r="B83" s="178"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17613,8 +17613,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="172"/>
-      <c r="B84" s="172"/>
+      <c r="A84" s="178"/>
+      <c r="B84" s="178"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17623,14 +17623,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="172"/>
-      <c r="B85" s="173"/>
-      <c r="C85" s="174"/>
-      <c r="D85" s="175"/>
+      <c r="A85" s="178"/>
+      <c r="B85" s="179"/>
+      <c r="C85" s="180"/>
+      <c r="D85" s="181"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="172"/>
-      <c r="B86" s="172" t="s">
+      <c r="A86" s="178"/>
+      <c r="B86" s="178" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17641,8 +17641,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="172"/>
-      <c r="B87" s="172"/>
+      <c r="A87" s="178"/>
+      <c r="B87" s="178"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17651,8 +17651,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="172"/>
-      <c r="B88" s="172"/>
+      <c r="A88" s="178"/>
+      <c r="B88" s="178"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17661,8 +17661,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="172"/>
-      <c r="B89" s="172"/>
+      <c r="A89" s="178"/>
+      <c r="B89" s="178"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17671,16 +17671,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="173"/>
-      <c r="B90" s="174"/>
-      <c r="C90" s="174"/>
-      <c r="D90" s="175"/>
+      <c r="A90" s="179"/>
+      <c r="B90" s="180"/>
+      <c r="C90" s="180"/>
+      <c r="D90" s="181"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="172" t="s">
+      <c r="A91" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="172" t="s">
+      <c r="B91" s="178" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17691,8 +17691,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="172"/>
-      <c r="B92" s="172"/>
+      <c r="A92" s="178"/>
+      <c r="B92" s="178"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17701,8 +17701,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="172"/>
-      <c r="B93" s="172"/>
+      <c r="A93" s="178"/>
+      <c r="B93" s="178"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17711,8 +17711,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="172"/>
-      <c r="B94" s="172"/>
+      <c r="A94" s="178"/>
+      <c r="B94" s="178"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17721,8 +17721,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="172"/>
-      <c r="B95" s="172"/>
+      <c r="A95" s="178"/>
+      <c r="B95" s="178"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17731,8 +17731,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="172"/>
-      <c r="B96" s="172"/>
+      <c r="A96" s="178"/>
+      <c r="B96" s="178"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17741,8 +17741,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="172"/>
-      <c r="B97" s="172"/>
+      <c r="A97" s="178"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17751,8 +17751,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="172"/>
-      <c r="B98" s="172"/>
+      <c r="A98" s="178"/>
+      <c r="B98" s="178"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17761,8 +17761,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="172"/>
-      <c r="B99" s="172"/>
+      <c r="A99" s="178"/>
+      <c r="B99" s="178"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17771,8 +17771,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="172"/>
-      <c r="B100" s="172"/>
+      <c r="A100" s="178"/>
+      <c r="B100" s="178"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17781,8 +17781,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="172"/>
-      <c r="B101" s="172"/>
+      <c r="A101" s="178"/>
+      <c r="B101" s="178"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17791,8 +17791,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="172"/>
-      <c r="B102" s="172"/>
+      <c r="A102" s="178"/>
+      <c r="B102" s="178"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17801,8 +17801,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="172"/>
-      <c r="B103" s="172"/>
+      <c r="A103" s="178"/>
+      <c r="B103" s="178"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17811,8 +17811,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="172"/>
-      <c r="B104" s="172"/>
+      <c r="A104" s="178"/>
+      <c r="B104" s="178"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17821,8 +17821,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="172"/>
-      <c r="B105" s="172"/>
+      <c r="A105" s="178"/>
+      <c r="B105" s="178"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17831,8 +17831,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="172"/>
-      <c r="B106" s="172"/>
+      <c r="A106" s="178"/>
+      <c r="B106" s="178"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17841,8 +17841,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="172"/>
-      <c r="B107" s="172"/>
+      <c r="A107" s="178"/>
+      <c r="B107" s="178"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17851,8 +17851,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="172"/>
-      <c r="B108" s="172"/>
+      <c r="A108" s="178"/>
+      <c r="B108" s="178"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17861,8 +17861,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="172"/>
-      <c r="B109" s="172"/>
+      <c r="A109" s="178"/>
+      <c r="B109" s="178"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17871,8 +17871,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="172"/>
-      <c r="B110" s="172"/>
+      <c r="A110" s="178"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17881,16 +17881,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="173"/>
-      <c r="B111" s="174"/>
-      <c r="C111" s="174"/>
-      <c r="D111" s="175"/>
+      <c r="A111" s="179"/>
+      <c r="B111" s="180"/>
+      <c r="C111" s="180"/>
+      <c r="D111" s="181"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="172" t="s">
+      <c r="A112" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="172" t="s">
+      <c r="B112" s="178" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -17901,8 +17901,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="172"/>
-      <c r="B113" s="172"/>
+      <c r="A113" s="178"/>
+      <c r="B113" s="178"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -17911,8 +17911,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="172"/>
-      <c r="B114" s="172"/>
+      <c r="A114" s="178"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -17921,8 +17921,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="172"/>
-      <c r="B115" s="172"/>
+      <c r="A115" s="178"/>
+      <c r="B115" s="178"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -17931,8 +17931,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="172"/>
-      <c r="B116" s="172"/>
+      <c r="A116" s="178"/>
+      <c r="B116" s="178"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -17941,8 +17941,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="172"/>
-      <c r="B117" s="172"/>
+      <c r="A117" s="178"/>
+      <c r="B117" s="178"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -18013,7 +18013,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="200" t="s">
         <v>916</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -18024,7 +18024,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="196"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="19" t="s">
         <v>836</v>
       </c>
@@ -18033,7 +18033,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="196"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="19" t="s">
         <v>837</v>
       </c>
@@ -18042,7 +18042,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="196"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="19" t="s">
         <v>839</v>
       </c>
@@ -18051,7 +18051,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="196"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="19" t="s">
         <v>840</v>
       </c>
@@ -18060,7 +18060,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="196"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="19" t="s">
         <v>841</v>
       </c>
@@ -18069,7 +18069,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="196"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="19" t="s">
         <v>842</v>
       </c>
@@ -18078,7 +18078,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="196"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="19" t="s">
         <v>843</v>
       </c>
@@ -18087,7 +18087,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="196"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="19" t="s">
         <v>844</v>
       </c>
@@ -18096,7 +18096,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="196"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="19" t="s">
         <v>845</v>
       </c>
@@ -18105,7 +18105,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="196"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="19" t="s">
         <v>846</v>
       </c>
@@ -18114,7 +18114,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="196"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="19" t="s">
         <v>847</v>
       </c>
@@ -18123,7 +18123,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="196"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="19" t="s">
         <v>848</v>
       </c>
@@ -18132,7 +18132,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="196"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="19" t="s">
         <v>849</v>
       </c>
@@ -18141,7 +18141,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="196"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="19" t="s">
         <v>850</v>
       </c>
@@ -18150,7 +18150,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="195"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="54" t="s">
         <v>851</v>
       </c>
@@ -18159,7 +18159,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="194" t="s">
+      <c r="A20" s="200" t="s">
         <v>829</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -18170,7 +18170,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="196"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="19" t="s">
         <v>853</v>
       </c>
@@ -18179,7 +18179,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="196"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="19" t="s">
         <v>854</v>
       </c>
@@ -18188,7 +18188,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="196"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="19" t="s">
         <v>855</v>
       </c>
@@ -18197,7 +18197,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="196"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="19" t="s">
         <v>856</v>
       </c>
@@ -18206,7 +18206,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="196"/>
+      <c r="A25" s="202"/>
       <c r="B25" s="19" t="s">
         <v>857</v>
       </c>
@@ -18215,7 +18215,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="196"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="19" t="s">
         <v>858</v>
       </c>
@@ -18224,7 +18224,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="196"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="19" t="s">
         <v>859</v>
       </c>
@@ -18233,7 +18233,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="196"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="19" t="s">
         <v>860</v>
       </c>
@@ -18242,7 +18242,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="195"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="54" t="s">
         <v>861</v>
       </c>
@@ -18251,7 +18251,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="194" t="s">
+      <c r="A31" s="200" t="s">
         <v>830</v>
       </c>
       <c r="B31" s="49" t="s">
@@ -18262,7 +18262,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="196"/>
+      <c r="A32" s="202"/>
       <c r="B32" s="19" t="s">
         <v>863</v>
       </c>
@@ -18271,7 +18271,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="196"/>
+      <c r="A33" s="202"/>
       <c r="B33" s="19" t="s">
         <v>864</v>
       </c>
@@ -18280,7 +18280,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="196"/>
+      <c r="A34" s="202"/>
       <c r="B34" s="19" t="s">
         <v>865</v>
       </c>
@@ -18289,7 +18289,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="196"/>
+      <c r="A35" s="202"/>
       <c r="B35" s="19" t="s">
         <v>866</v>
       </c>
@@ -18298,7 +18298,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="196"/>
+      <c r="A36" s="202"/>
       <c r="B36" s="19" t="s">
         <v>867</v>
       </c>
@@ -18307,7 +18307,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="196"/>
+      <c r="A37" s="202"/>
       <c r="B37" s="19" t="s">
         <v>868</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="195"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="54" t="s">
         <v>869</v>
       </c>
@@ -18325,7 +18325,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="194" t="s">
+      <c r="A40" s="200" t="s">
         <v>831</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -18336,7 +18336,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="196"/>
+      <c r="A41" s="202"/>
       <c r="B41" s="19" t="s">
         <v>871</v>
       </c>
@@ -18345,7 +18345,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="196"/>
+      <c r="A42" s="202"/>
       <c r="B42" s="19" t="s">
         <v>872</v>
       </c>
@@ -18354,7 +18354,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="196"/>
+      <c r="A43" s="202"/>
       <c r="B43" s="19" t="s">
         <v>873</v>
       </c>
@@ -18363,7 +18363,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="196"/>
+      <c r="A44" s="202"/>
       <c r="B44" s="19" t="s">
         <v>874</v>
       </c>
@@ -18372,7 +18372,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="196"/>
+      <c r="A45" s="202"/>
       <c r="B45" s="19" t="s">
         <v>875</v>
       </c>
@@ -18381,7 +18381,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="196"/>
+      <c r="A46" s="202"/>
       <c r="B46" s="19" t="s">
         <v>876</v>
       </c>
@@ -18390,7 +18390,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="196"/>
+      <c r="A47" s="202"/>
       <c r="B47" s="19" t="s">
         <v>877</v>
       </c>
@@ -18399,7 +18399,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="196"/>
+      <c r="A48" s="202"/>
       <c r="B48" s="19" t="s">
         <v>878</v>
       </c>
@@ -18408,7 +18408,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="196"/>
+      <c r="A49" s="202"/>
       <c r="B49" s="19" t="s">
         <v>879</v>
       </c>
@@ -18417,7 +18417,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="196"/>
+      <c r="A50" s="202"/>
       <c r="B50" s="19" t="s">
         <v>880</v>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="196"/>
+      <c r="A51" s="202"/>
       <c r="B51" s="19" t="s">
         <v>881</v>
       </c>
@@ -18435,7 +18435,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="195"/>
+      <c r="A52" s="201"/>
       <c r="B52" s="54" t="s">
         <v>882</v>
       </c>
@@ -18444,7 +18444,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="194" t="s">
+      <c r="A54" s="200" t="s">
         <v>832</v>
       </c>
       <c r="B54" s="49" t="s">
@@ -18455,7 +18455,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="196"/>
+      <c r="A55" s="202"/>
       <c r="B55" s="19" t="s">
         <v>884</v>
       </c>
@@ -18464,7 +18464,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="196"/>
+      <c r="A56" s="202"/>
       <c r="B56" s="19" t="s">
         <v>885</v>
       </c>
@@ -18473,7 +18473,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="196"/>
+      <c r="A57" s="202"/>
       <c r="B57" s="19" t="s">
         <v>886</v>
       </c>
@@ -18482,7 +18482,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="196"/>
+      <c r="A58" s="202"/>
       <c r="B58" s="19" t="s">
         <v>887</v>
       </c>
@@ -18491,7 +18491,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="196"/>
+      <c r="A59" s="202"/>
       <c r="B59" s="19" t="s">
         <v>888</v>
       </c>
@@ -18500,7 +18500,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="196"/>
+      <c r="A60" s="202"/>
       <c r="B60" s="19" t="s">
         <v>889</v>
       </c>
@@ -18509,7 +18509,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="196"/>
+      <c r="A61" s="202"/>
       <c r="B61" s="19" t="s">
         <v>890</v>
       </c>
@@ -18518,7 +18518,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="196"/>
+      <c r="A62" s="202"/>
       <c r="B62" s="19" t="s">
         <v>891</v>
       </c>
@@ -18527,7 +18527,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="196"/>
+      <c r="A63" s="202"/>
       <c r="B63" s="19" t="s">
         <v>892</v>
       </c>
@@ -18536,7 +18536,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="196"/>
+      <c r="A64" s="202"/>
       <c r="B64" s="19" t="s">
         <v>893</v>
       </c>
@@ -18545,7 +18545,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="196"/>
+      <c r="A65" s="202"/>
       <c r="B65" s="19" t="s">
         <v>894</v>
       </c>
@@ -18554,7 +18554,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="196"/>
+      <c r="A66" s="202"/>
       <c r="B66" s="19" t="s">
         <v>895</v>
       </c>
@@ -18563,7 +18563,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="196"/>
+      <c r="A67" s="202"/>
       <c r="B67" s="19" t="s">
         <v>896</v>
       </c>
@@ -18572,7 +18572,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="196"/>
+      <c r="A68" s="202"/>
       <c r="B68" s="19" t="s">
         <v>897</v>
       </c>
@@ -18581,7 +18581,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="196"/>
+      <c r="A69" s="202"/>
       <c r="B69" s="19" t="s">
         <v>898</v>
       </c>
@@ -18590,7 +18590,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="196"/>
+      <c r="A70" s="202"/>
       <c r="B70" s="19" t="s">
         <v>899</v>
       </c>
@@ -18599,7 +18599,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="196"/>
+      <c r="A71" s="202"/>
       <c r="B71" s="19" t="s">
         <v>900</v>
       </c>
@@ -18608,7 +18608,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="196"/>
+      <c r="A72" s="202"/>
       <c r="B72" s="19" t="s">
         <v>901</v>
       </c>
@@ -18617,7 +18617,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="195"/>
+      <c r="A73" s="201"/>
       <c r="B73" s="54" t="s">
         <v>902</v>
       </c>
@@ -18626,7 +18626,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="194" t="s">
+      <c r="A75" s="200" t="s">
         <v>833</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -18637,7 +18637,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="196"/>
+      <c r="A76" s="202"/>
       <c r="B76" s="19" t="s">
         <v>904</v>
       </c>
@@ -18646,7 +18646,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="196"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="19" t="s">
         <v>905</v>
       </c>
@@ -18655,7 +18655,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="196"/>
+      <c r="A78" s="202"/>
       <c r="B78" s="19" t="s">
         <v>906</v>
       </c>
@@ -18664,7 +18664,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="196"/>
+      <c r="A79" s="202"/>
       <c r="B79" s="19" t="s">
         <v>907</v>
       </c>
@@ -18673,7 +18673,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="196"/>
+      <c r="A80" s="202"/>
       <c r="B80" s="19" t="s">
         <v>908</v>
       </c>
@@ -18682,7 +18682,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="196"/>
+      <c r="A81" s="202"/>
       <c r="B81" s="19" t="s">
         <v>909</v>
       </c>
@@ -18691,7 +18691,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="196"/>
+      <c r="A82" s="202"/>
       <c r="B82" s="19" t="s">
         <v>910</v>
       </c>
@@ -18700,7 +18700,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="196"/>
+      <c r="A83" s="202"/>
       <c r="B83" s="19" t="s">
         <v>911</v>
       </c>
@@ -18709,7 +18709,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="196"/>
+      <c r="A84" s="202"/>
       <c r="B84" s="19" t="s">
         <v>912</v>
       </c>
@@ -18718,7 +18718,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="196"/>
+      <c r="A85" s="202"/>
       <c r="B85" s="19" t="s">
         <v>913</v>
       </c>
@@ -18727,7 +18727,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="196"/>
+      <c r="A86" s="202"/>
       <c r="B86" s="19" t="s">
         <v>914</v>
       </c>
@@ -18736,7 +18736,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="195"/>
+      <c r="A87" s="201"/>
       <c r="B87" s="54" t="s">
         <v>915</v>
       </c>
@@ -18783,7 +18783,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="200" t="s">
         <v>919</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -18791,38 +18791,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="196"/>
+      <c r="A3" s="202"/>
       <c r="B3" s="52" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="196"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="52" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="196"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="52" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="196"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="52" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="195"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="55" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="200" t="s">
         <v>378</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -18830,98 +18830,98 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="196"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="52" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="196"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="52" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="196"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="52" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="196"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="52" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="196"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="52" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="196"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="52" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="196"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="52" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="196"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="52" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="196"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="52" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="196"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="52" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="196"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="52" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="196"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="52" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="196"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="52" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="196"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="52" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="195"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="55" t="s">
         <v>941</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="200" t="s">
         <v>797</v>
       </c>
       <c r="B26" s="56" t="s">
@@ -18929,86 +18929,86 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="196"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="58" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="196"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="58" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="196"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="58" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="196"/>
+      <c r="A30" s="202"/>
       <c r="B30" s="58" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="196"/>
+      <c r="A31" s="202"/>
       <c r="B31" s="58" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="196"/>
+      <c r="A32" s="202"/>
       <c r="B32" s="58" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="196"/>
+      <c r="A33" s="202"/>
       <c r="B33" s="58" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="196"/>
+      <c r="A34" s="202"/>
       <c r="B34" s="58" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="196"/>
+      <c r="A35" s="202"/>
       <c r="B35" s="58" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="196"/>
+      <c r="A36" s="202"/>
       <c r="B36" s="58" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="196"/>
+      <c r="A37" s="202"/>
       <c r="B37" s="58" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="196"/>
+      <c r="A38" s="202"/>
       <c r="B38" s="58" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="195"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="57" t="s">
         <v>955</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="200" t="s">
         <v>809</v>
       </c>
       <c r="B41" s="50" t="s">
@@ -19016,110 +19016,110 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="196"/>
+      <c r="A42" s="202"/>
       <c r="B42" s="52" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="196"/>
+      <c r="A43" s="202"/>
       <c r="B43" s="52" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="196"/>
+      <c r="A44" s="202"/>
       <c r="B44" s="52" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="196"/>
+      <c r="A45" s="202"/>
       <c r="B45" s="52" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="196"/>
+      <c r="A46" s="202"/>
       <c r="B46" s="52" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="196"/>
+      <c r="A47" s="202"/>
       <c r="B47" s="52" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="196"/>
+      <c r="A48" s="202"/>
       <c r="B48" s="52" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="196"/>
+      <c r="A49" s="202"/>
       <c r="B49" s="52" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="196"/>
+      <c r="A50" s="202"/>
       <c r="B50" s="52" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="196"/>
+      <c r="A51" s="202"/>
       <c r="B51" s="52" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="196"/>
+      <c r="A52" s="202"/>
       <c r="B52" s="52" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="196"/>
+      <c r="A53" s="202"/>
       <c r="B53" s="52" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="196"/>
+      <c r="A54" s="202"/>
       <c r="B54" s="52" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="196"/>
+      <c r="A55" s="202"/>
       <c r="B55" s="52" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="196"/>
+      <c r="A56" s="202"/>
       <c r="B56" s="52" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="196"/>
+      <c r="A57" s="202"/>
       <c r="B57" s="52" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="195"/>
+      <c r="A58" s="201"/>
       <c r="B58" s="55" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="197" t="s">
+      <c r="A60" s="203" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="50" t="s">
@@ -19127,67 +19127,67 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="198"/>
+      <c r="A61" s="204"/>
       <c r="B61" s="52" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="198"/>
+      <c r="A62" s="204"/>
       <c r="B62" s="52" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="198"/>
+      <c r="A63" s="204"/>
       <c r="B63" s="52" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="198"/>
+      <c r="A64" s="204"/>
       <c r="B64" s="52" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="198"/>
+      <c r="A65" s="204"/>
       <c r="B65" s="52" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="198"/>
+      <c r="A66" s="204"/>
       <c r="B66" s="52" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="198"/>
+      <c r="A67" s="204"/>
       <c r="B67" s="52" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="198"/>
+      <c r="A68" s="204"/>
       <c r="B68" s="52" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="198"/>
+      <c r="A69" s="204"/>
       <c r="B69" s="52" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="198"/>
+      <c r="A70" s="204"/>
       <c r="B70" s="52" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="199"/>
+      <c r="A71" s="205"/>
       <c r="B71" s="55" t="s">
         <v>983</v>
       </c>
@@ -19203,7 +19203,7 @@
     </row>
     <row r="74" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="194" t="s">
+      <c r="A75" s="200" t="s">
         <v>986</v>
       </c>
       <c r="B75" s="50" t="s">
@@ -19211,19 +19211,19 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="196"/>
+      <c r="A76" s="202"/>
       <c r="B76" s="52" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="196"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="52" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="195"/>
+      <c r="A78" s="201"/>
       <c r="B78" s="55" t="s">
         <v>990</v>
       </c>
@@ -19280,7 +19280,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="200" t="s">
         <v>1006</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -19294,7 +19294,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="196"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="19" t="s">
         <v>998</v>
       </c>
@@ -19304,7 +19304,7 @@
       <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="196"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="19" t="s">
         <v>999</v>
       </c>
@@ -19314,7 +19314,7 @@
       <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="196"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="19" t="s">
         <v>998</v>
       </c>
@@ -19322,7 +19322,7 @@
       <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="196"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="19" t="s">
         <v>1000</v>
       </c>
@@ -19330,7 +19330,7 @@
       <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="196"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="19" t="s">
         <v>998</v>
       </c>
@@ -19338,7 +19338,7 @@
       <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="196"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="19" t="s">
         <v>1001</v>
       </c>
@@ -19346,7 +19346,7 @@
       <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="196"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="19" t="s">
         <v>998</v>
       </c>
@@ -19354,7 +19354,7 @@
       <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="196"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="19" t="s">
         <v>1002</v>
       </c>
@@ -19362,7 +19362,7 @@
       <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="195"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="54" t="s">
         <v>998</v>
       </c>
@@ -19370,7 +19370,7 @@
       <c r="D12" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="194" t="s">
+      <c r="A14" s="200" t="s">
         <v>1007</v>
       </c>
       <c r="B14" s="49" t="s">
@@ -19382,7 +19382,7 @@
       <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="196"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="19" t="s">
         <v>1009</v>
       </c>
@@ -19392,7 +19392,7 @@
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="196"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="19" t="s">
         <v>1010</v>
       </c>
@@ -19402,7 +19402,7 @@
       <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="196"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="19" t="s">
         <v>1011</v>
       </c>
@@ -19412,7 +19412,7 @@
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="196"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="19" t="s">
         <v>1012</v>
       </c>
@@ -19420,7 +19420,7 @@
       <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="195"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="54" t="s">
         <v>998</v>
       </c>
@@ -19433,7 +19433,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="200" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="49" t="s">
@@ -19447,7 +19447,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="196"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="19" t="s">
         <v>1018</v>
       </c>
@@ -19457,7 +19457,7 @@
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="196"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="19" t="s">
         <v>1019</v>
       </c>
@@ -19467,7 +19467,7 @@
       <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="195"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="54" t="s">
         <v>1018</v>
       </c>
@@ -19482,7 +19482,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="61" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="194" t="s">
+      <c r="A28" s="200" t="s">
         <v>1037</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -19496,7 +19496,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="196"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="19" t="s">
         <v>1022</v>
       </c>
@@ -19504,7 +19504,7 @@
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="196"/>
+      <c r="A30" s="202"/>
       <c r="B30" s="19" t="s">
         <v>1023</v>
       </c>
@@ -19512,7 +19512,7 @@
       <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="195"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="54" t="s">
         <v>1024</v>
       </c>
@@ -19520,7 +19520,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="203" t="s">
+      <c r="A33" s="209" t="s">
         <v>1040</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19534,7 +19534,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="204"/>
+      <c r="A34" s="210"/>
       <c r="B34" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19542,7 +19542,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="204"/>
+      <c r="A35" s="210"/>
       <c r="B35" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="204"/>
+      <c r="A36" s="210"/>
       <c r="B36" s="19" t="s">
         <v>1028</v>
       </c>
@@ -19558,7 +19558,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="204"/>
+      <c r="A37" s="210"/>
       <c r="B37" s="19" t="s">
         <v>998</v>
       </c>
@@ -19566,7 +19566,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="205"/>
+      <c r="A38" s="211"/>
       <c r="B38" s="54" t="s">
         <v>1028</v>
       </c>
@@ -19574,7 +19574,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="203" t="s">
+      <c r="A40" s="209" t="s">
         <v>1042</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19586,7 +19586,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="205"/>
+      <c r="A41" s="211"/>
       <c r="B41" s="54" t="s">
         <v>1030</v>
       </c>
@@ -19599,7 +19599,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="203" t="s">
+      <c r="A44" s="209" t="s">
         <v>1044</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19613,7 +19613,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="204"/>
+      <c r="A45" s="210"/>
       <c r="B45" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="204"/>
+      <c r="A46" s="210"/>
       <c r="B46" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19629,7 +19629,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="204"/>
+      <c r="A47" s="210"/>
       <c r="B47" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19637,7 +19637,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="204"/>
+      <c r="A48" s="210"/>
       <c r="B48" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19645,7 +19645,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="204"/>
+      <c r="A49" s="210"/>
       <c r="B49" s="19" t="s">
         <v>1036</v>
       </c>
@@ -19653,7 +19653,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="205"/>
+      <c r="A50" s="211"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19665,7 +19665,7 @@
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A52" s="194" t="s">
+      <c r="A52" s="200" t="s">
         <v>1047</v>
       </c>
       <c r="B52" s="49" t="s">
@@ -19677,7 +19677,7 @@
       <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="196"/>
+      <c r="A53" s="202"/>
       <c r="B53" s="19" t="s">
         <v>1049</v>
       </c>
@@ -19685,7 +19685,7 @@
       <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="196"/>
+      <c r="A54" s="202"/>
       <c r="B54" s="19" t="s">
         <v>1050</v>
       </c>
@@ -19693,7 +19693,7 @@
       <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="196"/>
+      <c r="A55" s="202"/>
       <c r="B55" s="19" t="s">
         <v>1051</v>
       </c>
@@ -19701,7 +19701,7 @@
       <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="195"/>
+      <c r="A56" s="201"/>
       <c r="B56" s="54" t="s">
         <v>1052</v>
       </c>
@@ -19714,7 +19714,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="206" t="s">
+      <c r="A59" s="212" t="s">
         <v>419</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19728,7 +19728,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="207"/>
+      <c r="A60" s="213"/>
       <c r="B60" s="19" t="s">
         <v>1055</v>
       </c>
@@ -19736,7 +19736,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="208"/>
+      <c r="A61" s="214"/>
       <c r="B61" s="54" t="s">
         <v>1056</v>
       </c>
@@ -19749,7 +19749,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="194" t="s">
+      <c r="A64" s="200" t="s">
         <v>490</v>
       </c>
       <c r="B64" s="49" t="s">
@@ -19763,7 +19763,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="196"/>
+      <c r="A65" s="202"/>
       <c r="B65" s="19" t="s">
         <v>1060</v>
       </c>
@@ -19775,7 +19775,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="196"/>
+      <c r="A66" s="202"/>
       <c r="B66" s="19" t="s">
         <v>1061</v>
       </c>
@@ -19787,7 +19787,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="196"/>
+      <c r="A67" s="202"/>
       <c r="B67" s="19" t="s">
         <v>1062</v>
       </c>
@@ -19797,7 +19797,7 @@
       <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="195"/>
+      <c r="A68" s="201"/>
       <c r="B68" s="54" t="s">
         <v>1063</v>
       </c>
@@ -19805,7 +19805,7 @@
       <c r="D68" s="55"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="194" t="s">
+      <c r="A70" s="200" t="s">
         <v>1071</v>
       </c>
       <c r="B70" s="49" t="s">
@@ -19819,7 +19819,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="196"/>
+      <c r="A71" s="202"/>
       <c r="B71" s="19" t="s">
         <v>1073</v>
       </c>
@@ -19831,7 +19831,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="196"/>
+      <c r="A72" s="202"/>
       <c r="B72" s="19" t="s">
         <v>1074</v>
       </c>
@@ -19839,7 +19839,7 @@
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="195"/>
+      <c r="A73" s="201"/>
       <c r="B73" s="54" t="s">
         <v>1075</v>
       </c>
@@ -19847,7 +19847,7 @@
       <c r="D73" s="55"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="194" t="s">
+      <c r="A75" s="200" t="s">
         <v>809</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -19861,7 +19861,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="196"/>
+      <c r="A76" s="202"/>
       <c r="B76" s="19" t="s">
         <v>540</v>
       </c>
@@ -19873,7 +19873,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="196"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="19" t="s">
         <v>1081</v>
       </c>
@@ -19885,7 +19885,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="196"/>
+      <c r="A78" s="202"/>
       <c r="B78" s="19" t="s">
         <v>1082</v>
       </c>
@@ -19895,7 +19895,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="195"/>
+      <c r="A79" s="201"/>
       <c r="B79" s="54" t="s">
         <v>1083</v>
       </c>
@@ -19908,7 +19908,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="200" t="s">
+      <c r="A82" s="206" t="s">
         <v>1091</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -19922,7 +19922,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="201"/>
+      <c r="A83" s="207"/>
       <c r="B83" s="19" t="s">
         <v>1093</v>
       </c>
@@ -19930,7 +19930,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="201"/>
+      <c r="A84" s="207"/>
       <c r="B84" s="19" t="s">
         <v>1094</v>
       </c>
@@ -19938,7 +19938,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="202"/>
+      <c r="A85" s="208"/>
       <c r="B85" s="54" t="s">
         <v>1095</v>
       </c>
@@ -19946,7 +19946,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="200" t="s">
+      <c r="A87" s="206" t="s">
         <v>1101</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -19960,7 +19960,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="201"/>
+      <c r="A88" s="207"/>
       <c r="B88" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19972,7 +19972,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="201"/>
+      <c r="A89" s="207"/>
       <c r="B89" s="19" t="s">
         <v>1104</v>
       </c>
@@ -19984,7 +19984,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="201"/>
+      <c r="A90" s="207"/>
       <c r="B90" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19996,7 +19996,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="201"/>
+      <c r="A91" s="207"/>
       <c r="B91" s="19" t="s">
         <v>1105</v>
       </c>
@@ -20006,7 +20006,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="201"/>
+      <c r="A92" s="207"/>
       <c r="B92" s="19" t="s">
         <v>1103</v>
       </c>
@@ -20014,7 +20014,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="201"/>
+      <c r="A93" s="207"/>
       <c r="B93" s="19" t="s">
         <v>536</v>
       </c>
@@ -20022,7 +20022,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="201"/>
+      <c r="A94" s="207"/>
       <c r="B94" s="19" t="s">
         <v>1106</v>
       </c>
@@ -20030,7 +20030,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="202"/>
+      <c r="A95" s="208"/>
       <c r="B95" s="54" t="s">
         <v>1107</v>
       </c>
@@ -20038,7 +20038,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="203" t="s">
+      <c r="A97" s="209" t="s">
         <v>1114</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -20050,7 +20050,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="204"/>
+      <c r="A98" s="210"/>
       <c r="B98" s="67" t="s">
         <v>1115</v>
       </c>
@@ -20060,7 +20060,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="204"/>
+      <c r="A99" s="210"/>
       <c r="B99" s="67" t="s">
         <v>1104</v>
       </c>
@@ -20070,7 +20070,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="204"/>
+      <c r="A100" s="210"/>
       <c r="B100" s="67" t="s">
         <v>1115</v>
       </c>
@@ -20080,7 +20080,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="204"/>
+      <c r="A101" s="210"/>
       <c r="B101" s="67" t="s">
         <v>1105</v>
       </c>
@@ -20090,7 +20090,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="205"/>
+      <c r="A102" s="211"/>
       <c r="B102" s="69" t="s">
         <v>1115</v>
       </c>
@@ -20103,7 +20103,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="135" x14ac:dyDescent="0.15">
-      <c r="A105" s="194" t="s">
+      <c r="A105" s="200" t="s">
         <v>1118</v>
       </c>
       <c r="B105" s="49" t="s">
@@ -20117,7 +20117,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="196"/>
+      <c r="A106" s="202"/>
       <c r="B106" s="19" t="s">
         <v>1120</v>
       </c>
@@ -20125,7 +20125,7 @@
       <c r="D106" s="52"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="196"/>
+      <c r="A107" s="202"/>
       <c r="B107" s="19" t="s">
         <v>1121</v>
       </c>
@@ -20133,7 +20133,7 @@
       <c r="D107" s="52"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="196"/>
+      <c r="A108" s="202"/>
       <c r="B108" s="19" t="s">
         <v>1122</v>
       </c>
@@ -20141,7 +20141,7 @@
       <c r="D108" s="52"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="195"/>
+      <c r="A109" s="201"/>
       <c r="B109" s="54" t="s">
         <v>1123</v>
       </c>
@@ -20197,7 +20197,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="200" t="s">
         <v>1127</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -20205,31 +20205,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="196"/>
+      <c r="A3" s="202"/>
       <c r="B3" s="52" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="196"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="52" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="196"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="52" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="195"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="55" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="200" t="s">
         <v>797</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -20237,19 +20237,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="196"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="52" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="55" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="200" t="s">
         <v>809</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -20257,13 +20257,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="196"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="52" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="195"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="55"/>
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -20282,7 +20282,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="194" t="s">
+      <c r="A18" s="200" t="s">
         <v>1139</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -20290,25 +20290,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="196"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="52" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="196"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="52" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="195"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="55" t="s">
         <v>1143</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="200" t="s">
         <v>986</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -20316,19 +20316,19 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="196"/>
+      <c r="A24" s="202"/>
       <c r="B24" s="72" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="195"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="73" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="194" t="s">
+      <c r="A27" s="200" t="s">
         <v>1147</v>
       </c>
       <c r="B27" s="50" t="s">
@@ -20336,19 +20336,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="196"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="52" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="196"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="52" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="195"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="55" t="s">
         <v>1151</v>
       </c>
@@ -20374,7 +20374,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="194" t="s">
+      <c r="A36" s="200" t="s">
         <v>1156</v>
       </c>
       <c r="B36" s="50" t="s">
@@ -20382,7 +20382,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="195"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="55" t="s">
         <v>1158</v>
       </c>
@@ -20431,7 +20431,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="200" t="s">
         <v>1159</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -20442,28 +20442,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="196"/>
+      <c r="A3" s="202"/>
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="196"/>
+      <c r="A4" s="202"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="196"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="53"/>
       <c r="C5" s="55" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="196"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="48" t="s">
         <v>1189</v>
       </c>
@@ -20472,14 +20472,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="196"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="53"/>
       <c r="C7" s="55" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="196"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="48" t="s">
         <v>1166</v>
       </c>
@@ -20488,21 +20488,21 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="196"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="51"/>
       <c r="C9" s="52" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="196"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="53"/>
       <c r="C10" s="55" t="s">
         <v>1169</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="196"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="48" t="s">
         <v>1170</v>
       </c>
@@ -20511,21 +20511,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="196"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="51"/>
       <c r="C12" s="52" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="196"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="53"/>
       <c r="C13" s="55" t="s">
         <v>1173</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="196"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="48" t="s">
         <v>1174</v>
       </c>
@@ -20534,21 +20534,21 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="196"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="51"/>
       <c r="C15" s="52" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="196"/>
+      <c r="A16" s="202"/>
       <c r="B16" s="53"/>
       <c r="C16" s="55" t="s">
         <v>1177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="196"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="48" t="s">
         <v>1178</v>
       </c>
@@ -20557,21 +20557,21 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="196"/>
+      <c r="A18" s="202"/>
       <c r="B18" s="51"/>
       <c r="C18" s="52" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="196"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="53"/>
       <c r="C19" s="55" t="s">
         <v>1181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="196"/>
+      <c r="A20" s="202"/>
       <c r="B20" s="48" t="s">
         <v>1182</v>
       </c>
@@ -20580,14 +20580,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="196"/>
+      <c r="A21" s="202"/>
       <c r="B21" s="53"/>
       <c r="C21" s="55" t="s">
         <v>1184</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="196"/>
+      <c r="A22" s="202"/>
       <c r="B22" s="19" t="s">
         <v>1185</v>
       </c>
@@ -20596,14 +20596,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="195"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="54"/>
       <c r="C23" s="55" t="s">
         <v>1187</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="194" t="s">
+      <c r="A25" s="200" t="s">
         <v>1190</v>
       </c>
       <c r="B25" s="48" t="s">
@@ -20615,7 +20615,7 @@
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="196"/>
+      <c r="A26" s="202"/>
       <c r="B26" s="51"/>
       <c r="C26" s="52" t="s">
         <v>1193</v>
@@ -20623,7 +20623,7 @@
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="196"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="51"/>
       <c r="C27" s="52" t="s">
         <v>1194</v>
@@ -20631,7 +20631,7 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="196"/>
+      <c r="A28" s="202"/>
       <c r="B28" s="51"/>
       <c r="C28" s="52" t="s">
         <v>1195</v>
@@ -20639,7 +20639,7 @@
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="196"/>
+      <c r="A29" s="202"/>
       <c r="B29" s="53"/>
       <c r="C29" s="55" t="s">
         <v>1196</v>
@@ -20647,7 +20647,7 @@
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="196"/>
+      <c r="A30" s="202"/>
       <c r="B30" s="48" t="s">
         <v>1197</v>
       </c>
@@ -20657,7 +20657,7 @@
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="196"/>
+      <c r="A31" s="202"/>
       <c r="B31" s="51"/>
       <c r="C31" s="52" t="s">
         <v>1199</v>
@@ -20665,7 +20665,7 @@
       <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="196"/>
+      <c r="A32" s="202"/>
       <c r="B32" s="51"/>
       <c r="C32" s="52" t="s">
         <v>1200</v>
@@ -20673,7 +20673,7 @@
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="196"/>
+      <c r="A33" s="202"/>
       <c r="B33" s="51"/>
       <c r="C33" s="52" t="s">
         <v>1201</v>
@@ -20681,7 +20681,7 @@
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="196"/>
+      <c r="A34" s="202"/>
       <c r="B34" s="53"/>
       <c r="C34" s="55" t="s">
         <v>1202</v>
@@ -20689,7 +20689,7 @@
       <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="196"/>
+      <c r="A35" s="202"/>
       <c r="B35" s="19" t="s">
         <v>1203</v>
       </c>
@@ -20699,7 +20699,7 @@
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="196"/>
+      <c r="A36" s="202"/>
       <c r="B36" s="19"/>
       <c r="C36" s="52" t="s">
         <v>1205</v>
@@ -20707,7 +20707,7 @@
       <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="196"/>
+      <c r="A37" s="202"/>
       <c r="B37" s="19"/>
       <c r="C37" s="52" t="s">
         <v>1206</v>
@@ -20715,7 +20715,7 @@
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="196"/>
+      <c r="A38" s="202"/>
       <c r="B38" s="19"/>
       <c r="C38" s="52" t="s">
         <v>1207</v>
@@ -20723,7 +20723,7 @@
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="195"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="54"/>
       <c r="C39" s="55" t="s">
         <v>1202</v>
@@ -20731,7 +20731,7 @@
       <c r="D39" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="200" t="s">
         <v>1208</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -20742,14 +20742,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="196"/>
+      <c r="A42" s="202"/>
       <c r="B42" s="53"/>
       <c r="C42" s="55" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="196"/>
+      <c r="A43" s="202"/>
       <c r="B43" s="48" t="s">
         <v>1212</v>
       </c>
@@ -20758,14 +20758,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="196"/>
+      <c r="A44" s="202"/>
       <c r="B44" s="53"/>
       <c r="C44" s="55" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="196"/>
+      <c r="A45" s="202"/>
       <c r="B45" s="48" t="s">
         <v>1246</v>
       </c>
@@ -20774,21 +20774,21 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="196"/>
+      <c r="A46" s="202"/>
       <c r="B46" s="51"/>
       <c r="C46" s="52" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="196"/>
+      <c r="A47" s="202"/>
       <c r="B47" s="53"/>
       <c r="C47" s="55" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="196"/>
+      <c r="A48" s="202"/>
       <c r="B48" s="48" t="s">
         <v>1217</v>
       </c>
@@ -20797,14 +20797,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="196"/>
+      <c r="A49" s="202"/>
       <c r="B49" s="53"/>
       <c r="C49" s="55" t="s">
         <v>1219</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="196"/>
+      <c r="A50" s="202"/>
       <c r="B50" s="48" t="s">
         <v>1220</v>
       </c>
@@ -20813,14 +20813,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="196"/>
+      <c r="A51" s="202"/>
       <c r="B51" s="53"/>
       <c r="C51" s="55" t="s">
         <v>1222</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="196"/>
+      <c r="A52" s="202"/>
       <c r="B52" s="48" t="s">
         <v>1223</v>
       </c>
@@ -20829,21 +20829,21 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="196"/>
+      <c r="A53" s="202"/>
       <c r="B53" s="51"/>
       <c r="C53" s="52" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="196"/>
+      <c r="A54" s="202"/>
       <c r="B54" s="53"/>
       <c r="C54" s="55" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="196"/>
+      <c r="A55" s="202"/>
       <c r="B55" s="48" t="s">
         <v>1227</v>
       </c>
@@ -20852,28 +20852,28 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="196"/>
+      <c r="A56" s="202"/>
       <c r="B56" s="51"/>
       <c r="C56" s="52" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="196"/>
+      <c r="A57" s="202"/>
       <c r="B57" s="51"/>
       <c r="C57" s="52" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="196"/>
+      <c r="A58" s="202"/>
       <c r="B58" s="53"/>
       <c r="C58" s="55" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="196"/>
+      <c r="A59" s="202"/>
       <c r="B59" s="48" t="s">
         <v>1232</v>
       </c>
@@ -20882,28 +20882,28 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="196"/>
+      <c r="A60" s="202"/>
       <c r="B60" s="51"/>
       <c r="C60" s="52" t="s">
         <v>1234</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="196"/>
+      <c r="A61" s="202"/>
       <c r="B61" s="51"/>
       <c r="C61" s="52" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="196"/>
+      <c r="A62" s="202"/>
       <c r="B62" s="53"/>
       <c r="C62" s="55" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="196"/>
+      <c r="A63" s="202"/>
       <c r="B63" s="48" t="s">
         <v>1235</v>
       </c>
@@ -20912,28 +20912,28 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="196"/>
+      <c r="A64" s="202"/>
       <c r="B64" s="51"/>
       <c r="C64" s="52" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="196"/>
+      <c r="A65" s="202"/>
       <c r="B65" s="51"/>
       <c r="C65" s="52" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="196"/>
+      <c r="A66" s="202"/>
       <c r="B66" s="53"/>
       <c r="C66" s="55" t="s">
         <v>1239</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="196"/>
+      <c r="A67" s="202"/>
       <c r="B67" s="51" t="s">
         <v>1240</v>
       </c>
@@ -20942,7 +20942,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="195"/>
+      <c r="A68" s="201"/>
       <c r="B68" s="53" t="s">
         <v>1242</v>
       </c>
@@ -20956,7 +20956,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="194" t="s">
+      <c r="A70" s="200" t="s">
         <v>1247</v>
       </c>
       <c r="B70" s="48" t="s">
@@ -20967,28 +20967,28 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="196"/>
+      <c r="A71" s="202"/>
       <c r="B71" s="51"/>
       <c r="C71" s="52" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="196"/>
+      <c r="A72" s="202"/>
       <c r="B72" s="51"/>
       <c r="C72" s="52" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="196"/>
+      <c r="A73" s="202"/>
       <c r="B73" s="53"/>
       <c r="C73" s="55" t="s">
         <v>1252</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="196"/>
+      <c r="A74" s="202"/>
       <c r="B74" s="48" t="s">
         <v>1253</v>
       </c>
@@ -20997,21 +20997,21 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="196"/>
+      <c r="A75" s="202"/>
       <c r="B75" s="51"/>
       <c r="C75" s="52" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="196"/>
+      <c r="A76" s="202"/>
       <c r="B76" s="53"/>
       <c r="C76" s="55" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="196"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="48" t="s">
         <v>1257</v>
       </c>
@@ -21020,28 +21020,28 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="196"/>
+      <c r="A78" s="202"/>
       <c r="B78" s="51"/>
       <c r="C78" s="52" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="196"/>
+      <c r="A79" s="202"/>
       <c r="B79" s="51"/>
       <c r="C79" s="52" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="196"/>
+      <c r="A80" s="202"/>
       <c r="B80" s="53"/>
       <c r="C80" s="55" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="196"/>
+      <c r="A81" s="202"/>
       <c r="B81" s="48" t="s">
         <v>1262</v>
       </c>
@@ -21050,28 +21050,28 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="196"/>
+      <c r="A82" s="202"/>
       <c r="B82" s="51"/>
       <c r="C82" s="52" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="196"/>
+      <c r="A83" s="202"/>
       <c r="B83" s="51"/>
       <c r="C83" s="52" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="196"/>
+      <c r="A84" s="202"/>
       <c r="B84" s="53"/>
       <c r="C84" s="55" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="196"/>
+      <c r="A85" s="202"/>
       <c r="B85" s="48" t="s">
         <v>1267</v>
       </c>
@@ -21080,42 +21080,42 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="196"/>
+      <c r="A86" s="202"/>
       <c r="B86" s="51"/>
       <c r="C86" s="52" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="196"/>
+      <c r="A87" s="202"/>
       <c r="B87" s="51"/>
       <c r="C87" s="52" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="196"/>
+      <c r="A88" s="202"/>
       <c r="B88" s="51"/>
       <c r="C88" s="52" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="196"/>
+      <c r="A89" s="202"/>
       <c r="B89" s="51"/>
       <c r="C89" s="52" t="s">
         <v>1272</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="196"/>
+      <c r="A90" s="202"/>
       <c r="B90" s="53"/>
       <c r="C90" s="55" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="196"/>
+      <c r="A91" s="202"/>
       <c r="B91" s="48" t="s">
         <v>1273</v>
       </c>
@@ -21124,21 +21124,21 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="196"/>
+      <c r="A92" s="202"/>
       <c r="B92" s="51"/>
       <c r="C92" s="52" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="196"/>
+      <c r="A93" s="202"/>
       <c r="B93" s="53"/>
       <c r="C93" s="55" t="s">
         <v>1276</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="196"/>
+      <c r="A94" s="202"/>
       <c r="B94" s="48" t="s">
         <v>1277</v>
       </c>
@@ -21147,28 +21147,28 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="196"/>
+      <c r="A95" s="202"/>
       <c r="B95" s="51"/>
       <c r="C95" s="52" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="196"/>
+      <c r="A96" s="202"/>
       <c r="B96" s="51"/>
       <c r="C96" s="52" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="196"/>
+      <c r="A97" s="202"/>
       <c r="B97" s="53"/>
       <c r="C97" s="55" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="196"/>
+      <c r="A98" s="202"/>
       <c r="B98" s="19" t="s">
         <v>1282</v>
       </c>
@@ -21177,28 +21177,28 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="196"/>
+      <c r="A99" s="202"/>
       <c r="B99" s="19"/>
       <c r="C99" s="52" t="s">
         <v>1283</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="196"/>
+      <c r="A100" s="202"/>
       <c r="B100" s="19"/>
       <c r="C100" s="52" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="195"/>
+      <c r="A101" s="201"/>
       <c r="B101" s="54"/>
       <c r="C101" s="55" t="s">
         <v>1281</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="194" t="s">
+      <c r="A103" s="200" t="s">
         <v>1284</v>
       </c>
       <c r="B103" s="48" t="s">
@@ -21209,28 +21209,28 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="196"/>
+      <c r="A104" s="202"/>
       <c r="B104" s="51"/>
       <c r="C104" s="52" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="196"/>
+      <c r="A105" s="202"/>
       <c r="B105" s="51"/>
       <c r="C105" s="52" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="196"/>
+      <c r="A106" s="202"/>
       <c r="B106" s="53"/>
       <c r="C106" s="55" t="s">
         <v>1289</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="196"/>
+      <c r="A107" s="202"/>
       <c r="B107" s="48" t="s">
         <v>1290</v>
       </c>
@@ -21239,35 +21239,35 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="196"/>
+      <c r="A108" s="202"/>
       <c r="B108" s="51"/>
       <c r="C108" s="52" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="196"/>
+      <c r="A109" s="202"/>
       <c r="B109" s="51"/>
       <c r="C109" s="52" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="196"/>
+      <c r="A110" s="202"/>
       <c r="B110" s="51"/>
       <c r="C110" s="52" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="196"/>
+      <c r="A111" s="202"/>
       <c r="B111" s="53"/>
       <c r="C111" s="55" t="s">
         <v>1295</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="196"/>
+      <c r="A112" s="202"/>
       <c r="B112" s="48" t="s">
         <v>1296</v>
       </c>
@@ -21276,28 +21276,28 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="196"/>
+      <c r="A113" s="202"/>
       <c r="B113" s="51"/>
       <c r="C113" s="52" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="196"/>
+      <c r="A114" s="202"/>
       <c r="B114" s="51"/>
       <c r="C114" s="52" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="196"/>
+      <c r="A115" s="202"/>
       <c r="B115" s="53"/>
       <c r="C115" s="55" t="s">
         <v>1300</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="196"/>
+      <c r="A116" s="202"/>
       <c r="B116" s="48" t="s">
         <v>1301</v>
       </c>
@@ -21306,21 +21306,21 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="196"/>
+      <c r="A117" s="202"/>
       <c r="B117" s="51"/>
       <c r="C117" s="52" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="196"/>
+      <c r="A118" s="202"/>
       <c r="B118" s="53"/>
       <c r="C118" s="55" t="s">
         <v>1304</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="196"/>
+      <c r="A119" s="202"/>
       <c r="B119" s="19" t="s">
         <v>1305</v>
       </c>
@@ -21329,14 +21329,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="195"/>
+      <c r="A120" s="201"/>
       <c r="B120" s="54"/>
       <c r="C120" s="55" t="s">
         <v>1307</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="194" t="s">
+      <c r="A122" s="200" t="s">
         <v>1308</v>
       </c>
       <c r="B122" s="49" t="s">
@@ -21347,14 +21347,14 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="195"/>
+      <c r="A123" s="201"/>
       <c r="B123" s="54"/>
       <c r="C123" s="55" t="s">
         <v>1309</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="203" t="s">
+      <c r="A125" s="209" t="s">
         <v>1312</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21365,21 +21365,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="204"/>
+      <c r="A126" s="210"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="204"/>
+      <c r="A127" s="210"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="204"/>
+      <c r="A128" s="210"/>
       <c r="B128" s="19" t="s">
         <v>1127</v>
       </c>
@@ -21388,7 +21388,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="204"/>
+      <c r="A129" s="210"/>
       <c r="B129" s="48" t="s">
         <v>717</v>
       </c>
@@ -21397,14 +21397,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="204"/>
+      <c r="A130" s="210"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="204"/>
+      <c r="A131" s="210"/>
       <c r="B131" s="48" t="s">
         <v>809</v>
       </c>
@@ -21413,14 +21413,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="204"/>
+      <c r="A132" s="210"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="205"/>
+      <c r="A133" s="211"/>
       <c r="B133" s="54" t="s">
         <v>1322</v>
       </c>
@@ -30178,16 +30178,16 @@
       <c r="E582" s="83"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A583" s="209" t="s">
+      <c r="A583" s="215" t="s">
         <v>2730</v>
       </c>
-      <c r="B583" s="209" t="s">
+      <c r="B583" s="215" t="s">
         <v>2731</v>
       </c>
-      <c r="C583" s="209" t="s">
+      <c r="C583" s="215" t="s">
         <v>2625</v>
       </c>
-      <c r="D583" s="209" t="s">
+      <c r="D583" s="215" t="s">
         <v>2732</v>
       </c>
       <c r="E583" s="82" t="s">
@@ -30195,91 +30195,91 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A584" s="209"/>
-      <c r="B584" s="209"/>
-      <c r="C584" s="209"/>
-      <c r="D584" s="209"/>
+      <c r="A584" s="215"/>
+      <c r="B584" s="215"/>
+      <c r="C584" s="215"/>
+      <c r="D584" s="215"/>
       <c r="E584" s="82" t="s">
         <v>2734</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A585" s="209"/>
-      <c r="B585" s="209"/>
-      <c r="C585" s="209"/>
-      <c r="D585" s="209"/>
+      <c r="A585" s="215"/>
+      <c r="B585" s="215"/>
+      <c r="C585" s="215"/>
+      <c r="D585" s="215"/>
       <c r="E585" s="82" t="s">
         <v>2735</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A586" s="209"/>
-      <c r="B586" s="209"/>
-      <c r="C586" s="209"/>
-      <c r="D586" s="209"/>
+      <c r="A586" s="215"/>
+      <c r="B586" s="215"/>
+      <c r="C586" s="215"/>
+      <c r="D586" s="215"/>
       <c r="E586" s="82" t="s">
         <v>2736</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A587" s="209"/>
-      <c r="B587" s="209"/>
-      <c r="C587" s="209"/>
-      <c r="D587" s="209"/>
+      <c r="A587" s="215"/>
+      <c r="B587" s="215"/>
+      <c r="C587" s="215"/>
+      <c r="D587" s="215"/>
       <c r="E587" s="82" t="s">
         <v>2737</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A588" s="209"/>
-      <c r="B588" s="209"/>
-      <c r="C588" s="209"/>
-      <c r="D588" s="209"/>
+      <c r="A588" s="215"/>
+      <c r="B588" s="215"/>
+      <c r="C588" s="215"/>
+      <c r="D588" s="215"/>
       <c r="E588" s="82" t="s">
         <v>2738</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A589" s="209"/>
-      <c r="B589" s="209"/>
-      <c r="C589" s="209"/>
-      <c r="D589" s="209"/>
+      <c r="A589" s="215"/>
+      <c r="B589" s="215"/>
+      <c r="C589" s="215"/>
+      <c r="D589" s="215"/>
       <c r="E589" s="82" t="s">
         <v>2739</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A590" s="209"/>
-      <c r="B590" s="209"/>
-      <c r="C590" s="209"/>
-      <c r="D590" s="209"/>
+      <c r="A590" s="215"/>
+      <c r="B590" s="215"/>
+      <c r="C590" s="215"/>
+      <c r="D590" s="215"/>
       <c r="E590" s="82" t="s">
         <v>2740</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A591" s="209"/>
-      <c r="B591" s="209"/>
-      <c r="C591" s="209"/>
-      <c r="D591" s="209"/>
+      <c r="A591" s="215"/>
+      <c r="B591" s="215"/>
+      <c r="C591" s="215"/>
+      <c r="D591" s="215"/>
       <c r="E591" s="82" t="s">
         <v>2741</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A592" s="209"/>
-      <c r="B592" s="209"/>
-      <c r="C592" s="209"/>
-      <c r="D592" s="209"/>
+      <c r="A592" s="215"/>
+      <c r="B592" s="215"/>
+      <c r="C592" s="215"/>
+      <c r="D592" s="215"/>
       <c r="E592" s="82" t="s">
         <v>2742</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A593" s="209"/>
-      <c r="B593" s="209"/>
-      <c r="C593" s="209"/>
-      <c r="D593" s="209"/>
+      <c r="A593" s="215"/>
+      <c r="B593" s="215"/>
+      <c r="C593" s="215"/>
+      <c r="D593" s="215"/>
       <c r="E593" s="82" t="s">
         <v>2743</v>
       </c>
@@ -32763,7 +32763,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -32782,7 +32782,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="210" t="s">
+      <c r="A2" s="216" t="s">
         <v>3347</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -32790,73 +32790,73 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="210"/>
+      <c r="A3" s="216"/>
       <c r="B3" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="210"/>
+      <c r="A4" s="216"/>
       <c r="B4" s="3" t="s">
         <v>3350</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="210"/>
+      <c r="A5" s="216"/>
       <c r="B5" s="3" t="s">
         <v>3351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="210"/>
+      <c r="A6" s="216"/>
       <c r="B6" s="3" t="s">
         <v>3352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="210"/>
+      <c r="A7" s="216"/>
       <c r="B7" s="3" t="s">
         <v>3353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="210"/>
+      <c r="A8" s="216"/>
       <c r="B8" s="3" t="s">
         <v>3354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="210"/>
+      <c r="A9" s="216"/>
       <c r="B9" s="3" t="s">
         <v>3355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="210"/>
+      <c r="A10" s="216"/>
       <c r="B10" s="3" t="s">
         <v>3356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="210"/>
+      <c r="A11" s="216"/>
       <c r="B11" s="3" t="s">
         <v>3357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="210"/>
+      <c r="A12" s="216"/>
       <c r="B12" s="3" t="s">
         <v>3358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="210"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="3" t="s">
         <v>3359</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="216" t="s">
         <v>3360</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -32864,85 +32864,85 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="210"/>
+      <c r="A15" s="216"/>
       <c r="B15" s="3" t="s">
         <v>3362</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="210"/>
+      <c r="A16" s="216"/>
       <c r="B16" s="3" t="s">
         <v>3363</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="210"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="3" t="s">
         <v>3364</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="210"/>
+      <c r="A18" s="216"/>
       <c r="B18" s="3" t="s">
         <v>3365</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="210"/>
+      <c r="A19" s="216"/>
       <c r="B19" s="3" t="s">
         <v>3366</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="210"/>
+      <c r="A20" s="216"/>
       <c r="B20" s="3" t="s">
         <v>3367</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="210"/>
+      <c r="A21" s="216"/>
       <c r="B21" s="3" t="s">
         <v>3368</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="210"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="3" t="s">
         <v>3369</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="210"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="3" t="s">
         <v>3370</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="210"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="3" t="s">
         <v>3371</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="210"/>
+      <c r="A25" s="216"/>
       <c r="B25" s="3" t="s">
         <v>3372</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="210"/>
+      <c r="A26" s="216"/>
       <c r="B26" s="3" t="s">
         <v>3373</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="210"/>
+      <c r="A27" s="216"/>
       <c r="B27" s="3" t="s">
         <v>3374</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="210" t="s">
+      <c r="A28" s="216" t="s">
         <v>3375</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -32950,25 +32950,25 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="210"/>
+      <c r="A29" s="216"/>
       <c r="B29" s="3" t="s">
         <v>3377</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="210"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="3" t="s">
         <v>3378</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="210"/>
+      <c r="A31" s="216"/>
       <c r="B31" s="3" t="s">
         <v>3379</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="210" t="s">
+      <c r="A32" s="216" t="s">
         <v>3380</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -32976,49 +32976,49 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="210"/>
+      <c r="A33" s="216"/>
       <c r="B33" s="3" t="s">
         <v>3382</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="210"/>
+      <c r="A34" s="216"/>
       <c r="B34" s="3" t="s">
         <v>3383</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="210"/>
+      <c r="A35" s="216"/>
       <c r="B35" s="3" t="s">
         <v>3384</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="210"/>
+      <c r="A36" s="216"/>
       <c r="B36" s="3" t="s">
         <v>3385</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="210"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="3" t="s">
         <v>3386</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="210"/>
+      <c r="A38" s="216"/>
       <c r="B38" s="3" t="s">
         <v>3387</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="210"/>
+      <c r="A39" s="216"/>
       <c r="B39" s="3" t="s">
         <v>3388</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="210" t="s">
+      <c r="A40" s="216" t="s">
         <v>3389</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -33026,73 +33026,73 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="210"/>
+      <c r="A41" s="216"/>
       <c r="B41" s="3" t="s">
         <v>3391</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="210"/>
+      <c r="A42" s="216"/>
       <c r="B42" s="3" t="s">
         <v>3392</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="210"/>
+      <c r="A43" s="216"/>
       <c r="B43" s="3" t="s">
         <v>3393</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="210"/>
+      <c r="A44" s="216"/>
       <c r="B44" s="3" t="s">
         <v>3394</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="210"/>
+      <c r="A45" s="216"/>
       <c r="B45" s="3" t="s">
         <v>3395</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="210"/>
+      <c r="A46" s="216"/>
       <c r="B46" s="3" t="s">
         <v>3396</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="210"/>
+      <c r="A47" s="216"/>
       <c r="B47" s="3" t="s">
         <v>3397</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="210"/>
+      <c r="A48" s="216"/>
       <c r="B48" s="3" t="s">
         <v>3398</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="210"/>
+      <c r="A49" s="216"/>
       <c r="B49" s="3" t="s">
         <v>3399</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="210"/>
+      <c r="A50" s="216"/>
       <c r="B50" s="3" t="s">
         <v>3400</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="210"/>
+      <c r="A51" s="216"/>
       <c r="B51" s="3" t="s">
         <v>3401</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="210" t="s">
+      <c r="A52" s="216" t="s">
         <v>3402</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -33100,31 +33100,31 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="210"/>
+      <c r="A53" s="216"/>
       <c r="B53" s="3" t="s">
         <v>3404</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="210"/>
+      <c r="A54" s="216"/>
       <c r="B54" s="3" t="s">
         <v>3405</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="210"/>
+      <c r="A55" s="216"/>
       <c r="B55" s="3" t="s">
         <v>3406</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="210"/>
+      <c r="A56" s="216"/>
       <c r="B56" s="3" t="s">
         <v>3407</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="210" t="s">
+      <c r="A57" s="216" t="s">
         <v>3408</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -33132,61 +33132,61 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="210"/>
+      <c r="A58" s="216"/>
       <c r="B58" s="3" t="s">
         <v>3410</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="210"/>
+      <c r="A59" s="216"/>
       <c r="B59" s="3" t="s">
         <v>3411</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="210"/>
+      <c r="A60" s="216"/>
       <c r="B60" s="3" t="s">
         <v>3412</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="210"/>
+      <c r="A61" s="216"/>
       <c r="B61" s="3" t="s">
         <v>3413</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="210"/>
+      <c r="A62" s="216"/>
       <c r="B62" s="3" t="s">
         <v>3414</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="210"/>
+      <c r="A63" s="216"/>
       <c r="B63" s="3" t="s">
         <v>3415</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="210"/>
+      <c r="A64" s="216"/>
       <c r="B64" s="3" t="s">
         <v>3416</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="210"/>
+      <c r="A65" s="216"/>
       <c r="B65" s="3" t="s">
         <v>3417</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="210"/>
+      <c r="A66" s="216"/>
       <c r="B66" s="3" t="s">
         <v>3418</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="210" t="s">
+      <c r="A67" s="216" t="s">
         <v>3419</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -33194,73 +33194,73 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="210"/>
+      <c r="A68" s="216"/>
       <c r="B68" s="3" t="s">
         <v>3421</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="210"/>
+      <c r="A69" s="216"/>
       <c r="B69" s="3" t="s">
         <v>3422</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="210"/>
+      <c r="A70" s="216"/>
       <c r="B70" s="3" t="s">
         <v>3423</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="210"/>
+      <c r="A71" s="216"/>
       <c r="B71" s="3" t="s">
         <v>3424</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="210"/>
+      <c r="A72" s="216"/>
       <c r="B72" s="3" t="s">
         <v>3425</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="210"/>
+      <c r="A73" s="216"/>
       <c r="B73" s="3" t="s">
         <v>3426</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="210"/>
+      <c r="A74" s="216"/>
       <c r="B74" s="3" t="s">
         <v>3427</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="210"/>
+      <c r="A75" s="216"/>
       <c r="B75" s="3" t="s">
         <v>3428</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="210"/>
+      <c r="A76" s="216"/>
       <c r="B76" s="3" t="s">
         <v>3429</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="210"/>
+      <c r="A77" s="216"/>
       <c r="B77" s="3" t="s">
         <v>3430</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="210"/>
+      <c r="A78" s="216"/>
       <c r="B78" s="3" t="s">
         <v>3431</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="210"/>
+      <c r="A79" s="216"/>
       <c r="B79" s="3" t="s">
         <v>3432</v>
       </c>
@@ -35468,7 +35468,7 @@
       <c r="F94" s="101" t="s">
         <v>3147</v>
       </c>
-      <c r="G94" s="211" t="s">
+      <c r="G94" s="217" t="s">
         <v>3855</v>
       </c>
       <c r="H94" s="113"/>
@@ -35490,7 +35490,7 @@
       <c r="F95" s="101" t="s">
         <v>3147</v>
       </c>
-      <c r="G95" s="211"/>
+      <c r="G95" s="217"/>
       <c r="H95" s="113"/>
     </row>
     <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35510,7 +35510,7 @@
       <c r="F96" s="101" t="s">
         <v>3147</v>
       </c>
-      <c r="G96" s="211"/>
+      <c r="G96" s="217"/>
       <c r="H96" s="113"/>
     </row>
     <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35530,7 +35530,7 @@
       <c r="F97" s="101" t="s">
         <v>3862</v>
       </c>
-      <c r="G97" s="211"/>
+      <c r="G97" s="217"/>
       <c r="H97" s="113"/>
     </row>
     <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35550,7 +35550,7 @@
       <c r="F98" s="101" t="s">
         <v>3862</v>
       </c>
-      <c r="G98" s="211"/>
+      <c r="G98" s="217"/>
       <c r="H98" s="113"/>
     </row>
     <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35570,7 +35570,7 @@
       <c r="F99" s="101" t="s">
         <v>3862</v>
       </c>
-      <c r="G99" s="211"/>
+      <c r="G99" s="217"/>
       <c r="H99" s="113"/>
     </row>
     <row r="100" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35589,10 +35589,10 @@
       <c r="E100" s="101" t="s">
         <v>3836</v>
       </c>
-      <c r="F100" s="212" t="s">
+      <c r="F100" s="218" t="s">
         <v>3817</v>
       </c>
-      <c r="G100" s="213" t="s">
+      <c r="G100" s="219" t="s">
         <v>3715</v>
       </c>
       <c r="H100" s="113"/>
@@ -35611,8 +35611,8 @@
       <c r="E101" s="101" t="s">
         <v>3838</v>
       </c>
-      <c r="F101" s="212"/>
-      <c r="G101" s="213"/>
+      <c r="F101" s="218"/>
+      <c r="G101" s="219"/>
       <c r="H101" s="113"/>
     </row>
     <row r="102" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35629,8 +35629,8 @@
       <c r="E102" s="101" t="s">
         <v>3839</v>
       </c>
-      <c r="F102" s="212"/>
-      <c r="G102" s="213"/>
+      <c r="F102" s="218"/>
+      <c r="G102" s="219"/>
       <c r="H102" s="113"/>
     </row>
     <row r="103" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35647,8 +35647,8 @@
       <c r="E103" s="101" t="s">
         <v>3840</v>
       </c>
-      <c r="F103" s="212"/>
-      <c r="G103" s="213"/>
+      <c r="F103" s="218"/>
+      <c r="G103" s="219"/>
       <c r="H103" s="113"/>
     </row>
     <row r="104" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35667,10 +35667,10 @@
       <c r="E104" s="101" t="s">
         <v>3841</v>
       </c>
-      <c r="F104" s="212" t="s">
+      <c r="F104" s="218" t="s">
         <v>3842</v>
       </c>
-      <c r="G104" s="213"/>
+      <c r="G104" s="219"/>
       <c r="H104" s="113"/>
     </row>
     <row r="105" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35687,8 +35687,8 @@
       <c r="E105" s="101" t="s">
         <v>3843</v>
       </c>
-      <c r="F105" s="212"/>
-      <c r="G105" s="213"/>
+      <c r="F105" s="218"/>
+      <c r="G105" s="219"/>
       <c r="H105" s="113"/>
     </row>
     <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35705,8 +35705,8 @@
       <c r="E106" s="101" t="s">
         <v>3844</v>
       </c>
-      <c r="F106" s="212"/>
-      <c r="G106" s="213"/>
+      <c r="F106" s="218"/>
+      <c r="G106" s="219"/>
       <c r="H106" s="113"/>
     </row>
     <row r="107" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35723,8 +35723,8 @@
       <c r="E107" s="101" t="s">
         <v>3845</v>
       </c>
-      <c r="F107" s="212"/>
-      <c r="G107" s="213"/>
+      <c r="F107" s="218"/>
+      <c r="G107" s="219"/>
       <c r="H107" s="113"/>
     </row>
     <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -38199,9 +38199,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="178"/>
+      <c r="A7" s="182"/>
+      <c r="B7" s="183"/>
+      <c r="C7" s="184"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -38260,9 +38260,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="176"/>
-      <c r="B14" s="177"/>
-      <c r="C14" s="178"/>
+      <c r="A14" s="182"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="184"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -38312,9 +38312,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="176"/>
-      <c r="B20" s="177"/>
-      <c r="C20" s="178"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="183"/>
+      <c r="C20" s="184"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -38367,9 +38367,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="176"/>
-      <c r="B25" s="177"/>
-      <c r="C25" s="178"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="184"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -39968,9 +39968,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50:C50"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -39979,6 +39979,7 @@
     <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.375" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -39999,7 +40000,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="178" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -40019,11 +40020,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="215" t="s">
+      <c r="A3" s="178"/>
+      <c r="B3" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="215" t="s">
+      <c r="C3" s="173" t="s">
         <v>273</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -40035,7 +40036,7 @@
       <c r="F3" s="111"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="172"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="171" t="s">
         <v>274</v>
       </c>
@@ -40050,11 +40051,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="172"/>
-      <c r="B5" s="214" t="s">
+      <c r="A5" s="178"/>
+      <c r="B5" s="172" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="214" t="s">
+      <c r="C5" s="172" t="s">
         <v>277</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -40068,11 +40069,11 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
-      <c r="B6" s="215" t="s">
+      <c r="A6" s="178"/>
+      <c r="B6" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="215" t="s">
+      <c r="C6" s="173" t="s">
         <v>278</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -40086,11 +40087,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="215" t="s">
+      <c r="A7" s="178"/>
+      <c r="B7" s="173" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="215" t="s">
+      <c r="C7" s="173" t="s">
         <v>280</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -40104,7 +40105,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
+      <c r="A8" s="178"/>
       <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
@@ -40119,11 +40120,11 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="172"/>
-      <c r="B9" s="215" t="s">
+      <c r="A9" s="178"/>
+      <c r="B9" s="173" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="173" t="s">
         <v>295</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -40143,20 +40144,20 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="173"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="175"/>
+      <c r="A10" s="179"/>
+      <c r="B10" s="180"/>
+      <c r="C10" s="180"/>
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="179" t="s">
+      <c r="A11" s="185" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="214" t="s">
+      <c r="B11" s="172" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="172" t="s">
         <v>297</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -40170,11 +40171,11 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
-      <c r="B12" s="214" t="s">
+      <c r="A12" s="186"/>
+      <c r="B12" s="172" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="214" t="s">
+      <c r="C12" s="172" t="s">
         <v>284</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -40188,11 +40189,11 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
-      <c r="B13" s="214" t="s">
+      <c r="A13" s="186"/>
+      <c r="B13" s="172" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="214" t="s">
+      <c r="C13" s="172" t="s">
         <v>300</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -40206,7 +40207,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="2" t="s">
         <v>301</v>
       </c>
@@ -40224,7 +40225,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="180"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="2" t="s">
         <v>302</v>
       </c>
@@ -40242,7 +40243,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="180"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="171" t="s">
         <v>304</v>
       </c>
@@ -40257,7 +40258,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
+      <c r="A17" s="187"/>
       <c r="B17" s="171" t="s">
         <v>306</v>
       </c>
@@ -40272,20 +40273,20 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="173"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="175"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="180"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="181"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="172" t="s">
+      <c r="A19" s="178" t="s">
         <v>287</v>
       </c>
-      <c r="B19" s="215" t="s">
+      <c r="B19" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="215" t="s">
+      <c r="C19" s="173" t="s">
         <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -40299,11 +40300,11 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="172"/>
-      <c r="B20" s="215" t="s">
+      <c r="A20" s="178"/>
+      <c r="B20" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="215" t="s">
+      <c r="C20" s="173" t="s">
         <v>308</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -40317,11 +40318,11 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="172"/>
-      <c r="B21" s="215" t="s">
+      <c r="A21" s="178"/>
+      <c r="B21" s="173" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="215" t="s">
+      <c r="C21" s="173" t="s">
         <v>310</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -40341,7 +40342,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="172"/>
+      <c r="A22" s="178"/>
       <c r="B22" s="2" t="s">
         <v>311</v>
       </c>
@@ -40354,16 +40355,16 @@
       <c r="E22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="216" t="s">
+      <c r="F22" s="174" t="s">
         <v>3979</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="172"/>
-      <c r="B23" s="215" t="s">
+      <c r="A23" s="178"/>
+      <c r="B23" s="173" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="215" t="s">
+      <c r="C23" s="173" t="s">
         <v>314</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -40380,11 +40381,11 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="172"/>
-      <c r="B24" s="215" t="s">
+      <c r="A24" s="178"/>
+      <c r="B24" s="173" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="215" t="s">
+      <c r="C24" s="173" t="s">
         <v>316</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -40398,11 +40399,11 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="172"/>
-      <c r="B25" s="218" t="s">
+      <c r="A25" s="178"/>
+      <c r="B25" s="176" t="s">
         <v>317</v>
       </c>
-      <c r="C25" s="219" t="s">
+      <c r="C25" s="177" t="s">
         <v>3985</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -40414,11 +40415,11 @@
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="172"/>
-      <c r="B26" s="215" t="s">
+      <c r="A26" s="178"/>
+      <c r="B26" s="173" t="s">
         <v>319</v>
       </c>
-      <c r="C26" s="215" t="s">
+      <c r="C26" s="173" t="s">
         <v>318</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -40435,11 +40436,11 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="172"/>
-      <c r="B27" s="215" t="s">
+      <c r="A27" s="178"/>
+      <c r="B27" s="173" t="s">
         <v>320</v>
       </c>
-      <c r="C27" s="215" t="s">
+      <c r="C27" s="173" t="s">
         <v>321</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -40448,7 +40449,7 @@
       <c r="E27" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F27" s="217" t="s">
+      <c r="F27" s="175" t="s">
         <v>3982</v>
       </c>
       <c r="G27" t="s">
@@ -40459,14 +40460,14 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="173"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="174"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="175"/>
+      <c r="A28" s="179"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="180"/>
+      <c r="D28" s="180"/>
+      <c r="E28" s="181"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="185" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -40483,7 +40484,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="180"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -40498,7 +40499,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="2" t="s">
         <v>324</v>
       </c>
@@ -40513,7 +40514,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="181"/>
+      <c r="A32" s="187"/>
       <c r="B32" s="2" t="s">
         <v>326</v>
       </c>
@@ -40528,14 +40529,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="173"/>
-      <c r="B33" s="174"/>
-      <c r="C33" s="174"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="175"/>
+      <c r="A33" s="179"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="181"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="179" t="s">
+      <c r="A34" s="185" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -40552,7 +40553,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="180"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="2" t="s">
         <v>329</v>
       </c>
@@ -40567,7 +40568,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="180"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="2" t="s">
         <v>331</v>
       </c>
@@ -40582,7 +40583,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="180"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="2" t="s">
         <v>333</v>
       </c>
@@ -40597,7 +40598,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="180"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="2" t="s">
         <v>97</v>
       </c>
@@ -40612,7 +40613,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="180"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="2" t="s">
         <v>98</v>
       </c>
@@ -40627,7 +40628,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="180"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="2" t="s">
         <v>335</v>
       </c>
@@ -40642,7 +40643,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="181"/>
+      <c r="A41" s="187"/>
       <c r="B41" s="2" t="s">
         <v>107</v>
       </c>
@@ -40657,14 +40658,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="173"/>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="E42" s="175"/>
+      <c r="A42" s="179"/>
+      <c r="B42" s="180"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="181"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="179" t="s">
+      <c r="A43" s="185" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -40681,7 +40682,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="180"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="2" t="s">
         <v>340</v>
       </c>
@@ -40696,7 +40697,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="180"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="2" t="s">
         <v>342</v>
       </c>
@@ -40711,7 +40712,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="180"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="2" t="s">
         <v>344</v>
       </c>
@@ -40726,7 +40727,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="180"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="2" t="s">
         <v>346</v>
       </c>
@@ -40741,7 +40742,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="180"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="2" t="s">
         <v>348</v>
       </c>
@@ -40756,7 +40757,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="2" t="s">
         <v>350</v>
       </c>
@@ -40771,7 +40772,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="180"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="2" t="s">
         <v>351</v>
       </c>
@@ -40786,7 +40787,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="181"/>
+      <c r="A51" s="187"/>
       <c r="B51" s="2" t="s">
         <v>353</v>
       </c>
@@ -40851,7 +40852,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="185" t="s">
         <v>358</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -40865,7 +40866,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="180"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
@@ -40875,7 +40876,7 @@
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="180"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="17" t="s">
         <v>362</v>
       </c>
@@ -40887,7 +40888,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="180"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
@@ -40897,7 +40898,7 @@
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="17" t="s">
         <v>365</v>
       </c>
@@ -40907,7 +40908,7 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="17" t="s">
         <v>366</v>
       </c>
@@ -40917,7 +40918,7 @@
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
+      <c r="A8" s="187"/>
       <c r="B8" s="17" t="s">
         <v>282</v>
       </c>
@@ -40927,13 +40928,13 @@
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="176"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="179" t="s">
+      <c r="A10" s="185" t="s">
         <v>384</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -40945,7 +40946,7 @@
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
@@ -40955,7 +40956,7 @@
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="17" t="s">
         <v>367</v>
       </c>
@@ -40965,7 +40966,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="17" t="s">
         <v>368</v>
       </c>
@@ -40975,7 +40976,7 @@
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="17" t="s">
         <v>377</v>
       </c>
@@ -40985,7 +40986,7 @@
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="181"/>
+      <c r="A15" s="187"/>
       <c r="B15" s="17" t="s">
         <v>369</v>
       </c>
@@ -40995,13 +40996,13 @@
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="176"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="178"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="183"/>
+      <c r="C16" s="183"/>
+      <c r="D16" s="184"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="179" t="s">
+      <c r="A17" s="185" t="s">
         <v>283</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -41013,7 +41014,7 @@
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="17" t="s">
         <v>387</v>
       </c>
@@ -41023,7 +41024,7 @@
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="180"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="17" t="s">
         <v>389</v>
       </c>
@@ -41033,7 +41034,7 @@
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="180"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="17" t="s">
         <v>391</v>
       </c>
@@ -41043,7 +41044,7 @@
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="17" t="s">
         <v>393</v>
       </c>
@@ -41053,13 +41054,13 @@
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="176"/>
-      <c r="B22" s="177"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="184"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="185" t="s">
         <v>428</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -41071,7 +41072,7 @@
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="180"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="17" t="s">
         <v>426</v>
       </c>
@@ -41081,7 +41082,7 @@
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="180"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="17" t="s">
         <v>396</v>
       </c>
@@ -41091,7 +41092,7 @@
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
+      <c r="A26" s="187"/>
       <c r="B26" s="17" t="s">
         <v>397</v>
       </c>
@@ -41101,13 +41102,13 @@
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="176"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="178"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="184"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="185" t="s">
         <v>429</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -41119,7 +41120,7 @@
       <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="180"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="17" t="s">
         <v>87</v>
       </c>
@@ -41129,7 +41130,7 @@
       <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="180"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="17" t="s">
         <v>402</v>
       </c>
@@ -41139,7 +41140,7 @@
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
+      <c r="A31" s="187"/>
       <c r="B31" s="17" t="s">
         <v>404</v>
       </c>
@@ -41149,13 +41150,13 @@
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="176"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="178"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="183"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="184"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="179" t="s">
+      <c r="A33" s="185" t="s">
         <v>430</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -41167,7 +41168,7 @@
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="180"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="17" t="s">
         <v>408</v>
       </c>
@@ -41177,7 +41178,7 @@
       <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="180"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="17" t="s">
         <v>410</v>
       </c>
@@ -41187,7 +41188,7 @@
       <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="180"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="17" t="s">
         <v>412</v>
       </c>
@@ -41197,7 +41198,7 @@
       <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="180"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="17" t="s">
         <v>414</v>
       </c>
@@ -41207,7 +41208,7 @@
       <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="180"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="17" t="s">
         <v>416</v>
       </c>
@@ -41217,7 +41218,7 @@
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="180"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="17" t="s">
         <v>418</v>
       </c>
@@ -41230,7 +41231,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="181"/>
+      <c r="A40" s="187"/>
       <c r="B40" s="17" t="s">
         <v>432</v>
       </c>
@@ -41240,13 +41241,13 @@
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176"/>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
-      <c r="D41" s="178"/>
+      <c r="A41" s="182"/>
+      <c r="B41" s="183"/>
+      <c r="C41" s="183"/>
+      <c r="D41" s="184"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="179" t="s">
+      <c r="A42" s="185" t="s">
         <v>431</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -41258,7 +41259,7 @@
       <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="180"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="17" t="s">
         <v>434</v>
       </c>
@@ -41268,7 +41269,7 @@
       <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="180"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="17" t="s">
         <v>435</v>
       </c>
@@ -41278,7 +41279,7 @@
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="181"/>
+      <c r="A45" s="187"/>
       <c r="B45" s="17" t="s">
         <v>424</v>
       </c>
@@ -41452,7 +41453,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="185" t="s">
         <v>549</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -41463,7 +41464,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="180"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="5" t="s">
         <v>552</v>
       </c>
@@ -41472,7 +41473,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="180"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="5" t="s">
         <v>554</v>
       </c>
@@ -41481,7 +41482,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="180"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="5" t="s">
         <v>556</v>
       </c>
@@ -41490,7 +41491,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="5" t="s">
         <v>558</v>
       </c>
@@ -41499,7 +41500,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="5" t="s">
         <v>560</v>
       </c>
@@ -41508,7 +41509,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="5" t="s">
         <v>562</v>
       </c>
@@ -41517,7 +41518,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="5" t="s">
         <v>564</v>
       </c>
@@ -41526,7 +41527,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="180"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="5" t="s">
         <v>566</v>
       </c>
@@ -41535,7 +41536,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="30" t="s">
         <v>568</v>
       </c>
@@ -41544,7 +41545,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="188" t="s">
         <v>594</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -41555,7 +41556,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="183"/>
+      <c r="A14" s="189"/>
       <c r="B14" s="5" t="s">
         <v>574</v>
       </c>
@@ -41564,7 +41565,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="183"/>
+      <c r="A15" s="189"/>
       <c r="B15" s="5" t="s">
         <v>576</v>
       </c>
@@ -41573,7 +41574,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="183"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="5" t="s">
         <v>578</v>
       </c>
@@ -41582,7 +41583,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="183"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="5" t="s">
         <v>579</v>
       </c>
@@ -41591,7 +41592,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="183"/>
+      <c r="A18" s="189"/>
       <c r="B18" s="5" t="s">
         <v>581</v>
       </c>
@@ -41600,7 +41601,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="183"/>
+      <c r="A19" s="189"/>
       <c r="B19" s="5" t="s">
         <v>583</v>
       </c>
@@ -41609,7 +41610,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="183"/>
+      <c r="A20" s="189"/>
       <c r="B20" s="5" t="s">
         <v>584</v>
       </c>
@@ -41618,7 +41619,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="183"/>
+      <c r="A21" s="189"/>
       <c r="B21" s="5" t="s">
         <v>586</v>
       </c>
@@ -41627,7 +41628,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="183"/>
+      <c r="A22" s="189"/>
       <c r="B22" s="5" t="s">
         <v>588</v>
       </c>
@@ -41636,7 +41637,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="183"/>
+      <c r="A23" s="189"/>
       <c r="B23" s="5" t="s">
         <v>590</v>
       </c>
@@ -41645,7 +41646,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="184"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="30" t="s">
         <v>592</v>
       </c>
@@ -41654,7 +41655,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="182" t="s">
+      <c r="A26" s="188" t="s">
         <v>595</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -41665,7 +41666,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
+      <c r="A27" s="189"/>
       <c r="B27" s="5" t="s">
         <v>598</v>
       </c>
@@ -41674,7 +41675,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="183"/>
+      <c r="A28" s="189"/>
       <c r="B28" s="5" t="s">
         <v>600</v>
       </c>
@@ -41683,21 +41684,21 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="183"/>
+      <c r="A29" s="189"/>
       <c r="B29" s="5" t="s">
         <v>602</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="183"/>
+      <c r="A30" s="189"/>
       <c r="B30" s="22" t="s">
         <v>603</v>
       </c>
       <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="183"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="5" t="s">
         <v>604</v>
       </c>
@@ -41706,7 +41707,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="183"/>
+      <c r="A32" s="189"/>
       <c r="B32" s="5" t="s">
         <v>606</v>
       </c>
@@ -41715,21 +41716,21 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="183"/>
+      <c r="A33" s="189"/>
       <c r="B33" s="5" t="s">
         <v>608</v>
       </c>
       <c r="C33" s="27"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="183"/>
+      <c r="A34" s="189"/>
       <c r="B34" s="22" t="s">
         <v>609</v>
       </c>
       <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="183"/>
+      <c r="A35" s="189"/>
       <c r="B35" s="5" t="s">
         <v>610</v>
       </c>
@@ -41738,7 +41739,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="183"/>
+      <c r="A36" s="189"/>
       <c r="B36" s="5" t="s">
         <v>612</v>
       </c>
@@ -41747,7 +41748,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="183"/>
+      <c r="A37" s="189"/>
       <c r="B37" s="5" t="s">
         <v>614</v>
       </c>
@@ -41756,7 +41757,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="184"/>
+      <c r="A38" s="190"/>
       <c r="B38" s="5" t="s">
         <v>616</v>
       </c>
@@ -41770,7 +41771,7 @@
       <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="182" t="s">
+      <c r="A40" s="188" t="s">
         <v>617</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -41781,7 +41782,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="183"/>
+      <c r="A41" s="189"/>
       <c r="B41" s="16" t="s">
         <v>620</v>
       </c>
@@ -41790,14 +41791,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="183"/>
+      <c r="A42" s="189"/>
       <c r="B42" s="22" t="s">
         <v>618</v>
       </c>
       <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="183"/>
+      <c r="A43" s="189"/>
       <c r="B43" s="16" t="s">
         <v>623</v>
       </c>
@@ -41806,7 +41807,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="183"/>
+      <c r="A44" s="189"/>
       <c r="B44" s="16" t="s">
         <v>624</v>
       </c>
@@ -41815,14 +41816,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="183"/>
+      <c r="A45" s="189"/>
       <c r="B45" s="22" t="s">
         <v>625</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="183"/>
+      <c r="A46" s="189"/>
       <c r="B46" s="16" t="s">
         <v>627</v>
       </c>
@@ -41831,7 +41832,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="183"/>
+      <c r="A47" s="189"/>
       <c r="B47" s="16" t="s">
         <v>628</v>
       </c>
@@ -41840,14 +41841,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="183"/>
+      <c r="A48" s="189"/>
       <c r="B48" s="22" t="s">
         <v>629</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="183"/>
+      <c r="A49" s="189"/>
       <c r="B49" s="16" t="s">
         <v>631</v>
       </c>
@@ -41856,7 +41857,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="183"/>
+      <c r="A50" s="189"/>
       <c r="B50" s="16" t="s">
         <v>633</v>
       </c>
@@ -41865,7 +41866,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="184"/>
+      <c r="A51" s="190"/>
       <c r="B51" s="22" t="s">
         <v>634</v>
       </c>
@@ -42047,10 +42048,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="185" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="179" t="s">
+      <c r="B2" s="185" t="s">
         <v>438</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -42061,8 +42062,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="180"/>
-      <c r="B3" s="180"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="17" t="s">
         <v>443</v>
       </c>
@@ -42071,8 +42072,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="180"/>
-      <c r="B4" s="180"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="17" t="s">
         <v>445</v>
       </c>
@@ -42081,8 +42082,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="180"/>
-      <c r="B5" s="180"/>
+      <c r="A5" s="186"/>
+      <c r="B5" s="186"/>
       <c r="C5" s="17" t="s">
         <v>447</v>
       </c>
@@ -42091,8 +42092,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
-      <c r="B6" s="180"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="17" t="s">
         <v>449</v>
       </c>
@@ -42101,8 +42102,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
-      <c r="B7" s="180"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="17" t="s">
         <v>451</v>
       </c>
@@ -42111,8 +42112,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
-      <c r="B8" s="181"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="17" t="s">
         <v>452</v>
       </c>
@@ -42121,14 +42122,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="184"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="180"/>
-      <c r="B10" s="179" t="s">
+      <c r="A10" s="186"/>
+      <c r="B10" s="185" t="s">
         <v>454</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -42139,8 +42140,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
-      <c r="B11" s="180"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="17" t="s">
         <v>456</v>
       </c>
@@ -42149,8 +42150,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
-      <c r="B12" s="181"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="187"/>
       <c r="C12" s="17" t="s">
         <v>457</v>
       </c>
@@ -42159,14 +42160,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="182"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="184"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="180"/>
-      <c r="B14" s="179" t="s">
+      <c r="A14" s="186"/>
+      <c r="B14" s="185" t="s">
         <v>459</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -42177,8 +42178,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="180"/>
-      <c r="B15" s="180"/>
+      <c r="A15" s="186"/>
+      <c r="B15" s="186"/>
       <c r="C15" s="17" t="s">
         <v>462</v>
       </c>
@@ -42187,8 +42188,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="180"/>
-      <c r="B16" s="180"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="17" t="s">
         <v>464</v>
       </c>
@@ -42197,8 +42198,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="180"/>
-      <c r="B17" s="180"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="17" t="s">
         <v>466</v>
       </c>
@@ -42207,8 +42208,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="180"/>
-      <c r="B18" s="181"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="187"/>
       <c r="C18" s="17" t="s">
         <v>468</v>
       </c>
@@ -42217,14 +42218,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="180"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="182"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="180"/>
-      <c r="B20" s="179" t="s">
+      <c r="A20" s="186"/>
+      <c r="B20" s="185" t="s">
         <v>470</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -42235,8 +42236,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="180"/>
-      <c r="B21" s="180"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="17" t="s">
         <v>121</v>
       </c>
@@ -42245,8 +42246,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="180"/>
-      <c r="B22" s="181"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="187"/>
       <c r="C22" s="17" t="s">
         <v>473</v>
       </c>
@@ -42255,16 +42256,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="181"/>
+      <c r="A23" s="187"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="179" t="s">
+      <c r="A24" s="185" t="s">
         <v>547</v>
       </c>
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="185" t="s">
         <v>476</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -42275,8 +42276,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="180"/>
-      <c r="B25" s="180"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="17" t="s">
         <v>481</v>
       </c>
@@ -42285,8 +42286,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="180"/>
-      <c r="B26" s="180"/>
+      <c r="A26" s="186"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="17" t="s">
         <v>483</v>
       </c>
@@ -42295,8 +42296,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="180"/>
-      <c r="B27" s="180"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="17" t="s">
         <v>485</v>
       </c>
@@ -42305,8 +42306,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="180"/>
-      <c r="B28" s="181"/>
+      <c r="A28" s="186"/>
+      <c r="B28" s="187"/>
       <c r="C28" s="17" t="s">
         <v>486</v>
       </c>
@@ -42315,14 +42316,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="180"/>
-      <c r="B29" s="173"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="175"/>
+      <c r="A29" s="186"/>
+      <c r="B29" s="179"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="181"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="180"/>
-      <c r="B30" s="179" t="s">
+      <c r="A30" s="186"/>
+      <c r="B30" s="185" t="s">
         <v>478</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -42333,8 +42334,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
-      <c r="B31" s="180"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="17" t="s">
         <v>490</v>
       </c>
@@ -42343,8 +42344,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="180"/>
-      <c r="B32" s="180"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="17" t="s">
         <v>492</v>
       </c>
@@ -42353,8 +42354,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="180"/>
-      <c r="B33" s="181"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="187"/>
       <c r="C33" s="21" t="s">
         <v>494</v>
       </c>
@@ -42363,14 +42364,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="180"/>
-      <c r="B34" s="173"/>
-      <c r="C34" s="174"/>
-      <c r="D34" s="175"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="179"/>
+      <c r="C34" s="180"/>
+      <c r="D34" s="181"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="180"/>
-      <c r="B35" s="179" t="s">
+      <c r="A35" s="186"/>
+      <c r="B35" s="185" t="s">
         <v>496</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -42381,8 +42382,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="180"/>
-      <c r="B36" s="180"/>
+      <c r="A36" s="186"/>
+      <c r="B36" s="186"/>
       <c r="C36" s="17" t="s">
         <v>499</v>
       </c>
@@ -42391,8 +42392,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="180"/>
-      <c r="B37" s="180"/>
+      <c r="A37" s="186"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="17" t="s">
         <v>501</v>
       </c>
@@ -42401,8 +42402,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="180"/>
-      <c r="B38" s="180"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="17" t="s">
         <v>503</v>
       </c>
@@ -42411,8 +42412,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="180"/>
-      <c r="B39" s="180"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="17" t="s">
         <v>504</v>
       </c>
@@ -42421,8 +42422,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="180"/>
-      <c r="B40" s="180"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="21" t="s">
         <v>506</v>
       </c>
@@ -42431,8 +42432,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="180"/>
-      <c r="B41" s="180"/>
+      <c r="A41" s="186"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="17" t="s">
         <v>508</v>
       </c>
@@ -42441,8 +42442,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="180"/>
-      <c r="B42" s="180"/>
+      <c r="A42" s="186"/>
+      <c r="B42" s="186"/>
       <c r="C42" s="17" t="s">
         <v>510</v>
       </c>
@@ -42451,8 +42452,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="180"/>
-      <c r="B43" s="181"/>
+      <c r="A43" s="186"/>
+      <c r="B43" s="187"/>
       <c r="C43" s="17" t="s">
         <v>512</v>
       </c>
@@ -42461,14 +42462,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="180"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="174"/>
-      <c r="D44" s="175"/>
+      <c r="A44" s="186"/>
+      <c r="B44" s="179"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="181"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="180"/>
-      <c r="B45" s="179" t="s">
+      <c r="A45" s="186"/>
+      <c r="B45" s="185" t="s">
         <v>515</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -42479,8 +42480,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="180"/>
-      <c r="B46" s="180"/>
+      <c r="A46" s="186"/>
+      <c r="B46" s="186"/>
       <c r="C46" s="17" t="s">
         <v>518</v>
       </c>
@@ -42489,8 +42490,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="180"/>
-      <c r="B47" s="180"/>
+      <c r="A47" s="186"/>
+      <c r="B47" s="186"/>
       <c r="C47" s="17" t="s">
         <v>520</v>
       </c>
@@ -42499,8 +42500,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="180"/>
-      <c r="B48" s="181"/>
+      <c r="A48" s="186"/>
+      <c r="B48" s="187"/>
       <c r="C48" s="17" t="s">
         <v>522</v>
       </c>
@@ -42509,14 +42510,14 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="180"/>
-      <c r="B49" s="173"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="175"/>
+      <c r="A49" s="186"/>
+      <c r="B49" s="179"/>
+      <c r="C49" s="180"/>
+      <c r="D49" s="181"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="180"/>
-      <c r="B50" s="179" t="s">
+      <c r="A50" s="186"/>
+      <c r="B50" s="185" t="s">
         <v>524</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -42527,8 +42528,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="180"/>
-      <c r="B51" s="180"/>
+      <c r="A51" s="186"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="17" t="s">
         <v>527</v>
       </c>
@@ -42537,8 +42538,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="180"/>
-      <c r="B52" s="180"/>
+      <c r="A52" s="186"/>
+      <c r="B52" s="186"/>
       <c r="C52" s="17" t="s">
         <v>529</v>
       </c>
@@ -42547,8 +42548,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="180"/>
-      <c r="B53" s="180"/>
+      <c r="A53" s="186"/>
+      <c r="B53" s="186"/>
       <c r="C53" s="17" t="s">
         <v>531</v>
       </c>
@@ -42557,8 +42558,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="180"/>
-      <c r="B54" s="180"/>
+      <c r="A54" s="186"/>
+      <c r="B54" s="186"/>
       <c r="C54" s="17" t="s">
         <v>532</v>
       </c>
@@ -42567,8 +42568,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="180"/>
-      <c r="B55" s="180"/>
+      <c r="A55" s="186"/>
+      <c r="B55" s="186"/>
       <c r="C55" s="17" t="s">
         <v>534</v>
       </c>
@@ -42577,8 +42578,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="180"/>
-      <c r="B56" s="180"/>
+      <c r="A56" s="186"/>
+      <c r="B56" s="186"/>
       <c r="C56" s="17" t="s">
         <v>536</v>
       </c>
@@ -42587,8 +42588,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="180"/>
-      <c r="B57" s="180"/>
+      <c r="A57" s="186"/>
+      <c r="B57" s="186"/>
       <c r="C57" s="17" t="s">
         <v>538</v>
       </c>
@@ -42597,8 +42598,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="180"/>
-      <c r="B58" s="180"/>
+      <c r="A58" s="186"/>
+      <c r="B58" s="186"/>
       <c r="C58" s="17" t="s">
         <v>540</v>
       </c>
@@ -42607,8 +42608,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="181"/>
-      <c r="B59" s="181"/>
+      <c r="A59" s="187"/>
+      <c r="B59" s="187"/>
       <c r="C59" s="17" t="s">
         <v>542</v>
       </c>
@@ -42674,7 +42675,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="185" t="s">
         <v>549</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -42685,7 +42686,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="180"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="5" t="s">
         <v>552</v>
       </c>
@@ -42701,7 +42702,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="180"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="5" t="s">
         <v>554</v>
       </c>
@@ -42713,7 +42714,7 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="180"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="5" t="s">
         <v>556</v>
       </c>
@@ -42729,7 +42730,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="5" t="s">
         <v>558</v>
       </c>
@@ -42741,7 +42742,7 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="5" t="s">
         <v>560</v>
       </c>
@@ -42753,7 +42754,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="5" t="s">
         <v>562</v>
       </c>
@@ -42769,7 +42770,7 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
+      <c r="A9" s="187"/>
       <c r="B9" s="30" t="s">
         <v>564</v>
       </c>
@@ -42781,7 +42782,7 @@
       <c r="F9" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="188" t="s">
         <v>594</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -42792,7 +42793,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="183"/>
+      <c r="A12" s="189"/>
       <c r="B12" s="5" t="s">
         <v>1334</v>
       </c>
@@ -42801,7 +42802,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="183"/>
+      <c r="A13" s="189"/>
       <c r="B13" s="5" t="s">
         <v>1336</v>
       </c>
@@ -42810,7 +42811,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="183"/>
+      <c r="A14" s="189"/>
       <c r="B14" s="5" t="s">
         <v>1338</v>
       </c>
@@ -42819,7 +42820,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="183"/>
+      <c r="A15" s="189"/>
       <c r="B15" s="5" t="s">
         <v>1341</v>
       </c>
@@ -42828,7 +42829,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="183"/>
+      <c r="A16" s="189"/>
       <c r="B16" s="5" t="s">
         <v>1342</v>
       </c>
@@ -42837,7 +42838,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="183"/>
+      <c r="A17" s="189"/>
       <c r="B17" s="5" t="s">
         <v>1344</v>
       </c>
@@ -42846,7 +42847,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="183"/>
+      <c r="A18" s="189"/>
       <c r="B18" s="5" t="s">
         <v>1346</v>
       </c>
@@ -42855,7 +42856,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="183"/>
+      <c r="A19" s="189"/>
       <c r="B19" s="5" t="s">
         <v>1348</v>
       </c>
@@ -42864,7 +42865,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="183"/>
+      <c r="A20" s="189"/>
       <c r="B20" s="5" t="s">
         <v>588</v>
       </c>
@@ -42873,7 +42874,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="183"/>
+      <c r="A21" s="189"/>
       <c r="B21" s="5" t="s">
         <v>590</v>
       </c>
@@ -42882,7 +42883,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="184"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="30" t="s">
         <v>592</v>
       </c>
@@ -42896,7 +42897,7 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="188" t="s">
         <v>1350</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -42907,7 +42908,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="183"/>
+      <c r="A25" s="189"/>
       <c r="B25" s="5" t="s">
         <v>1353</v>
       </c>
@@ -42916,7 +42917,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="183"/>
+      <c r="A26" s="189"/>
       <c r="B26" s="5" t="s">
         <v>1354</v>
       </c>
@@ -42925,7 +42926,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
+      <c r="A27" s="189"/>
       <c r="B27" s="5" t="s">
         <v>1355</v>
       </c>
@@ -42934,7 +42935,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="183"/>
+      <c r="A28" s="189"/>
       <c r="B28" s="5" t="s">
         <v>1357</v>
       </c>
@@ -42943,7 +42944,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="183"/>
+      <c r="A29" s="189"/>
       <c r="B29" s="5" t="s">
         <v>1358</v>
       </c>
@@ -42952,7 +42953,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="183"/>
+      <c r="A30" s="189"/>
       <c r="B30" s="5" t="s">
         <v>1361</v>
       </c>
@@ -42961,7 +42962,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="183"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="5" t="s">
         <v>1360</v>
       </c>
@@ -42970,7 +42971,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="183"/>
+      <c r="A32" s="189"/>
       <c r="B32" s="5" t="s">
         <v>1364</v>
       </c>
@@ -42979,7 +42980,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="183"/>
+      <c r="A33" s="189"/>
       <c r="B33" s="5" t="s">
         <v>1366</v>
       </c>
@@ -42988,7 +42989,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="183"/>
+      <c r="A34" s="189"/>
       <c r="B34" s="5" t="s">
         <v>1370</v>
       </c>
@@ -42997,7 +42998,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="184"/>
+      <c r="A35" s="190"/>
       <c r="B35" s="30" t="s">
         <v>1369</v>
       </c>
@@ -43006,7 +43007,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="188" t="s">
+      <c r="A37" s="194" t="s">
         <v>1372</v>
       </c>
       <c r="B37" s="32" t="s">
@@ -43017,7 +43018,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="189"/>
+      <c r="A38" s="195"/>
       <c r="B38" s="5" t="s">
         <v>1375</v>
       </c>
@@ -43026,7 +43027,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="189"/>
+      <c r="A39" s="195"/>
       <c r="B39" s="5" t="s">
         <v>1377</v>
       </c>
@@ -43035,7 +43036,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="189"/>
+      <c r="A40" s="195"/>
       <c r="B40" s="5" t="s">
         <v>1379</v>
       </c>
@@ -43044,7 +43045,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="190"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="30" t="s">
         <v>1381</v>
       </c>
@@ -43069,7 +43070,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="182" t="s">
+      <c r="A45" s="188" t="s">
         <v>1386</v>
       </c>
       <c r="B45" s="32" t="s">
@@ -43080,7 +43081,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="183"/>
+      <c r="A46" s="189"/>
       <c r="B46" s="5" t="s">
         <v>1390</v>
       </c>
@@ -43089,7 +43090,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="183"/>
+      <c r="A47" s="189"/>
       <c r="B47" s="5" t="s">
         <v>1387</v>
       </c>
@@ -43098,7 +43099,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="183"/>
+      <c r="A48" s="189"/>
       <c r="B48" s="5" t="s">
         <v>1393</v>
       </c>
@@ -43107,7 +43108,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="183"/>
+      <c r="A49" s="189"/>
       <c r="B49" s="5" t="s">
         <v>1395</v>
       </c>
@@ -43116,7 +43117,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="184"/>
+      <c r="A50" s="190"/>
       <c r="B50" s="30" t="s">
         <v>1397</v>
       </c>
@@ -43130,7 +43131,7 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="182" t="s">
+      <c r="A52" s="188" t="s">
         <v>1399</v>
       </c>
       <c r="B52" s="32" t="s">
@@ -43141,7 +43142,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="183"/>
+      <c r="A53" s="189"/>
       <c r="B53" s="5" t="s">
         <v>1402</v>
       </c>
@@ -43150,7 +43151,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="183"/>
+      <c r="A54" s="189"/>
       <c r="B54" s="5" t="s">
         <v>1404</v>
       </c>
@@ -43159,7 +43160,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="183"/>
+      <c r="A55" s="189"/>
       <c r="B55" s="5" t="s">
         <v>1406</v>
       </c>
@@ -43168,7 +43169,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="183"/>
+      <c r="A56" s="189"/>
       <c r="B56" s="5" t="s">
         <v>1407</v>
       </c>
@@ -43177,7 +43178,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="183"/>
+      <c r="A57" s="189"/>
       <c r="B57" s="5" t="s">
         <v>1410</v>
       </c>
@@ -43186,7 +43187,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="183"/>
+      <c r="A58" s="189"/>
       <c r="B58" s="5" t="s">
         <v>1412</v>
       </c>
@@ -43195,7 +43196,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="183"/>
+      <c r="A59" s="189"/>
       <c r="B59" s="5" t="s">
         <v>1413</v>
       </c>
@@ -43204,7 +43205,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="183"/>
+      <c r="A60" s="189"/>
       <c r="B60" s="5" t="s">
         <v>1414</v>
       </c>
@@ -43213,7 +43214,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="183"/>
+      <c r="A61" s="189"/>
       <c r="B61" s="5" t="s">
         <v>1415</v>
       </c>
@@ -43222,7 +43223,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="183"/>
+      <c r="A62" s="189"/>
       <c r="B62" s="5" t="s">
         <v>1420</v>
       </c>
@@ -43231,7 +43232,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="184"/>
+      <c r="A63" s="190"/>
       <c r="B63" s="30" t="s">
         <v>1422</v>
       </c>
@@ -43240,7 +43241,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="182" t="s">
+      <c r="A65" s="188" t="s">
         <v>1424</v>
       </c>
       <c r="B65" s="32" t="s">
@@ -43251,7 +43252,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="183"/>
+      <c r="A66" s="189"/>
       <c r="B66" s="5" t="s">
         <v>1426</v>
       </c>
@@ -43260,7 +43261,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="183"/>
+      <c r="A67" s="189"/>
       <c r="B67" s="5" t="s">
         <v>91</v>
       </c>
@@ -43269,7 +43270,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="183"/>
+      <c r="A68" s="189"/>
       <c r="B68" s="5" t="s">
         <v>92</v>
       </c>
@@ -43278,7 +43279,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="184"/>
+      <c r="A69" s="190"/>
       <c r="B69" s="30" t="s">
         <v>1430</v>
       </c>
@@ -43287,7 +43288,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="179" t="s">
+      <c r="A71" s="185" t="s">
         <v>1432</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -43298,7 +43299,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="180"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="5" t="s">
         <v>1435</v>
       </c>
@@ -43307,7 +43308,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="180"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="5" t="s">
         <v>1436</v>
       </c>
@@ -43316,7 +43317,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="180"/>
+      <c r="A74" s="186"/>
       <c r="B74" s="5" t="s">
         <v>1437</v>
       </c>
@@ -43325,7 +43326,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="181"/>
+      <c r="A75" s="187"/>
       <c r="B75" s="30" t="s">
         <v>1438</v>
       </c>
@@ -43334,7 +43335,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="182" t="s">
+      <c r="A77" s="188" t="s">
         <v>1449</v>
       </c>
       <c r="B77" s="32" t="s">
@@ -43345,7 +43346,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="183"/>
+      <c r="A78" s="189"/>
       <c r="B78" s="5" t="s">
         <v>1445</v>
       </c>
@@ -43354,7 +43355,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="184"/>
+      <c r="A79" s="190"/>
       <c r="B79" s="30" t="s">
         <v>1447</v>
       </c>
@@ -43363,7 +43364,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="188" t="s">
+      <c r="A81" s="194" t="s">
         <v>1450</v>
       </c>
       <c r="B81" s="32" t="s">
@@ -43374,7 +43375,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="189"/>
+      <c r="A82" s="195"/>
       <c r="B82" s="5" t="s">
         <v>1453</v>
       </c>
@@ -43383,7 +43384,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="190"/>
+      <c r="A83" s="196"/>
       <c r="B83" s="30" t="s">
         <v>1455</v>
       </c>
@@ -43392,7 +43393,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="185" t="s">
+      <c r="A85" s="191" t="s">
         <v>1458</v>
       </c>
       <c r="B85" s="32" t="s">
@@ -43403,7 +43404,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="186"/>
+      <c r="A86" s="192"/>
       <c r="B86" s="5" t="s">
         <v>1459</v>
       </c>
@@ -43412,7 +43413,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="187"/>
+      <c r="A87" s="193"/>
       <c r="B87" s="30" t="s">
         <v>1460</v>
       </c>
@@ -43480,7 +43481,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="197" t="s">
         <v>748</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -43498,7 +43499,7 @@
       <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="193"/>
+      <c r="A3" s="199"/>
       <c r="B3" s="38" t="s">
         <v>747</v>
       </c>
@@ -43514,7 +43515,7 @@
       <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="193"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="38" t="s">
         <v>749</v>
       </c>
@@ -43530,7 +43531,7 @@
       <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="193"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="38" t="s">
         <v>750</v>
       </c>
@@ -43546,7 +43547,7 @@
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="192"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="40" t="s">
         <v>751</v>
       </c>
@@ -43571,7 +43572,7 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="191" t="s">
+      <c r="A8" s="197" t="s">
         <v>758</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -43590,7 +43591,7 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="193"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="38" t="s">
         <v>665</v>
       </c>
@@ -43609,7 +43610,7 @@
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="193"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="38" t="s">
         <v>666</v>
       </c>
@@ -43628,7 +43629,7 @@
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="192"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
         <v>694</v>
@@ -43646,7 +43647,7 @@
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="191" t="s">
+      <c r="A13" s="197" t="s">
         <v>760</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -43665,7 +43666,7 @@
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="193"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="38" t="s">
         <v>668</v>
       </c>
@@ -43682,7 +43683,7 @@
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="193"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="38" t="s">
         <v>761</v>
       </c>
@@ -43699,7 +43700,7 @@
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="193"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="38" t="s">
         <v>669</v>
       </c>
@@ -43716,7 +43717,7 @@
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="192"/>
+      <c r="A17" s="198"/>
       <c r="B17" s="40" t="s">
         <v>670</v>
       </c>
@@ -43742,7 +43743,7 @@
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="197" t="s">
         <v>765</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -43761,7 +43762,7 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="193"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="38" t="s">
         <v>762</v>
       </c>
@@ -43778,7 +43779,7 @@
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="193"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="38" t="s">
         <v>672</v>
       </c>
@@ -43795,7 +43796,7 @@
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="192"/>
+      <c r="A22" s="198"/>
       <c r="B22" s="40" t="s">
         <v>673</v>
       </c>
@@ -43815,7 +43816,7 @@
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="191" t="s">
+      <c r="A24" s="197" t="s">
         <v>766</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -43833,7 +43834,7 @@
       <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="193"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="38" t="s">
         <v>675</v>
       </c>
@@ -43849,7 +43850,7 @@
       <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="193"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="38" t="s">
         <v>676</v>
       </c>
@@ -43865,7 +43866,7 @@
       <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="193"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="38" t="s">
         <v>767</v>
       </c>
@@ -43881,7 +43882,7 @@
       <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="193"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="38" t="s">
         <v>677</v>
       </c>
@@ -43897,7 +43898,7 @@
       <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="193"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="38" t="s">
         <v>678</v>
       </c>
@@ -43913,7 +43914,7 @@
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="192"/>
+      <c r="A30" s="198"/>
       <c r="B30" s="40" t="s">
         <v>679</v>
       </c>
@@ -43929,7 +43930,7 @@
       <c r="F30" s="41"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="191" t="s">
+      <c r="A32" s="197" t="s">
         <v>768</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -43947,7 +43948,7 @@
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="193"/>
+      <c r="A33" s="199"/>
       <c r="B33" s="38" t="s">
         <v>769</v>
       </c>
@@ -43963,7 +43964,7 @@
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="192"/>
+      <c r="A34" s="198"/>
       <c r="B34" s="40" t="s">
         <v>681</v>
       </c>
@@ -43979,7 +43980,7 @@
       <c r="F34" s="41"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="191" t="s">
+      <c r="A36" s="197" t="s">
         <v>770</v>
       </c>
       <c r="B36" s="36" t="s">
@@ -43997,7 +43998,7 @@
       <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="192"/>
+      <c r="A37" s="198"/>
       <c r="B37" s="40" t="s">
         <v>682</v>
       </c>
@@ -44031,7 +44032,7 @@
       <c r="F39" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="191" t="s">
+      <c r="A41" s="197" t="s">
         <v>774</v>
       </c>
       <c r="B41" s="36" t="s">
@@ -44049,7 +44050,7 @@
       <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="193"/>
+      <c r="A42" s="199"/>
       <c r="B42" s="38" t="s">
         <v>775</v>
       </c>
@@ -44065,7 +44066,7 @@
       <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="193"/>
+      <c r="A43" s="199"/>
       <c r="B43" s="38" t="s">
         <v>684</v>
       </c>
@@ -44081,7 +44082,7 @@
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="193"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="38" t="s">
         <v>685</v>
       </c>
@@ -44097,7 +44098,7 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="193"/>
+      <c r="A45" s="199"/>
       <c r="B45" s="38" t="s">
         <v>777</v>
       </c>
@@ -44113,7 +44114,7 @@
       <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="193"/>
+      <c r="A46" s="199"/>
       <c r="B46" s="38" t="s">
         <v>778</v>
       </c>
@@ -44129,7 +44130,7 @@
       <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="192"/>
+      <c r="A47" s="198"/>
       <c r="B47" s="40" t="s">
         <v>779</v>
       </c>
@@ -44198,7 +44199,7 @@
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="200" t="s">
         <v>378</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -44209,7 +44210,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="196"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="19" t="s">
         <v>791</v>
       </c>
@@ -44218,7 +44219,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="196"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="19" t="s">
         <v>793</v>
       </c>
@@ -44227,7 +44228,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="195"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="54" t="s">
         <v>795</v>
       </c>
@@ -44237,7 +44238,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="194" t="s">
+      <c r="A9" s="200" t="s">
         <v>797</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -44248,7 +44249,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="196"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="19" t="s">
         <v>800</v>
       </c>
@@ -44257,7 +44258,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="195"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="54" t="s">
         <v>802</v>
       </c>
@@ -44267,7 +44268,7 @@
     </row>
     <row r="12" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="194" t="s">
+      <c r="A13" s="200" t="s">
         <v>804</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -44278,7 +44279,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="195"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="54" t="s">
         <v>807</v>
       </c>
@@ -44288,7 +44289,7 @@
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="194" t="s">
+      <c r="A16" s="200" t="s">
         <v>809</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -44299,7 +44300,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="196"/>
+      <c r="A17" s="202"/>
       <c r="B17" s="19" t="s">
         <v>812</v>
       </c>
@@ -44308,7 +44309,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="195"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="54" t="s">
         <v>814</v>
       </c>
@@ -44318,7 +44319,7 @@
     </row>
     <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="194" t="s">
+      <c r="A20" s="200" t="s">
         <v>816</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -44329,7 +44330,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="195"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="54" t="s">
         <v>787</v>
       </c>
@@ -44337,7 +44338,7 @@
     </row>
     <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="200" t="s">
         <v>819</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -44348,7 +44349,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="195"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="54" t="s">
         <v>822</v>
       </c>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -16151,9 +16151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16161,6 +16158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16235,22 +16235,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16261,6 +16252,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16801,10 +16801,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="181" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="78" t="s">
@@ -16815,8 +16815,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="181"/>
+      <c r="B3" s="181"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -16825,8 +16825,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
-      <c r="B4" s="178"/>
+      <c r="A4" s="181"/>
+      <c r="B4" s="181"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -16835,8 +16835,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
       <c r="C5" s="78" t="s">
         <v>9</v>
       </c>
@@ -16845,8 +16845,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -16855,8 +16855,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="181"/>
+      <c r="B7" s="181"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -16865,8 +16865,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
+      <c r="A8" s="181"/>
+      <c r="B8" s="181"/>
       <c r="C8" s="78" t="s">
         <v>12</v>
       </c>
@@ -16875,8 +16875,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="181"/>
+      <c r="B9" s="181"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -16885,8 +16885,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="178"/>
-      <c r="B10" s="178"/>
+      <c r="A10" s="181"/>
+      <c r="B10" s="181"/>
       <c r="C10" s="78" t="s">
         <v>14</v>
       </c>
@@ -16895,8 +16895,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="178"/>
-      <c r="B11" s="178"/>
+      <c r="A11" s="181"/>
+      <c r="B11" s="181"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -16905,8 +16905,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="178"/>
-      <c r="B12" s="178"/>
+      <c r="A12" s="181"/>
+      <c r="B12" s="181"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -16915,8 +16915,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="178"/>
-      <c r="B13" s="178"/>
+      <c r="A13" s="181"/>
+      <c r="B13" s="181"/>
       <c r="C13" s="78" t="s">
         <v>17</v>
       </c>
@@ -16925,14 +16925,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="178"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="180"/>
-      <c r="D14" s="181"/>
+      <c r="A14" s="181"/>
+      <c r="B14" s="178"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="178"/>
-      <c r="B15" s="178" t="s">
+      <c r="A15" s="181"/>
+      <c r="B15" s="181" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -16943,8 +16943,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="178"/>
-      <c r="B16" s="178"/>
+      <c r="A16" s="181"/>
+      <c r="B16" s="181"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -16953,8 +16953,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="178"/>
-      <c r="B17" s="178"/>
+      <c r="A17" s="181"/>
+      <c r="B17" s="181"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -16963,8 +16963,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="178"/>
-      <c r="B18" s="178"/>
+      <c r="A18" s="181"/>
+      <c r="B18" s="181"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -16973,8 +16973,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="178"/>
-      <c r="B19" s="178"/>
+      <c r="A19" s="181"/>
+      <c r="B19" s="181"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -16983,8 +16983,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
-      <c r="B20" s="178"/>
+      <c r="A20" s="181"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -16993,8 +16993,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="178"/>
-      <c r="B21" s="178"/>
+      <c r="A21" s="181"/>
+      <c r="B21" s="181"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17003,14 +17003,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="178"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="181"/>
+      <c r="A22" s="181"/>
+      <c r="B22" s="178"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="178"/>
-      <c r="B23" s="178" t="s">
+      <c r="A23" s="181"/>
+      <c r="B23" s="181" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17021,8 +17021,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="178"/>
-      <c r="B24" s="178"/>
+      <c r="A24" s="181"/>
+      <c r="B24" s="181"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17031,8 +17031,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="178"/>
-      <c r="B25" s="178"/>
+      <c r="A25" s="181"/>
+      <c r="B25" s="181"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17041,8 +17041,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
-      <c r="B26" s="178"/>
+      <c r="A26" s="181"/>
+      <c r="B26" s="181"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17051,8 +17051,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
-      <c r="B27" s="178"/>
+      <c r="A27" s="181"/>
+      <c r="B27" s="181"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17061,8 +17061,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="178"/>
-      <c r="B28" s="178"/>
+      <c r="A28" s="181"/>
+      <c r="B28" s="181"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17071,8 +17071,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="178"/>
-      <c r="B29" s="178"/>
+      <c r="A29" s="181"/>
+      <c r="B29" s="181"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17081,8 +17081,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="178"/>
-      <c r="B30" s="178"/>
+      <c r="A30" s="181"/>
+      <c r="B30" s="181"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17091,8 +17091,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="178"/>
-      <c r="B31" s="178"/>
+      <c r="A31" s="181"/>
+      <c r="B31" s="181"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17101,8 +17101,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="178"/>
-      <c r="B32" s="178"/>
+      <c r="A32" s="181"/>
+      <c r="B32" s="181"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17111,8 +17111,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="178"/>
-      <c r="B33" s="178"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="181"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17121,8 +17121,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="178"/>
-      <c r="B34" s="178"/>
+      <c r="A34" s="181"/>
+      <c r="B34" s="181"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17131,14 +17131,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="178"/>
-      <c r="B35" s="179"/>
-      <c r="C35" s="180"/>
-      <c r="D35" s="181"/>
+      <c r="A35" s="181"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="180"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="178"/>
-      <c r="B36" s="178" t="s">
+      <c r="A36" s="181"/>
+      <c r="B36" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17149,8 +17149,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="178"/>
-      <c r="B37" s="178"/>
+      <c r="A37" s="181"/>
+      <c r="B37" s="181"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17159,8 +17159,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="178"/>
-      <c r="B38" s="178"/>
+      <c r="A38" s="181"/>
+      <c r="B38" s="181"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17169,8 +17169,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="178"/>
-      <c r="B39" s="178"/>
+      <c r="A39" s="181"/>
+      <c r="B39" s="181"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17179,8 +17179,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="178"/>
-      <c r="B40" s="178"/>
+      <c r="A40" s="181"/>
+      <c r="B40" s="181"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17189,8 +17189,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="178"/>
-      <c r="B41" s="178"/>
+      <c r="A41" s="181"/>
+      <c r="B41" s="181"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17199,8 +17199,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="178"/>
-      <c r="B42" s="178"/>
+      <c r="A42" s="181"/>
+      <c r="B42" s="181"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17209,8 +17209,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="178"/>
-      <c r="B43" s="178"/>
+      <c r="A43" s="181"/>
+      <c r="B43" s="181"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17219,8 +17219,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="178"/>
-      <c r="B44" s="178"/>
+      <c r="A44" s="181"/>
+      <c r="B44" s="181"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17229,8 +17229,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="178"/>
-      <c r="B45" s="178"/>
+      <c r="A45" s="181"/>
+      <c r="B45" s="181"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17239,8 +17239,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="178"/>
-      <c r="B46" s="178"/>
+      <c r="A46" s="181"/>
+      <c r="B46" s="181"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17249,8 +17249,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="178"/>
-      <c r="B47" s="178"/>
+      <c r="A47" s="181"/>
+      <c r="B47" s="181"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17259,8 +17259,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="178"/>
-      <c r="B48" s="178"/>
+      <c r="A48" s="181"/>
+      <c r="B48" s="181"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17269,8 +17269,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="178"/>
-      <c r="B49" s="178"/>
+      <c r="A49" s="181"/>
+      <c r="B49" s="181"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17279,8 +17279,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="178"/>
-      <c r="B50" s="178"/>
+      <c r="A50" s="181"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17289,8 +17289,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="178"/>
-      <c r="B51" s="178"/>
+      <c r="A51" s="181"/>
+      <c r="B51" s="181"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17299,14 +17299,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="178"/>
-      <c r="B52" s="179"/>
-      <c r="C52" s="180"/>
-      <c r="D52" s="181"/>
+      <c r="A52" s="181"/>
+      <c r="B52" s="178"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="180"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="178"/>
-      <c r="B53" s="178" t="s">
+      <c r="A53" s="181"/>
+      <c r="B53" s="181" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17317,8 +17317,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="178"/>
-      <c r="B54" s="178"/>
+      <c r="A54" s="181"/>
+      <c r="B54" s="181"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17327,8 +17327,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="178"/>
-      <c r="B55" s="178"/>
+      <c r="A55" s="181"/>
+      <c r="B55" s="181"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17337,8 +17337,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="178"/>
-      <c r="B56" s="178"/>
+      <c r="A56" s="181"/>
+      <c r="B56" s="181"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17347,8 +17347,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="178"/>
-      <c r="B57" s="178"/>
+      <c r="A57" s="181"/>
+      <c r="B57" s="181"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17357,8 +17357,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="178"/>
-      <c r="B58" s="178"/>
+      <c r="A58" s="181"/>
+      <c r="B58" s="181"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17367,8 +17367,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="178"/>
-      <c r="B59" s="178"/>
+      <c r="A59" s="181"/>
+      <c r="B59" s="181"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17377,16 +17377,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="179"/>
-      <c r="B60" s="180"/>
-      <c r="C60" s="180"/>
-      <c r="D60" s="181"/>
+      <c r="A60" s="178"/>
+      <c r="B60" s="179"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="180"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="178" t="s">
+      <c r="A61" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="178" t="s">
+      <c r="B61" s="181" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17397,8 +17397,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="178"/>
-      <c r="B62" s="178"/>
+      <c r="A62" s="181"/>
+      <c r="B62" s="181"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17407,8 +17407,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="178"/>
-      <c r="B63" s="178"/>
+      <c r="A63" s="181"/>
+      <c r="B63" s="181"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17417,8 +17417,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="178"/>
-      <c r="B64" s="178"/>
+      <c r="A64" s="181"/>
+      <c r="B64" s="181"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17427,8 +17427,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="178"/>
-      <c r="B65" s="178"/>
+      <c r="A65" s="181"/>
+      <c r="B65" s="181"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17437,8 +17437,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="178"/>
-      <c r="B66" s="178"/>
+      <c r="A66" s="181"/>
+      <c r="B66" s="181"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17447,14 +17447,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="178"/>
-      <c r="B67" s="179"/>
-      <c r="C67" s="180"/>
-      <c r="D67" s="181"/>
+      <c r="A67" s="181"/>
+      <c r="B67" s="178"/>
+      <c r="C67" s="179"/>
+      <c r="D67" s="180"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="178"/>
-      <c r="B68" s="178" t="s">
+      <c r="A68" s="181"/>
+      <c r="B68" s="181" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17465,8 +17465,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="178"/>
-      <c r="B69" s="178"/>
+      <c r="A69" s="181"/>
+      <c r="B69" s="181"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17475,8 +17475,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="178"/>
-      <c r="B70" s="178"/>
+      <c r="A70" s="181"/>
+      <c r="B70" s="181"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17485,8 +17485,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="178"/>
-      <c r="B71" s="178"/>
+      <c r="A71" s="181"/>
+      <c r="B71" s="181"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17495,8 +17495,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="178"/>
-      <c r="B72" s="178"/>
+      <c r="A72" s="181"/>
+      <c r="B72" s="181"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17505,8 +17505,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="178"/>
-      <c r="B73" s="178"/>
+      <c r="A73" s="181"/>
+      <c r="B73" s="181"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17515,8 +17515,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="178"/>
-      <c r="B74" s="178"/>
+      <c r="A74" s="181"/>
+      <c r="B74" s="181"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17525,8 +17525,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="178"/>
-      <c r="B75" s="178"/>
+      <c r="A75" s="181"/>
+      <c r="B75" s="181"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17535,8 +17535,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="178"/>
-      <c r="B76" s="178"/>
+      <c r="A76" s="181"/>
+      <c r="B76" s="181"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17545,8 +17545,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="178"/>
-      <c r="B77" s="178"/>
+      <c r="A77" s="181"/>
+      <c r="B77" s="181"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17555,14 +17555,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="178"/>
-      <c r="B78" s="179"/>
-      <c r="C78" s="180"/>
-      <c r="D78" s="181"/>
+      <c r="A78" s="181"/>
+      <c r="B78" s="178"/>
+      <c r="C78" s="179"/>
+      <c r="D78" s="180"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="178"/>
-      <c r="B79" s="178" t="s">
+      <c r="A79" s="181"/>
+      <c r="B79" s="181" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17573,8 +17573,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="178"/>
-      <c r="B80" s="178"/>
+      <c r="A80" s="181"/>
+      <c r="B80" s="181"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17583,8 +17583,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="178"/>
-      <c r="B81" s="178"/>
+      <c r="A81" s="181"/>
+      <c r="B81" s="181"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17593,8 +17593,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="178"/>
-      <c r="B82" s="178"/>
+      <c r="A82" s="181"/>
+      <c r="B82" s="181"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17603,8 +17603,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="178"/>
-      <c r="B83" s="178"/>
+      <c r="A83" s="181"/>
+      <c r="B83" s="181"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17613,8 +17613,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="178"/>
-      <c r="B84" s="178"/>
+      <c r="A84" s="181"/>
+      <c r="B84" s="181"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17623,14 +17623,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="178"/>
-      <c r="B85" s="179"/>
-      <c r="C85" s="180"/>
-      <c r="D85" s="181"/>
+      <c r="A85" s="181"/>
+      <c r="B85" s="178"/>
+      <c r="C85" s="179"/>
+      <c r="D85" s="180"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="178"/>
-      <c r="B86" s="178" t="s">
+      <c r="A86" s="181"/>
+      <c r="B86" s="181" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17641,8 +17641,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="178"/>
-      <c r="B87" s="178"/>
+      <c r="A87" s="181"/>
+      <c r="B87" s="181"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17651,8 +17651,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="178"/>
-      <c r="B88" s="178"/>
+      <c r="A88" s="181"/>
+      <c r="B88" s="181"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17661,8 +17661,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="178"/>
-      <c r="B89" s="178"/>
+      <c r="A89" s="181"/>
+      <c r="B89" s="181"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17671,16 +17671,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="179"/>
-      <c r="B90" s="180"/>
-      <c r="C90" s="180"/>
-      <c r="D90" s="181"/>
+      <c r="A90" s="178"/>
+      <c r="B90" s="179"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="180"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="178" t="s">
+      <c r="A91" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="178" t="s">
+      <c r="B91" s="181" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17691,8 +17691,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="178"/>
-      <c r="B92" s="178"/>
+      <c r="A92" s="181"/>
+      <c r="B92" s="181"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17701,8 +17701,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="178"/>
-      <c r="B93" s="178"/>
+      <c r="A93" s="181"/>
+      <c r="B93" s="181"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17711,8 +17711,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="178"/>
-      <c r="B94" s="178"/>
+      <c r="A94" s="181"/>
+      <c r="B94" s="181"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17721,8 +17721,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="178"/>
-      <c r="B95" s="178"/>
+      <c r="A95" s="181"/>
+      <c r="B95" s="181"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17731,8 +17731,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="178"/>
-      <c r="B96" s="178"/>
+      <c r="A96" s="181"/>
+      <c r="B96" s="181"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17741,8 +17741,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="178"/>
-      <c r="B97" s="178"/>
+      <c r="A97" s="181"/>
+      <c r="B97" s="181"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17751,8 +17751,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="178"/>
-      <c r="B98" s="178"/>
+      <c r="A98" s="181"/>
+      <c r="B98" s="181"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17761,8 +17761,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="178"/>
-      <c r="B99" s="178"/>
+      <c r="A99" s="181"/>
+      <c r="B99" s="181"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17771,8 +17771,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="178"/>
-      <c r="B100" s="178"/>
+      <c r="A100" s="181"/>
+      <c r="B100" s="181"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17781,8 +17781,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="178"/>
-      <c r="B101" s="178"/>
+      <c r="A101" s="181"/>
+      <c r="B101" s="181"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17791,8 +17791,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="178"/>
-      <c r="B102" s="178"/>
+      <c r="A102" s="181"/>
+      <c r="B102" s="181"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17801,8 +17801,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="178"/>
-      <c r="B103" s="178"/>
+      <c r="A103" s="181"/>
+      <c r="B103" s="181"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17811,8 +17811,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="178"/>
-      <c r="B104" s="178"/>
+      <c r="A104" s="181"/>
+      <c r="B104" s="181"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17821,8 +17821,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="178"/>
-      <c r="B105" s="178"/>
+      <c r="A105" s="181"/>
+      <c r="B105" s="181"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17831,8 +17831,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="178"/>
-      <c r="B106" s="178"/>
+      <c r="A106" s="181"/>
+      <c r="B106" s="181"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17841,8 +17841,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="178"/>
-      <c r="B107" s="178"/>
+      <c r="A107" s="181"/>
+      <c r="B107" s="181"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17851,8 +17851,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="178"/>
-      <c r="B108" s="178"/>
+      <c r="A108" s="181"/>
+      <c r="B108" s="181"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17861,8 +17861,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="178"/>
-      <c r="B109" s="178"/>
+      <c r="A109" s="181"/>
+      <c r="B109" s="181"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17871,8 +17871,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="178"/>
-      <c r="B110" s="178"/>
+      <c r="A110" s="181"/>
+      <c r="B110" s="181"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17881,16 +17881,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="179"/>
-      <c r="B111" s="180"/>
-      <c r="C111" s="180"/>
-      <c r="D111" s="181"/>
+      <c r="A111" s="178"/>
+      <c r="B111" s="179"/>
+      <c r="C111" s="179"/>
+      <c r="D111" s="180"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="178" t="s">
+      <c r="A112" s="181" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="178" t="s">
+      <c r="B112" s="181" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -17901,8 +17901,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="178"/>
-      <c r="B113" s="178"/>
+      <c r="A113" s="181"/>
+      <c r="B113" s="181"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -17911,8 +17911,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="178"/>
-      <c r="B114" s="178"/>
+      <c r="A114" s="181"/>
+      <c r="B114" s="181"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -17921,8 +17921,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="178"/>
-      <c r="B115" s="178"/>
+      <c r="A115" s="181"/>
+      <c r="B115" s="181"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -17931,8 +17931,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="178"/>
-      <c r="B116" s="178"/>
+      <c r="A116" s="181"/>
+      <c r="B116" s="181"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -17941,8 +17941,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="178"/>
-      <c r="B117" s="178"/>
+      <c r="A117" s="181"/>
+      <c r="B117" s="181"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -17952,6 +17952,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -17965,18 +17977,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19520,7 +19520,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="209" t="s">
+      <c r="A33" s="206" t="s">
         <v>1040</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19534,7 +19534,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="210"/>
+      <c r="A34" s="208"/>
       <c r="B34" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19542,7 +19542,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="210"/>
+      <c r="A35" s="208"/>
       <c r="B35" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19550,7 +19550,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="210"/>
+      <c r="A36" s="208"/>
       <c r="B36" s="19" t="s">
         <v>1028</v>
       </c>
@@ -19558,7 +19558,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="210"/>
+      <c r="A37" s="208"/>
       <c r="B37" s="19" t="s">
         <v>998</v>
       </c>
@@ -19566,7 +19566,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="211"/>
+      <c r="A38" s="207"/>
       <c r="B38" s="54" t="s">
         <v>1028</v>
       </c>
@@ -19574,7 +19574,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="209" t="s">
+      <c r="A40" s="206" t="s">
         <v>1042</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19586,7 +19586,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="211"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="54" t="s">
         <v>1030</v>
       </c>
@@ -19599,7 +19599,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="209" t="s">
+      <c r="A44" s="206" t="s">
         <v>1044</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19613,7 +19613,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="210"/>
+      <c r="A45" s="208"/>
       <c r="B45" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="210"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19629,7 +19629,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="210"/>
+      <c r="A47" s="208"/>
       <c r="B47" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19637,7 +19637,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="210"/>
+      <c r="A48" s="208"/>
       <c r="B48" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19645,7 +19645,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="210"/>
+      <c r="A49" s="208"/>
       <c r="B49" s="19" t="s">
         <v>1036</v>
       </c>
@@ -19653,7 +19653,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="211"/>
+      <c r="A50" s="207"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19714,7 +19714,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="212" t="s">
+      <c r="A59" s="209" t="s">
         <v>419</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19728,7 +19728,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="213"/>
+      <c r="A60" s="210"/>
       <c r="B60" s="19" t="s">
         <v>1055</v>
       </c>
@@ -19736,7 +19736,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="214"/>
+      <c r="A61" s="211"/>
       <c r="B61" s="54" t="s">
         <v>1056</v>
       </c>
@@ -19908,7 +19908,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="206" t="s">
+      <c r="A82" s="212" t="s">
         <v>1091</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -19922,7 +19922,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="207"/>
+      <c r="A83" s="213"/>
       <c r="B83" s="19" t="s">
         <v>1093</v>
       </c>
@@ -19930,7 +19930,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="207"/>
+      <c r="A84" s="213"/>
       <c r="B84" s="19" t="s">
         <v>1094</v>
       </c>
@@ -19938,7 +19938,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="208"/>
+      <c r="A85" s="214"/>
       <c r="B85" s="54" t="s">
         <v>1095</v>
       </c>
@@ -19946,7 +19946,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="206" t="s">
+      <c r="A87" s="212" t="s">
         <v>1101</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -19960,7 +19960,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="207"/>
+      <c r="A88" s="213"/>
       <c r="B88" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19972,7 +19972,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="207"/>
+      <c r="A89" s="213"/>
       <c r="B89" s="19" t="s">
         <v>1104</v>
       </c>
@@ -19984,7 +19984,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="207"/>
+      <c r="A90" s="213"/>
       <c r="B90" s="19" t="s">
         <v>1103</v>
       </c>
@@ -19996,7 +19996,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="207"/>
+      <c r="A91" s="213"/>
       <c r="B91" s="19" t="s">
         <v>1105</v>
       </c>
@@ -20006,7 +20006,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="207"/>
+      <c r="A92" s="213"/>
       <c r="B92" s="19" t="s">
         <v>1103</v>
       </c>
@@ -20014,7 +20014,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="207"/>
+      <c r="A93" s="213"/>
       <c r="B93" s="19" t="s">
         <v>536</v>
       </c>
@@ -20022,7 +20022,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="207"/>
+      <c r="A94" s="213"/>
       <c r="B94" s="19" t="s">
         <v>1106</v>
       </c>
@@ -20030,7 +20030,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="208"/>
+      <c r="A95" s="214"/>
       <c r="B95" s="54" t="s">
         <v>1107</v>
       </c>
@@ -20038,7 +20038,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="209" t="s">
+      <c r="A97" s="206" t="s">
         <v>1114</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -20050,7 +20050,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="210"/>
+      <c r="A98" s="208"/>
       <c r="B98" s="67" t="s">
         <v>1115</v>
       </c>
@@ -20060,7 +20060,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="210"/>
+      <c r="A99" s="208"/>
       <c r="B99" s="67" t="s">
         <v>1104</v>
       </c>
@@ -20070,7 +20070,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="210"/>
+      <c r="A100" s="208"/>
       <c r="B100" s="67" t="s">
         <v>1115</v>
       </c>
@@ -20080,7 +20080,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="210"/>
+      <c r="A101" s="208"/>
       <c r="B101" s="67" t="s">
         <v>1105</v>
       </c>
@@ -20090,7 +20090,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="211"/>
+      <c r="A102" s="207"/>
       <c r="B102" s="69" t="s">
         <v>1115</v>
       </c>
@@ -20150,22 +20150,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21354,7 +21354,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="209" t="s">
+      <c r="A125" s="206" t="s">
         <v>1312</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21365,21 +21365,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="210"/>
+      <c r="A126" s="208"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="210"/>
+      <c r="A127" s="208"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="210"/>
+      <c r="A128" s="208"/>
       <c r="B128" s="19" t="s">
         <v>1127</v>
       </c>
@@ -21388,7 +21388,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="210"/>
+      <c r="A129" s="208"/>
       <c r="B129" s="48" t="s">
         <v>717</v>
       </c>
@@ -21397,14 +21397,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="210"/>
+      <c r="A130" s="208"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1319</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="210"/>
+      <c r="A131" s="208"/>
       <c r="B131" s="48" t="s">
         <v>809</v>
       </c>
@@ -21413,14 +21413,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="210"/>
+      <c r="A132" s="208"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1321</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="211"/>
+      <c r="A133" s="207"/>
       <c r="B133" s="54" t="s">
         <v>1322</v>
       </c>
@@ -39968,9 +39968,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40000,7 +40000,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="181" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -40020,7 +40020,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="173" t="s">
         <v>6</v>
       </c>
@@ -40036,7 +40036,7 @@
       <c r="F3" s="111"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="178"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="171" t="s">
         <v>274</v>
       </c>
@@ -40051,7 +40051,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="178"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="172" t="s">
         <v>276</v>
       </c>
@@ -40069,7 +40069,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="178"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="173" t="s">
         <v>9</v>
       </c>
@@ -40087,7 +40087,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="178"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="173" t="s">
         <v>279</v>
       </c>
@@ -40105,7 +40105,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="178"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="17" t="s">
         <v>8</v>
       </c>
@@ -40120,7 +40120,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="178"/>
+      <c r="A9" s="181"/>
       <c r="B9" s="173" t="s">
         <v>282</v>
       </c>
@@ -40144,11 +40144,11 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="179"/>
-      <c r="B10" s="180"/>
-      <c r="C10" s="180"/>
-      <c r="D10" s="180"/>
-      <c r="E10" s="181"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="179"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="185" t="s">
@@ -40273,14 +40273,14 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="179"/>
-      <c r="B18" s="180"/>
-      <c r="C18" s="180"/>
-      <c r="D18" s="180"/>
-      <c r="E18" s="181"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="179"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="180"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="178" t="s">
+      <c r="A19" s="181" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="173" t="s">
@@ -40300,7 +40300,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="173" t="s">
         <v>43</v>
       </c>
@@ -40318,7 +40318,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="178"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="173" t="s">
         <v>309</v>
       </c>
@@ -40342,7 +40342,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
+      <c r="A22" s="181"/>
       <c r="B22" s="2" t="s">
         <v>311</v>
       </c>
@@ -40360,7 +40360,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="178"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="173" t="s">
         <v>313</v>
       </c>
@@ -40381,7 +40381,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="178"/>
+      <c r="A24" s="181"/>
       <c r="B24" s="173" t="s">
         <v>315</v>
       </c>
@@ -40399,7 +40399,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="178"/>
+      <c r="A25" s="181"/>
       <c r="B25" s="176" t="s">
         <v>317</v>
       </c>
@@ -40415,7 +40415,7 @@
       <c r="F25" s="15"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="178"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="173" t="s">
         <v>319</v>
       </c>
@@ -40436,7 +40436,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
+      <c r="A27" s="181"/>
       <c r="B27" s="173" t="s">
         <v>320</v>
       </c>
@@ -40460,11 +40460,11 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="179"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="180"/>
-      <c r="D28" s="180"/>
-      <c r="E28" s="181"/>
+      <c r="A28" s="178"/>
+      <c r="B28" s="179"/>
+      <c r="C28" s="179"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="180"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="185" t="s">
@@ -40529,11 +40529,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="179"/>
-      <c r="B33" s="180"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="181"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="180"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="185" t="s">
@@ -40658,11 +40658,11 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="179"/>
-      <c r="B42" s="180"/>
-      <c r="C42" s="180"/>
-      <c r="D42" s="180"/>
-      <c r="E42" s="181"/>
+      <c r="A42" s="178"/>
+      <c r="B42" s="179"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="179"/>
+      <c r="E42" s="180"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="185" t="s">
@@ -40803,17 +40803,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41404,11 +41404,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41417,6 +41412,11 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42317,9 +42317,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="186"/>
-      <c r="B29" s="179"/>
-      <c r="C29" s="180"/>
-      <c r="D29" s="181"/>
+      <c r="B29" s="178"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="180"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="186"/>
@@ -42365,9 +42365,9 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="186"/>
-      <c r="B34" s="179"/>
-      <c r="C34" s="180"/>
-      <c r="D34" s="181"/>
+      <c r="B34" s="178"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="180"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="186"/>
@@ -42463,9 +42463,9 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="186"/>
-      <c r="B44" s="179"/>
-      <c r="C44" s="180"/>
-      <c r="D44" s="181"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="179"/>
+      <c r="D44" s="180"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="186"/>
@@ -42511,9 +42511,9 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="186"/>
-      <c r="B49" s="179"/>
-      <c r="C49" s="180"/>
-      <c r="D49" s="181"/>
+      <c r="B49" s="178"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="180"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="186"/>
@@ -42619,14 +42619,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42637,6 +42629,14 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -15419,7 +15419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15489,6 +15489,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15789,7 +15801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -16185,9 +16197,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16195,6 +16206,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16269,22 +16283,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16295,6 +16300,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16311,9 +16325,12 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16838,10 +16855,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="178" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="178" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="78" t="s">
@@ -16852,8 +16869,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
-      <c r="B3" s="173"/>
+      <c r="A3" s="178"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
@@ -16862,8 +16879,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="173"/>
-      <c r="B4" s="173"/>
+      <c r="A4" s="178"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
@@ -16872,8 +16889,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="173"/>
-      <c r="B5" s="173"/>
+      <c r="A5" s="178"/>
+      <c r="B5" s="178"/>
       <c r="C5" s="78" t="s">
         <v>9</v>
       </c>
@@ -16882,8 +16899,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
+      <c r="A6" s="178"/>
+      <c r="B6" s="178"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -16892,8 +16909,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="173"/>
-      <c r="B7" s="173"/>
+      <c r="A7" s="178"/>
+      <c r="B7" s="178"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -16902,8 +16919,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="173"/>
-      <c r="B8" s="173"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
       <c r="C8" s="78" t="s">
         <v>12</v>
       </c>
@@ -16912,8 +16929,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
-      <c r="B9" s="173"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -16922,8 +16939,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="173"/>
-      <c r="B10" s="173"/>
+      <c r="A10" s="178"/>
+      <c r="B10" s="178"/>
       <c r="C10" s="78" t="s">
         <v>14</v>
       </c>
@@ -16932,8 +16949,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="173"/>
-      <c r="B11" s="173"/>
+      <c r="A11" s="178"/>
+      <c r="B11" s="178"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
@@ -16942,8 +16959,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="173"/>
-      <c r="B12" s="173"/>
+      <c r="A12" s="178"/>
+      <c r="B12" s="178"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -16952,8 +16969,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="173"/>
-      <c r="B13" s="173"/>
+      <c r="A13" s="178"/>
+      <c r="B13" s="178"/>
       <c r="C13" s="78" t="s">
         <v>17</v>
       </c>
@@ -16962,14 +16979,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="173"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="A14" s="178"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="177"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="173"/>
-      <c r="B15" s="173" t="s">
+      <c r="A15" s="178"/>
+      <c r="B15" s="178" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -16980,8 +16997,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="173"/>
-      <c r="B16" s="173"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="178"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -16990,8 +17007,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="173"/>
-      <c r="B17" s="173"/>
+      <c r="A17" s="178"/>
+      <c r="B17" s="178"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -17000,8 +17017,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="173"/>
-      <c r="B18" s="173"/>
+      <c r="A18" s="178"/>
+      <c r="B18" s="178"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -17010,8 +17027,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="173"/>
-      <c r="B19" s="173"/>
+      <c r="A19" s="178"/>
+      <c r="B19" s="178"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -17020,8 +17037,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="173"/>
-      <c r="B20" s="173"/>
+      <c r="A20" s="178"/>
+      <c r="B20" s="178"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -17030,8 +17047,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
-      <c r="B21" s="173"/>
+      <c r="A21" s="178"/>
+      <c r="B21" s="178"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17040,14 +17057,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="173"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="A22" s="178"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="177"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
-      <c r="B23" s="173" t="s">
+      <c r="A23" s="178"/>
+      <c r="B23" s="178" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17058,8 +17075,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
-      <c r="B24" s="173"/>
+      <c r="A24" s="178"/>
+      <c r="B24" s="178"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17068,8 +17085,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="173"/>
-      <c r="B25" s="173"/>
+      <c r="A25" s="178"/>
+      <c r="B25" s="178"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17078,8 +17095,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="173"/>
-      <c r="B26" s="173"/>
+      <c r="A26" s="178"/>
+      <c r="B26" s="178"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17088,8 +17105,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="173"/>
-      <c r="B27" s="173"/>
+      <c r="A27" s="178"/>
+      <c r="B27" s="178"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17098,8 +17115,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="173"/>
-      <c r="B28" s="173"/>
+      <c r="A28" s="178"/>
+      <c r="B28" s="178"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17108,8 +17125,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="173"/>
-      <c r="B29" s="173"/>
+      <c r="A29" s="178"/>
+      <c r="B29" s="178"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17118,8 +17135,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="173"/>
-      <c r="B30" s="173"/>
+      <c r="A30" s="178"/>
+      <c r="B30" s="178"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17128,8 +17145,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="173"/>
-      <c r="B31" s="173"/>
+      <c r="A31" s="178"/>
+      <c r="B31" s="178"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17138,8 +17155,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="173"/>
-      <c r="B32" s="173"/>
+      <c r="A32" s="178"/>
+      <c r="B32" s="178"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17148,8 +17165,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="173"/>
-      <c r="B33" s="173"/>
+      <c r="A33" s="178"/>
+      <c r="B33" s="178"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17158,8 +17175,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="173"/>
-      <c r="B34" s="173"/>
+      <c r="A34" s="178"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17168,14 +17185,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="173"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
+      <c r="A35" s="178"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="177"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="173"/>
-      <c r="B36" s="173" t="s">
+      <c r="A36" s="178"/>
+      <c r="B36" s="178" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17186,8 +17203,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="173"/>
-      <c r="B37" s="173"/>
+      <c r="A37" s="178"/>
+      <c r="B37" s="178"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17196,8 +17213,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="173"/>
-      <c r="B38" s="173"/>
+      <c r="A38" s="178"/>
+      <c r="B38" s="178"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17206,8 +17223,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="173"/>
-      <c r="B39" s="173"/>
+      <c r="A39" s="178"/>
+      <c r="B39" s="178"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17216,8 +17233,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="173"/>
-      <c r="B40" s="173"/>
+      <c r="A40" s="178"/>
+      <c r="B40" s="178"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17226,8 +17243,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="173"/>
-      <c r="B41" s="173"/>
+      <c r="A41" s="178"/>
+      <c r="B41" s="178"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17236,8 +17253,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="173"/>
-      <c r="B42" s="173"/>
+      <c r="A42" s="178"/>
+      <c r="B42" s="178"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17246,8 +17263,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="173"/>
-      <c r="B43" s="173"/>
+      <c r="A43" s="178"/>
+      <c r="B43" s="178"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17256,8 +17273,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="173"/>
-      <c r="B44" s="173"/>
+      <c r="A44" s="178"/>
+      <c r="B44" s="178"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17266,8 +17283,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="173"/>
-      <c r="B45" s="173"/>
+      <c r="A45" s="178"/>
+      <c r="B45" s="178"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17276,8 +17293,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="173"/>
-      <c r="B46" s="173"/>
+      <c r="A46" s="178"/>
+      <c r="B46" s="178"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17286,8 +17303,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="173"/>
-      <c r="B47" s="173"/>
+      <c r="A47" s="178"/>
+      <c r="B47" s="178"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17296,8 +17313,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="173"/>
-      <c r="B48" s="173"/>
+      <c r="A48" s="178"/>
+      <c r="B48" s="178"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17306,8 +17323,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="173"/>
-      <c r="B49" s="173"/>
+      <c r="A49" s="178"/>
+      <c r="B49" s="178"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17316,8 +17333,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="173"/>
-      <c r="B50" s="173"/>
+      <c r="A50" s="178"/>
+      <c r="B50" s="178"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17326,8 +17343,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="173"/>
-      <c r="B51" s="173"/>
+      <c r="A51" s="178"/>
+      <c r="B51" s="178"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17336,14 +17353,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="173"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="176"/>
+      <c r="A52" s="178"/>
+      <c r="B52" s="175"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="177"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="173"/>
-      <c r="B53" s="173" t="s">
+      <c r="A53" s="178"/>
+      <c r="B53" s="178" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17354,8 +17371,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="173"/>
-      <c r="B54" s="173"/>
+      <c r="A54" s="178"/>
+      <c r="B54" s="178"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17364,8 +17381,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="173"/>
-      <c r="B55" s="173"/>
+      <c r="A55" s="178"/>
+      <c r="B55" s="178"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17374,8 +17391,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="173"/>
-      <c r="B56" s="173"/>
+      <c r="A56" s="178"/>
+      <c r="B56" s="178"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17384,8 +17401,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="173"/>
-      <c r="B57" s="173"/>
+      <c r="A57" s="178"/>
+      <c r="B57" s="178"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17394,8 +17411,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="173"/>
-      <c r="B58" s="173"/>
+      <c r="A58" s="178"/>
+      <c r="B58" s="178"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17404,8 +17421,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="173"/>
-      <c r="B59" s="173"/>
+      <c r="A59" s="178"/>
+      <c r="B59" s="178"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17414,16 +17431,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="174"/>
-      <c r="B60" s="175"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="176"/>
+      <c r="A60" s="175"/>
+      <c r="B60" s="176"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="177"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="173" t="s">
+      <c r="A61" s="178" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="173" t="s">
+      <c r="B61" s="178" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17434,8 +17451,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="173"/>
-      <c r="B62" s="173"/>
+      <c r="A62" s="178"/>
+      <c r="B62" s="178"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17444,8 +17461,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="173"/>
-      <c r="B63" s="173"/>
+      <c r="A63" s="178"/>
+      <c r="B63" s="178"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17454,8 +17471,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="173"/>
-      <c r="B64" s="173"/>
+      <c r="A64" s="178"/>
+      <c r="B64" s="178"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17464,8 +17481,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="173"/>
-      <c r="B65" s="173"/>
+      <c r="A65" s="178"/>
+      <c r="B65" s="178"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17474,8 +17491,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="173"/>
-      <c r="B66" s="173"/>
+      <c r="A66" s="178"/>
+      <c r="B66" s="178"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17484,14 +17501,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="173"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="175"/>
-      <c r="D67" s="176"/>
+      <c r="A67" s="178"/>
+      <c r="B67" s="175"/>
+      <c r="C67" s="176"/>
+      <c r="D67" s="177"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="173"/>
-      <c r="B68" s="173" t="s">
+      <c r="A68" s="178"/>
+      <c r="B68" s="178" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17502,8 +17519,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="173"/>
-      <c r="B69" s="173"/>
+      <c r="A69" s="178"/>
+      <c r="B69" s="178"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17512,8 +17529,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="173"/>
-      <c r="B70" s="173"/>
+      <c r="A70" s="178"/>
+      <c r="B70" s="178"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17522,8 +17539,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="173"/>
-      <c r="B71" s="173"/>
+      <c r="A71" s="178"/>
+      <c r="B71" s="178"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17532,8 +17549,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="173"/>
-      <c r="B72" s="173"/>
+      <c r="A72" s="178"/>
+      <c r="B72" s="178"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17542,8 +17559,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="173"/>
-      <c r="B73" s="173"/>
+      <c r="A73" s="178"/>
+      <c r="B73" s="178"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17552,8 +17569,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="173"/>
-      <c r="B74" s="173"/>
+      <c r="A74" s="178"/>
+      <c r="B74" s="178"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17562,8 +17579,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="173"/>
-      <c r="B75" s="173"/>
+      <c r="A75" s="178"/>
+      <c r="B75" s="178"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17572,8 +17589,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="173"/>
-      <c r="B76" s="173"/>
+      <c r="A76" s="178"/>
+      <c r="B76" s="178"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17582,8 +17599,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="173"/>
-      <c r="B77" s="173"/>
+      <c r="A77" s="178"/>
+      <c r="B77" s="178"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17592,14 +17609,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="173"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="176"/>
+      <c r="A78" s="178"/>
+      <c r="B78" s="175"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="177"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="173"/>
-      <c r="B79" s="173" t="s">
+      <c r="A79" s="178"/>
+      <c r="B79" s="178" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17610,8 +17627,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="173"/>
-      <c r="B80" s="173"/>
+      <c r="A80" s="178"/>
+      <c r="B80" s="178"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17620,8 +17637,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="173"/>
-      <c r="B81" s="173"/>
+      <c r="A81" s="178"/>
+      <c r="B81" s="178"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17630,8 +17647,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="173"/>
-      <c r="B82" s="173"/>
+      <c r="A82" s="178"/>
+      <c r="B82" s="178"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17640,8 +17657,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="173"/>
-      <c r="B83" s="173"/>
+      <c r="A83" s="178"/>
+      <c r="B83" s="178"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17650,8 +17667,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="173"/>
-      <c r="B84" s="173"/>
+      <c r="A84" s="178"/>
+      <c r="B84" s="178"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17660,14 +17677,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="173"/>
-      <c r="B85" s="174"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="176"/>
+      <c r="A85" s="178"/>
+      <c r="B85" s="175"/>
+      <c r="C85" s="176"/>
+      <c r="D85" s="177"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="173"/>
-      <c r="B86" s="173" t="s">
+      <c r="A86" s="178"/>
+      <c r="B86" s="178" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17678,8 +17695,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="173"/>
-      <c r="B87" s="173"/>
+      <c r="A87" s="178"/>
+      <c r="B87" s="178"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17688,8 +17705,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="173"/>
-      <c r="B88" s="173"/>
+      <c r="A88" s="178"/>
+      <c r="B88" s="178"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17698,8 +17715,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="173"/>
-      <c r="B89" s="173"/>
+      <c r="A89" s="178"/>
+      <c r="B89" s="178"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17708,16 +17725,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="174"/>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="176"/>
+      <c r="A90" s="175"/>
+      <c r="B90" s="176"/>
+      <c r="C90" s="176"/>
+      <c r="D90" s="177"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="173" t="s">
+      <c r="A91" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="173" t="s">
+      <c r="B91" s="178" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17728,8 +17745,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="173"/>
-      <c r="B92" s="173"/>
+      <c r="A92" s="178"/>
+      <c r="B92" s="178"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17738,8 +17755,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="173"/>
-      <c r="B93" s="173"/>
+      <c r="A93" s="178"/>
+      <c r="B93" s="178"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17748,8 +17765,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="173"/>
-      <c r="B94" s="173"/>
+      <c r="A94" s="178"/>
+      <c r="B94" s="178"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17758,8 +17775,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="173"/>
-      <c r="B95" s="173"/>
+      <c r="A95" s="178"/>
+      <c r="B95" s="178"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17768,8 +17785,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="173"/>
-      <c r="B96" s="173"/>
+      <c r="A96" s="178"/>
+      <c r="B96" s="178"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17778,8 +17795,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="173"/>
-      <c r="B97" s="173"/>
+      <c r="A97" s="178"/>
+      <c r="B97" s="178"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17788,8 +17805,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="173"/>
-      <c r="B98" s="173"/>
+      <c r="A98" s="178"/>
+      <c r="B98" s="178"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17798,8 +17815,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="173"/>
-      <c r="B99" s="173"/>
+      <c r="A99" s="178"/>
+      <c r="B99" s="178"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17808,8 +17825,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="173"/>
-      <c r="B100" s="173"/>
+      <c r="A100" s="178"/>
+      <c r="B100" s="178"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17818,8 +17835,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="173"/>
-      <c r="B101" s="173"/>
+      <c r="A101" s="178"/>
+      <c r="B101" s="178"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17828,8 +17845,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="173"/>
-      <c r="B102" s="173"/>
+      <c r="A102" s="178"/>
+      <c r="B102" s="178"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17838,8 +17855,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="173"/>
-      <c r="B103" s="173"/>
+      <c r="A103" s="178"/>
+      <c r="B103" s="178"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17848,8 +17865,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="173"/>
-      <c r="B104" s="173"/>
+      <c r="A104" s="178"/>
+      <c r="B104" s="178"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17858,8 +17875,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="173"/>
-      <c r="B105" s="173"/>
+      <c r="A105" s="178"/>
+      <c r="B105" s="178"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17868,8 +17885,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="173"/>
-      <c r="B106" s="173"/>
+      <c r="A106" s="178"/>
+      <c r="B106" s="178"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17878,8 +17895,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="173"/>
-      <c r="B107" s="173"/>
+      <c r="A107" s="178"/>
+      <c r="B107" s="178"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17888,8 +17905,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="173"/>
-      <c r="B108" s="173"/>
+      <c r="A108" s="178"/>
+      <c r="B108" s="178"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17898,8 +17915,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="173"/>
-      <c r="B109" s="173"/>
+      <c r="A109" s="178"/>
+      <c r="B109" s="178"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17908,8 +17925,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="173"/>
-      <c r="B110" s="173"/>
+      <c r="A110" s="178"/>
+      <c r="B110" s="178"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17918,16 +17935,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="174"/>
-      <c r="B111" s="175"/>
-      <c r="C111" s="175"/>
-      <c r="D111" s="176"/>
+      <c r="A111" s="175"/>
+      <c r="B111" s="176"/>
+      <c r="C111" s="176"/>
+      <c r="D111" s="177"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="173" t="s">
+      <c r="A112" s="178" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="173" t="s">
+      <c r="B112" s="178" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -17938,8 +17955,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="173"/>
-      <c r="B113" s="173"/>
+      <c r="A113" s="178"/>
+      <c r="B113" s="178"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -17948,8 +17965,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="173"/>
-      <c r="B114" s="173"/>
+      <c r="A114" s="178"/>
+      <c r="B114" s="178"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -17958,8 +17975,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="173"/>
-      <c r="B115" s="173"/>
+      <c r="A115" s="178"/>
+      <c r="B115" s="178"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -17968,8 +17985,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="173"/>
-      <c r="B116" s="173"/>
+      <c r="A116" s="178"/>
+      <c r="B116" s="178"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -17978,8 +17995,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="173"/>
-      <c r="B117" s="173"/>
+      <c r="A117" s="178"/>
+      <c r="B117" s="178"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -17989,6 +18006,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -18002,18 +18031,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18050,7 +18067,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="197" t="s">
         <v>915</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -18061,7 +18078,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="197"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="19" t="s">
         <v>835</v>
       </c>
@@ -18070,7 +18087,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="197"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="19" t="s">
         <v>836</v>
       </c>
@@ -18079,7 +18096,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="197"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="19" t="s">
         <v>838</v>
       </c>
@@ -18088,7 +18105,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="197"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="19" t="s">
         <v>839</v>
       </c>
@@ -18097,7 +18114,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="197"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="19" t="s">
         <v>840</v>
       </c>
@@ -18106,7 +18123,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="197"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="19" t="s">
         <v>841</v>
       </c>
@@ -18115,7 +18132,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="197"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="19" t="s">
         <v>842</v>
       </c>
@@ -18124,7 +18141,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="197"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="19" t="s">
         <v>843</v>
       </c>
@@ -18133,7 +18150,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="197"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="19" t="s">
         <v>844</v>
       </c>
@@ -18142,7 +18159,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="197"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="19" t="s">
         <v>845</v>
       </c>
@@ -18151,7 +18168,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="197"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="19" t="s">
         <v>846</v>
       </c>
@@ -18160,7 +18177,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="197"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="19" t="s">
         <v>847</v>
       </c>
@@ -18169,7 +18186,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="197"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="19" t="s">
         <v>848</v>
       </c>
@@ -18178,7 +18195,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="197"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="19" t="s">
         <v>849</v>
       </c>
@@ -18187,7 +18204,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="196"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="54" t="s">
         <v>850</v>
       </c>
@@ -18196,7 +18213,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="197" t="s">
         <v>828</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -18207,7 +18224,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="197"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="19" t="s">
         <v>852</v>
       </c>
@@ -18216,7 +18233,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="197"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="19" t="s">
         <v>853</v>
       </c>
@@ -18225,7 +18242,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="197"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="19" t="s">
         <v>854</v>
       </c>
@@ -18234,7 +18251,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="197"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="19" t="s">
         <v>855</v>
       </c>
@@ -18243,7 +18260,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="197"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="19" t="s">
         <v>856</v>
       </c>
@@ -18252,7 +18269,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="197"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="19" t="s">
         <v>857</v>
       </c>
@@ -18261,7 +18278,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="197"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="19" t="s">
         <v>858</v>
       </c>
@@ -18270,7 +18287,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="197"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="19" t="s">
         <v>859</v>
       </c>
@@ -18279,7 +18296,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="196"/>
+      <c r="A29" s="198"/>
       <c r="B29" s="54" t="s">
         <v>860</v>
       </c>
@@ -18288,7 +18305,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="195" t="s">
+      <c r="A31" s="197" t="s">
         <v>829</v>
       </c>
       <c r="B31" s="49" t="s">
@@ -18299,7 +18316,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="197"/>
+      <c r="A32" s="199"/>
       <c r="B32" s="19" t="s">
         <v>862</v>
       </c>
@@ -18308,7 +18325,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="197"/>
+      <c r="A33" s="199"/>
       <c r="B33" s="19" t="s">
         <v>863</v>
       </c>
@@ -18317,7 +18334,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="197"/>
+      <c r="A34" s="199"/>
       <c r="B34" s="19" t="s">
         <v>864</v>
       </c>
@@ -18326,7 +18343,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="197"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="19" t="s">
         <v>865</v>
       </c>
@@ -18335,7 +18352,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="197"/>
+      <c r="A36" s="199"/>
       <c r="B36" s="19" t="s">
         <v>866</v>
       </c>
@@ -18344,7 +18361,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="197"/>
+      <c r="A37" s="199"/>
       <c r="B37" s="19" t="s">
         <v>867</v>
       </c>
@@ -18353,7 +18370,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="196"/>
+      <c r="A38" s="198"/>
       <c r="B38" s="54" t="s">
         <v>868</v>
       </c>
@@ -18362,7 +18379,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="195" t="s">
+      <c r="A40" s="197" t="s">
         <v>830</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -18373,7 +18390,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="197"/>
+      <c r="A41" s="199"/>
       <c r="B41" s="19" t="s">
         <v>870</v>
       </c>
@@ -18382,7 +18399,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="197"/>
+      <c r="A42" s="199"/>
       <c r="B42" s="19" t="s">
         <v>871</v>
       </c>
@@ -18391,7 +18408,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="197"/>
+      <c r="A43" s="199"/>
       <c r="B43" s="19" t="s">
         <v>872</v>
       </c>
@@ -18400,7 +18417,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="197"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="19" t="s">
         <v>873</v>
       </c>
@@ -18409,7 +18426,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="197"/>
+      <c r="A45" s="199"/>
       <c r="B45" s="19" t="s">
         <v>874</v>
       </c>
@@ -18418,7 +18435,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="197"/>
+      <c r="A46" s="199"/>
       <c r="B46" s="19" t="s">
         <v>875</v>
       </c>
@@ -18427,7 +18444,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="197"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="19" t="s">
         <v>876</v>
       </c>
@@ -18436,7 +18453,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="197"/>
+      <c r="A48" s="199"/>
       <c r="B48" s="19" t="s">
         <v>877</v>
       </c>
@@ -18445,7 +18462,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="197"/>
+      <c r="A49" s="199"/>
       <c r="B49" s="19" t="s">
         <v>878</v>
       </c>
@@ -18454,7 +18471,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="197"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="19" t="s">
         <v>879</v>
       </c>
@@ -18463,7 +18480,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="197"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="19" t="s">
         <v>880</v>
       </c>
@@ -18472,7 +18489,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="196"/>
+      <c r="A52" s="198"/>
       <c r="B52" s="54" t="s">
         <v>881</v>
       </c>
@@ -18481,7 +18498,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="195" t="s">
+      <c r="A54" s="197" t="s">
         <v>831</v>
       </c>
       <c r="B54" s="49" t="s">
@@ -18492,7 +18509,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="197"/>
+      <c r="A55" s="199"/>
       <c r="B55" s="19" t="s">
         <v>883</v>
       </c>
@@ -18501,7 +18518,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="197"/>
+      <c r="A56" s="199"/>
       <c r="B56" s="19" t="s">
         <v>884</v>
       </c>
@@ -18510,7 +18527,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="197"/>
+      <c r="A57" s="199"/>
       <c r="B57" s="19" t="s">
         <v>885</v>
       </c>
@@ -18519,7 +18536,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="197"/>
+      <c r="A58" s="199"/>
       <c r="B58" s="19" t="s">
         <v>886</v>
       </c>
@@ -18528,7 +18545,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="197"/>
+      <c r="A59" s="199"/>
       <c r="B59" s="19" t="s">
         <v>887</v>
       </c>
@@ -18537,7 +18554,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="197"/>
+      <c r="A60" s="199"/>
       <c r="B60" s="19" t="s">
         <v>888</v>
       </c>
@@ -18546,7 +18563,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="197"/>
+      <c r="A61" s="199"/>
       <c r="B61" s="19" t="s">
         <v>889</v>
       </c>
@@ -18555,7 +18572,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="197"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="19" t="s">
         <v>890</v>
       </c>
@@ -18564,7 +18581,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="197"/>
+      <c r="A63" s="199"/>
       <c r="B63" s="19" t="s">
         <v>891</v>
       </c>
@@ -18573,7 +18590,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="197"/>
+      <c r="A64" s="199"/>
       <c r="B64" s="19" t="s">
         <v>892</v>
       </c>
@@ -18582,7 +18599,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="197"/>
+      <c r="A65" s="199"/>
       <c r="B65" s="19" t="s">
         <v>893</v>
       </c>
@@ -18591,7 +18608,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="197"/>
+      <c r="A66" s="199"/>
       <c r="B66" s="19" t="s">
         <v>894</v>
       </c>
@@ -18600,7 +18617,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="197"/>
+      <c r="A67" s="199"/>
       <c r="B67" s="19" t="s">
         <v>895</v>
       </c>
@@ -18609,7 +18626,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="197"/>
+      <c r="A68" s="199"/>
       <c r="B68" s="19" t="s">
         <v>896</v>
       </c>
@@ -18618,7 +18635,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="197"/>
+      <c r="A69" s="199"/>
       <c r="B69" s="19" t="s">
         <v>897</v>
       </c>
@@ -18627,7 +18644,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="197"/>
+      <c r="A70" s="199"/>
       <c r="B70" s="19" t="s">
         <v>898</v>
       </c>
@@ -18636,7 +18653,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="197"/>
+      <c r="A71" s="199"/>
       <c r="B71" s="19" t="s">
         <v>899</v>
       </c>
@@ -18645,7 +18662,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="197"/>
+      <c r="A72" s="199"/>
       <c r="B72" s="19" t="s">
         <v>900</v>
       </c>
@@ -18654,7 +18671,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="196"/>
+      <c r="A73" s="198"/>
       <c r="B73" s="54" t="s">
         <v>901</v>
       </c>
@@ -18663,7 +18680,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="195" t="s">
+      <c r="A75" s="197" t="s">
         <v>832</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -18674,7 +18691,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="197"/>
+      <c r="A76" s="199"/>
       <c r="B76" s="19" t="s">
         <v>903</v>
       </c>
@@ -18683,7 +18700,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="197"/>
+      <c r="A77" s="199"/>
       <c r="B77" s="19" t="s">
         <v>904</v>
       </c>
@@ -18692,7 +18709,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="197"/>
+      <c r="A78" s="199"/>
       <c r="B78" s="19" t="s">
         <v>905</v>
       </c>
@@ -18701,7 +18718,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="197"/>
+      <c r="A79" s="199"/>
       <c r="B79" s="19" t="s">
         <v>906</v>
       </c>
@@ -18710,7 +18727,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="197"/>
+      <c r="A80" s="199"/>
       <c r="B80" s="19" t="s">
         <v>907</v>
       </c>
@@ -18719,7 +18736,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="197"/>
+      <c r="A81" s="199"/>
       <c r="B81" s="19" t="s">
         <v>908</v>
       </c>
@@ -18728,7 +18745,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="197"/>
+      <c r="A82" s="199"/>
       <c r="B82" s="19" t="s">
         <v>909</v>
       </c>
@@ -18737,7 +18754,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="197"/>
+      <c r="A83" s="199"/>
       <c r="B83" s="19" t="s">
         <v>910</v>
       </c>
@@ -18746,7 +18763,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="197"/>
+      <c r="A84" s="199"/>
       <c r="B84" s="19" t="s">
         <v>911</v>
       </c>
@@ -18755,7 +18772,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="197"/>
+      <c r="A85" s="199"/>
       <c r="B85" s="19" t="s">
         <v>912</v>
       </c>
@@ -18764,7 +18781,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="197"/>
+      <c r="A86" s="199"/>
       <c r="B86" s="19" t="s">
         <v>913</v>
       </c>
@@ -18773,7 +18790,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="196"/>
+      <c r="A87" s="198"/>
       <c r="B87" s="54" t="s">
         <v>914</v>
       </c>
@@ -18820,7 +18837,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="197" t="s">
         <v>918</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -18828,38 +18845,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="197"/>
+      <c r="A3" s="199"/>
       <c r="B3" s="52" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="197"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="52" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="197"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="52" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="197"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="52" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="196"/>
+      <c r="A7" s="198"/>
       <c r="B7" s="55" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="197" t="s">
         <v>377</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -18867,98 +18884,98 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="197"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="52" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="197"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="52" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="197"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="52" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="197"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="52" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="197"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="52" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="197"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="52" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="197"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="52" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="197"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="52" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="197"/>
+      <c r="A18" s="199"/>
       <c r="B18" s="52" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="197"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="52" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="197"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="52" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="197"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="52" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="197"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="52" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="197"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="52" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="196"/>
+      <c r="A24" s="198"/>
       <c r="B24" s="55" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="195" t="s">
+      <c r="A26" s="197" t="s">
         <v>796</v>
       </c>
       <c r="B26" s="56" t="s">
@@ -18966,86 +18983,86 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="197"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="58" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="197"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="58" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="197"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="58" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="197"/>
+      <c r="A30" s="199"/>
       <c r="B30" s="58" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="197"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="58" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="197"/>
+      <c r="A32" s="199"/>
       <c r="B32" s="58" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="197"/>
+      <c r="A33" s="199"/>
       <c r="B33" s="58" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="197"/>
+      <c r="A34" s="199"/>
       <c r="B34" s="58" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="197"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="58" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="197"/>
+      <c r="A36" s="199"/>
       <c r="B36" s="58" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="197"/>
+      <c r="A37" s="199"/>
       <c r="B37" s="58" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="197"/>
+      <c r="A38" s="199"/>
       <c r="B38" s="58" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="196"/>
+      <c r="A39" s="198"/>
       <c r="B39" s="57" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="195" t="s">
+      <c r="A41" s="197" t="s">
         <v>808</v>
       </c>
       <c r="B41" s="50" t="s">
@@ -19053,110 +19070,110 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="197"/>
+      <c r="A42" s="199"/>
       <c r="B42" s="52" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="197"/>
+      <c r="A43" s="199"/>
       <c r="B43" s="52" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="197"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="52" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="197"/>
+      <c r="A45" s="199"/>
       <c r="B45" s="52" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="197"/>
+      <c r="A46" s="199"/>
       <c r="B46" s="52" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="197"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="52" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="197"/>
+      <c r="A48" s="199"/>
       <c r="B48" s="52" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="197"/>
+      <c r="A49" s="199"/>
       <c r="B49" s="52" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="197"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="52" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="197"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="52" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="197"/>
+      <c r="A52" s="199"/>
       <c r="B52" s="52" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="197"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="52" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="197"/>
+      <c r="A54" s="199"/>
       <c r="B54" s="52" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="197"/>
+      <c r="A55" s="199"/>
       <c r="B55" s="52" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="197"/>
+      <c r="A56" s="199"/>
       <c r="B56" s="52" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="197"/>
+      <c r="A57" s="199"/>
       <c r="B57" s="52" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="196"/>
+      <c r="A58" s="198"/>
       <c r="B58" s="55" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="198" t="s">
+      <c r="A60" s="200" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="50" t="s">
@@ -19164,67 +19181,67 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="199"/>
+      <c r="A61" s="201"/>
       <c r="B61" s="52" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="199"/>
+      <c r="A62" s="201"/>
       <c r="B62" s="52" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="199"/>
+      <c r="A63" s="201"/>
       <c r="B63" s="52" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="199"/>
+      <c r="A64" s="201"/>
       <c r="B64" s="52" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="199"/>
+      <c r="A65" s="201"/>
       <c r="B65" s="52" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="199"/>
+      <c r="A66" s="201"/>
       <c r="B66" s="52" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="199"/>
+      <c r="A67" s="201"/>
       <c r="B67" s="52" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="199"/>
+      <c r="A68" s="201"/>
       <c r="B68" s="52" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="199"/>
+      <c r="A69" s="201"/>
       <c r="B69" s="52" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="199"/>
+      <c r="A70" s="201"/>
       <c r="B70" s="52" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="200"/>
+      <c r="A71" s="202"/>
       <c r="B71" s="55" t="s">
         <v>982</v>
       </c>
@@ -19240,7 +19257,7 @@
     </row>
     <row r="74" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="195" t="s">
+      <c r="A75" s="197" t="s">
         <v>985</v>
       </c>
       <c r="B75" s="50" t="s">
@@ -19248,19 +19265,19 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="197"/>
+      <c r="A76" s="199"/>
       <c r="B76" s="52" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="197"/>
+      <c r="A77" s="199"/>
       <c r="B77" s="52" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="196"/>
+      <c r="A78" s="198"/>
       <c r="B78" s="55" t="s">
         <v>989</v>
       </c>
@@ -19317,7 +19334,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="195" t="s">
+      <c r="A3" s="197" t="s">
         <v>1005</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -19331,7 +19348,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="197"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="19" t="s">
         <v>997</v>
       </c>
@@ -19341,7 +19358,7 @@
       <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="197"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="19" t="s">
         <v>998</v>
       </c>
@@ -19351,7 +19368,7 @@
       <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="197"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="19" t="s">
         <v>997</v>
       </c>
@@ -19359,7 +19376,7 @@
       <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="197"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="19" t="s">
         <v>999</v>
       </c>
@@ -19367,7 +19384,7 @@
       <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="197"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="19" t="s">
         <v>997</v>
       </c>
@@ -19375,7 +19392,7 @@
       <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="197"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="19" t="s">
         <v>1000</v>
       </c>
@@ -19383,7 +19400,7 @@
       <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="197"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="19" t="s">
         <v>997</v>
       </c>
@@ -19391,7 +19408,7 @@
       <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="197"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="19" t="s">
         <v>1001</v>
       </c>
@@ -19399,7 +19416,7 @@
       <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="196"/>
+      <c r="A12" s="198"/>
       <c r="B12" s="54" t="s">
         <v>997</v>
       </c>
@@ -19407,7 +19424,7 @@
       <c r="D12" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="195" t="s">
+      <c r="A14" s="197" t="s">
         <v>1006</v>
       </c>
       <c r="B14" s="49" t="s">
@@ -19419,7 +19436,7 @@
       <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="197"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="19" t="s">
         <v>1008</v>
       </c>
@@ -19429,7 +19446,7 @@
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="197"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="19" t="s">
         <v>1009</v>
       </c>
@@ -19439,7 +19456,7 @@
       <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="197"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="19" t="s">
         <v>1010</v>
       </c>
@@ -19449,7 +19466,7 @@
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="197"/>
+      <c r="A18" s="199"/>
       <c r="B18" s="19" t="s">
         <v>1011</v>
       </c>
@@ -19457,7 +19474,7 @@
       <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="196"/>
+      <c r="A19" s="198"/>
       <c r="B19" s="54" t="s">
         <v>997</v>
       </c>
@@ -19470,7 +19487,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="195" t="s">
+      <c r="A22" s="197" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="49" t="s">
@@ -19484,7 +19501,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="197"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="19" t="s">
         <v>1017</v>
       </c>
@@ -19494,7 +19511,7 @@
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="197"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="19" t="s">
         <v>1018</v>
       </c>
@@ -19504,7 +19521,7 @@
       <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="196"/>
+      <c r="A25" s="198"/>
       <c r="B25" s="54" t="s">
         <v>1017</v>
       </c>
@@ -19519,7 +19536,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="61" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="195" t="s">
+      <c r="A28" s="197" t="s">
         <v>1036</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -19533,7 +19550,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="197"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="19" t="s">
         <v>1021</v>
       </c>
@@ -19541,7 +19558,7 @@
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="197"/>
+      <c r="A30" s="199"/>
       <c r="B30" s="19" t="s">
         <v>1022</v>
       </c>
@@ -19549,7 +19566,7 @@
       <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="196"/>
+      <c r="A31" s="198"/>
       <c r="B31" s="54" t="s">
         <v>1023</v>
       </c>
@@ -19557,7 +19574,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="204" t="s">
+      <c r="A33" s="203" t="s">
         <v>1039</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19603,7 +19620,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="206"/>
+      <c r="A38" s="204"/>
       <c r="B38" s="54" t="s">
         <v>1027</v>
       </c>
@@ -19611,7 +19628,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="204" t="s">
+      <c r="A40" s="203" t="s">
         <v>1041</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19623,7 +19640,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="206"/>
+      <c r="A41" s="204"/>
       <c r="B41" s="54" t="s">
         <v>1029</v>
       </c>
@@ -19636,7 +19653,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="204" t="s">
+      <c r="A44" s="203" t="s">
         <v>1043</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19690,7 +19707,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="206"/>
+      <c r="A50" s="204"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19702,7 +19719,7 @@
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A52" s="195" t="s">
+      <c r="A52" s="197" t="s">
         <v>1046</v>
       </c>
       <c r="B52" s="49" t="s">
@@ -19714,7 +19731,7 @@
       <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="197"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="19" t="s">
         <v>1048</v>
       </c>
@@ -19722,7 +19739,7 @@
       <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="197"/>
+      <c r="A54" s="199"/>
       <c r="B54" s="19" t="s">
         <v>1049</v>
       </c>
@@ -19730,7 +19747,7 @@
       <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="197"/>
+      <c r="A55" s="199"/>
       <c r="B55" s="19" t="s">
         <v>1050</v>
       </c>
@@ -19738,7 +19755,7 @@
       <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="196"/>
+      <c r="A56" s="198"/>
       <c r="B56" s="54" t="s">
         <v>1051</v>
       </c>
@@ -19751,7 +19768,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="207" t="s">
+      <c r="A59" s="206" t="s">
         <v>418</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19765,7 +19782,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="208"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="19" t="s">
         <v>1054</v>
       </c>
@@ -19773,7 +19790,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="209"/>
+      <c r="A61" s="208"/>
       <c r="B61" s="54" t="s">
         <v>1055</v>
       </c>
@@ -19786,7 +19803,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="195" t="s">
+      <c r="A64" s="197" t="s">
         <v>489</v>
       </c>
       <c r="B64" s="49" t="s">
@@ -19800,7 +19817,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="197"/>
+      <c r="A65" s="199"/>
       <c r="B65" s="19" t="s">
         <v>1059</v>
       </c>
@@ -19812,7 +19829,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="197"/>
+      <c r="A66" s="199"/>
       <c r="B66" s="19" t="s">
         <v>1060</v>
       </c>
@@ -19824,7 +19841,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="197"/>
+      <c r="A67" s="199"/>
       <c r="B67" s="19" t="s">
         <v>1061</v>
       </c>
@@ -19834,7 +19851,7 @@
       <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="196"/>
+      <c r="A68" s="198"/>
       <c r="B68" s="54" t="s">
         <v>1062</v>
       </c>
@@ -19842,7 +19859,7 @@
       <c r="D68" s="55"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="195" t="s">
+      <c r="A70" s="197" t="s">
         <v>1070</v>
       </c>
       <c r="B70" s="49" t="s">
@@ -19856,7 +19873,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="197"/>
+      <c r="A71" s="199"/>
       <c r="B71" s="19" t="s">
         <v>1072</v>
       </c>
@@ -19868,7 +19885,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="197"/>
+      <c r="A72" s="199"/>
       <c r="B72" s="19" t="s">
         <v>1073</v>
       </c>
@@ -19876,7 +19893,7 @@
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="196"/>
+      <c r="A73" s="198"/>
       <c r="B73" s="54" t="s">
         <v>1074</v>
       </c>
@@ -19884,7 +19901,7 @@
       <c r="D73" s="55"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="195" t="s">
+      <c r="A75" s="197" t="s">
         <v>808</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -19898,7 +19915,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="197"/>
+      <c r="A76" s="199"/>
       <c r="B76" s="19" t="s">
         <v>539</v>
       </c>
@@ -19910,7 +19927,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="197"/>
+      <c r="A77" s="199"/>
       <c r="B77" s="19" t="s">
         <v>1080</v>
       </c>
@@ -19922,7 +19939,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="197"/>
+      <c r="A78" s="199"/>
       <c r="B78" s="19" t="s">
         <v>1081</v>
       </c>
@@ -19932,7 +19949,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="196"/>
+      <c r="A79" s="198"/>
       <c r="B79" s="54" t="s">
         <v>1082</v>
       </c>
@@ -19945,7 +19962,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="201" t="s">
+      <c r="A82" s="209" t="s">
         <v>1090</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -19959,7 +19976,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="202"/>
+      <c r="A83" s="210"/>
       <c r="B83" s="19" t="s">
         <v>1092</v>
       </c>
@@ -19967,7 +19984,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="202"/>
+      <c r="A84" s="210"/>
       <c r="B84" s="19" t="s">
         <v>1093</v>
       </c>
@@ -19975,7 +19992,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="203"/>
+      <c r="A85" s="211"/>
       <c r="B85" s="54" t="s">
         <v>1094</v>
       </c>
@@ -19983,7 +20000,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="201" t="s">
+      <c r="A87" s="209" t="s">
         <v>1100</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -19997,7 +20014,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="202"/>
+      <c r="A88" s="210"/>
       <c r="B88" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20009,7 +20026,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="202"/>
+      <c r="A89" s="210"/>
       <c r="B89" s="19" t="s">
         <v>1103</v>
       </c>
@@ -20021,7 +20038,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="202"/>
+      <c r="A90" s="210"/>
       <c r="B90" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20033,7 +20050,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="202"/>
+      <c r="A91" s="210"/>
       <c r="B91" s="19" t="s">
         <v>1104</v>
       </c>
@@ -20043,7 +20060,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="202"/>
+      <c r="A92" s="210"/>
       <c r="B92" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20051,7 +20068,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="202"/>
+      <c r="A93" s="210"/>
       <c r="B93" s="19" t="s">
         <v>535</v>
       </c>
@@ -20059,7 +20076,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="202"/>
+      <c r="A94" s="210"/>
       <c r="B94" s="19" t="s">
         <v>1105</v>
       </c>
@@ -20067,7 +20084,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="203"/>
+      <c r="A95" s="211"/>
       <c r="B95" s="54" t="s">
         <v>1106</v>
       </c>
@@ -20075,7 +20092,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="204" t="s">
+      <c r="A97" s="203" t="s">
         <v>1113</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -20127,7 +20144,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="206"/>
+      <c r="A102" s="204"/>
       <c r="B102" s="69" t="s">
         <v>1114</v>
       </c>
@@ -20140,7 +20157,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="135" x14ac:dyDescent="0.15">
-      <c r="A105" s="195" t="s">
+      <c r="A105" s="197" t="s">
         <v>1117</v>
       </c>
       <c r="B105" s="49" t="s">
@@ -20154,7 +20171,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="197"/>
+      <c r="A106" s="199"/>
       <c r="B106" s="19" t="s">
         <v>1119</v>
       </c>
@@ -20162,7 +20179,7 @@
       <c r="D106" s="52"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="197"/>
+      <c r="A107" s="199"/>
       <c r="B107" s="19" t="s">
         <v>1120</v>
       </c>
@@ -20170,7 +20187,7 @@
       <c r="D107" s="52"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="197"/>
+      <c r="A108" s="199"/>
       <c r="B108" s="19" t="s">
         <v>1121</v>
       </c>
@@ -20178,7 +20195,7 @@
       <c r="D108" s="52"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="196"/>
+      <c r="A109" s="198"/>
       <c r="B109" s="54" t="s">
         <v>1122</v>
       </c>
@@ -20187,22 +20204,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20234,7 +20251,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="197" t="s">
         <v>1126</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -20242,31 +20259,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="197"/>
+      <c r="A3" s="199"/>
       <c r="B3" s="52" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="197"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="52" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="197"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="52" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="196"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="55" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="195" t="s">
+      <c r="A8" s="197" t="s">
         <v>796</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -20274,19 +20291,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="197"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="52" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="196"/>
+      <c r="A10" s="198"/>
       <c r="B10" s="55" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="197" t="s">
         <v>808</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -20294,13 +20311,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="197"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="52" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="196"/>
+      <c r="A14" s="198"/>
       <c r="B14" s="55"/>
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -20319,7 +20336,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="195" t="s">
+      <c r="A18" s="197" t="s">
         <v>1138</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -20327,25 +20344,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="197"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="52" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="197"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="52" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="196"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="55" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="197" t="s">
         <v>985</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -20353,19 +20370,19 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="197"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="72" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="196"/>
+      <c r="A25" s="198"/>
       <c r="B25" s="73" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="195" t="s">
+      <c r="A27" s="197" t="s">
         <v>1146</v>
       </c>
       <c r="B27" s="50" t="s">
@@ -20373,19 +20390,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="197"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="52" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="197"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="52" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="196"/>
+      <c r="A30" s="198"/>
       <c r="B30" s="55" t="s">
         <v>1150</v>
       </c>
@@ -20411,7 +20428,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="195" t="s">
+      <c r="A36" s="197" t="s">
         <v>1155</v>
       </c>
       <c r="B36" s="50" t="s">
@@ -20419,7 +20436,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="196"/>
+      <c r="A37" s="198"/>
       <c r="B37" s="55" t="s">
         <v>1157</v>
       </c>
@@ -20468,7 +20485,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="195" t="s">
+      <c r="A2" s="197" t="s">
         <v>1158</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -20479,28 +20496,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="197"/>
+      <c r="A3" s="199"/>
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="197"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="197"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="53"/>
       <c r="C5" s="55" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="197"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="48" t="s">
         <v>1188</v>
       </c>
@@ -20509,14 +20526,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="197"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="53"/>
       <c r="C7" s="55" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="197"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="48" t="s">
         <v>1165</v>
       </c>
@@ -20525,21 +20542,21 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="197"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="51"/>
       <c r="C9" s="52" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="197"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="53"/>
       <c r="C10" s="55" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="197"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="48" t="s">
         <v>1169</v>
       </c>
@@ -20548,21 +20565,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="197"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="51"/>
       <c r="C12" s="52" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="197"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="53"/>
       <c r="C13" s="55" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="197"/>
+      <c r="A14" s="199"/>
       <c r="B14" s="48" t="s">
         <v>1173</v>
       </c>
@@ -20571,21 +20588,21 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="197"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="51"/>
       <c r="C15" s="52" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="197"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="53"/>
       <c r="C16" s="55" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="197"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="48" t="s">
         <v>1177</v>
       </c>
@@ -20594,21 +20611,21 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="197"/>
+      <c r="A18" s="199"/>
       <c r="B18" s="51"/>
       <c r="C18" s="52" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="197"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="53"/>
       <c r="C19" s="55" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="197"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="48" t="s">
         <v>1181</v>
       </c>
@@ -20617,14 +20634,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="197"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="53"/>
       <c r="C21" s="55" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="197"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="19" t="s">
         <v>1184</v>
       </c>
@@ -20633,14 +20650,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="196"/>
+      <c r="A23" s="198"/>
       <c r="B23" s="54"/>
       <c r="C23" s="55" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="195" t="s">
+      <c r="A25" s="197" t="s">
         <v>1189</v>
       </c>
       <c r="B25" s="48" t="s">
@@ -20652,7 +20669,7 @@
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="197"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="51"/>
       <c r="C26" s="52" t="s">
         <v>1192</v>
@@ -20660,7 +20677,7 @@
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="197"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="51"/>
       <c r="C27" s="52" t="s">
         <v>1193</v>
@@ -20668,7 +20685,7 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="197"/>
+      <c r="A28" s="199"/>
       <c r="B28" s="51"/>
       <c r="C28" s="52" t="s">
         <v>1194</v>
@@ -20676,7 +20693,7 @@
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="197"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="53"/>
       <c r="C29" s="55" t="s">
         <v>1195</v>
@@ -20684,7 +20701,7 @@
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="197"/>
+      <c r="A30" s="199"/>
       <c r="B30" s="48" t="s">
         <v>1196</v>
       </c>
@@ -20694,7 +20711,7 @@
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="197"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="51"/>
       <c r="C31" s="52" t="s">
         <v>1198</v>
@@ -20702,7 +20719,7 @@
       <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="197"/>
+      <c r="A32" s="199"/>
       <c r="B32" s="51"/>
       <c r="C32" s="52" t="s">
         <v>1199</v>
@@ -20710,7 +20727,7 @@
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="197"/>
+      <c r="A33" s="199"/>
       <c r="B33" s="51"/>
       <c r="C33" s="52" t="s">
         <v>1200</v>
@@ -20718,7 +20735,7 @@
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="197"/>
+      <c r="A34" s="199"/>
       <c r="B34" s="53"/>
       <c r="C34" s="55" t="s">
         <v>1201</v>
@@ -20726,7 +20743,7 @@
       <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="197"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="19" t="s">
         <v>1202</v>
       </c>
@@ -20736,7 +20753,7 @@
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="197"/>
+      <c r="A36" s="199"/>
       <c r="B36" s="19"/>
       <c r="C36" s="52" t="s">
         <v>1204</v>
@@ -20744,7 +20761,7 @@
       <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="197"/>
+      <c r="A37" s="199"/>
       <c r="B37" s="19"/>
       <c r="C37" s="52" t="s">
         <v>1205</v>
@@ -20752,7 +20769,7 @@
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="197"/>
+      <c r="A38" s="199"/>
       <c r="B38" s="19"/>
       <c r="C38" s="52" t="s">
         <v>1206</v>
@@ -20760,7 +20777,7 @@
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="196"/>
+      <c r="A39" s="198"/>
       <c r="B39" s="54"/>
       <c r="C39" s="55" t="s">
         <v>1201</v>
@@ -20768,7 +20785,7 @@
       <c r="D39" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="195" t="s">
+      <c r="A41" s="197" t="s">
         <v>1207</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -20779,14 +20796,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="197"/>
+      <c r="A42" s="199"/>
       <c r="B42" s="53"/>
       <c r="C42" s="55" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="197"/>
+      <c r="A43" s="199"/>
       <c r="B43" s="48" t="s">
         <v>1211</v>
       </c>
@@ -20795,14 +20812,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="197"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="53"/>
       <c r="C44" s="55" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="197"/>
+      <c r="A45" s="199"/>
       <c r="B45" s="48" t="s">
         <v>1245</v>
       </c>
@@ -20811,21 +20828,21 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="197"/>
+      <c r="A46" s="199"/>
       <c r="B46" s="51"/>
       <c r="C46" s="52" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="197"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="53"/>
       <c r="C47" s="55" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="197"/>
+      <c r="A48" s="199"/>
       <c r="B48" s="48" t="s">
         <v>1216</v>
       </c>
@@ -20834,14 +20851,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="197"/>
+      <c r="A49" s="199"/>
       <c r="B49" s="53"/>
       <c r="C49" s="55" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="197"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="48" t="s">
         <v>1219</v>
       </c>
@@ -20850,14 +20867,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="197"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="53"/>
       <c r="C51" s="55" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="197"/>
+      <c r="A52" s="199"/>
       <c r="B52" s="48" t="s">
         <v>1222</v>
       </c>
@@ -20866,21 +20883,21 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="197"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="51"/>
       <c r="C53" s="52" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="197"/>
+      <c r="A54" s="199"/>
       <c r="B54" s="53"/>
       <c r="C54" s="55" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="197"/>
+      <c r="A55" s="199"/>
       <c r="B55" s="48" t="s">
         <v>1226</v>
       </c>
@@ -20889,28 +20906,28 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="197"/>
+      <c r="A56" s="199"/>
       <c r="B56" s="51"/>
       <c r="C56" s="52" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="197"/>
+      <c r="A57" s="199"/>
       <c r="B57" s="51"/>
       <c r="C57" s="52" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="197"/>
+      <c r="A58" s="199"/>
       <c r="B58" s="53"/>
       <c r="C58" s="55" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="197"/>
+      <c r="A59" s="199"/>
       <c r="B59" s="48" t="s">
         <v>1231</v>
       </c>
@@ -20919,28 +20936,28 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="197"/>
+      <c r="A60" s="199"/>
       <c r="B60" s="51"/>
       <c r="C60" s="52" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="197"/>
+      <c r="A61" s="199"/>
       <c r="B61" s="51"/>
       <c r="C61" s="52" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="197"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="53"/>
       <c r="C62" s="55" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="197"/>
+      <c r="A63" s="199"/>
       <c r="B63" s="48" t="s">
         <v>1234</v>
       </c>
@@ -20949,28 +20966,28 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="197"/>
+      <c r="A64" s="199"/>
       <c r="B64" s="51"/>
       <c r="C64" s="52" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="197"/>
+      <c r="A65" s="199"/>
       <c r="B65" s="51"/>
       <c r="C65" s="52" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="197"/>
+      <c r="A66" s="199"/>
       <c r="B66" s="53"/>
       <c r="C66" s="55" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="197"/>
+      <c r="A67" s="199"/>
       <c r="B67" s="51" t="s">
         <v>1239</v>
       </c>
@@ -20979,7 +20996,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="196"/>
+      <c r="A68" s="198"/>
       <c r="B68" s="53" t="s">
         <v>1241</v>
       </c>
@@ -20993,7 +21010,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="195" t="s">
+      <c r="A70" s="197" t="s">
         <v>1246</v>
       </c>
       <c r="B70" s="48" t="s">
@@ -21004,28 +21021,28 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="197"/>
+      <c r="A71" s="199"/>
       <c r="B71" s="51"/>
       <c r="C71" s="52" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="197"/>
+      <c r="A72" s="199"/>
       <c r="B72" s="51"/>
       <c r="C72" s="52" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="197"/>
+      <c r="A73" s="199"/>
       <c r="B73" s="53"/>
       <c r="C73" s="55" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="197"/>
+      <c r="A74" s="199"/>
       <c r="B74" s="48" t="s">
         <v>1252</v>
       </c>
@@ -21034,21 +21051,21 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="197"/>
+      <c r="A75" s="199"/>
       <c r="B75" s="51"/>
       <c r="C75" s="52" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="197"/>
+      <c r="A76" s="199"/>
       <c r="B76" s="53"/>
       <c r="C76" s="55" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="197"/>
+      <c r="A77" s="199"/>
       <c r="B77" s="48" t="s">
         <v>1256</v>
       </c>
@@ -21057,28 +21074,28 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="197"/>
+      <c r="A78" s="199"/>
       <c r="B78" s="51"/>
       <c r="C78" s="52" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="197"/>
+      <c r="A79" s="199"/>
       <c r="B79" s="51"/>
       <c r="C79" s="52" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="197"/>
+      <c r="A80" s="199"/>
       <c r="B80" s="53"/>
       <c r="C80" s="55" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="197"/>
+      <c r="A81" s="199"/>
       <c r="B81" s="48" t="s">
         <v>1261</v>
       </c>
@@ -21087,28 +21104,28 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="197"/>
+      <c r="A82" s="199"/>
       <c r="B82" s="51"/>
       <c r="C82" s="52" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="197"/>
+      <c r="A83" s="199"/>
       <c r="B83" s="51"/>
       <c r="C83" s="52" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="197"/>
+      <c r="A84" s="199"/>
       <c r="B84" s="53"/>
       <c r="C84" s="55" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="197"/>
+      <c r="A85" s="199"/>
       <c r="B85" s="48" t="s">
         <v>1266</v>
       </c>
@@ -21117,42 +21134,42 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="197"/>
+      <c r="A86" s="199"/>
       <c r="B86" s="51"/>
       <c r="C86" s="52" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="197"/>
+      <c r="A87" s="199"/>
       <c r="B87" s="51"/>
       <c r="C87" s="52" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="197"/>
+      <c r="A88" s="199"/>
       <c r="B88" s="51"/>
       <c r="C88" s="52" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="197"/>
+      <c r="A89" s="199"/>
       <c r="B89" s="51"/>
       <c r="C89" s="52" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="197"/>
+      <c r="A90" s="199"/>
       <c r="B90" s="53"/>
       <c r="C90" s="55" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="197"/>
+      <c r="A91" s="199"/>
       <c r="B91" s="48" t="s">
         <v>1272</v>
       </c>
@@ -21161,21 +21178,21 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="197"/>
+      <c r="A92" s="199"/>
       <c r="B92" s="51"/>
       <c r="C92" s="52" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="197"/>
+      <c r="A93" s="199"/>
       <c r="B93" s="53"/>
       <c r="C93" s="55" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="197"/>
+      <c r="A94" s="199"/>
       <c r="B94" s="48" t="s">
         <v>1276</v>
       </c>
@@ -21184,28 +21201,28 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="197"/>
+      <c r="A95" s="199"/>
       <c r="B95" s="51"/>
       <c r="C95" s="52" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="197"/>
+      <c r="A96" s="199"/>
       <c r="B96" s="51"/>
       <c r="C96" s="52" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="197"/>
+      <c r="A97" s="199"/>
       <c r="B97" s="53"/>
       <c r="C97" s="55" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="197"/>
+      <c r="A98" s="199"/>
       <c r="B98" s="19" t="s">
         <v>1281</v>
       </c>
@@ -21214,28 +21231,28 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="197"/>
+      <c r="A99" s="199"/>
       <c r="B99" s="19"/>
       <c r="C99" s="52" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="197"/>
+      <c r="A100" s="199"/>
       <c r="B100" s="19"/>
       <c r="C100" s="52" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="196"/>
+      <c r="A101" s="198"/>
       <c r="B101" s="54"/>
       <c r="C101" s="55" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="195" t="s">
+      <c r="A103" s="197" t="s">
         <v>1283</v>
       </c>
       <c r="B103" s="48" t="s">
@@ -21246,28 +21263,28 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="197"/>
+      <c r="A104" s="199"/>
       <c r="B104" s="51"/>
       <c r="C104" s="52" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="197"/>
+      <c r="A105" s="199"/>
       <c r="B105" s="51"/>
       <c r="C105" s="52" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="197"/>
+      <c r="A106" s="199"/>
       <c r="B106" s="53"/>
       <c r="C106" s="55" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="197"/>
+      <c r="A107" s="199"/>
       <c r="B107" s="48" t="s">
         <v>1289</v>
       </c>
@@ -21276,35 +21293,35 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="197"/>
+      <c r="A108" s="199"/>
       <c r="B108" s="51"/>
       <c r="C108" s="52" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="197"/>
+      <c r="A109" s="199"/>
       <c r="B109" s="51"/>
       <c r="C109" s="52" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="197"/>
+      <c r="A110" s="199"/>
       <c r="B110" s="51"/>
       <c r="C110" s="52" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="197"/>
+      <c r="A111" s="199"/>
       <c r="B111" s="53"/>
       <c r="C111" s="55" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="197"/>
+      <c r="A112" s="199"/>
       <c r="B112" s="48" t="s">
         <v>1295</v>
       </c>
@@ -21313,28 +21330,28 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="197"/>
+      <c r="A113" s="199"/>
       <c r="B113" s="51"/>
       <c r="C113" s="52" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="197"/>
+      <c r="A114" s="199"/>
       <c r="B114" s="51"/>
       <c r="C114" s="52" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="197"/>
+      <c r="A115" s="199"/>
       <c r="B115" s="53"/>
       <c r="C115" s="55" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="197"/>
+      <c r="A116" s="199"/>
       <c r="B116" s="48" t="s">
         <v>1300</v>
       </c>
@@ -21343,21 +21360,21 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="197"/>
+      <c r="A117" s="199"/>
       <c r="B117" s="51"/>
       <c r="C117" s="52" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="197"/>
+      <c r="A118" s="199"/>
       <c r="B118" s="53"/>
       <c r="C118" s="55" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="197"/>
+      <c r="A119" s="199"/>
       <c r="B119" s="19" t="s">
         <v>1304</v>
       </c>
@@ -21366,14 +21383,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="196"/>
+      <c r="A120" s="198"/>
       <c r="B120" s="54"/>
       <c r="C120" s="55" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="195" t="s">
+      <c r="A122" s="197" t="s">
         <v>1307</v>
       </c>
       <c r="B122" s="49" t="s">
@@ -21384,14 +21401,14 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="196"/>
+      <c r="A123" s="198"/>
       <c r="B123" s="54"/>
       <c r="C123" s="55" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="204" t="s">
+      <c r="A125" s="203" t="s">
         <v>1311</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21457,7 +21474,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="206"/>
+      <c r="A133" s="204"/>
       <c r="B133" s="54" t="s">
         <v>1321</v>
       </c>
@@ -30215,16 +30232,16 @@
       <c r="E582" s="83"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A583" s="210" t="s">
+      <c r="A583" s="212" t="s">
         <v>2729</v>
       </c>
-      <c r="B583" s="210" t="s">
+      <c r="B583" s="212" t="s">
         <v>2730</v>
       </c>
-      <c r="C583" s="210" t="s">
+      <c r="C583" s="212" t="s">
         <v>2624</v>
       </c>
-      <c r="D583" s="210" t="s">
+      <c r="D583" s="212" t="s">
         <v>2731</v>
       </c>
       <c r="E583" s="82" t="s">
@@ -30232,91 +30249,91 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A584" s="210"/>
-      <c r="B584" s="210"/>
-      <c r="C584" s="210"/>
-      <c r="D584" s="210"/>
+      <c r="A584" s="212"/>
+      <c r="B584" s="212"/>
+      <c r="C584" s="212"/>
+      <c r="D584" s="212"/>
       <c r="E584" s="82" t="s">
         <v>2733</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A585" s="210"/>
-      <c r="B585" s="210"/>
-      <c r="C585" s="210"/>
-      <c r="D585" s="210"/>
+      <c r="A585" s="212"/>
+      <c r="B585" s="212"/>
+      <c r="C585" s="212"/>
+      <c r="D585" s="212"/>
       <c r="E585" s="82" t="s">
         <v>2734</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A586" s="210"/>
-      <c r="B586" s="210"/>
-      <c r="C586" s="210"/>
-      <c r="D586" s="210"/>
+      <c r="A586" s="212"/>
+      <c r="B586" s="212"/>
+      <c r="C586" s="212"/>
+      <c r="D586" s="212"/>
       <c r="E586" s="82" t="s">
         <v>2735</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A587" s="210"/>
-      <c r="B587" s="210"/>
-      <c r="C587" s="210"/>
-      <c r="D587" s="210"/>
+      <c r="A587" s="212"/>
+      <c r="B587" s="212"/>
+      <c r="C587" s="212"/>
+      <c r="D587" s="212"/>
       <c r="E587" s="82" t="s">
         <v>2736</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A588" s="210"/>
-      <c r="B588" s="210"/>
-      <c r="C588" s="210"/>
-      <c r="D588" s="210"/>
+      <c r="A588" s="212"/>
+      <c r="B588" s="212"/>
+      <c r="C588" s="212"/>
+      <c r="D588" s="212"/>
       <c r="E588" s="82" t="s">
         <v>2737</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A589" s="210"/>
-      <c r="B589" s="210"/>
-      <c r="C589" s="210"/>
-      <c r="D589" s="210"/>
+      <c r="A589" s="212"/>
+      <c r="B589" s="212"/>
+      <c r="C589" s="212"/>
+      <c r="D589" s="212"/>
       <c r="E589" s="82" t="s">
         <v>2738</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A590" s="210"/>
-      <c r="B590" s="210"/>
-      <c r="C590" s="210"/>
-      <c r="D590" s="210"/>
+      <c r="A590" s="212"/>
+      <c r="B590" s="212"/>
+      <c r="C590" s="212"/>
+      <c r="D590" s="212"/>
       <c r="E590" s="82" t="s">
         <v>2739</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A591" s="210"/>
-      <c r="B591" s="210"/>
-      <c r="C591" s="210"/>
-      <c r="D591" s="210"/>
+      <c r="A591" s="212"/>
+      <c r="B591" s="212"/>
+      <c r="C591" s="212"/>
+      <c r="D591" s="212"/>
       <c r="E591" s="82" t="s">
         <v>2740</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A592" s="210"/>
-      <c r="B592" s="210"/>
-      <c r="C592" s="210"/>
-      <c r="D592" s="210"/>
+      <c r="A592" s="212"/>
+      <c r="B592" s="212"/>
+      <c r="C592" s="212"/>
+      <c r="D592" s="212"/>
       <c r="E592" s="82" t="s">
         <v>2741</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A593" s="210"/>
-      <c r="B593" s="210"/>
-      <c r="C593" s="210"/>
-      <c r="D593" s="210"/>
+      <c r="A593" s="212"/>
+      <c r="B593" s="212"/>
+      <c r="C593" s="212"/>
+      <c r="D593" s="212"/>
       <c r="E593" s="82" t="s">
         <v>2742</v>
       </c>
@@ -32819,7 +32836,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="211" t="s">
+      <c r="A2" s="213" t="s">
         <v>3346</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -32827,73 +32844,73 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="211"/>
+      <c r="A3" s="213"/>
       <c r="B3" s="3" t="s">
         <v>3348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="211"/>
+      <c r="A4" s="213"/>
       <c r="B4" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="211"/>
+      <c r="A5" s="213"/>
       <c r="B5" s="3" t="s">
         <v>3350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="211"/>
+      <c r="A6" s="213"/>
       <c r="B6" s="3" t="s">
         <v>3351</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="211"/>
+      <c r="A7" s="213"/>
       <c r="B7" s="3" t="s">
         <v>3352</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="211"/>
+      <c r="A8" s="213"/>
       <c r="B8" s="3" t="s">
         <v>3353</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="211"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="3" t="s">
         <v>3354</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="211"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="3" t="s">
         <v>3355</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="211"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="3" t="s">
         <v>3356</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="211"/>
+      <c r="A12" s="213"/>
       <c r="B12" s="3" t="s">
         <v>3357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="211"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="3" t="s">
         <v>3358</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="211" t="s">
+      <c r="A14" s="213" t="s">
         <v>3359</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -32901,85 +32918,85 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="211"/>
+      <c r="A15" s="213"/>
       <c r="B15" s="3" t="s">
         <v>3361</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="211"/>
+      <c r="A16" s="213"/>
       <c r="B16" s="3" t="s">
         <v>3362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="211"/>
+      <c r="A17" s="213"/>
       <c r="B17" s="3" t="s">
         <v>3363</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="211"/>
+      <c r="A18" s="213"/>
       <c r="B18" s="3" t="s">
         <v>3364</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="211"/>
+      <c r="A19" s="213"/>
       <c r="B19" s="3" t="s">
         <v>3365</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="211"/>
+      <c r="A20" s="213"/>
       <c r="B20" s="3" t="s">
         <v>3366</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="211"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="3" t="s">
         <v>3367</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="211"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="3" t="s">
         <v>3368</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="211"/>
+      <c r="A23" s="213"/>
       <c r="B23" s="3" t="s">
         <v>3369</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="211"/>
+      <c r="A24" s="213"/>
       <c r="B24" s="3" t="s">
         <v>3370</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="211"/>
+      <c r="A25" s="213"/>
       <c r="B25" s="3" t="s">
         <v>3371</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="211"/>
+      <c r="A26" s="213"/>
       <c r="B26" s="3" t="s">
         <v>3372</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="211"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="3" t="s">
         <v>3373</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="211" t="s">
+      <c r="A28" s="213" t="s">
         <v>3374</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -32987,25 +33004,25 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="211"/>
+      <c r="A29" s="213"/>
       <c r="B29" s="3" t="s">
         <v>3376</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="211"/>
+      <c r="A30" s="213"/>
       <c r="B30" s="3" t="s">
         <v>3377</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="211"/>
+      <c r="A31" s="213"/>
       <c r="B31" s="3" t="s">
         <v>3378</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="211" t="s">
+      <c r="A32" s="213" t="s">
         <v>3379</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -33013,49 +33030,49 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="211"/>
+      <c r="A33" s="213"/>
       <c r="B33" s="3" t="s">
         <v>3381</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="211"/>
+      <c r="A34" s="213"/>
       <c r="B34" s="3" t="s">
         <v>3382</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="211"/>
+      <c r="A35" s="213"/>
       <c r="B35" s="3" t="s">
         <v>3383</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="211"/>
+      <c r="A36" s="213"/>
       <c r="B36" s="3" t="s">
         <v>3384</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="211"/>
+      <c r="A37" s="213"/>
       <c r="B37" s="3" t="s">
         <v>3385</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="211"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="3" t="s">
         <v>3386</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="211"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="3" t="s">
         <v>3387</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="211" t="s">
+      <c r="A40" s="213" t="s">
         <v>3388</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -33063,73 +33080,73 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="211"/>
+      <c r="A41" s="213"/>
       <c r="B41" s="3" t="s">
         <v>3390</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="211"/>
+      <c r="A42" s="213"/>
       <c r="B42" s="3" t="s">
         <v>3391</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="211"/>
+      <c r="A43" s="213"/>
       <c r="B43" s="3" t="s">
         <v>3392</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="211"/>
+      <c r="A44" s="213"/>
       <c r="B44" s="3" t="s">
         <v>3393</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="211"/>
+      <c r="A45" s="213"/>
       <c r="B45" s="3" t="s">
         <v>3394</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="211"/>
+      <c r="A46" s="213"/>
       <c r="B46" s="3" t="s">
         <v>3395</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="211"/>
+      <c r="A47" s="213"/>
       <c r="B47" s="3" t="s">
         <v>3396</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="211"/>
+      <c r="A48" s="213"/>
       <c r="B48" s="3" t="s">
         <v>3397</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="211"/>
+      <c r="A49" s="213"/>
       <c r="B49" s="3" t="s">
         <v>3398</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="211"/>
+      <c r="A50" s="213"/>
       <c r="B50" s="3" t="s">
         <v>3399</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="211"/>
+      <c r="A51" s="213"/>
       <c r="B51" s="3" t="s">
         <v>3400</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="211" t="s">
+      <c r="A52" s="213" t="s">
         <v>3401</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -33137,31 +33154,31 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="211"/>
+      <c r="A53" s="213"/>
       <c r="B53" s="3" t="s">
         <v>3403</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="211"/>
+      <c r="A54" s="213"/>
       <c r="B54" s="3" t="s">
         <v>3404</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="211"/>
+      <c r="A55" s="213"/>
       <c r="B55" s="3" t="s">
         <v>3405</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="211"/>
+      <c r="A56" s="213"/>
       <c r="B56" s="3" t="s">
         <v>3406</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="211" t="s">
+      <c r="A57" s="213" t="s">
         <v>3407</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -33169,61 +33186,61 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="211"/>
+      <c r="A58" s="213"/>
       <c r="B58" s="3" t="s">
         <v>3409</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="211"/>
+      <c r="A59" s="213"/>
       <c r="B59" s="3" t="s">
         <v>3410</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="211"/>
+      <c r="A60" s="213"/>
       <c r="B60" s="3" t="s">
         <v>3411</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="211"/>
+      <c r="A61" s="213"/>
       <c r="B61" s="3" t="s">
         <v>3412</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="211"/>
+      <c r="A62" s="213"/>
       <c r="B62" s="3" t="s">
         <v>3413</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="211"/>
+      <c r="A63" s="213"/>
       <c r="B63" s="3" t="s">
         <v>3414</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="211"/>
+      <c r="A64" s="213"/>
       <c r="B64" s="3" t="s">
         <v>3415</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="211"/>
+      <c r="A65" s="213"/>
       <c r="B65" s="3" t="s">
         <v>3416</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="211"/>
+      <c r="A66" s="213"/>
       <c r="B66" s="3" t="s">
         <v>3417</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="211" t="s">
+      <c r="A67" s="213" t="s">
         <v>3418</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -33231,73 +33248,73 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="211"/>
+      <c r="A68" s="213"/>
       <c r="B68" s="3" t="s">
         <v>3420</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="211"/>
+      <c r="A69" s="213"/>
       <c r="B69" s="3" t="s">
         <v>3421</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="211"/>
+      <c r="A70" s="213"/>
       <c r="B70" s="3" t="s">
         <v>3422</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="211"/>
+      <c r="A71" s="213"/>
       <c r="B71" s="3" t="s">
         <v>3423</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="211"/>
+      <c r="A72" s="213"/>
       <c r="B72" s="3" t="s">
         <v>3424</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="211"/>
+      <c r="A73" s="213"/>
       <c r="B73" s="3" t="s">
         <v>3425</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="211"/>
+      <c r="A74" s="213"/>
       <c r="B74" s="3" t="s">
         <v>3426</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="211"/>
+      <c r="A75" s="213"/>
       <c r="B75" s="3" t="s">
         <v>3427</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="211"/>
+      <c r="A76" s="213"/>
       <c r="B76" s="3" t="s">
         <v>3428</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="211"/>
+      <c r="A77" s="213"/>
       <c r="B77" s="3" t="s">
         <v>3429</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="211"/>
+      <c r="A78" s="213"/>
       <c r="B78" s="3" t="s">
         <v>3430</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="211"/>
+      <c r="A79" s="213"/>
       <c r="B79" s="3" t="s">
         <v>3431</v>
       </c>
@@ -35505,7 +35522,7 @@
       <c r="F94" s="101" t="s">
         <v>3146</v>
       </c>
-      <c r="G94" s="212" t="s">
+      <c r="G94" s="214" t="s">
         <v>3854</v>
       </c>
       <c r="H94" s="113"/>
@@ -35527,7 +35544,7 @@
       <c r="F95" s="101" t="s">
         <v>3146</v>
       </c>
-      <c r="G95" s="212"/>
+      <c r="G95" s="214"/>
       <c r="H95" s="113"/>
     </row>
     <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35547,7 +35564,7 @@
       <c r="F96" s="101" t="s">
         <v>3146</v>
       </c>
-      <c r="G96" s="212"/>
+      <c r="G96" s="214"/>
       <c r="H96" s="113"/>
     </row>
     <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35567,7 +35584,7 @@
       <c r="F97" s="101" t="s">
         <v>3861</v>
       </c>
-      <c r="G97" s="212"/>
+      <c r="G97" s="214"/>
       <c r="H97" s="113"/>
     </row>
     <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35587,7 +35604,7 @@
       <c r="F98" s="101" t="s">
         <v>3861</v>
       </c>
-      <c r="G98" s="212"/>
+      <c r="G98" s="214"/>
       <c r="H98" s="113"/>
     </row>
     <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35607,7 +35624,7 @@
       <c r="F99" s="101" t="s">
         <v>3861</v>
       </c>
-      <c r="G99" s="212"/>
+      <c r="G99" s="214"/>
       <c r="H99" s="113"/>
     </row>
     <row r="100" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35626,10 +35643,10 @@
       <c r="E100" s="101" t="s">
         <v>3835</v>
       </c>
-      <c r="F100" s="213" t="s">
+      <c r="F100" s="215" t="s">
         <v>3816</v>
       </c>
-      <c r="G100" s="214" t="s">
+      <c r="G100" s="216" t="s">
         <v>3714</v>
       </c>
       <c r="H100" s="113"/>
@@ -35648,8 +35665,8 @@
       <c r="E101" s="101" t="s">
         <v>3837</v>
       </c>
-      <c r="F101" s="213"/>
-      <c r="G101" s="214"/>
+      <c r="F101" s="215"/>
+      <c r="G101" s="216"/>
       <c r="H101" s="113"/>
     </row>
     <row r="102" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35666,8 +35683,8 @@
       <c r="E102" s="101" t="s">
         <v>3838</v>
       </c>
-      <c r="F102" s="213"/>
-      <c r="G102" s="214"/>
+      <c r="F102" s="215"/>
+      <c r="G102" s="216"/>
       <c r="H102" s="113"/>
     </row>
     <row r="103" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35684,8 +35701,8 @@
       <c r="E103" s="101" t="s">
         <v>3839</v>
       </c>
-      <c r="F103" s="213"/>
-      <c r="G103" s="214"/>
+      <c r="F103" s="215"/>
+      <c r="G103" s="216"/>
       <c r="H103" s="113"/>
     </row>
     <row r="104" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35704,10 +35721,10 @@
       <c r="E104" s="101" t="s">
         <v>3840</v>
       </c>
-      <c r="F104" s="213" t="s">
+      <c r="F104" s="215" t="s">
         <v>3841</v>
       </c>
-      <c r="G104" s="214"/>
+      <c r="G104" s="216"/>
       <c r="H104" s="113"/>
     </row>
     <row r="105" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35724,8 +35741,8 @@
       <c r="E105" s="101" t="s">
         <v>3842</v>
       </c>
-      <c r="F105" s="213"/>
-      <c r="G105" s="214"/>
+      <c r="F105" s="215"/>
+      <c r="G105" s="216"/>
       <c r="H105" s="113"/>
     </row>
     <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35742,8 +35759,8 @@
       <c r="E106" s="101" t="s">
         <v>3843</v>
       </c>
-      <c r="F106" s="213"/>
-      <c r="G106" s="214"/>
+      <c r="F106" s="215"/>
+      <c r="G106" s="216"/>
       <c r="H106" s="113"/>
     </row>
     <row r="107" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35760,8 +35777,8 @@
       <c r="E107" s="101" t="s">
         <v>3844</v>
       </c>
-      <c r="F107" s="213"/>
-      <c r="G107" s="214"/>
+      <c r="F107" s="215"/>
+      <c r="G107" s="216"/>
       <c r="H107" s="113"/>
     </row>
     <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -38236,9 +38253,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
-      <c r="B7" s="178"/>
-      <c r="C7" s="179"/>
+      <c r="A7" s="179"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -38297,9 +38314,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="177"/>
-      <c r="B14" s="178"/>
-      <c r="C14" s="179"/>
+      <c r="A14" s="179"/>
+      <c r="B14" s="180"/>
+      <c r="C14" s="181"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -38349,9 +38366,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
-      <c r="B20" s="178"/>
-      <c r="C20" s="179"/>
+      <c r="A20" s="179"/>
+      <c r="B20" s="180"/>
+      <c r="C20" s="181"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -38404,9 +38421,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="179"/>
+      <c r="A25" s="179"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="181"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -40006,8 +40023,8 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40038,13 +40055,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="178" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="217" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="217" t="s">
         <v>270</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -40053,12 +40070,12 @@
       <c r="E2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="219" t="s">
         <v>3981</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="173"/>
+      <c r="A3" s="178"/>
       <c r="B3" s="172" t="s">
         <v>6</v>
       </c>
@@ -40076,7 +40093,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="173"/>
+      <c r="A4" s="178"/>
       <c r="B4" s="171" t="s">
         <v>274</v>
       </c>
@@ -40091,11 +40108,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="173"/>
-      <c r="B5" s="172" t="s">
+      <c r="A5" s="178"/>
+      <c r="B5" s="78" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="78" t="s">
         <v>277</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -40104,12 +40121,12 @@
       <c r="E5" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="218" t="s">
         <v>3969</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="173"/>
+      <c r="A6" s="178"/>
       <c r="B6" s="172" t="s">
         <v>9</v>
       </c>
@@ -40127,7 +40144,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="173"/>
+      <c r="A7" s="178"/>
       <c r="B7" s="172" t="s">
         <v>279</v>
       </c>
@@ -40145,26 +40162,26 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="173"/>
-      <c r="B8" s="172" t="s">
+      <c r="A8" s="178"/>
+      <c r="B8" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="172" t="s">
+      <c r="C8" s="220" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="220" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="220" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="222" t="s">
         <v>3978</v>
       </c>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="173"/>
+      <c r="A9" s="178"/>
       <c r="B9" s="172" t="s">
         <v>282</v>
       </c>
@@ -40180,78 +40197,78 @@
       <c r="F9" s="15" t="s">
         <v>3970</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="222" t="s">
         <v>3971</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="222" t="s">
         <v>3972</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="174"/>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="176"/>
+      <c r="A10" s="175"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="177"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="180" t="s">
+      <c r="A11" s="182" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C11" s="172" t="s">
+      <c r="C11" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="218" t="s">
         <v>3973</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="181"/>
-      <c r="B12" s="172" t="s">
+      <c r="A12" s="183"/>
+      <c r="B12" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="78" t="s">
         <v>284</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="218" t="s">
         <v>3974</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="181"/>
-      <c r="B13" s="172" t="s">
+      <c r="A13" s="183"/>
+      <c r="B13" s="78" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="172" t="s">
+      <c r="C13" s="78" t="s">
         <v>300</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="78" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="78" t="s">
         <v>272</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="218" t="s">
         <v>3970</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="181"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="2" t="s">
         <v>301</v>
       </c>
@@ -40269,7 +40286,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="181"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="2" t="s">
         <v>302</v>
       </c>
@@ -40287,7 +40304,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
+      <c r="A16" s="183"/>
       <c r="B16" s="171" t="s">
         <v>304</v>
       </c>
@@ -40302,7 +40319,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="171" t="s">
         <v>306</v>
       </c>
@@ -40317,14 +40334,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="174"/>
-      <c r="B18" s="175"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
+      <c r="A18" s="175"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="176"/>
+      <c r="E18" s="177"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="178" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="172" t="s">
@@ -40342,12 +40359,12 @@
       <c r="F19" s="15" t="s">
         <v>3968</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="222" t="s">
         <v>3978</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="173"/>
+      <c r="A20" s="178"/>
       <c r="B20" s="172" t="s">
         <v>43</v>
       </c>
@@ -40363,12 +40380,12 @@
       <c r="F20" s="15" t="s">
         <v>3968</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="222" t="s">
         <v>3979</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="173"/>
+      <c r="A21" s="178"/>
       <c r="B21" s="172" t="s">
         <v>309</v>
       </c>
@@ -40389,11 +40406,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="173"/>
-      <c r="B22" s="172" t="s">
+      <c r="A22" s="178"/>
+      <c r="B22" s="220" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="172" t="s">
+      <c r="C22" s="220" t="s">
         <v>312</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -40402,15 +40419,15 @@
       <c r="E22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="222" t="s">
         <v>3975</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="222" t="s">
         <v>3978</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="173"/>
+      <c r="A23" s="178"/>
       <c r="B23" s="172" t="s">
         <v>313</v>
       </c>
@@ -40431,7 +40448,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="173"/>
+      <c r="A24" s="178"/>
       <c r="B24" s="172" t="s">
         <v>315</v>
       </c>
@@ -40447,33 +40464,33 @@
       <c r="F24" s="15" t="s">
         <v>3970</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="222" t="s">
         <v>3979</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="173"/>
-      <c r="B25" s="172" t="s">
+      <c r="A25" s="178"/>
+      <c r="B25" s="220" t="s">
         <v>316</v>
       </c>
-      <c r="C25" s="215" t="s">
+      <c r="C25" s="221" t="s">
         <v>3976</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="220" t="s">
         <v>271</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="220" t="s">
         <v>272</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="222" t="s">
         <v>3983</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="222" t="s">
         <v>3984</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="173"/>
+      <c r="A26" s="178"/>
       <c r="B26" s="172" t="s">
         <v>318</v>
       </c>
@@ -40494,7 +40511,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="173"/>
+      <c r="A27" s="178"/>
       <c r="B27" s="172" t="s">
         <v>319</v>
       </c>
@@ -40507,13 +40524,13 @@
       <c r="E27" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="F27" s="216" t="s">
+      <c r="F27" s="173" t="s">
         <v>3985</v>
       </c>
-      <c r="G27" s="217" t="s">
+      <c r="G27" s="174" t="s">
         <v>3986</v>
       </c>
-      <c r="H27" s="217" t="s">
+      <c r="H27" s="174" t="s">
         <v>3987</v>
       </c>
       <c r="I27" s="15" t="s">
@@ -40521,14 +40538,14 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="174"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
+      <c r="A28" s="175"/>
+      <c r="B28" s="176"/>
+      <c r="C28" s="176"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="177"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="180" t="s">
+      <c r="A29" s="182" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -40545,7 +40562,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="181"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
@@ -40560,7 +40577,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
+      <c r="A31" s="183"/>
       <c r="B31" s="2" t="s">
         <v>323</v>
       </c>
@@ -40575,7 +40592,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="182"/>
+      <c r="A32" s="184"/>
       <c r="B32" s="2" t="s">
         <v>325</v>
       </c>
@@ -40590,14 +40607,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="174"/>
-      <c r="B33" s="175"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
+      <c r="A33" s="175"/>
+      <c r="B33" s="176"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="177"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="180" t="s">
+      <c r="A34" s="182" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="171" t="s">
@@ -40614,7 +40631,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="181"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="171" t="s">
         <v>328</v>
       </c>
@@ -40629,7 +40646,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="181"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="171" t="s">
         <v>330</v>
       </c>
@@ -40644,7 +40661,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="181"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="171" t="s">
         <v>332</v>
       </c>
@@ -40659,7 +40676,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="181"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="171" t="s">
         <v>97</v>
       </c>
@@ -40674,7 +40691,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="181"/>
+      <c r="A39" s="183"/>
       <c r="B39" s="171" t="s">
         <v>98</v>
       </c>
@@ -40689,7 +40706,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="181"/>
+      <c r="A40" s="183"/>
       <c r="B40" s="171" t="s">
         <v>334</v>
       </c>
@@ -40704,7 +40721,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="182"/>
+      <c r="A41" s="184"/>
       <c r="B41" s="171" t="s">
         <v>107</v>
       </c>
@@ -40719,14 +40736,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="174"/>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="175"/>
-      <c r="E42" s="176"/>
+      <c r="A42" s="175"/>
+      <c r="B42" s="176"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="177"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="180" t="s">
+      <c r="A43" s="182" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -40743,7 +40760,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="181"/>
+      <c r="A44" s="183"/>
       <c r="B44" s="2" t="s">
         <v>339</v>
       </c>
@@ -40758,7 +40775,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="181"/>
+      <c r="A45" s="183"/>
       <c r="B45" s="2" t="s">
         <v>341</v>
       </c>
@@ -40773,7 +40790,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="181"/>
+      <c r="A46" s="183"/>
       <c r="B46" s="2" t="s">
         <v>343</v>
       </c>
@@ -40788,7 +40805,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="181"/>
+      <c r="A47" s="183"/>
       <c r="B47" s="2" t="s">
         <v>345</v>
       </c>
@@ -40803,7 +40820,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="181"/>
+      <c r="A48" s="183"/>
       <c r="B48" s="2" t="s">
         <v>347</v>
       </c>
@@ -40818,7 +40835,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="181"/>
+      <c r="A49" s="183"/>
       <c r="B49" s="2" t="s">
         <v>349</v>
       </c>
@@ -40833,7 +40850,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="181"/>
+      <c r="A50" s="183"/>
       <c r="B50" s="2" t="s">
         <v>350</v>
       </c>
@@ -40848,7 +40865,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="182"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="2" t="s">
         <v>352</v>
       </c>
@@ -40864,17 +40881,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40913,7 +40930,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="182" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -40927,7 +40944,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
+      <c r="A3" s="183"/>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
@@ -40937,7 +40954,7 @@
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="17" t="s">
         <v>361</v>
       </c>
@@ -40949,7 +40966,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
@@ -40959,7 +40976,7 @@
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="17" t="s">
         <v>364</v>
       </c>
@@ -40969,7 +40986,7 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="181"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="17" t="s">
         <v>365</v>
       </c>
@@ -40979,7 +40996,7 @@
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="17" t="s">
         <v>282</v>
       </c>
@@ -40989,13 +41006,13 @@
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
+      <c r="A9" s="179"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="182" t="s">
         <v>383</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -41007,7 +41024,7 @@
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
@@ -41017,7 +41034,7 @@
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="181"/>
+      <c r="A12" s="183"/>
       <c r="B12" s="17" t="s">
         <v>366</v>
       </c>
@@ -41027,7 +41044,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="181"/>
+      <c r="A13" s="183"/>
       <c r="B13" s="17" t="s">
         <v>367</v>
       </c>
@@ -41037,7 +41054,7 @@
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="181"/>
+      <c r="A14" s="183"/>
       <c r="B14" s="17" t="s">
         <v>376</v>
       </c>
@@ -41047,7 +41064,7 @@
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="182"/>
+      <c r="A15" s="184"/>
       <c r="B15" s="17" t="s">
         <v>368</v>
       </c>
@@ -41057,13 +41074,13 @@
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
-      <c r="B16" s="178"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
+      <c r="A16" s="179"/>
+      <c r="B16" s="180"/>
+      <c r="C16" s="180"/>
+      <c r="D16" s="181"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="180" t="s">
+      <c r="A17" s="182" t="s">
         <v>283</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -41075,7 +41092,7 @@
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="181"/>
+      <c r="A18" s="183"/>
       <c r="B18" s="17" t="s">
         <v>386</v>
       </c>
@@ -41085,7 +41102,7 @@
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="17" t="s">
         <v>388</v>
       </c>
@@ -41095,7 +41112,7 @@
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="181"/>
+      <c r="A20" s="183"/>
       <c r="B20" s="17" t="s">
         <v>390</v>
       </c>
@@ -41105,7 +41122,7 @@
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="17" t="s">
         <v>392</v>
       </c>
@@ -41115,13 +41132,13 @@
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
-      <c r="B22" s="178"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="179"/>
+      <c r="A22" s="179"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="181"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="180" t="s">
+      <c r="A23" s="182" t="s">
         <v>427</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -41133,7 +41150,7 @@
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="181"/>
+      <c r="A24" s="183"/>
       <c r="B24" s="17" t="s">
         <v>425</v>
       </c>
@@ -41143,7 +41160,7 @@
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="181"/>
+      <c r="A25" s="183"/>
       <c r="B25" s="17" t="s">
         <v>395</v>
       </c>
@@ -41153,7 +41170,7 @@
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="182"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="17" t="s">
         <v>396</v>
       </c>
@@ -41163,13 +41180,13 @@
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="177"/>
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="179"/>
+      <c r="A27" s="179"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="181"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="180" t="s">
+      <c r="A28" s="182" t="s">
         <v>428</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -41181,7 +41198,7 @@
       <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="181"/>
+      <c r="A29" s="183"/>
       <c r="B29" s="17" t="s">
         <v>87</v>
       </c>
@@ -41191,7 +41208,7 @@
       <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="181"/>
+      <c r="A30" s="183"/>
       <c r="B30" s="17" t="s">
         <v>401</v>
       </c>
@@ -41201,7 +41218,7 @@
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="17" t="s">
         <v>403</v>
       </c>
@@ -41211,13 +41228,13 @@
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
-      <c r="B32" s="178"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
+      <c r="A32" s="179"/>
+      <c r="B32" s="180"/>
+      <c r="C32" s="180"/>
+      <c r="D32" s="181"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="180" t="s">
+      <c r="A33" s="182" t="s">
         <v>429</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -41229,7 +41246,7 @@
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="181"/>
+      <c r="A34" s="183"/>
       <c r="B34" s="17" t="s">
         <v>407</v>
       </c>
@@ -41239,7 +41256,7 @@
       <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="181"/>
+      <c r="A35" s="183"/>
       <c r="B35" s="17" t="s">
         <v>409</v>
       </c>
@@ -41249,7 +41266,7 @@
       <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="181"/>
+      <c r="A36" s="183"/>
       <c r="B36" s="17" t="s">
         <v>411</v>
       </c>
@@ -41259,7 +41276,7 @@
       <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="181"/>
+      <c r="A37" s="183"/>
       <c r="B37" s="17" t="s">
         <v>413</v>
       </c>
@@ -41269,7 +41286,7 @@
       <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="181"/>
+      <c r="A38" s="183"/>
       <c r="B38" s="17" t="s">
         <v>415</v>
       </c>
@@ -41279,7 +41296,7 @@
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="181"/>
+      <c r="A39" s="183"/>
       <c r="B39" s="17" t="s">
         <v>417</v>
       </c>
@@ -41292,7 +41309,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="182"/>
+      <c r="A40" s="184"/>
       <c r="B40" s="17" t="s">
         <v>431</v>
       </c>
@@ -41302,13 +41319,13 @@
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="177"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="179"/>
+      <c r="A41" s="179"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="181"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="180" t="s">
+      <c r="A42" s="182" t="s">
         <v>430</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -41320,7 +41337,7 @@
       <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="181"/>
+      <c r="A43" s="183"/>
       <c r="B43" s="17" t="s">
         <v>433</v>
       </c>
@@ -41330,7 +41347,7 @@
       <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="181"/>
+      <c r="A44" s="183"/>
       <c r="B44" s="17" t="s">
         <v>434</v>
       </c>
@@ -41340,7 +41357,7 @@
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="182"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="17" t="s">
         <v>423</v>
       </c>
@@ -41465,11 +41482,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41478,6 +41490,11 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41514,7 +41531,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="182" t="s">
         <v>548</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -41525,7 +41542,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
+      <c r="A3" s="183"/>
       <c r="B3" s="5" t="s">
         <v>551</v>
       </c>
@@ -41534,7 +41551,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="5" t="s">
         <v>553</v>
       </c>
@@ -41543,7 +41560,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="5" t="s">
         <v>555</v>
       </c>
@@ -41552,7 +41569,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="5" t="s">
         <v>557</v>
       </c>
@@ -41561,7 +41578,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="181"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="5" t="s">
         <v>559</v>
       </c>
@@ -41570,7 +41587,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="5" t="s">
         <v>561</v>
       </c>
@@ -41579,7 +41596,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
+      <c r="A9" s="183"/>
       <c r="B9" s="5" t="s">
         <v>563</v>
       </c>
@@ -41588,7 +41605,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
+      <c r="A10" s="183"/>
       <c r="B10" s="5" t="s">
         <v>565</v>
       </c>
@@ -41597,7 +41614,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="30" t="s">
         <v>567</v>
       </c>
@@ -41606,7 +41623,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="183" t="s">
+      <c r="A13" s="185" t="s">
         <v>593</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -41617,7 +41634,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="184"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="5" t="s">
         <v>573</v>
       </c>
@@ -41626,7 +41643,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="184"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="5" t="s">
         <v>575</v>
       </c>
@@ -41635,7 +41652,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="184"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="5" t="s">
         <v>577</v>
       </c>
@@ -41644,7 +41661,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="5" t="s">
         <v>578</v>
       </c>
@@ -41653,7 +41670,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="5" t="s">
         <v>580</v>
       </c>
@@ -41662,7 +41679,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="184"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="5" t="s">
         <v>582</v>
       </c>
@@ -41671,7 +41688,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="184"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="5" t="s">
         <v>583</v>
       </c>
@@ -41680,7 +41697,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="184"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="5" t="s">
         <v>585</v>
       </c>
@@ -41689,7 +41706,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="184"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="5" t="s">
         <v>587</v>
       </c>
@@ -41698,7 +41715,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="184"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="5" t="s">
         <v>589</v>
       </c>
@@ -41707,7 +41724,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="185"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="30" t="s">
         <v>591</v>
       </c>
@@ -41716,7 +41733,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="185" t="s">
         <v>594</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -41727,7 +41744,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="184"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="5" t="s">
         <v>597</v>
       </c>
@@ -41736,7 +41753,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="5" t="s">
         <v>599</v>
       </c>
@@ -41745,21 +41762,21 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="184"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="5" t="s">
         <v>601</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="184"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="22" t="s">
         <v>602</v>
       </c>
       <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="184"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="5" t="s">
         <v>603</v>
       </c>
@@ -41768,7 +41785,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="5" t="s">
         <v>605</v>
       </c>
@@ -41777,21 +41794,21 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="5" t="s">
         <v>607</v>
       </c>
       <c r="C33" s="27"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="184"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="22" t="s">
         <v>608</v>
       </c>
       <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="184"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="5" t="s">
         <v>609</v>
       </c>
@@ -41800,7 +41817,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="184"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="5" t="s">
         <v>611</v>
       </c>
@@ -41809,7 +41826,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="184"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="5" t="s">
         <v>613</v>
       </c>
@@ -41818,7 +41835,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="185"/>
+      <c r="A38" s="187"/>
       <c r="B38" s="5" t="s">
         <v>615</v>
       </c>
@@ -41832,7 +41849,7 @@
       <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="183" t="s">
+      <c r="A40" s="185" t="s">
         <v>616</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -41843,7 +41860,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="184"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="16" t="s">
         <v>619</v>
       </c>
@@ -41852,14 +41869,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="184"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="22" t="s">
         <v>617</v>
       </c>
       <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="184"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="16" t="s">
         <v>622</v>
       </c>
@@ -41868,7 +41885,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="184"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="16" t="s">
         <v>623</v>
       </c>
@@ -41877,14 +41894,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="184"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="22" t="s">
         <v>624</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="184"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="16" t="s">
         <v>626</v>
       </c>
@@ -41893,7 +41910,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="184"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="16" t="s">
         <v>627</v>
       </c>
@@ -41902,14 +41919,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="184"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="184"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="16" t="s">
         <v>630</v>
       </c>
@@ -41918,7 +41935,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="184"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="16" t="s">
         <v>632</v>
       </c>
@@ -41927,7 +41944,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="185"/>
+      <c r="A51" s="187"/>
       <c r="B51" s="22" t="s">
         <v>633</v>
       </c>
@@ -42109,10 +42126,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="182" t="s">
         <v>545</v>
       </c>
-      <c r="B2" s="180" t="s">
+      <c r="B2" s="182" t="s">
         <v>437</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -42123,8 +42140,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
-      <c r="B3" s="181"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="17" t="s">
         <v>442</v>
       </c>
@@ -42133,8 +42150,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
-      <c r="B4" s="181"/>
+      <c r="A4" s="183"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="17" t="s">
         <v>444</v>
       </c>
@@ -42143,8 +42160,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
-      <c r="B5" s="181"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="17" t="s">
         <v>446</v>
       </c>
@@ -42153,8 +42170,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
-      <c r="B6" s="181"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="17" t="s">
         <v>448</v>
       </c>
@@ -42163,8 +42180,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="181"/>
-      <c r="B7" s="181"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="17" t="s">
         <v>450</v>
       </c>
@@ -42173,8 +42190,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
-      <c r="B8" s="182"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="17" t="s">
         <v>451</v>
       </c>
@@ -42183,14 +42200,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
-      <c r="B9" s="177"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="179"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="179"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
-      <c r="B10" s="180" t="s">
+      <c r="A10" s="183"/>
+      <c r="B10" s="182" t="s">
         <v>453</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -42201,8 +42218,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
-      <c r="B11" s="181"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="17" t="s">
         <v>455</v>
       </c>
@@ -42211,8 +42228,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="181"/>
-      <c r="B12" s="182"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="17" t="s">
         <v>456</v>
       </c>
@@ -42221,14 +42238,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="181"/>
-      <c r="B13" s="177"/>
-      <c r="C13" s="178"/>
-      <c r="D13" s="179"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="179"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="181"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="181"/>
-      <c r="B14" s="180" t="s">
+      <c r="A14" s="183"/>
+      <c r="B14" s="182" t="s">
         <v>458</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -42239,8 +42256,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="181"/>
-      <c r="B15" s="181"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="183"/>
       <c r="C15" s="17" t="s">
         <v>461</v>
       </c>
@@ -42249,8 +42266,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
-      <c r="B16" s="181"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
       <c r="C16" s="17" t="s">
         <v>463</v>
       </c>
@@ -42259,8 +42276,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="181"/>
-      <c r="B17" s="181"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="17" t="s">
         <v>465</v>
       </c>
@@ -42269,8 +42286,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="181"/>
-      <c r="B18" s="182"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="17" t="s">
         <v>467</v>
       </c>
@@ -42279,14 +42296,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
-      <c r="B19" s="177"/>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="179"/>
+      <c r="C19" s="180"/>
+      <c r="D19" s="181"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="181"/>
-      <c r="B20" s="180" t="s">
+      <c r="A20" s="183"/>
+      <c r="B20" s="182" t="s">
         <v>469</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -42297,8 +42314,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
-      <c r="B21" s="181"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="17" t="s">
         <v>121</v>
       </c>
@@ -42307,8 +42324,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="181"/>
-      <c r="B22" s="182"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="184"/>
       <c r="C22" s="17" t="s">
         <v>472</v>
       </c>
@@ -42317,16 +42334,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="182" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="182" t="s">
         <v>475</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -42337,8 +42354,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="181"/>
-      <c r="B25" s="181"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="17" t="s">
         <v>480</v>
       </c>
@@ -42347,8 +42364,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
-      <c r="B26" s="181"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="17" t="s">
         <v>482</v>
       </c>
@@ -42357,8 +42374,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="181"/>
-      <c r="B27" s="181"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="17" t="s">
         <v>484</v>
       </c>
@@ -42367,8 +42384,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="181"/>
-      <c r="B28" s="182"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
       <c r="C28" s="17" t="s">
         <v>485</v>
       </c>
@@ -42377,14 +42394,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="181"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="175"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="177"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="181"/>
-      <c r="B30" s="180" t="s">
+      <c r="A30" s="183"/>
+      <c r="B30" s="182" t="s">
         <v>477</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -42395,8 +42412,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
-      <c r="B31" s="181"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
       <c r="C31" s="17" t="s">
         <v>489</v>
       </c>
@@ -42405,8 +42422,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="181"/>
-      <c r="B32" s="181"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="17" t="s">
         <v>491</v>
       </c>
@@ -42415,8 +42432,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="181"/>
-      <c r="B33" s="182"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="184"/>
       <c r="C33" s="21" t="s">
         <v>493</v>
       </c>
@@ -42425,14 +42442,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="181"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="177"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="181"/>
-      <c r="B35" s="180" t="s">
+      <c r="A35" s="183"/>
+      <c r="B35" s="182" t="s">
         <v>495</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -42443,8 +42460,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="181"/>
-      <c r="B36" s="181"/>
+      <c r="A36" s="183"/>
+      <c r="B36" s="183"/>
       <c r="C36" s="17" t="s">
         <v>498</v>
       </c>
@@ -42453,8 +42470,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="181"/>
-      <c r="B37" s="181"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="183"/>
       <c r="C37" s="17" t="s">
         <v>500</v>
       </c>
@@ -42463,8 +42480,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="181"/>
-      <c r="B38" s="181"/>
+      <c r="A38" s="183"/>
+      <c r="B38" s="183"/>
       <c r="C38" s="17" t="s">
         <v>502</v>
       </c>
@@ -42473,8 +42490,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="181"/>
-      <c r="B39" s="181"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="183"/>
       <c r="C39" s="17" t="s">
         <v>503</v>
       </c>
@@ -42483,8 +42500,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="181"/>
-      <c r="B40" s="181"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
       <c r="C40" s="21" t="s">
         <v>505</v>
       </c>
@@ -42493,8 +42510,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="181"/>
-      <c r="B41" s="181"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="183"/>
       <c r="C41" s="17" t="s">
         <v>507</v>
       </c>
@@ -42503,8 +42520,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="181"/>
-      <c r="B42" s="181"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="183"/>
       <c r="C42" s="17" t="s">
         <v>509</v>
       </c>
@@ -42513,8 +42530,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="181"/>
-      <c r="B43" s="182"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="184"/>
       <c r="C43" s="17" t="s">
         <v>511</v>
       </c>
@@ -42523,14 +42540,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="181"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="175"/>
-      <c r="D44" s="176"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="176"/>
+      <c r="D44" s="177"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="181"/>
-      <c r="B45" s="180" t="s">
+      <c r="A45" s="183"/>
+      <c r="B45" s="182" t="s">
         <v>514</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -42541,8 +42558,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="181"/>
-      <c r="B46" s="181"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
       <c r="C46" s="17" t="s">
         <v>517</v>
       </c>
@@ -42551,8 +42568,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="181"/>
-      <c r="B47" s="181"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="183"/>
       <c r="C47" s="17" t="s">
         <v>519</v>
       </c>
@@ -42561,8 +42578,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="181"/>
-      <c r="B48" s="182"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="184"/>
       <c r="C48" s="17" t="s">
         <v>521</v>
       </c>
@@ -42571,14 +42588,14 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="181"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="176"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="175"/>
+      <c r="C49" s="176"/>
+      <c r="D49" s="177"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="181"/>
-      <c r="B50" s="180" t="s">
+      <c r="A50" s="183"/>
+      <c r="B50" s="182" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -42589,8 +42606,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="181"/>
-      <c r="B51" s="181"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="183"/>
       <c r="C51" s="17" t="s">
         <v>526</v>
       </c>
@@ -42599,8 +42616,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="181"/>
-      <c r="B52" s="181"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="183"/>
       <c r="C52" s="17" t="s">
         <v>528</v>
       </c>
@@ -42609,8 +42626,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="181"/>
-      <c r="B53" s="181"/>
+      <c r="A53" s="183"/>
+      <c r="B53" s="183"/>
       <c r="C53" s="17" t="s">
         <v>530</v>
       </c>
@@ -42619,8 +42636,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="181"/>
-      <c r="B54" s="181"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="183"/>
       <c r="C54" s="17" t="s">
         <v>531</v>
       </c>
@@ -42629,8 +42646,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="181"/>
-      <c r="B55" s="181"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="183"/>
       <c r="C55" s="17" t="s">
         <v>533</v>
       </c>
@@ -42639,8 +42656,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="181"/>
-      <c r="B56" s="181"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="183"/>
       <c r="C56" s="17" t="s">
         <v>535</v>
       </c>
@@ -42649,8 +42666,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="181"/>
-      <c r="B57" s="181"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="183"/>
       <c r="C57" s="17" t="s">
         <v>537</v>
       </c>
@@ -42659,8 +42676,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="181"/>
-      <c r="B58" s="181"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="17" t="s">
         <v>539</v>
       </c>
@@ -42669,8 +42686,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="182"/>
-      <c r="B59" s="182"/>
+      <c r="A59" s="184"/>
+      <c r="B59" s="184"/>
       <c r="C59" s="17" t="s">
         <v>541</v>
       </c>
@@ -42680,14 +42697,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42698,6 +42707,14 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42736,7 +42753,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="182" t="s">
         <v>548</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -42747,7 +42764,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
+      <c r="A3" s="183"/>
       <c r="B3" s="5" t="s">
         <v>551</v>
       </c>
@@ -42763,7 +42780,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
+      <c r="A4" s="183"/>
       <c r="B4" s="5" t="s">
         <v>553</v>
       </c>
@@ -42775,7 +42792,7 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
+      <c r="A5" s="183"/>
       <c r="B5" s="5" t="s">
         <v>555</v>
       </c>
@@ -42791,7 +42808,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
+      <c r="A6" s="183"/>
       <c r="B6" s="5" t="s">
         <v>557</v>
       </c>
@@ -42803,7 +42820,7 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="181"/>
+      <c r="A7" s="183"/>
       <c r="B7" s="5" t="s">
         <v>559</v>
       </c>
@@ -42815,7 +42832,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="5" t="s">
         <v>561</v>
       </c>
@@ -42831,7 +42848,7 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="30" t="s">
         <v>563</v>
       </c>
@@ -42843,7 +42860,7 @@
       <c r="F9" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="183" t="s">
+      <c r="A11" s="185" t="s">
         <v>593</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -42854,7 +42871,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="184"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="5" t="s">
         <v>1333</v>
       </c>
@@ -42863,7 +42880,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="184"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="5" t="s">
         <v>1335</v>
       </c>
@@ -42872,7 +42889,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="184"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="5" t="s">
         <v>1337</v>
       </c>
@@ -42881,7 +42898,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="184"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="5" t="s">
         <v>1340</v>
       </c>
@@ -42890,7 +42907,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="184"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="5" t="s">
         <v>1341</v>
       </c>
@@ -42899,7 +42916,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="5" t="s">
         <v>1343</v>
       </c>
@@ -42908,7 +42925,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="5" t="s">
         <v>1345</v>
       </c>
@@ -42917,7 +42934,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="184"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="5" t="s">
         <v>1347</v>
       </c>
@@ -42926,7 +42943,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="184"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="5" t="s">
         <v>587</v>
       </c>
@@ -42935,7 +42952,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="184"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="5" t="s">
         <v>589</v>
       </c>
@@ -42944,7 +42961,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="185"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="30" t="s">
         <v>591</v>
       </c>
@@ -42958,7 +42975,7 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="183" t="s">
+      <c r="A24" s="185" t="s">
         <v>1349</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -42969,7 +42986,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="184"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="5" t="s">
         <v>1352</v>
       </c>
@@ -42978,7 +42995,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="184"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="5" t="s">
         <v>1353</v>
       </c>
@@ -42987,7 +43004,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="184"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="5" t="s">
         <v>1354</v>
       </c>
@@ -42996,7 +43013,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="5" t="s">
         <v>1356</v>
       </c>
@@ -43005,7 +43022,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="184"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="5" t="s">
         <v>1357</v>
       </c>
@@ -43014,7 +43031,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="184"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="5" t="s">
         <v>1360</v>
       </c>
@@ -43023,7 +43040,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="184"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="5" t="s">
         <v>1359</v>
       </c>
@@ -43032,7 +43049,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="5" t="s">
         <v>1363</v>
       </c>
@@ -43041,7 +43058,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="5" t="s">
         <v>1365</v>
       </c>
@@ -43050,7 +43067,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="5" t="s">
         <v>1369</v>
       </c>
@@ -43059,7 +43076,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="185"/>
+      <c r="A35" s="187"/>
       <c r="B35" s="30" t="s">
         <v>1368</v>
       </c>
@@ -43068,7 +43085,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="189" t="s">
+      <c r="A37" s="191" t="s">
         <v>1371</v>
       </c>
       <c r="B37" s="32" t="s">
@@ -43079,7 +43096,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="190"/>
+      <c r="A38" s="192"/>
       <c r="B38" s="5" t="s">
         <v>1374</v>
       </c>
@@ -43088,7 +43105,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="190"/>
+      <c r="A39" s="192"/>
       <c r="B39" s="5" t="s">
         <v>1376</v>
       </c>
@@ -43097,7 +43114,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="190"/>
+      <c r="A40" s="192"/>
       <c r="B40" s="5" t="s">
         <v>1378</v>
       </c>
@@ -43106,7 +43123,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="191"/>
+      <c r="A41" s="193"/>
       <c r="B41" s="30" t="s">
         <v>1380</v>
       </c>
@@ -43131,7 +43148,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="183" t="s">
+      <c r="A45" s="185" t="s">
         <v>1385</v>
       </c>
       <c r="B45" s="32" t="s">
@@ -43142,7 +43159,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="184"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="5" t="s">
         <v>1389</v>
       </c>
@@ -43151,7 +43168,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="184"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="5" t="s">
         <v>1386</v>
       </c>
@@ -43160,7 +43177,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="184"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="5" t="s">
         <v>1392</v>
       </c>
@@ -43169,7 +43186,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="184"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="5" t="s">
         <v>1394</v>
       </c>
@@ -43178,7 +43195,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="185"/>
+      <c r="A50" s="187"/>
       <c r="B50" s="30" t="s">
         <v>1396</v>
       </c>
@@ -43192,7 +43209,7 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="183" t="s">
+      <c r="A52" s="185" t="s">
         <v>1398</v>
       </c>
       <c r="B52" s="32" t="s">
@@ -43203,7 +43220,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="184"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="5" t="s">
         <v>1401</v>
       </c>
@@ -43212,7 +43229,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="184"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="5" t="s">
         <v>1403</v>
       </c>
@@ -43221,7 +43238,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="184"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="5" t="s">
         <v>1405</v>
       </c>
@@ -43230,7 +43247,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="184"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="5" t="s">
         <v>1406</v>
       </c>
@@ -43239,7 +43256,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="184"/>
+      <c r="A57" s="186"/>
       <c r="B57" s="5" t="s">
         <v>1409</v>
       </c>
@@ -43248,7 +43265,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="184"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="5" t="s">
         <v>1411</v>
       </c>
@@ -43257,7 +43274,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="184"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="5" t="s">
         <v>1412</v>
       </c>
@@ -43266,7 +43283,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="184"/>
+      <c r="A60" s="186"/>
       <c r="B60" s="5" t="s">
         <v>1413</v>
       </c>
@@ -43275,7 +43292,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="184"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="5" t="s">
         <v>1414</v>
       </c>
@@ -43284,7 +43301,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="184"/>
+      <c r="A62" s="186"/>
       <c r="B62" s="5" t="s">
         <v>1419</v>
       </c>
@@ -43293,7 +43310,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="185"/>
+      <c r="A63" s="187"/>
       <c r="B63" s="30" t="s">
         <v>1421</v>
       </c>
@@ -43302,7 +43319,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="183" t="s">
+      <c r="A65" s="185" t="s">
         <v>1423</v>
       </c>
       <c r="B65" s="32" t="s">
@@ -43313,7 +43330,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="184"/>
+      <c r="A66" s="186"/>
       <c r="B66" s="5" t="s">
         <v>1425</v>
       </c>
@@ -43322,7 +43339,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="184"/>
+      <c r="A67" s="186"/>
       <c r="B67" s="5" t="s">
         <v>91</v>
       </c>
@@ -43331,7 +43348,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="184"/>
+      <c r="A68" s="186"/>
       <c r="B68" s="5" t="s">
         <v>92</v>
       </c>
@@ -43340,7 +43357,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="185"/>
+      <c r="A69" s="187"/>
       <c r="B69" s="30" t="s">
         <v>1429</v>
       </c>
@@ -43349,7 +43366,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="180" t="s">
+      <c r="A71" s="182" t="s">
         <v>1431</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -43360,7 +43377,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="181"/>
+      <c r="A72" s="183"/>
       <c r="B72" s="5" t="s">
         <v>1434</v>
       </c>
@@ -43369,7 +43386,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="181"/>
+      <c r="A73" s="183"/>
       <c r="B73" s="5" t="s">
         <v>1435</v>
       </c>
@@ -43378,7 +43395,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="181"/>
+      <c r="A74" s="183"/>
       <c r="B74" s="5" t="s">
         <v>1436</v>
       </c>
@@ -43387,7 +43404,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="182"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="30" t="s">
         <v>1437</v>
       </c>
@@ -43396,7 +43413,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="183" t="s">
+      <c r="A77" s="185" t="s">
         <v>1448</v>
       </c>
       <c r="B77" s="32" t="s">
@@ -43407,7 +43424,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="184"/>
+      <c r="A78" s="186"/>
       <c r="B78" s="5" t="s">
         <v>1444</v>
       </c>
@@ -43416,7 +43433,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="185"/>
+      <c r="A79" s="187"/>
       <c r="B79" s="30" t="s">
         <v>1446</v>
       </c>
@@ -43425,7 +43442,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="189" t="s">
+      <c r="A81" s="191" t="s">
         <v>1449</v>
       </c>
       <c r="B81" s="32" t="s">
@@ -43436,7 +43453,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="190"/>
+      <c r="A82" s="192"/>
       <c r="B82" s="5" t="s">
         <v>1452</v>
       </c>
@@ -43445,7 +43462,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="191"/>
+      <c r="A83" s="193"/>
       <c r="B83" s="30" t="s">
         <v>1454</v>
       </c>
@@ -43454,7 +43471,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="186" t="s">
+      <c r="A85" s="188" t="s">
         <v>1457</v>
       </c>
       <c r="B85" s="32" t="s">
@@ -43465,7 +43482,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="187"/>
+      <c r="A86" s="189"/>
       <c r="B86" s="5" t="s">
         <v>1458</v>
       </c>
@@ -43474,7 +43491,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="188"/>
+      <c r="A87" s="190"/>
       <c r="B87" s="30" t="s">
         <v>1459</v>
       </c>
@@ -43542,7 +43559,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="194" t="s">
         <v>747</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -43560,7 +43577,7 @@
       <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="194"/>
+      <c r="A3" s="196"/>
       <c r="B3" s="38" t="s">
         <v>746</v>
       </c>
@@ -43576,7 +43593,7 @@
       <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="194"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="38" t="s">
         <v>748</v>
       </c>
@@ -43592,7 +43609,7 @@
       <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="194"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="38" t="s">
         <v>749</v>
       </c>
@@ -43608,7 +43625,7 @@
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="193"/>
+      <c r="A6" s="195"/>
       <c r="B6" s="40" t="s">
         <v>750</v>
       </c>
@@ -43633,7 +43650,7 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="194" t="s">
         <v>757</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -43652,7 +43669,7 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="194"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="38" t="s">
         <v>664</v>
       </c>
@@ -43671,7 +43688,7 @@
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="194"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="38" t="s">
         <v>665</v>
       </c>
@@ -43690,7 +43707,7 @@
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="193"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
         <v>693</v>
@@ -43708,7 +43725,7 @@
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="194" t="s">
         <v>759</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -43727,7 +43744,7 @@
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="194"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="38" t="s">
         <v>667</v>
       </c>
@@ -43744,7 +43761,7 @@
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="194"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="38" t="s">
         <v>760</v>
       </c>
@@ -43761,7 +43778,7 @@
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="194"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="38" t="s">
         <v>668</v>
       </c>
@@ -43778,7 +43795,7 @@
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="193"/>
+      <c r="A17" s="195"/>
       <c r="B17" s="40" t="s">
         <v>669</v>
       </c>
@@ -43804,7 +43821,7 @@
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="192" t="s">
+      <c r="A19" s="194" t="s">
         <v>764</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -43823,7 +43840,7 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="194"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="38" t="s">
         <v>761</v>
       </c>
@@ -43840,7 +43857,7 @@
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="194"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="38" t="s">
         <v>671</v>
       </c>
@@ -43857,7 +43874,7 @@
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="193"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="40" t="s">
         <v>672</v>
       </c>
@@ -43877,7 +43894,7 @@
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="192" t="s">
+      <c r="A24" s="194" t="s">
         <v>765</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -43895,7 +43912,7 @@
       <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="194"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="38" t="s">
         <v>674</v>
       </c>
@@ -43911,7 +43928,7 @@
       <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="194"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="38" t="s">
         <v>675</v>
       </c>
@@ -43927,7 +43944,7 @@
       <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="194"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="38" t="s">
         <v>766</v>
       </c>
@@ -43943,7 +43960,7 @@
       <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="194"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="38" t="s">
         <v>676</v>
       </c>
@@ -43959,7 +43976,7 @@
       <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="194"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="38" t="s">
         <v>677</v>
       </c>
@@ -43975,7 +43992,7 @@
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="193"/>
+      <c r="A30" s="195"/>
       <c r="B30" s="40" t="s">
         <v>678</v>
       </c>
@@ -43991,7 +44008,7 @@
       <c r="F30" s="41"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="192" t="s">
+      <c r="A32" s="194" t="s">
         <v>767</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -44009,7 +44026,7 @@
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="194"/>
+      <c r="A33" s="196"/>
       <c r="B33" s="38" t="s">
         <v>768</v>
       </c>
@@ -44025,7 +44042,7 @@
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="193"/>
+      <c r="A34" s="195"/>
       <c r="B34" s="40" t="s">
         <v>680</v>
       </c>
@@ -44041,7 +44058,7 @@
       <c r="F34" s="41"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="192" t="s">
+      <c r="A36" s="194" t="s">
         <v>769</v>
       </c>
       <c r="B36" s="36" t="s">
@@ -44059,7 +44076,7 @@
       <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="193"/>
+      <c r="A37" s="195"/>
       <c r="B37" s="40" t="s">
         <v>681</v>
       </c>
@@ -44093,7 +44110,7 @@
       <c r="F39" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="192" t="s">
+      <c r="A41" s="194" t="s">
         <v>773</v>
       </c>
       <c r="B41" s="36" t="s">
@@ -44111,7 +44128,7 @@
       <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="194"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="38" t="s">
         <v>774</v>
       </c>
@@ -44127,7 +44144,7 @@
       <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="194"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="38" t="s">
         <v>683</v>
       </c>
@@ -44143,7 +44160,7 @@
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="194"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="38" t="s">
         <v>684</v>
       </c>
@@ -44159,7 +44176,7 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="194"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="38" t="s">
         <v>776</v>
       </c>
@@ -44175,7 +44192,7 @@
       <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="194"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="38" t="s">
         <v>777</v>
       </c>
@@ -44191,7 +44208,7 @@
       <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="193"/>
+      <c r="A47" s="195"/>
       <c r="B47" s="40" t="s">
         <v>778</v>
       </c>
@@ -44260,7 +44277,7 @@
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="197" t="s">
         <v>377</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -44271,7 +44288,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="197"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="19" t="s">
         <v>790</v>
       </c>
@@ -44280,7 +44297,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="197"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="19" t="s">
         <v>792</v>
       </c>
@@ -44289,7 +44306,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="196"/>
+      <c r="A7" s="198"/>
       <c r="B7" s="54" t="s">
         <v>794</v>
       </c>
@@ -44299,7 +44316,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="197" t="s">
         <v>796</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -44310,7 +44327,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="197"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="19" t="s">
         <v>799</v>
       </c>
@@ -44319,7 +44336,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="196"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="54" t="s">
         <v>801</v>
       </c>
@@ -44329,7 +44346,7 @@
     </row>
     <row r="12" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="195" t="s">
+      <c r="A13" s="197" t="s">
         <v>803</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -44340,7 +44357,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="196"/>
+      <c r="A14" s="198"/>
       <c r="B14" s="54" t="s">
         <v>806</v>
       </c>
@@ -44350,7 +44367,7 @@
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="197" t="s">
         <v>808</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -44361,7 +44378,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="197"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="19" t="s">
         <v>811</v>
       </c>
@@ -44370,7 +44387,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="196"/>
+      <c r="A18" s="198"/>
       <c r="B18" s="54" t="s">
         <v>813</v>
       </c>
@@ -44380,7 +44397,7 @@
     </row>
     <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="195" t="s">
+      <c r="A20" s="197" t="s">
         <v>815</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -44391,7 +44408,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="196"/>
+      <c r="A21" s="198"/>
       <c r="B21" s="54" t="s">
         <v>786</v>
       </c>
@@ -44399,7 +44416,7 @@
     </row>
     <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="195" t="s">
+      <c r="A23" s="197" t="s">
         <v>818</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -44410,7 +44427,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="196"/>
+      <c r="A24" s="198"/>
       <c r="B24" s="54" t="s">
         <v>821</v>
       </c>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -16198,6 +16198,18 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16205,9 +16217,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16218,6 +16227,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16282,13 +16330,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16299,15 +16356,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16324,54 +16372,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16413,7 +16413,7 @@
         <xdr:cNvPr id="7169" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000011C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16902,10 +16902,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="177" t="s">
+      <c r="A2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="183" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="171" t="s">
@@ -16916,8 +16916,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="171" t="s">
         <v>7</v>
       </c>
@@ -16926,8 +16926,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="177"/>
-      <c r="B4" s="177"/>
+      <c r="A4" s="183"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="171" t="s">
         <v>8</v>
       </c>
@@ -16936,8 +16936,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
-      <c r="B5" s="177"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="171" t="s">
         <v>9</v>
       </c>
@@ -16946,8 +16946,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="170" t="s">
         <v>10</v>
       </c>
@@ -16956,8 +16956,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="171" t="s">
         <v>11</v>
       </c>
@@ -16966,8 +16966,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
-      <c r="B8" s="177"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="171" t="s">
         <v>12</v>
       </c>
@@ -16976,8 +16976,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
-      <c r="B9" s="177"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="171" t="s">
         <v>13</v>
       </c>
@@ -16986,8 +16986,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
-      <c r="B10" s="177"/>
+      <c r="A10" s="183"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="170" t="s">
         <v>14</v>
       </c>
@@ -16996,8 +16996,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
-      <c r="B11" s="177"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="170" t="s">
         <v>15</v>
       </c>
@@ -17006,8 +17006,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="177"/>
-      <c r="B12" s="177"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="170" t="s">
         <v>16</v>
       </c>
@@ -17016,8 +17016,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="177"/>
-      <c r="B13" s="177"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
       <c r="C13" s="170" t="s">
         <v>17</v>
       </c>
@@ -17026,14 +17026,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="177"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="186"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="177"/>
-      <c r="B15" s="177" t="s">
+      <c r="A15" s="183"/>
+      <c r="B15" s="183" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17044,8 +17044,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
-      <c r="B16" s="177"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -17054,8 +17054,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="177"/>
-      <c r="B17" s="177"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -17064,8 +17064,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="177"/>
-      <c r="B18" s="177"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="183"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -17074,8 +17074,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
-      <c r="B19" s="177"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -17084,8 +17084,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
-      <c r="B20" s="177"/>
+      <c r="A20" s="183"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -17094,8 +17094,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17104,14 +17104,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="177"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="176"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="186"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="177"/>
-      <c r="B23" s="177" t="s">
+      <c r="A23" s="183"/>
+      <c r="B23" s="183" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17122,8 +17122,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
-      <c r="B24" s="177"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17132,8 +17132,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
-      <c r="B25" s="177"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17142,8 +17142,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
-      <c r="B26" s="177"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17152,8 +17152,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="177"/>
-      <c r="B27" s="177"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17162,8 +17162,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
-      <c r="B28" s="177"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="183"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17172,8 +17172,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="177"/>
-      <c r="B29" s="177"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="183"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17182,8 +17182,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="177"/>
-      <c r="B30" s="177"/>
+      <c r="A30" s="183"/>
+      <c r="B30" s="183"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17192,8 +17192,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
-      <c r="B31" s="177"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17202,8 +17202,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
-      <c r="B32" s="177"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17212,8 +17212,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="177"/>
-      <c r="B33" s="177"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17222,8 +17222,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="177"/>
-      <c r="B34" s="177"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="183"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17232,14 +17232,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="177"/>
-      <c r="B35" s="174"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="186"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="177"/>
-      <c r="B36" s="177" t="s">
+      <c r="A36" s="183"/>
+      <c r="B36" s="183" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17250,8 +17250,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="177"/>
-      <c r="B37" s="177"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="183"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17260,8 +17260,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="177"/>
-      <c r="B38" s="177"/>
+      <c r="A38" s="183"/>
+      <c r="B38" s="183"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17270,8 +17270,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="177"/>
-      <c r="B39" s="177"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="183"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17280,8 +17280,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="177"/>
-      <c r="B40" s="177"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17290,8 +17290,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="177"/>
-      <c r="B41" s="177"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="183"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17300,8 +17300,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="177"/>
-      <c r="B42" s="177"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="183"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17310,8 +17310,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="177"/>
-      <c r="B43" s="177"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17320,8 +17320,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="177"/>
-      <c r="B44" s="177"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="183"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17330,8 +17330,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="177"/>
-      <c r="B45" s="177"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="183"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17340,8 +17340,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="177"/>
-      <c r="B46" s="177"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17350,8 +17350,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="177"/>
-      <c r="B47" s="177"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="183"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17360,8 +17360,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="177"/>
-      <c r="B48" s="177"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="183"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17370,8 +17370,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="177"/>
-      <c r="B49" s="177"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="183"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17380,8 +17380,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="177"/>
-      <c r="B50" s="177"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="183"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17390,8 +17390,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="177"/>
-      <c r="B51" s="177"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="183"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17400,14 +17400,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="177"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="176"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="186"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="177"/>
-      <c r="B53" s="177" t="s">
+      <c r="A53" s="183"/>
+      <c r="B53" s="183" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17418,8 +17418,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="177"/>
-      <c r="B54" s="177"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="183"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17428,8 +17428,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="177"/>
-      <c r="B55" s="177"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="183"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="177"/>
-      <c r="B56" s="177"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="183"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17448,8 +17448,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="177"/>
-      <c r="B57" s="177"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="183"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17458,8 +17458,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="177"/>
-      <c r="B58" s="177"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17468,8 +17468,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="177"/>
-      <c r="B59" s="177"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="183"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17478,16 +17478,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="174"/>
-      <c r="B60" s="175"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="176"/>
+      <c r="A60" s="184"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="185"/>
+      <c r="D60" s="186"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="177" t="s">
+      <c r="A61" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="177" t="s">
+      <c r="B61" s="183" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17498,8 +17498,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="177"/>
-      <c r="B62" s="177"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17508,8 +17508,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="177"/>
-      <c r="B63" s="177"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17518,8 +17518,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="177"/>
-      <c r="B64" s="177"/>
+      <c r="A64" s="183"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17528,8 +17528,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="177"/>
-      <c r="B65" s="177"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17538,8 +17538,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="177"/>
-      <c r="B66" s="177"/>
+      <c r="A66" s="183"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17548,14 +17548,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="177"/>
-      <c r="B67" s="174"/>
-      <c r="C67" s="175"/>
-      <c r="D67" s="176"/>
+      <c r="A67" s="183"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="186"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="177"/>
-      <c r="B68" s="177" t="s">
+      <c r="A68" s="183"/>
+      <c r="B68" s="183" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17566,8 +17566,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="177"/>
-      <c r="B69" s="177"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="183"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17576,8 +17576,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="177"/>
-      <c r="B70" s="177"/>
+      <c r="A70" s="183"/>
+      <c r="B70" s="183"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17586,8 +17586,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="177"/>
-      <c r="B71" s="177"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="183"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17596,8 +17596,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="177"/>
-      <c r="B72" s="177"/>
+      <c r="A72" s="183"/>
+      <c r="B72" s="183"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17606,8 +17606,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="177"/>
-      <c r="B73" s="177"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="183"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17616,8 +17616,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="177"/>
-      <c r="B74" s="177"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="183"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17626,8 +17626,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="177"/>
-      <c r="B75" s="177"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="183"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17636,8 +17636,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="177"/>
-      <c r="B76" s="177"/>
+      <c r="A76" s="183"/>
+      <c r="B76" s="183"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17646,8 +17646,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="177"/>
-      <c r="B77" s="177"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="183"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17656,14 +17656,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="177"/>
-      <c r="B78" s="174"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="176"/>
+      <c r="A78" s="183"/>
+      <c r="B78" s="184"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="186"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="177"/>
-      <c r="B79" s="177" t="s">
+      <c r="A79" s="183"/>
+      <c r="B79" s="183" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17674,8 +17674,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="177"/>
-      <c r="B80" s="177"/>
+      <c r="A80" s="183"/>
+      <c r="B80" s="183"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17684,8 +17684,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="177"/>
-      <c r="B81" s="177"/>
+      <c r="A81" s="183"/>
+      <c r="B81" s="183"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17694,8 +17694,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="177"/>
-      <c r="B82" s="177"/>
+      <c r="A82" s="183"/>
+      <c r="B82" s="183"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17704,8 +17704,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="177"/>
-      <c r="B83" s="177"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="183"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17714,8 +17714,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="177"/>
-      <c r="B84" s="177"/>
+      <c r="A84" s="183"/>
+      <c r="B84" s="183"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17724,14 +17724,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="177"/>
-      <c r="B85" s="174"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="176"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="186"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="177"/>
-      <c r="B86" s="177" t="s">
+      <c r="A86" s="183"/>
+      <c r="B86" s="183" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17742,8 +17742,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="177"/>
-      <c r="B87" s="177"/>
+      <c r="A87" s="183"/>
+      <c r="B87" s="183"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17752,8 +17752,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="177"/>
-      <c r="B88" s="177"/>
+      <c r="A88" s="183"/>
+      <c r="B88" s="183"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17762,8 +17762,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="177"/>
-      <c r="B89" s="177"/>
+      <c r="A89" s="183"/>
+      <c r="B89" s="183"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17772,16 +17772,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="174"/>
-      <c r="B90" s="175"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="176"/>
+      <c r="A90" s="184"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="185"/>
+      <c r="D90" s="186"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="177" t="s">
+      <c r="A91" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="177" t="s">
+      <c r="B91" s="183" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17792,8 +17792,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="177"/>
-      <c r="B92" s="177"/>
+      <c r="A92" s="183"/>
+      <c r="B92" s="183"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17802,8 +17802,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="177"/>
-      <c r="B93" s="177"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="183"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17812,8 +17812,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="177"/>
-      <c r="B94" s="177"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="183"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17822,8 +17822,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="177"/>
-      <c r="B95" s="177"/>
+      <c r="A95" s="183"/>
+      <c r="B95" s="183"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17832,8 +17832,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="177"/>
-      <c r="B96" s="177"/>
+      <c r="A96" s="183"/>
+      <c r="B96" s="183"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17842,8 +17842,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="177"/>
-      <c r="B97" s="177"/>
+      <c r="A97" s="183"/>
+      <c r="B97" s="183"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17852,8 +17852,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="177"/>
-      <c r="B98" s="177"/>
+      <c r="A98" s="183"/>
+      <c r="B98" s="183"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17862,8 +17862,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="177"/>
-      <c r="B99" s="177"/>
+      <c r="A99" s="183"/>
+      <c r="B99" s="183"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17872,8 +17872,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="177"/>
-      <c r="B100" s="177"/>
+      <c r="A100" s="183"/>
+      <c r="B100" s="183"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17882,8 +17882,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="177"/>
-      <c r="B101" s="177"/>
+      <c r="A101" s="183"/>
+      <c r="B101" s="183"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17892,8 +17892,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="177"/>
-      <c r="B102" s="177"/>
+      <c r="A102" s="183"/>
+      <c r="B102" s="183"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17902,8 +17902,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="177"/>
-      <c r="B103" s="177"/>
+      <c r="A103" s="183"/>
+      <c r="B103" s="183"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17912,8 +17912,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="177"/>
-      <c r="B104" s="177"/>
+      <c r="A104" s="183"/>
+      <c r="B104" s="183"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17922,8 +17922,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="177"/>
-      <c r="B105" s="177"/>
+      <c r="A105" s="183"/>
+      <c r="B105" s="183"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17932,8 +17932,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="177"/>
-      <c r="B106" s="177"/>
+      <c r="A106" s="183"/>
+      <c r="B106" s="183"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17942,8 +17942,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="177"/>
-      <c r="B107" s="177"/>
+      <c r="A107" s="183"/>
+      <c r="B107" s="183"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17952,8 +17952,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="177"/>
-      <c r="B108" s="177"/>
+      <c r="A108" s="183"/>
+      <c r="B108" s="183"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17962,8 +17962,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="177"/>
-      <c r="B109" s="177"/>
+      <c r="A109" s="183"/>
+      <c r="B109" s="183"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17972,8 +17972,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="177"/>
-      <c r="B110" s="177"/>
+      <c r="A110" s="183"/>
+      <c r="B110" s="183"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17982,16 +17982,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="174"/>
-      <c r="B111" s="175"/>
-      <c r="C111" s="175"/>
-      <c r="D111" s="176"/>
+      <c r="A111" s="184"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="185"/>
+      <c r="D111" s="186"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="177" t="s">
+      <c r="A112" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="177" t="s">
+      <c r="B112" s="183" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -18002,8 +18002,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="177"/>
-      <c r="B113" s="177"/>
+      <c r="A113" s="183"/>
+      <c r="B113" s="183"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -18012,8 +18012,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="177"/>
-      <c r="B114" s="177"/>
+      <c r="A114" s="183"/>
+      <c r="B114" s="183"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -18022,8 +18022,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="177"/>
-      <c r="B115" s="177"/>
+      <c r="A115" s="183"/>
+      <c r="B115" s="183"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -18032,8 +18032,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="177"/>
-      <c r="B116" s="177"/>
+      <c r="A116" s="183"/>
+      <c r="B116" s="183"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -18042,8 +18042,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="177"/>
-      <c r="B117" s="177"/>
+      <c r="A117" s="183"/>
+      <c r="B117" s="183"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -18053,18 +18053,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -18078,6 +18066,18 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18114,7 +18114,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="218" t="s">
         <v>915</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -18125,7 +18125,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="198"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="19" t="s">
         <v>835</v>
       </c>
@@ -18134,7 +18134,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="198"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="19" t="s">
         <v>836</v>
       </c>
@@ -18143,7 +18143,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="198"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="19" t="s">
         <v>838</v>
       </c>
@@ -18152,7 +18152,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="198"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="19" t="s">
         <v>839</v>
       </c>
@@ -18161,7 +18161,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="198"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="19" t="s">
         <v>840</v>
       </c>
@@ -18170,7 +18170,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="198"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="19" t="s">
         <v>841</v>
       </c>
@@ -18179,7 +18179,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="198"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="19" t="s">
         <v>842</v>
       </c>
@@ -18188,7 +18188,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="198"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="19" t="s">
         <v>843</v>
       </c>
@@ -18197,7 +18197,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="198"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="19" t="s">
         <v>844</v>
       </c>
@@ -18206,7 +18206,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="19" t="s">
         <v>845</v>
       </c>
@@ -18215,7 +18215,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="198"/>
+      <c r="A14" s="220"/>
       <c r="B14" s="19" t="s">
         <v>846</v>
       </c>
@@ -18224,7 +18224,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="198"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="19" t="s">
         <v>847</v>
       </c>
@@ -18233,7 +18233,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="198"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="19" t="s">
         <v>848</v>
       </c>
@@ -18242,7 +18242,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="198"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="19" t="s">
         <v>849</v>
       </c>
@@ -18251,7 +18251,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="197"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="54" t="s">
         <v>850</v>
       </c>
@@ -18260,7 +18260,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="196" t="s">
+      <c r="A20" s="218" t="s">
         <v>828</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -18271,7 +18271,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="198"/>
+      <c r="A21" s="220"/>
       <c r="B21" s="19" t="s">
         <v>852</v>
       </c>
@@ -18280,7 +18280,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="198"/>
+      <c r="A22" s="220"/>
       <c r="B22" s="19" t="s">
         <v>853</v>
       </c>
@@ -18289,7 +18289,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="198"/>
+      <c r="A23" s="220"/>
       <c r="B23" s="19" t="s">
         <v>854</v>
       </c>
@@ -18298,7 +18298,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="198"/>
+      <c r="A24" s="220"/>
       <c r="B24" s="19" t="s">
         <v>855</v>
       </c>
@@ -18307,7 +18307,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="198"/>
+      <c r="A25" s="220"/>
       <c r="B25" s="19" t="s">
         <v>856</v>
       </c>
@@ -18316,7 +18316,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="198"/>
+      <c r="A26" s="220"/>
       <c r="B26" s="19" t="s">
         <v>857</v>
       </c>
@@ -18325,7 +18325,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="198"/>
+      <c r="A27" s="220"/>
       <c r="B27" s="19" t="s">
         <v>858</v>
       </c>
@@ -18334,7 +18334,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="198"/>
+      <c r="A28" s="220"/>
       <c r="B28" s="19" t="s">
         <v>859</v>
       </c>
@@ -18343,7 +18343,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="197"/>
+      <c r="A29" s="219"/>
       <c r="B29" s="54" t="s">
         <v>860</v>
       </c>
@@ -18352,7 +18352,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="196" t="s">
+      <c r="A31" s="218" t="s">
         <v>829</v>
       </c>
       <c r="B31" s="49" t="s">
@@ -18363,7 +18363,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="198"/>
+      <c r="A32" s="220"/>
       <c r="B32" s="19" t="s">
         <v>862</v>
       </c>
@@ -18372,7 +18372,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="198"/>
+      <c r="A33" s="220"/>
       <c r="B33" s="19" t="s">
         <v>863</v>
       </c>
@@ -18381,7 +18381,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="198"/>
+      <c r="A34" s="220"/>
       <c r="B34" s="19" t="s">
         <v>864</v>
       </c>
@@ -18390,7 +18390,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="198"/>
+      <c r="A35" s="220"/>
       <c r="B35" s="19" t="s">
         <v>865</v>
       </c>
@@ -18399,7 +18399,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="198"/>
+      <c r="A36" s="220"/>
       <c r="B36" s="19" t="s">
         <v>866</v>
       </c>
@@ -18408,7 +18408,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="198"/>
+      <c r="A37" s="220"/>
       <c r="B37" s="19" t="s">
         <v>867</v>
       </c>
@@ -18417,7 +18417,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="197"/>
+      <c r="A38" s="219"/>
       <c r="B38" s="54" t="s">
         <v>868</v>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="196" t="s">
+      <c r="A40" s="218" t="s">
         <v>830</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -18437,7 +18437,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="198"/>
+      <c r="A41" s="220"/>
       <c r="B41" s="19" t="s">
         <v>870</v>
       </c>
@@ -18446,7 +18446,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" s="198"/>
+      <c r="A42" s="220"/>
       <c r="B42" s="19" t="s">
         <v>871</v>
       </c>
@@ -18455,7 +18455,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="198"/>
+      <c r="A43" s="220"/>
       <c r="B43" s="19" t="s">
         <v>872</v>
       </c>
@@ -18464,7 +18464,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="198"/>
+      <c r="A44" s="220"/>
       <c r="B44" s="19" t="s">
         <v>873</v>
       </c>
@@ -18473,7 +18473,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" s="198"/>
+      <c r="A45" s="220"/>
       <c r="B45" s="19" t="s">
         <v>874</v>
       </c>
@@ -18482,7 +18482,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="198"/>
+      <c r="A46" s="220"/>
       <c r="B46" s="19" t="s">
         <v>875</v>
       </c>
@@ -18491,7 +18491,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="198"/>
+      <c r="A47" s="220"/>
       <c r="B47" s="19" t="s">
         <v>876</v>
       </c>
@@ -18500,7 +18500,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="198"/>
+      <c r="A48" s="220"/>
       <c r="B48" s="19" t="s">
         <v>877</v>
       </c>
@@ -18509,7 +18509,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="198"/>
+      <c r="A49" s="220"/>
       <c r="B49" s="19" t="s">
         <v>878</v>
       </c>
@@ -18518,7 +18518,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="198"/>
+      <c r="A50" s="220"/>
       <c r="B50" s="19" t="s">
         <v>879</v>
       </c>
@@ -18527,7 +18527,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="198"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="19" t="s">
         <v>880</v>
       </c>
@@ -18536,7 +18536,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="197"/>
+      <c r="A52" s="219"/>
       <c r="B52" s="54" t="s">
         <v>881</v>
       </c>
@@ -18545,7 +18545,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="196" t="s">
+      <c r="A54" s="218" t="s">
         <v>831</v>
       </c>
       <c r="B54" s="49" t="s">
@@ -18556,7 +18556,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="198"/>
+      <c r="A55" s="220"/>
       <c r="B55" s="19" t="s">
         <v>883</v>
       </c>
@@ -18565,7 +18565,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="198"/>
+      <c r="A56" s="220"/>
       <c r="B56" s="19" t="s">
         <v>884</v>
       </c>
@@ -18574,7 +18574,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="198"/>
+      <c r="A57" s="220"/>
       <c r="B57" s="19" t="s">
         <v>885</v>
       </c>
@@ -18583,7 +18583,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="198"/>
+      <c r="A58" s="220"/>
       <c r="B58" s="19" t="s">
         <v>886</v>
       </c>
@@ -18592,7 +18592,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="198"/>
+      <c r="A59" s="220"/>
       <c r="B59" s="19" t="s">
         <v>887</v>
       </c>
@@ -18601,7 +18601,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="198"/>
+      <c r="A60" s="220"/>
       <c r="B60" s="19" t="s">
         <v>888</v>
       </c>
@@ -18610,7 +18610,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="198"/>
+      <c r="A61" s="220"/>
       <c r="B61" s="19" t="s">
         <v>889</v>
       </c>
@@ -18619,7 +18619,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="198"/>
+      <c r="A62" s="220"/>
       <c r="B62" s="19" t="s">
         <v>890</v>
       </c>
@@ -18628,7 +18628,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="198"/>
+      <c r="A63" s="220"/>
       <c r="B63" s="19" t="s">
         <v>891</v>
       </c>
@@ -18637,7 +18637,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="198"/>
+      <c r="A64" s="220"/>
       <c r="B64" s="19" t="s">
         <v>892</v>
       </c>
@@ -18646,7 +18646,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="198"/>
+      <c r="A65" s="220"/>
       <c r="B65" s="19" t="s">
         <v>893</v>
       </c>
@@ -18655,7 +18655,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="198"/>
+      <c r="A66" s="220"/>
       <c r="B66" s="19" t="s">
         <v>894</v>
       </c>
@@ -18664,7 +18664,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="198"/>
+      <c r="A67" s="220"/>
       <c r="B67" s="19" t="s">
         <v>895</v>
       </c>
@@ -18673,7 +18673,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="198"/>
+      <c r="A68" s="220"/>
       <c r="B68" s="19" t="s">
         <v>896</v>
       </c>
@@ -18682,7 +18682,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A69" s="198"/>
+      <c r="A69" s="220"/>
       <c r="B69" s="19" t="s">
         <v>897</v>
       </c>
@@ -18691,7 +18691,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="198"/>
+      <c r="A70" s="220"/>
       <c r="B70" s="19" t="s">
         <v>898</v>
       </c>
@@ -18700,7 +18700,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="198"/>
+      <c r="A71" s="220"/>
       <c r="B71" s="19" t="s">
         <v>899</v>
       </c>
@@ -18709,7 +18709,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="198"/>
+      <c r="A72" s="220"/>
       <c r="B72" s="19" t="s">
         <v>900</v>
       </c>
@@ -18718,7 +18718,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="197"/>
+      <c r="A73" s="219"/>
       <c r="B73" s="54" t="s">
         <v>901</v>
       </c>
@@ -18727,7 +18727,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="196" t="s">
+      <c r="A75" s="218" t="s">
         <v>832</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -18738,7 +18738,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="198"/>
+      <c r="A76" s="220"/>
       <c r="B76" s="19" t="s">
         <v>903</v>
       </c>
@@ -18747,7 +18747,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="198"/>
+      <c r="A77" s="220"/>
       <c r="B77" s="19" t="s">
         <v>904</v>
       </c>
@@ -18756,7 +18756,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="198"/>
+      <c r="A78" s="220"/>
       <c r="B78" s="19" t="s">
         <v>905</v>
       </c>
@@ -18765,7 +18765,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="198"/>
+      <c r="A79" s="220"/>
       <c r="B79" s="19" t="s">
         <v>906</v>
       </c>
@@ -18774,7 +18774,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="198"/>
+      <c r="A80" s="220"/>
       <c r="B80" s="19" t="s">
         <v>907</v>
       </c>
@@ -18783,7 +18783,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="198"/>
+      <c r="A81" s="220"/>
       <c r="B81" s="19" t="s">
         <v>908</v>
       </c>
@@ -18792,7 +18792,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="198"/>
+      <c r="A82" s="220"/>
       <c r="B82" s="19" t="s">
         <v>909</v>
       </c>
@@ -18801,7 +18801,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="198"/>
+      <c r="A83" s="220"/>
       <c r="B83" s="19" t="s">
         <v>910</v>
       </c>
@@ -18810,7 +18810,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="198"/>
+      <c r="A84" s="220"/>
       <c r="B84" s="19" t="s">
         <v>911</v>
       </c>
@@ -18819,7 +18819,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="198"/>
+      <c r="A85" s="220"/>
       <c r="B85" s="19" t="s">
         <v>912</v>
       </c>
@@ -18828,7 +18828,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="198"/>
+      <c r="A86" s="220"/>
       <c r="B86" s="19" t="s">
         <v>913</v>
       </c>
@@ -18837,7 +18837,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="197"/>
+      <c r="A87" s="219"/>
       <c r="B87" s="54" t="s">
         <v>914</v>
       </c>
@@ -18884,7 +18884,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="218" t="s">
         <v>918</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -18892,38 +18892,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="198"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="52" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="198"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="52" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="198"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="52" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="198"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="52" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="197"/>
+      <c r="A7" s="219"/>
       <c r="B7" s="55" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="218" t="s">
         <v>377</v>
       </c>
       <c r="B9" s="50" t="s">
@@ -18931,98 +18931,98 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="198"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="52" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="198"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="52" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="198"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="52" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="52" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="198"/>
+      <c r="A14" s="220"/>
       <c r="B14" s="52" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="198"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="52" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="198"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="52" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="198"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="52" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="198"/>
+      <c r="A18" s="220"/>
       <c r="B18" s="52" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="198"/>
+      <c r="A19" s="220"/>
       <c r="B19" s="52" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="198"/>
+      <c r="A20" s="220"/>
       <c r="B20" s="52" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="198"/>
+      <c r="A21" s="220"/>
       <c r="B21" s="52" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="198"/>
+      <c r="A22" s="220"/>
       <c r="B22" s="52" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="198"/>
+      <c r="A23" s="220"/>
       <c r="B23" s="52" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="197"/>
+      <c r="A24" s="219"/>
       <c r="B24" s="55" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="196" t="s">
+      <c r="A26" s="218" t="s">
         <v>796</v>
       </c>
       <c r="B26" s="56" t="s">
@@ -19030,86 +19030,86 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="198"/>
+      <c r="A27" s="220"/>
       <c r="B27" s="58" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="198"/>
+      <c r="A28" s="220"/>
       <c r="B28" s="58" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="198"/>
+      <c r="A29" s="220"/>
       <c r="B29" s="58" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="198"/>
+      <c r="A30" s="220"/>
       <c r="B30" s="58" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="198"/>
+      <c r="A31" s="220"/>
       <c r="B31" s="58" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="198"/>
+      <c r="A32" s="220"/>
       <c r="B32" s="58" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="198"/>
+      <c r="A33" s="220"/>
       <c r="B33" s="58" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="198"/>
+      <c r="A34" s="220"/>
       <c r="B34" s="58" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="198"/>
+      <c r="A35" s="220"/>
       <c r="B35" s="58" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="198"/>
+      <c r="A36" s="220"/>
       <c r="B36" s="58" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="198"/>
+      <c r="A37" s="220"/>
       <c r="B37" s="58" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="198"/>
+      <c r="A38" s="220"/>
       <c r="B38" s="58" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="197"/>
+      <c r="A39" s="219"/>
       <c r="B39" s="57" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="196" t="s">
+      <c r="A41" s="218" t="s">
         <v>808</v>
       </c>
       <c r="B41" s="50" t="s">
@@ -19117,110 +19117,110 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="198"/>
+      <c r="A42" s="220"/>
       <c r="B42" s="52" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="198"/>
+      <c r="A43" s="220"/>
       <c r="B43" s="52" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="198"/>
+      <c r="A44" s="220"/>
       <c r="B44" s="52" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="198"/>
+      <c r="A45" s="220"/>
       <c r="B45" s="52" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="198"/>
+      <c r="A46" s="220"/>
       <c r="B46" s="52" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="198"/>
+      <c r="A47" s="220"/>
       <c r="B47" s="52" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="198"/>
+      <c r="A48" s="220"/>
       <c r="B48" s="52" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="198"/>
+      <c r="A49" s="220"/>
       <c r="B49" s="52" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="198"/>
+      <c r="A50" s="220"/>
       <c r="B50" s="52" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="198"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="52" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="198"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="52" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="198"/>
+      <c r="A53" s="220"/>
       <c r="B53" s="52" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="198"/>
+      <c r="A54" s="220"/>
       <c r="B54" s="52" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="198"/>
+      <c r="A55" s="220"/>
       <c r="B55" s="52" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="198"/>
+      <c r="A56" s="220"/>
       <c r="B56" s="52" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="198"/>
+      <c r="A57" s="220"/>
       <c r="B57" s="52" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="197"/>
+      <c r="A58" s="219"/>
       <c r="B58" s="55" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="199" t="s">
+      <c r="A60" s="221" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="50" t="s">
@@ -19228,67 +19228,67 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="200"/>
+      <c r="A61" s="222"/>
       <c r="B61" s="52" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="200"/>
+      <c r="A62" s="222"/>
       <c r="B62" s="52" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="200"/>
+      <c r="A63" s="222"/>
       <c r="B63" s="52" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="200"/>
+      <c r="A64" s="222"/>
       <c r="B64" s="52" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="200"/>
+      <c r="A65" s="222"/>
       <c r="B65" s="52" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="200"/>
+      <c r="A66" s="222"/>
       <c r="B66" s="52" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="200"/>
+      <c r="A67" s="222"/>
       <c r="B67" s="52" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="200"/>
+      <c r="A68" s="222"/>
       <c r="B68" s="52" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="200"/>
+      <c r="A69" s="222"/>
       <c r="B69" s="52" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="200"/>
+      <c r="A70" s="222"/>
       <c r="B70" s="52" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="201"/>
+      <c r="A71" s="223"/>
       <c r="B71" s="55" t="s">
         <v>982</v>
       </c>
@@ -19304,7 +19304,7 @@
     </row>
     <row r="74" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="196" t="s">
+      <c r="A75" s="218" t="s">
         <v>985</v>
       </c>
       <c r="B75" s="50" t="s">
@@ -19312,19 +19312,19 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="198"/>
+      <c r="A76" s="220"/>
       <c r="B76" s="52" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="198"/>
+      <c r="A77" s="220"/>
       <c r="B77" s="52" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="197"/>
+      <c r="A78" s="219"/>
       <c r="B78" s="55" t="s">
         <v>989</v>
       </c>
@@ -19381,7 +19381,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="218" t="s">
         <v>1005</v>
       </c>
       <c r="B3" s="49" t="s">
@@ -19395,7 +19395,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="198"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="19" t="s">
         <v>997</v>
       </c>
@@ -19405,7 +19405,7 @@
       <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="198"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="19" t="s">
         <v>998</v>
       </c>
@@ -19415,7 +19415,7 @@
       <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="198"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="19" t="s">
         <v>997</v>
       </c>
@@ -19423,7 +19423,7 @@
       <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="198"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="19" t="s">
         <v>999</v>
       </c>
@@ -19431,7 +19431,7 @@
       <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="198"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="19" t="s">
         <v>997</v>
       </c>
@@ -19439,7 +19439,7 @@
       <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="198"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="19" t="s">
         <v>1000</v>
       </c>
@@ -19447,7 +19447,7 @@
       <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="198"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="19" t="s">
         <v>997</v>
       </c>
@@ -19455,7 +19455,7 @@
       <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="198"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="19" t="s">
         <v>1001</v>
       </c>
@@ -19463,7 +19463,7 @@
       <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="197"/>
+      <c r="A12" s="219"/>
       <c r="B12" s="54" t="s">
         <v>997</v>
       </c>
@@ -19471,7 +19471,7 @@
       <c r="D12" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="196" t="s">
+      <c r="A14" s="218" t="s">
         <v>1006</v>
       </c>
       <c r="B14" s="49" t="s">
@@ -19483,7 +19483,7 @@
       <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="198"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="19" t="s">
         <v>1008</v>
       </c>
@@ -19493,7 +19493,7 @@
       <c r="D15" s="52"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="198"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="19" t="s">
         <v>1009</v>
       </c>
@@ -19503,7 +19503,7 @@
       <c r="D16" s="52"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="198"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="19" t="s">
         <v>1010</v>
       </c>
@@ -19513,7 +19513,7 @@
       <c r="D17" s="52"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="198"/>
+      <c r="A18" s="220"/>
       <c r="B18" s="19" t="s">
         <v>1011</v>
       </c>
@@ -19521,7 +19521,7 @@
       <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="197"/>
+      <c r="A19" s="219"/>
       <c r="B19" s="54" t="s">
         <v>997</v>
       </c>
@@ -19534,7 +19534,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="175.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="196" t="s">
+      <c r="A22" s="218" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="49" t="s">
@@ -19548,7 +19548,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="198"/>
+      <c r="A23" s="220"/>
       <c r="B23" s="19" t="s">
         <v>1017</v>
       </c>
@@ -19558,7 +19558,7 @@
       <c r="D23" s="52"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="198"/>
+      <c r="A24" s="220"/>
       <c r="B24" s="19" t="s">
         <v>1018</v>
       </c>
@@ -19568,7 +19568,7 @@
       <c r="D24" s="52"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="197"/>
+      <c r="A25" s="219"/>
       <c r="B25" s="54" t="s">
         <v>1017</v>
       </c>
@@ -19583,7 +19583,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" s="61" customFormat="1" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="196" t="s">
+      <c r="A28" s="218" t="s">
         <v>1036</v>
       </c>
       <c r="B28" s="62" t="s">
@@ -19597,7 +19597,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="198"/>
+      <c r="A29" s="220"/>
       <c r="B29" s="19" t="s">
         <v>1021</v>
       </c>
@@ -19605,7 +19605,7 @@
       <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="198"/>
+      <c r="A30" s="220"/>
       <c r="B30" s="19" t="s">
         <v>1022</v>
       </c>
@@ -19613,7 +19613,7 @@
       <c r="D30" s="52"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="197"/>
+      <c r="A31" s="219"/>
       <c r="B31" s="54" t="s">
         <v>1023</v>
       </c>
@@ -19621,7 +19621,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="202" t="s">
+      <c r="A33" s="227" t="s">
         <v>1039</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19635,7 +19635,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="204"/>
+      <c r="A34" s="228"/>
       <c r="B34" s="19" t="s">
         <v>1025</v>
       </c>
@@ -19643,7 +19643,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="204"/>
+      <c r="A35" s="228"/>
       <c r="B35" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19651,7 +19651,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="204"/>
+      <c r="A36" s="228"/>
       <c r="B36" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19659,7 +19659,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="204"/>
+      <c r="A37" s="228"/>
       <c r="B37" s="19" t="s">
         <v>997</v>
       </c>
@@ -19667,7 +19667,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="203"/>
+      <c r="A38" s="229"/>
       <c r="B38" s="54" t="s">
         <v>1027</v>
       </c>
@@ -19675,7 +19675,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="202" t="s">
+      <c r="A40" s="227" t="s">
         <v>1041</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19687,7 +19687,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="203"/>
+      <c r="A41" s="229"/>
       <c r="B41" s="54" t="s">
         <v>1029</v>
       </c>
@@ -19700,7 +19700,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="227" t="s">
         <v>1043</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19714,7 +19714,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="204"/>
+      <c r="A45" s="228"/>
       <c r="B45" s="19" t="s">
         <v>1031</v>
       </c>
@@ -19722,7 +19722,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="204"/>
+      <c r="A46" s="228"/>
       <c r="B46" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19730,7 +19730,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="204"/>
+      <c r="A47" s="228"/>
       <c r="B47" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19738,7 +19738,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="204"/>
+      <c r="A48" s="228"/>
       <c r="B48" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="204"/>
+      <c r="A49" s="228"/>
       <c r="B49" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19754,7 +19754,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="203"/>
+      <c r="A50" s="229"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19766,7 +19766,7 @@
       <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" ht="81" x14ac:dyDescent="0.15">
-      <c r="A52" s="196" t="s">
+      <c r="A52" s="218" t="s">
         <v>1046</v>
       </c>
       <c r="B52" s="49" t="s">
@@ -19778,7 +19778,7 @@
       <c r="D52" s="50"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="198"/>
+      <c r="A53" s="220"/>
       <c r="B53" s="19" t="s">
         <v>1048</v>
       </c>
@@ -19786,7 +19786,7 @@
       <c r="D53" s="52"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="198"/>
+      <c r="A54" s="220"/>
       <c r="B54" s="19" t="s">
         <v>1049</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="D54" s="52"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="198"/>
+      <c r="A55" s="220"/>
       <c r="B55" s="19" t="s">
         <v>1050</v>
       </c>
@@ -19802,7 +19802,7 @@
       <c r="D55" s="52"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="197"/>
+      <c r="A56" s="219"/>
       <c r="B56" s="54" t="s">
         <v>1051</v>
       </c>
@@ -19815,7 +19815,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="205" t="s">
+      <c r="A59" s="230" t="s">
         <v>418</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19829,7 +19829,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="206"/>
+      <c r="A60" s="231"/>
       <c r="B60" s="19" t="s">
         <v>1054</v>
       </c>
@@ -19837,7 +19837,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="207"/>
+      <c r="A61" s="232"/>
       <c r="B61" s="54" t="s">
         <v>1055</v>
       </c>
@@ -19850,7 +19850,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="196" t="s">
+      <c r="A64" s="218" t="s">
         <v>489</v>
       </c>
       <c r="B64" s="49" t="s">
@@ -19864,7 +19864,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="198"/>
+      <c r="A65" s="220"/>
       <c r="B65" s="19" t="s">
         <v>1059</v>
       </c>
@@ -19876,7 +19876,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="198"/>
+      <c r="A66" s="220"/>
       <c r="B66" s="19" t="s">
         <v>1060</v>
       </c>
@@ -19888,7 +19888,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="198"/>
+      <c r="A67" s="220"/>
       <c r="B67" s="19" t="s">
         <v>1061</v>
       </c>
@@ -19898,7 +19898,7 @@
       <c r="D67" s="52"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="197"/>
+      <c r="A68" s="219"/>
       <c r="B68" s="54" t="s">
         <v>1062</v>
       </c>
@@ -19906,7 +19906,7 @@
       <c r="D68" s="55"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="218" t="s">
         <v>1070</v>
       </c>
       <c r="B70" s="49" t="s">
@@ -19920,7 +19920,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="198"/>
+      <c r="A71" s="220"/>
       <c r="B71" s="19" t="s">
         <v>1072</v>
       </c>
@@ -19932,7 +19932,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="198"/>
+      <c r="A72" s="220"/>
       <c r="B72" s="19" t="s">
         <v>1073</v>
       </c>
@@ -19940,7 +19940,7 @@
       <c r="D72" s="52"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="197"/>
+      <c r="A73" s="219"/>
       <c r="B73" s="54" t="s">
         <v>1074</v>
       </c>
@@ -19948,7 +19948,7 @@
       <c r="D73" s="55"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="196" t="s">
+      <c r="A75" s="218" t="s">
         <v>808</v>
       </c>
       <c r="B75" s="49" t="s">
@@ -19962,7 +19962,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="198"/>
+      <c r="A76" s="220"/>
       <c r="B76" s="19" t="s">
         <v>539</v>
       </c>
@@ -19974,7 +19974,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="198"/>
+      <c r="A77" s="220"/>
       <c r="B77" s="19" t="s">
         <v>1080</v>
       </c>
@@ -19986,7 +19986,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="198"/>
+      <c r="A78" s="220"/>
       <c r="B78" s="19" t="s">
         <v>1081</v>
       </c>
@@ -19996,7 +19996,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="197"/>
+      <c r="A79" s="219"/>
       <c r="B79" s="54" t="s">
         <v>1082</v>
       </c>
@@ -20009,7 +20009,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="208" t="s">
+      <c r="A82" s="224" t="s">
         <v>1090</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -20023,7 +20023,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="209"/>
+      <c r="A83" s="225"/>
       <c r="B83" s="19" t="s">
         <v>1092</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="209"/>
+      <c r="A84" s="225"/>
       <c r="B84" s="19" t="s">
         <v>1093</v>
       </c>
@@ -20039,7 +20039,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="210"/>
+      <c r="A85" s="226"/>
       <c r="B85" s="54" t="s">
         <v>1094</v>
       </c>
@@ -20047,7 +20047,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="208" t="s">
+      <c r="A87" s="224" t="s">
         <v>1100</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -20061,7 +20061,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="209"/>
+      <c r="A88" s="225"/>
       <c r="B88" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20073,7 +20073,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="209"/>
+      <c r="A89" s="225"/>
       <c r="B89" s="19" t="s">
         <v>1103</v>
       </c>
@@ -20085,7 +20085,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="209"/>
+      <c r="A90" s="225"/>
       <c r="B90" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20097,7 +20097,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="209"/>
+      <c r="A91" s="225"/>
       <c r="B91" s="19" t="s">
         <v>1104</v>
       </c>
@@ -20107,7 +20107,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="209"/>
+      <c r="A92" s="225"/>
       <c r="B92" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="209"/>
+      <c r="A93" s="225"/>
       <c r="B93" s="19" t="s">
         <v>535</v>
       </c>
@@ -20123,7 +20123,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="209"/>
+      <c r="A94" s="225"/>
       <c r="B94" s="19" t="s">
         <v>1105</v>
       </c>
@@ -20131,7 +20131,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="210"/>
+      <c r="A95" s="226"/>
       <c r="B95" s="54" t="s">
         <v>1106</v>
       </c>
@@ -20139,7 +20139,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="202" t="s">
+      <c r="A97" s="227" t="s">
         <v>1113</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -20151,7 +20151,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="204"/>
+      <c r="A98" s="228"/>
       <c r="B98" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20161,7 +20161,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="204"/>
+      <c r="A99" s="228"/>
       <c r="B99" s="67" t="s">
         <v>1103</v>
       </c>
@@ -20171,7 +20171,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="204"/>
+      <c r="A100" s="228"/>
       <c r="B100" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20181,7 +20181,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="204"/>
+      <c r="A101" s="228"/>
       <c r="B101" s="67" t="s">
         <v>1104</v>
       </c>
@@ -20191,7 +20191,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="203"/>
+      <c r="A102" s="229"/>
       <c r="B102" s="69" t="s">
         <v>1114</v>
       </c>
@@ -20204,7 +20204,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="135" x14ac:dyDescent="0.15">
-      <c r="A105" s="196" t="s">
+      <c r="A105" s="218" t="s">
         <v>1117</v>
       </c>
       <c r="B105" s="49" t="s">
@@ -20218,7 +20218,7 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="198"/>
+      <c r="A106" s="220"/>
       <c r="B106" s="19" t="s">
         <v>1119</v>
       </c>
@@ -20226,7 +20226,7 @@
       <c r="D106" s="52"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="198"/>
+      <c r="A107" s="220"/>
       <c r="B107" s="19" t="s">
         <v>1120</v>
       </c>
@@ -20234,7 +20234,7 @@
       <c r="D107" s="52"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="198"/>
+      <c r="A108" s="220"/>
       <c r="B108" s="19" t="s">
         <v>1121</v>
       </c>
@@ -20242,7 +20242,7 @@
       <c r="D108" s="52"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="197"/>
+      <c r="A109" s="219"/>
       <c r="B109" s="54" t="s">
         <v>1122</v>
       </c>
@@ -20251,22 +20251,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20298,7 +20298,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="218" t="s">
         <v>1126</v>
       </c>
       <c r="B2" s="50" t="s">
@@ -20306,31 +20306,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="198"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="52" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="198"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="52" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="198"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="52" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="197"/>
+      <c r="A6" s="219"/>
       <c r="B6" s="55" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="218" t="s">
         <v>796</v>
       </c>
       <c r="B8" s="50" t="s">
@@ -20338,19 +20338,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="198"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="52" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="197"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="55" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="196" t="s">
+      <c r="A12" s="218" t="s">
         <v>808</v>
       </c>
       <c r="B12" s="50" t="s">
@@ -20358,13 +20358,13 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="52" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="197"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="55"/>
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -20383,7 +20383,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="196" t="s">
+      <c r="A18" s="218" t="s">
         <v>1138</v>
       </c>
       <c r="B18" s="50" t="s">
@@ -20391,25 +20391,25 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="198"/>
+      <c r="A19" s="220"/>
       <c r="B19" s="52" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="198"/>
+      <c r="A20" s="220"/>
       <c r="B20" s="52" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="197"/>
+      <c r="A21" s="219"/>
       <c r="B21" s="55" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="218" t="s">
         <v>985</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -20417,19 +20417,19 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="198"/>
+      <c r="A24" s="220"/>
       <c r="B24" s="72" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="197"/>
+      <c r="A25" s="219"/>
       <c r="B25" s="73" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="196" t="s">
+      <c r="A27" s="218" t="s">
         <v>1146</v>
       </c>
       <c r="B27" s="50" t="s">
@@ -20437,19 +20437,19 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="198"/>
+      <c r="A28" s="220"/>
       <c r="B28" s="52" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="198"/>
+      <c r="A29" s="220"/>
       <c r="B29" s="52" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="197"/>
+      <c r="A30" s="219"/>
       <c r="B30" s="55" t="s">
         <v>1150</v>
       </c>
@@ -20475,7 +20475,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="196" t="s">
+      <c r="A36" s="218" t="s">
         <v>1155</v>
       </c>
       <c r="B36" s="50" t="s">
@@ -20483,7 +20483,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="197"/>
+      <c r="A37" s="219"/>
       <c r="B37" s="55" t="s">
         <v>1157</v>
       </c>
@@ -20532,7 +20532,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="218" t="s">
         <v>1158</v>
       </c>
       <c r="B2" s="48" t="s">
@@ -20543,28 +20543,28 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="198"/>
+      <c r="A3" s="220"/>
       <c r="B3" s="51"/>
       <c r="C3" s="52" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="198"/>
+      <c r="A4" s="220"/>
       <c r="B4" s="51"/>
       <c r="C4" s="52" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="198"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="53"/>
       <c r="C5" s="55" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="198"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="48" t="s">
         <v>1188</v>
       </c>
@@ -20573,14 +20573,14 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="198"/>
+      <c r="A7" s="220"/>
       <c r="B7" s="53"/>
       <c r="C7" s="55" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="198"/>
+      <c r="A8" s="220"/>
       <c r="B8" s="48" t="s">
         <v>1165</v>
       </c>
@@ -20589,21 +20589,21 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="198"/>
+      <c r="A9" s="220"/>
       <c r="B9" s="51"/>
       <c r="C9" s="52" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="198"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="53"/>
       <c r="C10" s="55" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="198"/>
+      <c r="A11" s="220"/>
       <c r="B11" s="48" t="s">
         <v>1169</v>
       </c>
@@ -20612,21 +20612,21 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="198"/>
+      <c r="A12" s="220"/>
       <c r="B12" s="51"/>
       <c r="C12" s="52" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="198"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="53"/>
       <c r="C13" s="55" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="198"/>
+      <c r="A14" s="220"/>
       <c r="B14" s="48" t="s">
         <v>1173</v>
       </c>
@@ -20635,21 +20635,21 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="198"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="51"/>
       <c r="C15" s="52" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="198"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="53"/>
       <c r="C16" s="55" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="198"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="48" t="s">
         <v>1177</v>
       </c>
@@ -20658,21 +20658,21 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="198"/>
+      <c r="A18" s="220"/>
       <c r="B18" s="51"/>
       <c r="C18" s="52" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="198"/>
+      <c r="A19" s="220"/>
       <c r="B19" s="53"/>
       <c r="C19" s="55" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="198"/>
+      <c r="A20" s="220"/>
       <c r="B20" s="48" t="s">
         <v>1181</v>
       </c>
@@ -20681,14 +20681,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="198"/>
+      <c r="A21" s="220"/>
       <c r="B21" s="53"/>
       <c r="C21" s="55" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="198"/>
+      <c r="A22" s="220"/>
       <c r="B22" s="19" t="s">
         <v>1184</v>
       </c>
@@ -20697,14 +20697,14 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="197"/>
+      <c r="A23" s="219"/>
       <c r="B23" s="54"/>
       <c r="C23" s="55" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="196" t="s">
+      <c r="A25" s="218" t="s">
         <v>1189</v>
       </c>
       <c r="B25" s="48" t="s">
@@ -20716,7 +20716,7 @@
       <c r="D25" s="15"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="198"/>
+      <c r="A26" s="220"/>
       <c r="B26" s="51"/>
       <c r="C26" s="52" t="s">
         <v>1192</v>
@@ -20724,7 +20724,7 @@
       <c r="D26" s="15"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="198"/>
+      <c r="A27" s="220"/>
       <c r="B27" s="51"/>
       <c r="C27" s="52" t="s">
         <v>1193</v>
@@ -20732,7 +20732,7 @@
       <c r="D27" s="15"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="198"/>
+      <c r="A28" s="220"/>
       <c r="B28" s="51"/>
       <c r="C28" s="52" t="s">
         <v>1194</v>
@@ -20740,7 +20740,7 @@
       <c r="D28" s="15"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="198"/>
+      <c r="A29" s="220"/>
       <c r="B29" s="53"/>
       <c r="C29" s="55" t="s">
         <v>1195</v>
@@ -20748,7 +20748,7 @@
       <c r="D29" s="15"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="198"/>
+      <c r="A30" s="220"/>
       <c r="B30" s="48" t="s">
         <v>1196</v>
       </c>
@@ -20758,7 +20758,7 @@
       <c r="D30" s="15"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="198"/>
+      <c r="A31" s="220"/>
       <c r="B31" s="51"/>
       <c r="C31" s="52" t="s">
         <v>1198</v>
@@ -20766,7 +20766,7 @@
       <c r="D31" s="15"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="198"/>
+      <c r="A32" s="220"/>
       <c r="B32" s="51"/>
       <c r="C32" s="52" t="s">
         <v>1199</v>
@@ -20774,7 +20774,7 @@
       <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="198"/>
+      <c r="A33" s="220"/>
       <c r="B33" s="51"/>
       <c r="C33" s="52" t="s">
         <v>1200</v>
@@ -20782,7 +20782,7 @@
       <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="198"/>
+      <c r="A34" s="220"/>
       <c r="B34" s="53"/>
       <c r="C34" s="55" t="s">
         <v>1201</v>
@@ -20790,7 +20790,7 @@
       <c r="D34" s="15"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="198"/>
+      <c r="A35" s="220"/>
       <c r="B35" s="19" t="s">
         <v>1202</v>
       </c>
@@ -20800,7 +20800,7 @@
       <c r="D35" s="15"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="198"/>
+      <c r="A36" s="220"/>
       <c r="B36" s="19"/>
       <c r="C36" s="52" t="s">
         <v>1204</v>
@@ -20808,7 +20808,7 @@
       <c r="D36" s="15"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="198"/>
+      <c r="A37" s="220"/>
       <c r="B37" s="19"/>
       <c r="C37" s="52" t="s">
         <v>1205</v>
@@ -20816,7 +20816,7 @@
       <c r="D37" s="15"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="198"/>
+      <c r="A38" s="220"/>
       <c r="B38" s="19"/>
       <c r="C38" s="52" t="s">
         <v>1206</v>
@@ -20824,7 +20824,7 @@
       <c r="D38" s="15"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="197"/>
+      <c r="A39" s="219"/>
       <c r="B39" s="54"/>
       <c r="C39" s="55" t="s">
         <v>1201</v>
@@ -20832,7 +20832,7 @@
       <c r="D39" s="15"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="196" t="s">
+      <c r="A41" s="218" t="s">
         <v>1207</v>
       </c>
       <c r="B41" s="48" t="s">
@@ -20843,14 +20843,14 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="198"/>
+      <c r="A42" s="220"/>
       <c r="B42" s="53"/>
       <c r="C42" s="55" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="198"/>
+      <c r="A43" s="220"/>
       <c r="B43" s="48" t="s">
         <v>1211</v>
       </c>
@@ -20859,14 +20859,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="198"/>
+      <c r="A44" s="220"/>
       <c r="B44" s="53"/>
       <c r="C44" s="55" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="198"/>
+      <c r="A45" s="220"/>
       <c r="B45" s="48" t="s">
         <v>1245</v>
       </c>
@@ -20875,21 +20875,21 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="198"/>
+      <c r="A46" s="220"/>
       <c r="B46" s="51"/>
       <c r="C46" s="52" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="198"/>
+      <c r="A47" s="220"/>
       <c r="B47" s="53"/>
       <c r="C47" s="55" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="198"/>
+      <c r="A48" s="220"/>
       <c r="B48" s="48" t="s">
         <v>1216</v>
       </c>
@@ -20898,14 +20898,14 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="198"/>
+      <c r="A49" s="220"/>
       <c r="B49" s="53"/>
       <c r="C49" s="55" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="198"/>
+      <c r="A50" s="220"/>
       <c r="B50" s="48" t="s">
         <v>1219</v>
       </c>
@@ -20914,14 +20914,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="198"/>
+      <c r="A51" s="220"/>
       <c r="B51" s="53"/>
       <c r="C51" s="55" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="198"/>
+      <c r="A52" s="220"/>
       <c r="B52" s="48" t="s">
         <v>1222</v>
       </c>
@@ -20930,21 +20930,21 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A53" s="198"/>
+      <c r="A53" s="220"/>
       <c r="B53" s="51"/>
       <c r="C53" s="52" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A54" s="198"/>
+      <c r="A54" s="220"/>
       <c r="B54" s="53"/>
       <c r="C54" s="55" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A55" s="198"/>
+      <c r="A55" s="220"/>
       <c r="B55" s="48" t="s">
         <v>1226</v>
       </c>
@@ -20953,28 +20953,28 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A56" s="198"/>
+      <c r="A56" s="220"/>
       <c r="B56" s="51"/>
       <c r="C56" s="52" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A57" s="198"/>
+      <c r="A57" s="220"/>
       <c r="B57" s="51"/>
       <c r="C57" s="52" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A58" s="198"/>
+      <c r="A58" s="220"/>
       <c r="B58" s="53"/>
       <c r="C58" s="55" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="198"/>
+      <c r="A59" s="220"/>
       <c r="B59" s="48" t="s">
         <v>1231</v>
       </c>
@@ -20983,28 +20983,28 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="198"/>
+      <c r="A60" s="220"/>
       <c r="B60" s="51"/>
       <c r="C60" s="52" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A61" s="198"/>
+      <c r="A61" s="220"/>
       <c r="B61" s="51"/>
       <c r="C61" s="52" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A62" s="198"/>
+      <c r="A62" s="220"/>
       <c r="B62" s="53"/>
       <c r="C62" s="55" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A63" s="198"/>
+      <c r="A63" s="220"/>
       <c r="B63" s="48" t="s">
         <v>1234</v>
       </c>
@@ -21013,28 +21013,28 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A64" s="198"/>
+      <c r="A64" s="220"/>
       <c r="B64" s="51"/>
       <c r="C64" s="52" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A65" s="198"/>
+      <c r="A65" s="220"/>
       <c r="B65" s="51"/>
       <c r="C65" s="52" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="198"/>
+      <c r="A66" s="220"/>
       <c r="B66" s="53"/>
       <c r="C66" s="55" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A67" s="198"/>
+      <c r="A67" s="220"/>
       <c r="B67" s="51" t="s">
         <v>1239</v>
       </c>
@@ -21043,7 +21043,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A68" s="197"/>
+      <c r="A68" s="219"/>
       <c r="B68" s="53" t="s">
         <v>1241</v>
       </c>
@@ -21057,7 +21057,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A70" s="196" t="s">
+      <c r="A70" s="218" t="s">
         <v>1246</v>
       </c>
       <c r="B70" s="48" t="s">
@@ -21068,28 +21068,28 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A71" s="198"/>
+      <c r="A71" s="220"/>
       <c r="B71" s="51"/>
       <c r="C71" s="52" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A72" s="198"/>
+      <c r="A72" s="220"/>
       <c r="B72" s="51"/>
       <c r="C72" s="52" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A73" s="198"/>
+      <c r="A73" s="220"/>
       <c r="B73" s="53"/>
       <c r="C73" s="55" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A74" s="198"/>
+      <c r="A74" s="220"/>
       <c r="B74" s="48" t="s">
         <v>1252</v>
       </c>
@@ -21098,21 +21098,21 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A75" s="198"/>
+      <c r="A75" s="220"/>
       <c r="B75" s="51"/>
       <c r="C75" s="52" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A76" s="198"/>
+      <c r="A76" s="220"/>
       <c r="B76" s="53"/>
       <c r="C76" s="55" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A77" s="198"/>
+      <c r="A77" s="220"/>
       <c r="B77" s="48" t="s">
         <v>1256</v>
       </c>
@@ -21121,28 +21121,28 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A78" s="198"/>
+      <c r="A78" s="220"/>
       <c r="B78" s="51"/>
       <c r="C78" s="52" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A79" s="198"/>
+      <c r="A79" s="220"/>
       <c r="B79" s="51"/>
       <c r="C79" s="52" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A80" s="198"/>
+      <c r="A80" s="220"/>
       <c r="B80" s="53"/>
       <c r="C80" s="55" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A81" s="198"/>
+      <c r="A81" s="220"/>
       <c r="B81" s="48" t="s">
         <v>1261</v>
       </c>
@@ -21151,28 +21151,28 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A82" s="198"/>
+      <c r="A82" s="220"/>
       <c r="B82" s="51"/>
       <c r="C82" s="52" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A83" s="198"/>
+      <c r="A83" s="220"/>
       <c r="B83" s="51"/>
       <c r="C83" s="52" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A84" s="198"/>
+      <c r="A84" s="220"/>
       <c r="B84" s="53"/>
       <c r="C84" s="55" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A85" s="198"/>
+      <c r="A85" s="220"/>
       <c r="B85" s="48" t="s">
         <v>1266</v>
       </c>
@@ -21181,42 +21181,42 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A86" s="198"/>
+      <c r="A86" s="220"/>
       <c r="B86" s="51"/>
       <c r="C86" s="52" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="198"/>
+      <c r="A87" s="220"/>
       <c r="B87" s="51"/>
       <c r="C87" s="52" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="198"/>
+      <c r="A88" s="220"/>
       <c r="B88" s="51"/>
       <c r="C88" s="52" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A89" s="198"/>
+      <c r="A89" s="220"/>
       <c r="B89" s="51"/>
       <c r="C89" s="52" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A90" s="198"/>
+      <c r="A90" s="220"/>
       <c r="B90" s="53"/>
       <c r="C90" s="55" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A91" s="198"/>
+      <c r="A91" s="220"/>
       <c r="B91" s="48" t="s">
         <v>1272</v>
       </c>
@@ -21225,21 +21225,21 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A92" s="198"/>
+      <c r="A92" s="220"/>
       <c r="B92" s="51"/>
       <c r="C92" s="52" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A93" s="198"/>
+      <c r="A93" s="220"/>
       <c r="B93" s="53"/>
       <c r="C93" s="55" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="198"/>
+      <c r="A94" s="220"/>
       <c r="B94" s="48" t="s">
         <v>1276</v>
       </c>
@@ -21248,28 +21248,28 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="198"/>
+      <c r="A95" s="220"/>
       <c r="B95" s="51"/>
       <c r="C95" s="52" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A96" s="198"/>
+      <c r="A96" s="220"/>
       <c r="B96" s="51"/>
       <c r="C96" s="52" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A97" s="198"/>
+      <c r="A97" s="220"/>
       <c r="B97" s="53"/>
       <c r="C97" s="55" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A98" s="198"/>
+      <c r="A98" s="220"/>
       <c r="B98" s="19" t="s">
         <v>1281</v>
       </c>
@@ -21278,28 +21278,28 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A99" s="198"/>
+      <c r="A99" s="220"/>
       <c r="B99" s="19"/>
       <c r="C99" s="52" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A100" s="198"/>
+      <c r="A100" s="220"/>
       <c r="B100" s="19"/>
       <c r="C100" s="52" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A101" s="197"/>
+      <c r="A101" s="219"/>
       <c r="B101" s="54"/>
       <c r="C101" s="55" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A103" s="196" t="s">
+      <c r="A103" s="218" t="s">
         <v>1283</v>
       </c>
       <c r="B103" s="48" t="s">
@@ -21310,28 +21310,28 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A104" s="198"/>
+      <c r="A104" s="220"/>
       <c r="B104" s="51"/>
       <c r="C104" s="52" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A105" s="198"/>
+      <c r="A105" s="220"/>
       <c r="B105" s="51"/>
       <c r="C105" s="52" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A106" s="198"/>
+      <c r="A106" s="220"/>
       <c r="B106" s="53"/>
       <c r="C106" s="55" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A107" s="198"/>
+      <c r="A107" s="220"/>
       <c r="B107" s="48" t="s">
         <v>1289</v>
       </c>
@@ -21340,35 +21340,35 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A108" s="198"/>
+      <c r="A108" s="220"/>
       <c r="B108" s="51"/>
       <c r="C108" s="52" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A109" s="198"/>
+      <c r="A109" s="220"/>
       <c r="B109" s="51"/>
       <c r="C109" s="52" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A110" s="198"/>
+      <c r="A110" s="220"/>
       <c r="B110" s="51"/>
       <c r="C110" s="52" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A111" s="198"/>
+      <c r="A111" s="220"/>
       <c r="B111" s="53"/>
       <c r="C111" s="55" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A112" s="198"/>
+      <c r="A112" s="220"/>
       <c r="B112" s="48" t="s">
         <v>1295</v>
       </c>
@@ -21377,28 +21377,28 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A113" s="198"/>
+      <c r="A113" s="220"/>
       <c r="B113" s="51"/>
       <c r="C113" s="52" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A114" s="198"/>
+      <c r="A114" s="220"/>
       <c r="B114" s="51"/>
       <c r="C114" s="52" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A115" s="198"/>
+      <c r="A115" s="220"/>
       <c r="B115" s="53"/>
       <c r="C115" s="55" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A116" s="198"/>
+      <c r="A116" s="220"/>
       <c r="B116" s="48" t="s">
         <v>1300</v>
       </c>
@@ -21407,21 +21407,21 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A117" s="198"/>
+      <c r="A117" s="220"/>
       <c r="B117" s="51"/>
       <c r="C117" s="52" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A118" s="198"/>
+      <c r="A118" s="220"/>
       <c r="B118" s="53"/>
       <c r="C118" s="55" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A119" s="198"/>
+      <c r="A119" s="220"/>
       <c r="B119" s="19" t="s">
         <v>1304</v>
       </c>
@@ -21430,14 +21430,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A120" s="197"/>
+      <c r="A120" s="219"/>
       <c r="B120" s="54"/>
       <c r="C120" s="55" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A122" s="196" t="s">
+      <c r="A122" s="218" t="s">
         <v>1307</v>
       </c>
       <c r="B122" s="49" t="s">
@@ -21448,14 +21448,14 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A123" s="197"/>
+      <c r="A123" s="219"/>
       <c r="B123" s="54"/>
       <c r="C123" s="55" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="202" t="s">
+      <c r="A125" s="227" t="s">
         <v>1311</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21466,21 +21466,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="204"/>
+      <c r="A126" s="228"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="204"/>
+      <c r="A127" s="228"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="204"/>
+      <c r="A128" s="228"/>
       <c r="B128" s="19" t="s">
         <v>1126</v>
       </c>
@@ -21489,7 +21489,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="204"/>
+      <c r="A129" s="228"/>
       <c r="B129" s="48" t="s">
         <v>716</v>
       </c>
@@ -21498,14 +21498,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="204"/>
+      <c r="A130" s="228"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="204"/>
+      <c r="A131" s="228"/>
       <c r="B131" s="48" t="s">
         <v>808</v>
       </c>
@@ -21514,14 +21514,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="204"/>
+      <c r="A132" s="228"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="203"/>
+      <c r="A133" s="229"/>
       <c r="B133" s="54" t="s">
         <v>1321</v>
       </c>
@@ -30279,16 +30279,16 @@
       <c r="E582" s="82"/>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A583" s="211" t="s">
+      <c r="A583" s="233" t="s">
         <v>2729</v>
       </c>
-      <c r="B583" s="211" t="s">
+      <c r="B583" s="233" t="s">
         <v>2730</v>
       </c>
-      <c r="C583" s="211" t="s">
+      <c r="C583" s="233" t="s">
         <v>2624</v>
       </c>
-      <c r="D583" s="211" t="s">
+      <c r="D583" s="233" t="s">
         <v>2731</v>
       </c>
       <c r="E583" s="81" t="s">
@@ -30296,91 +30296,91 @@
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A584" s="211"/>
-      <c r="B584" s="211"/>
-      <c r="C584" s="211"/>
-      <c r="D584" s="211"/>
+      <c r="A584" s="233"/>
+      <c r="B584" s="233"/>
+      <c r="C584" s="233"/>
+      <c r="D584" s="233"/>
       <c r="E584" s="81" t="s">
         <v>2733</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A585" s="211"/>
-      <c r="B585" s="211"/>
-      <c r="C585" s="211"/>
-      <c r="D585" s="211"/>
+      <c r="A585" s="233"/>
+      <c r="B585" s="233"/>
+      <c r="C585" s="233"/>
+      <c r="D585" s="233"/>
       <c r="E585" s="81" t="s">
         <v>2734</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A586" s="211"/>
-      <c r="B586" s="211"/>
-      <c r="C586" s="211"/>
-      <c r="D586" s="211"/>
+      <c r="A586" s="233"/>
+      <c r="B586" s="233"/>
+      <c r="C586" s="233"/>
+      <c r="D586" s="233"/>
       <c r="E586" s="81" t="s">
         <v>2735</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A587" s="211"/>
-      <c r="B587" s="211"/>
-      <c r="C587" s="211"/>
-      <c r="D587" s="211"/>
+      <c r="A587" s="233"/>
+      <c r="B587" s="233"/>
+      <c r="C587" s="233"/>
+      <c r="D587" s="233"/>
       <c r="E587" s="81" t="s">
         <v>2736</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A588" s="211"/>
-      <c r="B588" s="211"/>
-      <c r="C588" s="211"/>
-      <c r="D588" s="211"/>
+      <c r="A588" s="233"/>
+      <c r="B588" s="233"/>
+      <c r="C588" s="233"/>
+      <c r="D588" s="233"/>
       <c r="E588" s="81" t="s">
         <v>2737</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A589" s="211"/>
-      <c r="B589" s="211"/>
-      <c r="C589" s="211"/>
-      <c r="D589" s="211"/>
+      <c r="A589" s="233"/>
+      <c r="B589" s="233"/>
+      <c r="C589" s="233"/>
+      <c r="D589" s="233"/>
       <c r="E589" s="81" t="s">
         <v>2738</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A590" s="211"/>
-      <c r="B590" s="211"/>
-      <c r="C590" s="211"/>
-      <c r="D590" s="211"/>
+      <c r="A590" s="233"/>
+      <c r="B590" s="233"/>
+      <c r="C590" s="233"/>
+      <c r="D590" s="233"/>
       <c r="E590" s="81" t="s">
         <v>2739</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A591" s="211"/>
-      <c r="B591" s="211"/>
-      <c r="C591" s="211"/>
-      <c r="D591" s="211"/>
+      <c r="A591" s="233"/>
+      <c r="B591" s="233"/>
+      <c r="C591" s="233"/>
+      <c r="D591" s="233"/>
       <c r="E591" s="81" t="s">
         <v>2740</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A592" s="211"/>
-      <c r="B592" s="211"/>
-      <c r="C592" s="211"/>
-      <c r="D592" s="211"/>
+      <c r="A592" s="233"/>
+      <c r="B592" s="233"/>
+      <c r="C592" s="233"/>
+      <c r="D592" s="233"/>
       <c r="E592" s="81" t="s">
         <v>2741</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A593" s="211"/>
-      <c r="B593" s="211"/>
-      <c r="C593" s="211"/>
-      <c r="D593" s="211"/>
+      <c r="A593" s="233"/>
+      <c r="B593" s="233"/>
+      <c r="C593" s="233"/>
+      <c r="D593" s="233"/>
       <c r="E593" s="81" t="s">
         <v>2742</v>
       </c>
@@ -32883,7 +32883,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="234" t="s">
         <v>3346</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -32891,73 +32891,73 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="212"/>
+      <c r="A3" s="234"/>
       <c r="B3" s="3" t="s">
         <v>3348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="212"/>
+      <c r="A4" s="234"/>
       <c r="B4" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="212"/>
+      <c r="A5" s="234"/>
       <c r="B5" s="3" t="s">
         <v>3350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="212"/>
+      <c r="A6" s="234"/>
       <c r="B6" s="3" t="s">
         <v>3351</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="212"/>
+      <c r="A7" s="234"/>
       <c r="B7" s="3" t="s">
         <v>3352</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="212"/>
+      <c r="A8" s="234"/>
       <c r="B8" s="3" t="s">
         <v>3353</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="212"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="3" t="s">
         <v>3354</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="212"/>
+      <c r="A10" s="234"/>
       <c r="B10" s="3" t="s">
         <v>3355</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="212"/>
+      <c r="A11" s="234"/>
       <c r="B11" s="3" t="s">
         <v>3356</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="212"/>
+      <c r="A12" s="234"/>
       <c r="B12" s="3" t="s">
         <v>3357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="212"/>
+      <c r="A13" s="234"/>
       <c r="B13" s="3" t="s">
         <v>3358</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="234" t="s">
         <v>3359</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -32965,85 +32965,85 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="212"/>
+      <c r="A15" s="234"/>
       <c r="B15" s="3" t="s">
         <v>3361</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="212"/>
+      <c r="A16" s="234"/>
       <c r="B16" s="3" t="s">
         <v>3362</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="212"/>
+      <c r="A17" s="234"/>
       <c r="B17" s="3" t="s">
         <v>3363</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="212"/>
+      <c r="A18" s="234"/>
       <c r="B18" s="3" t="s">
         <v>3364</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="212"/>
+      <c r="A19" s="234"/>
       <c r="B19" s="3" t="s">
         <v>3365</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="212"/>
+      <c r="A20" s="234"/>
       <c r="B20" s="3" t="s">
         <v>3366</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="212"/>
+      <c r="A21" s="234"/>
       <c r="B21" s="3" t="s">
         <v>3367</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="212"/>
+      <c r="A22" s="234"/>
       <c r="B22" s="3" t="s">
         <v>3368</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="212"/>
+      <c r="A23" s="234"/>
       <c r="B23" s="3" t="s">
         <v>3369</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="212"/>
+      <c r="A24" s="234"/>
       <c r="B24" s="3" t="s">
         <v>3370</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="212"/>
+      <c r="A25" s="234"/>
       <c r="B25" s="3" t="s">
         <v>3371</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="212"/>
+      <c r="A26" s="234"/>
       <c r="B26" s="3" t="s">
         <v>3372</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="212"/>
+      <c r="A27" s="234"/>
       <c r="B27" s="3" t="s">
         <v>3373</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="212" t="s">
+      <c r="A28" s="234" t="s">
         <v>3374</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -33051,25 +33051,25 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="212"/>
+      <c r="A29" s="234"/>
       <c r="B29" s="3" t="s">
         <v>3376</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="212"/>
+      <c r="A30" s="234"/>
       <c r="B30" s="3" t="s">
         <v>3377</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="212"/>
+      <c r="A31" s="234"/>
       <c r="B31" s="3" t="s">
         <v>3378</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="212" t="s">
+      <c r="A32" s="234" t="s">
         <v>3379</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -33077,49 +33077,49 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="212"/>
+      <c r="A33" s="234"/>
       <c r="B33" s="3" t="s">
         <v>3381</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="212"/>
+      <c r="A34" s="234"/>
       <c r="B34" s="3" t="s">
         <v>3382</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="212"/>
+      <c r="A35" s="234"/>
       <c r="B35" s="3" t="s">
         <v>3383</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="212"/>
+      <c r="A36" s="234"/>
       <c r="B36" s="3" t="s">
         <v>3384</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="212"/>
+      <c r="A37" s="234"/>
       <c r="B37" s="3" t="s">
         <v>3385</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="212"/>
+      <c r="A38" s="234"/>
       <c r="B38" s="3" t="s">
         <v>3386</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="212"/>
+      <c r="A39" s="234"/>
       <c r="B39" s="3" t="s">
         <v>3387</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="212" t="s">
+      <c r="A40" s="234" t="s">
         <v>3388</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -33127,73 +33127,73 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="212"/>
+      <c r="A41" s="234"/>
       <c r="B41" s="3" t="s">
         <v>3390</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="212"/>
+      <c r="A42" s="234"/>
       <c r="B42" s="3" t="s">
         <v>3391</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="212"/>
+      <c r="A43" s="234"/>
       <c r="B43" s="3" t="s">
         <v>3392</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="212"/>
+      <c r="A44" s="234"/>
       <c r="B44" s="3" t="s">
         <v>3393</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="212"/>
+      <c r="A45" s="234"/>
       <c r="B45" s="3" t="s">
         <v>3394</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="212"/>
+      <c r="A46" s="234"/>
       <c r="B46" s="3" t="s">
         <v>3395</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="212"/>
+      <c r="A47" s="234"/>
       <c r="B47" s="3" t="s">
         <v>3396</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="212"/>
+      <c r="A48" s="234"/>
       <c r="B48" s="3" t="s">
         <v>3397</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="212"/>
+      <c r="A49" s="234"/>
       <c r="B49" s="3" t="s">
         <v>3398</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="212"/>
+      <c r="A50" s="234"/>
       <c r="B50" s="3" t="s">
         <v>3399</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="212"/>
+      <c r="A51" s="234"/>
       <c r="B51" s="3" t="s">
         <v>3400</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="212" t="s">
+      <c r="A52" s="234" t="s">
         <v>3401</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -33201,31 +33201,31 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="212"/>
+      <c r="A53" s="234"/>
       <c r="B53" s="3" t="s">
         <v>3403</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="212"/>
+      <c r="A54" s="234"/>
       <c r="B54" s="3" t="s">
         <v>3404</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="212"/>
+      <c r="A55" s="234"/>
       <c r="B55" s="3" t="s">
         <v>3405</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="212"/>
+      <c r="A56" s="234"/>
       <c r="B56" s="3" t="s">
         <v>3406</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="212" t="s">
+      <c r="A57" s="234" t="s">
         <v>3407</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -33233,61 +33233,61 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="212"/>
+      <c r="A58" s="234"/>
       <c r="B58" s="3" t="s">
         <v>3409</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="212"/>
+      <c r="A59" s="234"/>
       <c r="B59" s="3" t="s">
         <v>3410</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="212"/>
+      <c r="A60" s="234"/>
       <c r="B60" s="3" t="s">
         <v>3411</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="212"/>
+      <c r="A61" s="234"/>
       <c r="B61" s="3" t="s">
         <v>3412</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="212"/>
+      <c r="A62" s="234"/>
       <c r="B62" s="3" t="s">
         <v>3413</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="212"/>
+      <c r="A63" s="234"/>
       <c r="B63" s="3" t="s">
         <v>3414</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="212"/>
+      <c r="A64" s="234"/>
       <c r="B64" s="3" t="s">
         <v>3415</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="212"/>
+      <c r="A65" s="234"/>
       <c r="B65" s="3" t="s">
         <v>3416</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="212"/>
+      <c r="A66" s="234"/>
       <c r="B66" s="3" t="s">
         <v>3417</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="212" t="s">
+      <c r="A67" s="234" t="s">
         <v>3418</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -33295,73 +33295,73 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="212"/>
+      <c r="A68" s="234"/>
       <c r="B68" s="3" t="s">
         <v>3420</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="212"/>
+      <c r="A69" s="234"/>
       <c r="B69" s="3" t="s">
         <v>3421</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="212"/>
+      <c r="A70" s="234"/>
       <c r="B70" s="3" t="s">
         <v>3422</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="212"/>
+      <c r="A71" s="234"/>
       <c r="B71" s="3" t="s">
         <v>3423</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="212"/>
+      <c r="A72" s="234"/>
       <c r="B72" s="3" t="s">
         <v>3424</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="212"/>
+      <c r="A73" s="234"/>
       <c r="B73" s="3" t="s">
         <v>3425</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="212"/>
+      <c r="A74" s="234"/>
       <c r="B74" s="3" t="s">
         <v>3426</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="212"/>
+      <c r="A75" s="234"/>
       <c r="B75" s="3" t="s">
         <v>3427</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="212"/>
+      <c r="A76" s="234"/>
       <c r="B76" s="3" t="s">
         <v>3428</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="212"/>
+      <c r="A77" s="234"/>
       <c r="B77" s="3" t="s">
         <v>3429</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="212"/>
+      <c r="A78" s="234"/>
       <c r="B78" s="3" t="s">
         <v>3430</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="212"/>
+      <c r="A79" s="234"/>
       <c r="B79" s="3" t="s">
         <v>3431</v>
       </c>
@@ -35569,7 +35569,7 @@
       <c r="F94" s="100" t="s">
         <v>3146</v>
       </c>
-      <c r="G94" s="213" t="s">
+      <c r="G94" s="235" t="s">
         <v>3854</v>
       </c>
       <c r="H94" s="112"/>
@@ -35591,7 +35591,7 @@
       <c r="F95" s="100" t="s">
         <v>3146</v>
       </c>
-      <c r="G95" s="213"/>
+      <c r="G95" s="235"/>
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35611,7 +35611,7 @@
       <c r="F96" s="100" t="s">
         <v>3146</v>
       </c>
-      <c r="G96" s="213"/>
+      <c r="G96" s="235"/>
       <c r="H96" s="112"/>
     </row>
     <row r="97" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35631,7 +35631,7 @@
       <c r="F97" s="100" t="s">
         <v>3861</v>
       </c>
-      <c r="G97" s="213"/>
+      <c r="G97" s="235"/>
       <c r="H97" s="112"/>
     </row>
     <row r="98" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35651,7 +35651,7 @@
       <c r="F98" s="100" t="s">
         <v>3861</v>
       </c>
-      <c r="G98" s="213"/>
+      <c r="G98" s="235"/>
       <c r="H98" s="112"/>
     </row>
     <row r="99" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35671,7 +35671,7 @@
       <c r="F99" s="100" t="s">
         <v>3861</v>
       </c>
-      <c r="G99" s="213"/>
+      <c r="G99" s="235"/>
       <c r="H99" s="112"/>
     </row>
     <row r="100" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35690,10 +35690,10 @@
       <c r="E100" s="100" t="s">
         <v>3835</v>
       </c>
-      <c r="F100" s="214" t="s">
+      <c r="F100" s="236" t="s">
         <v>3816</v>
       </c>
-      <c r="G100" s="215" t="s">
+      <c r="G100" s="237" t="s">
         <v>3714</v>
       </c>
       <c r="H100" s="112"/>
@@ -35712,8 +35712,8 @@
       <c r="E101" s="100" t="s">
         <v>3837</v>
       </c>
-      <c r="F101" s="214"/>
-      <c r="G101" s="215"/>
+      <c r="F101" s="236"/>
+      <c r="G101" s="237"/>
       <c r="H101" s="112"/>
     </row>
     <row r="102" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35730,8 +35730,8 @@
       <c r="E102" s="100" t="s">
         <v>3838</v>
       </c>
-      <c r="F102" s="214"/>
-      <c r="G102" s="215"/>
+      <c r="F102" s="236"/>
+      <c r="G102" s="237"/>
       <c r="H102" s="112"/>
     </row>
     <row r="103" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35748,8 +35748,8 @@
       <c r="E103" s="100" t="s">
         <v>3839</v>
       </c>
-      <c r="F103" s="214"/>
-      <c r="G103" s="215"/>
+      <c r="F103" s="236"/>
+      <c r="G103" s="237"/>
       <c r="H103" s="112"/>
     </row>
     <row r="104" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35768,10 +35768,10 @@
       <c r="E104" s="100" t="s">
         <v>3840</v>
       </c>
-      <c r="F104" s="214" t="s">
+      <c r="F104" s="236" t="s">
         <v>3841</v>
       </c>
-      <c r="G104" s="215"/>
+      <c r="G104" s="237"/>
       <c r="H104" s="112"/>
     </row>
     <row r="105" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35788,8 +35788,8 @@
       <c r="E105" s="100" t="s">
         <v>3842</v>
       </c>
-      <c r="F105" s="214"/>
-      <c r="G105" s="215"/>
+      <c r="F105" s="236"/>
+      <c r="G105" s="237"/>
       <c r="H105" s="112"/>
     </row>
     <row r="106" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -35806,8 +35806,8 @@
       <c r="E106" s="100" t="s">
         <v>3843</v>
       </c>
-      <c r="F106" s="214"/>
-      <c r="G106" s="215"/>
+      <c r="F106" s="236"/>
+      <c r="G106" s="237"/>
       <c r="H106" s="112"/>
     </row>
     <row r="107" spans="1:8" s="19" customFormat="1" ht="33" x14ac:dyDescent="0.35">
@@ -35824,8 +35824,8 @@
       <c r="E107" s="100" t="s">
         <v>3844</v>
       </c>
-      <c r="F107" s="214"/>
-      <c r="G107" s="215"/>
+      <c r="F107" s="236"/>
+      <c r="G107" s="237"/>
       <c r="H107" s="112"/>
     </row>
     <row r="108" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -38300,9 +38300,9 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="178"/>
-      <c r="B7" s="179"/>
-      <c r="C7" s="180"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="189"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -38361,9 +38361,9 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="178"/>
-      <c r="B14" s="179"/>
-      <c r="C14" s="180"/>
+      <c r="A14" s="187"/>
+      <c r="B14" s="188"/>
+      <c r="C14" s="189"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -38413,9 +38413,9 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="178"/>
-      <c r="B20" s="179"/>
-      <c r="C20" s="180"/>
+      <c r="A20" s="187"/>
+      <c r="B20" s="188"/>
+      <c r="C20" s="189"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -38468,9 +38468,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="178"/>
-      <c r="B25" s="179"/>
-      <c r="C25" s="180"/>
+      <c r="A25" s="187"/>
+      <c r="B25" s="188"/>
+      <c r="C25" s="189"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
@@ -40102,7 +40102,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="226" t="s">
+      <c r="A2" s="190" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="171" t="s">
@@ -40117,16 +40117,16 @@
       <c r="E2" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F2" s="227" t="s">
+      <c r="F2" s="175" t="s">
         <v>3981</v>
       </c>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="226"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="171" t="s">
         <v>6</v>
       </c>
@@ -40139,16 +40139,16 @@
       <c r="E3" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="227" t="s">
+      <c r="F3" s="175" t="s">
         <v>3981</v>
       </c>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-    </row>
-    <row r="4" spans="1:10" s="232" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="226"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+    </row>
+    <row r="4" spans="1:10" s="180" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="190"/>
       <c r="B4" s="172" t="s">
         <v>274</v>
       </c>
@@ -40163,7 +40163,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="226"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="171" t="s">
         <v>276</v>
       </c>
@@ -40176,16 +40176,16 @@
       <c r="E5" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F5" s="227" t="s">
+      <c r="F5" s="175" t="s">
         <v>3969</v>
       </c>
-      <c r="G5" s="227"/>
-      <c r="H5" s="227"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="227"/>
+      <c r="G5" s="175"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="226"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="171" t="s">
         <v>9</v>
       </c>
@@ -40198,16 +40198,16 @@
       <c r="E6" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F6" s="227" t="s">
+      <c r="F6" s="175" t="s">
         <v>3970</v>
       </c>
-      <c r="G6" s="227"/>
-      <c r="H6" s="227"/>
-      <c r="I6" s="227"/>
-      <c r="J6" s="227"/>
+      <c r="G6" s="175"/>
+      <c r="H6" s="175"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="226"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="171" t="s">
         <v>279</v>
       </c>
@@ -40220,16 +40220,16 @@
       <c r="E7" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="227" t="s">
+      <c r="F7" s="175" t="s">
         <v>3977</v>
       </c>
-      <c r="G7" s="227"/>
-      <c r="H7" s="227"/>
-      <c r="I7" s="227"/>
-      <c r="J7" s="227"/>
+      <c r="G7" s="175"/>
+      <c r="H7" s="175"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="175"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="226"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="171" t="s">
         <v>8</v>
       </c>
@@ -40242,16 +40242,16 @@
       <c r="E8" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F8" s="227" t="s">
+      <c r="F8" s="175" t="s">
         <v>3987</v>
       </c>
-      <c r="G8" s="227"/>
-      <c r="H8" s="227"/>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="175"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="226"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="171" t="s">
         <v>282</v>
       </c>
@@ -40264,32 +40264,32 @@
       <c r="E9" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F9" s="227" t="s">
+      <c r="F9" s="175" t="s">
         <v>3970</v>
       </c>
-      <c r="G9" s="227" t="s">
+      <c r="G9" s="175" t="s">
         <v>3971</v>
       </c>
-      <c r="H9" s="227" t="s">
+      <c r="H9" s="175" t="s">
         <v>3972</v>
       </c>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="219"/>
-      <c r="B10" s="220"/>
-      <c r="C10" s="220"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="221"/>
-      <c r="F10" s="227"/>
-      <c r="G10" s="227"/>
-      <c r="H10" s="227"/>
-      <c r="I10" s="227"/>
-      <c r="J10" s="227"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="191" t="s">
         <v>283</v>
       </c>
       <c r="B11" s="173" t="s">
@@ -40304,16 +40304,16 @@
       <c r="E11" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="F11" s="228" t="s">
+      <c r="F11" s="176" t="s">
         <v>3973</v>
       </c>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="227"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="217"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="173" t="s">
         <v>298</v>
       </c>
@@ -40326,16 +40326,16 @@
       <c r="E12" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="F12" s="228" t="s">
+      <c r="F12" s="176" t="s">
         <v>3974</v>
       </c>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="217"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="173" t="s">
         <v>299</v>
       </c>
@@ -40348,16 +40348,16 @@
       <c r="E13" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="F13" s="228" t="s">
+      <c r="F13" s="176" t="s">
         <v>3970</v>
       </c>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="227"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="217"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="173" t="s">
         <v>301</v>
       </c>
@@ -40370,16 +40370,16 @@
       <c r="E14" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="228" t="s">
+      <c r="F14" s="176" t="s">
         <v>3974</v>
       </c>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="217"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="173" t="s">
         <v>302</v>
       </c>
@@ -40392,16 +40392,16 @@
       <c r="E15" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="F15" s="228" t="s">
+      <c r="F15" s="176" t="s">
         <v>3970</v>
       </c>
-      <c r="G15" s="227"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="227"/>
-      <c r="J15" s="227"/>
-    </row>
-    <row r="16" spans="1:10" s="233" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="217"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+    </row>
+    <row r="16" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="192"/>
       <c r="B16" s="172" t="s">
         <v>304</v>
       </c>
@@ -40414,10 +40414,10 @@
       <c r="E16" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="232"/>
-    </row>
-    <row r="17" spans="1:10" s="233" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="218"/>
+      <c r="F16" s="180"/>
+    </row>
+    <row r="17" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="193"/>
       <c r="B17" s="172" t="s">
         <v>306</v>
       </c>
@@ -40430,22 +40430,22 @@
       <c r="E17" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F17" s="232"/>
+      <c r="F17" s="180"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="219"/>
-      <c r="B18" s="220"/>
-      <c r="C18" s="220"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="227"/>
-      <c r="G18" s="227"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="227"/>
-      <c r="J18" s="227"/>
+      <c r="A18" s="200"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="226" t="s">
+      <c r="A19" s="190" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="171" t="s">
@@ -40460,18 +40460,18 @@
       <c r="E19" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F19" s="227" t="s">
+      <c r="F19" s="175" t="s">
         <v>3968</v>
       </c>
-      <c r="G19" s="227" t="s">
+      <c r="G19" s="175" t="s">
         <v>3978</v>
       </c>
-      <c r="H19" s="227"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="227"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="226"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="171" t="s">
         <v>43</v>
       </c>
@@ -40484,18 +40484,18 @@
       <c r="E20" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="227" t="s">
+      <c r="F20" s="175" t="s">
         <v>3968</v>
       </c>
-      <c r="G20" s="227" t="s">
+      <c r="G20" s="175" t="s">
         <v>3979</v>
       </c>
-      <c r="H20" s="227"/>
-      <c r="I20" s="227"/>
-      <c r="J20" s="227"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="226"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="171" t="s">
         <v>309</v>
       </c>
@@ -40508,18 +40508,18 @@
       <c r="E21" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F21" s="227" t="s">
+      <c r="F21" s="175" t="s">
         <v>3970</v>
       </c>
-      <c r="G21" s="229" t="s">
+      <c r="G21" s="177" t="s">
         <v>3980</v>
       </c>
-      <c r="H21" s="227"/>
-      <c r="I21" s="227"/>
-      <c r="J21" s="227"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="226"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="171" t="s">
         <v>311</v>
       </c>
@@ -40532,18 +40532,18 @@
       <c r="E22" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F22" s="227" t="s">
+      <c r="F22" s="175" t="s">
         <v>3975</v>
       </c>
-      <c r="G22" s="227" t="s">
+      <c r="G22" s="175" t="s">
         <v>3978</v>
       </c>
-      <c r="H22" s="227"/>
-      <c r="I22" s="227"/>
-      <c r="J22" s="227"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="226"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="171" t="s">
         <v>313</v>
       </c>
@@ -40556,18 +40556,18 @@
       <c r="E23" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F23" s="227" t="s">
+      <c r="F23" s="175" t="s">
         <v>3973</v>
       </c>
-      <c r="G23" s="227" t="s">
+      <c r="G23" s="175" t="s">
         <v>3970</v>
       </c>
-      <c r="H23" s="227"/>
-      <c r="I23" s="227"/>
-      <c r="J23" s="227"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="226"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="173" t="s">
         <v>315</v>
       </c>
@@ -40580,18 +40580,18 @@
       <c r="E24" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="F24" s="228" t="s">
+      <c r="F24" s="176" t="s">
         <v>3970</v>
       </c>
-      <c r="G24" s="228" t="s">
+      <c r="G24" s="176" t="s">
         <v>3979</v>
       </c>
-      <c r="H24" s="227"/>
-      <c r="I24" s="227"/>
-      <c r="J24" s="227"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="226"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="171" t="s">
         <v>316</v>
       </c>
@@ -40604,18 +40604,18 @@
       <c r="E25" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F25" s="227" t="s">
+      <c r="F25" s="175" t="s">
         <v>3982</v>
       </c>
-      <c r="G25" s="227" t="s">
+      <c r="G25" s="175" t="s">
         <v>3983</v>
       </c>
-      <c r="H25" s="227"/>
-      <c r="I25" s="227"/>
-      <c r="J25" s="227"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="226"/>
+      <c r="A26" s="190"/>
       <c r="B26" s="171" t="s">
         <v>318</v>
       </c>
@@ -40628,18 +40628,18 @@
       <c r="E26" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F26" s="227" t="s">
+      <c r="F26" s="175" t="s">
         <v>3977</v>
       </c>
-      <c r="G26" s="227" t="s">
+      <c r="G26" s="175" t="s">
         <v>3973</v>
       </c>
-      <c r="H26" s="227"/>
-      <c r="I26" s="227"/>
-      <c r="J26" s="227"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="226"/>
+      <c r="A27" s="190"/>
       <c r="B27" s="171" t="s">
         <v>319</v>
       </c>
@@ -40652,98 +40652,98 @@
       <c r="E27" s="171" t="s">
         <v>272</v>
       </c>
-      <c r="F27" s="230" t="s">
+      <c r="F27" s="178" t="s">
         <v>3984</v>
       </c>
-      <c r="G27" s="231" t="s">
+      <c r="G27" s="179" t="s">
         <v>3985</v>
       </c>
-      <c r="H27" s="231" t="s">
+      <c r="H27" s="179" t="s">
         <v>3986</v>
       </c>
-      <c r="I27" s="227" t="s">
+      <c r="I27" s="175" t="s">
         <v>3970</v>
       </c>
-      <c r="J27" s="227"/>
+      <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="174"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="176"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="222" t="s">
+      <c r="A29" s="194" t="s">
         <v>288</v>
       </c>
-      <c r="B29" s="223" t="s">
+      <c r="B29" s="174" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="223" t="s">
+      <c r="C29" s="174" t="s">
         <v>321</v>
       </c>
-      <c r="D29" s="223" t="s">
+      <c r="D29" s="174" t="s">
         <v>291</v>
       </c>
-      <c r="E29" s="223" t="s">
+      <c r="E29" s="174" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="224"/>
-      <c r="B30" s="223" t="s">
+      <c r="A30" s="195"/>
+      <c r="B30" s="174" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="174" t="s">
         <v>322</v>
       </c>
-      <c r="D30" s="223" t="s">
+      <c r="D30" s="174" t="s">
         <v>291</v>
       </c>
-      <c r="E30" s="223" t="s">
+      <c r="E30" s="174" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="224"/>
-      <c r="B31" s="223" t="s">
+      <c r="A31" s="195"/>
+      <c r="B31" s="174" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="223" t="s">
+      <c r="C31" s="174" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="223" t="s">
+      <c r="D31" s="174" t="s">
         <v>291</v>
       </c>
-      <c r="E31" s="223" t="s">
+      <c r="E31" s="174" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="225"/>
-      <c r="B32" s="223" t="s">
+      <c r="A32" s="196"/>
+      <c r="B32" s="174" t="s">
         <v>325</v>
       </c>
-      <c r="C32" s="223" t="s">
+      <c r="C32" s="174" t="s">
         <v>289</v>
       </c>
-      <c r="D32" s="223" t="s">
+      <c r="D32" s="174" t="s">
         <v>291</v>
       </c>
-      <c r="E32" s="223" t="s">
+      <c r="E32" s="174" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="227" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="219"/>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="221"/>
+    <row r="33" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="200"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
     </row>
     <row r="34" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="234" t="s">
+      <c r="A34" s="197" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="172" t="s">
@@ -40766,7 +40766,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="235"/>
+      <c r="A35" s="198"/>
       <c r="B35" s="172" t="s">
         <v>328</v>
       </c>
@@ -40787,7 +40787,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="235"/>
+      <c r="A36" s="198"/>
       <c r="B36" s="172" t="s">
         <v>330</v>
       </c>
@@ -40805,7 +40805,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="235"/>
+      <c r="A37" s="198"/>
       <c r="B37" s="172" t="s">
         <v>332</v>
       </c>
@@ -40823,7 +40823,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="235"/>
+      <c r="A38" s="198"/>
       <c r="B38" s="172" t="s">
         <v>97</v>
       </c>
@@ -40838,7 +40838,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="235"/>
+      <c r="A39" s="198"/>
       <c r="B39" s="172" t="s">
         <v>98</v>
       </c>
@@ -40853,7 +40853,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="235"/>
+      <c r="A40" s="198"/>
       <c r="B40" s="172" t="s">
         <v>334</v>
       </c>
@@ -40874,7 +40874,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="236"/>
+      <c r="A41" s="199"/>
       <c r="B41" s="172" t="s">
         <v>107</v>
       </c>
@@ -40894,15 +40894,15 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="227" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="219"/>
-      <c r="B42" s="220"/>
-      <c r="C42" s="220"/>
-      <c r="D42" s="220"/>
-      <c r="E42" s="221"/>
+    <row r="42" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="200"/>
+      <c r="B42" s="201"/>
+      <c r="C42" s="201"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="202"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="222" t="s">
+      <c r="A43" s="194" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="171" t="s">
@@ -40919,11 +40919,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="224"/>
-      <c r="B44" s="237" t="s">
+      <c r="A44" s="195"/>
+      <c r="B44" s="182" t="s">
         <v>339</v>
       </c>
-      <c r="C44" s="237" t="s">
+      <c r="C44" s="182" t="s">
         <v>340</v>
       </c>
       <c r="D44" s="172" t="s">
@@ -40934,11 +40934,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="224"/>
-      <c r="B45" s="237" t="s">
+      <c r="A45" s="195"/>
+      <c r="B45" s="182" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="237" t="s">
+      <c r="C45" s="182" t="s">
         <v>342</v>
       </c>
       <c r="D45" s="172" t="s">
@@ -40949,11 +40949,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="224"/>
-      <c r="B46" s="237" t="s">
+      <c r="A46" s="195"/>
+      <c r="B46" s="182" t="s">
         <v>343</v>
       </c>
-      <c r="C46" s="237" t="s">
+      <c r="C46" s="182" t="s">
         <v>344</v>
       </c>
       <c r="D46" s="172" t="s">
@@ -40964,11 +40964,11 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="224"/>
-      <c r="B47" s="237" t="s">
+      <c r="A47" s="195"/>
+      <c r="B47" s="182" t="s">
         <v>345</v>
       </c>
-      <c r="C47" s="237" t="s">
+      <c r="C47" s="182" t="s">
         <v>346</v>
       </c>
       <c r="D47" s="172" t="s">
@@ -40979,11 +40979,11 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="224"/>
-      <c r="B48" s="237" t="s">
+      <c r="A48" s="195"/>
+      <c r="B48" s="182" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="237" t="s">
+      <c r="C48" s="182" t="s">
         <v>348</v>
       </c>
       <c r="D48" s="172" t="s">
@@ -40994,11 +40994,11 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="224"/>
-      <c r="B49" s="237" t="s">
+      <c r="A49" s="195"/>
+      <c r="B49" s="182" t="s">
         <v>349</v>
       </c>
-      <c r="C49" s="237" t="s">
+      <c r="C49" s="182" t="s">
         <v>293</v>
       </c>
       <c r="D49" s="172" t="s">
@@ -41009,11 +41009,11 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="224"/>
-      <c r="B50" s="237" t="s">
+      <c r="A50" s="195"/>
+      <c r="B50" s="182" t="s">
         <v>350</v>
       </c>
-      <c r="C50" s="237" t="s">
+      <c r="C50" s="182" t="s">
         <v>351</v>
       </c>
       <c r="D50" s="172" t="s">
@@ -41024,11 +41024,11 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="225"/>
-      <c r="B51" s="237" t="s">
+      <c r="A51" s="196"/>
+      <c r="B51" s="182" t="s">
         <v>352</v>
       </c>
-      <c r="C51" s="237" t="s">
+      <c r="C51" s="182" t="s">
         <v>294</v>
       </c>
       <c r="D51" s="172" t="s">
@@ -41040,17 +41040,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41089,7 +41089,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="203" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -41103,7 +41103,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
@@ -41113,7 +41113,7 @@
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="182"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="17" t="s">
         <v>361</v>
       </c>
@@ -41125,7 +41125,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="17" t="s">
         <v>9</v>
       </c>
@@ -41135,7 +41135,7 @@
       <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="17" t="s">
         <v>364</v>
       </c>
@@ -41145,7 +41145,7 @@
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="17" t="s">
         <v>365</v>
       </c>
@@ -41155,7 +41155,7 @@
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="183"/>
+      <c r="A8" s="205"/>
       <c r="B8" s="17" t="s">
         <v>282</v>
       </c>
@@ -41165,13 +41165,13 @@
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="178"/>
-      <c r="B9" s="179"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="181" t="s">
+      <c r="A10" s="203" t="s">
         <v>383</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -41183,7 +41183,7 @@
       <c r="D10" s="17"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="17" t="s">
         <v>34</v>
       </c>
@@ -41193,7 +41193,7 @@
       <c r="D11" s="17"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="17" t="s">
         <v>366</v>
       </c>
@@ -41203,7 +41203,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="17" t="s">
         <v>367</v>
       </c>
@@ -41213,7 +41213,7 @@
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="17" t="s">
         <v>376</v>
       </c>
@@ -41223,7 +41223,7 @@
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="183"/>
+      <c r="A15" s="205"/>
       <c r="B15" s="17" t="s">
         <v>368</v>
       </c>
@@ -41233,13 +41233,13 @@
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="178"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
-      <c r="D16" s="180"/>
+      <c r="A16" s="187"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="189"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="181" t="s">
+      <c r="A17" s="203" t="s">
         <v>283</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -41251,7 +41251,7 @@
       <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="17" t="s">
         <v>386</v>
       </c>
@@ -41261,7 +41261,7 @@
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="17" t="s">
         <v>388</v>
       </c>
@@ -41271,7 +41271,7 @@
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="17" t="s">
         <v>390</v>
       </c>
@@ -41281,7 +41281,7 @@
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="183"/>
+      <c r="A21" s="205"/>
       <c r="B21" s="17" t="s">
         <v>392</v>
       </c>
@@ -41291,13 +41291,13 @@
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="178"/>
-      <c r="B22" s="179"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="180"/>
+      <c r="A22" s="187"/>
+      <c r="B22" s="188"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="189"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="181" t="s">
+      <c r="A23" s="203" t="s">
         <v>427</v>
       </c>
       <c r="B23" s="17" t="s">
@@ -41309,7 +41309,7 @@
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
+      <c r="A24" s="204"/>
       <c r="B24" s="17" t="s">
         <v>425</v>
       </c>
@@ -41319,7 +41319,7 @@
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+      <c r="A25" s="204"/>
       <c r="B25" s="17" t="s">
         <v>395</v>
       </c>
@@ -41329,7 +41329,7 @@
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="183"/>
+      <c r="A26" s="205"/>
       <c r="B26" s="17" t="s">
         <v>396</v>
       </c>
@@ -41339,13 +41339,13 @@
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
-      <c r="B27" s="179"/>
-      <c r="C27" s="179"/>
-      <c r="D27" s="180"/>
+      <c r="A27" s="187"/>
+      <c r="B27" s="188"/>
+      <c r="C27" s="188"/>
+      <c r="D27" s="189"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="181" t="s">
+      <c r="A28" s="203" t="s">
         <v>428</v>
       </c>
       <c r="B28" s="17" t="s">
@@ -41357,7 +41357,7 @@
       <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="17" t="s">
         <v>87</v>
       </c>
@@ -41367,7 +41367,7 @@
       <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
+      <c r="A30" s="204"/>
       <c r="B30" s="17" t="s">
         <v>401</v>
       </c>
@@ -41377,7 +41377,7 @@
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="183"/>
+      <c r="A31" s="205"/>
       <c r="B31" s="17" t="s">
         <v>403</v>
       </c>
@@ -41387,13 +41387,13 @@
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="178"/>
-      <c r="B32" s="179"/>
-      <c r="C32" s="179"/>
-      <c r="D32" s="180"/>
+      <c r="A32" s="187"/>
+      <c r="B32" s="188"/>
+      <c r="C32" s="188"/>
+      <c r="D32" s="189"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="203" t="s">
         <v>429</v>
       </c>
       <c r="B33" s="17" t="s">
@@ -41405,7 +41405,7 @@
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="182"/>
+      <c r="A34" s="204"/>
       <c r="B34" s="17" t="s">
         <v>407</v>
       </c>
@@ -41415,7 +41415,7 @@
       <c r="D34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
+      <c r="A35" s="204"/>
       <c r="B35" s="17" t="s">
         <v>409</v>
       </c>
@@ -41425,7 +41425,7 @@
       <c r="D35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="182"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="17" t="s">
         <v>411</v>
       </c>
@@ -41435,7 +41435,7 @@
       <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="17" t="s">
         <v>413</v>
       </c>
@@ -41445,7 +41445,7 @@
       <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="182"/>
+      <c r="A38" s="204"/>
       <c r="B38" s="17" t="s">
         <v>415</v>
       </c>
@@ -41455,7 +41455,7 @@
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="182"/>
+      <c r="A39" s="204"/>
       <c r="B39" s="17" t="s">
         <v>417</v>
       </c>
@@ -41468,7 +41468,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="183"/>
+      <c r="A40" s="205"/>
       <c r="B40" s="17" t="s">
         <v>431</v>
       </c>
@@ -41478,13 +41478,13 @@
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="178"/>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="180"/>
+      <c r="A41" s="187"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="189"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="181" t="s">
+      <c r="A42" s="203" t="s">
         <v>430</v>
       </c>
       <c r="B42" s="17" t="s">
@@ -41496,7 +41496,7 @@
       <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
+      <c r="A43" s="204"/>
       <c r="B43" s="17" t="s">
         <v>433</v>
       </c>
@@ -41506,7 +41506,7 @@
       <c r="D43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="182"/>
+      <c r="A44" s="204"/>
       <c r="B44" s="17" t="s">
         <v>434</v>
       </c>
@@ -41516,7 +41516,7 @@
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="183"/>
+      <c r="A45" s="205"/>
       <c r="B45" s="17" t="s">
         <v>423</v>
       </c>
@@ -41641,6 +41641,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41649,11 +41654,6 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41690,7 +41690,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="203" t="s">
         <v>548</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -41701,7 +41701,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="5" t="s">
         <v>551</v>
       </c>
@@ -41710,7 +41710,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="182"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="5" t="s">
         <v>553</v>
       </c>
@@ -41719,7 +41719,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="5" t="s">
         <v>555</v>
       </c>
@@ -41728,7 +41728,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="5" t="s">
         <v>557</v>
       </c>
@@ -41737,7 +41737,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="5" t="s">
         <v>559</v>
       </c>
@@ -41746,7 +41746,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="5" t="s">
         <v>561</v>
       </c>
@@ -41755,7 +41755,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="5" t="s">
         <v>563</v>
       </c>
@@ -41764,7 +41764,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="5" t="s">
         <v>565</v>
       </c>
@@ -41773,7 +41773,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="183"/>
+      <c r="A11" s="205"/>
       <c r="B11" s="30" t="s">
         <v>567</v>
       </c>
@@ -41782,7 +41782,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="184" t="s">
+      <c r="A13" s="206" t="s">
         <v>593</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -41793,7 +41793,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="185"/>
+      <c r="A14" s="207"/>
       <c r="B14" s="5" t="s">
         <v>573</v>
       </c>
@@ -41802,7 +41802,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="185"/>
+      <c r="A15" s="207"/>
       <c r="B15" s="5" t="s">
         <v>575</v>
       </c>
@@ -41811,7 +41811,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="185"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="5" t="s">
         <v>577</v>
       </c>
@@ -41820,7 +41820,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="185"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="5" t="s">
         <v>578</v>
       </c>
@@ -41829,7 +41829,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="185"/>
+      <c r="A18" s="207"/>
       <c r="B18" s="5" t="s">
         <v>580</v>
       </c>
@@ -41838,7 +41838,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="185"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="5" t="s">
         <v>582</v>
       </c>
@@ -41847,7 +41847,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="185"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="5" t="s">
         <v>583</v>
       </c>
@@ -41856,7 +41856,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="185"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="5" t="s">
         <v>585</v>
       </c>
@@ -41865,7 +41865,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="185"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="5" t="s">
         <v>587</v>
       </c>
@@ -41874,7 +41874,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
+      <c r="A23" s="207"/>
       <c r="B23" s="5" t="s">
         <v>589</v>
       </c>
@@ -41883,7 +41883,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="186"/>
+      <c r="A24" s="208"/>
       <c r="B24" s="30" t="s">
         <v>591</v>
       </c>
@@ -41892,7 +41892,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="206" t="s">
         <v>594</v>
       </c>
       <c r="B26" s="24" t="s">
@@ -41903,7 +41903,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="185"/>
+      <c r="A27" s="207"/>
       <c r="B27" s="5" t="s">
         <v>597</v>
       </c>
@@ -41912,7 +41912,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="185"/>
+      <c r="A28" s="207"/>
       <c r="B28" s="5" t="s">
         <v>599</v>
       </c>
@@ -41921,21 +41921,21 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="185"/>
+      <c r="A29" s="207"/>
       <c r="B29" s="5" t="s">
         <v>601</v>
       </c>
       <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="185"/>
+      <c r="A30" s="207"/>
       <c r="B30" s="22" t="s">
         <v>602</v>
       </c>
       <c r="C30" s="28"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="185"/>
+      <c r="A31" s="207"/>
       <c r="B31" s="5" t="s">
         <v>603</v>
       </c>
@@ -41944,7 +41944,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="185"/>
+      <c r="A32" s="207"/>
       <c r="B32" s="5" t="s">
         <v>605</v>
       </c>
@@ -41953,21 +41953,21 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="185"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="5" t="s">
         <v>607</v>
       </c>
       <c r="C33" s="27"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="185"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="22" t="s">
         <v>608</v>
       </c>
       <c r="C34" s="28"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="185"/>
+      <c r="A35" s="207"/>
       <c r="B35" s="5" t="s">
         <v>609</v>
       </c>
@@ -41976,7 +41976,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="185"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="5" t="s">
         <v>611</v>
       </c>
@@ -41985,7 +41985,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="185"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="5" t="s">
         <v>613</v>
       </c>
@@ -41994,7 +41994,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="186"/>
+      <c r="A38" s="208"/>
       <c r="B38" s="5" t="s">
         <v>615</v>
       </c>
@@ -42008,7 +42008,7 @@
       <c r="C39" s="31"/>
     </row>
     <row r="40" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="184" t="s">
+      <c r="A40" s="206" t="s">
         <v>616</v>
       </c>
       <c r="B40" s="16" t="s">
@@ -42019,7 +42019,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="185"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="16" t="s">
         <v>619</v>
       </c>
@@ -42028,14 +42028,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="185"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="22" t="s">
         <v>617</v>
       </c>
       <c r="C42" s="22"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="185"/>
+      <c r="A43" s="207"/>
       <c r="B43" s="16" t="s">
         <v>622</v>
       </c>
@@ -42044,7 +42044,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="185"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="16" t="s">
         <v>623</v>
       </c>
@@ -42053,14 +42053,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="185"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="22" t="s">
         <v>624</v>
       </c>
       <c r="C45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="185"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="16" t="s">
         <v>626</v>
       </c>
@@ -42069,7 +42069,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="185"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="16" t="s">
         <v>627</v>
       </c>
@@ -42078,14 +42078,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="185"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="22" t="s">
         <v>628</v>
       </c>
       <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="185"/>
+      <c r="A49" s="207"/>
       <c r="B49" s="16" t="s">
         <v>630</v>
       </c>
@@ -42094,7 +42094,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="185"/>
+      <c r="A50" s="207"/>
       <c r="B50" s="16" t="s">
         <v>632</v>
       </c>
@@ -42103,7 +42103,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="186"/>
+      <c r="A51" s="208"/>
       <c r="B51" s="22" t="s">
         <v>633</v>
       </c>
@@ -42285,10 +42285,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="203" t="s">
         <v>545</v>
       </c>
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="203" t="s">
         <v>437</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -42299,8 +42299,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
-      <c r="B3" s="182"/>
+      <c r="A3" s="204"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="17" t="s">
         <v>442</v>
       </c>
@@ -42309,8 +42309,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="182"/>
-      <c r="B4" s="182"/>
+      <c r="A4" s="204"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="17" t="s">
         <v>444</v>
       </c>
@@ -42319,8 +42319,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
-      <c r="B5" s="182"/>
+      <c r="A5" s="204"/>
+      <c r="B5" s="204"/>
       <c r="C5" s="17" t="s">
         <v>446</v>
       </c>
@@ -42329,8 +42329,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
-      <c r="B6" s="182"/>
+      <c r="A6" s="204"/>
+      <c r="B6" s="204"/>
       <c r="C6" s="17" t="s">
         <v>448</v>
       </c>
@@ -42339,8 +42339,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
-      <c r="B7" s="182"/>
+      <c r="A7" s="204"/>
+      <c r="B7" s="204"/>
       <c r="C7" s="17" t="s">
         <v>450</v>
       </c>
@@ -42349,8 +42349,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
-      <c r="B8" s="183"/>
+      <c r="A8" s="204"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="17" t="s">
         <v>451</v>
       </c>
@@ -42359,14 +42359,14 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="179"/>
-      <c r="D9" s="180"/>
+      <c r="A9" s="204"/>
+      <c r="B9" s="187"/>
+      <c r="C9" s="188"/>
+      <c r="D9" s="189"/>
     </row>
     <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
-      <c r="B10" s="181" t="s">
+      <c r="A10" s="204"/>
+      <c r="B10" s="203" t="s">
         <v>453</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -42377,8 +42377,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="182"/>
-      <c r="B11" s="182"/>
+      <c r="A11" s="204"/>
+      <c r="B11" s="204"/>
       <c r="C11" s="17" t="s">
         <v>455</v>
       </c>
@@ -42387,8 +42387,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="182"/>
-      <c r="B12" s="183"/>
+      <c r="A12" s="204"/>
+      <c r="B12" s="205"/>
       <c r="C12" s="17" t="s">
         <v>456</v>
       </c>
@@ -42397,14 +42397,14 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
-      <c r="B13" s="178"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="180"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="189"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
-      <c r="B14" s="181" t="s">
+      <c r="A14" s="204"/>
+      <c r="B14" s="203" t="s">
         <v>458</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -42415,8 +42415,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="182"/>
-      <c r="B15" s="182"/>
+      <c r="A15" s="204"/>
+      <c r="B15" s="204"/>
       <c r="C15" s="17" t="s">
         <v>461</v>
       </c>
@@ -42425,8 +42425,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
-      <c r="B16" s="182"/>
+      <c r="A16" s="204"/>
+      <c r="B16" s="204"/>
       <c r="C16" s="17" t="s">
         <v>463</v>
       </c>
@@ -42435,8 +42435,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
-      <c r="B17" s="182"/>
+      <c r="A17" s="204"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="17" t="s">
         <v>465</v>
       </c>
@@ -42445,8 +42445,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
-      <c r="B18" s="183"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="205"/>
       <c r="C18" s="17" t="s">
         <v>467</v>
       </c>
@@ -42455,14 +42455,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
-      <c r="B19" s="178"/>
-      <c r="C19" s="179"/>
-      <c r="D19" s="180"/>
+      <c r="A19" s="204"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="188"/>
+      <c r="D19" s="189"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
-      <c r="B20" s="181" t="s">
+      <c r="A20" s="204"/>
+      <c r="B20" s="203" t="s">
         <v>469</v>
       </c>
       <c r="C20" s="17" t="s">
@@ -42473,8 +42473,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
-      <c r="B21" s="182"/>
+      <c r="A21" s="204"/>
+      <c r="B21" s="204"/>
       <c r="C21" s="17" t="s">
         <v>121</v>
       </c>
@@ -42483,8 +42483,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
-      <c r="B22" s="183"/>
+      <c r="A22" s="204"/>
+      <c r="B22" s="205"/>
       <c r="C22" s="17" t="s">
         <v>472</v>
       </c>
@@ -42493,16 +42493,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="183"/>
+      <c r="A23" s="205"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="181" t="s">
+      <c r="A24" s="203" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="181" t="s">
+      <c r="B24" s="203" t="s">
         <v>475</v>
       </c>
       <c r="C24" s="17" t="s">
@@ -42513,8 +42513,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
-      <c r="B25" s="182"/>
+      <c r="A25" s="204"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="17" t="s">
         <v>480</v>
       </c>
@@ -42523,8 +42523,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="182"/>
-      <c r="B26" s="182"/>
+      <c r="A26" s="204"/>
+      <c r="B26" s="204"/>
       <c r="C26" s="17" t="s">
         <v>482</v>
       </c>
@@ -42533,8 +42533,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
-      <c r="B27" s="182"/>
+      <c r="A27" s="204"/>
+      <c r="B27" s="204"/>
       <c r="C27" s="17" t="s">
         <v>484</v>
       </c>
@@ -42543,8 +42543,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
-      <c r="B28" s="183"/>
+      <c r="A28" s="204"/>
+      <c r="B28" s="205"/>
       <c r="C28" s="17" t="s">
         <v>485</v>
       </c>
@@ -42553,14 +42553,14 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="182"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
+      <c r="A29" s="204"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="186"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
-      <c r="B30" s="181" t="s">
+      <c r="A30" s="204"/>
+      <c r="B30" s="203" t="s">
         <v>477</v>
       </c>
       <c r="C30" s="17" t="s">
@@ -42571,8 +42571,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
-      <c r="B31" s="182"/>
+      <c r="A31" s="204"/>
+      <c r="B31" s="204"/>
       <c r="C31" s="17" t="s">
         <v>489</v>
       </c>
@@ -42581,8 +42581,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="182"/>
-      <c r="B32" s="182"/>
+      <c r="A32" s="204"/>
+      <c r="B32" s="204"/>
       <c r="C32" s="17" t="s">
         <v>491</v>
       </c>
@@ -42591,8 +42591,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A33" s="182"/>
-      <c r="B33" s="183"/>
+      <c r="A33" s="204"/>
+      <c r="B33" s="205"/>
       <c r="C33" s="21" t="s">
         <v>493</v>
       </c>
@@ -42601,14 +42601,14 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="182"/>
-      <c r="B34" s="174"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
+      <c r="A34" s="204"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
-      <c r="B35" s="181" t="s">
+      <c r="A35" s="204"/>
+      <c r="B35" s="203" t="s">
         <v>495</v>
       </c>
       <c r="C35" s="17" t="s">
@@ -42619,8 +42619,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="182"/>
-      <c r="B36" s="182"/>
+      <c r="A36" s="204"/>
+      <c r="B36" s="204"/>
       <c r="C36" s="17" t="s">
         <v>498</v>
       </c>
@@ -42629,8 +42629,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
-      <c r="B37" s="182"/>
+      <c r="A37" s="204"/>
+      <c r="B37" s="204"/>
       <c r="C37" s="17" t="s">
         <v>500</v>
       </c>
@@ -42639,8 +42639,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="182"/>
-      <c r="B38" s="182"/>
+      <c r="A38" s="204"/>
+      <c r="B38" s="204"/>
       <c r="C38" s="17" t="s">
         <v>502</v>
       </c>
@@ -42649,8 +42649,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="182"/>
-      <c r="B39" s="182"/>
+      <c r="A39" s="204"/>
+      <c r="B39" s="204"/>
       <c r="C39" s="17" t="s">
         <v>503</v>
       </c>
@@ -42659,8 +42659,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="182"/>
-      <c r="B40" s="182"/>
+      <c r="A40" s="204"/>
+      <c r="B40" s="204"/>
       <c r="C40" s="21" t="s">
         <v>505</v>
       </c>
@@ -42669,8 +42669,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="182"/>
-      <c r="B41" s="182"/>
+      <c r="A41" s="204"/>
+      <c r="B41" s="204"/>
       <c r="C41" s="17" t="s">
         <v>507</v>
       </c>
@@ -42679,8 +42679,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="182"/>
-      <c r="B42" s="182"/>
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
       <c r="C42" s="17" t="s">
         <v>509</v>
       </c>
@@ -42689,8 +42689,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
-      <c r="B43" s="183"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="205"/>
       <c r="C43" s="17" t="s">
         <v>511</v>
       </c>
@@ -42699,14 +42699,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="182"/>
-      <c r="B44" s="174"/>
-      <c r="C44" s="175"/>
-      <c r="D44" s="176"/>
+      <c r="A44" s="204"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="186"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="182"/>
-      <c r="B45" s="181" t="s">
+      <c r="A45" s="204"/>
+      <c r="B45" s="203" t="s">
         <v>514</v>
       </c>
       <c r="C45" s="17" t="s">
@@ -42717,8 +42717,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="182"/>
-      <c r="B46" s="182"/>
+      <c r="A46" s="204"/>
+      <c r="B46" s="204"/>
       <c r="C46" s="17" t="s">
         <v>517</v>
       </c>
@@ -42727,8 +42727,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="182"/>
-      <c r="B47" s="182"/>
+      <c r="A47" s="204"/>
+      <c r="B47" s="204"/>
       <c r="C47" s="17" t="s">
         <v>519</v>
       </c>
@@ -42737,8 +42737,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="182"/>
-      <c r="B48" s="183"/>
+      <c r="A48" s="204"/>
+      <c r="B48" s="205"/>
       <c r="C48" s="17" t="s">
         <v>521</v>
       </c>
@@ -42747,14 +42747,14 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="182"/>
-      <c r="B49" s="174"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="176"/>
+      <c r="A49" s="204"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="186"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="182"/>
-      <c r="B50" s="181" t="s">
+      <c r="A50" s="204"/>
+      <c r="B50" s="203" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="17" t="s">
@@ -42765,8 +42765,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="182"/>
-      <c r="B51" s="182"/>
+      <c r="A51" s="204"/>
+      <c r="B51" s="204"/>
       <c r="C51" s="17" t="s">
         <v>526</v>
       </c>
@@ -42775,8 +42775,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="182"/>
-      <c r="B52" s="182"/>
+      <c r="A52" s="204"/>
+      <c r="B52" s="204"/>
       <c r="C52" s="17" t="s">
         <v>528</v>
       </c>
@@ -42785,8 +42785,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="182"/>
-      <c r="B53" s="182"/>
+      <c r="A53" s="204"/>
+      <c r="B53" s="204"/>
       <c r="C53" s="17" t="s">
         <v>530</v>
       </c>
@@ -42795,8 +42795,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="182"/>
-      <c r="B54" s="182"/>
+      <c r="A54" s="204"/>
+      <c r="B54" s="204"/>
       <c r="C54" s="17" t="s">
         <v>531</v>
       </c>
@@ -42805,8 +42805,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="182"/>
-      <c r="B55" s="182"/>
+      <c r="A55" s="204"/>
+      <c r="B55" s="204"/>
       <c r="C55" s="17" t="s">
         <v>533</v>
       </c>
@@ -42815,8 +42815,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="182"/>
-      <c r="B56" s="182"/>
+      <c r="A56" s="204"/>
+      <c r="B56" s="204"/>
       <c r="C56" s="17" t="s">
         <v>535</v>
       </c>
@@ -42825,8 +42825,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="182"/>
-      <c r="B57" s="182"/>
+      <c r="A57" s="204"/>
+      <c r="B57" s="204"/>
       <c r="C57" s="17" t="s">
         <v>537</v>
       </c>
@@ -42835,8 +42835,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="182"/>
-      <c r="B58" s="182"/>
+      <c r="A58" s="204"/>
+      <c r="B58" s="204"/>
       <c r="C58" s="17" t="s">
         <v>539</v>
       </c>
@@ -42845,8 +42845,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="183"/>
-      <c r="B59" s="183"/>
+      <c r="A59" s="205"/>
+      <c r="B59" s="205"/>
       <c r="C59" s="17" t="s">
         <v>541</v>
       </c>
@@ -42856,6 +42856,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42866,14 +42874,6 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42912,7 +42912,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="203" t="s">
         <v>548</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -42923,7 +42923,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
+      <c r="A3" s="204"/>
       <c r="B3" s="5" t="s">
         <v>551</v>
       </c>
@@ -42939,7 +42939,7 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="182"/>
+      <c r="A4" s="204"/>
       <c r="B4" s="5" t="s">
         <v>553</v>
       </c>
@@ -42951,7 +42951,7 @@
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
+      <c r="A5" s="204"/>
       <c r="B5" s="5" t="s">
         <v>555</v>
       </c>
@@ -42967,7 +42967,7 @@
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="5" t="s">
         <v>557</v>
       </c>
@@ -42979,7 +42979,7 @@
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="5" t="s">
         <v>559</v>
       </c>
@@ -42991,7 +42991,7 @@
       <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="5" t="s">
         <v>561</v>
       </c>
@@ -43007,7 +43007,7 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="183"/>
+      <c r="A9" s="205"/>
       <c r="B9" s="30" t="s">
         <v>563</v>
       </c>
@@ -43019,7 +43019,7 @@
       <c r="F9" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="184" t="s">
+      <c r="A11" s="206" t="s">
         <v>593</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -43030,7 +43030,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="185"/>
+      <c r="A12" s="207"/>
       <c r="B12" s="5" t="s">
         <v>1333</v>
       </c>
@@ -43039,7 +43039,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="185"/>
+      <c r="A13" s="207"/>
       <c r="B13" s="5" t="s">
         <v>1335</v>
       </c>
@@ -43048,7 +43048,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="185"/>
+      <c r="A14" s="207"/>
       <c r="B14" s="5" t="s">
         <v>1337</v>
       </c>
@@ -43057,7 +43057,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="185"/>
+      <c r="A15" s="207"/>
       <c r="B15" s="5" t="s">
         <v>1340</v>
       </c>
@@ -43066,7 +43066,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="185"/>
+      <c r="A16" s="207"/>
       <c r="B16" s="5" t="s">
         <v>1341</v>
       </c>
@@ -43075,7 +43075,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="185"/>
+      <c r="A17" s="207"/>
       <c r="B17" s="5" t="s">
         <v>1343</v>
       </c>
@@ -43084,7 +43084,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="185"/>
+      <c r="A18" s="207"/>
       <c r="B18" s="5" t="s">
         <v>1345</v>
       </c>
@@ -43093,7 +43093,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="185"/>
+      <c r="A19" s="207"/>
       <c r="B19" s="5" t="s">
         <v>1347</v>
       </c>
@@ -43102,7 +43102,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="185"/>
+      <c r="A20" s="207"/>
       <c r="B20" s="5" t="s">
         <v>587</v>
       </c>
@@ -43111,7 +43111,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="185"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="5" t="s">
         <v>589</v>
       </c>
@@ -43120,7 +43120,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="186"/>
+      <c r="A22" s="208"/>
       <c r="B22" s="30" t="s">
         <v>591</v>
       </c>
@@ -43134,7 +43134,7 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="184" t="s">
+      <c r="A24" s="206" t="s">
         <v>1349</v>
       </c>
       <c r="B24" s="32" t="s">
@@ -43145,7 +43145,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="185"/>
+      <c r="A25" s="207"/>
       <c r="B25" s="5" t="s">
         <v>1352</v>
       </c>
@@ -43154,7 +43154,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="185"/>
+      <c r="A26" s="207"/>
       <c r="B26" s="5" t="s">
         <v>1353</v>
       </c>
@@ -43163,7 +43163,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="185"/>
+      <c r="A27" s="207"/>
       <c r="B27" s="5" t="s">
         <v>1354</v>
       </c>
@@ -43172,7 +43172,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="185"/>
+      <c r="A28" s="207"/>
       <c r="B28" s="5" t="s">
         <v>1356</v>
       </c>
@@ -43181,7 +43181,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="185"/>
+      <c r="A29" s="207"/>
       <c r="B29" s="5" t="s">
         <v>1357</v>
       </c>
@@ -43190,7 +43190,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="185"/>
+      <c r="A30" s="207"/>
       <c r="B30" s="5" t="s">
         <v>1360</v>
       </c>
@@ -43199,7 +43199,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="185"/>
+      <c r="A31" s="207"/>
       <c r="B31" s="5" t="s">
         <v>1359</v>
       </c>
@@ -43208,7 +43208,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="185"/>
+      <c r="A32" s="207"/>
       <c r="B32" s="5" t="s">
         <v>1363</v>
       </c>
@@ -43217,7 +43217,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="185"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="5" t="s">
         <v>1365</v>
       </c>
@@ -43226,7 +43226,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="185"/>
+      <c r="A34" s="207"/>
       <c r="B34" s="5" t="s">
         <v>1369</v>
       </c>
@@ -43235,7 +43235,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="186"/>
+      <c r="A35" s="208"/>
       <c r="B35" s="30" t="s">
         <v>1368</v>
       </c>
@@ -43244,7 +43244,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="190" t="s">
+      <c r="A37" s="212" t="s">
         <v>1371</v>
       </c>
       <c r="B37" s="32" t="s">
@@ -43255,7 +43255,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="191"/>
+      <c r="A38" s="213"/>
       <c r="B38" s="5" t="s">
         <v>1374</v>
       </c>
@@ -43264,7 +43264,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="191"/>
+      <c r="A39" s="213"/>
       <c r="B39" s="5" t="s">
         <v>1376</v>
       </c>
@@ -43273,7 +43273,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="191"/>
+      <c r="A40" s="213"/>
       <c r="B40" s="5" t="s">
         <v>1378</v>
       </c>
@@ -43282,7 +43282,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="192"/>
+      <c r="A41" s="214"/>
       <c r="B41" s="30" t="s">
         <v>1380</v>
       </c>
@@ -43307,7 +43307,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="184" t="s">
+      <c r="A45" s="206" t="s">
         <v>1385</v>
       </c>
       <c r="B45" s="32" t="s">
@@ -43318,7 +43318,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="185"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="5" t="s">
         <v>1389</v>
       </c>
@@ -43327,7 +43327,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="185"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="5" t="s">
         <v>1386</v>
       </c>
@@ -43336,7 +43336,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="185"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="5" t="s">
         <v>1392</v>
       </c>
@@ -43345,7 +43345,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="185"/>
+      <c r="A49" s="207"/>
       <c r="B49" s="5" t="s">
         <v>1394</v>
       </c>
@@ -43354,7 +43354,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="186"/>
+      <c r="A50" s="208"/>
       <c r="B50" s="30" t="s">
         <v>1396</v>
       </c>
@@ -43368,7 +43368,7 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="184" t="s">
+      <c r="A52" s="206" t="s">
         <v>1398</v>
       </c>
       <c r="B52" s="32" t="s">
@@ -43379,7 +43379,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="185"/>
+      <c r="A53" s="207"/>
       <c r="B53" s="5" t="s">
         <v>1401</v>
       </c>
@@ -43388,7 +43388,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="185"/>
+      <c r="A54" s="207"/>
       <c r="B54" s="5" t="s">
         <v>1403</v>
       </c>
@@ -43397,7 +43397,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="185"/>
+      <c r="A55" s="207"/>
       <c r="B55" s="5" t="s">
         <v>1405</v>
       </c>
@@ -43406,7 +43406,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="185"/>
+      <c r="A56" s="207"/>
       <c r="B56" s="5" t="s">
         <v>1406</v>
       </c>
@@ -43415,7 +43415,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="185"/>
+      <c r="A57" s="207"/>
       <c r="B57" s="5" t="s">
         <v>1409</v>
       </c>
@@ -43424,7 +43424,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="185"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="5" t="s">
         <v>1411</v>
       </c>
@@ -43433,7 +43433,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="185"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="5" t="s">
         <v>1412</v>
       </c>
@@ -43442,7 +43442,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="185"/>
+      <c r="A60" s="207"/>
       <c r="B60" s="5" t="s">
         <v>1413</v>
       </c>
@@ -43451,7 +43451,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="185"/>
+      <c r="A61" s="207"/>
       <c r="B61" s="5" t="s">
         <v>1414</v>
       </c>
@@ -43460,7 +43460,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="185"/>
+      <c r="A62" s="207"/>
       <c r="B62" s="5" t="s">
         <v>1419</v>
       </c>
@@ -43469,7 +43469,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="186"/>
+      <c r="A63" s="208"/>
       <c r="B63" s="30" t="s">
         <v>1421</v>
       </c>
@@ -43478,7 +43478,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="184" t="s">
+      <c r="A65" s="206" t="s">
         <v>1423</v>
       </c>
       <c r="B65" s="32" t="s">
@@ -43489,7 +43489,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="185"/>
+      <c r="A66" s="207"/>
       <c r="B66" s="5" t="s">
         <v>1425</v>
       </c>
@@ -43498,7 +43498,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="185"/>
+      <c r="A67" s="207"/>
       <c r="B67" s="5" t="s">
         <v>91</v>
       </c>
@@ -43507,7 +43507,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="185"/>
+      <c r="A68" s="207"/>
       <c r="B68" s="5" t="s">
         <v>92</v>
       </c>
@@ -43516,7 +43516,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="186"/>
+      <c r="A69" s="208"/>
       <c r="B69" s="30" t="s">
         <v>1429</v>
       </c>
@@ -43525,7 +43525,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="181" t="s">
+      <c r="A71" s="203" t="s">
         <v>1431</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -43536,7 +43536,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="182"/>
+      <c r="A72" s="204"/>
       <c r="B72" s="5" t="s">
         <v>1434</v>
       </c>
@@ -43545,7 +43545,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="182"/>
+      <c r="A73" s="204"/>
       <c r="B73" s="5" t="s">
         <v>1435</v>
       </c>
@@ -43554,7 +43554,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="182"/>
+      <c r="A74" s="204"/>
       <c r="B74" s="5" t="s">
         <v>1436</v>
       </c>
@@ -43563,7 +43563,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="183"/>
+      <c r="A75" s="205"/>
       <c r="B75" s="30" t="s">
         <v>1437</v>
       </c>
@@ -43572,7 +43572,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="184" t="s">
+      <c r="A77" s="206" t="s">
         <v>1448</v>
       </c>
       <c r="B77" s="32" t="s">
@@ -43583,7 +43583,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="185"/>
+      <c r="A78" s="207"/>
       <c r="B78" s="5" t="s">
         <v>1444</v>
       </c>
@@ -43592,7 +43592,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="186"/>
+      <c r="A79" s="208"/>
       <c r="B79" s="30" t="s">
         <v>1446</v>
       </c>
@@ -43601,7 +43601,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="190" t="s">
+      <c r="A81" s="212" t="s">
         <v>1449</v>
       </c>
       <c r="B81" s="32" t="s">
@@ -43612,7 +43612,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="191"/>
+      <c r="A82" s="213"/>
       <c r="B82" s="5" t="s">
         <v>1452</v>
       </c>
@@ -43621,7 +43621,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="192"/>
+      <c r="A83" s="214"/>
       <c r="B83" s="30" t="s">
         <v>1454</v>
       </c>
@@ -43630,7 +43630,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="187" t="s">
+      <c r="A85" s="209" t="s">
         <v>1457</v>
       </c>
       <c r="B85" s="32" t="s">
@@ -43641,7 +43641,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="188"/>
+      <c r="A86" s="210"/>
       <c r="B86" s="5" t="s">
         <v>1458</v>
       </c>
@@ -43650,7 +43650,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="189"/>
+      <c r="A87" s="211"/>
       <c r="B87" s="30" t="s">
         <v>1459</v>
       </c>
@@ -43718,7 +43718,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="215" t="s">
         <v>747</v>
       </c>
       <c r="B2" s="36" t="s">
@@ -43736,7 +43736,7 @@
       <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="195"/>
+      <c r="A3" s="217"/>
       <c r="B3" s="38" t="s">
         <v>746</v>
       </c>
@@ -43752,7 +43752,7 @@
       <c r="F3" s="39"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="195"/>
+      <c r="A4" s="217"/>
       <c r="B4" s="38" t="s">
         <v>748</v>
       </c>
@@ -43768,7 +43768,7 @@
       <c r="F4" s="39"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="195"/>
+      <c r="A5" s="217"/>
       <c r="B5" s="38" t="s">
         <v>749</v>
       </c>
@@ -43784,7 +43784,7 @@
       <c r="F5" s="39"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="194"/>
+      <c r="A6" s="216"/>
       <c r="B6" s="40" t="s">
         <v>750</v>
       </c>
@@ -43809,7 +43809,7 @@
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="215" t="s">
         <v>757</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -43828,7 +43828,7 @@
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="195"/>
+      <c r="A9" s="217"/>
       <c r="B9" s="38" t="s">
         <v>664</v>
       </c>
@@ -43847,7 +43847,7 @@
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="195"/>
+      <c r="A10" s="217"/>
       <c r="B10" s="38" t="s">
         <v>665</v>
       </c>
@@ -43866,7 +43866,7 @@
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="194"/>
+      <c r="A11" s="216"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
         <v>693</v>
@@ -43884,7 +43884,7 @@
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="193" t="s">
+      <c r="A13" s="215" t="s">
         <v>759</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -43903,7 +43903,7 @@
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="195"/>
+      <c r="A14" s="217"/>
       <c r="B14" s="38" t="s">
         <v>667</v>
       </c>
@@ -43920,7 +43920,7 @@
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="195"/>
+      <c r="A15" s="217"/>
       <c r="B15" s="38" t="s">
         <v>760</v>
       </c>
@@ -43937,7 +43937,7 @@
       <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="195"/>
+      <c r="A16" s="217"/>
       <c r="B16" s="38" t="s">
         <v>668</v>
       </c>
@@ -43954,7 +43954,7 @@
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="194"/>
+      <c r="A17" s="216"/>
       <c r="B17" s="40" t="s">
         <v>669</v>
       </c>
@@ -43980,7 +43980,7 @@
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="193" t="s">
+      <c r="A19" s="215" t="s">
         <v>764</v>
       </c>
       <c r="B19" s="36" t="s">
@@ -43999,7 +43999,7 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="195"/>
+      <c r="A20" s="217"/>
       <c r="B20" s="38" t="s">
         <v>761</v>
       </c>
@@ -44016,7 +44016,7 @@
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="195"/>
+      <c r="A21" s="217"/>
       <c r="B21" s="38" t="s">
         <v>671</v>
       </c>
@@ -44033,7 +44033,7 @@
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="194"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="40" t="s">
         <v>672</v>
       </c>
@@ -44053,7 +44053,7 @@
       <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="193" t="s">
+      <c r="A24" s="215" t="s">
         <v>765</v>
       </c>
       <c r="B24" s="36" t="s">
@@ -44071,7 +44071,7 @@
       <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="195"/>
+      <c r="A25" s="217"/>
       <c r="B25" s="38" t="s">
         <v>674</v>
       </c>
@@ -44087,7 +44087,7 @@
       <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="195"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="38" t="s">
         <v>675</v>
       </c>
@@ -44103,7 +44103,7 @@
       <c r="F26" s="39"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="195"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="38" t="s">
         <v>766</v>
       </c>
@@ -44119,7 +44119,7 @@
       <c r="F27" s="39"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A28" s="195"/>
+      <c r="A28" s="217"/>
       <c r="B28" s="38" t="s">
         <v>676</v>
       </c>
@@ -44135,7 +44135,7 @@
       <c r="F28" s="39"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="195"/>
+      <c r="A29" s="217"/>
       <c r="B29" s="38" t="s">
         <v>677</v>
       </c>
@@ -44151,7 +44151,7 @@
       <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A30" s="194"/>
+      <c r="A30" s="216"/>
       <c r="B30" s="40" t="s">
         <v>678</v>
       </c>
@@ -44167,7 +44167,7 @@
       <c r="F30" s="41"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="193" t="s">
+      <c r="A32" s="215" t="s">
         <v>767</v>
       </c>
       <c r="B32" s="36" t="s">
@@ -44185,7 +44185,7 @@
       <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="195"/>
+      <c r="A33" s="217"/>
       <c r="B33" s="38" t="s">
         <v>768</v>
       </c>
@@ -44201,7 +44201,7 @@
       <c r="F33" s="39"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="194"/>
+      <c r="A34" s="216"/>
       <c r="B34" s="40" t="s">
         <v>680</v>
       </c>
@@ -44217,7 +44217,7 @@
       <c r="F34" s="41"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="193" t="s">
+      <c r="A36" s="215" t="s">
         <v>769</v>
       </c>
       <c r="B36" s="36" t="s">
@@ -44235,7 +44235,7 @@
       <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="194"/>
+      <c r="A37" s="216"/>
       <c r="B37" s="40" t="s">
         <v>681</v>
       </c>
@@ -44269,7 +44269,7 @@
       <c r="F39" s="43"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="193" t="s">
+      <c r="A41" s="215" t="s">
         <v>773</v>
       </c>
       <c r="B41" s="36" t="s">
@@ -44287,7 +44287,7 @@
       <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="195"/>
+      <c r="A42" s="217"/>
       <c r="B42" s="38" t="s">
         <v>774</v>
       </c>
@@ -44303,7 +44303,7 @@
       <c r="F42" s="39"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="195"/>
+      <c r="A43" s="217"/>
       <c r="B43" s="38" t="s">
         <v>683</v>
       </c>
@@ -44319,7 +44319,7 @@
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="195"/>
+      <c r="A44" s="217"/>
       <c r="B44" s="38" t="s">
         <v>684</v>
       </c>
@@ -44335,7 +44335,7 @@
       <c r="F44" s="39"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="195"/>
+      <c r="A45" s="217"/>
       <c r="B45" s="38" t="s">
         <v>776</v>
       </c>
@@ -44351,7 +44351,7 @@
       <c r="F45" s="39"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="195"/>
+      <c r="A46" s="217"/>
       <c r="B46" s="38" t="s">
         <v>777</v>
       </c>
@@ -44367,7 +44367,7 @@
       <c r="F46" s="39"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="194"/>
+      <c r="A47" s="216"/>
       <c r="B47" s="40" t="s">
         <v>778</v>
       </c>
@@ -44436,7 +44436,7 @@
     </row>
     <row r="3" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="218" t="s">
         <v>377</v>
       </c>
       <c r="B4" s="49" t="s">
@@ -44447,7 +44447,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="198"/>
+      <c r="A5" s="220"/>
       <c r="B5" s="19" t="s">
         <v>790</v>
       </c>
@@ -44456,7 +44456,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="198"/>
+      <c r="A6" s="220"/>
       <c r="B6" s="19" t="s">
         <v>792</v>
       </c>
@@ -44465,7 +44465,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="197"/>
+      <c r="A7" s="219"/>
       <c r="B7" s="54" t="s">
         <v>794</v>
       </c>
@@ -44475,7 +44475,7 @@
     </row>
     <row r="8" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="196" t="s">
+      <c r="A9" s="218" t="s">
         <v>796</v>
       </c>
       <c r="B9" s="49" t="s">
@@ -44486,7 +44486,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="198"/>
+      <c r="A10" s="220"/>
       <c r="B10" s="19" t="s">
         <v>799</v>
       </c>
@@ -44495,7 +44495,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="197"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="54" t="s">
         <v>801</v>
       </c>
@@ -44505,7 +44505,7 @@
     </row>
     <row r="12" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="218" t="s">
         <v>803</v>
       </c>
       <c r="B13" s="49" t="s">
@@ -44516,7 +44516,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="197"/>
+      <c r="A14" s="219"/>
       <c r="B14" s="54" t="s">
         <v>806</v>
       </c>
@@ -44526,7 +44526,7 @@
     </row>
     <row r="15" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="196" t="s">
+      <c r="A16" s="218" t="s">
         <v>808</v>
       </c>
       <c r="B16" s="49" t="s">
@@ -44537,7 +44537,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="198"/>
+      <c r="A17" s="220"/>
       <c r="B17" s="19" t="s">
         <v>811</v>
       </c>
@@ -44546,7 +44546,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="197"/>
+      <c r="A18" s="219"/>
       <c r="B18" s="54" t="s">
         <v>813</v>
       </c>
@@ -44556,7 +44556,7 @@
     </row>
     <row r="19" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="196" t="s">
+      <c r="A20" s="218" t="s">
         <v>815</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -44567,7 +44567,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="197"/>
+      <c r="A21" s="219"/>
       <c r="B21" s="54" t="s">
         <v>786</v>
       </c>
@@ -44575,7 +44575,7 @@
     </row>
     <row r="22" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="196" t="s">
+      <c r="A23" s="218" t="s">
         <v>818</v>
       </c>
       <c r="B23" s="49" t="s">
@@ -44586,7 +44586,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="197"/>
+      <c r="A24" s="219"/>
       <c r="B24" s="54" t="s">
         <v>821</v>
       </c>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="光大" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6296" uniqueCount="3995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6298" uniqueCount="3995">
   <si>
     <t>大类因子</t>
   </si>
@@ -16207,9 +16207,6 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16217,6 +16214,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16227,6 +16227,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16240,15 +16258,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16256,15 +16265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16330,22 +16330,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16356,6 +16347,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16413,7 +16413,7 @@
         <xdr:cNvPr id="7169" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000011C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16874,8 +16874,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A111" sqref="A111:D111"/>
     </sheetView>
   </sheetViews>
@@ -16902,10 +16902,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="186" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="183" t="s">
+      <c r="B2" s="186" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="171" t="s">
@@ -16916,8 +16916,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="183"/>
-      <c r="B3" s="183"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
       <c r="C3" s="171" t="s">
         <v>7</v>
       </c>
@@ -16926,8 +16926,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="183"/>
-      <c r="B4" s="183"/>
+      <c r="A4" s="186"/>
+      <c r="B4" s="186"/>
       <c r="C4" s="171" t="s">
         <v>8</v>
       </c>
@@ -16936,8 +16936,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="183"/>
-      <c r="B5" s="183"/>
+      <c r="A5" s="186"/>
+      <c r="B5" s="186"/>
       <c r="C5" s="171" t="s">
         <v>9</v>
       </c>
@@ -16946,8 +16946,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="183"/>
-      <c r="B6" s="183"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="186"/>
       <c r="C6" s="170" t="s">
         <v>10</v>
       </c>
@@ -16956,8 +16956,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="183"/>
-      <c r="B7" s="183"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="186"/>
       <c r="C7" s="171" t="s">
         <v>11</v>
       </c>
@@ -16966,8 +16966,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="183"/>
-      <c r="B8" s="183"/>
+      <c r="A8" s="186"/>
+      <c r="B8" s="186"/>
       <c r="C8" s="171" t="s">
         <v>12</v>
       </c>
@@ -16976,8 +16976,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
+      <c r="A9" s="186"/>
+      <c r="B9" s="186"/>
       <c r="C9" s="171" t="s">
         <v>13</v>
       </c>
@@ -16986,8 +16986,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="183"/>
-      <c r="B10" s="183"/>
+      <c r="A10" s="186"/>
+      <c r="B10" s="186"/>
       <c r="C10" s="170" t="s">
         <v>14</v>
       </c>
@@ -16996,8 +16996,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="183"/>
-      <c r="B11" s="183"/>
+      <c r="A11" s="186"/>
+      <c r="B11" s="186"/>
       <c r="C11" s="170" t="s">
         <v>15</v>
       </c>
@@ -17006,8 +17006,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="183"/>
-      <c r="B12" s="183"/>
+      <c r="A12" s="186"/>
+      <c r="B12" s="186"/>
       <c r="C12" s="170" t="s">
         <v>16</v>
       </c>
@@ -17016,8 +17016,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="183"/>
-      <c r="B13" s="183"/>
+      <c r="A13" s="186"/>
+      <c r="B13" s="186"/>
       <c r="C13" s="170" t="s">
         <v>17</v>
       </c>
@@ -17026,14 +17026,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="183"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="186"/>
+      <c r="A14" s="186"/>
+      <c r="B14" s="183"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="185"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="183"/>
-      <c r="B15" s="183" t="s">
+      <c r="A15" s="186"/>
+      <c r="B15" s="186" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17044,8 +17044,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="183"/>
-      <c r="B16" s="183"/>
+      <c r="A16" s="186"/>
+      <c r="B16" s="186"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -17054,8 +17054,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="183"/>
-      <c r="B17" s="183"/>
+      <c r="A17" s="186"/>
+      <c r="B17" s="186"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -17064,8 +17064,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="183"/>
-      <c r="B18" s="183"/>
+      <c r="A18" s="186"/>
+      <c r="B18" s="186"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -17074,8 +17074,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="183"/>
-      <c r="B19" s="183"/>
+      <c r="A19" s="186"/>
+      <c r="B19" s="186"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -17084,8 +17084,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="183"/>
-      <c r="B20" s="183"/>
+      <c r="A20" s="186"/>
+      <c r="B20" s="186"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -17094,8 +17094,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="183"/>
-      <c r="B21" s="183"/>
+      <c r="A21" s="186"/>
+      <c r="B21" s="186"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17104,14 +17104,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="183"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="186"/>
+      <c r="A22" s="186"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="183"/>
-      <c r="B23" s="183" t="s">
+      <c r="A23" s="186"/>
+      <c r="B23" s="186" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17122,8 +17122,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="183"/>
-      <c r="B24" s="183"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="186"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17132,8 +17132,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="183"/>
-      <c r="B25" s="183"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="186"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17142,8 +17142,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="183"/>
-      <c r="B26" s="183"/>
+      <c r="A26" s="186"/>
+      <c r="B26" s="186"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17152,8 +17152,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="183"/>
-      <c r="B27" s="183"/>
+      <c r="A27" s="186"/>
+      <c r="B27" s="186"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17162,8 +17162,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="183"/>
-      <c r="B28" s="183"/>
+      <c r="A28" s="186"/>
+      <c r="B28" s="186"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17172,8 +17172,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="183"/>
-      <c r="B29" s="183"/>
+      <c r="A29" s="186"/>
+      <c r="B29" s="186"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17182,8 +17182,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="183"/>
-      <c r="B30" s="183"/>
+      <c r="A30" s="186"/>
+      <c r="B30" s="186"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17192,8 +17192,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="183"/>
-      <c r="B31" s="183"/>
+      <c r="A31" s="186"/>
+      <c r="B31" s="186"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17202,8 +17202,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="183"/>
-      <c r="B32" s="183"/>
+      <c r="A32" s="186"/>
+      <c r="B32" s="186"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17212,8 +17212,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="183"/>
-      <c r="B33" s="183"/>
+      <c r="A33" s="186"/>
+      <c r="B33" s="186"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17222,8 +17222,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="183"/>
-      <c r="B34" s="183"/>
+      <c r="A34" s="186"/>
+      <c r="B34" s="186"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17232,14 +17232,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="183"/>
-      <c r="B35" s="184"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="186"/>
+      <c r="A35" s="186"/>
+      <c r="B35" s="183"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="185"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="183"/>
-      <c r="B36" s="183" t="s">
+      <c r="A36" s="186"/>
+      <c r="B36" s="186" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17250,8 +17250,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="183"/>
-      <c r="B37" s="183"/>
+      <c r="A37" s="186"/>
+      <c r="B37" s="186"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17260,8 +17260,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="183"/>
-      <c r="B38" s="183"/>
+      <c r="A38" s="186"/>
+      <c r="B38" s="186"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17270,8 +17270,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="183"/>
-      <c r="B39" s="183"/>
+      <c r="A39" s="186"/>
+      <c r="B39" s="186"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17280,8 +17280,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="183"/>
-      <c r="B40" s="183"/>
+      <c r="A40" s="186"/>
+      <c r="B40" s="186"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17290,8 +17290,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="183"/>
-      <c r="B41" s="183"/>
+      <c r="A41" s="186"/>
+      <c r="B41" s="186"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17300,8 +17300,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="183"/>
-      <c r="B42" s="183"/>
+      <c r="A42" s="186"/>
+      <c r="B42" s="186"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17310,8 +17310,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="183"/>
-      <c r="B43" s="183"/>
+      <c r="A43" s="186"/>
+      <c r="B43" s="186"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17320,8 +17320,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="183"/>
-      <c r="B44" s="183"/>
+      <c r="A44" s="186"/>
+      <c r="B44" s="186"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17330,8 +17330,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="183"/>
-      <c r="B45" s="183"/>
+      <c r="A45" s="186"/>
+      <c r="B45" s="186"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17340,8 +17340,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="183"/>
-      <c r="B46" s="183"/>
+      <c r="A46" s="186"/>
+      <c r="B46" s="186"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17350,8 +17350,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="183"/>
-      <c r="B47" s="183"/>
+      <c r="A47" s="186"/>
+      <c r="B47" s="186"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17360,8 +17360,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="183"/>
-      <c r="B48" s="183"/>
+      <c r="A48" s="186"/>
+      <c r="B48" s="186"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17370,8 +17370,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="183"/>
-      <c r="B49" s="183"/>
+      <c r="A49" s="186"/>
+      <c r="B49" s="186"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17380,8 +17380,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="183"/>
-      <c r="B50" s="183"/>
+      <c r="A50" s="186"/>
+      <c r="B50" s="186"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17390,8 +17390,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="183"/>
-      <c r="B51" s="183"/>
+      <c r="A51" s="186"/>
+      <c r="B51" s="186"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17400,14 +17400,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="183"/>
-      <c r="B52" s="184"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="186"/>
+      <c r="A52" s="186"/>
+      <c r="B52" s="183"/>
+      <c r="C52" s="184"/>
+      <c r="D52" s="185"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="183"/>
-      <c r="B53" s="183" t="s">
+      <c r="A53" s="186"/>
+      <c r="B53" s="186" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17418,8 +17418,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="183"/>
-      <c r="B54" s="183"/>
+      <c r="A54" s="186"/>
+      <c r="B54" s="186"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17428,8 +17428,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="183"/>
-      <c r="B55" s="183"/>
+      <c r="A55" s="186"/>
+      <c r="B55" s="186"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="183"/>
-      <c r="B56" s="183"/>
+      <c r="A56" s="186"/>
+      <c r="B56" s="186"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17448,8 +17448,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="183"/>
-      <c r="B57" s="183"/>
+      <c r="A57" s="186"/>
+      <c r="B57" s="186"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17458,8 +17458,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="183"/>
-      <c r="B58" s="183"/>
+      <c r="A58" s="186"/>
+      <c r="B58" s="186"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17468,8 +17468,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="183"/>
-      <c r="B59" s="183"/>
+      <c r="A59" s="186"/>
+      <c r="B59" s="186"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17478,16 +17478,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="184"/>
-      <c r="B60" s="185"/>
-      <c r="C60" s="185"/>
-      <c r="D60" s="186"/>
+      <c r="A60" s="183"/>
+      <c r="B60" s="184"/>
+      <c r="C60" s="184"/>
+      <c r="D60" s="185"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="183" t="s">
+      <c r="A61" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="183" t="s">
+      <c r="B61" s="186" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17498,8 +17498,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="183"/>
-      <c r="B62" s="183"/>
+      <c r="A62" s="186"/>
+      <c r="B62" s="186"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17508,8 +17508,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="183"/>
-      <c r="B63" s="183"/>
+      <c r="A63" s="186"/>
+      <c r="B63" s="186"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17518,8 +17518,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="183"/>
-      <c r="B64" s="183"/>
+      <c r="A64" s="186"/>
+      <c r="B64" s="186"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17528,8 +17528,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="183"/>
-      <c r="B65" s="183"/>
+      <c r="A65" s="186"/>
+      <c r="B65" s="186"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17538,8 +17538,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="183"/>
-      <c r="B66" s="183"/>
+      <c r="A66" s="186"/>
+      <c r="B66" s="186"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17548,14 +17548,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="183"/>
-      <c r="B67" s="184"/>
-      <c r="C67" s="185"/>
-      <c r="D67" s="186"/>
+      <c r="A67" s="186"/>
+      <c r="B67" s="183"/>
+      <c r="C67" s="184"/>
+      <c r="D67" s="185"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="183"/>
-      <c r="B68" s="183" t="s">
+      <c r="A68" s="186"/>
+      <c r="B68" s="186" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17566,8 +17566,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="183"/>
-      <c r="B69" s="183"/>
+      <c r="A69" s="186"/>
+      <c r="B69" s="186"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17576,8 +17576,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="183"/>
-      <c r="B70" s="183"/>
+      <c r="A70" s="186"/>
+      <c r="B70" s="186"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17586,8 +17586,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="183"/>
-      <c r="B71" s="183"/>
+      <c r="A71" s="186"/>
+      <c r="B71" s="186"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17596,8 +17596,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="183"/>
-      <c r="B72" s="183"/>
+      <c r="A72" s="186"/>
+      <c r="B72" s="186"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17606,8 +17606,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="183"/>
-      <c r="B73" s="183"/>
+      <c r="A73" s="186"/>
+      <c r="B73" s="186"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17616,8 +17616,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="183"/>
-      <c r="B74" s="183"/>
+      <c r="A74" s="186"/>
+      <c r="B74" s="186"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17626,8 +17626,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="183"/>
-      <c r="B75" s="183"/>
+      <c r="A75" s="186"/>
+      <c r="B75" s="186"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17636,8 +17636,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="183"/>
-      <c r="B76" s="183"/>
+      <c r="A76" s="186"/>
+      <c r="B76" s="186"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17646,8 +17646,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="183"/>
-      <c r="B77" s="183"/>
+      <c r="A77" s="186"/>
+      <c r="B77" s="186"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17656,14 +17656,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="183"/>
-      <c r="B78" s="184"/>
-      <c r="C78" s="185"/>
-      <c r="D78" s="186"/>
+      <c r="A78" s="186"/>
+      <c r="B78" s="183"/>
+      <c r="C78" s="184"/>
+      <c r="D78" s="185"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="183"/>
-      <c r="B79" s="183" t="s">
+      <c r="A79" s="186"/>
+      <c r="B79" s="186" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17674,8 +17674,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="183"/>
-      <c r="B80" s="183"/>
+      <c r="A80" s="186"/>
+      <c r="B80" s="186"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17684,8 +17684,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="183"/>
-      <c r="B81" s="183"/>
+      <c r="A81" s="186"/>
+      <c r="B81" s="186"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17694,8 +17694,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="183"/>
-      <c r="B82" s="183"/>
+      <c r="A82" s="186"/>
+      <c r="B82" s="186"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17704,8 +17704,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="183"/>
-      <c r="B83" s="183"/>
+      <c r="A83" s="186"/>
+      <c r="B83" s="186"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17714,8 +17714,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="183"/>
-      <c r="B84" s="183"/>
+      <c r="A84" s="186"/>
+      <c r="B84" s="186"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17724,14 +17724,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="183"/>
-      <c r="B85" s="184"/>
-      <c r="C85" s="185"/>
-      <c r="D85" s="186"/>
+      <c r="A85" s="186"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="185"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="183"/>
-      <c r="B86" s="183" t="s">
+      <c r="A86" s="186"/>
+      <c r="B86" s="186" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17742,8 +17742,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="183"/>
-      <c r="B87" s="183"/>
+      <c r="A87" s="186"/>
+      <c r="B87" s="186"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17752,8 +17752,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="183"/>
-      <c r="B88" s="183"/>
+      <c r="A88" s="186"/>
+      <c r="B88" s="186"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17762,8 +17762,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="183"/>
-      <c r="B89" s="183"/>
+      <c r="A89" s="186"/>
+      <c r="B89" s="186"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17772,16 +17772,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="184"/>
-      <c r="B90" s="185"/>
-      <c r="C90" s="185"/>
-      <c r="D90" s="186"/>
+      <c r="A90" s="183"/>
+      <c r="B90" s="184"/>
+      <c r="C90" s="184"/>
+      <c r="D90" s="185"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="183" t="s">
+      <c r="A91" s="186" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="183" t="s">
+      <c r="B91" s="186" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17792,8 +17792,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="183"/>
-      <c r="B92" s="183"/>
+      <c r="A92" s="186"/>
+      <c r="B92" s="186"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17802,8 +17802,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="183"/>
-      <c r="B93" s="183"/>
+      <c r="A93" s="186"/>
+      <c r="B93" s="186"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17812,8 +17812,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="183"/>
-      <c r="B94" s="183"/>
+      <c r="A94" s="186"/>
+      <c r="B94" s="186"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17822,8 +17822,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="183"/>
-      <c r="B95" s="183"/>
+      <c r="A95" s="186"/>
+      <c r="B95" s="186"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17832,8 +17832,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="183"/>
-      <c r="B96" s="183"/>
+      <c r="A96" s="186"/>
+      <c r="B96" s="186"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17842,8 +17842,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="183"/>
-      <c r="B97" s="183"/>
+      <c r="A97" s="186"/>
+      <c r="B97" s="186"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17852,8 +17852,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="183"/>
-      <c r="B98" s="183"/>
+      <c r="A98" s="186"/>
+      <c r="B98" s="186"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17862,8 +17862,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="183"/>
-      <c r="B99" s="183"/>
+      <c r="A99" s="186"/>
+      <c r="B99" s="186"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17872,8 +17872,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="183"/>
-      <c r="B100" s="183"/>
+      <c r="A100" s="186"/>
+      <c r="B100" s="186"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17882,8 +17882,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="183"/>
-      <c r="B101" s="183"/>
+      <c r="A101" s="186"/>
+      <c r="B101" s="186"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17892,8 +17892,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="183"/>
-      <c r="B102" s="183"/>
+      <c r="A102" s="186"/>
+      <c r="B102" s="186"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17902,8 +17902,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="183"/>
-      <c r="B103" s="183"/>
+      <c r="A103" s="186"/>
+      <c r="B103" s="186"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17912,8 +17912,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="183"/>
-      <c r="B104" s="183"/>
+      <c r="A104" s="186"/>
+      <c r="B104" s="186"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17922,8 +17922,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="183"/>
-      <c r="B105" s="183"/>
+      <c r="A105" s="186"/>
+      <c r="B105" s="186"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17932,8 +17932,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="183"/>
-      <c r="B106" s="183"/>
+      <c r="A106" s="186"/>
+      <c r="B106" s="186"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17942,8 +17942,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="183"/>
-      <c r="B107" s="183"/>
+      <c r="A107" s="186"/>
+      <c r="B107" s="186"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17952,8 +17952,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="183"/>
-      <c r="B108" s="183"/>
+      <c r="A108" s="186"/>
+      <c r="B108" s="186"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17962,8 +17962,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="183"/>
-      <c r="B109" s="183"/>
+      <c r="A109" s="186"/>
+      <c r="B109" s="186"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17972,8 +17972,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="183"/>
-      <c r="B110" s="183"/>
+      <c r="A110" s="186"/>
+      <c r="B110" s="186"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17982,16 +17982,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="184"/>
-      <c r="B111" s="185"/>
-      <c r="C111" s="185"/>
-      <c r="D111" s="186"/>
+      <c r="A111" s="183"/>
+      <c r="B111" s="184"/>
+      <c r="C111" s="184"/>
+      <c r="D111" s="185"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="183" t="s">
+      <c r="A112" s="186" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="183" t="s">
+      <c r="B112" s="186" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -18002,8 +18002,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="183"/>
-      <c r="B113" s="183"/>
+      <c r="A113" s="186"/>
+      <c r="B113" s="186"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -18012,8 +18012,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="183"/>
-      <c r="B114" s="183"/>
+      <c r="A114" s="186"/>
+      <c r="B114" s="186"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -18022,8 +18022,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="183"/>
-      <c r="B115" s="183"/>
+      <c r="A115" s="186"/>
+      <c r="B115" s="186"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -18032,8 +18032,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="183"/>
-      <c r="B116" s="183"/>
+      <c r="A116" s="186"/>
+      <c r="B116" s="186"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -18042,8 +18042,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="183"/>
-      <c r="B117" s="183"/>
+      <c r="A117" s="186"/>
+      <c r="B117" s="186"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -18053,6 +18053,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -18066,18 +18078,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19621,7 +19621,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="227" t="s">
+      <c r="A33" s="224" t="s">
         <v>1039</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19635,7 +19635,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="228"/>
+      <c r="A34" s="226"/>
       <c r="B34" s="19" t="s">
         <v>1025</v>
       </c>
@@ -19643,7 +19643,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="228"/>
+      <c r="A35" s="226"/>
       <c r="B35" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19651,7 +19651,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="228"/>
+      <c r="A36" s="226"/>
       <c r="B36" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19659,7 +19659,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="228"/>
+      <c r="A37" s="226"/>
       <c r="B37" s="19" t="s">
         <v>997</v>
       </c>
@@ -19667,7 +19667,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="229"/>
+      <c r="A38" s="225"/>
       <c r="B38" s="54" t="s">
         <v>1027</v>
       </c>
@@ -19675,7 +19675,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="227" t="s">
+      <c r="A40" s="224" t="s">
         <v>1041</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19687,7 +19687,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="229"/>
+      <c r="A41" s="225"/>
       <c r="B41" s="54" t="s">
         <v>1029</v>
       </c>
@@ -19700,7 +19700,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="227" t="s">
+      <c r="A44" s="224" t="s">
         <v>1043</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19714,7 +19714,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="228"/>
+      <c r="A45" s="226"/>
       <c r="B45" s="19" t="s">
         <v>1031</v>
       </c>
@@ -19722,7 +19722,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="228"/>
+      <c r="A46" s="226"/>
       <c r="B46" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19730,7 +19730,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="228"/>
+      <c r="A47" s="226"/>
       <c r="B47" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19738,7 +19738,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="228"/>
+      <c r="A48" s="226"/>
       <c r="B48" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="228"/>
+      <c r="A49" s="226"/>
       <c r="B49" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19754,7 +19754,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="229"/>
+      <c r="A50" s="225"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19815,7 +19815,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="230" t="s">
+      <c r="A59" s="227" t="s">
         <v>418</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19829,7 +19829,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="231"/>
+      <c r="A60" s="228"/>
       <c r="B60" s="19" t="s">
         <v>1054</v>
       </c>
@@ -19837,7 +19837,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="232"/>
+      <c r="A61" s="229"/>
       <c r="B61" s="54" t="s">
         <v>1055</v>
       </c>
@@ -20009,7 +20009,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="224" t="s">
+      <c r="A82" s="230" t="s">
         <v>1090</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -20023,7 +20023,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="225"/>
+      <c r="A83" s="231"/>
       <c r="B83" s="19" t="s">
         <v>1092</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="225"/>
+      <c r="A84" s="231"/>
       <c r="B84" s="19" t="s">
         <v>1093</v>
       </c>
@@ -20039,7 +20039,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="226"/>
+      <c r="A85" s="232"/>
       <c r="B85" s="54" t="s">
         <v>1094</v>
       </c>
@@ -20047,7 +20047,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="224" t="s">
+      <c r="A87" s="230" t="s">
         <v>1100</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -20061,7 +20061,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="225"/>
+      <c r="A88" s="231"/>
       <c r="B88" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20073,7 +20073,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="225"/>
+      <c r="A89" s="231"/>
       <c r="B89" s="19" t="s">
         <v>1103</v>
       </c>
@@ -20085,7 +20085,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="225"/>
+      <c r="A90" s="231"/>
       <c r="B90" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20097,7 +20097,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="225"/>
+      <c r="A91" s="231"/>
       <c r="B91" s="19" t="s">
         <v>1104</v>
       </c>
@@ -20107,7 +20107,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="225"/>
+      <c r="A92" s="231"/>
       <c r="B92" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="225"/>
+      <c r="A93" s="231"/>
       <c r="B93" s="19" t="s">
         <v>535</v>
       </c>
@@ -20123,7 +20123,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="225"/>
+      <c r="A94" s="231"/>
       <c r="B94" s="19" t="s">
         <v>1105</v>
       </c>
@@ -20131,7 +20131,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="226"/>
+      <c r="A95" s="232"/>
       <c r="B95" s="54" t="s">
         <v>1106</v>
       </c>
@@ -20139,7 +20139,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="227" t="s">
+      <c r="A97" s="224" t="s">
         <v>1113</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -20151,7 +20151,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="228"/>
+      <c r="A98" s="226"/>
       <c r="B98" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20161,7 +20161,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="228"/>
+      <c r="A99" s="226"/>
       <c r="B99" s="67" t="s">
         <v>1103</v>
       </c>
@@ -20171,7 +20171,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="228"/>
+      <c r="A100" s="226"/>
       <c r="B100" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20181,7 +20181,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="228"/>
+      <c r="A101" s="226"/>
       <c r="B101" s="67" t="s">
         <v>1104</v>
       </c>
@@ -20191,7 +20191,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="229"/>
+      <c r="A102" s="225"/>
       <c r="B102" s="69" t="s">
         <v>1114</v>
       </c>
@@ -20251,22 +20251,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21455,7 +21455,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="227" t="s">
+      <c r="A125" s="224" t="s">
         <v>1311</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21466,21 +21466,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="228"/>
+      <c r="A126" s="226"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="228"/>
+      <c r="A127" s="226"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="228"/>
+      <c r="A128" s="226"/>
       <c r="B128" s="19" t="s">
         <v>1126</v>
       </c>
@@ -21489,7 +21489,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="228"/>
+      <c r="A129" s="226"/>
       <c r="B129" s="48" t="s">
         <v>716</v>
       </c>
@@ -21498,14 +21498,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="228"/>
+      <c r="A130" s="226"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="228"/>
+      <c r="A131" s="226"/>
       <c r="B131" s="48" t="s">
         <v>808</v>
       </c>
@@ -21514,14 +21514,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="228"/>
+      <c r="A132" s="226"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="229"/>
+      <c r="A133" s="225"/>
       <c r="B133" s="54" t="s">
         <v>1321</v>
       </c>
@@ -40069,9 +40069,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40102,7 +40102,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="196" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="171" t="s">
@@ -40126,7 +40126,7 @@
       <c r="J2" s="175"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="190"/>
+      <c r="A3" s="196"/>
       <c r="B3" s="171" t="s">
         <v>6</v>
       </c>
@@ -40148,7 +40148,7 @@
       <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:10" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="190"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="172" t="s">
         <v>274</v>
       </c>
@@ -40163,7 +40163,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="190"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="171" t="s">
         <v>276</v>
       </c>
@@ -40185,7 +40185,7 @@
       <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="190"/>
+      <c r="A6" s="196"/>
       <c r="B6" s="171" t="s">
         <v>9</v>
       </c>
@@ -40207,7 +40207,7 @@
       <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="190"/>
+      <c r="A7" s="196"/>
       <c r="B7" s="171" t="s">
         <v>279</v>
       </c>
@@ -40229,7 +40229,7 @@
       <c r="J7" s="175"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="190"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="171" t="s">
         <v>8</v>
       </c>
@@ -40251,7 +40251,7 @@
       <c r="J8" s="175"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="190"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="171" t="s">
         <v>282</v>
       </c>
@@ -40277,11 +40277,11 @@
       <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="200"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="202"/>
+      <c r="A10" s="193"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="195"/>
       <c r="F10" s="175"/>
       <c r="G10" s="175"/>
       <c r="H10" s="175"/>
@@ -40289,7 +40289,7 @@
       <c r="J10" s="175"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="191" t="s">
+      <c r="A11" s="197" t="s">
         <v>283</v>
       </c>
       <c r="B11" s="173" t="s">
@@ -40313,7 +40313,7 @@
       <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="192"/>
+      <c r="A12" s="198"/>
       <c r="B12" s="173" t="s">
         <v>298</v>
       </c>
@@ -40335,7 +40335,7 @@
       <c r="J12" s="175"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="192"/>
+      <c r="A13" s="198"/>
       <c r="B13" s="173" t="s">
         <v>299</v>
       </c>
@@ -40357,7 +40357,7 @@
       <c r="J13" s="175"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="192"/>
+      <c r="A14" s="198"/>
       <c r="B14" s="173" t="s">
         <v>301</v>
       </c>
@@ -40379,7 +40379,7 @@
       <c r="J14" s="175"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="192"/>
+      <c r="A15" s="198"/>
       <c r="B15" s="173" t="s">
         <v>302</v>
       </c>
@@ -40401,7 +40401,7 @@
       <c r="J15" s="175"/>
     </row>
     <row r="16" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="192"/>
+      <c r="A16" s="198"/>
       <c r="B16" s="172" t="s">
         <v>304</v>
       </c>
@@ -40417,7 +40417,7 @@
       <c r="F16" s="180"/>
     </row>
     <row r="17" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="193"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="172" t="s">
         <v>306</v>
       </c>
@@ -40433,11 +40433,11 @@
       <c r="F17" s="180"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="200"/>
-      <c r="B18" s="201"/>
-      <c r="C18" s="201"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="202"/>
+      <c r="A18" s="193"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="194"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="195"/>
       <c r="F18" s="175"/>
       <c r="G18" s="175"/>
       <c r="H18" s="175"/>
@@ -40445,7 +40445,7 @@
       <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="196" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="171" t="s">
@@ -40471,7 +40471,7 @@
       <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="190"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="171" t="s">
         <v>43</v>
       </c>
@@ -40495,7 +40495,7 @@
       <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="190"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="171" t="s">
         <v>309</v>
       </c>
@@ -40519,7 +40519,7 @@
       <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="190"/>
+      <c r="A22" s="196"/>
       <c r="B22" s="171" t="s">
         <v>311</v>
       </c>
@@ -40543,7 +40543,7 @@
       <c r="J22" s="175"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="190"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="171" t="s">
         <v>313</v>
       </c>
@@ -40567,7 +40567,7 @@
       <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="190"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="173" t="s">
         <v>315</v>
       </c>
@@ -40591,7 +40591,7 @@
       <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="190"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="171" t="s">
         <v>316</v>
       </c>
@@ -40615,7 +40615,7 @@
       <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="190"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="171" t="s">
         <v>318</v>
       </c>
@@ -40639,7 +40639,7 @@
       <c r="J26" s="175"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="190"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="171" t="s">
         <v>319</v>
       </c>
@@ -40667,14 +40667,14 @@
       <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="184"/>
-      <c r="B28" s="185"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="185"/>
-      <c r="E28" s="186"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="184"/>
+      <c r="C28" s="184"/>
+      <c r="D28" s="184"/>
+      <c r="E28" s="185"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="194" t="s">
+      <c r="A29" s="190" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="174" t="s">
@@ -40691,7 +40691,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="195"/>
+      <c r="A30" s="191"/>
       <c r="B30" s="174" t="s">
         <v>67</v>
       </c>
@@ -40706,7 +40706,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="195"/>
+      <c r="A31" s="191"/>
       <c r="B31" s="174" t="s">
         <v>323</v>
       </c>
@@ -40721,7 +40721,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="196"/>
+      <c r="A32" s="192"/>
       <c r="B32" s="174" t="s">
         <v>325</v>
       </c>
@@ -40736,14 +40736,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="200"/>
-      <c r="B33" s="201"/>
-      <c r="C33" s="201"/>
-      <c r="D33" s="201"/>
-      <c r="E33" s="202"/>
+      <c r="A33" s="193"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="195"/>
     </row>
     <row r="34" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="197" t="s">
+      <c r="A34" s="200" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="172" t="s">
@@ -40766,7 +40766,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="198"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="172" t="s">
         <v>328</v>
       </c>
@@ -40787,7 +40787,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="198"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="172" t="s">
         <v>330</v>
       </c>
@@ -40803,9 +40803,12 @@
       <c r="F36" s="110" t="s">
         <v>3989</v>
       </c>
+      <c r="G36" s="110" t="s">
+        <v>3990</v>
+      </c>
     </row>
     <row r="37" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="198"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="172" t="s">
         <v>332</v>
       </c>
@@ -40821,9 +40824,12 @@
       <c r="F37" s="110" t="s">
         <v>3991</v>
       </c>
+      <c r="G37" s="110" t="s">
+        <v>3990</v>
+      </c>
     </row>
     <row r="38" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="198"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="172" t="s">
         <v>97</v>
       </c>
@@ -40838,7 +40844,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="198"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="172" t="s">
         <v>98</v>
       </c>
@@ -40853,7 +40859,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="198"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="172" t="s">
         <v>334</v>
       </c>
@@ -40874,7 +40880,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="199"/>
+      <c r="A41" s="202"/>
       <c r="B41" s="172" t="s">
         <v>107</v>
       </c>
@@ -40895,14 +40901,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="200"/>
-      <c r="B42" s="201"/>
-      <c r="C42" s="201"/>
-      <c r="D42" s="201"/>
-      <c r="E42" s="202"/>
+      <c r="A42" s="193"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="195"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="194" t="s">
+      <c r="A43" s="190" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="171" t="s">
@@ -40919,7 +40925,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="195"/>
+      <c r="A44" s="191"/>
       <c r="B44" s="182" t="s">
         <v>339</v>
       </c>
@@ -40934,7 +40940,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="195"/>
+      <c r="A45" s="191"/>
       <c r="B45" s="182" t="s">
         <v>341</v>
       </c>
@@ -40949,7 +40955,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="195"/>
+      <c r="A46" s="191"/>
       <c r="B46" s="182" t="s">
         <v>343</v>
       </c>
@@ -40964,7 +40970,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="195"/>
+      <c r="A47" s="191"/>
       <c r="B47" s="182" t="s">
         <v>345</v>
       </c>
@@ -40979,7 +40985,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="195"/>
+      <c r="A48" s="191"/>
       <c r="B48" s="182" t="s">
         <v>347</v>
       </c>
@@ -40994,7 +41000,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="195"/>
+      <c r="A49" s="191"/>
       <c r="B49" s="182" t="s">
         <v>349</v>
       </c>
@@ -41009,7 +41015,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="195"/>
+      <c r="A50" s="191"/>
       <c r="B50" s="182" t="s">
         <v>350</v>
       </c>
@@ -41024,7 +41030,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="196"/>
+      <c r="A51" s="192"/>
       <c r="B51" s="182" t="s">
         <v>352</v>
       </c>
@@ -41040,17 +41046,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41641,11 +41647,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41654,6 +41655,11 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42554,9 +42560,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="204"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="185"/>
-      <c r="D29" s="186"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="184"/>
+      <c r="D29" s="185"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="204"/>
@@ -42602,9 +42608,9 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="204"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="186"/>
+      <c r="B34" s="183"/>
+      <c r="C34" s="184"/>
+      <c r="D34" s="185"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="204"/>
@@ -42700,9 +42706,9 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="204"/>
-      <c r="B44" s="184"/>
-      <c r="C44" s="185"/>
-      <c r="D44" s="186"/>
+      <c r="B44" s="183"/>
+      <c r="C44" s="184"/>
+      <c r="D44" s="185"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="204"/>
@@ -42748,9 +42754,9 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="204"/>
-      <c r="B49" s="184"/>
-      <c r="C49" s="185"/>
-      <c r="D49" s="186"/>
+      <c r="B49" s="183"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="185"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="204"/>
@@ -42856,14 +42862,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42874,6 +42872,14 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -16207,6 +16207,9 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16214,9 +16217,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16227,24 +16227,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16258,6 +16240,15 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16265,6 +16256,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16330,13 +16330,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16347,15 +16356,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16413,7 +16413,7 @@
         <xdr:cNvPr id="7169" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000011C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16902,10 +16902,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="183" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="171" t="s">
@@ -16916,8 +16916,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="186"/>
-      <c r="B3" s="186"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="171" t="s">
         <v>7</v>
       </c>
@@ -16926,8 +16926,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="186"/>
-      <c r="B4" s="186"/>
+      <c r="A4" s="183"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="171" t="s">
         <v>8</v>
       </c>
@@ -16936,8 +16936,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="186"/>
-      <c r="B5" s="186"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="171" t="s">
         <v>9</v>
       </c>
@@ -16946,8 +16946,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="186"/>
-      <c r="B6" s="186"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="170" t="s">
         <v>10</v>
       </c>
@@ -16956,8 +16956,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="186"/>
-      <c r="B7" s="186"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="171" t="s">
         <v>11</v>
       </c>
@@ -16966,8 +16966,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="171" t="s">
         <v>12</v>
       </c>
@@ -16976,8 +16976,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="171" t="s">
         <v>13</v>
       </c>
@@ -16986,8 +16986,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
-      <c r="B10" s="186"/>
+      <c r="A10" s="183"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="170" t="s">
         <v>14</v>
       </c>
@@ -16996,8 +16996,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="170" t="s">
         <v>15</v>
       </c>
@@ -17006,8 +17006,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="170" t="s">
         <v>16</v>
       </c>
@@ -17016,8 +17016,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
       <c r="C13" s="170" t="s">
         <v>17</v>
       </c>
@@ -17026,14 +17026,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="186"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="185"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="186"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186" t="s">
+      <c r="A15" s="183"/>
+      <c r="B15" s="183" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17044,8 +17044,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="186"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -17054,8 +17054,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -17064,8 +17064,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="186"/>
-      <c r="B18" s="186"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="183"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -17074,8 +17074,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="186"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -17084,8 +17084,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="186"/>
-      <c r="B20" s="186"/>
+      <c r="A20" s="183"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -17094,8 +17094,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="186"/>
-      <c r="B21" s="186"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17104,14 +17104,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="186"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="186"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="186"/>
-      <c r="B23" s="186" t="s">
+      <c r="A23" s="183"/>
+      <c r="B23" s="183" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17122,8 +17122,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="186"/>
-      <c r="B24" s="186"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17132,8 +17132,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="186"/>
-      <c r="B25" s="186"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17142,8 +17142,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
-      <c r="B26" s="186"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17152,8 +17152,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="186"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17162,8 +17162,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="183"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17172,8 +17172,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="186"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="183"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17182,8 +17182,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="183"/>
+      <c r="B30" s="183"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17192,8 +17192,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17202,8 +17202,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="186"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17212,8 +17212,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="186"/>
-      <c r="B33" s="186"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17222,8 +17222,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
-      <c r="B34" s="186"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="183"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17232,14 +17232,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="186"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="185"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="186"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A36" s="186"/>
-      <c r="B36" s="186" t="s">
+      <c r="A36" s="183"/>
+      <c r="B36" s="183" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17250,8 +17250,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="186"/>
-      <c r="B37" s="186"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="183"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17260,8 +17260,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="186"/>
-      <c r="B38" s="186"/>
+      <c r="A38" s="183"/>
+      <c r="B38" s="183"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17270,8 +17270,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="186"/>
-      <c r="B39" s="186"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="183"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17280,8 +17280,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17290,8 +17290,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A41" s="186"/>
-      <c r="B41" s="186"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="183"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17300,8 +17300,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="186"/>
-      <c r="B42" s="186"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="183"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17310,8 +17310,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A43" s="186"/>
-      <c r="B43" s="186"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17320,8 +17320,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A44" s="186"/>
-      <c r="B44" s="186"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="183"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17330,8 +17330,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="186"/>
-      <c r="B45" s="186"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="183"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17340,8 +17340,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="186"/>
-      <c r="B46" s="186"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17350,8 +17350,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="186"/>
-      <c r="B47" s="186"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="183"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17360,8 +17360,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A48" s="186"/>
-      <c r="B48" s="186"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="183"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17370,8 +17370,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A49" s="186"/>
-      <c r="B49" s="186"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="183"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17380,8 +17380,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A50" s="186"/>
-      <c r="B50" s="186"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="183"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17390,8 +17390,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="186"/>
-      <c r="B51" s="186"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="183"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17400,14 +17400,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A52" s="186"/>
-      <c r="B52" s="183"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="185"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="186"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="186"/>
-      <c r="B53" s="186" t="s">
+      <c r="A53" s="183"/>
+      <c r="B53" s="183" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17418,8 +17418,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="186"/>
-      <c r="B54" s="186"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="183"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17428,8 +17428,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="186"/>
-      <c r="B55" s="186"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="183"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17438,8 +17438,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="186"/>
-      <c r="B56" s="186"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="183"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17448,8 +17448,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="186"/>
-      <c r="B57" s="186"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="183"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17458,8 +17458,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="186"/>
-      <c r="B58" s="186"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17468,8 +17468,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="186"/>
-      <c r="B59" s="186"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="183"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17478,16 +17478,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="185"/>
+      <c r="A60" s="184"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="185"/>
+      <c r="D60" s="186"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="186" t="s">
+      <c r="A61" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="186" t="s">
+      <c r="B61" s="183" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17498,8 +17498,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="186"/>
-      <c r="B62" s="186"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17508,8 +17508,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="186"/>
-      <c r="B63" s="186"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17518,8 +17518,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="186"/>
-      <c r="B64" s="186"/>
+      <c r="A64" s="183"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17528,8 +17528,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="186"/>
-      <c r="B65" s="186"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17538,8 +17538,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="186"/>
-      <c r="B66" s="186"/>
+      <c r="A66" s="183"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17548,14 +17548,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A67" s="186"/>
-      <c r="B67" s="183"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="185"/>
+      <c r="A67" s="183"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="186"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="186"/>
-      <c r="B68" s="186" t="s">
+      <c r="A68" s="183"/>
+      <c r="B68" s="183" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17566,8 +17566,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="186"/>
-      <c r="B69" s="186"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="183"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17576,8 +17576,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="186"/>
-      <c r="B70" s="186"/>
+      <c r="A70" s="183"/>
+      <c r="B70" s="183"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17586,8 +17586,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="186"/>
-      <c r="B71" s="186"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="183"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17596,8 +17596,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="186"/>
-      <c r="B72" s="186"/>
+      <c r="A72" s="183"/>
+      <c r="B72" s="183"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17606,8 +17606,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="186"/>
-      <c r="B73" s="186"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="183"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17616,8 +17616,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="186"/>
-      <c r="B74" s="186"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="183"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17626,8 +17626,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="186"/>
-      <c r="B75" s="186"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="183"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17636,8 +17636,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A76" s="186"/>
-      <c r="B76" s="186"/>
+      <c r="A76" s="183"/>
+      <c r="B76" s="183"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17646,8 +17646,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="186"/>
-      <c r="B77" s="186"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="183"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17656,14 +17656,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A78" s="186"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="184"/>
-      <c r="D78" s="185"/>
+      <c r="A78" s="183"/>
+      <c r="B78" s="184"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="186"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A79" s="186"/>
-      <c r="B79" s="186" t="s">
+      <c r="A79" s="183"/>
+      <c r="B79" s="183" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17674,8 +17674,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A80" s="186"/>
-      <c r="B80" s="186"/>
+      <c r="A80" s="183"/>
+      <c r="B80" s="183"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17684,8 +17684,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A81" s="186"/>
-      <c r="B81" s="186"/>
+      <c r="A81" s="183"/>
+      <c r="B81" s="183"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17694,8 +17694,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A82" s="186"/>
-      <c r="B82" s="186"/>
+      <c r="A82" s="183"/>
+      <c r="B82" s="183"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17704,8 +17704,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="186"/>
-      <c r="B83" s="186"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="183"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17714,8 +17714,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A84" s="186"/>
-      <c r="B84" s="186"/>
+      <c r="A84" s="183"/>
+      <c r="B84" s="183"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17724,14 +17724,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A85" s="186"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="184"/>
-      <c r="D85" s="185"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="186"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A86" s="186"/>
-      <c r="B86" s="186" t="s">
+      <c r="A86" s="183"/>
+      <c r="B86" s="183" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17742,8 +17742,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A87" s="186"/>
-      <c r="B87" s="186"/>
+      <c r="A87" s="183"/>
+      <c r="B87" s="183"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17752,8 +17752,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A88" s="186"/>
-      <c r="B88" s="186"/>
+      <c r="A88" s="183"/>
+      <c r="B88" s="183"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17762,8 +17762,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="186"/>
-      <c r="B89" s="186"/>
+      <c r="A89" s="183"/>
+      <c r="B89" s="183"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17772,16 +17772,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A90" s="183"/>
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
-      <c r="D90" s="185"/>
+      <c r="A90" s="184"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="185"/>
+      <c r="D90" s="186"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A91" s="186" t="s">
+      <c r="A91" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="186" t="s">
+      <c r="B91" s="183" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17792,8 +17792,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="186"/>
-      <c r="B92" s="186"/>
+      <c r="A92" s="183"/>
+      <c r="B92" s="183"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17802,8 +17802,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="186"/>
-      <c r="B93" s="186"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="183"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17812,8 +17812,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A94" s="186"/>
-      <c r="B94" s="186"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="183"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17822,8 +17822,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A95" s="186"/>
-      <c r="B95" s="186"/>
+      <c r="A95" s="183"/>
+      <c r="B95" s="183"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17832,8 +17832,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="186"/>
-      <c r="B96" s="186"/>
+      <c r="A96" s="183"/>
+      <c r="B96" s="183"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17842,8 +17842,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="186"/>
-      <c r="B97" s="186"/>
+      <c r="A97" s="183"/>
+      <c r="B97" s="183"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17852,8 +17852,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="186"/>
-      <c r="B98" s="186"/>
+      <c r="A98" s="183"/>
+      <c r="B98" s="183"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17862,8 +17862,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="186"/>
-      <c r="B99" s="186"/>
+      <c r="A99" s="183"/>
+      <c r="B99" s="183"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17872,8 +17872,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="186"/>
-      <c r="B100" s="186"/>
+      <c r="A100" s="183"/>
+      <c r="B100" s="183"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17882,8 +17882,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="186"/>
-      <c r="B101" s="186"/>
+      <c r="A101" s="183"/>
+      <c r="B101" s="183"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17892,8 +17892,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A102" s="186"/>
-      <c r="B102" s="186"/>
+      <c r="A102" s="183"/>
+      <c r="B102" s="183"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17902,8 +17902,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="186"/>
-      <c r="B103" s="186"/>
+      <c r="A103" s="183"/>
+      <c r="B103" s="183"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17912,8 +17912,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="186"/>
-      <c r="B104" s="186"/>
+      <c r="A104" s="183"/>
+      <c r="B104" s="183"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17922,8 +17922,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="186"/>
-      <c r="B105" s="186"/>
+      <c r="A105" s="183"/>
+      <c r="B105" s="183"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17932,8 +17932,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="186"/>
-      <c r="B106" s="186"/>
+      <c r="A106" s="183"/>
+      <c r="B106" s="183"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17942,8 +17942,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="186"/>
-      <c r="B107" s="186"/>
+      <c r="A107" s="183"/>
+      <c r="B107" s="183"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17952,8 +17952,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="186"/>
-      <c r="B108" s="186"/>
+      <c r="A108" s="183"/>
+      <c r="B108" s="183"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17962,8 +17962,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="186"/>
-      <c r="B109" s="186"/>
+      <c r="A109" s="183"/>
+      <c r="B109" s="183"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17972,8 +17972,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="186"/>
-      <c r="B110" s="186"/>
+      <c r="A110" s="183"/>
+      <c r="B110" s="183"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17982,16 +17982,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A111" s="183"/>
-      <c r="B111" s="184"/>
-      <c r="C111" s="184"/>
-      <c r="D111" s="185"/>
+      <c r="A111" s="184"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="185"/>
+      <c r="D111" s="186"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="186" t="s">
+      <c r="A112" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="186" t="s">
+      <c r="B112" s="183" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -18002,8 +18002,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A113" s="186"/>
-      <c r="B113" s="186"/>
+      <c r="A113" s="183"/>
+      <c r="B113" s="183"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -18012,8 +18012,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="186"/>
-      <c r="B114" s="186"/>
+      <c r="A114" s="183"/>
+      <c r="B114" s="183"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -18022,8 +18022,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="186"/>
-      <c r="B115" s="186"/>
+      <c r="A115" s="183"/>
+      <c r="B115" s="183"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -18032,8 +18032,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="186"/>
-      <c r="B116" s="186"/>
+      <c r="A116" s="183"/>
+      <c r="B116" s="183"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -18042,8 +18042,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A117" s="186"/>
-      <c r="B117" s="186"/>
+      <c r="A117" s="183"/>
+      <c r="B117" s="183"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -18053,18 +18053,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -18078,6 +18066,18 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19621,7 +19621,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="227" t="s">
         <v>1039</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19635,7 +19635,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="226"/>
+      <c r="A34" s="228"/>
       <c r="B34" s="19" t="s">
         <v>1025</v>
       </c>
@@ -19643,7 +19643,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="226"/>
+      <c r="A35" s="228"/>
       <c r="B35" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19651,7 +19651,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="226"/>
+      <c r="A36" s="228"/>
       <c r="B36" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19659,7 +19659,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="226"/>
+      <c r="A37" s="228"/>
       <c r="B37" s="19" t="s">
         <v>997</v>
       </c>
@@ -19667,7 +19667,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="225"/>
+      <c r="A38" s="229"/>
       <c r="B38" s="54" t="s">
         <v>1027</v>
       </c>
@@ -19675,7 +19675,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A40" s="224" t="s">
+      <c r="A40" s="227" t="s">
         <v>1041</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19687,7 +19687,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="225"/>
+      <c r="A41" s="229"/>
       <c r="B41" s="54" t="s">
         <v>1029</v>
       </c>
@@ -19700,7 +19700,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A44" s="224" t="s">
+      <c r="A44" s="227" t="s">
         <v>1043</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19714,7 +19714,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="226"/>
+      <c r="A45" s="228"/>
       <c r="B45" s="19" t="s">
         <v>1031</v>
       </c>
@@ -19722,7 +19722,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="226"/>
+      <c r="A46" s="228"/>
       <c r="B46" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19730,7 +19730,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="226"/>
+      <c r="A47" s="228"/>
       <c r="B47" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19738,7 +19738,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="226"/>
+      <c r="A48" s="228"/>
       <c r="B48" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19746,7 +19746,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="226"/>
+      <c r="A49" s="228"/>
       <c r="B49" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19754,7 +19754,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="225"/>
+      <c r="A50" s="229"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19815,7 +19815,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
-      <c r="A59" s="227" t="s">
+      <c r="A59" s="230" t="s">
         <v>418</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19829,7 +19829,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="228"/>
+      <c r="A60" s="231"/>
       <c r="B60" s="19" t="s">
         <v>1054</v>
       </c>
@@ -19837,7 +19837,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="229"/>
+      <c r="A61" s="232"/>
       <c r="B61" s="54" t="s">
         <v>1055</v>
       </c>
@@ -20009,7 +20009,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A82" s="230" t="s">
+      <c r="A82" s="224" t="s">
         <v>1090</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -20023,7 +20023,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="231"/>
+      <c r="A83" s="225"/>
       <c r="B83" s="19" t="s">
         <v>1092</v>
       </c>
@@ -20031,7 +20031,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="231"/>
+      <c r="A84" s="225"/>
       <c r="B84" s="19" t="s">
         <v>1093</v>
       </c>
@@ -20039,7 +20039,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="232"/>
+      <c r="A85" s="226"/>
       <c r="B85" s="54" t="s">
         <v>1094</v>
       </c>
@@ -20047,7 +20047,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="230" t="s">
+      <c r="A87" s="224" t="s">
         <v>1100</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -20061,7 +20061,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="231"/>
+      <c r="A88" s="225"/>
       <c r="B88" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20073,7 +20073,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="231"/>
+      <c r="A89" s="225"/>
       <c r="B89" s="19" t="s">
         <v>1103</v>
       </c>
@@ -20085,7 +20085,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="231"/>
+      <c r="A90" s="225"/>
       <c r="B90" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20097,7 +20097,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="231"/>
+      <c r="A91" s="225"/>
       <c r="B91" s="19" t="s">
         <v>1104</v>
       </c>
@@ -20107,7 +20107,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="231"/>
+      <c r="A92" s="225"/>
       <c r="B92" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20115,7 +20115,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="231"/>
+      <c r="A93" s="225"/>
       <c r="B93" s="19" t="s">
         <v>535</v>
       </c>
@@ -20123,7 +20123,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="231"/>
+      <c r="A94" s="225"/>
       <c r="B94" s="19" t="s">
         <v>1105</v>
       </c>
@@ -20131,7 +20131,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="232"/>
+      <c r="A95" s="226"/>
       <c r="B95" s="54" t="s">
         <v>1106</v>
       </c>
@@ -20139,7 +20139,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="224" t="s">
+      <c r="A97" s="227" t="s">
         <v>1113</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -20151,7 +20151,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="226"/>
+      <c r="A98" s="228"/>
       <c r="B98" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20161,7 +20161,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="226"/>
+      <c r="A99" s="228"/>
       <c r="B99" s="67" t="s">
         <v>1103</v>
       </c>
@@ -20171,7 +20171,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="226"/>
+      <c r="A100" s="228"/>
       <c r="B100" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20181,7 +20181,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="226"/>
+      <c r="A101" s="228"/>
       <c r="B101" s="67" t="s">
         <v>1104</v>
       </c>
@@ -20191,7 +20191,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="225"/>
+      <c r="A102" s="229"/>
       <c r="B102" s="69" t="s">
         <v>1114</v>
       </c>
@@ -20251,22 +20251,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21455,7 +21455,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="224" t="s">
+      <c r="A125" s="227" t="s">
         <v>1311</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21466,21 +21466,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A126" s="226"/>
+      <c r="A126" s="228"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A127" s="226"/>
+      <c r="A127" s="228"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A128" s="226"/>
+      <c r="A128" s="228"/>
       <c r="B128" s="19" t="s">
         <v>1126</v>
       </c>
@@ -21489,7 +21489,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A129" s="226"/>
+      <c r="A129" s="228"/>
       <c r="B129" s="48" t="s">
         <v>716</v>
       </c>
@@ -21498,14 +21498,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A130" s="226"/>
+      <c r="A130" s="228"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A131" s="226"/>
+      <c r="A131" s="228"/>
       <c r="B131" s="48" t="s">
         <v>808</v>
       </c>
@@ -21514,14 +21514,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A132" s="226"/>
+      <c r="A132" s="228"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A133" s="225"/>
+      <c r="A133" s="229"/>
       <c r="B133" s="54" t="s">
         <v>1321</v>
       </c>
@@ -40069,9 +40069,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -40102,7 +40102,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="190" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="171" t="s">
@@ -40126,7 +40126,7 @@
       <c r="J2" s="175"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="196"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="171" t="s">
         <v>6</v>
       </c>
@@ -40148,7 +40148,7 @@
       <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:10" s="180" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="172" t="s">
         <v>274</v>
       </c>
@@ -40163,7 +40163,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="171" t="s">
         <v>276</v>
       </c>
@@ -40185,7 +40185,7 @@
       <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="196"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="171" t="s">
         <v>9</v>
       </c>
@@ -40207,7 +40207,7 @@
       <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="171" t="s">
         <v>279</v>
       </c>
@@ -40229,7 +40229,7 @@
       <c r="J7" s="175"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="171" t="s">
         <v>8</v>
       </c>
@@ -40251,7 +40251,7 @@
       <c r="J8" s="175"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="171" t="s">
         <v>282</v>
       </c>
@@ -40277,11 +40277,11 @@
       <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="193"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="195"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="202"/>
       <c r="F10" s="175"/>
       <c r="G10" s="175"/>
       <c r="H10" s="175"/>
@@ -40289,7 +40289,7 @@
       <c r="J10" s="175"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="191" t="s">
         <v>283</v>
       </c>
       <c r="B11" s="173" t="s">
@@ -40313,7 +40313,7 @@
       <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="198"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="173" t="s">
         <v>298</v>
       </c>
@@ -40335,7 +40335,7 @@
       <c r="J12" s="175"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="198"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="173" t="s">
         <v>299</v>
       </c>
@@ -40357,7 +40357,7 @@
       <c r="J13" s="175"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="198"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="173" t="s">
         <v>301</v>
       </c>
@@ -40379,7 +40379,7 @@
       <c r="J14" s="175"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="198"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="173" t="s">
         <v>302</v>
       </c>
@@ -40401,7 +40401,7 @@
       <c r="J15" s="175"/>
     </row>
     <row r="16" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="198"/>
+      <c r="A16" s="192"/>
       <c r="B16" s="172" t="s">
         <v>304</v>
       </c>
@@ -40417,7 +40417,7 @@
       <c r="F16" s="180"/>
     </row>
     <row r="17" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="199"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="172" t="s">
         <v>306</v>
       </c>
@@ -40433,11 +40433,11 @@
       <c r="F17" s="180"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A18" s="193"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="195"/>
+      <c r="A18" s="200"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="202"/>
       <c r="F18" s="175"/>
       <c r="G18" s="175"/>
       <c r="H18" s="175"/>
@@ -40445,7 +40445,7 @@
       <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="190" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="171" t="s">
@@ -40471,7 +40471,7 @@
       <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="196"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="171" t="s">
         <v>43</v>
       </c>
@@ -40495,7 +40495,7 @@
       <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="171" t="s">
         <v>309</v>
       </c>
@@ -40519,7 +40519,7 @@
       <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="196"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="171" t="s">
         <v>311</v>
       </c>
@@ -40543,7 +40543,7 @@
       <c r="J22" s="175"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="196"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="171" t="s">
         <v>313</v>
       </c>
@@ -40567,7 +40567,7 @@
       <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="196"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="173" t="s">
         <v>315</v>
       </c>
@@ -40591,7 +40591,7 @@
       <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="196"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="171" t="s">
         <v>316</v>
       </c>
@@ -40615,7 +40615,7 @@
       <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="196"/>
+      <c r="A26" s="190"/>
       <c r="B26" s="171" t="s">
         <v>318</v>
       </c>
@@ -40639,7 +40639,7 @@
       <c r="J26" s="175"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="196"/>
+      <c r="A27" s="190"/>
       <c r="B27" s="171" t="s">
         <v>319</v>
       </c>
@@ -40667,20 +40667,20 @@
       <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A28" s="183"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="185"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="190" t="s">
+      <c r="A29" s="191" t="s">
         <v>288</v>
       </c>
-      <c r="B29" s="174" t="s">
+      <c r="B29" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="171" t="s">
         <v>321</v>
       </c>
       <c r="D29" s="174" t="s">
@@ -40691,11 +40691,11 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
-      <c r="B30" s="174" t="s">
+      <c r="A30" s="192"/>
+      <c r="B30" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="171" t="s">
         <v>322</v>
       </c>
       <c r="D30" s="174" t="s">
@@ -40706,11 +40706,11 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="191"/>
-      <c r="B31" s="174" t="s">
+      <c r="A31" s="192"/>
+      <c r="B31" s="171" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="174" t="s">
+      <c r="C31" s="171" t="s">
         <v>324</v>
       </c>
       <c r="D31" s="174" t="s">
@@ -40721,11 +40721,11 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="192"/>
-      <c r="B32" s="174" t="s">
+      <c r="A32" s="193"/>
+      <c r="B32" s="171" t="s">
         <v>325</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="171" t="s">
         <v>289</v>
       </c>
       <c r="D32" s="174" t="s">
@@ -40736,14 +40736,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="193"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="195"/>
+      <c r="A33" s="200"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
     </row>
     <row r="34" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="200" t="s">
+      <c r="A34" s="197" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="172" t="s">
@@ -40766,7 +40766,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="201"/>
+      <c r="A35" s="198"/>
       <c r="B35" s="172" t="s">
         <v>328</v>
       </c>
@@ -40787,7 +40787,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="201"/>
+      <c r="A36" s="198"/>
       <c r="B36" s="172" t="s">
         <v>330</v>
       </c>
@@ -40808,7 +40808,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="201"/>
+      <c r="A37" s="198"/>
       <c r="B37" s="172" t="s">
         <v>332</v>
       </c>
@@ -40829,7 +40829,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="201"/>
+      <c r="A38" s="198"/>
       <c r="B38" s="172" t="s">
         <v>97</v>
       </c>
@@ -40844,7 +40844,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="201"/>
+      <c r="A39" s="198"/>
       <c r="B39" s="172" t="s">
         <v>98</v>
       </c>
@@ -40859,7 +40859,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="201"/>
+      <c r="A40" s="198"/>
       <c r="B40" s="172" t="s">
         <v>334</v>
       </c>
@@ -40880,7 +40880,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="202"/>
+      <c r="A41" s="199"/>
       <c r="B41" s="172" t="s">
         <v>107</v>
       </c>
@@ -40901,14 +40901,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="193"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
+      <c r="A42" s="200"/>
+      <c r="B42" s="201"/>
+      <c r="C42" s="201"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="202"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="190" t="s">
+      <c r="A43" s="194" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="171" t="s">
@@ -40925,11 +40925,11 @@
       </c>
     </row>
     <row r="44" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="191"/>
-      <c r="B44" s="182" t="s">
+      <c r="A44" s="195"/>
+      <c r="B44" s="171" t="s">
         <v>339</v>
       </c>
-      <c r="C44" s="182" t="s">
+      <c r="C44" s="171" t="s">
         <v>340</v>
       </c>
       <c r="D44" s="172" t="s">
@@ -40940,11 +40940,11 @@
       </c>
     </row>
     <row r="45" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="191"/>
-      <c r="B45" s="182" t="s">
+      <c r="A45" s="195"/>
+      <c r="B45" s="171" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="182" t="s">
+      <c r="C45" s="171" t="s">
         <v>342</v>
       </c>
       <c r="D45" s="172" t="s">
@@ -40955,11 +40955,11 @@
       </c>
     </row>
     <row r="46" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="191"/>
-      <c r="B46" s="182" t="s">
+      <c r="A46" s="195"/>
+      <c r="B46" s="171" t="s">
         <v>343</v>
       </c>
-      <c r="C46" s="182" t="s">
+      <c r="C46" s="171" t="s">
         <v>344</v>
       </c>
       <c r="D46" s="172" t="s">
@@ -40970,7 +40970,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="191"/>
+      <c r="A47" s="195"/>
       <c r="B47" s="182" t="s">
         <v>345</v>
       </c>
@@ -40985,7 +40985,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="191"/>
+      <c r="A48" s="195"/>
       <c r="B48" s="182" t="s">
         <v>347</v>
       </c>
@@ -41000,7 +41000,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="191"/>
+      <c r="A49" s="195"/>
       <c r="B49" s="182" t="s">
         <v>349</v>
       </c>
@@ -41015,7 +41015,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="191"/>
+      <c r="A50" s="195"/>
       <c r="B50" s="182" t="s">
         <v>350</v>
       </c>
@@ -41030,7 +41030,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="192"/>
+      <c r="A51" s="196"/>
       <c r="B51" s="182" t="s">
         <v>352</v>
       </c>
@@ -41046,17 +41046,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41647,6 +41647,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41655,11 +41660,6 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42560,9 +42560,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="204"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="185"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="186"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="204"/>
@@ -42608,9 +42608,9 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="204"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="185"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="204"/>
@@ -42706,9 +42706,9 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="204"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="185"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="186"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="204"/>
@@ -42754,9 +42754,9 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="204"/>
-      <c r="B49" s="183"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="185"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="186"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="204"/>
@@ -42862,6 +42862,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42872,14 +42880,6 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6298" uniqueCount="3995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6319" uniqueCount="4004">
   <si>
     <t>大类因子</t>
   </si>
@@ -15130,6 +15130,39 @@
   </si>
   <si>
     <t>朝阳永续一致预测收盘价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>con_forecast_stk_roll</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>朝阳永续一致预期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>con_eps</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>con_or</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>con_np_roll</t>
+  </si>
+  <si>
+    <t>con_eps_roll</t>
+  </si>
+  <si>
+    <t>con_or_roll</t>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>target_price</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
@@ -15801,7 +15834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -16207,6 +16240,9 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16214,9 +16250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16227,24 +16260,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16265,6 +16280,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16330,13 +16363,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16347,15 +16389,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -16372,6 +16405,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16413,7 +16447,7 @@
         <xdr:cNvPr id="7169" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000011C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16902,10 +16936,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="183" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="183" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="171" t="s">
@@ -16916,8 +16950,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="186"/>
-      <c r="B3" s="186"/>
+      <c r="A3" s="183"/>
+      <c r="B3" s="183"/>
       <c r="C3" s="171" t="s">
         <v>7</v>
       </c>
@@ -16926,8 +16960,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="186"/>
-      <c r="B4" s="186"/>
+      <c r="A4" s="183"/>
+      <c r="B4" s="183"/>
       <c r="C4" s="171" t="s">
         <v>8</v>
       </c>
@@ -16936,8 +16970,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="186"/>
-      <c r="B5" s="186"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="183"/>
       <c r="C5" s="171" t="s">
         <v>9</v>
       </c>
@@ -16946,8 +16980,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="186"/>
-      <c r="B6" s="186"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="183"/>
       <c r="C6" s="170" t="s">
         <v>10</v>
       </c>
@@ -16956,8 +16990,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="186"/>
-      <c r="B7" s="186"/>
+      <c r="A7" s="183"/>
+      <c r="B7" s="183"/>
       <c r="C7" s="171" t="s">
         <v>11</v>
       </c>
@@ -16966,8 +17000,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="186"/>
-      <c r="B8" s="186"/>
+      <c r="A8" s="183"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="171" t="s">
         <v>12</v>
       </c>
@@ -16976,8 +17010,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="186"/>
-      <c r="B9" s="186"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="171" t="s">
         <v>13</v>
       </c>
@@ -16986,8 +17020,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="186"/>
-      <c r="B10" s="186"/>
+      <c r="A10" s="183"/>
+      <c r="B10" s="183"/>
       <c r="C10" s="170" t="s">
         <v>14</v>
       </c>
@@ -16996,8 +17030,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="186"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="183"/>
+      <c r="B11" s="183"/>
       <c r="C11" s="170" t="s">
         <v>15</v>
       </c>
@@ -17006,8 +17040,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="186"/>
-      <c r="B12" s="186"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="183"/>
       <c r="C12" s="170" t="s">
         <v>16</v>
       </c>
@@ -17016,8 +17050,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="186"/>
-      <c r="B13" s="186"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="183"/>
       <c r="C13" s="170" t="s">
         <v>17</v>
       </c>
@@ -17026,14 +17060,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
-      <c r="B14" s="183"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="185"/>
+      <c r="A14" s="183"/>
+      <c r="B14" s="184"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="186"/>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="186"/>
-      <c r="B15" s="186" t="s">
+      <c r="A15" s="183"/>
+      <c r="B15" s="183" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17044,8 +17078,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="186"/>
-      <c r="B16" s="186"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="183"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -17054,8 +17088,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="186"/>
-      <c r="B17" s="186"/>
+      <c r="A17" s="183"/>
+      <c r="B17" s="183"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -17064,8 +17098,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="186"/>
-      <c r="B18" s="186"/>
+      <c r="A18" s="183"/>
+      <c r="B18" s="183"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -17074,8 +17108,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="186"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="183"/>
+      <c r="B19" s="183"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -17084,8 +17118,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="186"/>
-      <c r="B20" s="186"/>
+      <c r="A20" s="183"/>
+      <c r="B20" s="183"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -17094,8 +17128,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="186"/>
-      <c r="B21" s="186"/>
+      <c r="A21" s="183"/>
+      <c r="B21" s="183"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17104,14 +17138,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="186"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="184"/>
-      <c r="D22" s="185"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="186"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="186"/>
-      <c r="B23" s="186" t="s">
+      <c r="A23" s="183"/>
+      <c r="B23" s="183" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17122,8 +17156,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="186"/>
-      <c r="B24" s="186"/>
+      <c r="A24" s="183"/>
+      <c r="B24" s="183"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17132,8 +17166,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="186"/>
-      <c r="B25" s="186"/>
+      <c r="A25" s="183"/>
+      <c r="B25" s="183"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17142,8 +17176,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="186"/>
-      <c r="B26" s="186"/>
+      <c r="A26" s="183"/>
+      <c r="B26" s="183"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17152,8 +17186,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="186"/>
-      <c r="B27" s="186"/>
+      <c r="A27" s="183"/>
+      <c r="B27" s="183"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17162,8 +17196,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="186"/>
-      <c r="B28" s="186"/>
+      <c r="A28" s="183"/>
+      <c r="B28" s="183"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17172,8 +17206,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="186"/>
-      <c r="B29" s="186"/>
+      <c r="A29" s="183"/>
+      <c r="B29" s="183"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17182,8 +17216,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="186"/>
-      <c r="B30" s="186"/>
+      <c r="A30" s="183"/>
+      <c r="B30" s="183"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17192,8 +17226,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="186"/>
-      <c r="B31" s="186"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="183"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17202,8 +17236,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="186"/>
-      <c r="B32" s="186"/>
+      <c r="A32" s="183"/>
+      <c r="B32" s="183"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17212,8 +17246,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="186"/>
-      <c r="B33" s="186"/>
+      <c r="A33" s="183"/>
+      <c r="B33" s="183"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17222,8 +17256,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="186"/>
-      <c r="B34" s="186"/>
+      <c r="A34" s="183"/>
+      <c r="B34" s="183"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17232,14 +17266,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
-      <c r="B35" s="183"/>
-      <c r="C35" s="184"/>
-      <c r="D35" s="185"/>
+      <c r="A35" s="183"/>
+      <c r="B35" s="184"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="186"/>
     </row>
     <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="186"/>
-      <c r="B36" s="186" t="s">
+      <c r="A36" s="183"/>
+      <c r="B36" s="183" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17250,8 +17284,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A37" s="186"/>
-      <c r="B37" s="186"/>
+      <c r="A37" s="183"/>
+      <c r="B37" s="183"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17260,8 +17294,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="186"/>
-      <c r="B38" s="186"/>
+      <c r="A38" s="183"/>
+      <c r="B38" s="183"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17270,8 +17304,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A39" s="186"/>
-      <c r="B39" s="186"/>
+      <c r="A39" s="183"/>
+      <c r="B39" s="183"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17280,8 +17314,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="186"/>
-      <c r="B40" s="186"/>
+      <c r="A40" s="183"/>
+      <c r="B40" s="183"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17290,8 +17324,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="186"/>
-      <c r="B41" s="186"/>
+      <c r="A41" s="183"/>
+      <c r="B41" s="183"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17300,8 +17334,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A42" s="186"/>
-      <c r="B42" s="186"/>
+      <c r="A42" s="183"/>
+      <c r="B42" s="183"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17310,8 +17344,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A43" s="186"/>
-      <c r="B43" s="186"/>
+      <c r="A43" s="183"/>
+      <c r="B43" s="183"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17320,8 +17354,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="186"/>
-      <c r="B44" s="186"/>
+      <c r="A44" s="183"/>
+      <c r="B44" s="183"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17330,8 +17364,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="186"/>
-      <c r="B45" s="186"/>
+      <c r="A45" s="183"/>
+      <c r="B45" s="183"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17340,8 +17374,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="186"/>
-      <c r="B46" s="186"/>
+      <c r="A46" s="183"/>
+      <c r="B46" s="183"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17350,8 +17384,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A47" s="186"/>
-      <c r="B47" s="186"/>
+      <c r="A47" s="183"/>
+      <c r="B47" s="183"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17360,8 +17394,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="186"/>
-      <c r="B48" s="186"/>
+      <c r="A48" s="183"/>
+      <c r="B48" s="183"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17370,8 +17404,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="186"/>
-      <c r="B49" s="186"/>
+      <c r="A49" s="183"/>
+      <c r="B49" s="183"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17380,8 +17414,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="186"/>
-      <c r="B50" s="186"/>
+      <c r="A50" s="183"/>
+      <c r="B50" s="183"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17390,8 +17424,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="186"/>
-      <c r="B51" s="186"/>
+      <c r="A51" s="183"/>
+      <c r="B51" s="183"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17400,14 +17434,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="186"/>
-      <c r="B52" s="183"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="185"/>
+      <c r="A52" s="183"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="186"/>
     </row>
     <row r="53" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A53" s="186"/>
-      <c r="B53" s="186" t="s">
+      <c r="A53" s="183"/>
+      <c r="B53" s="183" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17418,8 +17452,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="186"/>
-      <c r="B54" s="186"/>
+      <c r="A54" s="183"/>
+      <c r="B54" s="183"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17428,8 +17462,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="186"/>
-      <c r="B55" s="186"/>
+      <c r="A55" s="183"/>
+      <c r="B55" s="183"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17438,8 +17472,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A56" s="186"/>
-      <c r="B56" s="186"/>
+      <c r="A56" s="183"/>
+      <c r="B56" s="183"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17448,8 +17482,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="186"/>
-      <c r="B57" s="186"/>
+      <c r="A57" s="183"/>
+      <c r="B57" s="183"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17458,8 +17492,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A58" s="186"/>
-      <c r="B58" s="186"/>
+      <c r="A58" s="183"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17468,8 +17502,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A59" s="186"/>
-      <c r="B59" s="186"/>
+      <c r="A59" s="183"/>
+      <c r="B59" s="183"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17478,16 +17512,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="183"/>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="185"/>
+      <c r="A60" s="184"/>
+      <c r="B60" s="185"/>
+      <c r="C60" s="185"/>
+      <c r="D60" s="186"/>
     </row>
     <row r="61" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="186" t="s">
+      <c r="A61" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="186" t="s">
+      <c r="B61" s="183" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17498,8 +17532,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="186"/>
-      <c r="B62" s="186"/>
+      <c r="A62" s="183"/>
+      <c r="B62" s="183"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17508,8 +17542,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="186"/>
-      <c r="B63" s="186"/>
+      <c r="A63" s="183"/>
+      <c r="B63" s="183"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17518,8 +17552,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="186"/>
-      <c r="B64" s="186"/>
+      <c r="A64" s="183"/>
+      <c r="B64" s="183"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17528,8 +17562,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="186"/>
-      <c r="B65" s="186"/>
+      <c r="A65" s="183"/>
+      <c r="B65" s="183"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17538,8 +17572,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A66" s="186"/>
-      <c r="B66" s="186"/>
+      <c r="A66" s="183"/>
+      <c r="B66" s="183"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17548,14 +17582,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="186"/>
-      <c r="B67" s="183"/>
-      <c r="C67" s="184"/>
-      <c r="D67" s="185"/>
+      <c r="A67" s="183"/>
+      <c r="B67" s="184"/>
+      <c r="C67" s="185"/>
+      <c r="D67" s="186"/>
     </row>
     <row r="68" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="186"/>
-      <c r="B68" s="186" t="s">
+      <c r="A68" s="183"/>
+      <c r="B68" s="183" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17566,8 +17600,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A69" s="186"/>
-      <c r="B69" s="186"/>
+      <c r="A69" s="183"/>
+      <c r="B69" s="183"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17576,8 +17610,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A70" s="186"/>
-      <c r="B70" s="186"/>
+      <c r="A70" s="183"/>
+      <c r="B70" s="183"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17586,8 +17620,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A71" s="186"/>
-      <c r="B71" s="186"/>
+      <c r="A71" s="183"/>
+      <c r="B71" s="183"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17596,8 +17630,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A72" s="186"/>
-      <c r="B72" s="186"/>
+      <c r="A72" s="183"/>
+      <c r="B72" s="183"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17606,8 +17640,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A73" s="186"/>
-      <c r="B73" s="186"/>
+      <c r="A73" s="183"/>
+      <c r="B73" s="183"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17616,8 +17650,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A74" s="186"/>
-      <c r="B74" s="186"/>
+      <c r="A74" s="183"/>
+      <c r="B74" s="183"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17626,8 +17660,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A75" s="186"/>
-      <c r="B75" s="186"/>
+      <c r="A75" s="183"/>
+      <c r="B75" s="183"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17636,8 +17670,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A76" s="186"/>
-      <c r="B76" s="186"/>
+      <c r="A76" s="183"/>
+      <c r="B76" s="183"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17646,8 +17680,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A77" s="186"/>
-      <c r="B77" s="186"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="183"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17656,14 +17690,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="186"/>
-      <c r="B78" s="183"/>
-      <c r="C78" s="184"/>
-      <c r="D78" s="185"/>
+      <c r="A78" s="183"/>
+      <c r="B78" s="184"/>
+      <c r="C78" s="185"/>
+      <c r="D78" s="186"/>
     </row>
     <row r="79" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A79" s="186"/>
-      <c r="B79" s="186" t="s">
+      <c r="A79" s="183"/>
+      <c r="B79" s="183" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17674,8 +17708,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A80" s="186"/>
-      <c r="B80" s="186"/>
+      <c r="A80" s="183"/>
+      <c r="B80" s="183"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17684,8 +17718,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A81" s="186"/>
-      <c r="B81" s="186"/>
+      <c r="A81" s="183"/>
+      <c r="B81" s="183"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17694,8 +17728,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A82" s="186"/>
-      <c r="B82" s="186"/>
+      <c r="A82" s="183"/>
+      <c r="B82" s="183"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17704,8 +17738,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A83" s="186"/>
-      <c r="B83" s="186"/>
+      <c r="A83" s="183"/>
+      <c r="B83" s="183"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17714,8 +17748,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A84" s="186"/>
-      <c r="B84" s="186"/>
+      <c r="A84" s="183"/>
+      <c r="B84" s="183"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17724,14 +17758,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="186"/>
-      <c r="B85" s="183"/>
-      <c r="C85" s="184"/>
-      <c r="D85" s="185"/>
+      <c r="A85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="185"/>
+      <c r="D85" s="186"/>
     </row>
     <row r="86" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A86" s="186"/>
-      <c r="B86" s="186" t="s">
+      <c r="A86" s="183"/>
+      <c r="B86" s="183" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17742,8 +17776,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A87" s="186"/>
-      <c r="B87" s="186"/>
+      <c r="A87" s="183"/>
+      <c r="B87" s="183"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17752,8 +17786,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A88" s="186"/>
-      <c r="B88" s="186"/>
+      <c r="A88" s="183"/>
+      <c r="B88" s="183"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17762,8 +17796,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A89" s="186"/>
-      <c r="B89" s="186"/>
+      <c r="A89" s="183"/>
+      <c r="B89" s="183"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17772,16 +17806,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="183"/>
-      <c r="B90" s="184"/>
-      <c r="C90" s="184"/>
-      <c r="D90" s="185"/>
+      <c r="A90" s="184"/>
+      <c r="B90" s="185"/>
+      <c r="C90" s="185"/>
+      <c r="D90" s="186"/>
     </row>
     <row r="91" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A91" s="186" t="s">
+      <c r="A91" s="183" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="186" t="s">
+      <c r="B91" s="183" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17792,8 +17826,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A92" s="186"/>
-      <c r="B92" s="186"/>
+      <c r="A92" s="183"/>
+      <c r="B92" s="183"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17802,8 +17836,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A93" s="186"/>
-      <c r="B93" s="186"/>
+      <c r="A93" s="183"/>
+      <c r="B93" s="183"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17812,8 +17846,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A94" s="186"/>
-      <c r="B94" s="186"/>
+      <c r="A94" s="183"/>
+      <c r="B94" s="183"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17822,8 +17856,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A95" s="186"/>
-      <c r="B95" s="186"/>
+      <c r="A95" s="183"/>
+      <c r="B95" s="183"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17832,8 +17866,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A96" s="186"/>
-      <c r="B96" s="186"/>
+      <c r="A96" s="183"/>
+      <c r="B96" s="183"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17842,8 +17876,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A97" s="186"/>
-      <c r="B97" s="186"/>
+      <c r="A97" s="183"/>
+      <c r="B97" s="183"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17852,8 +17886,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A98" s="186"/>
-      <c r="B98" s="186"/>
+      <c r="A98" s="183"/>
+      <c r="B98" s="183"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17862,8 +17896,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A99" s="186"/>
-      <c r="B99" s="186"/>
+      <c r="A99" s="183"/>
+      <c r="B99" s="183"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17872,8 +17906,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A100" s="186"/>
-      <c r="B100" s="186"/>
+      <c r="A100" s="183"/>
+      <c r="B100" s="183"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17882,8 +17916,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A101" s="186"/>
-      <c r="B101" s="186"/>
+      <c r="A101" s="183"/>
+      <c r="B101" s="183"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17892,8 +17926,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A102" s="186"/>
-      <c r="B102" s="186"/>
+      <c r="A102" s="183"/>
+      <c r="B102" s="183"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17902,8 +17936,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A103" s="186"/>
-      <c r="B103" s="186"/>
+      <c r="A103" s="183"/>
+      <c r="B103" s="183"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17912,8 +17946,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A104" s="186"/>
-      <c r="B104" s="186"/>
+      <c r="A104" s="183"/>
+      <c r="B104" s="183"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17922,8 +17956,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A105" s="186"/>
-      <c r="B105" s="186"/>
+      <c r="A105" s="183"/>
+      <c r="B105" s="183"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17932,8 +17966,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A106" s="186"/>
-      <c r="B106" s="186"/>
+      <c r="A106" s="183"/>
+      <c r="B106" s="183"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17942,8 +17976,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A107" s="186"/>
-      <c r="B107" s="186"/>
+      <c r="A107" s="183"/>
+      <c r="B107" s="183"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17952,8 +17986,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A108" s="186"/>
-      <c r="B108" s="186"/>
+      <c r="A108" s="183"/>
+      <c r="B108" s="183"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17962,8 +17996,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A109" s="186"/>
-      <c r="B109" s="186"/>
+      <c r="A109" s="183"/>
+      <c r="B109" s="183"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17972,8 +18006,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A110" s="186"/>
-      <c r="B110" s="186"/>
+      <c r="A110" s="183"/>
+      <c r="B110" s="183"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17982,16 +18016,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="183"/>
-      <c r="B111" s="184"/>
-      <c r="C111" s="184"/>
-      <c r="D111" s="185"/>
+      <c r="A111" s="184"/>
+      <c r="B111" s="185"/>
+      <c r="C111" s="185"/>
+      <c r="D111" s="186"/>
     </row>
     <row r="112" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A112" s="186" t="s">
+      <c r="A112" s="183" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="186" t="s">
+      <c r="B112" s="183" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -18002,8 +18036,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A113" s="186"/>
-      <c r="B113" s="186"/>
+      <c r="A113" s="183"/>
+      <c r="B113" s="183"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -18012,8 +18046,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A114" s="186"/>
-      <c r="B114" s="186"/>
+      <c r="A114" s="183"/>
+      <c r="B114" s="183"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -18022,8 +18056,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A115" s="186"/>
-      <c r="B115" s="186"/>
+      <c r="A115" s="183"/>
+      <c r="B115" s="183"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -18032,8 +18066,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A116" s="186"/>
-      <c r="B116" s="186"/>
+      <c r="A116" s="183"/>
+      <c r="B116" s="183"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -18042,8 +18076,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A117" s="186"/>
-      <c r="B117" s="186"/>
+      <c r="A117" s="183"/>
+      <c r="B117" s="183"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -18053,18 +18087,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -18078,6 +18100,18 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19621,7 +19655,7 @@
       <c r="D31" s="55"/>
     </row>
     <row r="33" spans="1:4" ht="98" x14ac:dyDescent="0.25">
-      <c r="A33" s="224" t="s">
+      <c r="A33" s="227" t="s">
         <v>1039</v>
       </c>
       <c r="B33" s="49" t="s">
@@ -19635,7 +19669,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="226"/>
+      <c r="A34" s="228"/>
       <c r="B34" s="19" t="s">
         <v>1025</v>
       </c>
@@ -19643,7 +19677,7 @@
       <c r="D34" s="52"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="226"/>
+      <c r="A35" s="228"/>
       <c r="B35" s="19" t="s">
         <v>1026</v>
       </c>
@@ -19651,7 +19685,7 @@
       <c r="D35" s="52"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="226"/>
+      <c r="A36" s="228"/>
       <c r="B36" s="19" t="s">
         <v>1027</v>
       </c>
@@ -19659,7 +19693,7 @@
       <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="226"/>
+      <c r="A37" s="228"/>
       <c r="B37" s="19" t="s">
         <v>997</v>
       </c>
@@ -19667,7 +19701,7 @@
       <c r="D37" s="52"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="225"/>
+      <c r="A38" s="229"/>
       <c r="B38" s="54" t="s">
         <v>1027</v>
       </c>
@@ -19675,7 +19709,7 @@
       <c r="D38" s="55"/>
     </row>
     <row r="40" spans="1:4" ht="70" x14ac:dyDescent="0.25">
-      <c r="A40" s="224" t="s">
+      <c r="A40" s="227" t="s">
         <v>1041</v>
       </c>
       <c r="B40" s="49" t="s">
@@ -19687,7 +19721,7 @@
       <c r="D40" s="50"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="225"/>
+      <c r="A41" s="229"/>
       <c r="B41" s="54" t="s">
         <v>1029</v>
       </c>
@@ -19700,7 +19734,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="98" x14ac:dyDescent="0.25">
-      <c r="A44" s="224" t="s">
+      <c r="A44" s="227" t="s">
         <v>1043</v>
       </c>
       <c r="B44" s="49" t="s">
@@ -19714,7 +19748,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="226"/>
+      <c r="A45" s="228"/>
       <c r="B45" s="19" t="s">
         <v>1031</v>
       </c>
@@ -19722,7 +19756,7 @@
       <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="226"/>
+      <c r="A46" s="228"/>
       <c r="B46" s="19" t="s">
         <v>1032</v>
       </c>
@@ -19730,7 +19764,7 @@
       <c r="D46" s="52"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="226"/>
+      <c r="A47" s="228"/>
       <c r="B47" s="19" t="s">
         <v>1033</v>
       </c>
@@ -19738,7 +19772,7 @@
       <c r="D47" s="52"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="226"/>
+      <c r="A48" s="228"/>
       <c r="B48" s="19" t="s">
         <v>1034</v>
       </c>
@@ -19746,7 +19780,7 @@
       <c r="D48" s="52"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="226"/>
+      <c r="A49" s="228"/>
       <c r="B49" s="19" t="s">
         <v>1035</v>
       </c>
@@ -19754,7 +19788,7 @@
       <c r="D49" s="52"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="225"/>
+      <c r="A50" s="229"/>
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -19815,7 +19849,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="154" x14ac:dyDescent="0.25">
-      <c r="A59" s="227" t="s">
+      <c r="A59" s="230" t="s">
         <v>418</v>
       </c>
       <c r="B59" s="49" t="s">
@@ -19829,7 +19863,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="228"/>
+      <c r="A60" s="231"/>
       <c r="B60" s="19" t="s">
         <v>1054</v>
       </c>
@@ -19837,7 +19871,7 @@
       <c r="D60" s="52"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="229"/>
+      <c r="A61" s="232"/>
       <c r="B61" s="54" t="s">
         <v>1055</v>
       </c>
@@ -20009,7 +20043,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="98" x14ac:dyDescent="0.25">
-      <c r="A82" s="230" t="s">
+      <c r="A82" s="224" t="s">
         <v>1090</v>
       </c>
       <c r="B82" s="49" t="s">
@@ -20023,7 +20057,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="231"/>
+      <c r="A83" s="225"/>
       <c r="B83" s="19" t="s">
         <v>1092</v>
       </c>
@@ -20031,7 +20065,7 @@
       <c r="D83" s="52"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="231"/>
+      <c r="A84" s="225"/>
       <c r="B84" s="19" t="s">
         <v>1093</v>
       </c>
@@ -20039,7 +20073,7 @@
       <c r="D84" s="52"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="232"/>
+      <c r="A85" s="226"/>
       <c r="B85" s="54" t="s">
         <v>1094</v>
       </c>
@@ -20047,7 +20081,7 @@
       <c r="D85" s="55"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="230" t="s">
+      <c r="A87" s="224" t="s">
         <v>1100</v>
       </c>
       <c r="B87" s="49" t="s">
@@ -20061,7 +20095,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="231"/>
+      <c r="A88" s="225"/>
       <c r="B88" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20073,7 +20107,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="231"/>
+      <c r="A89" s="225"/>
       <c r="B89" s="19" t="s">
         <v>1103</v>
       </c>
@@ -20085,7 +20119,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="231"/>
+      <c r="A90" s="225"/>
       <c r="B90" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20097,7 +20131,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="231"/>
+      <c r="A91" s="225"/>
       <c r="B91" s="19" t="s">
         <v>1104</v>
       </c>
@@ -20107,7 +20141,7 @@
       <c r="D91" s="52"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="231"/>
+      <c r="A92" s="225"/>
       <c r="B92" s="19" t="s">
         <v>1102</v>
       </c>
@@ -20115,7 +20149,7 @@
       <c r="D92" s="52"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="231"/>
+      <c r="A93" s="225"/>
       <c r="B93" s="19" t="s">
         <v>535</v>
       </c>
@@ -20123,7 +20157,7 @@
       <c r="D93" s="52"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="231"/>
+      <c r="A94" s="225"/>
       <c r="B94" s="19" t="s">
         <v>1105</v>
       </c>
@@ -20131,7 +20165,7 @@
       <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="232"/>
+      <c r="A95" s="226"/>
       <c r="B95" s="54" t="s">
         <v>1106</v>
       </c>
@@ -20139,7 +20173,7 @@
       <c r="D95" s="55"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="224" t="s">
+      <c r="A97" s="227" t="s">
         <v>1113</v>
       </c>
       <c r="B97" s="65" t="s">
@@ -20151,7 +20185,7 @@
       <c r="D97" s="66"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="226"/>
+      <c r="A98" s="228"/>
       <c r="B98" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20161,7 +20195,7 @@
       <c r="D98" s="68"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="226"/>
+      <c r="A99" s="228"/>
       <c r="B99" s="67" t="s">
         <v>1103</v>
       </c>
@@ -20171,7 +20205,7 @@
       <c r="D99" s="68"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="226"/>
+      <c r="A100" s="228"/>
       <c r="B100" s="67" t="s">
         <v>1114</v>
       </c>
@@ -20181,7 +20215,7 @@
       <c r="D100" s="68"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="226"/>
+      <c r="A101" s="228"/>
       <c r="B101" s="67" t="s">
         <v>1104</v>
       </c>
@@ -20191,7 +20225,7 @@
       <c r="D101" s="68"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="225"/>
+      <c r="A102" s="229"/>
       <c r="B102" s="69" t="s">
         <v>1114</v>
       </c>
@@ -20251,22 +20285,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21455,7 +21489,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="224" t="s">
+      <c r="A125" s="227" t="s">
         <v>1311</v>
       </c>
       <c r="B125" s="48" t="s">
@@ -21466,21 +21500,21 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="226"/>
+      <c r="A126" s="228"/>
       <c r="B126" s="51"/>
       <c r="C126" s="52" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="226"/>
+      <c r="A127" s="228"/>
       <c r="B127" s="53"/>
       <c r="C127" s="55" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="226"/>
+      <c r="A128" s="228"/>
       <c r="B128" s="19" t="s">
         <v>1126</v>
       </c>
@@ -21489,7 +21523,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="226"/>
+      <c r="A129" s="228"/>
       <c r="B129" s="48" t="s">
         <v>716</v>
       </c>
@@ -21498,14 +21532,14 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="226"/>
+      <c r="A130" s="228"/>
       <c r="B130" s="53"/>
       <c r="C130" s="55" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="226"/>
+      <c r="A131" s="228"/>
       <c r="B131" s="48" t="s">
         <v>808</v>
       </c>
@@ -21514,14 +21548,14 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="226"/>
+      <c r="A132" s="228"/>
       <c r="B132" s="53"/>
       <c r="C132" s="55" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="225"/>
+      <c r="A133" s="229"/>
       <c r="B133" s="54" t="s">
         <v>1321</v>
       </c>
@@ -40070,8 +40104,8 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -40102,7 +40136,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="190" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="171" t="s">
@@ -40126,7 +40160,7 @@
       <c r="J2" s="175"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="196"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="171" t="s">
         <v>6</v>
       </c>
@@ -40148,7 +40182,7 @@
       <c r="J3" s="175"/>
     </row>
     <row r="4" spans="1:10" s="180" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="196"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="172" t="s">
         <v>274</v>
       </c>
@@ -40161,9 +40195,18 @@
       <c r="E4" s="172" t="s">
         <v>272</v>
       </c>
+      <c r="F4" s="180" t="s">
+        <v>3996</v>
+      </c>
+      <c r="G4" s="180" t="s">
+        <v>3995</v>
+      </c>
+      <c r="H4" s="180" t="s">
+        <v>4000</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="196"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="171" t="s">
         <v>276</v>
       </c>
@@ -40185,7 +40228,7 @@
       <c r="J5" s="175"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="196"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="171" t="s">
         <v>9</v>
       </c>
@@ -40207,7 +40250,7 @@
       <c r="J6" s="175"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="196"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="171" t="s">
         <v>279</v>
       </c>
@@ -40229,7 +40272,7 @@
       <c r="J7" s="175"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="196"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="171" t="s">
         <v>8</v>
       </c>
@@ -40251,7 +40294,7 @@
       <c r="J8" s="175"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="196"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="171" t="s">
         <v>282</v>
       </c>
@@ -40277,11 +40320,11 @@
       <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="195"/>
+      <c r="A10" s="200"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="202"/>
       <c r="F10" s="175"/>
       <c r="G10" s="175"/>
       <c r="H10" s="175"/>
@@ -40289,7 +40332,7 @@
       <c r="J10" s="175"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="191" t="s">
         <v>283</v>
       </c>
       <c r="B11" s="173" t="s">
@@ -40313,7 +40356,7 @@
       <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="198"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="173" t="s">
         <v>298</v>
       </c>
@@ -40335,7 +40378,7 @@
       <c r="J12" s="175"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="198"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="173" t="s">
         <v>299</v>
       </c>
@@ -40357,7 +40400,7 @@
       <c r="J13" s="175"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="198"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="173" t="s">
         <v>301</v>
       </c>
@@ -40379,7 +40422,7 @@
       <c r="J14" s="175"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="198"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="173" t="s">
         <v>302</v>
       </c>
@@ -40401,7 +40444,7 @@
       <c r="J15" s="175"/>
     </row>
     <row r="16" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="198"/>
+      <c r="A16" s="192"/>
       <c r="B16" s="172" t="s">
         <v>304</v>
       </c>
@@ -40414,10 +40457,18 @@
       <c r="E16" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="180"/>
+      <c r="F16" s="180" t="s">
+        <v>3996</v>
+      </c>
+      <c r="G16" s="180" t="s">
+        <v>3995</v>
+      </c>
+      <c r="H16" s="180" t="s">
+        <v>3999</v>
+      </c>
     </row>
     <row r="17" spans="1:10" s="181" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="199"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="172" t="s">
         <v>306</v>
       </c>
@@ -40430,14 +40481,22 @@
       <c r="E17" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F17" s="180"/>
+      <c r="F17" s="180" t="s">
+        <v>3996</v>
+      </c>
+      <c r="G17" s="180" t="s">
+        <v>3995</v>
+      </c>
+      <c r="H17" s="238" t="s">
+        <v>4001</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="193"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="195"/>
+      <c r="A18" s="200"/>
+      <c r="B18" s="201"/>
+      <c r="C18" s="201"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="202"/>
       <c r="F18" s="175"/>
       <c r="G18" s="175"/>
       <c r="H18" s="175"/>
@@ -40445,7 +40504,7 @@
       <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="190" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="171" t="s">
@@ -40471,7 +40530,7 @@
       <c r="J19" s="175"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="196"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="171" t="s">
         <v>43</v>
       </c>
@@ -40495,7 +40554,7 @@
       <c r="J20" s="175"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="196"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="171" t="s">
         <v>309</v>
       </c>
@@ -40519,7 +40578,7 @@
       <c r="J21" s="175"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="196"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="171" t="s">
         <v>311</v>
       </c>
@@ -40543,7 +40602,7 @@
       <c r="J22" s="175"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="196"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="171" t="s">
         <v>313</v>
       </c>
@@ -40567,7 +40626,7 @@
       <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A24" s="196"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="173" t="s">
         <v>315</v>
       </c>
@@ -40591,7 +40650,7 @@
       <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="196"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="171" t="s">
         <v>316</v>
       </c>
@@ -40615,7 +40674,7 @@
       <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="196"/>
+      <c r="A26" s="190"/>
       <c r="B26" s="171" t="s">
         <v>318</v>
       </c>
@@ -40639,7 +40698,7 @@
       <c r="J26" s="175"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="196"/>
+      <c r="A27" s="190"/>
       <c r="B27" s="171" t="s">
         <v>319</v>
       </c>
@@ -40667,14 +40726,14 @@
       <c r="J27" s="175"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="184"/>
-      <c r="D28" s="184"/>
-      <c r="E28" s="185"/>
+      <c r="A28" s="184"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="186"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="197" t="s">
+      <c r="A29" s="191" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="171" t="s">
@@ -40691,7 +40750,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="198"/>
+      <c r="A30" s="192"/>
       <c r="B30" s="171" t="s">
         <v>67</v>
       </c>
@@ -40706,7 +40765,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="198"/>
+      <c r="A31" s="192"/>
       <c r="B31" s="171" t="s">
         <v>323</v>
       </c>
@@ -40721,7 +40780,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="199"/>
+      <c r="A32" s="193"/>
       <c r="B32" s="171" t="s">
         <v>325</v>
       </c>
@@ -40735,15 +40794,15 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="193"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="195"/>
-    </row>
-    <row r="34" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="200" t="s">
+    <row r="33" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="200"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="202"/>
+    </row>
+    <row r="34" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="194" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="172" t="s">
@@ -40758,15 +40817,18 @@
       <c r="E34" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F34" s="110" t="s">
+      <c r="F34" s="180" t="s">
         <v>3989</v>
       </c>
-      <c r="G34" s="110" t="s">
+      <c r="G34" s="180" t="s">
         <v>3990</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="201"/>
+      <c r="H34" s="180" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="195"/>
       <c r="B35" s="172" t="s">
         <v>328</v>
       </c>
@@ -40779,15 +40841,18 @@
       <c r="E35" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F35" s="110" t="s">
+      <c r="F35" s="180" t="s">
         <v>3991</v>
       </c>
-      <c r="G35" s="110" t="s">
+      <c r="G35" s="180" t="s">
         <v>3990</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="201"/>
+      <c r="H35" s="180" t="s">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="195"/>
       <c r="B36" s="172" t="s">
         <v>330</v>
       </c>
@@ -40800,15 +40865,18 @@
       <c r="E36" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F36" s="110" t="s">
+      <c r="F36" s="180" t="s">
         <v>3989</v>
       </c>
-      <c r="G36" s="110" t="s">
+      <c r="G36" s="180" t="s">
         <v>3990</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="201"/>
+      <c r="H36" s="180" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="195"/>
       <c r="B37" s="172" t="s">
         <v>332</v>
       </c>
@@ -40821,15 +40889,18 @@
       <c r="E37" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F37" s="110" t="s">
+      <c r="F37" s="180" t="s">
         <v>3991</v>
       </c>
-      <c r="G37" s="110" t="s">
+      <c r="G37" s="180" t="s">
         <v>3990</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="201"/>
+      <c r="H37" s="180" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="195"/>
       <c r="B38" s="172" t="s">
         <v>97</v>
       </c>
@@ -40842,9 +40913,18 @@
       <c r="E38" s="172" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="201"/>
+      <c r="F38" s="180" t="s">
+        <v>3992</v>
+      </c>
+      <c r="G38" s="180" t="s">
+        <v>3993</v>
+      </c>
+      <c r="H38" s="180" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="195"/>
       <c r="B39" s="172" t="s">
         <v>98</v>
       </c>
@@ -40857,9 +40937,18 @@
       <c r="E39" s="172" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="201"/>
+      <c r="F39" s="180" t="s">
+        <v>3992</v>
+      </c>
+      <c r="G39" s="180" t="s">
+        <v>3993</v>
+      </c>
+      <c r="H39" s="180" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="195"/>
       <c r="B40" s="172" t="s">
         <v>334</v>
       </c>
@@ -40872,15 +40961,18 @@
       <c r="E40" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F40" s="110" t="s">
+      <c r="F40" s="180" t="s">
         <v>3992</v>
       </c>
-      <c r="G40" s="110" t="s">
+      <c r="G40" s="180" t="s">
         <v>3993</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="202"/>
+      <c r="H40" s="180" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="196"/>
       <c r="B41" s="172" t="s">
         <v>107</v>
       </c>
@@ -40893,22 +40985,25 @@
       <c r="E41" s="172" t="s">
         <v>272</v>
       </c>
-      <c r="F41" s="110" t="s">
+      <c r="F41" s="180" t="s">
         <v>3994</v>
       </c>
-      <c r="G41" s="110" t="s">
+      <c r="G41" s="180" t="s">
         <v>3993</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" s="175" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="193"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A43" s="190" t="s">
+      <c r="H41" s="180" t="s">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="200"/>
+      <c r="B42" s="201"/>
+      <c r="C42" s="201"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="202"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="197" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="171" t="s">
@@ -40924,8 +41019,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="191"/>
+    <row r="44" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="198"/>
       <c r="B44" s="171" t="s">
         <v>339</v>
       </c>
@@ -40939,8 +41034,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="191"/>
+    <row r="45" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="198"/>
       <c r="B45" s="171" t="s">
         <v>341</v>
       </c>
@@ -40954,8 +41049,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="191"/>
+    <row r="46" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="198"/>
       <c r="B46" s="171" t="s">
         <v>343</v>
       </c>
@@ -40969,8 +41064,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="191"/>
+    <row r="47" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="198"/>
       <c r="B47" s="173" t="s">
         <v>345</v>
       </c>
@@ -40984,8 +41079,8 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="191"/>
+    <row r="48" spans="1:8" s="110" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="198"/>
       <c r="B48" s="173" t="s">
         <v>347</v>
       </c>
@@ -41000,7 +41095,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="191"/>
+      <c r="A49" s="198"/>
       <c r="B49" s="173" t="s">
         <v>349</v>
       </c>
@@ -41015,7 +41110,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="191"/>
+      <c r="A50" s="198"/>
       <c r="B50" s="182" t="s">
         <v>350</v>
       </c>
@@ -41030,7 +41125,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="110" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="192"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="173" t="s">
         <v>352</v>
       </c>
@@ -41046,17 +41141,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41647,6 +41742,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41655,11 +41755,6 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42560,9 +42655,9 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="204"/>
-      <c r="B29" s="183"/>
-      <c r="C29" s="184"/>
-      <c r="D29" s="185"/>
+      <c r="B29" s="184"/>
+      <c r="C29" s="185"/>
+      <c r="D29" s="186"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="204"/>
@@ -42608,9 +42703,9 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="204"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="184"/>
-      <c r="D34" s="185"/>
+      <c r="B34" s="184"/>
+      <c r="C34" s="185"/>
+      <c r="D34" s="186"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="204"/>
@@ -42706,9 +42801,9 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="204"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="184"/>
-      <c r="D44" s="185"/>
+      <c r="B44" s="184"/>
+      <c r="C44" s="185"/>
+      <c r="D44" s="186"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="204"/>
@@ -42754,9 +42849,9 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="204"/>
-      <c r="B49" s="183"/>
-      <c r="C49" s="184"/>
-      <c r="D49" s="185"/>
+      <c r="B49" s="184"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="186"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="204"/>
@@ -42862,6 +42957,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42872,14 +42975,6 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -16186,9 +16186,7 @@
     <xf numFmtId="0" fontId="39" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16196,6 +16194,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16206,6 +16207,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16226,24 +16245,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16309,6 +16310,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -16316,15 +16326,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16342,7 +16343,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -16384,7 +16384,7 @@
         <xdr:cNvPr id="7169" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000011C0000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16873,10 +16873,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="154" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="140" t="s">
@@ -16887,8 +16887,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="150"/>
-      <c r="B3" s="150"/>
+      <c r="A3" s="154"/>
+      <c r="B3" s="154"/>
       <c r="C3" s="140" t="s">
         <v>7</v>
       </c>
@@ -16897,8 +16897,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="150"/>
-      <c r="B4" s="150"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="140" t="s">
         <v>8</v>
       </c>
@@ -16907,8 +16907,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="150"/>
-      <c r="B5" s="150"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="140" t="s">
         <v>9</v>
       </c>
@@ -16917,8 +16917,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="150"/>
-      <c r="B6" s="150"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
       <c r="C6" s="139" t="s">
         <v>10</v>
       </c>
@@ -16927,8 +16927,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="150"/>
-      <c r="B7" s="150"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
@@ -16937,8 +16937,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="150"/>
-      <c r="B8" s="150"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="140" t="s">
         <v>12</v>
       </c>
@@ -16947,8 +16947,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="150"/>
-      <c r="B9" s="150"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
       <c r="C9" s="140" t="s">
         <v>13</v>
       </c>
@@ -16957,8 +16957,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
-      <c r="A10" s="150"/>
-      <c r="B10" s="150"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="139" t="s">
         <v>14</v>
       </c>
@@ -16967,8 +16967,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="150"/>
-      <c r="B11" s="150"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="139" t="s">
         <v>15</v>
       </c>
@@ -16977,8 +16977,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="150"/>
-      <c r="B12" s="150"/>
+      <c r="A12" s="154"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="139" t="s">
         <v>16</v>
       </c>
@@ -16987,8 +16987,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5">
-      <c r="A13" s="150"/>
-      <c r="B13" s="150"/>
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
       <c r="C13" s="139" t="s">
         <v>17</v>
       </c>
@@ -16997,14 +16997,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5">
-      <c r="A14" s="150"/>
+      <c r="A14" s="154"/>
       <c r="B14" s="151"/>
       <c r="C14" s="152"/>
       <c r="D14" s="153"/>
     </row>
     <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="150"/>
-      <c r="B15" s="150" t="s">
+      <c r="A15" s="154"/>
+      <c r="B15" s="154" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17015,8 +17015,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5">
-      <c r="A16" s="150"/>
-      <c r="B16" s="150"/>
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -17025,8 +17025,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5">
-      <c r="A17" s="150"/>
-      <c r="B17" s="150"/>
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -17035,8 +17035,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
-      <c r="A18" s="150"/>
-      <c r="B18" s="150"/>
+      <c r="A18" s="154"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -17045,8 +17045,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5">
-      <c r="A19" s="150"/>
-      <c r="B19" s="150"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -17055,8 +17055,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5">
-      <c r="A20" s="150"/>
-      <c r="B20" s="150"/>
+      <c r="A20" s="154"/>
+      <c r="B20" s="154"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -17065,8 +17065,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
+      <c r="A21" s="154"/>
+      <c r="B21" s="154"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17075,14 +17075,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5">
-      <c r="A22" s="150"/>
+      <c r="A22" s="154"/>
       <c r="B22" s="151"/>
       <c r="C22" s="152"/>
       <c r="D22" s="153"/>
     </row>
     <row r="23" spans="1:4" ht="16.5">
-      <c r="A23" s="150"/>
-      <c r="B23" s="150" t="s">
+      <c r="A23" s="154"/>
+      <c r="B23" s="154" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17093,8 +17093,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5">
-      <c r="A24" s="150"/>
-      <c r="B24" s="150"/>
+      <c r="A24" s="154"/>
+      <c r="B24" s="154"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17103,8 +17103,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
-      <c r="A25" s="150"/>
-      <c r="B25" s="150"/>
+      <c r="A25" s="154"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17113,8 +17113,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
-      <c r="A26" s="150"/>
-      <c r="B26" s="150"/>
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17123,8 +17123,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
-      <c r="A27" s="150"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="154"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17133,8 +17133,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
-      <c r="A28" s="150"/>
-      <c r="B28" s="150"/>
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17143,8 +17143,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
-      <c r="A29" s="150"/>
-      <c r="B29" s="150"/>
+      <c r="A29" s="154"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17153,8 +17153,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
-      <c r="A30" s="150"/>
-      <c r="B30" s="150"/>
+      <c r="A30" s="154"/>
+      <c r="B30" s="154"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17163,8 +17163,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
-      <c r="A31" s="150"/>
-      <c r="B31" s="150"/>
+      <c r="A31" s="154"/>
+      <c r="B31" s="154"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17173,8 +17173,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
-      <c r="A32" s="150"/>
-      <c r="B32" s="150"/>
+      <c r="A32" s="154"/>
+      <c r="B32" s="154"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17183,8 +17183,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5">
-      <c r="A33" s="150"/>
-      <c r="B33" s="150"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17193,8 +17193,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5">
-      <c r="A34" s="150"/>
-      <c r="B34" s="150"/>
+      <c r="A34" s="154"/>
+      <c r="B34" s="154"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17203,14 +17203,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5">
-      <c r="A35" s="150"/>
+      <c r="A35" s="154"/>
       <c r="B35" s="151"/>
       <c r="C35" s="152"/>
       <c r="D35" s="153"/>
     </row>
     <row r="36" spans="1:4" ht="16.5">
-      <c r="A36" s="150"/>
-      <c r="B36" s="150" t="s">
+      <c r="A36" s="154"/>
+      <c r="B36" s="154" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17221,8 +17221,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5">
-      <c r="A37" s="150"/>
-      <c r="B37" s="150"/>
+      <c r="A37" s="154"/>
+      <c r="B37" s="154"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17231,8 +17231,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5">
-      <c r="A38" s="150"/>
-      <c r="B38" s="150"/>
+      <c r="A38" s="154"/>
+      <c r="B38" s="154"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17241,8 +17241,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5">
-      <c r="A39" s="150"/>
-      <c r="B39" s="150"/>
+      <c r="A39" s="154"/>
+      <c r="B39" s="154"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17251,8 +17251,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5">
-      <c r="A40" s="150"/>
-      <c r="B40" s="150"/>
+      <c r="A40" s="154"/>
+      <c r="B40" s="154"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17261,8 +17261,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5">
-      <c r="A41" s="150"/>
-      <c r="B41" s="150"/>
+      <c r="A41" s="154"/>
+      <c r="B41" s="154"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17271,8 +17271,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5">
-      <c r="A42" s="150"/>
-      <c r="B42" s="150"/>
+      <c r="A42" s="154"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17281,8 +17281,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5">
-      <c r="A43" s="150"/>
-      <c r="B43" s="150"/>
+      <c r="A43" s="154"/>
+      <c r="B43" s="154"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17291,8 +17291,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5">
-      <c r="A44" s="150"/>
-      <c r="B44" s="150"/>
+      <c r="A44" s="154"/>
+      <c r="B44" s="154"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17301,8 +17301,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5">
-      <c r="A45" s="150"/>
-      <c r="B45" s="150"/>
+      <c r="A45" s="154"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17311,8 +17311,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5">
-      <c r="A46" s="150"/>
-      <c r="B46" s="150"/>
+      <c r="A46" s="154"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17321,8 +17321,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5">
-      <c r="A47" s="150"/>
-      <c r="B47" s="150"/>
+      <c r="A47" s="154"/>
+      <c r="B47" s="154"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17331,8 +17331,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5">
-      <c r="A48" s="150"/>
-      <c r="B48" s="150"/>
+      <c r="A48" s="154"/>
+      <c r="B48" s="154"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17341,8 +17341,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5">
-      <c r="A49" s="150"/>
-      <c r="B49" s="150"/>
+      <c r="A49" s="154"/>
+      <c r="B49" s="154"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17351,8 +17351,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5">
-      <c r="A50" s="150"/>
-      <c r="B50" s="150"/>
+      <c r="A50" s="154"/>
+      <c r="B50" s="154"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17361,8 +17361,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5">
-      <c r="A51" s="150"/>
-      <c r="B51" s="150"/>
+      <c r="A51" s="154"/>
+      <c r="B51" s="154"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17371,14 +17371,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5">
-      <c r="A52" s="150"/>
+      <c r="A52" s="154"/>
       <c r="B52" s="151"/>
       <c r="C52" s="152"/>
       <c r="D52" s="153"/>
     </row>
     <row r="53" spans="1:4" ht="16.5">
-      <c r="A53" s="150"/>
-      <c r="B53" s="150" t="s">
+      <c r="A53" s="154"/>
+      <c r="B53" s="154" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17389,8 +17389,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5">
-      <c r="A54" s="150"/>
-      <c r="B54" s="150"/>
+      <c r="A54" s="154"/>
+      <c r="B54" s="154"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17399,8 +17399,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5">
-      <c r="A55" s="150"/>
-      <c r="B55" s="150"/>
+      <c r="A55" s="154"/>
+      <c r="B55" s="154"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17409,8 +17409,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5">
-      <c r="A56" s="150"/>
-      <c r="B56" s="150"/>
+      <c r="A56" s="154"/>
+      <c r="B56" s="154"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17419,8 +17419,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5">
-      <c r="A57" s="150"/>
-      <c r="B57" s="150"/>
+      <c r="A57" s="154"/>
+      <c r="B57" s="154"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17429,8 +17429,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
-      <c r="A58" s="150"/>
-      <c r="B58" s="150"/>
+      <c r="A58" s="154"/>
+      <c r="B58" s="154"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17439,8 +17439,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5">
-      <c r="A59" s="150"/>
-      <c r="B59" s="150"/>
+      <c r="A59" s="154"/>
+      <c r="B59" s="154"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17455,10 +17455,10 @@
       <c r="D60" s="153"/>
     </row>
     <row r="61" spans="1:4" ht="16.5">
-      <c r="A61" s="150" t="s">
+      <c r="A61" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="150" t="s">
+      <c r="B61" s="154" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17469,8 +17469,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5">
-      <c r="A62" s="150"/>
-      <c r="B62" s="150"/>
+      <c r="A62" s="154"/>
+      <c r="B62" s="154"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17479,8 +17479,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5">
-      <c r="A63" s="150"/>
-      <c r="B63" s="150"/>
+      <c r="A63" s="154"/>
+      <c r="B63" s="154"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17489,8 +17489,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5">
-      <c r="A64" s="150"/>
-      <c r="B64" s="150"/>
+      <c r="A64" s="154"/>
+      <c r="B64" s="154"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17499,8 +17499,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5">
-      <c r="A65" s="150"/>
-      <c r="B65" s="150"/>
+      <c r="A65" s="154"/>
+      <c r="B65" s="154"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17509,8 +17509,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5">
-      <c r="A66" s="150"/>
-      <c r="B66" s="150"/>
+      <c r="A66" s="154"/>
+      <c r="B66" s="154"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17519,14 +17519,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5">
-      <c r="A67" s="150"/>
+      <c r="A67" s="154"/>
       <c r="B67" s="151"/>
       <c r="C67" s="152"/>
       <c r="D67" s="153"/>
     </row>
     <row r="68" spans="1:4" ht="16.5">
-      <c r="A68" s="150"/>
-      <c r="B68" s="150" t="s">
+      <c r="A68" s="154"/>
+      <c r="B68" s="154" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17537,8 +17537,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5">
-      <c r="A69" s="150"/>
-      <c r="B69" s="150"/>
+      <c r="A69" s="154"/>
+      <c r="B69" s="154"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17547,8 +17547,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5">
-      <c r="A70" s="150"/>
-      <c r="B70" s="150"/>
+      <c r="A70" s="154"/>
+      <c r="B70" s="154"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17557,8 +17557,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5">
-      <c r="A71" s="150"/>
-      <c r="B71" s="150"/>
+      <c r="A71" s="154"/>
+      <c r="B71" s="154"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17567,8 +17567,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5">
-      <c r="A72" s="150"/>
-      <c r="B72" s="150"/>
+      <c r="A72" s="154"/>
+      <c r="B72" s="154"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17577,8 +17577,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5">
-      <c r="A73" s="150"/>
-      <c r="B73" s="150"/>
+      <c r="A73" s="154"/>
+      <c r="B73" s="154"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17587,8 +17587,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5">
-      <c r="A74" s="150"/>
-      <c r="B74" s="150"/>
+      <c r="A74" s="154"/>
+      <c r="B74" s="154"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17597,8 +17597,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5">
-      <c r="A75" s="150"/>
-      <c r="B75" s="150"/>
+      <c r="A75" s="154"/>
+      <c r="B75" s="154"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17607,8 +17607,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5">
-      <c r="A76" s="150"/>
-      <c r="B76" s="150"/>
+      <c r="A76" s="154"/>
+      <c r="B76" s="154"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17617,8 +17617,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5">
-      <c r="A77" s="150"/>
-      <c r="B77" s="150"/>
+      <c r="A77" s="154"/>
+      <c r="B77" s="154"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17627,14 +17627,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5">
-      <c r="A78" s="150"/>
+      <c r="A78" s="154"/>
       <c r="B78" s="151"/>
       <c r="C78" s="152"/>
       <c r="D78" s="153"/>
     </row>
     <row r="79" spans="1:4" ht="16.5">
-      <c r="A79" s="150"/>
-      <c r="B79" s="150" t="s">
+      <c r="A79" s="154"/>
+      <c r="B79" s="154" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17645,8 +17645,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5">
-      <c r="A80" s="150"/>
-      <c r="B80" s="150"/>
+      <c r="A80" s="154"/>
+      <c r="B80" s="154"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17655,8 +17655,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5">
-      <c r="A81" s="150"/>
-      <c r="B81" s="150"/>
+      <c r="A81" s="154"/>
+      <c r="B81" s="154"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17665,8 +17665,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5">
-      <c r="A82" s="150"/>
-      <c r="B82" s="150"/>
+      <c r="A82" s="154"/>
+      <c r="B82" s="154"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17675,8 +17675,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5">
-      <c r="A83" s="150"/>
-      <c r="B83" s="150"/>
+      <c r="A83" s="154"/>
+      <c r="B83" s="154"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17685,8 +17685,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5">
-      <c r="A84" s="150"/>
-      <c r="B84" s="150"/>
+      <c r="A84" s="154"/>
+      <c r="B84" s="154"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17695,14 +17695,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5">
-      <c r="A85" s="150"/>
+      <c r="A85" s="154"/>
       <c r="B85" s="151"/>
       <c r="C85" s="152"/>
       <c r="D85" s="153"/>
     </row>
     <row r="86" spans="1:4" ht="16.5">
-      <c r="A86" s="150"/>
-      <c r="B86" s="150" t="s">
+      <c r="A86" s="154"/>
+      <c r="B86" s="154" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17713,8 +17713,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5">
-      <c r="A87" s="150"/>
-      <c r="B87" s="150"/>
+      <c r="A87" s="154"/>
+      <c r="B87" s="154"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17723,8 +17723,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5">
-      <c r="A88" s="150"/>
-      <c r="B88" s="150"/>
+      <c r="A88" s="154"/>
+      <c r="B88" s="154"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17733,8 +17733,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5">
-      <c r="A89" s="150"/>
-      <c r="B89" s="150"/>
+      <c r="A89" s="154"/>
+      <c r="B89" s="154"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17749,10 +17749,10 @@
       <c r="D90" s="153"/>
     </row>
     <row r="91" spans="1:4" ht="16.5">
-      <c r="A91" s="150" t="s">
+      <c r="A91" s="154" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="150" t="s">
+      <c r="B91" s="154" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17763,8 +17763,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5">
-      <c r="A92" s="150"/>
-      <c r="B92" s="150"/>
+      <c r="A92" s="154"/>
+      <c r="B92" s="154"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17773,8 +17773,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5">
-      <c r="A93" s="150"/>
-      <c r="B93" s="150"/>
+      <c r="A93" s="154"/>
+      <c r="B93" s="154"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17783,8 +17783,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5">
-      <c r="A94" s="150"/>
-      <c r="B94" s="150"/>
+      <c r="A94" s="154"/>
+      <c r="B94" s="154"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17793,8 +17793,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5">
-      <c r="A95" s="150"/>
-      <c r="B95" s="150"/>
+      <c r="A95" s="154"/>
+      <c r="B95" s="154"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17803,8 +17803,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5">
-      <c r="A96" s="150"/>
-      <c r="B96" s="150"/>
+      <c r="A96" s="154"/>
+      <c r="B96" s="154"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17813,8 +17813,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5">
-      <c r="A97" s="150"/>
-      <c r="B97" s="150"/>
+      <c r="A97" s="154"/>
+      <c r="B97" s="154"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17823,8 +17823,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5">
-      <c r="A98" s="150"/>
-      <c r="B98" s="150"/>
+      <c r="A98" s="154"/>
+      <c r="B98" s="154"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17833,8 +17833,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5">
-      <c r="A99" s="150"/>
-      <c r="B99" s="150"/>
+      <c r="A99" s="154"/>
+      <c r="B99" s="154"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17843,8 +17843,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5">
-      <c r="A100" s="150"/>
-      <c r="B100" s="150"/>
+      <c r="A100" s="154"/>
+      <c r="B100" s="154"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17853,8 +17853,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5">
-      <c r="A101" s="150"/>
-      <c r="B101" s="150"/>
+      <c r="A101" s="154"/>
+      <c r="B101" s="154"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17863,8 +17863,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5">
-      <c r="A102" s="150"/>
-      <c r="B102" s="150"/>
+      <c r="A102" s="154"/>
+      <c r="B102" s="154"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17873,8 +17873,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5">
-      <c r="A103" s="150"/>
-      <c r="B103" s="150"/>
+      <c r="A103" s="154"/>
+      <c r="B103" s="154"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17883,8 +17883,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5">
-      <c r="A104" s="150"/>
-      <c r="B104" s="150"/>
+      <c r="A104" s="154"/>
+      <c r="B104" s="154"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17893,8 +17893,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5">
-      <c r="A105" s="150"/>
-      <c r="B105" s="150"/>
+      <c r="A105" s="154"/>
+      <c r="B105" s="154"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17903,8 +17903,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5">
-      <c r="A106" s="150"/>
-      <c r="B106" s="150"/>
+      <c r="A106" s="154"/>
+      <c r="B106" s="154"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17913,8 +17913,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5">
-      <c r="A107" s="150"/>
-      <c r="B107" s="150"/>
+      <c r="A107" s="154"/>
+      <c r="B107" s="154"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17923,8 +17923,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5">
-      <c r="A108" s="150"/>
-      <c r="B108" s="150"/>
+      <c r="A108" s="154"/>
+      <c r="B108" s="154"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17933,8 +17933,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5">
-      <c r="A109" s="150"/>
-      <c r="B109" s="150"/>
+      <c r="A109" s="154"/>
+      <c r="B109" s="154"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17943,8 +17943,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5">
-      <c r="A110" s="150"/>
-      <c r="B110" s="150"/>
+      <c r="A110" s="154"/>
+      <c r="B110" s="154"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17959,10 +17959,10 @@
       <c r="D111" s="153"/>
     </row>
     <row r="112" spans="1:4" ht="16.5">
-      <c r="A112" s="150" t="s">
+      <c r="A112" s="154" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="150" t="s">
+      <c r="B112" s="154" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -17973,8 +17973,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5">
-      <c r="A113" s="150"/>
-      <c r="B113" s="150"/>
+      <c r="A113" s="154"/>
+      <c r="B113" s="154"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -17983,8 +17983,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5">
-      <c r="A114" s="150"/>
-      <c r="B114" s="150"/>
+      <c r="A114" s="154"/>
+      <c r="B114" s="154"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -17993,8 +17993,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5">
-      <c r="A115" s="150"/>
-      <c r="B115" s="150"/>
+      <c r="A115" s="154"/>
+      <c r="B115" s="154"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -18003,8 +18003,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5">
-      <c r="A116" s="150"/>
-      <c r="B116" s="150"/>
+      <c r="A116" s="154"/>
+      <c r="B116" s="154"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -18013,8 +18013,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5">
-      <c r="A117" s="150"/>
-      <c r="B117" s="150"/>
+      <c r="A117" s="154"/>
+      <c r="B117" s="154"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -18024,6 +18024,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -18037,18 +18049,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18085,7 +18085,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="186" t="s">
         <v>915</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -18096,7 +18096,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="187"/>
+      <c r="A4" s="188"/>
       <c r="B4" t="s">
         <v>835</v>
       </c>
@@ -18105,7 +18105,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="187"/>
+      <c r="A5" s="188"/>
       <c r="B5" t="s">
         <v>836</v>
       </c>
@@ -18114,7 +18114,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="187"/>
+      <c r="A6" s="188"/>
       <c r="B6" t="s">
         <v>838</v>
       </c>
@@ -18123,7 +18123,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="187"/>
+      <c r="A7" s="188"/>
       <c r="B7" t="s">
         <v>839</v>
       </c>
@@ -18132,7 +18132,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
       <c r="B8" t="s">
         <v>840</v>
       </c>
@@ -18141,7 +18141,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="187"/>
+      <c r="A9" s="188"/>
       <c r="B9" t="s">
         <v>841</v>
       </c>
@@ -18150,7 +18150,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
       <c r="B10" t="s">
         <v>842</v>
       </c>
@@ -18159,7 +18159,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="187"/>
+      <c r="A11" s="188"/>
       <c r="B11" t="s">
         <v>843</v>
       </c>
@@ -18168,7 +18168,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="187"/>
+      <c r="A12" s="188"/>
       <c r="B12" t="s">
         <v>844</v>
       </c>
@@ -18177,7 +18177,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="187"/>
+      <c r="A13" s="188"/>
       <c r="B13" t="s">
         <v>845</v>
       </c>
@@ -18186,7 +18186,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="187"/>
+      <c r="A14" s="188"/>
       <c r="B14" t="s">
         <v>846</v>
       </c>
@@ -18195,7 +18195,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="187"/>
+      <c r="A15" s="188"/>
       <c r="B15" t="s">
         <v>847</v>
       </c>
@@ -18204,7 +18204,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="187"/>
+      <c r="A16" s="188"/>
       <c r="B16" t="s">
         <v>848</v>
       </c>
@@ -18213,7 +18213,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="187"/>
+      <c r="A17" s="188"/>
       <c r="B17" t="s">
         <v>849</v>
       </c>
@@ -18222,7 +18222,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="186"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="45" t="s">
         <v>850</v>
       </c>
@@ -18231,7 +18231,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="186" t="s">
         <v>828</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -18242,7 +18242,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="187"/>
+      <c r="A21" s="188"/>
       <c r="B21" t="s">
         <v>852</v>
       </c>
@@ -18251,7 +18251,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="187"/>
+      <c r="A22" s="188"/>
       <c r="B22" t="s">
         <v>853</v>
       </c>
@@ -18260,7 +18260,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="187"/>
+      <c r="A23" s="188"/>
       <c r="B23" t="s">
         <v>854</v>
       </c>
@@ -18269,7 +18269,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="187"/>
+      <c r="A24" s="188"/>
       <c r="B24" t="s">
         <v>855</v>
       </c>
@@ -18278,7 +18278,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="187"/>
+      <c r="A25" s="188"/>
       <c r="B25" t="s">
         <v>856</v>
       </c>
@@ -18287,7 +18287,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="187"/>
+      <c r="A26" s="188"/>
       <c r="B26" t="s">
         <v>857</v>
       </c>
@@ -18296,7 +18296,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="187"/>
+      <c r="A27" s="188"/>
       <c r="B27" t="s">
         <v>858</v>
       </c>
@@ -18305,7 +18305,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="187"/>
+      <c r="A28" s="188"/>
       <c r="B28" t="s">
         <v>859</v>
       </c>
@@ -18314,7 +18314,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="186"/>
+      <c r="A29" s="187"/>
       <c r="B29" s="45" t="s">
         <v>860</v>
       </c>
@@ -18323,7 +18323,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="185" t="s">
+      <c r="A31" s="186" t="s">
         <v>829</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -18334,7 +18334,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="187"/>
+      <c r="A32" s="188"/>
       <c r="B32" t="s">
         <v>862</v>
       </c>
@@ -18343,7 +18343,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="187"/>
+      <c r="A33" s="188"/>
       <c r="B33" t="s">
         <v>863</v>
       </c>
@@ -18352,7 +18352,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="187"/>
+      <c r="A34" s="188"/>
       <c r="B34" t="s">
         <v>864</v>
       </c>
@@ -18361,7 +18361,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="187"/>
+      <c r="A35" s="188"/>
       <c r="B35" t="s">
         <v>865</v>
       </c>
@@ -18370,7 +18370,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="187"/>
+      <c r="A36" s="188"/>
       <c r="B36" t="s">
         <v>866</v>
       </c>
@@ -18379,7 +18379,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="187"/>
+      <c r="A37" s="188"/>
       <c r="B37" t="s">
         <v>867</v>
       </c>
@@ -18388,7 +18388,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="186"/>
+      <c r="A38" s="187"/>
       <c r="B38" s="45" t="s">
         <v>868</v>
       </c>
@@ -18397,7 +18397,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="185" t="s">
+      <c r="A40" s="186" t="s">
         <v>830</v>
       </c>
       <c r="B40" s="40" t="s">
@@ -18408,7 +18408,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="187"/>
+      <c r="A41" s="188"/>
       <c r="B41" t="s">
         <v>870</v>
       </c>
@@ -18417,7 +18417,7 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="187"/>
+      <c r="A42" s="188"/>
       <c r="B42" t="s">
         <v>871</v>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="187"/>
+      <c r="A43" s="188"/>
       <c r="B43" t="s">
         <v>872</v>
       </c>
@@ -18435,7 +18435,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="187"/>
+      <c r="A44" s="188"/>
       <c r="B44" t="s">
         <v>873</v>
       </c>
@@ -18444,7 +18444,7 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="187"/>
+      <c r="A45" s="188"/>
       <c r="B45" t="s">
         <v>874</v>
       </c>
@@ -18453,7 +18453,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="187"/>
+      <c r="A46" s="188"/>
       <c r="B46" t="s">
         <v>875</v>
       </c>
@@ -18462,7 +18462,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="187"/>
+      <c r="A47" s="188"/>
       <c r="B47" t="s">
         <v>876</v>
       </c>
@@ -18471,7 +18471,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="187"/>
+      <c r="A48" s="188"/>
       <c r="B48" t="s">
         <v>877</v>
       </c>
@@ -18480,7 +18480,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="187"/>
+      <c r="A49" s="188"/>
       <c r="B49" t="s">
         <v>878</v>
       </c>
@@ -18489,7 +18489,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="187"/>
+      <c r="A50" s="188"/>
       <c r="B50" t="s">
         <v>879</v>
       </c>
@@ -18498,7 +18498,7 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="187"/>
+      <c r="A51" s="188"/>
       <c r="B51" t="s">
         <v>880</v>
       </c>
@@ -18507,7 +18507,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="186"/>
+      <c r="A52" s="187"/>
       <c r="B52" s="45" t="s">
         <v>881</v>
       </c>
@@ -18516,7 +18516,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="185" t="s">
+      <c r="A54" s="186" t="s">
         <v>831</v>
       </c>
       <c r="B54" s="40" t="s">
@@ -18527,7 +18527,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="187"/>
+      <c r="A55" s="188"/>
       <c r="B55" t="s">
         <v>883</v>
       </c>
@@ -18536,7 +18536,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="187"/>
+      <c r="A56" s="188"/>
       <c r="B56" t="s">
         <v>884</v>
       </c>
@@ -18545,7 +18545,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="187"/>
+      <c r="A57" s="188"/>
       <c r="B57" t="s">
         <v>885</v>
       </c>
@@ -18554,7 +18554,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="187"/>
+      <c r="A58" s="188"/>
       <c r="B58" t="s">
         <v>886</v>
       </c>
@@ -18563,7 +18563,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="187"/>
+      <c r="A59" s="188"/>
       <c r="B59" t="s">
         <v>887</v>
       </c>
@@ -18572,7 +18572,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="187"/>
+      <c r="A60" s="188"/>
       <c r="B60" t="s">
         <v>888</v>
       </c>
@@ -18581,7 +18581,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="187"/>
+      <c r="A61" s="188"/>
       <c r="B61" t="s">
         <v>889</v>
       </c>
@@ -18590,7 +18590,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="187"/>
+      <c r="A62" s="188"/>
       <c r="B62" t="s">
         <v>890</v>
       </c>
@@ -18599,7 +18599,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="187"/>
+      <c r="A63" s="188"/>
       <c r="B63" t="s">
         <v>891</v>
       </c>
@@ -18608,7 +18608,7 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="187"/>
+      <c r="A64" s="188"/>
       <c r="B64" t="s">
         <v>892</v>
       </c>
@@ -18617,7 +18617,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="187"/>
+      <c r="A65" s="188"/>
       <c r="B65" t="s">
         <v>893</v>
       </c>
@@ -18626,7 +18626,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="187"/>
+      <c r="A66" s="188"/>
       <c r="B66" t="s">
         <v>894</v>
       </c>
@@ -18635,7 +18635,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="187"/>
+      <c r="A67" s="188"/>
       <c r="B67" t="s">
         <v>895</v>
       </c>
@@ -18644,7 +18644,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="187"/>
+      <c r="A68" s="188"/>
       <c r="B68" t="s">
         <v>896</v>
       </c>
@@ -18653,7 +18653,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="187"/>
+      <c r="A69" s="188"/>
       <c r="B69" t="s">
         <v>897</v>
       </c>
@@ -18662,7 +18662,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="187"/>
+      <c r="A70" s="188"/>
       <c r="B70" t="s">
         <v>898</v>
       </c>
@@ -18671,7 +18671,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="187"/>
+      <c r="A71" s="188"/>
       <c r="B71" t="s">
         <v>899</v>
       </c>
@@ -18680,7 +18680,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="187"/>
+      <c r="A72" s="188"/>
       <c r="B72" t="s">
         <v>900</v>
       </c>
@@ -18689,7 +18689,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="186"/>
+      <c r="A73" s="187"/>
       <c r="B73" s="45" t="s">
         <v>901</v>
       </c>
@@ -18698,7 +18698,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="185" t="s">
+      <c r="A75" s="186" t="s">
         <v>832</v>
       </c>
       <c r="B75" s="40" t="s">
@@ -18709,7 +18709,7 @@
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="187"/>
+      <c r="A76" s="188"/>
       <c r="B76" t="s">
         <v>903</v>
       </c>
@@ -18718,7 +18718,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="187"/>
+      <c r="A77" s="188"/>
       <c r="B77" t="s">
         <v>904</v>
       </c>
@@ -18727,7 +18727,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="187"/>
+      <c r="A78" s="188"/>
       <c r="B78" t="s">
         <v>905</v>
       </c>
@@ -18736,7 +18736,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="187"/>
+      <c r="A79" s="188"/>
       <c r="B79" t="s">
         <v>906</v>
       </c>
@@ -18745,7 +18745,7 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="187"/>
+      <c r="A80" s="188"/>
       <c r="B80" t="s">
         <v>907</v>
       </c>
@@ -18754,7 +18754,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="187"/>
+      <c r="A81" s="188"/>
       <c r="B81" t="s">
         <v>908</v>
       </c>
@@ -18763,7 +18763,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="187"/>
+      <c r="A82" s="188"/>
       <c r="B82" t="s">
         <v>909</v>
       </c>
@@ -18772,7 +18772,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="187"/>
+      <c r="A83" s="188"/>
       <c r="B83" t="s">
         <v>910</v>
       </c>
@@ -18781,7 +18781,7 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="187"/>
+      <c r="A84" s="188"/>
       <c r="B84" t="s">
         <v>911</v>
       </c>
@@ -18790,7 +18790,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="187"/>
+      <c r="A85" s="188"/>
       <c r="B85" t="s">
         <v>912</v>
       </c>
@@ -18799,7 +18799,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="187"/>
+      <c r="A86" s="188"/>
       <c r="B86" t="s">
         <v>913</v>
       </c>
@@ -18808,7 +18808,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="186"/>
+      <c r="A87" s="187"/>
       <c r="B87" s="45" t="s">
         <v>914</v>
       </c>
@@ -18855,7 +18855,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="186" t="s">
         <v>918</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -18863,37 +18863,37 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="187"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="43" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="187"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="43" t="s">
         <v>921</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="187"/>
+      <c r="A5" s="188"/>
       <c r="B5" s="43" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="187"/>
+      <c r="A6" s="188"/>
       <c r="B6" s="43" t="s">
         <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="186"/>
+      <c r="A7" s="187"/>
       <c r="B7" s="46" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="186" t="s">
         <v>377</v>
       </c>
       <c r="B9" s="41" t="s">
@@ -18901,97 +18901,97 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="43" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="187"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="43" t="s">
         <v>927</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="187"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="43" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="187"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="43" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="187"/>
+      <c r="A14" s="188"/>
       <c r="B14" s="43" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="187"/>
+      <c r="A15" s="188"/>
       <c r="B15" s="43" t="s">
         <v>931</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="187"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="43" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="187"/>
+      <c r="A17" s="188"/>
       <c r="B17" s="43" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="187"/>
+      <c r="A18" s="188"/>
       <c r="B18" s="43" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="187"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="43" t="s">
         <v>935</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="187"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="43" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="187"/>
+      <c r="A21" s="188"/>
       <c r="B21" s="43" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="187"/>
+      <c r="A22" s="188"/>
       <c r="B22" s="43" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="187"/>
+      <c r="A23" s="188"/>
       <c r="B23" s="43" t="s">
         <v>939</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="186"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="46" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="185" t="s">
+      <c r="A26" s="186" t="s">
         <v>796</v>
       </c>
       <c r="B26" s="47" t="s">
@@ -18999,85 +18999,85 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="187"/>
+      <c r="A27" s="188"/>
       <c r="B27" s="49" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="187"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="49" t="s">
         <v>943</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="187"/>
+      <c r="A29" s="188"/>
       <c r="B29" s="49" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="187"/>
+      <c r="A30" s="188"/>
       <c r="B30" s="49" t="s">
         <v>945</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="187"/>
+      <c r="A31" s="188"/>
       <c r="B31" s="49" t="s">
         <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="187"/>
+      <c r="A32" s="188"/>
       <c r="B32" s="49" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="187"/>
+      <c r="A33" s="188"/>
       <c r="B33" s="49" t="s">
         <v>948</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="187"/>
+      <c r="A34" s="188"/>
       <c r="B34" s="49" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="187"/>
+      <c r="A35" s="188"/>
       <c r="B35" s="49" t="s">
         <v>950</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="187"/>
+      <c r="A36" s="188"/>
       <c r="B36" s="49" t="s">
         <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="187"/>
+      <c r="A37" s="188"/>
       <c r="B37" s="49" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="187"/>
+      <c r="A38" s="188"/>
       <c r="B38" s="49" t="s">
         <v>953</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="186"/>
+      <c r="A39" s="187"/>
       <c r="B39" s="48" t="s">
         <v>954</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="185" t="s">
+      <c r="A41" s="186" t="s">
         <v>808</v>
       </c>
       <c r="B41" s="41" t="s">
@@ -19085,109 +19085,109 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="187"/>
+      <c r="A42" s="188"/>
       <c r="B42" s="43" t="s">
         <v>956</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="187"/>
+      <c r="A43" s="188"/>
       <c r="B43" s="43" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="187"/>
+      <c r="A44" s="188"/>
       <c r="B44" s="43" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="187"/>
+      <c r="A45" s="188"/>
       <c r="B45" s="43" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="187"/>
+      <c r="A46" s="188"/>
       <c r="B46" s="43" t="s">
         <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="187"/>
+      <c r="A47" s="188"/>
       <c r="B47" s="43" t="s">
         <v>961</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="187"/>
+      <c r="A48" s="188"/>
       <c r="B48" s="43" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="187"/>
+      <c r="A49" s="188"/>
       <c r="B49" s="43" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="187"/>
+      <c r="A50" s="188"/>
       <c r="B50" s="43" t="s">
         <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="187"/>
+      <c r="A51" s="188"/>
       <c r="B51" s="43" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="187"/>
+      <c r="A52" s="188"/>
       <c r="B52" s="43" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="187"/>
+      <c r="A53" s="188"/>
       <c r="B53" s="43" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="187"/>
+      <c r="A54" s="188"/>
       <c r="B54" s="43" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="187"/>
+      <c r="A55" s="188"/>
       <c r="B55" s="43" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="187"/>
+      <c r="A56" s="188"/>
       <c r="B56" s="43" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="187"/>
+      <c r="A57" s="188"/>
       <c r="B57" s="43" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="186"/>
+      <c r="A58" s="187"/>
       <c r="B58" s="46" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="188" t="s">
+      <c r="A60" s="189" t="s">
         <v>70</v>
       </c>
       <c r="B60" s="41" t="s">
@@ -19195,67 +19195,67 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="189"/>
+      <c r="A61" s="190"/>
       <c r="B61" s="43" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="189"/>
+      <c r="A62" s="190"/>
       <c r="B62" s="43" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="189"/>
+      <c r="A63" s="190"/>
       <c r="B63" s="43" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="189"/>
+      <c r="A64" s="190"/>
       <c r="B64" s="43" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="189"/>
+      <c r="A65" s="190"/>
       <c r="B65" s="43" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="189"/>
+      <c r="A66" s="190"/>
       <c r="B66" s="43" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="189"/>
+      <c r="A67" s="190"/>
       <c r="B67" s="43" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="189"/>
+      <c r="A68" s="190"/>
       <c r="B68" s="43" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="189"/>
+      <c r="A69" s="190"/>
       <c r="B69" s="43" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="189"/>
+      <c r="A70" s="190"/>
       <c r="B70" s="43" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="190"/>
+      <c r="A71" s="191"/>
       <c r="B71" s="46" t="s">
         <v>982</v>
       </c>
@@ -19269,7 +19269,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="185" t="s">
+      <c r="A75" s="186" t="s">
         <v>985</v>
       </c>
       <c r="B75" s="41" t="s">
@@ -19277,19 +19277,19 @@
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="187"/>
+      <c r="A76" s="188"/>
       <c r="B76" s="43" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="187"/>
+      <c r="A77" s="188"/>
       <c r="B77" s="43" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="186"/>
+      <c r="A78" s="187"/>
       <c r="B78" s="46" t="s">
         <v>989</v>
       </c>
@@ -19346,7 +19346,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="175.5">
-      <c r="A3" s="185" t="s">
+      <c r="A3" s="186" t="s">
         <v>1005</v>
       </c>
       <c r="B3" s="40" t="s">
@@ -19360,7 +19360,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="187"/>
+      <c r="A4" s="188"/>
       <c r="B4" t="s">
         <v>997</v>
       </c>
@@ -19370,7 +19370,7 @@
       <c r="D4" s="43"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="187"/>
+      <c r="A5" s="188"/>
       <c r="B5" t="s">
         <v>998</v>
       </c>
@@ -19380,49 +19380,49 @@
       <c r="D5" s="43"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="187"/>
+      <c r="A6" s="188"/>
       <c r="B6" t="s">
         <v>997</v>
       </c>
       <c r="D6" s="43"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="187"/>
+      <c r="A7" s="188"/>
       <c r="B7" t="s">
         <v>999</v>
       </c>
       <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
       <c r="B8" t="s">
         <v>997</v>
       </c>
       <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="187"/>
+      <c r="A9" s="188"/>
       <c r="B9" t="s">
         <v>1000</v>
       </c>
       <c r="D9" s="43"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
       <c r="B10" t="s">
         <v>997</v>
       </c>
       <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="187"/>
+      <c r="A11" s="188"/>
       <c r="B11" t="s">
         <v>1001</v>
       </c>
       <c r="D11" s="43"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="186"/>
+      <c r="A12" s="187"/>
       <c r="B12" s="45" t="s">
         <v>997</v>
       </c>
@@ -19430,7 +19430,7 @@
       <c r="D12" s="46"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="185" t="s">
+      <c r="A14" s="186" t="s">
         <v>1006</v>
       </c>
       <c r="B14" s="40" t="s">
@@ -19442,7 +19442,7 @@
       <c r="D14" s="41"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="187"/>
+      <c r="A15" s="188"/>
       <c r="B15" t="s">
         <v>1008</v>
       </c>
@@ -19452,7 +19452,7 @@
       <c r="D15" s="43"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="187"/>
+      <c r="A16" s="188"/>
       <c r="B16" t="s">
         <v>1009</v>
       </c>
@@ -19462,7 +19462,7 @@
       <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="187"/>
+      <c r="A17" s="188"/>
       <c r="B17" t="s">
         <v>1010</v>
       </c>
@@ -19472,14 +19472,14 @@
       <c r="D17" s="43"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="187"/>
+      <c r="A18" s="188"/>
       <c r="B18" t="s">
         <v>1011</v>
       </c>
       <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="186"/>
+      <c r="A19" s="187"/>
       <c r="B19" s="45" t="s">
         <v>997</v>
       </c>
@@ -19492,7 +19492,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="175.5">
-      <c r="A22" s="185" t="s">
+      <c r="A22" s="186" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="40" t="s">
@@ -19506,7 +19506,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="187"/>
+      <c r="A23" s="188"/>
       <c r="B23" t="s">
         <v>1017</v>
       </c>
@@ -19516,7 +19516,7 @@
       <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="187"/>
+      <c r="A24" s="188"/>
       <c r="B24" t="s">
         <v>1018</v>
       </c>
@@ -19526,7 +19526,7 @@
       <c r="D24" s="43"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="186"/>
+      <c r="A25" s="187"/>
       <c r="B25" s="45" t="s">
         <v>1017</v>
       </c>
@@ -19541,7 +19541,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="121.5">
-      <c r="A28" s="185" t="s">
+      <c r="A28" s="186" t="s">
         <v>1036</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -19555,21 +19555,21 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="187"/>
+      <c r="A29" s="188"/>
       <c r="B29" t="s">
         <v>1021</v>
       </c>
       <c r="D29" s="43"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="187"/>
+      <c r="A30" s="188"/>
       <c r="B30" t="s">
         <v>1022</v>
       </c>
       <c r="D30" s="43"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="186"/>
+      <c r="A31" s="187"/>
       <c r="B31" s="45" t="s">
         <v>1023</v>
       </c>
@@ -19577,7 +19577,7 @@
       <c r="D31" s="46"/>
     </row>
     <row r="33" spans="1:4" ht="94.5">
-      <c r="A33" s="194" t="s">
+      <c r="A33" s="192" t="s">
         <v>1039</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -19591,35 +19591,35 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="195"/>
+      <c r="A34" s="194"/>
       <c r="B34" t="s">
         <v>1025</v>
       </c>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="195"/>
+      <c r="A35" s="194"/>
       <c r="B35" t="s">
         <v>1026</v>
       </c>
       <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="195"/>
+      <c r="A36" s="194"/>
       <c r="B36" t="s">
         <v>1027</v>
       </c>
       <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="195"/>
+      <c r="A37" s="194"/>
       <c r="B37" t="s">
         <v>997</v>
       </c>
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="196"/>
+      <c r="A38" s="193"/>
       <c r="B38" s="45" t="s">
         <v>1027</v>
       </c>
@@ -19627,7 +19627,7 @@
       <c r="D38" s="46"/>
     </row>
     <row r="40" spans="1:4" ht="67.5">
-      <c r="A40" s="194" t="s">
+      <c r="A40" s="192" t="s">
         <v>1041</v>
       </c>
       <c r="B40" s="40" t="s">
@@ -19639,7 +19639,7 @@
       <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="196"/>
+      <c r="A41" s="193"/>
       <c r="B41" s="45" t="s">
         <v>1029</v>
       </c>
@@ -19652,7 +19652,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5">
-      <c r="A44" s="194" t="s">
+      <c r="A44" s="192" t="s">
         <v>1043</v>
       </c>
       <c r="B44" s="40" t="s">
@@ -19666,42 +19666,42 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="195"/>
+      <c r="A45" s="194"/>
       <c r="B45" t="s">
         <v>1031</v>
       </c>
       <c r="D45" s="43"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="195"/>
+      <c r="A46" s="194"/>
       <c r="B46" t="s">
         <v>1032</v>
       </c>
       <c r="D46" s="43"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="195"/>
+      <c r="A47" s="194"/>
       <c r="B47" t="s">
         <v>1033</v>
       </c>
       <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="195"/>
+      <c r="A48" s="194"/>
       <c r="B48" t="s">
         <v>1034</v>
       </c>
       <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="195"/>
+      <c r="A49" s="194"/>
       <c r="B49" t="s">
         <v>1035</v>
       </c>
       <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="196"/>
+      <c r="A50" s="193"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
       <c r="D50" s="46"/>
@@ -19710,7 +19710,7 @@
       <c r="A51" s="53"/>
     </row>
     <row r="52" spans="1:4" ht="81">
-      <c r="A52" s="185" t="s">
+      <c r="A52" s="186" t="s">
         <v>1046</v>
       </c>
       <c r="B52" s="40" t="s">
@@ -19722,28 +19722,28 @@
       <c r="D52" s="41"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="187"/>
+      <c r="A53" s="188"/>
       <c r="B53" t="s">
         <v>1048</v>
       </c>
       <c r="D53" s="43"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="187"/>
+      <c r="A54" s="188"/>
       <c r="B54" t="s">
         <v>1049</v>
       </c>
       <c r="D54" s="43"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="187"/>
+      <c r="A55" s="188"/>
       <c r="B55" t="s">
         <v>1050</v>
       </c>
       <c r="D55" s="43"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="186"/>
+      <c r="A56" s="187"/>
       <c r="B56" s="45" t="s">
         <v>1051</v>
       </c>
@@ -19756,7 +19756,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="148.5">
-      <c r="A59" s="185" t="s">
+      <c r="A59" s="186" t="s">
         <v>418</v>
       </c>
       <c r="B59" s="40" t="s">
@@ -19770,14 +19770,14 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="187"/>
+      <c r="A60" s="188"/>
       <c r="B60" t="s">
         <v>1054</v>
       </c>
       <c r="D60" s="43"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="186"/>
+      <c r="A61" s="187"/>
       <c r="B61" s="45" t="s">
         <v>1055</v>
       </c>
@@ -19790,7 +19790,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="185" t="s">
+      <c r="A64" s="186" t="s">
         <v>489</v>
       </c>
       <c r="B64" s="40" t="s">
@@ -19804,7 +19804,7 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="187"/>
+      <c r="A65" s="188"/>
       <c r="B65" t="s">
         <v>1059</v>
       </c>
@@ -19816,7 +19816,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="187"/>
+      <c r="A66" s="188"/>
       <c r="B66" t="s">
         <v>1060</v>
       </c>
@@ -19828,7 +19828,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="187"/>
+      <c r="A67" s="188"/>
       <c r="B67" t="s">
         <v>1061</v>
       </c>
@@ -19838,7 +19838,7 @@
       <c r="D67" s="43"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="186"/>
+      <c r="A68" s="187"/>
       <c r="B68" s="45" t="s">
         <v>1062</v>
       </c>
@@ -19846,7 +19846,7 @@
       <c r="D68" s="46"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="185" t="s">
+      <c r="A70" s="186" t="s">
         <v>1070</v>
       </c>
       <c r="B70" s="40" t="s">
@@ -19860,7 +19860,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="187"/>
+      <c r="A71" s="188"/>
       <c r="B71" t="s">
         <v>1072</v>
       </c>
@@ -19872,14 +19872,14 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="187"/>
+      <c r="A72" s="188"/>
       <c r="B72" t="s">
         <v>1073</v>
       </c>
       <c r="D72" s="43"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="186"/>
+      <c r="A73" s="187"/>
       <c r="B73" s="45" t="s">
         <v>1074</v>
       </c>
@@ -19887,7 +19887,7 @@
       <c r="D73" s="46"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="185" t="s">
+      <c r="A75" s="186" t="s">
         <v>808</v>
       </c>
       <c r="B75" s="40" t="s">
@@ -19901,7 +19901,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="187"/>
+      <c r="A76" s="188"/>
       <c r="B76" t="s">
         <v>539</v>
       </c>
@@ -19913,7 +19913,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="187"/>
+      <c r="A77" s="188"/>
       <c r="B77" t="s">
         <v>1080</v>
       </c>
@@ -19925,7 +19925,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="187"/>
+      <c r="A78" s="188"/>
       <c r="B78" t="s">
         <v>1081</v>
       </c>
@@ -19934,7 +19934,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="186"/>
+      <c r="A79" s="187"/>
       <c r="B79" s="45" t="s">
         <v>1082</v>
       </c>
@@ -19947,7 +19947,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5">
-      <c r="A82" s="191" t="s">
+      <c r="A82" s="195" t="s">
         <v>1090</v>
       </c>
       <c r="B82" s="40" t="s">
@@ -19961,21 +19961,21 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="192"/>
+      <c r="A83" s="196"/>
       <c r="B83" t="s">
         <v>1092</v>
       </c>
       <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="192"/>
+      <c r="A84" s="196"/>
       <c r="B84" t="s">
         <v>1093</v>
       </c>
       <c r="D84" s="43"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="193"/>
+      <c r="A85" s="197"/>
       <c r="B85" s="45" t="s">
         <v>1094</v>
       </c>
@@ -19983,7 +19983,7 @@
       <c r="D85" s="46"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1">
-      <c r="A87" s="191" t="s">
+      <c r="A87" s="195" t="s">
         <v>1100</v>
       </c>
       <c r="B87" s="40" t="s">
@@ -19997,7 +19997,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="192"/>
+      <c r="A88" s="196"/>
       <c r="B88" t="s">
         <v>1102</v>
       </c>
@@ -20009,7 +20009,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="192"/>
+      <c r="A89" s="196"/>
       <c r="B89" t="s">
         <v>1103</v>
       </c>
@@ -20021,7 +20021,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="192"/>
+      <c r="A90" s="196"/>
       <c r="B90" t="s">
         <v>1102</v>
       </c>
@@ -20033,7 +20033,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="192"/>
+      <c r="A91" s="196"/>
       <c r="B91" t="s">
         <v>1104</v>
       </c>
@@ -20043,28 +20043,28 @@
       <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="192"/>
+      <c r="A92" s="196"/>
       <c r="B92" t="s">
         <v>1102</v>
       </c>
       <c r="D92" s="43"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="192"/>
+      <c r="A93" s="196"/>
       <c r="B93" t="s">
         <v>535</v>
       </c>
       <c r="D93" s="43"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="192"/>
+      <c r="A94" s="196"/>
       <c r="B94" t="s">
         <v>1105</v>
       </c>
       <c r="D94" s="43"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="193"/>
+      <c r="A95" s="197"/>
       <c r="B95" s="45" t="s">
         <v>1106</v>
       </c>
@@ -20072,7 +20072,7 @@
       <c r="D95" s="46"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1">
-      <c r="A97" s="194" t="s">
+      <c r="A97" s="192" t="s">
         <v>1113</v>
       </c>
       <c r="B97" s="54" t="s">
@@ -20084,7 +20084,7 @@
       <c r="D97" s="55"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="195"/>
+      <c r="A98" s="194"/>
       <c r="B98" s="56" t="s">
         <v>1114</v>
       </c>
@@ -20094,7 +20094,7 @@
       <c r="D98" s="57"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="195"/>
+      <c r="A99" s="194"/>
       <c r="B99" s="56" t="s">
         <v>1103</v>
       </c>
@@ -20104,7 +20104,7 @@
       <c r="D99" s="57"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="195"/>
+      <c r="A100" s="194"/>
       <c r="B100" s="56" t="s">
         <v>1114</v>
       </c>
@@ -20114,7 +20114,7 @@
       <c r="D100" s="57"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="195"/>
+      <c r="A101" s="194"/>
       <c r="B101" s="56" t="s">
         <v>1104</v>
       </c>
@@ -20124,7 +20124,7 @@
       <c r="D101" s="57"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="196"/>
+      <c r="A102" s="193"/>
       <c r="B102" s="58" t="s">
         <v>1114</v>
       </c>
@@ -20137,7 +20137,7 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="135">
-      <c r="A105" s="185" t="s">
+      <c r="A105" s="186" t="s">
         <v>1117</v>
       </c>
       <c r="B105" s="40" t="s">
@@ -20151,28 +20151,28 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="187"/>
+      <c r="A106" s="188"/>
       <c r="B106" t="s">
         <v>1119</v>
       </c>
       <c r="D106" s="43"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="187"/>
+      <c r="A107" s="188"/>
       <c r="B107" t="s">
         <v>1120</v>
       </c>
       <c r="D107" s="43"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="187"/>
+      <c r="A108" s="188"/>
       <c r="B108" t="s">
         <v>1121</v>
       </c>
       <c r="D108" s="43"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="186"/>
+      <c r="A109" s="187"/>
       <c r="B109" s="45" t="s">
         <v>1122</v>
       </c>
@@ -20181,22 +20181,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20228,7 +20228,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="186" t="s">
         <v>1126</v>
       </c>
       <c r="B2" s="41" t="s">
@@ -20236,31 +20236,31 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="187"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="43" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="187"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="43" t="s">
         <v>1129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="187"/>
+      <c r="A5" s="188"/>
       <c r="B5" s="43" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="186"/>
+      <c r="A6" s="187"/>
       <c r="B6" s="46" t="s">
         <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="186" t="s">
         <v>796</v>
       </c>
       <c r="B8" s="41" t="s">
@@ -20268,19 +20268,19 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="187"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="43" t="s">
         <v>1133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="186"/>
+      <c r="A10" s="187"/>
       <c r="B10" s="46" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="185" t="s">
+      <c r="A12" s="186" t="s">
         <v>808</v>
       </c>
       <c r="B12" s="41" t="s">
@@ -20288,13 +20288,13 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="187"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="43" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="186"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="46"/>
     </row>
     <row r="15" spans="1:3">
@@ -20312,7 +20312,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="186" t="s">
         <v>1138</v>
       </c>
       <c r="B18" s="41" t="s">
@@ -20320,25 +20320,25 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="187"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="43" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="187"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="43" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="186"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="46" t="s">
         <v>1142</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="185" t="s">
+      <c r="A23" s="186" t="s">
         <v>985</v>
       </c>
       <c r="B23" s="41" t="s">
@@ -20346,19 +20346,19 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="187"/>
+      <c r="A24" s="188"/>
       <c r="B24" s="43" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="186"/>
+      <c r="A25" s="187"/>
       <c r="B25" s="46" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="185" t="s">
+      <c r="A27" s="186" t="s">
         <v>1146</v>
       </c>
       <c r="B27" s="41" t="s">
@@ -20366,19 +20366,19 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="187"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="43" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="187"/>
+      <c r="A29" s="188"/>
       <c r="B29" s="43" t="s">
         <v>1149</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="186"/>
+      <c r="A30" s="187"/>
       <c r="B30" s="46" t="s">
         <v>1150</v>
       </c>
@@ -20404,7 +20404,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="186" t="s">
         <v>1155</v>
       </c>
       <c r="B36" s="41" t="s">
@@ -20412,7 +20412,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="186"/>
+      <c r="A37" s="187"/>
       <c r="B37" s="46" t="s">
         <v>1157</v>
       </c>
@@ -20461,7 +20461,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="186" t="s">
         <v>1158</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -20472,28 +20472,28 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="187"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="42"/>
       <c r="C3" s="43" t="s">
         <v>1161</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="187"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="42"/>
       <c r="C4" s="43" t="s">
         <v>1162</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="187"/>
+      <c r="A5" s="188"/>
       <c r="B5" s="44"/>
       <c r="C5" s="46" t="s">
         <v>1163</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="187"/>
+      <c r="A6" s="188"/>
       <c r="B6" s="39" t="s">
         <v>1188</v>
       </c>
@@ -20502,14 +20502,14 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="187"/>
+      <c r="A7" s="188"/>
       <c r="B7" s="44"/>
       <c r="C7" s="46" t="s">
         <v>1164</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="39" t="s">
         <v>1165</v>
       </c>
@@ -20518,21 +20518,21 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="187"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="42"/>
       <c r="C9" s="43" t="s">
         <v>1167</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="44"/>
       <c r="C10" s="46" t="s">
         <v>1168</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="187"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="39" t="s">
         <v>1169</v>
       </c>
@@ -20541,21 +20541,21 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="187"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="42"/>
       <c r="C12" s="43" t="s">
         <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="187"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="44"/>
       <c r="C13" s="46" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="187"/>
+      <c r="A14" s="188"/>
       <c r="B14" s="39" t="s">
         <v>1173</v>
       </c>
@@ -20564,21 +20564,21 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="187"/>
+      <c r="A15" s="188"/>
       <c r="B15" s="42"/>
       <c r="C15" s="43" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="187"/>
+      <c r="A16" s="188"/>
       <c r="B16" s="44"/>
       <c r="C16" s="46" t="s">
         <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="187"/>
+      <c r="A17" s="188"/>
       <c r="B17" s="39" t="s">
         <v>1177</v>
       </c>
@@ -20587,21 +20587,21 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="187"/>
+      <c r="A18" s="188"/>
       <c r="B18" s="42"/>
       <c r="C18" s="43" t="s">
         <v>1179</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="187"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="44"/>
       <c r="C19" s="46" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="187"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="39" t="s">
         <v>1181</v>
       </c>
@@ -20610,14 +20610,14 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="187"/>
+      <c r="A21" s="188"/>
       <c r="B21" s="44"/>
       <c r="C21" s="46" t="s">
         <v>1183</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="187"/>
+      <c r="A22" s="188"/>
       <c r="B22" t="s">
         <v>1184</v>
       </c>
@@ -20626,14 +20626,14 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="186"/>
+      <c r="A23" s="187"/>
       <c r="B23" s="45"/>
       <c r="C23" s="46" t="s">
         <v>1186</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="185" t="s">
+      <c r="A25" s="186" t="s">
         <v>1189</v>
       </c>
       <c r="B25" s="39" t="s">
@@ -20644,35 +20644,35 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="187"/>
+      <c r="A26" s="188"/>
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
         <v>1192</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="187"/>
+      <c r="A27" s="188"/>
       <c r="B27" s="42"/>
       <c r="C27" s="43" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="187"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="42"/>
       <c r="C28" s="43" t="s">
         <v>1194</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="187"/>
+      <c r="A29" s="188"/>
       <c r="B29" s="44"/>
       <c r="C29" s="46" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="187"/>
+      <c r="A30" s="188"/>
       <c r="B30" s="39" t="s">
         <v>1196</v>
       </c>
@@ -20681,35 +20681,35 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="187"/>
+      <c r="A31" s="188"/>
       <c r="B31" s="42"/>
       <c r="C31" s="43" t="s">
         <v>1198</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="187"/>
+      <c r="A32" s="188"/>
       <c r="B32" s="42"/>
       <c r="C32" s="43" t="s">
         <v>1199</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="187"/>
+      <c r="A33" s="188"/>
       <c r="B33" s="42"/>
       <c r="C33" s="43" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="187"/>
+      <c r="A34" s="188"/>
       <c r="B34" s="44"/>
       <c r="C34" s="46" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="187"/>
+      <c r="A35" s="188"/>
       <c r="B35" t="s">
         <v>1202</v>
       </c>
@@ -20718,32 +20718,32 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="187"/>
+      <c r="A36" s="188"/>
       <c r="C36" s="43" t="s">
         <v>1204</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="187"/>
+      <c r="A37" s="188"/>
       <c r="C37" s="43" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="187"/>
+      <c r="A38" s="188"/>
       <c r="C38" s="43" t="s">
         <v>1206</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="186"/>
+      <c r="A39" s="187"/>
       <c r="B39" s="45"/>
       <c r="C39" s="46" t="s">
         <v>1201</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="185" t="s">
+      <c r="A41" s="186" t="s">
         <v>1207</v>
       </c>
       <c r="B41" s="39" t="s">
@@ -20754,14 +20754,14 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="187"/>
+      <c r="A42" s="188"/>
       <c r="B42" s="44"/>
       <c r="C42" s="46" t="s">
         <v>1210</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="187"/>
+      <c r="A43" s="188"/>
       <c r="B43" s="39" t="s">
         <v>1211</v>
       </c>
@@ -20770,14 +20770,14 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="187"/>
+      <c r="A44" s="188"/>
       <c r="B44" s="44"/>
       <c r="C44" s="46" t="s">
         <v>1213</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="187"/>
+      <c r="A45" s="188"/>
       <c r="B45" s="39" t="s">
         <v>1245</v>
       </c>
@@ -20786,21 +20786,21 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="187"/>
+      <c r="A46" s="188"/>
       <c r="B46" s="42"/>
       <c r="C46" s="43" t="s">
         <v>1214</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="187"/>
+      <c r="A47" s="188"/>
       <c r="B47" s="44"/>
       <c r="C47" s="46" t="s">
         <v>1215</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="187"/>
+      <c r="A48" s="188"/>
       <c r="B48" s="39" t="s">
         <v>1216</v>
       </c>
@@ -20809,14 +20809,14 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="187"/>
+      <c r="A49" s="188"/>
       <c r="B49" s="44"/>
       <c r="C49" s="46" t="s">
         <v>1218</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="187"/>
+      <c r="A50" s="188"/>
       <c r="B50" s="39" t="s">
         <v>1219</v>
       </c>
@@ -20825,14 +20825,14 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="187"/>
+      <c r="A51" s="188"/>
       <c r="B51" s="44"/>
       <c r="C51" s="46" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="187"/>
+      <c r="A52" s="188"/>
       <c r="B52" s="39" t="s">
         <v>1222</v>
       </c>
@@ -20841,21 +20841,21 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="187"/>
+      <c r="A53" s="188"/>
       <c r="B53" s="42"/>
       <c r="C53" s="43" t="s">
         <v>1224</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="187"/>
+      <c r="A54" s="188"/>
       <c r="B54" s="44"/>
       <c r="C54" s="46" t="s">
         <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="187"/>
+      <c r="A55" s="188"/>
       <c r="B55" s="39" t="s">
         <v>1226</v>
       </c>
@@ -20864,28 +20864,28 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="187"/>
+      <c r="A56" s="188"/>
       <c r="B56" s="42"/>
       <c r="C56" s="43" t="s">
         <v>1228</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="187"/>
+      <c r="A57" s="188"/>
       <c r="B57" s="42"/>
       <c r="C57" s="43" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="187"/>
+      <c r="A58" s="188"/>
       <c r="B58" s="44"/>
       <c r="C58" s="46" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="187"/>
+      <c r="A59" s="188"/>
       <c r="B59" s="39" t="s">
         <v>1231</v>
       </c>
@@ -20894,28 +20894,28 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="187"/>
+      <c r="A60" s="188"/>
       <c r="B60" s="42"/>
       <c r="C60" s="43" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="187"/>
+      <c r="A61" s="188"/>
       <c r="B61" s="42"/>
       <c r="C61" s="43" t="s">
         <v>1229</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="187"/>
+      <c r="A62" s="188"/>
       <c r="B62" s="44"/>
       <c r="C62" s="46" t="s">
         <v>1230</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="187"/>
+      <c r="A63" s="188"/>
       <c r="B63" s="39" t="s">
         <v>1234</v>
       </c>
@@ -20924,28 +20924,28 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="187"/>
+      <c r="A64" s="188"/>
       <c r="B64" s="42"/>
       <c r="C64" s="43" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="187"/>
+      <c r="A65" s="188"/>
       <c r="B65" s="42"/>
       <c r="C65" s="43" t="s">
         <v>1237</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="187"/>
+      <c r="A66" s="188"/>
       <c r="B66" s="44"/>
       <c r="C66" s="46" t="s">
         <v>1238</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="187"/>
+      <c r="A67" s="188"/>
       <c r="B67" s="42" t="s">
         <v>1239</v>
       </c>
@@ -20954,7 +20954,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="186"/>
+      <c r="A68" s="187"/>
       <c r="B68" s="44" t="s">
         <v>1241</v>
       </c>
@@ -20968,7 +20968,7 @@
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="185" t="s">
+      <c r="A70" s="186" t="s">
         <v>1246</v>
       </c>
       <c r="B70" s="39" t="s">
@@ -20979,28 +20979,28 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="187"/>
+      <c r="A71" s="188"/>
       <c r="B71" s="42"/>
       <c r="C71" s="43" t="s">
         <v>1249</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="187"/>
+      <c r="A72" s="188"/>
       <c r="B72" s="42"/>
       <c r="C72" s="43" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="187"/>
+      <c r="A73" s="188"/>
       <c r="B73" s="44"/>
       <c r="C73" s="46" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="187"/>
+      <c r="A74" s="188"/>
       <c r="B74" s="39" t="s">
         <v>1252</v>
       </c>
@@ -21009,21 +21009,21 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="187"/>
+      <c r="A75" s="188"/>
       <c r="B75" s="42"/>
       <c r="C75" s="43" t="s">
         <v>1254</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="187"/>
+      <c r="A76" s="188"/>
       <c r="B76" s="44"/>
       <c r="C76" s="46" t="s">
         <v>1255</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="187"/>
+      <c r="A77" s="188"/>
       <c r="B77" s="39" t="s">
         <v>1256</v>
       </c>
@@ -21032,28 +21032,28 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="187"/>
+      <c r="A78" s="188"/>
       <c r="B78" s="42"/>
       <c r="C78" s="43" t="s">
         <v>1258</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="187"/>
+      <c r="A79" s="188"/>
       <c r="B79" s="42"/>
       <c r="C79" s="43" t="s">
         <v>1259</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="187"/>
+      <c r="A80" s="188"/>
       <c r="B80" s="44"/>
       <c r="C80" s="46" t="s">
         <v>1260</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="187"/>
+      <c r="A81" s="188"/>
       <c r="B81" s="39" t="s">
         <v>1261</v>
       </c>
@@ -21062,28 +21062,28 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="187"/>
+      <c r="A82" s="188"/>
       <c r="B82" s="42"/>
       <c r="C82" s="43" t="s">
         <v>1263</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="187"/>
+      <c r="A83" s="188"/>
       <c r="B83" s="42"/>
       <c r="C83" s="43" t="s">
         <v>1264</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="187"/>
+      <c r="A84" s="188"/>
       <c r="B84" s="44"/>
       <c r="C84" s="46" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="187"/>
+      <c r="A85" s="188"/>
       <c r="B85" s="39" t="s">
         <v>1266</v>
       </c>
@@ -21092,42 +21092,42 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="187"/>
+      <c r="A86" s="188"/>
       <c r="B86" s="42"/>
       <c r="C86" s="43" t="s">
         <v>1268</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="187"/>
+      <c r="A87" s="188"/>
       <c r="B87" s="42"/>
       <c r="C87" s="43" t="s">
         <v>1269</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="187"/>
+      <c r="A88" s="188"/>
       <c r="B88" s="42"/>
       <c r="C88" s="43" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="187"/>
+      <c r="A89" s="188"/>
       <c r="B89" s="42"/>
       <c r="C89" s="43" t="s">
         <v>1271</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="187"/>
+      <c r="A90" s="188"/>
       <c r="B90" s="44"/>
       <c r="C90" s="46" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="187"/>
+      <c r="A91" s="188"/>
       <c r="B91" s="39" t="s">
         <v>1272</v>
       </c>
@@ -21136,21 +21136,21 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="187"/>
+      <c r="A92" s="188"/>
       <c r="B92" s="42"/>
       <c r="C92" s="43" t="s">
         <v>1274</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="187"/>
+      <c r="A93" s="188"/>
       <c r="B93" s="44"/>
       <c r="C93" s="46" t="s">
         <v>1275</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="187"/>
+      <c r="A94" s="188"/>
       <c r="B94" s="39" t="s">
         <v>1276</v>
       </c>
@@ -21159,28 +21159,28 @@
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="187"/>
+      <c r="A95" s="188"/>
       <c r="B95" s="42"/>
       <c r="C95" s="43" t="s">
         <v>1278</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="187"/>
+      <c r="A96" s="188"/>
       <c r="B96" s="42"/>
       <c r="C96" s="43" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="187"/>
+      <c r="A97" s="188"/>
       <c r="B97" s="44"/>
       <c r="C97" s="46" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="187"/>
+      <c r="A98" s="188"/>
       <c r="B98" t="s">
         <v>1281</v>
       </c>
@@ -21189,26 +21189,26 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="187"/>
+      <c r="A99" s="188"/>
       <c r="C99" s="43" t="s">
         <v>1282</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="187"/>
+      <c r="A100" s="188"/>
       <c r="C100" s="43" t="s">
         <v>1279</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101" s="186"/>
+      <c r="A101" s="187"/>
       <c r="B101" s="45"/>
       <c r="C101" s="46" t="s">
         <v>1280</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="185" t="s">
+      <c r="A103" s="186" t="s">
         <v>1283</v>
       </c>
       <c r="B103" s="39" t="s">
@@ -21219,28 +21219,28 @@
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="187"/>
+      <c r="A104" s="188"/>
       <c r="B104" s="42"/>
       <c r="C104" s="43" t="s">
         <v>1286</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="187"/>
+      <c r="A105" s="188"/>
       <c r="B105" s="42"/>
       <c r="C105" s="43" t="s">
         <v>1287</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106" s="187"/>
+      <c r="A106" s="188"/>
       <c r="B106" s="44"/>
       <c r="C106" s="46" t="s">
         <v>1288</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="187"/>
+      <c r="A107" s="188"/>
       <c r="B107" s="39" t="s">
         <v>1289</v>
       </c>
@@ -21249,35 +21249,35 @@
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="187"/>
+      <c r="A108" s="188"/>
       <c r="B108" s="42"/>
       <c r="C108" s="43" t="s">
         <v>1291</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="187"/>
+      <c r="A109" s="188"/>
       <c r="B109" s="42"/>
       <c r="C109" s="43" t="s">
         <v>1292</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="187"/>
+      <c r="A110" s="188"/>
       <c r="B110" s="42"/>
       <c r="C110" s="43" t="s">
         <v>1293</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="187"/>
+      <c r="A111" s="188"/>
       <c r="B111" s="44"/>
       <c r="C111" s="46" t="s">
         <v>1294</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="187"/>
+      <c r="A112" s="188"/>
       <c r="B112" s="39" t="s">
         <v>1295</v>
       </c>
@@ -21286,28 +21286,28 @@
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="187"/>
+      <c r="A113" s="188"/>
       <c r="B113" s="42"/>
       <c r="C113" s="43" t="s">
         <v>1297</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="187"/>
+      <c r="A114" s="188"/>
       <c r="B114" s="42"/>
       <c r="C114" s="43" t="s">
         <v>1298</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="187"/>
+      <c r="A115" s="188"/>
       <c r="B115" s="44"/>
       <c r="C115" s="46" t="s">
         <v>1299</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="187"/>
+      <c r="A116" s="188"/>
       <c r="B116" s="39" t="s">
         <v>1300</v>
       </c>
@@ -21316,21 +21316,21 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="187"/>
+      <c r="A117" s="188"/>
       <c r="B117" s="42"/>
       <c r="C117" s="43" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="187"/>
+      <c r="A118" s="188"/>
       <c r="B118" s="44"/>
       <c r="C118" s="46" t="s">
         <v>1303</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="187"/>
+      <c r="A119" s="188"/>
       <c r="B119" t="s">
         <v>1304</v>
       </c>
@@ -21339,14 +21339,14 @@
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="186"/>
+      <c r="A120" s="187"/>
       <c r="B120" s="45"/>
       <c r="C120" s="46" t="s">
         <v>1306</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="185" t="s">
+      <c r="A122" s="186" t="s">
         <v>1307</v>
       </c>
       <c r="B122" s="40" t="s">
@@ -21357,14 +21357,14 @@
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123" s="186"/>
+      <c r="A123" s="187"/>
       <c r="B123" s="45"/>
       <c r="C123" s="46" t="s">
         <v>1308</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1">
-      <c r="A125" s="194" t="s">
+      <c r="A125" s="192" t="s">
         <v>1311</v>
       </c>
       <c r="B125" s="39" t="s">
@@ -21375,21 +21375,21 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="195"/>
+      <c r="A126" s="194"/>
       <c r="B126" s="42"/>
       <c r="C126" s="43" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="195"/>
+      <c r="A127" s="194"/>
       <c r="B127" s="44"/>
       <c r="C127" s="46" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="195"/>
+      <c r="A128" s="194"/>
       <c r="B128" t="s">
         <v>1126</v>
       </c>
@@ -21398,7 +21398,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="195"/>
+      <c r="A129" s="194"/>
       <c r="B129" s="39" t="s">
         <v>716</v>
       </c>
@@ -21407,14 +21407,14 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="195"/>
+      <c r="A130" s="194"/>
       <c r="B130" s="44"/>
       <c r="C130" s="46" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="195"/>
+      <c r="A131" s="194"/>
       <c r="B131" s="39" t="s">
         <v>808</v>
       </c>
@@ -21423,14 +21423,14 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="195"/>
+      <c r="A132" s="194"/>
       <c r="B132" s="44"/>
       <c r="C132" s="46" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="196"/>
+      <c r="A133" s="193"/>
       <c r="B133" s="45" t="s">
         <v>1321</v>
       </c>
@@ -30173,16 +30173,16 @@
       <c r="E582" s="69"/>
     </row>
     <row r="583" spans="1:5">
-      <c r="A583" s="197" t="s">
+      <c r="A583" s="198" t="s">
         <v>2729</v>
       </c>
-      <c r="B583" s="197" t="s">
+      <c r="B583" s="198" t="s">
         <v>2730</v>
       </c>
-      <c r="C583" s="197" t="s">
+      <c r="C583" s="198" t="s">
         <v>2624</v>
       </c>
-      <c r="D583" s="197" t="s">
+      <c r="D583" s="198" t="s">
         <v>2731</v>
       </c>
       <c r="E583" s="68" t="s">
@@ -30190,91 +30190,91 @@
       </c>
     </row>
     <row r="584" spans="1:5">
-      <c r="A584" s="197"/>
-      <c r="B584" s="197"/>
-      <c r="C584" s="197"/>
-      <c r="D584" s="197"/>
+      <c r="A584" s="198"/>
+      <c r="B584" s="198"/>
+      <c r="C584" s="198"/>
+      <c r="D584" s="198"/>
       <c r="E584" s="68" t="s">
         <v>2733</v>
       </c>
     </row>
     <row r="585" spans="1:5">
-      <c r="A585" s="197"/>
-      <c r="B585" s="197"/>
-      <c r="C585" s="197"/>
-      <c r="D585" s="197"/>
+      <c r="A585" s="198"/>
+      <c r="B585" s="198"/>
+      <c r="C585" s="198"/>
+      <c r="D585" s="198"/>
       <c r="E585" s="68" t="s">
         <v>2734</v>
       </c>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="197"/>
-      <c r="B586" s="197"/>
-      <c r="C586" s="197"/>
-      <c r="D586" s="197"/>
+      <c r="A586" s="198"/>
+      <c r="B586" s="198"/>
+      <c r="C586" s="198"/>
+      <c r="D586" s="198"/>
       <c r="E586" s="68" t="s">
         <v>2735</v>
       </c>
     </row>
     <row r="587" spans="1:5">
-      <c r="A587" s="197"/>
-      <c r="B587" s="197"/>
-      <c r="C587" s="197"/>
-      <c r="D587" s="197"/>
+      <c r="A587" s="198"/>
+      <c r="B587" s="198"/>
+      <c r="C587" s="198"/>
+      <c r="D587" s="198"/>
       <c r="E587" s="68" t="s">
         <v>2736</v>
       </c>
     </row>
     <row r="588" spans="1:5">
-      <c r="A588" s="197"/>
-      <c r="B588" s="197"/>
-      <c r="C588" s="197"/>
-      <c r="D588" s="197"/>
+      <c r="A588" s="198"/>
+      <c r="B588" s="198"/>
+      <c r="C588" s="198"/>
+      <c r="D588" s="198"/>
       <c r="E588" s="68" t="s">
         <v>2737</v>
       </c>
     </row>
     <row r="589" spans="1:5">
-      <c r="A589" s="197"/>
-      <c r="B589" s="197"/>
-      <c r="C589" s="197"/>
-      <c r="D589" s="197"/>
+      <c r="A589" s="198"/>
+      <c r="B589" s="198"/>
+      <c r="C589" s="198"/>
+      <c r="D589" s="198"/>
       <c r="E589" s="68" t="s">
         <v>2738</v>
       </c>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="197"/>
-      <c r="B590" s="197"/>
-      <c r="C590" s="197"/>
-      <c r="D590" s="197"/>
+      <c r="A590" s="198"/>
+      <c r="B590" s="198"/>
+      <c r="C590" s="198"/>
+      <c r="D590" s="198"/>
       <c r="E590" s="68" t="s">
         <v>2739</v>
       </c>
     </row>
     <row r="591" spans="1:5" ht="24">
-      <c r="A591" s="197"/>
-      <c r="B591" s="197"/>
-      <c r="C591" s="197"/>
-      <c r="D591" s="197"/>
+      <c r="A591" s="198"/>
+      <c r="B591" s="198"/>
+      <c r="C591" s="198"/>
+      <c r="D591" s="198"/>
       <c r="E591" s="68" t="s">
         <v>2740</v>
       </c>
     </row>
     <row r="592" spans="1:5">
-      <c r="A592" s="197"/>
-      <c r="B592" s="197"/>
-      <c r="C592" s="197"/>
-      <c r="D592" s="197"/>
+      <c r="A592" s="198"/>
+      <c r="B592" s="198"/>
+      <c r="C592" s="198"/>
+      <c r="D592" s="198"/>
       <c r="E592" s="68" t="s">
         <v>2741</v>
       </c>
     </row>
     <row r="593" spans="1:5">
-      <c r="A593" s="197"/>
-      <c r="B593" s="197"/>
-      <c r="C593" s="197"/>
-      <c r="D593" s="197"/>
+      <c r="A593" s="198"/>
+      <c r="B593" s="198"/>
+      <c r="C593" s="198"/>
+      <c r="D593" s="198"/>
       <c r="E593" s="68" t="s">
         <v>2742</v>
       </c>
@@ -32773,7 +32773,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="199" t="s">
         <v>3346</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -32781,73 +32781,73 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="198"/>
+      <c r="A3" s="199"/>
       <c r="B3" s="3" t="s">
         <v>3348</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="198"/>
+      <c r="A4" s="199"/>
       <c r="B4" s="3" t="s">
         <v>3349</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="198"/>
+      <c r="A5" s="199"/>
       <c r="B5" s="3" t="s">
         <v>3350</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="198"/>
+      <c r="A6" s="199"/>
       <c r="B6" s="3" t="s">
         <v>3351</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="198"/>
+      <c r="A7" s="199"/>
       <c r="B7" s="3" t="s">
         <v>3352</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="198"/>
+      <c r="A8" s="199"/>
       <c r="B8" s="3" t="s">
         <v>3353</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="198"/>
+      <c r="A9" s="199"/>
       <c r="B9" s="3" t="s">
         <v>3354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="198"/>
+      <c r="A10" s="199"/>
       <c r="B10" s="3" t="s">
         <v>3355</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="198"/>
+      <c r="A11" s="199"/>
       <c r="B11" s="3" t="s">
         <v>3356</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="198"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="3" t="s">
         <v>3357</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="198"/>
+      <c r="A13" s="199"/>
       <c r="B13" s="3" t="s">
         <v>3358</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="199" t="s">
         <v>3359</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -32855,85 +32855,85 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="198"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="3" t="s">
         <v>3361</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="198"/>
+      <c r="A16" s="199"/>
       <c r="B16" s="3" t="s">
         <v>3362</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="198"/>
+      <c r="A17" s="199"/>
       <c r="B17" s="3" t="s">
         <v>3363</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="198"/>
+      <c r="A18" s="199"/>
       <c r="B18" s="3" t="s">
         <v>3364</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="198"/>
+      <c r="A19" s="199"/>
       <c r="B19" s="3" t="s">
         <v>3365</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="198"/>
+      <c r="A20" s="199"/>
       <c r="B20" s="3" t="s">
         <v>3366</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="198"/>
+      <c r="A21" s="199"/>
       <c r="B21" s="3" t="s">
         <v>3367</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="198"/>
+      <c r="A22" s="199"/>
       <c r="B22" s="3" t="s">
         <v>3368</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="198"/>
+      <c r="A23" s="199"/>
       <c r="B23" s="3" t="s">
         <v>3369</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="198"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="3" t="s">
         <v>3370</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="198"/>
+      <c r="A25" s="199"/>
       <c r="B25" s="3" t="s">
         <v>3371</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="198"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="3" t="s">
         <v>3372</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="198"/>
+      <c r="A27" s="199"/>
       <c r="B27" s="3" t="s">
         <v>3373</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="198" t="s">
+      <c r="A28" s="199" t="s">
         <v>3374</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -32941,25 +32941,25 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="198"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="3" t="s">
         <v>3376</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="198"/>
+      <c r="A30" s="199"/>
       <c r="B30" s="3" t="s">
         <v>3377</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="198"/>
+      <c r="A31" s="199"/>
       <c r="B31" s="3" t="s">
         <v>3378</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="198" t="s">
+      <c r="A32" s="199" t="s">
         <v>3379</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -32967,49 +32967,49 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="198"/>
+      <c r="A33" s="199"/>
       <c r="B33" s="3" t="s">
         <v>3381</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="198"/>
+      <c r="A34" s="199"/>
       <c r="B34" s="3" t="s">
         <v>3382</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="198"/>
+      <c r="A35" s="199"/>
       <c r="B35" s="3" t="s">
         <v>3383</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="198"/>
+      <c r="A36" s="199"/>
       <c r="B36" s="3" t="s">
         <v>3384</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="198"/>
+      <c r="A37" s="199"/>
       <c r="B37" s="3" t="s">
         <v>3385</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="198"/>
+      <c r="A38" s="199"/>
       <c r="B38" s="3" t="s">
         <v>3386</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="198"/>
+      <c r="A39" s="199"/>
       <c r="B39" s="3" t="s">
         <v>3387</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="198" t="s">
+      <c r="A40" s="199" t="s">
         <v>3388</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -33017,73 +33017,73 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="198"/>
+      <c r="A41" s="199"/>
       <c r="B41" s="3" t="s">
         <v>3390</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="198"/>
+      <c r="A42" s="199"/>
       <c r="B42" s="3" t="s">
         <v>3391</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="198"/>
+      <c r="A43" s="199"/>
       <c r="B43" s="3" t="s">
         <v>3392</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="198"/>
+      <c r="A44" s="199"/>
       <c r="B44" s="3" t="s">
         <v>3393</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="198"/>
+      <c r="A45" s="199"/>
       <c r="B45" s="3" t="s">
         <v>3394</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="198"/>
+      <c r="A46" s="199"/>
       <c r="B46" s="3" t="s">
         <v>3395</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="198"/>
+      <c r="A47" s="199"/>
       <c r="B47" s="3" t="s">
         <v>3396</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="198"/>
+      <c r="A48" s="199"/>
       <c r="B48" s="3" t="s">
         <v>3397</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="198"/>
+      <c r="A49" s="199"/>
       <c r="B49" s="3" t="s">
         <v>3398</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="198"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="3" t="s">
         <v>3399</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="198"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="3" t="s">
         <v>3400</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="198" t="s">
+      <c r="A52" s="199" t="s">
         <v>3401</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -33091,31 +33091,31 @@
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="198"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="3" t="s">
         <v>3403</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="198"/>
+      <c r="A54" s="199"/>
       <c r="B54" s="3" t="s">
         <v>3404</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="198"/>
+      <c r="A55" s="199"/>
       <c r="B55" s="3" t="s">
         <v>3405</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="198"/>
+      <c r="A56" s="199"/>
       <c r="B56" s="3" t="s">
         <v>3406</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="198" t="s">
+      <c r="A57" s="199" t="s">
         <v>3407</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -33123,61 +33123,61 @@
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="198"/>
+      <c r="A58" s="199"/>
       <c r="B58" s="3" t="s">
         <v>3409</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="198"/>
+      <c r="A59" s="199"/>
       <c r="B59" s="3" t="s">
         <v>3410</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="198"/>
+      <c r="A60" s="199"/>
       <c r="B60" s="3" t="s">
         <v>3411</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="198"/>
+      <c r="A61" s="199"/>
       <c r="B61" s="3" t="s">
         <v>3412</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="198"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="3" t="s">
         <v>3413</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="198"/>
+      <c r="A63" s="199"/>
       <c r="B63" s="3" t="s">
         <v>3414</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="198"/>
+      <c r="A64" s="199"/>
       <c r="B64" s="3" t="s">
         <v>3415</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="198"/>
+      <c r="A65" s="199"/>
       <c r="B65" s="3" t="s">
         <v>3416</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="198"/>
+      <c r="A66" s="199"/>
       <c r="B66" s="3" t="s">
         <v>3417</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="198" t="s">
+      <c r="A67" s="199" t="s">
         <v>3418</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -33185,73 +33185,73 @@
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="198"/>
+      <c r="A68" s="199"/>
       <c r="B68" s="3" t="s">
         <v>3420</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="198"/>
+      <c r="A69" s="199"/>
       <c r="B69" s="3" t="s">
         <v>3421</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="198"/>
+      <c r="A70" s="199"/>
       <c r="B70" s="3" t="s">
         <v>3422</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="198"/>
+      <c r="A71" s="199"/>
       <c r="B71" s="3" t="s">
         <v>3423</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="198"/>
+      <c r="A72" s="199"/>
       <c r="B72" s="3" t="s">
         <v>3424</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="198"/>
+      <c r="A73" s="199"/>
       <c r="B73" s="3" t="s">
         <v>3425</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="198"/>
+      <c r="A74" s="199"/>
       <c r="B74" s="3" t="s">
         <v>3426</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="198"/>
+      <c r="A75" s="199"/>
       <c r="B75" s="3" t="s">
         <v>3427</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="198"/>
+      <c r="A76" s="199"/>
       <c r="B76" s="3" t="s">
         <v>3428</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="198"/>
+      <c r="A77" s="199"/>
       <c r="B77" s="3" t="s">
         <v>3429</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="198"/>
+      <c r="A78" s="199"/>
       <c r="B78" s="3" t="s">
         <v>3430</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="198"/>
+      <c r="A79" s="199"/>
       <c r="B79" s="3" t="s">
         <v>3431</v>
       </c>
@@ -35412,7 +35412,7 @@
       <c r="F94" s="82" t="s">
         <v>3146</v>
       </c>
-      <c r="G94" s="199" t="s">
+      <c r="G94" s="200" t="s">
         <v>3854</v>
       </c>
     </row>
@@ -35433,7 +35433,7 @@
       <c r="F95" s="82" t="s">
         <v>3146</v>
       </c>
-      <c r="G95" s="199"/>
+      <c r="G95" s="200"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="106"/>
@@ -35452,7 +35452,7 @@
       <c r="F96" s="82" t="s">
         <v>3146</v>
       </c>
-      <c r="G96" s="199"/>
+      <c r="G96" s="200"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="106"/>
@@ -35471,7 +35471,7 @@
       <c r="F97" s="82" t="s">
         <v>3861</v>
       </c>
-      <c r="G97" s="199"/>
+      <c r="G97" s="200"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="106"/>
@@ -35490,7 +35490,7 @@
       <c r="F98" s="82" t="s">
         <v>3861</v>
       </c>
-      <c r="G98" s="199"/>
+      <c r="G98" s="200"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="106"/>
@@ -35509,7 +35509,7 @@
       <c r="F99" s="82" t="s">
         <v>3861</v>
       </c>
-      <c r="G99" s="199"/>
+      <c r="G99" s="200"/>
     </row>
     <row r="100" spans="1:8" ht="33">
       <c r="A100" s="106">
@@ -35527,10 +35527,10 @@
       <c r="E100" s="82" t="s">
         <v>3835</v>
       </c>
-      <c r="F100" s="200" t="s">
+      <c r="F100" s="201" t="s">
         <v>3816</v>
       </c>
-      <c r="G100" s="201" t="s">
+      <c r="G100" s="202" t="s">
         <v>3714</v>
       </c>
     </row>
@@ -35548,8 +35548,8 @@
       <c r="E101" s="82" t="s">
         <v>3837</v>
       </c>
-      <c r="F101" s="200"/>
-      <c r="G101" s="201"/>
+      <c r="F101" s="201"/>
+      <c r="G101" s="202"/>
     </row>
     <row r="102" spans="1:8" ht="33">
       <c r="A102" s="106"/>
@@ -35565,8 +35565,8 @@
       <c r="E102" s="82" t="s">
         <v>3838</v>
       </c>
-      <c r="F102" s="200"/>
-      <c r="G102" s="201"/>
+      <c r="F102" s="201"/>
+      <c r="G102" s="202"/>
     </row>
     <row r="103" spans="1:8" ht="33">
       <c r="A103" s="106"/>
@@ -35582,8 +35582,8 @@
       <c r="E103" s="82" t="s">
         <v>3839</v>
       </c>
-      <c r="F103" s="200"/>
-      <c r="G103" s="201"/>
+      <c r="F103" s="201"/>
+      <c r="G103" s="202"/>
     </row>
     <row r="104" spans="1:8" ht="33">
       <c r="A104" s="106">
@@ -35601,10 +35601,10 @@
       <c r="E104" s="82" t="s">
         <v>3840</v>
       </c>
-      <c r="F104" s="200" t="s">
+      <c r="F104" s="201" t="s">
         <v>3841</v>
       </c>
-      <c r="G104" s="201"/>
+      <c r="G104" s="202"/>
     </row>
     <row r="105" spans="1:8" ht="33">
       <c r="A105" s="106"/>
@@ -35620,8 +35620,8 @@
       <c r="E105" s="82" t="s">
         <v>3842</v>
       </c>
-      <c r="F105" s="200"/>
-      <c r="G105" s="201"/>
+      <c r="F105" s="201"/>
+      <c r="G105" s="202"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="106"/>
@@ -35637,8 +35637,8 @@
       <c r="E106" s="82" t="s">
         <v>3843</v>
       </c>
-      <c r="F106" s="200"/>
-      <c r="G106" s="201"/>
+      <c r="F106" s="201"/>
+      <c r="G106" s="202"/>
     </row>
     <row r="107" spans="1:8" ht="33">
       <c r="A107" s="106"/>
@@ -35654,8 +35654,8 @@
       <c r="E107" s="82" t="s">
         <v>3844</v>
       </c>
-      <c r="F107" s="200"/>
-      <c r="G107" s="201"/>
+      <c r="F107" s="201"/>
+      <c r="G107" s="202"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="106">
@@ -38045,9 +38045,9 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="154"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="156"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="157"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
@@ -38106,9 +38106,9 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="154"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="156"/>
+      <c r="A14" s="155"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="157"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
@@ -38158,9 +38158,9 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="154"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
+      <c r="A20" s="155"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="157"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
@@ -38213,9 +38213,9 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="154"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
+      <c r="A25" s="155"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="157"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
@@ -39815,8 +39815,8 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -39847,7 +39847,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="157" t="s">
+      <c r="A2" s="164" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="140" t="s">
@@ -39871,7 +39871,7 @@
       <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="157"/>
+      <c r="A3" s="164"/>
       <c r="B3" s="140" t="s">
         <v>6</v>
       </c>
@@ -39893,7 +39893,7 @@
       <c r="J3" s="144"/>
     </row>
     <row r="4" spans="1:10" s="145" customFormat="1">
-      <c r="A4" s="157"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="142" t="s">
         <v>274</v>
       </c>
@@ -39917,7 +39917,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="157"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="140" t="s">
         <v>276</v>
       </c>
@@ -39939,7 +39939,7 @@
       <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="157"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="140" t="s">
         <v>9</v>
       </c>
@@ -39961,7 +39961,7 @@
       <c r="J6" s="144"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="157"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="140" t="s">
         <v>279</v>
       </c>
@@ -39983,7 +39983,7 @@
       <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="157"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="140" t="s">
         <v>8</v>
       </c>
@@ -40005,7 +40005,7 @@
       <c r="J8" s="144"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="157"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="140" t="s">
         <v>282</v>
       </c>
@@ -40031,11 +40031,11 @@
       <c r="J9" s="144"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="167"/>
-      <c r="B10" s="168"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
+      <c r="A10" s="161"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="163"/>
       <c r="F10" s="144"/>
       <c r="G10" s="144"/>
       <c r="H10" s="144"/>
@@ -40043,7 +40043,7 @@
       <c r="J10" s="144"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="165" t="s">
         <v>283</v>
       </c>
       <c r="B11" s="142" t="s">
@@ -40067,7 +40067,7 @@
       <c r="J11" s="144"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="159"/>
+      <c r="A12" s="166"/>
       <c r="B12" s="142" t="s">
         <v>298</v>
       </c>
@@ -40089,7 +40089,7 @@
       <c r="J12" s="144"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="159"/>
+      <c r="A13" s="166"/>
       <c r="B13" s="142" t="s">
         <v>299</v>
       </c>
@@ -40111,7 +40111,7 @@
       <c r="J13" s="144"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="159"/>
+      <c r="A14" s="166"/>
       <c r="B14" s="142" t="s">
         <v>301</v>
       </c>
@@ -40133,7 +40133,7 @@
       <c r="J14" s="144"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="159"/>
+      <c r="A15" s="166"/>
       <c r="B15" s="142" t="s">
         <v>302</v>
       </c>
@@ -40155,7 +40155,7 @@
       <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:10" s="145" customFormat="1">
-      <c r="A16" s="159"/>
+      <c r="A16" s="166"/>
       <c r="B16" s="142" t="s">
         <v>304</v>
       </c>
@@ -40179,7 +40179,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="145" customFormat="1">
-      <c r="A17" s="160"/>
+      <c r="A17" s="167"/>
       <c r="B17" s="142" t="s">
         <v>306</v>
       </c>
@@ -40198,16 +40198,16 @@
       <c r="G17" s="145" t="s">
         <v>3995</v>
       </c>
-      <c r="H17" s="202" t="s">
+      <c r="H17" s="150" t="s">
         <v>4003</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="167"/>
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="169"/>
+      <c r="A18" s="161"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="163"/>
       <c r="F18" s="144"/>
       <c r="G18" s="144"/>
       <c r="H18" s="144"/>
@@ -40215,7 +40215,7 @@
       <c r="J18" s="144"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="164" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="140" t="s">
@@ -40241,7 +40241,7 @@
       <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="157"/>
+      <c r="A20" s="164"/>
       <c r="B20" s="140" t="s">
         <v>43</v>
       </c>
@@ -40265,7 +40265,7 @@
       <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="157"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="140" t="s">
         <v>309</v>
       </c>
@@ -40289,7 +40289,7 @@
       <c r="J21" s="144"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="157"/>
+      <c r="A22" s="164"/>
       <c r="B22" s="140" t="s">
         <v>311</v>
       </c>
@@ -40313,7 +40313,7 @@
       <c r="J22" s="144"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="157"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="140" t="s">
         <v>313</v>
       </c>
@@ -40337,7 +40337,7 @@
       <c r="J23" s="144"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="157"/>
+      <c r="A24" s="164"/>
       <c r="B24" s="142" t="s">
         <v>315</v>
       </c>
@@ -40361,7 +40361,7 @@
       <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="157"/>
+      <c r="A25" s="164"/>
       <c r="B25" s="140" t="s">
         <v>316</v>
       </c>
@@ -40385,7 +40385,7 @@
       <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="157"/>
+      <c r="A26" s="164"/>
       <c r="B26" s="140" t="s">
         <v>318</v>
       </c>
@@ -40409,7 +40409,7 @@
       <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="157"/>
+      <c r="A27" s="164"/>
       <c r="B27" s="140" t="s">
         <v>319</v>
       </c>
@@ -40444,7 +40444,7 @@
       <c r="E28" s="153"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="158" t="s">
+      <c r="A29" s="165" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="140" t="s">
@@ -40461,7 +40461,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="159"/>
+      <c r="A30" s="166"/>
       <c r="B30" s="140" t="s">
         <v>67</v>
       </c>
@@ -40476,7 +40476,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="159"/>
+      <c r="A31" s="166"/>
       <c r="B31" s="140" t="s">
         <v>323</v>
       </c>
@@ -40491,7 +40491,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="160"/>
+      <c r="A32" s="167"/>
       <c r="B32" s="140" t="s">
         <v>325</v>
       </c>
@@ -40506,14 +40506,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="144" customFormat="1">
-      <c r="A33" s="167"/>
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="169"/>
+      <c r="A33" s="161"/>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="163"/>
     </row>
     <row r="34" spans="1:8" s="91" customFormat="1">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="168" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="141" t="s">
@@ -40539,7 +40539,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="91" customFormat="1">
-      <c r="A35" s="162"/>
+      <c r="A35" s="169"/>
       <c r="B35" s="141" t="s">
         <v>328</v>
       </c>
@@ -40563,7 +40563,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="91" customFormat="1">
-      <c r="A36" s="162"/>
+      <c r="A36" s="169"/>
       <c r="B36" s="141" t="s">
         <v>330</v>
       </c>
@@ -40587,7 +40587,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="91" customFormat="1">
-      <c r="A37" s="162"/>
+      <c r="A37" s="169"/>
       <c r="B37" s="141" t="s">
         <v>332</v>
       </c>
@@ -40611,7 +40611,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="91" customFormat="1">
-      <c r="A38" s="162"/>
+      <c r="A38" s="169"/>
       <c r="B38" s="141" t="s">
         <v>97</v>
       </c>
@@ -40635,7 +40635,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="91" customFormat="1">
-      <c r="A39" s="162"/>
+      <c r="A39" s="169"/>
       <c r="B39" s="141" t="s">
         <v>98</v>
       </c>
@@ -40659,7 +40659,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="91" customFormat="1">
-      <c r="A40" s="162"/>
+      <c r="A40" s="169"/>
       <c r="B40" s="141" t="s">
         <v>334</v>
       </c>
@@ -40683,7 +40683,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="91" customFormat="1">
-      <c r="A41" s="163"/>
+      <c r="A41" s="170"/>
       <c r="B41" s="141" t="s">
         <v>107</v>
       </c>
@@ -40707,14 +40707,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="144" customFormat="1">
-      <c r="A42" s="167"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="169"/>
+      <c r="A42" s="161"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="162"/>
+      <c r="E42" s="163"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="164" t="s">
+      <c r="A43" s="158" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="140" t="s">
@@ -40731,7 +40731,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="91" customFormat="1">
-      <c r="A44" s="165"/>
+      <c r="A44" s="159"/>
       <c r="B44" s="140" t="s">
         <v>339</v>
       </c>
@@ -40746,7 +40746,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="91" customFormat="1">
-      <c r="A45" s="165"/>
+      <c r="A45" s="159"/>
       <c r="B45" s="140" t="s">
         <v>341</v>
       </c>
@@ -40761,7 +40761,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="91" customFormat="1">
-      <c r="A46" s="165"/>
+      <c r="A46" s="159"/>
       <c r="B46" s="140" t="s">
         <v>343</v>
       </c>
@@ -40776,7 +40776,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="91" customFormat="1">
-      <c r="A47" s="165"/>
+      <c r="A47" s="159"/>
       <c r="B47" s="142" t="s">
         <v>345</v>
       </c>
@@ -40791,7 +40791,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="91" customFormat="1">
-      <c r="A48" s="165"/>
+      <c r="A48" s="159"/>
       <c r="B48" s="142" t="s">
         <v>347</v>
       </c>
@@ -40806,7 +40806,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="91" customFormat="1">
-      <c r="A49" s="165"/>
+      <c r="A49" s="159"/>
       <c r="B49" s="142" t="s">
         <v>349</v>
       </c>
@@ -40821,7 +40821,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="91" customFormat="1">
-      <c r="A50" s="165"/>
+      <c r="A50" s="159"/>
       <c r="B50" s="149" t="s">
         <v>350</v>
       </c>
@@ -40836,7 +40836,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="91" customFormat="1">
-      <c r="A51" s="166"/>
+      <c r="A51" s="160"/>
       <c r="B51" s="142" t="s">
         <v>352</v>
       </c>
@@ -40852,17 +40852,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40901,7 +40901,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>357</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -40915,7 +40915,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="171"/>
+      <c r="A3" s="172"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
@@ -40925,7 +40925,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="171"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="2" t="s">
         <v>361</v>
       </c>
@@ -40937,7 +40937,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="171"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -40947,7 +40947,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="171"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="2" t="s">
         <v>364</v>
       </c>
@@ -40957,7 +40957,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="171"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="2" t="s">
         <v>365</v>
       </c>
@@ -40967,7 +40967,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="172"/>
+      <c r="A8" s="173"/>
       <c r="B8" s="2" t="s">
         <v>282</v>
       </c>
@@ -40977,13 +40977,13 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="154"/>
-      <c r="B9" s="155"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
+      <c r="A9" s="155"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="170" t="s">
+      <c r="A10" s="171" t="s">
         <v>383</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -40995,7 +40995,7 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="171"/>
+      <c r="A11" s="172"/>
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
@@ -41005,7 +41005,7 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="171"/>
+      <c r="A12" s="172"/>
       <c r="B12" s="2" t="s">
         <v>366</v>
       </c>
@@ -41015,7 +41015,7 @@
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="171"/>
+      <c r="A13" s="172"/>
       <c r="B13" s="2" t="s">
         <v>367</v>
       </c>
@@ -41025,7 +41025,7 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="171"/>
+      <c r="A14" s="172"/>
       <c r="B14" s="2" t="s">
         <v>376</v>
       </c>
@@ -41035,7 +41035,7 @@
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="172"/>
+      <c r="A15" s="173"/>
       <c r="B15" s="2" t="s">
         <v>368</v>
       </c>
@@ -41045,13 +41045,13 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="154"/>
-      <c r="B16" s="155"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
+      <c r="A16" s="155"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="157"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="170" t="s">
+      <c r="A17" s="171" t="s">
         <v>283</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -41063,7 +41063,7 @@
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="171"/>
+      <c r="A18" s="172"/>
       <c r="B18" s="2" t="s">
         <v>386</v>
       </c>
@@ -41073,7 +41073,7 @@
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="171"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="2" t="s">
         <v>388</v>
       </c>
@@ -41083,7 +41083,7 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="171"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="2" t="s">
         <v>390</v>
       </c>
@@ -41093,7 +41093,7 @@
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="172"/>
+      <c r="A21" s="173"/>
       <c r="B21" s="2" t="s">
         <v>392</v>
       </c>
@@ -41103,13 +41103,13 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="154"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
+      <c r="A22" s="155"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="157"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="170" t="s">
+      <c r="A23" s="171" t="s">
         <v>427</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -41121,7 +41121,7 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="171"/>
+      <c r="A24" s="172"/>
       <c r="B24" s="2" t="s">
         <v>425</v>
       </c>
@@ -41131,7 +41131,7 @@
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="171"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="2" t="s">
         <v>395</v>
       </c>
@@ -41141,7 +41141,7 @@
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="172"/>
+      <c r="A26" s="173"/>
       <c r="B26" s="2" t="s">
         <v>396</v>
       </c>
@@ -41151,13 +41151,13 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="154"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
+      <c r="A27" s="155"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="157"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="170" t="s">
+      <c r="A28" s="171" t="s">
         <v>428</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -41169,7 +41169,7 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="171"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="2" t="s">
         <v>87</v>
       </c>
@@ -41179,7 +41179,7 @@
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="171"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="2" t="s">
         <v>401</v>
       </c>
@@ -41189,7 +41189,7 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="172"/>
+      <c r="A31" s="173"/>
       <c r="B31" s="2" t="s">
         <v>403</v>
       </c>
@@ -41199,13 +41199,13 @@
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="154"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="157"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="170" t="s">
+      <c r="A33" s="171" t="s">
         <v>429</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -41217,7 +41217,7 @@
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="171"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="2" t="s">
         <v>407</v>
       </c>
@@ -41227,7 +41227,7 @@
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="171"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="2" t="s">
         <v>409</v>
       </c>
@@ -41237,7 +41237,7 @@
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="171"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="2" t="s">
         <v>411</v>
       </c>
@@ -41247,7 +41247,7 @@
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="171"/>
+      <c r="A37" s="172"/>
       <c r="B37" s="2" t="s">
         <v>413</v>
       </c>
@@ -41257,7 +41257,7 @@
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="171"/>
+      <c r="A38" s="172"/>
       <c r="B38" s="2" t="s">
         <v>415</v>
       </c>
@@ -41267,7 +41267,7 @@
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="171"/>
+      <c r="A39" s="172"/>
       <c r="B39" s="2" t="s">
         <v>417</v>
       </c>
@@ -41280,7 +41280,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="172"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="2" t="s">
         <v>431</v>
       </c>
@@ -41290,13 +41290,13 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="154"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="155"/>
-      <c r="D41" s="156"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="157"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="171" t="s">
         <v>430</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -41308,7 +41308,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="171"/>
+      <c r="A43" s="172"/>
       <c r="B43" s="2" t="s">
         <v>433</v>
       </c>
@@ -41318,7 +41318,7 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="171"/>
+      <c r="A44" s="172"/>
       <c r="B44" s="2" t="s">
         <v>434</v>
       </c>
@@ -41328,7 +41328,7 @@
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="172"/>
+      <c r="A45" s="173"/>
       <c r="B45" s="2" t="s">
         <v>423</v>
       </c>
@@ -41453,11 +41453,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41466,6 +41461,11 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41502,7 +41502,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>548</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -41513,7 +41513,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="171"/>
+      <c r="A3" s="172"/>
       <c r="B3" s="1" t="s">
         <v>551</v>
       </c>
@@ -41522,7 +41522,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="171"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="1" t="s">
         <v>553</v>
       </c>
@@ -41531,7 +41531,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="171"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="1" t="s">
         <v>555</v>
       </c>
@@ -41540,7 +41540,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="171"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="1" t="s">
         <v>557</v>
       </c>
@@ -41549,7 +41549,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="171"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="1" t="s">
         <v>559</v>
       </c>
@@ -41558,7 +41558,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="171"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="1" t="s">
         <v>561</v>
       </c>
@@ -41567,7 +41567,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="171"/>
+      <c r="A9" s="172"/>
       <c r="B9" s="1" t="s">
         <v>563</v>
       </c>
@@ -41576,7 +41576,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="171"/>
+      <c r="A10" s="172"/>
       <c r="B10" s="1" t="s">
         <v>565</v>
       </c>
@@ -41585,7 +41585,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="172"/>
+      <c r="A11" s="173"/>
       <c r="B11" s="22" t="s">
         <v>567</v>
       </c>
@@ -41594,7 +41594,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="174" t="s">
         <v>593</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -41605,7 +41605,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="174"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="1" t="s">
         <v>573</v>
       </c>
@@ -41614,7 +41614,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="174"/>
+      <c r="A15" s="175"/>
       <c r="B15" s="1" t="s">
         <v>575</v>
       </c>
@@ -41623,7 +41623,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="174"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="1" t="s">
         <v>577</v>
       </c>
@@ -41632,7 +41632,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="174"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="1" t="s">
         <v>578</v>
       </c>
@@ -41641,7 +41641,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="174"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="1" t="s">
         <v>580</v>
       </c>
@@ -41650,7 +41650,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="174"/>
+      <c r="A19" s="175"/>
       <c r="B19" s="1" t="s">
         <v>582</v>
       </c>
@@ -41659,7 +41659,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="174"/>
+      <c r="A20" s="175"/>
       <c r="B20" s="1" t="s">
         <v>583</v>
       </c>
@@ -41668,7 +41668,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="174"/>
+      <c r="A21" s="175"/>
       <c r="B21" s="1" t="s">
         <v>585</v>
       </c>
@@ -41677,7 +41677,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="174"/>
+      <c r="A22" s="175"/>
       <c r="B22" s="1" t="s">
         <v>587</v>
       </c>
@@ -41686,7 +41686,7 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="174"/>
+      <c r="A23" s="175"/>
       <c r="B23" s="1" t="s">
         <v>589</v>
       </c>
@@ -41695,7 +41695,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="175"/>
+      <c r="A24" s="176"/>
       <c r="B24" s="22" t="s">
         <v>591</v>
       </c>
@@ -41704,7 +41704,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A26" s="173" t="s">
+      <c r="A26" s="174" t="s">
         <v>594</v>
       </c>
       <c r="B26" s="16" t="s">
@@ -41715,7 +41715,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="174"/>
+      <c r="A27" s="175"/>
       <c r="B27" s="1" t="s">
         <v>597</v>
       </c>
@@ -41724,7 +41724,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="174"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="1" t="s">
         <v>599</v>
       </c>
@@ -41733,21 +41733,21 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="174"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="1" t="s">
         <v>601</v>
       </c>
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A30" s="174"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="14" t="s">
         <v>602</v>
       </c>
       <c r="C30" s="20"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="174"/>
+      <c r="A31" s="175"/>
       <c r="B31" s="1" t="s">
         <v>603</v>
       </c>
@@ -41756,7 +41756,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="174"/>
+      <c r="A32" s="175"/>
       <c r="B32" s="1" t="s">
         <v>605</v>
       </c>
@@ -41765,21 +41765,21 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="174"/>
+      <c r="A33" s="175"/>
       <c r="B33" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A34" s="174"/>
+      <c r="A34" s="175"/>
       <c r="B34" s="14" t="s">
         <v>608</v>
       </c>
       <c r="C34" s="20"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="174"/>
+      <c r="A35" s="175"/>
       <c r="B35" s="1" t="s">
         <v>609</v>
       </c>
@@ -41788,7 +41788,7 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="174"/>
+      <c r="A36" s="175"/>
       <c r="B36" s="1" t="s">
         <v>611</v>
       </c>
@@ -41797,7 +41797,7 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="174"/>
+      <c r="A37" s="175"/>
       <c r="B37" s="1" t="s">
         <v>613</v>
       </c>
@@ -41806,7 +41806,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="175"/>
+      <c r="A38" s="176"/>
       <c r="B38" s="1" t="s">
         <v>615</v>
       </c>
@@ -41820,7 +41820,7 @@
       <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A40" s="173" t="s">
+      <c r="A40" s="174" t="s">
         <v>616</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -41831,7 +41831,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="174"/>
+      <c r="A41" s="175"/>
       <c r="B41" s="1" t="s">
         <v>619</v>
       </c>
@@ -41840,14 +41840,14 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A42" s="174"/>
+      <c r="A42" s="175"/>
       <c r="B42" s="14" t="s">
         <v>617</v>
       </c>
       <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="174"/>
+      <c r="A43" s="175"/>
       <c r="B43" s="1" t="s">
         <v>622</v>
       </c>
@@ -41856,7 +41856,7 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="174"/>
+      <c r="A44" s="175"/>
       <c r="B44" s="1" t="s">
         <v>623</v>
       </c>
@@ -41865,14 +41865,14 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A45" s="174"/>
+      <c r="A45" s="175"/>
       <c r="B45" s="14" t="s">
         <v>624</v>
       </c>
       <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="174"/>
+      <c r="A46" s="175"/>
       <c r="B46" s="1" t="s">
         <v>626</v>
       </c>
@@ -41881,7 +41881,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="174"/>
+      <c r="A47" s="175"/>
       <c r="B47" s="1" t="s">
         <v>627</v>
       </c>
@@ -41890,14 +41890,14 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A48" s="174"/>
+      <c r="A48" s="175"/>
       <c r="B48" s="14" t="s">
         <v>628</v>
       </c>
       <c r="C48" s="14"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="174"/>
+      <c r="A49" s="175"/>
       <c r="B49" s="1" t="s">
         <v>630</v>
       </c>
@@ -41906,7 +41906,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="174"/>
+      <c r="A50" s="175"/>
       <c r="B50" s="1" t="s">
         <v>632</v>
       </c>
@@ -41915,7 +41915,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="17.25" thickBot="1">
-      <c r="A51" s="175"/>
+      <c r="A51" s="176"/>
       <c r="B51" s="14" t="s">
         <v>633</v>
       </c>
@@ -42084,10 +42084,10 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>545</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="171" t="s">
         <v>437</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -42098,8 +42098,8 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="171"/>
-      <c r="B3" s="171"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
       <c r="C3" s="2" t="s">
         <v>442</v>
       </c>
@@ -42108,8 +42108,8 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="171"/>
-      <c r="B4" s="171"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="2" t="s">
         <v>444</v>
       </c>
@@ -42118,8 +42118,8 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="2" t="s">
         <v>446</v>
       </c>
@@ -42128,8 +42128,8 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="171"/>
-      <c r="B6" s="171"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="2" t="s">
         <v>448</v>
       </c>
@@ -42138,8 +42138,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="171"/>
-      <c r="B7" s="171"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="2" t="s">
         <v>450</v>
       </c>
@@ -42148,8 +42148,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="171"/>
-      <c r="B8" s="172"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
       <c r="C8" s="2" t="s">
         <v>451</v>
       </c>
@@ -42158,14 +42158,14 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="171"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
     </row>
     <row r="10" spans="1:4" ht="33">
-      <c r="A10" s="171"/>
-      <c r="B10" s="170" t="s">
+      <c r="A10" s="172"/>
+      <c r="B10" s="171" t="s">
         <v>453</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -42176,8 +42176,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="171"/>
-      <c r="B11" s="171"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="2" t="s">
         <v>455</v>
       </c>
@@ -42186,8 +42186,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="171"/>
-      <c r="B12" s="172"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="173"/>
       <c r="C12" s="2" t="s">
         <v>456</v>
       </c>
@@ -42196,14 +42196,14 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="171"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="171"/>
-      <c r="B14" s="170" t="s">
+      <c r="A14" s="172"/>
+      <c r="B14" s="171" t="s">
         <v>458</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -42214,8 +42214,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="171"/>
-      <c r="B15" s="171"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="2" t="s">
         <v>461</v>
       </c>
@@ -42224,8 +42224,8 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="171"/>
-      <c r="B16" s="171"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="2" t="s">
         <v>463</v>
       </c>
@@ -42234,8 +42234,8 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="171"/>
-      <c r="B17" s="171"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="2" t="s">
         <v>465</v>
       </c>
@@ -42244,8 +42244,8 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="171"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="173"/>
       <c r="C18" s="2" t="s">
         <v>467</v>
       </c>
@@ -42254,14 +42254,14 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="171"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="157"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="171"/>
-      <c r="B20" s="170" t="s">
+      <c r="A20" s="172"/>
+      <c r="B20" s="171" t="s">
         <v>469</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -42272,8 +42272,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="171"/>
-      <c r="B21" s="171"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="2" t="s">
         <v>121</v>
       </c>
@@ -42282,8 +42282,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="171"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="173"/>
       <c r="C22" s="2" t="s">
         <v>472</v>
       </c>
@@ -42292,16 +42292,16 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="172"/>
+      <c r="A23" s="173"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="170" t="s">
+      <c r="A24" s="171" t="s">
         <v>546</v>
       </c>
-      <c r="B24" s="170" t="s">
+      <c r="B24" s="171" t="s">
         <v>475</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -42312,8 +42312,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="171"/>
-      <c r="B25" s="171"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="2" t="s">
         <v>480</v>
       </c>
@@ -42322,8 +42322,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="171"/>
-      <c r="B26" s="171"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="2" t="s">
         <v>482</v>
       </c>
@@ -42332,8 +42332,8 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="171"/>
-      <c r="B27" s="171"/>
+      <c r="A27" s="172"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="2" t="s">
         <v>484</v>
       </c>
@@ -42342,8 +42342,8 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="171"/>
-      <c r="B28" s="172"/>
+      <c r="A28" s="172"/>
+      <c r="B28" s="173"/>
       <c r="C28" s="2" t="s">
         <v>485</v>
       </c>
@@ -42352,14 +42352,14 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="171"/>
+      <c r="A29" s="172"/>
       <c r="B29" s="151"/>
       <c r="C29" s="152"/>
       <c r="D29" s="153"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="171"/>
-      <c r="B30" s="170" t="s">
+      <c r="A30" s="172"/>
+      <c r="B30" s="171" t="s">
         <v>477</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -42370,8 +42370,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="171"/>
-      <c r="B31" s="171"/>
+      <c r="A31" s="172"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="2" t="s">
         <v>489</v>
       </c>
@@ -42380,8 +42380,8 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="171"/>
-      <c r="B32" s="171"/>
+      <c r="A32" s="172"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="2" t="s">
         <v>491</v>
       </c>
@@ -42390,8 +42390,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="33">
-      <c r="A33" s="171"/>
-      <c r="B33" s="172"/>
+      <c r="A33" s="172"/>
+      <c r="B33" s="173"/>
       <c r="C33" s="13" t="s">
         <v>493</v>
       </c>
@@ -42400,14 +42400,14 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="171"/>
+      <c r="A34" s="172"/>
       <c r="B34" s="151"/>
       <c r="C34" s="152"/>
       <c r="D34" s="153"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="171"/>
-      <c r="B35" s="170" t="s">
+      <c r="A35" s="172"/>
+      <c r="B35" s="171" t="s">
         <v>495</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -42418,8 +42418,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="171"/>
-      <c r="B36" s="171"/>
+      <c r="A36" s="172"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="2" t="s">
         <v>498</v>
       </c>
@@ -42428,8 +42428,8 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="171"/>
-      <c r="B37" s="171"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="172"/>
       <c r="C37" s="2" t="s">
         <v>500</v>
       </c>
@@ -42438,8 +42438,8 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="171"/>
-      <c r="B38" s="171"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="172"/>
       <c r="C38" s="2" t="s">
         <v>502</v>
       </c>
@@ -42448,8 +42448,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="171"/>
-      <c r="B39" s="171"/>
+      <c r="A39" s="172"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="2" t="s">
         <v>503</v>
       </c>
@@ -42458,8 +42458,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="33">
-      <c r="A40" s="171"/>
-      <c r="B40" s="171"/>
+      <c r="A40" s="172"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="13" t="s">
         <v>505</v>
       </c>
@@ -42468,8 +42468,8 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="171"/>
-      <c r="B41" s="171"/>
+      <c r="A41" s="172"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="2" t="s">
         <v>507</v>
       </c>
@@ -42478,8 +42478,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="171"/>
-      <c r="B42" s="171"/>
+      <c r="A42" s="172"/>
+      <c r="B42" s="172"/>
       <c r="C42" s="2" t="s">
         <v>509</v>
       </c>
@@ -42488,8 +42488,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="171"/>
-      <c r="B43" s="172"/>
+      <c r="A43" s="172"/>
+      <c r="B43" s="173"/>
       <c r="C43" s="2" t="s">
         <v>511</v>
       </c>
@@ -42498,14 +42498,14 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="171"/>
+      <c r="A44" s="172"/>
       <c r="B44" s="151"/>
       <c r="C44" s="152"/>
       <c r="D44" s="153"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="171"/>
-      <c r="B45" s="170" t="s">
+      <c r="A45" s="172"/>
+      <c r="B45" s="171" t="s">
         <v>514</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -42516,8 +42516,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="171"/>
-      <c r="B46" s="171"/>
+      <c r="A46" s="172"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="2" t="s">
         <v>517</v>
       </c>
@@ -42526,8 +42526,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="171"/>
-      <c r="B47" s="171"/>
+      <c r="A47" s="172"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="2" t="s">
         <v>519</v>
       </c>
@@ -42536,8 +42536,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="171"/>
-      <c r="B48" s="172"/>
+      <c r="A48" s="172"/>
+      <c r="B48" s="173"/>
       <c r="C48" s="2" t="s">
         <v>521</v>
       </c>
@@ -42546,14 +42546,14 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="171"/>
+      <c r="A49" s="172"/>
       <c r="B49" s="151"/>
       <c r="C49" s="152"/>
       <c r="D49" s="153"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="171"/>
-      <c r="B50" s="170" t="s">
+      <c r="A50" s="172"/>
+      <c r="B50" s="171" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -42564,8 +42564,8 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="171"/>
-      <c r="B51" s="171"/>
+      <c r="A51" s="172"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="2" t="s">
         <v>526</v>
       </c>
@@ -42574,8 +42574,8 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="171"/>
-      <c r="B52" s="171"/>
+      <c r="A52" s="172"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="2" t="s">
         <v>528</v>
       </c>
@@ -42584,8 +42584,8 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="171"/>
-      <c r="B53" s="171"/>
+      <c r="A53" s="172"/>
+      <c r="B53" s="172"/>
       <c r="C53" s="2" t="s">
         <v>530</v>
       </c>
@@ -42594,8 +42594,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="171"/>
-      <c r="B54" s="171"/>
+      <c r="A54" s="172"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="2" t="s">
         <v>531</v>
       </c>
@@ -42604,8 +42604,8 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="171"/>
-      <c r="B55" s="171"/>
+      <c r="A55" s="172"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="2" t="s">
         <v>533</v>
       </c>
@@ -42614,8 +42614,8 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="171"/>
-      <c r="B56" s="171"/>
+      <c r="A56" s="172"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="2" t="s">
         <v>535</v>
       </c>
@@ -42624,8 +42624,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="171"/>
-      <c r="B57" s="171"/>
+      <c r="A57" s="172"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="2" t="s">
         <v>537</v>
       </c>
@@ -42634,8 +42634,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="171"/>
-      <c r="B58" s="171"/>
+      <c r="A58" s="172"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="2" t="s">
         <v>539</v>
       </c>
@@ -42644,8 +42644,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="172"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="173"/>
+      <c r="B59" s="173"/>
       <c r="C59" s="2" t="s">
         <v>541</v>
       </c>
@@ -42655,14 +42655,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42673,6 +42665,14 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42710,7 +42710,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="171" t="s">
         <v>548</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -42721,7 +42721,7 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="171"/>
+      <c r="A3" s="172"/>
       <c r="B3" s="1" t="s">
         <v>551</v>
       </c>
@@ -42737,7 +42737,7 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="171"/>
+      <c r="A4" s="172"/>
       <c r="B4" s="1" t="s">
         <v>553</v>
       </c>
@@ -42749,7 +42749,7 @@
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="171"/>
+      <c r="A5" s="172"/>
       <c r="B5" s="1" t="s">
         <v>555</v>
       </c>
@@ -42765,7 +42765,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="171"/>
+      <c r="A6" s="172"/>
       <c r="B6" s="1" t="s">
         <v>557</v>
       </c>
@@ -42777,7 +42777,7 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="171"/>
+      <c r="A7" s="172"/>
       <c r="B7" s="1" t="s">
         <v>559</v>
       </c>
@@ -42789,7 +42789,7 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="171"/>
+      <c r="A8" s="172"/>
       <c r="B8" s="1" t="s">
         <v>561</v>
       </c>
@@ -42805,7 +42805,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="172"/>
+      <c r="A9" s="173"/>
       <c r="B9" s="22" t="s">
         <v>563</v>
       </c>
@@ -42817,7 +42817,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="174" t="s">
         <v>593</v>
       </c>
       <c r="B11" s="24" t="s">
@@ -42828,7 +42828,7 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="174"/>
+      <c r="A12" s="175"/>
       <c r="B12" s="1" t="s">
         <v>1333</v>
       </c>
@@ -42837,7 +42837,7 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="174"/>
+      <c r="A13" s="175"/>
       <c r="B13" s="1" t="s">
         <v>1335</v>
       </c>
@@ -42846,7 +42846,7 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="174"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="1" t="s">
         <v>1337</v>
       </c>
@@ -42855,7 +42855,7 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="174"/>
+      <c r="A15" s="175"/>
       <c r="B15" s="1" t="s">
         <v>1340</v>
       </c>
@@ -42864,7 +42864,7 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="174"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="1" t="s">
         <v>1341</v>
       </c>
@@ -42873,7 +42873,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="174"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="1" t="s">
         <v>1343</v>
       </c>
@@ -42882,7 +42882,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="174"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="1" t="s">
         <v>1345</v>
       </c>
@@ -42891,7 +42891,7 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="174"/>
+      <c r="A19" s="175"/>
       <c r="B19" s="1" t="s">
         <v>1347</v>
       </c>
@@ -42900,7 +42900,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="174"/>
+      <c r="A20" s="175"/>
       <c r="B20" s="1" t="s">
         <v>587</v>
       </c>
@@ -42909,7 +42909,7 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="174"/>
+      <c r="A21" s="175"/>
       <c r="B21" s="1" t="s">
         <v>589</v>
       </c>
@@ -42918,7 +42918,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="175"/>
+      <c r="A22" s="176"/>
       <c r="B22" s="22" t="s">
         <v>591</v>
       </c>
@@ -42930,7 +42930,7 @@
       <c r="A23" s="61"/>
     </row>
     <row r="24" spans="1:3" ht="33" customHeight="1">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="174" t="s">
         <v>1349</v>
       </c>
       <c r="B24" s="24" t="s">
@@ -42941,7 +42941,7 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="174"/>
+      <c r="A25" s="175"/>
       <c r="B25" s="1" t="s">
         <v>1352</v>
       </c>
@@ -42950,7 +42950,7 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="174"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="1" t="s">
         <v>1353</v>
       </c>
@@ -42959,7 +42959,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="174"/>
+      <c r="A27" s="175"/>
       <c r="B27" s="1" t="s">
         <v>1354</v>
       </c>
@@ -42968,7 +42968,7 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="174"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="1" t="s">
         <v>1356</v>
       </c>
@@ -42977,7 +42977,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="174"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="1" t="s">
         <v>1357</v>
       </c>
@@ -42986,7 +42986,7 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="174"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="1" t="s">
         <v>1360</v>
       </c>
@@ -42995,7 +42995,7 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="174"/>
+      <c r="A31" s="175"/>
       <c r="B31" s="1" t="s">
         <v>1359</v>
       </c>
@@ -43004,7 +43004,7 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="174"/>
+      <c r="A32" s="175"/>
       <c r="B32" s="1" t="s">
         <v>1363</v>
       </c>
@@ -43013,7 +43013,7 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="174"/>
+      <c r="A33" s="175"/>
       <c r="B33" s="1" t="s">
         <v>1365</v>
       </c>
@@ -43022,7 +43022,7 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="174"/>
+      <c r="A34" s="175"/>
       <c r="B34" s="1" t="s">
         <v>1369</v>
       </c>
@@ -43031,7 +43031,7 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="175"/>
+      <c r="A35" s="176"/>
       <c r="B35" s="22" t="s">
         <v>1368</v>
       </c>
@@ -43040,7 +43040,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="180" t="s">
         <v>1371</v>
       </c>
       <c r="B37" s="24" t="s">
@@ -43051,7 +43051,7 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="180"/>
+      <c r="A38" s="181"/>
       <c r="B38" s="1" t="s">
         <v>1374</v>
       </c>
@@ -43060,7 +43060,7 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="180"/>
+      <c r="A39" s="181"/>
       <c r="B39" s="1" t="s">
         <v>1376</v>
       </c>
@@ -43069,7 +43069,7 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="180"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="1" t="s">
         <v>1378</v>
       </c>
@@ -43078,7 +43078,7 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="181"/>
+      <c r="A41" s="182"/>
       <c r="B41" s="22" t="s">
         <v>1380</v>
       </c>
@@ -43102,7 +43102,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="33" customHeight="1">
-      <c r="A45" s="173" t="s">
+      <c r="A45" s="174" t="s">
         <v>1385</v>
       </c>
       <c r="B45" s="24" t="s">
@@ -43113,7 +43113,7 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="174"/>
+      <c r="A46" s="175"/>
       <c r="B46" s="1" t="s">
         <v>1389</v>
       </c>
@@ -43122,7 +43122,7 @@
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="174"/>
+      <c r="A47" s="175"/>
       <c r="B47" s="1" t="s">
         <v>1386</v>
       </c>
@@ -43131,7 +43131,7 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="174"/>
+      <c r="A48" s="175"/>
       <c r="B48" s="1" t="s">
         <v>1392</v>
       </c>
@@ -43140,7 +43140,7 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="174"/>
+      <c r="A49" s="175"/>
       <c r="B49" s="1" t="s">
         <v>1394</v>
       </c>
@@ -43149,7 +43149,7 @@
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="175"/>
+      <c r="A50" s="176"/>
       <c r="B50" s="22" t="s">
         <v>1396</v>
       </c>
@@ -43158,7 +43158,7 @@
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="173" t="s">
+      <c r="A52" s="174" t="s">
         <v>1398</v>
       </c>
       <c r="B52" s="24" t="s">
@@ -43169,7 +43169,7 @@
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="174"/>
+      <c r="A53" s="175"/>
       <c r="B53" s="1" t="s">
         <v>1401</v>
       </c>
@@ -43178,7 +43178,7 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="174"/>
+      <c r="A54" s="175"/>
       <c r="B54" s="1" t="s">
         <v>1403</v>
       </c>
@@ -43187,7 +43187,7 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="174"/>
+      <c r="A55" s="175"/>
       <c r="B55" s="1" t="s">
         <v>1405</v>
       </c>
@@ -43196,7 +43196,7 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="174"/>
+      <c r="A56" s="175"/>
       <c r="B56" s="1" t="s">
         <v>1406</v>
       </c>
@@ -43205,7 +43205,7 @@
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="174"/>
+      <c r="A57" s="175"/>
       <c r="B57" s="1" t="s">
         <v>1409</v>
       </c>
@@ -43214,7 +43214,7 @@
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="174"/>
+      <c r="A58" s="175"/>
       <c r="B58" s="1" t="s">
         <v>1411</v>
       </c>
@@ -43223,7 +43223,7 @@
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="174"/>
+      <c r="A59" s="175"/>
       <c r="B59" s="1" t="s">
         <v>1412</v>
       </c>
@@ -43232,7 +43232,7 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="174"/>
+      <c r="A60" s="175"/>
       <c r="B60" s="1" t="s">
         <v>1413</v>
       </c>
@@ -43241,7 +43241,7 @@
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="174"/>
+      <c r="A61" s="175"/>
       <c r="B61" s="1" t="s">
         <v>1414</v>
       </c>
@@ -43250,7 +43250,7 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="174"/>
+      <c r="A62" s="175"/>
       <c r="B62" s="1" t="s">
         <v>1419</v>
       </c>
@@ -43259,7 +43259,7 @@
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="175"/>
+      <c r="A63" s="176"/>
       <c r="B63" s="22" t="s">
         <v>1421</v>
       </c>
@@ -43268,7 +43268,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="173" t="s">
+      <c r="A65" s="174" t="s">
         <v>1423</v>
       </c>
       <c r="B65" s="24" t="s">
@@ -43279,7 +43279,7 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="174"/>
+      <c r="A66" s="175"/>
       <c r="B66" s="1" t="s">
         <v>1425</v>
       </c>
@@ -43288,7 +43288,7 @@
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="174"/>
+      <c r="A67" s="175"/>
       <c r="B67" s="1" t="s">
         <v>91</v>
       </c>
@@ -43297,7 +43297,7 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="174"/>
+      <c r="A68" s="175"/>
       <c r="B68" s="1" t="s">
         <v>92</v>
       </c>
@@ -43306,7 +43306,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="175"/>
+      <c r="A69" s="176"/>
       <c r="B69" s="22" t="s">
         <v>1429</v>
       </c>
@@ -43315,7 +43315,7 @@
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="170" t="s">
+      <c r="A71" s="171" t="s">
         <v>1431</v>
       </c>
       <c r="B71" s="24" t="s">
@@ -43326,7 +43326,7 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="171"/>
+      <c r="A72" s="172"/>
       <c r="B72" s="1" t="s">
         <v>1434</v>
       </c>
@@ -43335,7 +43335,7 @@
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="171"/>
+      <c r="A73" s="172"/>
       <c r="B73" s="1" t="s">
         <v>1435</v>
       </c>
@@ -43344,7 +43344,7 @@
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="171"/>
+      <c r="A74" s="172"/>
       <c r="B74" s="1" t="s">
         <v>1436</v>
       </c>
@@ -43353,7 +43353,7 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="172"/>
+      <c r="A75" s="173"/>
       <c r="B75" s="22" t="s">
         <v>1437</v>
       </c>
@@ -43362,7 +43362,7 @@
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="173" t="s">
+      <c r="A77" s="174" t="s">
         <v>1448</v>
       </c>
       <c r="B77" s="24" t="s">
@@ -43373,7 +43373,7 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="174"/>
+      <c r="A78" s="175"/>
       <c r="B78" s="1" t="s">
         <v>1444</v>
       </c>
@@ -43382,7 +43382,7 @@
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="175"/>
+      <c r="A79" s="176"/>
       <c r="B79" s="22" t="s">
         <v>1446</v>
       </c>
@@ -43391,7 +43391,7 @@
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="179" t="s">
+      <c r="A81" s="180" t="s">
         <v>1449</v>
       </c>
       <c r="B81" s="24" t="s">
@@ -43402,7 +43402,7 @@
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="180"/>
+      <c r="A82" s="181"/>
       <c r="B82" s="1" t="s">
         <v>1452</v>
       </c>
@@ -43411,7 +43411,7 @@
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="181"/>
+      <c r="A83" s="182"/>
       <c r="B83" s="22" t="s">
         <v>1454</v>
       </c>
@@ -43420,7 +43420,7 @@
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="176" t="s">
+      <c r="A85" s="177" t="s">
         <v>1457</v>
       </c>
       <c r="B85" s="24" t="s">
@@ -43431,7 +43431,7 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="177"/>
+      <c r="A86" s="178"/>
       <c r="B86" s="1" t="s">
         <v>1458</v>
       </c>
@@ -43440,7 +43440,7 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="178"/>
+      <c r="A87" s="179"/>
       <c r="B87" s="22" t="s">
         <v>1459</v>
       </c>
@@ -43508,7 +43508,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="182" t="s">
+      <c r="A2" s="183" t="s">
         <v>747</v>
       </c>
       <c r="B2" s="28" t="s">
@@ -43526,7 +43526,7 @@
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="184"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="26" t="s">
         <v>746</v>
       </c>
@@ -43542,7 +43542,7 @@
       <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="184"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="26" t="s">
         <v>748</v>
       </c>
@@ -43558,7 +43558,7 @@
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="184"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="26" t="s">
         <v>749</v>
       </c>
@@ -43574,7 +43574,7 @@
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="183"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="31" t="s">
         <v>750</v>
       </c>
@@ -43593,7 +43593,7 @@
       <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="183" t="s">
         <v>757</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -43612,7 +43612,7 @@
       <c r="G8" s="27"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="184"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="26" t="s">
         <v>664</v>
       </c>
@@ -43631,7 +43631,7 @@
       <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="184"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="26" t="s">
         <v>665</v>
       </c>
@@ -43650,7 +43650,7 @@
       <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="183"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31" t="s">
         <v>693</v>
@@ -43668,7 +43668,7 @@
       <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="182" t="s">
+      <c r="A13" s="183" t="s">
         <v>759</v>
       </c>
       <c r="B13" s="28" t="s">
@@ -43687,7 +43687,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="184"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="26" t="s">
         <v>667</v>
       </c>
@@ -43704,7 +43704,7 @@
       <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="26" t="s">
         <v>760</v>
       </c>
@@ -43721,7 +43721,7 @@
       <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="184"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="26" t="s">
         <v>668</v>
       </c>
@@ -43738,7 +43738,7 @@
       <c r="G16" s="27"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="183"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="31" t="s">
         <v>669</v>
       </c>
@@ -43758,7 +43758,7 @@
       <c r="G18" s="27"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="182" t="s">
+      <c r="A19" s="183" t="s">
         <v>764</v>
       </c>
       <c r="B19" s="28" t="s">
@@ -43777,7 +43777,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="184"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="26" t="s">
         <v>761</v>
       </c>
@@ -43794,7 +43794,7 @@
       <c r="G20" s="27"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="184"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="26" t="s">
         <v>671</v>
       </c>
@@ -43811,7 +43811,7 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="183"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="31" t="s">
         <v>672</v>
       </c>
@@ -43831,7 +43831,7 @@
       <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="182" t="s">
+      <c r="A24" s="183" t="s">
         <v>765</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -43849,7 +43849,7 @@
       <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="184"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="26" t="s">
         <v>674</v>
       </c>
@@ -43865,7 +43865,7 @@
       <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="184"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="26" t="s">
         <v>675</v>
       </c>
@@ -43881,7 +43881,7 @@
       <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="26" t="s">
         <v>766</v>
       </c>
@@ -43897,7 +43897,7 @@
       <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="184"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="26" t="s">
         <v>676</v>
       </c>
@@ -43913,7 +43913,7 @@
       <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="184"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="26" t="s">
         <v>677</v>
       </c>
@@ -43929,7 +43929,7 @@
       <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="183"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="31" t="s">
         <v>678</v>
       </c>
@@ -43945,7 +43945,7 @@
       <c r="F30" s="32"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="182" t="s">
+      <c r="A32" s="183" t="s">
         <v>767</v>
       </c>
       <c r="B32" s="28" t="s">
@@ -43963,7 +43963,7 @@
       <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="184"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="26" t="s">
         <v>768</v>
       </c>
@@ -43979,7 +43979,7 @@
       <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="183"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="31" t="s">
         <v>680</v>
       </c>
@@ -43995,7 +43995,7 @@
       <c r="F34" s="32"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="182" t="s">
+      <c r="A36" s="183" t="s">
         <v>769</v>
       </c>
       <c r="B36" s="28" t="s">
@@ -44013,7 +44013,7 @@
       <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="183"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="31" t="s">
         <v>681</v>
       </c>
@@ -44047,7 +44047,7 @@
       <c r="F39" s="34"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="182" t="s">
+      <c r="A41" s="183" t="s">
         <v>773</v>
       </c>
       <c r="B41" s="28" t="s">
@@ -44065,7 +44065,7 @@
       <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="184"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="26" t="s">
         <v>774</v>
       </c>
@@ -44081,7 +44081,7 @@
       <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="26" t="s">
         <v>683</v>
       </c>
@@ -44097,7 +44097,7 @@
       <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="184"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="26" t="s">
         <v>684</v>
       </c>
@@ -44113,7 +44113,7 @@
       <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="184"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="26" t="s">
         <v>776</v>
       </c>
@@ -44129,7 +44129,7 @@
       <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="184"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="26" t="s">
         <v>777</v>
       </c>
@@ -44145,7 +44145,7 @@
       <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="183"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="31" t="s">
         <v>778</v>
       </c>
@@ -44213,7 +44213,7 @@
       <c r="C2" s="38"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="186" t="s">
         <v>377</v>
       </c>
       <c r="B4" s="40" t="s">
@@ -44224,7 +44224,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="187"/>
+      <c r="A5" s="188"/>
       <c r="B5" t="s">
         <v>790</v>
       </c>
@@ -44233,7 +44233,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="187"/>
+      <c r="A6" s="188"/>
       <c r="B6" t="s">
         <v>792</v>
       </c>
@@ -44242,7 +44242,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="186"/>
+      <c r="A7" s="187"/>
       <c r="B7" s="45" t="s">
         <v>794</v>
       </c>
@@ -44251,7 +44251,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="186" t="s">
         <v>796</v>
       </c>
       <c r="B9" s="40" t="s">
@@ -44262,7 +44262,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
       <c r="B10" t="s">
         <v>799</v>
       </c>
@@ -44271,7 +44271,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="186"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="45" t="s">
         <v>801</v>
       </c>
@@ -44280,7 +44280,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="186" t="s">
         <v>803</v>
       </c>
       <c r="B13" s="40" t="s">
@@ -44291,7 +44291,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="186"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="45" t="s">
         <v>806</v>
       </c>
@@ -44300,7 +44300,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="185" t="s">
+      <c r="A16" s="186" t="s">
         <v>808</v>
       </c>
       <c r="B16" s="40" t="s">
@@ -44311,7 +44311,7 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="187"/>
+      <c r="A17" s="188"/>
       <c r="B17" t="s">
         <v>811</v>
       </c>
@@ -44320,7 +44320,7 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="186"/>
+      <c r="A18" s="187"/>
       <c r="B18" s="45" t="s">
         <v>813</v>
       </c>
@@ -44329,7 +44329,7 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="185" t="s">
+      <c r="A20" s="186" t="s">
         <v>815</v>
       </c>
       <c r="B20" s="40" t="s">
@@ -44340,14 +44340,14 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="186"/>
+      <c r="A21" s="187"/>
       <c r="B21" s="45" t="s">
         <v>786</v>
       </c>
       <c r="C21" s="46"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="185" t="s">
+      <c r="A23" s="186" t="s">
         <v>818</v>
       </c>
       <c r="B23" s="40" t="s">
@@ -44358,7 +44358,7 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="186"/>
+      <c r="A24" s="187"/>
       <c r="B24" s="45" t="s">
         <v>821</v>
       </c>

--- a/doc/Factor_book-ym-20180518.xlsx
+++ b/doc/Factor_book-ym-20180518.xlsx
@@ -16187,6 +16187,9 @@
     <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16194,9 +16197,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16207,24 +16207,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16245,6 +16227,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16310,15 +16310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -16326,6 +16317,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16384,7 +16384,7 @@
         <xdr:cNvPr id="7169" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-0000011C0000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0700-0000011C0000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16873,10 +16873,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="151" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="140" t="s">
@@ -16887,8 +16887,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5">
-      <c r="A3" s="154"/>
-      <c r="B3" s="154"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
       <c r="C3" s="140" t="s">
         <v>7</v>
       </c>
@@ -16897,8 +16897,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="154"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="140" t="s">
         <v>8</v>
       </c>
@@ -16907,8 +16907,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="140" t="s">
         <v>9</v>
       </c>
@@ -16917,8 +16917,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="154"/>
-      <c r="B6" s="154"/>
+      <c r="A6" s="151"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="139" t="s">
         <v>10</v>
       </c>
@@ -16927,8 +16927,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
+      <c r="A7" s="151"/>
+      <c r="B7" s="151"/>
       <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
@@ -16937,8 +16937,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="154"/>
-      <c r="B8" s="154"/>
+      <c r="A8" s="151"/>
+      <c r="B8" s="151"/>
       <c r="C8" s="140" t="s">
         <v>12</v>
       </c>
@@ -16947,8 +16947,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="154"/>
-      <c r="B9" s="154"/>
+      <c r="A9" s="151"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="140" t="s">
         <v>13</v>
       </c>
@@ -16957,8 +16957,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5">
-      <c r="A10" s="154"/>
-      <c r="B10" s="154"/>
+      <c r="A10" s="151"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="139" t="s">
         <v>14</v>
       </c>
@@ -16967,8 +16967,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="154"/>
-      <c r="B11" s="154"/>
+      <c r="A11" s="151"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="139" t="s">
         <v>15</v>
       </c>
@@ -16977,8 +16977,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="154"/>
-      <c r="B12" s="154"/>
+      <c r="A12" s="151"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="139" t="s">
         <v>16</v>
       </c>
@@ -16987,8 +16987,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
       <c r="C13" s="139" t="s">
         <v>17</v>
       </c>
@@ -16997,14 +16997,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5">
-      <c r="A14" s="154"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="154"/>
     </row>
     <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="154"/>
-      <c r="B15" s="154" t="s">
+      <c r="A15" s="151"/>
+      <c r="B15" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -17015,8 +17015,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5">
-      <c r="A16" s="154"/>
-      <c r="B16" s="154"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="151"/>
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
@@ -17025,8 +17025,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
+      <c r="A17" s="151"/>
+      <c r="B17" s="151"/>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
@@ -17035,8 +17035,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5">
-      <c r="A18" s="154"/>
-      <c r="B18" s="154"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="151"/>
       <c r="C18" s="2" t="s">
         <v>22</v>
       </c>
@@ -17045,8 +17045,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5">
-      <c r="A19" s="154"/>
-      <c r="B19" s="154"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="151"/>
       <c r="C19" s="2" t="s">
         <v>23</v>
       </c>
@@ -17055,8 +17055,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5">
-      <c r="A20" s="154"/>
-      <c r="B20" s="154"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="151"/>
       <c r="C20" s="2" t="s">
         <v>24</v>
       </c>
@@ -17065,8 +17065,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5">
-      <c r="A21" s="154"/>
-      <c r="B21" s="154"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="151"/>
       <c r="C21" s="2" t="s">
         <v>25</v>
       </c>
@@ -17075,14 +17075,14 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5">
-      <c r="A22" s="154"/>
-      <c r="B22" s="151"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="153"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="154"/>
     </row>
     <row r="23" spans="1:4" ht="16.5">
-      <c r="A23" s="154"/>
-      <c r="B23" s="154" t="s">
+      <c r="A23" s="151"/>
+      <c r="B23" s="151" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -17093,8 +17093,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5">
-      <c r="A24" s="154"/>
-      <c r="B24" s="154"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="2" t="s">
         <v>28</v>
       </c>
@@ -17103,8 +17103,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5">
-      <c r="A25" s="154"/>
-      <c r="B25" s="154"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="151"/>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
@@ -17113,8 +17113,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5">
-      <c r="A26" s="154"/>
-      <c r="B26" s="154"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="151"/>
       <c r="C26" s="2" t="s">
         <v>30</v>
       </c>
@@ -17123,8 +17123,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5">
-      <c r="A27" s="154"/>
-      <c r="B27" s="154"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="151"/>
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
@@ -17133,8 +17133,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5">
-      <c r="A28" s="154"/>
-      <c r="B28" s="154"/>
+      <c r="A28" s="151"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="2" t="s">
         <v>32</v>
       </c>
@@ -17143,8 +17143,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5">
-      <c r="A29" s="154"/>
-      <c r="B29" s="154"/>
+      <c r="A29" s="151"/>
+      <c r="B29" s="151"/>
       <c r="C29" s="2" t="s">
         <v>33</v>
       </c>
@@ -17153,8 +17153,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5">
-      <c r="A30" s="154"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="151"/>
       <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
@@ -17163,8 +17163,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5">
-      <c r="A31" s="154"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="151"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
@@ -17173,8 +17173,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5">
-      <c r="A32" s="154"/>
-      <c r="B32" s="154"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
@@ -17183,8 +17183,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="16.5">
-      <c r="A33" s="154"/>
-      <c r="B33" s="154"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="151"/>
       <c r="C33" s="2" t="s">
         <v>39</v>
       </c>
@@ -17193,8 +17193,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="16.5">
-      <c r="A34" s="154"/>
-      <c r="B34" s="154"/>
+      <c r="A34" s="151"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="2" t="s">
         <v>40</v>
       </c>
@@ -17203,14 +17203,14 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="16.5">
-      <c r="A35" s="154"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="153"/>
+      <c r="A35" s="151"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="154"/>
     </row>
     <row r="36" spans="1:4" ht="16.5">
-      <c r="A36" s="154"/>
-      <c r="B36" s="154" t="s">
+      <c r="A36" s="151"/>
+      <c r="B36" s="151" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -17221,8 +17221,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="16.5">
-      <c r="A37" s="154"/>
-      <c r="B37" s="154"/>
+      <c r="A37" s="151"/>
+      <c r="B37" s="151"/>
       <c r="C37" s="2" t="s">
         <v>42</v>
       </c>
@@ -17231,8 +17231,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="16.5">
-      <c r="A38" s="154"/>
-      <c r="B38" s="154"/>
+      <c r="A38" s="151"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="2" t="s">
         <v>36</v>
       </c>
@@ -17241,8 +17241,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="16.5">
-      <c r="A39" s="154"/>
-      <c r="B39" s="154"/>
+      <c r="A39" s="151"/>
+      <c r="B39" s="151"/>
       <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
@@ -17251,8 +17251,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="16.5">
-      <c r="A40" s="154"/>
-      <c r="B40" s="154"/>
+      <c r="A40" s="151"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="2" t="s">
         <v>44</v>
       </c>
@@ -17261,8 +17261,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="16.5">
-      <c r="A41" s="154"/>
-      <c r="B41" s="154"/>
+      <c r="A41" s="151"/>
+      <c r="B41" s="151"/>
       <c r="C41" s="2" t="s">
         <v>45</v>
       </c>
@@ -17271,8 +17271,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="16.5">
-      <c r="A42" s="154"/>
-      <c r="B42" s="154"/>
+      <c r="A42" s="151"/>
+      <c r="B42" s="151"/>
       <c r="C42" s="2" t="s">
         <v>46</v>
       </c>
@@ -17281,8 +17281,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="16.5">
-      <c r="A43" s="154"/>
-      <c r="B43" s="154"/>
+      <c r="A43" s="151"/>
+      <c r="B43" s="151"/>
       <c r="C43" s="2" t="s">
         <v>47</v>
       </c>
@@ -17291,8 +17291,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="16.5">
-      <c r="A44" s="154"/>
-      <c r="B44" s="154"/>
+      <c r="A44" s="151"/>
+      <c r="B44" s="151"/>
       <c r="C44" s="2" t="s">
         <v>48</v>
       </c>
@@ -17301,8 +17301,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16.5">
-      <c r="A45" s="154"/>
-      <c r="B45" s="154"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="151"/>
       <c r="C45" s="2" t="s">
         <v>49</v>
       </c>
@@ -17311,8 +17311,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="16.5">
-      <c r="A46" s="154"/>
-      <c r="B46" s="154"/>
+      <c r="A46" s="151"/>
+      <c r="B46" s="151"/>
       <c r="C46" s="2" t="s">
         <v>50</v>
       </c>
@@ -17321,8 +17321,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="16.5">
-      <c r="A47" s="154"/>
-      <c r="B47" s="154"/>
+      <c r="A47" s="151"/>
+      <c r="B47" s="151"/>
       <c r="C47" s="2" t="s">
         <v>51</v>
       </c>
@@ -17331,8 +17331,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="16.5">
-      <c r="A48" s="154"/>
-      <c r="B48" s="154"/>
+      <c r="A48" s="151"/>
+      <c r="B48" s="151"/>
       <c r="C48" s="2" t="s">
         <v>52</v>
       </c>
@@ -17341,8 +17341,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="16.5">
-      <c r="A49" s="154"/>
-      <c r="B49" s="154"/>
+      <c r="A49" s="151"/>
+      <c r="B49" s="151"/>
       <c r="C49" s="2" t="s">
         <v>53</v>
       </c>
@@ -17351,8 +17351,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="16.5">
-      <c r="A50" s="154"/>
-      <c r="B50" s="154"/>
+      <c r="A50" s="151"/>
+      <c r="B50" s="151"/>
       <c r="C50" s="2" t="s">
         <v>54</v>
       </c>
@@ -17361,8 +17361,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="16.5">
-      <c r="A51" s="154"/>
-      <c r="B51" s="154"/>
+      <c r="A51" s="151"/>
+      <c r="B51" s="151"/>
       <c r="C51" s="2" t="s">
         <v>55</v>
       </c>
@@ -17371,14 +17371,14 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="16.5">
-      <c r="A52" s="154"/>
-      <c r="B52" s="151"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="153"/>
+      <c r="A52" s="151"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="154"/>
     </row>
     <row r="53" spans="1:4" ht="16.5">
-      <c r="A53" s="154"/>
-      <c r="B53" s="154" t="s">
+      <c r="A53" s="151"/>
+      <c r="B53" s="151" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -17389,8 +17389,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="16.5">
-      <c r="A54" s="154"/>
-      <c r="B54" s="154"/>
+      <c r="A54" s="151"/>
+      <c r="B54" s="151"/>
       <c r="C54" s="2" t="s">
         <v>58</v>
       </c>
@@ -17399,8 +17399,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="16.5">
-      <c r="A55" s="154"/>
-      <c r="B55" s="154"/>
+      <c r="A55" s="151"/>
+      <c r="B55" s="151"/>
       <c r="C55" s="2" t="s">
         <v>59</v>
       </c>
@@ -17409,8 +17409,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="16.5">
-      <c r="A56" s="154"/>
-      <c r="B56" s="154"/>
+      <c r="A56" s="151"/>
+      <c r="B56" s="151"/>
       <c r="C56" s="2" t="s">
         <v>60</v>
       </c>
@@ -17419,8 +17419,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="16.5">
-      <c r="A57" s="154"/>
-      <c r="B57" s="154"/>
+      <c r="A57" s="151"/>
+      <c r="B57" s="151"/>
       <c r="C57" s="2" t="s">
         <v>61</v>
       </c>
@@ -17429,8 +17429,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="16.5">
-      <c r="A58" s="154"/>
-      <c r="B58" s="154"/>
+      <c r="A58" s="151"/>
+      <c r="B58" s="151"/>
       <c r="C58" s="2" t="s">
         <v>62</v>
       </c>
@@ -17439,8 +17439,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="16.5">
-      <c r="A59" s="154"/>
-      <c r="B59" s="154"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="151"/>
       <c r="C59" s="2" t="s">
         <v>63</v>
       </c>
@@ -17449,16 +17449,16 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="16.5">
-      <c r="A60" s="151"/>
-      <c r="B60" s="152"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="153"/>
+      <c r="A60" s="152"/>
+      <c r="B60" s="153"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="154"/>
     </row>
     <row r="61" spans="1:4" ht="16.5">
-      <c r="A61" s="154" t="s">
+      <c r="A61" s="151" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="154" t="s">
+      <c r="B61" s="151" t="s">
         <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -17469,8 +17469,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="16.5">
-      <c r="A62" s="154"/>
-      <c r="B62" s="154"/>
+      <c r="A62" s="151"/>
+      <c r="B62" s="151"/>
       <c r="C62" s="2" t="s">
         <v>67</v>
       </c>
@@ -17479,8 +17479,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="16.5">
-      <c r="A63" s="154"/>
-      <c r="B63" s="154"/>
+      <c r="A63" s="151"/>
+      <c r="B63" s="151"/>
       <c r="C63" s="2" t="s">
         <v>68</v>
       </c>
@@ -17489,8 +17489,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="16.5">
-      <c r="A64" s="154"/>
-      <c r="B64" s="154"/>
+      <c r="A64" s="151"/>
+      <c r="B64" s="151"/>
       <c r="C64" s="2" t="s">
         <v>69</v>
       </c>
@@ -17499,8 +17499,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="16.5">
-      <c r="A65" s="154"/>
-      <c r="B65" s="154"/>
+      <c r="A65" s="151"/>
+      <c r="B65" s="151"/>
       <c r="C65" s="2" t="s">
         <v>227</v>
       </c>
@@ -17509,8 +17509,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="16.5">
-      <c r="A66" s="154"/>
-      <c r="B66" s="154"/>
+      <c r="A66" s="151"/>
+      <c r="B66" s="151"/>
       <c r="C66" s="2" t="s">
         <v>228</v>
       </c>
@@ -17519,14 +17519,14 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="16.5">
-      <c r="A67" s="154"/>
-      <c r="B67" s="151"/>
-      <c r="C67" s="152"/>
-      <c r="D67" s="153"/>
+      <c r="A67" s="151"/>
+      <c r="B67" s="152"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
     </row>
     <row r="68" spans="1:4" ht="16.5">
-      <c r="A68" s="154"/>
-      <c r="B68" s="154" t="s">
+      <c r="A68" s="151"/>
+      <c r="B68" s="151" t="s">
         <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -17537,8 +17537,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="16.5">
-      <c r="A69" s="154"/>
-      <c r="B69" s="154"/>
+      <c r="A69" s="151"/>
+      <c r="B69" s="151"/>
       <c r="C69" s="2" t="s">
         <v>73</v>
       </c>
@@ -17547,8 +17547,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="16.5">
-      <c r="A70" s="154"/>
-      <c r="B70" s="154"/>
+      <c r="A70" s="151"/>
+      <c r="B70" s="151"/>
       <c r="C70" s="2" t="s">
         <v>74</v>
       </c>
@@ -17557,8 +17557,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="16.5">
-      <c r="A71" s="154"/>
-      <c r="B71" s="154"/>
+      <c r="A71" s="151"/>
+      <c r="B71" s="151"/>
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
@@ -17567,8 +17567,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="16.5">
-      <c r="A72" s="154"/>
-      <c r="B72" s="154"/>
+      <c r="A72" s="151"/>
+      <c r="B72" s="151"/>
       <c r="C72" s="2" t="s">
         <v>76</v>
       </c>
@@ -17577,8 +17577,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="16.5">
-      <c r="A73" s="154"/>
-      <c r="B73" s="154"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="151"/>
       <c r="C73" s="2" t="s">
         <v>77</v>
       </c>
@@ -17587,8 +17587,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="16.5">
-      <c r="A74" s="154"/>
-      <c r="B74" s="154"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="151"/>
       <c r="C74" s="2" t="s">
         <v>78</v>
       </c>
@@ -17597,8 +17597,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="16.5">
-      <c r="A75" s="154"/>
-      <c r="B75" s="154"/>
+      <c r="A75" s="151"/>
+      <c r="B75" s="151"/>
       <c r="C75" s="2" t="s">
         <v>79</v>
       </c>
@@ -17607,8 +17607,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="16.5">
-      <c r="A76" s="154"/>
-      <c r="B76" s="154"/>
+      <c r="A76" s="151"/>
+      <c r="B76" s="151"/>
       <c r="C76" s="2" t="s">
         <v>80</v>
       </c>
@@ -17617,8 +17617,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="16.5">
-      <c r="A77" s="154"/>
-      <c r="B77" s="154"/>
+      <c r="A77" s="151"/>
+      <c r="B77" s="151"/>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
@@ -17627,14 +17627,14 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="16.5">
-      <c r="A78" s="154"/>
-      <c r="B78" s="151"/>
-      <c r="C78" s="152"/>
-      <c r="D78" s="153"/>
+      <c r="A78" s="151"/>
+      <c r="B78" s="152"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="154"/>
     </row>
     <row r="79" spans="1:4" ht="16.5">
-      <c r="A79" s="154"/>
-      <c r="B79" s="154" t="s">
+      <c r="A79" s="151"/>
+      <c r="B79" s="151" t="s">
         <v>82</v>
       </c>
       <c r="C79" s="2" t="s">
@@ -17645,8 +17645,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="16.5">
-      <c r="A80" s="154"/>
-      <c r="B80" s="154"/>
+      <c r="A80" s="151"/>
+      <c r="B80" s="151"/>
       <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
@@ -17655,8 +17655,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="16.5">
-      <c r="A81" s="154"/>
-      <c r="B81" s="154"/>
+      <c r="A81" s="151"/>
+      <c r="B81" s="151"/>
       <c r="C81" s="2" t="s">
         <v>85</v>
       </c>
@@ -17665,8 +17665,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="16.5">
-      <c r="A82" s="154"/>
-      <c r="B82" s="154"/>
+      <c r="A82" s="151"/>
+      <c r="B82" s="151"/>
       <c r="C82" s="2" t="s">
         <v>86</v>
       </c>
@@ -17675,8 +17675,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="16.5">
-      <c r="A83" s="154"/>
-      <c r="B83" s="154"/>
+      <c r="A83" s="151"/>
+      <c r="B83" s="151"/>
       <c r="C83" s="2" t="s">
         <v>87</v>
       </c>
@@ -17685,8 +17685,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="16.5">
-      <c r="A84" s="154"/>
-      <c r="B84" s="154"/>
+      <c r="A84" s="151"/>
+      <c r="B84" s="151"/>
       <c r="C84" s="2" t="s">
         <v>88</v>
       </c>
@@ -17695,14 +17695,14 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="16.5">
-      <c r="A85" s="154"/>
-      <c r="B85" s="151"/>
-      <c r="C85" s="152"/>
-      <c r="D85" s="153"/>
+      <c r="A85" s="151"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="154"/>
     </row>
     <row r="86" spans="1:4" ht="16.5">
-      <c r="A86" s="154"/>
-      <c r="B86" s="154" t="s">
+      <c r="A86" s="151"/>
+      <c r="B86" s="151" t="s">
         <v>89</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -17713,8 +17713,8 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="16.5">
-      <c r="A87" s="154"/>
-      <c r="B87" s="154"/>
+      <c r="A87" s="151"/>
+      <c r="B87" s="151"/>
       <c r="C87" s="2" t="s">
         <v>91</v>
       </c>
@@ -17723,8 +17723,8 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="16.5">
-      <c r="A88" s="154"/>
-      <c r="B88" s="154"/>
+      <c r="A88" s="151"/>
+      <c r="B88" s="151"/>
       <c r="C88" s="2" t="s">
         <v>92</v>
       </c>
@@ -17733,8 +17733,8 @@
       </c>
     </row>
     <row r="89" spans="1:4" ht="16.5">
-      <c r="A89" s="154"/>
-      <c r="B89" s="154"/>
+      <c r="A89" s="151"/>
+      <c r="B89" s="151"/>
       <c r="C89" s="2" t="s">
         <v>93</v>
       </c>
@@ -17743,16 +17743,16 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="16.5">
-      <c r="A90" s="151"/>
-      <c r="B90" s="152"/>
-      <c r="C90" s="152"/>
-      <c r="D90" s="153"/>
+      <c r="A90" s="152"/>
+      <c r="B90" s="153"/>
+      <c r="C90" s="153"/>
+      <c r="D90" s="154"/>
     </row>
     <row r="91" spans="1:4" ht="16.5">
-      <c r="A91" s="154" t="s">
+      <c r="A91" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="B91" s="154" t="s">
+      <c r="B91" s="151" t="s">
         <v>95</v>
       </c>
       <c r="C91" s="2" t="s">
@@ -17763,8 +17763,8 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="16.5">
-      <c r="A92" s="154"/>
-      <c r="B92" s="154"/>
+      <c r="A92" s="151"/>
+      <c r="B92" s="151"/>
       <c r="C92" s="2" t="s">
         <v>97</v>
       </c>
@@ -17773,8 +17773,8 @@
       </c>
     </row>
     <row r="93" spans="1:4" ht="16.5">
-      <c r="A93" s="154"/>
-      <c r="B93" s="154"/>
+      <c r="A93" s="151"/>
+      <c r="B93" s="151"/>
       <c r="C93" s="2" t="s">
         <v>98</v>
       </c>
@@ -17783,8 +17783,8 @@
       </c>
     </row>
     <row r="94" spans="1:4" ht="16.5">
-      <c r="A94" s="154"/>
-      <c r="B94" s="154"/>
+      <c r="A94" s="151"/>
+      <c r="B94" s="151"/>
       <c r="C94" s="2" t="s">
         <v>99</v>
       </c>
@@ -17793,8 +17793,8 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="16.5">
-      <c r="A95" s="154"/>
-      <c r="B95" s="154"/>
+      <c r="A95" s="151"/>
+      <c r="B95" s="151"/>
       <c r="C95" s="2" t="s">
         <v>100</v>
       </c>
@@ -17803,8 +17803,8 @@
       </c>
     </row>
     <row r="96" spans="1:4" ht="16.5">
-      <c r="A96" s="154"/>
-      <c r="B96" s="154"/>
+      <c r="A96" s="151"/>
+      <c r="B96" s="151"/>
       <c r="C96" s="2" t="s">
         <v>101</v>
       </c>
@@ -17813,8 +17813,8 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="16.5">
-      <c r="A97" s="154"/>
-      <c r="B97" s="154"/>
+      <c r="A97" s="151"/>
+      <c r="B97" s="151"/>
       <c r="C97" s="2" t="s">
         <v>102</v>
       </c>
@@ -17823,8 +17823,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="16.5">
-      <c r="A98" s="154"/>
-      <c r="B98" s="154"/>
+      <c r="A98" s="151"/>
+      <c r="B98" s="151"/>
       <c r="C98" s="2" t="s">
         <v>103</v>
       </c>
@@ -17833,8 +17833,8 @@
       </c>
     </row>
     <row r="99" spans="1:4" ht="16.5">
-      <c r="A99" s="154"/>
-      <c r="B99" s="154"/>
+      <c r="A99" s="151"/>
+      <c r="B99" s="151"/>
       <c r="C99" s="2" t="s">
         <v>104</v>
       </c>
@@ -17843,8 +17843,8 @@
       </c>
     </row>
     <row r="100" spans="1:4" ht="16.5">
-      <c r="A100" s="154"/>
-      <c r="B100" s="154"/>
+      <c r="A100" s="151"/>
+      <c r="B100" s="151"/>
       <c r="C100" s="2" t="s">
         <v>105</v>
       </c>
@@ -17853,8 +17853,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="16.5">
-      <c r="A101" s="154"/>
-      <c r="B101" s="154"/>
+      <c r="A101" s="151"/>
+      <c r="B101" s="151"/>
       <c r="C101" s="2" t="s">
         <v>106</v>
       </c>
@@ -17863,8 +17863,8 @@
       </c>
     </row>
     <row r="102" spans="1:4" ht="16.5">
-      <c r="A102" s="154"/>
-      <c r="B102" s="154"/>
+      <c r="A102" s="151"/>
+      <c r="B102" s="151"/>
       <c r="C102" s="2" t="s">
         <v>107</v>
       </c>
@@ -17873,8 +17873,8 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="16.5">
-      <c r="A103" s="154"/>
-      <c r="B103" s="154"/>
+      <c r="A103" s="151"/>
+      <c r="B103" s="151"/>
       <c r="C103" s="2" t="s">
         <v>108</v>
       </c>
@@ -17883,8 +17883,8 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="16.5">
-      <c r="A104" s="154"/>
-      <c r="B104" s="154"/>
+      <c r="A104" s="151"/>
+      <c r="B104" s="151"/>
       <c r="C104" s="2" t="s">
         <v>109</v>
       </c>
@@ -17893,8 +17893,8 @@
       </c>
     </row>
     <row r="105" spans="1:4" ht="16.5">
-      <c r="A105" s="154"/>
-      <c r="B105" s="154"/>
+      <c r="A105" s="151"/>
+      <c r="B105" s="151"/>
       <c r="C105" s="2" t="s">
         <v>110</v>
       </c>
@@ -17903,8 +17903,8 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="16.5">
-      <c r="A106" s="154"/>
-      <c r="B106" s="154"/>
+      <c r="A106" s="151"/>
+      <c r="B106" s="151"/>
       <c r="C106" s="2" t="s">
         <v>111</v>
       </c>
@@ -17913,8 +17913,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" ht="16.5">
-      <c r="A107" s="154"/>
-      <c r="B107" s="154"/>
+      <c r="A107" s="151"/>
+      <c r="B107" s="151"/>
       <c r="C107" s="2" t="s">
         <v>112</v>
       </c>
@@ -17923,8 +17923,8 @@
       </c>
     </row>
     <row r="108" spans="1:4" ht="16.5">
-      <c r="A108" s="154"/>
-      <c r="B108" s="154"/>
+      <c r="A108" s="151"/>
+      <c r="B108" s="151"/>
       <c r="C108" s="2" t="s">
         <v>113</v>
       </c>
@@ -17933,8 +17933,8 @@
       </c>
     </row>
     <row r="109" spans="1:4" ht="16.5">
-      <c r="A109" s="154"/>
-      <c r="B109" s="154"/>
+      <c r="A109" s="151"/>
+      <c r="B109" s="151"/>
       <c r="C109" s="2" t="s">
         <v>114</v>
       </c>
@@ -17943,8 +17943,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="16.5">
-      <c r="A110" s="154"/>
-      <c r="B110" s="154"/>
+      <c r="A110" s="151"/>
+      <c r="B110" s="151"/>
       <c r="C110" s="2" t="s">
         <v>115</v>
       </c>
@@ -17953,16 +17953,16 @@
       </c>
     </row>
     <row r="111" spans="1:4" ht="16.5">
-      <c r="A111" s="151"/>
-      <c r="B111" s="152"/>
-      <c r="C111" s="152"/>
-      <c r="D111" s="153"/>
+      <c r="A111" s="152"/>
+      <c r="B111" s="153"/>
+      <c r="C111" s="153"/>
+      <c r="D111" s="154"/>
     </row>
     <row r="112" spans="1:4" ht="16.5">
-      <c r="A112" s="154" t="s">
+      <c r="A112" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="B112" s="154" t="s">
+      <c r="B112" s="151" t="s">
         <v>116</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -17973,8 +17973,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" ht="16.5">
-      <c r="A113" s="154"/>
-      <c r="B113" s="154"/>
+      <c r="A113" s="151"/>
+      <c r="B113" s="151"/>
       <c r="C113" s="2" t="s">
         <v>118</v>
       </c>
@@ -17983,8 +17983,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" ht="16.5">
-      <c r="A114" s="154"/>
-      <c r="B114" s="154"/>
+      <c r="A114" s="151"/>
+      <c r="B114" s="151"/>
       <c r="C114" s="2" t="s">
         <v>119</v>
       </c>
@@ -17993,8 +17993,8 @@
       </c>
     </row>
     <row r="115" spans="1:4" ht="16.5">
-      <c r="A115" s="154"/>
-      <c r="B115" s="154"/>
+      <c r="A115" s="151"/>
+      <c r="B115" s="151"/>
       <c r="C115" s="2" t="s">
         <v>120</v>
       </c>
@@ -18003,8 +18003,8 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="16.5">
-      <c r="A116" s="154"/>
-      <c r="B116" s="154"/>
+      <c r="A116" s="151"/>
+      <c r="B116" s="151"/>
       <c r="C116" s="2" t="s">
         <v>121</v>
       </c>
@@ -18013,8 +18013,8 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="16.5">
-      <c r="A117" s="154"/>
-      <c r="B117" s="154"/>
+      <c r="A117" s="151"/>
+      <c r="B117" s="151"/>
       <c r="C117" s="2" t="s">
         <v>122</v>
       </c>
@@ -18024,18 +18024,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A91:A110"/>
-    <mergeCell ref="A112:A117"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="A61:A89"/>
-    <mergeCell ref="B68:B77"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B91:B110"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B61:B66"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A111:D111"/>
@@ -18049,6 +18037,18 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A91:A110"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="A61:A89"/>
+    <mergeCell ref="B68:B77"/>
+    <mergeCell ref="B79:B84"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="B91:B110"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B61:B66"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19577,7 +19577,7 @@
       <c r="D31" s="46"/>
     </row>
     <row r="33" spans="1:4" ht="94.5">
-      <c r="A33" s="192" t="s">
+      <c r="A33" s="195" t="s">
         <v>1039</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -19591,35 +19591,35 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="194"/>
+      <c r="A34" s="196"/>
       <c r="B34" t="s">
         <v>1025</v>
       </c>
       <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="194"/>
+      <c r="A35" s="196"/>
       <c r="B35" t="s">
         <v>1026</v>
       </c>
       <c r="D35" s="43"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="194"/>
+      <c r="A36" s="196"/>
       <c r="B36" t="s">
         <v>1027</v>
       </c>
       <c r="D36" s="43"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="194"/>
+      <c r="A37" s="196"/>
       <c r="B37" t="s">
         <v>997</v>
       </c>
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="193"/>
+      <c r="A38" s="197"/>
       <c r="B38" s="45" t="s">
         <v>1027</v>
       </c>
@@ -19627,7 +19627,7 @@
       <c r="D38" s="46"/>
     </row>
     <row r="40" spans="1:4" ht="67.5">
-      <c r="A40" s="192" t="s">
+      <c r="A40" s="195" t="s">
         <v>1041</v>
       </c>
       <c r="B40" s="40" t="s">
@@ -19639,7 +19639,7 @@
       <c r="D40" s="41"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="193"/>
+      <c r="A41" s="197"/>
       <c r="B41" s="45" t="s">
         <v>1029</v>
       </c>
@@ -19652,7 +19652,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="94.5">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="195" t="s">
         <v>1043</v>
       </c>
       <c r="B44" s="40" t="s">
@@ -19666,42 +19666,42 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="194"/>
+      <c r="A45" s="196"/>
       <c r="B45" t="s">
         <v>1031</v>
       </c>
       <c r="D45" s="43"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="194"/>
+      <c r="A46" s="196"/>
       <c r="B46" t="s">
         <v>1032</v>
       </c>
       <c r="D46" s="43"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="194"/>
+      <c r="A47" s="196"/>
       <c r="B47" t="s">
         <v>1033</v>
       </c>
       <c r="D47" s="43"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="194"/>
+      <c r="A48" s="196"/>
       <c r="B48" t="s">
         <v>1034</v>
       </c>
       <c r="D48" s="43"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="194"/>
+      <c r="A49" s="196"/>
       <c r="B49" t="s">
         <v>1035</v>
       </c>
       <c r="D49" s="43"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="193"/>
+      <c r="A50" s="197"/>
       <c r="B50" s="45"/>
       <c r="C50" s="45"/>
       <c r="D50" s="46"/>
@@ -19947,7 +19947,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="94.5">
-      <c r="A82" s="195" t="s">
+      <c r="A82" s="192" t="s">
         <v>1090</v>
       </c>
       <c r="B82" s="40" t="s">
@@ -19961,21 +19961,21 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="196"/>
+      <c r="A83" s="193"/>
       <c r="B83" t="s">
         <v>1092</v>
       </c>
       <c r="D83" s="43"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="196"/>
+      <c r="A84" s="193"/>
       <c r="B84" t="s">
         <v>1093</v>
       </c>
       <c r="D84" s="43"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="197"/>
+      <c r="A85" s="194"/>
       <c r="B85" s="45" t="s">
         <v>1094</v>
       </c>
@@ -19983,7 +19983,7 @@
       <c r="D85" s="46"/>
     </row>
     <row r="87" spans="1:4" ht="30" customHeight="1">
-      <c r="A87" s="195" t="s">
+      <c r="A87" s="192" t="s">
         <v>1100</v>
       </c>
       <c r="B87" s="40" t="s">
@@ -19997,7 +19997,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="196"/>
+      <c r="A88" s="193"/>
       <c r="B88" t="s">
         <v>1102</v>
       </c>
@@ -20009,7 +20009,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="196"/>
+      <c r="A89" s="193"/>
       <c r="B89" t="s">
         <v>1103</v>
       </c>
@@ -20021,7 +20021,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="196"/>
+      <c r="A90" s="193"/>
       <c r="B90" t="s">
         <v>1102</v>
       </c>
@@ -20033,7 +20033,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="196"/>
+      <c r="A91" s="193"/>
       <c r="B91" t="s">
         <v>1104</v>
       </c>
@@ -20043,28 +20043,28 @@
       <c r="D91" s="43"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="196"/>
+      <c r="A92" s="193"/>
       <c r="B92" t="s">
         <v>1102</v>
       </c>
       <c r="D92" s="43"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="196"/>
+      <c r="A93" s="193"/>
       <c r="B93" t="s">
         <v>535</v>
       </c>
       <c r="D93" s="43"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="196"/>
+      <c r="A94" s="193"/>
       <c r="B94" t="s">
         <v>1105</v>
       </c>
       <c r="D94" s="43"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="197"/>
+      <c r="A95" s="194"/>
       <c r="B95" s="45" t="s">
         <v>1106</v>
       </c>
@@ -20072,7 +20072,7 @@
       <c r="D95" s="46"/>
     </row>
     <row r="97" spans="1:4" ht="30" customHeight="1">
-      <c r="A97" s="192" t="s">
+      <c r="A97" s="195" t="s">
         <v>1113</v>
       </c>
       <c r="B97" s="54" t="s">
@@ -20084,7 +20084,7 @@
       <c r="D97" s="55"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="194"/>
+      <c r="A98" s="196"/>
       <c r="B98" s="56" t="s">
         <v>1114</v>
       </c>
@@ -20094,7 +20094,7 @@
       <c r="D98" s="57"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="194"/>
+      <c r="A99" s="196"/>
       <c r="B99" s="56" t="s">
         <v>1103</v>
       </c>
@@ -20104,7 +20104,7 @@
       <c r="D99" s="57"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="194"/>
+      <c r="A100" s="196"/>
       <c r="B100" s="56" t="s">
         <v>1114</v>
       </c>
@@ -20114,7 +20114,7 @@
       <c r="D100" s="57"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="194"/>
+      <c r="A101" s="196"/>
       <c r="B101" s="56" t="s">
         <v>1104</v>
       </c>
@@ -20124,7 +20124,7 @@
       <c r="D101" s="57"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="193"/>
+      <c r="A102" s="197"/>
       <c r="B102" s="58" t="s">
         <v>1114</v>
       </c>
@@ -20181,22 +20181,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="A87:A95"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A105:A109"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A64:A68"/>
-    <mergeCell ref="A70:A73"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A38"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A64:A68"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="A87:A95"/>
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A105:A109"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21364,7 +21364,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="30" customHeight="1">
-      <c r="A125" s="192" t="s">
+      <c r="A125" s="195" t="s">
         <v>1311</v>
       </c>
       <c r="B125" s="39" t="s">
@@ -21375,21 +21375,21 @@
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="194"/>
+      <c r="A126" s="196"/>
       <c r="B126" s="42"/>
       <c r="C126" s="43" t="s">
         <v>1314</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="194"/>
+      <c r="A127" s="196"/>
       <c r="B127" s="44"/>
       <c r="C127" s="46" t="s">
         <v>1315</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="194"/>
+      <c r="A128" s="196"/>
       <c r="B128" t="s">
         <v>1126</v>
       </c>
@@ -21398,7 +21398,7 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="194"/>
+      <c r="A129" s="196"/>
       <c r="B129" s="39" t="s">
         <v>716</v>
       </c>
@@ -21407,14 +21407,14 @@
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="194"/>
+      <c r="A130" s="196"/>
       <c r="B130" s="44"/>
       <c r="C130" s="46" t="s">
         <v>1318</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="194"/>
+      <c r="A131" s="196"/>
       <c r="B131" s="39" t="s">
         <v>808</v>
       </c>
@@ -21423,14 +21423,14 @@
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="194"/>
+      <c r="A132" s="196"/>
       <c r="B132" s="44"/>
       <c r="C132" s="46" t="s">
         <v>1320</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133" s="193"/>
+      <c r="A133" s="197"/>
       <c r="B133" s="45" t="s">
         <v>1321</v>
       </c>
@@ -39815,8 +39815,8 @@
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -39847,7 +39847,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="158" t="s">
         <v>269</v>
       </c>
       <c r="B2" s="140" t="s">
@@ -39871,7 +39871,7 @@
       <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="164"/>
+      <c r="A3" s="158"/>
       <c r="B3" s="140" t="s">
         <v>6</v>
       </c>
@@ -39893,7 +39893,7 @@
       <c r="J3" s="144"/>
     </row>
     <row r="4" spans="1:10" s="145" customFormat="1">
-      <c r="A4" s="164"/>
+      <c r="A4" s="158"/>
       <c r="B4" s="142" t="s">
         <v>274</v>
       </c>
@@ -39917,7 +39917,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="164"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="140" t="s">
         <v>276</v>
       </c>
@@ -39939,7 +39939,7 @@
       <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="164"/>
+      <c r="A6" s="158"/>
       <c r="B6" s="140" t="s">
         <v>9</v>
       </c>
@@ -39961,7 +39961,7 @@
       <c r="J6" s="144"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="164"/>
+      <c r="A7" s="158"/>
       <c r="B7" s="140" t="s">
         <v>279</v>
       </c>
@@ -39983,7 +39983,7 @@
       <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="164"/>
+      <c r="A8" s="158"/>
       <c r="B8" s="140" t="s">
         <v>8</v>
       </c>
@@ -40005,7 +40005,7 @@
       <c r="J8" s="144"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="164"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="140" t="s">
         <v>282</v>
       </c>
@@ -40031,11 +40031,11 @@
       <c r="J9" s="144"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="161"/>
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="163"/>
+      <c r="A10" s="168"/>
+      <c r="B10" s="169"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="170"/>
       <c r="F10" s="144"/>
       <c r="G10" s="144"/>
       <c r="H10" s="144"/>
@@ -40043,7 +40043,7 @@
       <c r="J10" s="144"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="159" t="s">
         <v>283</v>
       </c>
       <c r="B11" s="142" t="s">
@@ -40067,7 +40067,7 @@
       <c r="J11" s="144"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="166"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="142" t="s">
         <v>298</v>
       </c>
@@ -40089,7 +40089,7 @@
       <c r="J12" s="144"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="166"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="142" t="s">
         <v>299</v>
       </c>
@@ -40111,7 +40111,7 @@
       <c r="J13" s="144"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="166"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="142" t="s">
         <v>301</v>
       </c>
@@ -40133,7 +40133,7 @@
       <c r="J14" s="144"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="166"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="142" t="s">
         <v>302</v>
       </c>
@@ -40155,7 +40155,7 @@
       <c r="J15" s="144"/>
     </row>
     <row r="16" spans="1:10" s="145" customFormat="1">
-      <c r="A16" s="166"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="142" t="s">
         <v>304</v>
       </c>
@@ -40179,7 +40179,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="145" customFormat="1">
-      <c r="A17" s="167"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="142" t="s">
         <v>306</v>
       </c>
@@ -40203,11 +40203,11 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="161"/>
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="163"/>
+      <c r="A18" s="168"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="170"/>
       <c r="F18" s="144"/>
       <c r="G18" s="144"/>
       <c r="H18" s="144"/>
@@ -40215,7 +40215,7 @@
       <c r="J18" s="144"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="164" t="s">
+      <c r="A19" s="158" t="s">
         <v>287</v>
       </c>
       <c r="B19" s="140" t="s">
@@ -40241,7 +40241,7 @@
       <c r="J19" s="144"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="164"/>
+      <c r="A20" s="158"/>
       <c r="B20" s="140" t="s">
         <v>43</v>
       </c>
@@ -40265,7 +40265,7 @@
       <c r="J20" s="144"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="164"/>
+      <c r="A21" s="158"/>
       <c r="B21" s="140" t="s">
         <v>309</v>
       </c>
@@ -40289,7 +40289,7 @@
       <c r="J21" s="144"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="164"/>
+      <c r="A22" s="158"/>
       <c r="B22" s="140" t="s">
         <v>311</v>
       </c>
@@ -40313,7 +40313,7 @@
       <c r="J22" s="144"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="164"/>
+      <c r="A23" s="158"/>
       <c r="B23" s="140" t="s">
         <v>313</v>
       </c>
@@ -40337,7 +40337,7 @@
       <c r="J23" s="144"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="164"/>
+      <c r="A24" s="158"/>
       <c r="B24" s="142" t="s">
         <v>315</v>
       </c>
@@ -40361,7 +40361,7 @@
       <c r="J24" s="144"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="164"/>
+      <c r="A25" s="158"/>
       <c r="B25" s="140" t="s">
         <v>316</v>
       </c>
@@ -40385,7 +40385,7 @@
       <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="164"/>
+      <c r="A26" s="158"/>
       <c r="B26" s="140" t="s">
         <v>318</v>
       </c>
@@ -40409,7 +40409,7 @@
       <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="164"/>
+      <c r="A27" s="158"/>
       <c r="B27" s="140" t="s">
         <v>319</v>
       </c>
@@ -40437,14 +40437,14 @@
       <c r="J27" s="144"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="151"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="153"/>
+      <c r="A28" s="152"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="165" t="s">
+      <c r="A29" s="159" t="s">
         <v>288</v>
       </c>
       <c r="B29" s="140" t="s">
@@ -40461,7 +40461,7 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="166"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="140" t="s">
         <v>67</v>
       </c>
@@ -40476,7 +40476,7 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="166"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="140" t="s">
         <v>323</v>
       </c>
@@ -40491,7 +40491,7 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="167"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="140" t="s">
         <v>325</v>
       </c>
@@ -40506,14 +40506,14 @@
       </c>
     </row>
     <row r="33" spans="1:8" s="144" customFormat="1">
-      <c r="A33" s="161"/>
-      <c r="B33" s="162"/>
-      <c r="C33" s="162"/>
-      <c r="D33" s="162"/>
-      <c r="E33" s="163"/>
+      <c r="A33" s="168"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="170"/>
     </row>
     <row r="34" spans="1:8" s="91" customFormat="1">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="162" t="s">
         <v>290</v>
       </c>
       <c r="B34" s="141" t="s">
@@ -40539,7 +40539,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" s="91" customFormat="1">
-      <c r="A35" s="169"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="141" t="s">
         <v>328</v>
       </c>
@@ -40563,7 +40563,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" s="91" customFormat="1">
-      <c r="A36" s="169"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="141" t="s">
         <v>330</v>
       </c>
@@ -40587,7 +40587,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" s="91" customFormat="1">
-      <c r="A37" s="169"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="141" t="s">
         <v>332</v>
       </c>
@@ -40611,7 +40611,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" s="91" customFormat="1">
-      <c r="A38" s="169"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="141" t="s">
         <v>97</v>
       </c>
@@ -40635,7 +40635,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" s="91" customFormat="1">
-      <c r="A39" s="169"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="141" t="s">
         <v>98</v>
       </c>
@@ -40659,7 +40659,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" s="91" customFormat="1">
-      <c r="A40" s="169"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="141" t="s">
         <v>334</v>
       </c>
@@ -40683,7 +40683,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" s="91" customFormat="1">
-      <c r="A41" s="170"/>
+      <c r="A41" s="164"/>
       <c r="B41" s="141" t="s">
         <v>107</v>
       </c>
@@ -40707,14 +40707,14 @@
       </c>
     </row>
     <row r="42" spans="1:8" s="144" customFormat="1">
-      <c r="A42" s="161"/>
-      <c r="B42" s="162"/>
-      <c r="C42" s="162"/>
-      <c r="D42" s="162"/>
-      <c r="E42" s="163"/>
+      <c r="A42" s="168"/>
+      <c r="B42" s="169"/>
+      <c r="C42" s="169"/>
+      <c r="D42" s="169"/>
+      <c r="E42" s="170"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="158" t="s">
+      <c r="A43" s="165" t="s">
         <v>292</v>
       </c>
       <c r="B43" s="140" t="s">
@@ -40731,7 +40731,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" s="91" customFormat="1">
-      <c r="A44" s="159"/>
+      <c r="A44" s="166"/>
       <c r="B44" s="140" t="s">
         <v>339</v>
       </c>
@@ -40746,7 +40746,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" s="91" customFormat="1">
-      <c r="A45" s="159"/>
+      <c r="A45" s="166"/>
       <c r="B45" s="140" t="s">
         <v>341</v>
       </c>
@@ -40761,7 +40761,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" s="91" customFormat="1">
-      <c r="A46" s="159"/>
+      <c r="A46" s="166"/>
       <c r="B46" s="140" t="s">
         <v>343</v>
       </c>
@@ -40776,7 +40776,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" s="91" customFormat="1">
-      <c r="A47" s="159"/>
+      <c r="A47" s="166"/>
       <c r="B47" s="142" t="s">
         <v>345</v>
       </c>
@@ -40791,7 +40791,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" s="91" customFormat="1">
-      <c r="A48" s="159"/>
+      <c r="A48" s="166"/>
       <c r="B48" s="142" t="s">
         <v>347</v>
       </c>
@@ -40806,7 +40806,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" s="91" customFormat="1">
-      <c r="A49" s="159"/>
+      <c r="A49" s="166"/>
       <c r="B49" s="142" t="s">
         <v>349</v>
       </c>
@@ -40821,7 +40821,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" s="91" customFormat="1">
-      <c r="A50" s="159"/>
+      <c r="A50" s="166"/>
       <c r="B50" s="149" t="s">
         <v>350</v>
       </c>
@@ -40836,7 +40836,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" s="91" customFormat="1">
-      <c r="A51" s="160"/>
+      <c r="A51" s="167"/>
       <c r="B51" s="142" t="s">
         <v>352</v>
       </c>
@@ -40852,17 +40852,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A34:A41"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A19:A27"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A34:A41"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41453,6 +41453,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A42:A45"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A10:A15"/>
@@ -41461,11 +41466,6 @@
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A40"/>
     <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42353,9 +42353,9 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="172"/>
-      <c r="B29" s="151"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="153"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="154"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="172"/>
@@ -42401,9 +42401,9 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="172"/>
-      <c r="B34" s="151"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="153"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="154"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="172"/>
@@ -42499,9 +42499,9 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="172"/>
-      <c r="B44" s="151"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="153"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="154"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="172"/>
@@ -42547,9 +42547,9 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="172"/>
-      <c r="B49" s="151"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="153"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="154"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="172"/>
@@ -42655,6 +42655,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B24:B28"/>
     <mergeCell ref="A24:A59"/>
     <mergeCell ref="B29:D29"/>
@@ -42665,14 +42673,6 @@
     <mergeCell ref="B45:B48"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B50:B59"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
